--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\2024 전자회로\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BFD3E7-7E95-4687-80F4-817BCB281473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0971217-A130-4D35-954A-10324F21DA7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1348,6 +1348,17 @@
     <xf numFmtId="4" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,10 +1367,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,13 +1374,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E48"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="F2" s="61"/>
       <c r="G2" s="61"/>
-      <c r="H2" s="107"/>
+      <c r="H2" s="106"/>
       <c r="I2" s="62"/>
       <c r="J2" s="63"/>
       <c r="K2" s="63"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
-      <c r="H3" s="108"/>
+      <c r="H3" s="107"/>
       <c r="I3" s="62"/>
       <c r="J3" s="63"/>
       <c r="K3" s="63"/>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
-      <c r="H4" s="107"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="62"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="107"/>
       <c r="I5" s="62"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
-      <c r="H6" s="107"/>
+      <c r="H6" s="106"/>
       <c r="I6" s="62"/>
       <c r="J6" s="63"/>
       <c r="K6" s="63"/>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="61"/>
-      <c r="H7" s="108"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="62"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="F8" s="61"/>
       <c r="G8" s="61"/>
-      <c r="H8" s="107"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="62"/>
       <c r="J8" s="63"/>
       <c r="K8" s="63"/>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="F9" s="61"/>
       <c r="G9" s="61"/>
-      <c r="H9" s="108"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="62"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
-      <c r="H10" s="107"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="62"/>
       <c r="J10" s="63"/>
       <c r="K10" s="63"/>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
-      <c r="H11" s="108"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="62"/>
       <c r="J11" s="63"/>
       <c r="K11" s="63"/>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
-      <c r="H12" s="107"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="62"/>
       <c r="J12" s="63"/>
       <c r="K12" s="63"/>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="61"/>
-      <c r="H13" s="108"/>
+      <c r="H13" s="107"/>
       <c r="I13" s="62"/>
       <c r="J13" s="71"/>
       <c r="K13" s="71"/>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="F14" s="61"/>
       <c r="G14" s="61"/>
-      <c r="H14" s="107"/>
+      <c r="H14" s="106"/>
       <c r="I14" s="62"/>
       <c r="J14" s="63"/>
       <c r="K14" s="63"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
-      <c r="H15" s="108"/>
+      <c r="H15" s="107"/>
       <c r="I15" s="62"/>
       <c r="J15" s="63"/>
       <c r="K15" s="63"/>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="61"/>
-      <c r="H17" s="107"/>
+      <c r="H17" s="106"/>
       <c r="I17" s="62"/>
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="F18" s="61"/>
       <c r="G18" s="61"/>
-      <c r="H18" s="107"/>
+      <c r="H18" s="106"/>
       <c r="I18" s="62"/>
       <c r="J18" s="63"/>
       <c r="K18" s="63"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="F19" s="61"/>
       <c r="G19" s="61"/>
-      <c r="H19" s="107"/>
+      <c r="H19" s="106"/>
       <c r="I19" s="62"/>
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="F20" s="61"/>
       <c r="G20" s="61"/>
-      <c r="H20" s="107"/>
+      <c r="H20" s="106"/>
       <c r="I20" s="62"/>
       <c r="J20" s="63"/>
       <c r="K20" s="63"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="F21" s="61"/>
       <c r="G21" s="61"/>
-      <c r="H21" s="107"/>
+      <c r="H21" s="106"/>
       <c r="I21" s="62"/>
       <c r="J21" s="63"/>
       <c r="K21" s="63"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F22" s="61"/>
       <c r="G22" s="61"/>
-      <c r="H22" s="108"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="62"/>
       <c r="J22" s="63"/>
       <c r="K22" s="63"/>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="F23" s="61"/>
       <c r="G23" s="61"/>
-      <c r="H23" s="109"/>
+      <c r="H23" s="112"/>
       <c r="I23" s="62"/>
       <c r="J23" s="63"/>
       <c r="K23" s="63"/>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="F24" s="61"/>
       <c r="G24" s="61"/>
-      <c r="H24" s="109"/>
+      <c r="H24" s="112"/>
       <c r="I24" s="62"/>
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="F25" s="87"/>
       <c r="G25" s="87"/>
-      <c r="H25" s="110"/>
+      <c r="H25" s="113"/>
       <c r="I25" s="88"/>
       <c r="J25" s="89"/>
       <c r="K25" s="89"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="F26" s="76"/>
       <c r="G26" s="76"/>
-      <c r="H26" s="111"/>
+      <c r="H26" s="114"/>
       <c r="I26" s="79"/>
       <c r="J26" s="80"/>
       <c r="K26" s="80"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
-      <c r="H27" s="104"/>
+      <c r="H27" s="109"/>
       <c r="I27" s="40"/>
       <c r="J27" s="41"/>
       <c r="K27" s="41"/>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
-      <c r="H28" s="103"/>
+      <c r="H28" s="108"/>
       <c r="I28" s="40"/>
       <c r="J28" s="41"/>
       <c r="K28" s="41"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
-      <c r="H29" s="104"/>
+      <c r="H29" s="109"/>
       <c r="I29" s="40"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
-      <c r="H30" s="103"/>
+      <c r="H30" s="108"/>
       <c r="I30" s="40"/>
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
-      <c r="H31" s="104"/>
+      <c r="H31" s="109"/>
       <c r="I31" s="40"/>
       <c r="J31" s="41"/>
       <c r="K31" s="41"/>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
-      <c r="H33" s="103"/>
+      <c r="H33" s="108"/>
       <c r="I33" s="40"/>
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
-      <c r="H34" s="104"/>
+      <c r="H34" s="109"/>
       <c r="I34" s="40"/>
       <c r="J34" s="41"/>
       <c r="K34" s="41"/>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
-      <c r="H36" s="103"/>
+      <c r="H36" s="108"/>
       <c r="I36" s="40"/>
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
-      <c r="H37" s="103"/>
+      <c r="H37" s="108"/>
       <c r="I37" s="40"/>
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
-      <c r="H38" s="104"/>
+      <c r="H38" s="109"/>
       <c r="I38" s="40"/>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
-      <c r="H39" s="103"/>
+      <c r="H39" s="108"/>
       <c r="I39" s="40"/>
       <c r="J39" s="41"/>
       <c r="K39" s="41"/>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
-      <c r="H40" s="103"/>
+      <c r="H40" s="108"/>
       <c r="I40" s="40"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
-      <c r="H41" s="103"/>
+      <c r="H41" s="108"/>
       <c r="I41" s="40"/>
       <c r="J41" s="41"/>
       <c r="K41" s="41"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
-      <c r="H42" s="104"/>
+      <c r="H42" s="109"/>
       <c r="I42" s="40"/>
       <c r="J42" s="41"/>
       <c r="K42" s="41"/>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
-      <c r="H43" s="103"/>
+      <c r="H43" s="108"/>
       <c r="I43" s="40"/>
       <c r="J43" s="41"/>
       <c r="K43" s="41"/>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
-      <c r="H44" s="104"/>
+      <c r="H44" s="109"/>
       <c r="I44" s="40"/>
       <c r="J44" s="41"/>
       <c r="K44" s="41"/>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="F45" s="49"/>
       <c r="G45" s="49"/>
-      <c r="H45" s="103"/>
+      <c r="H45" s="108"/>
       <c r="I45" s="50"/>
       <c r="J45" s="51"/>
       <c r="K45" s="51"/>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="F46" s="57"/>
       <c r="G46" s="57"/>
-      <c r="H46" s="105"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="50"/>
       <c r="J46" s="51"/>
       <c r="K46" s="51"/>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="F47" s="57"/>
       <c r="G47" s="57"/>
-      <c r="H47" s="105"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
       <c r="K47" s="51"/>
@@ -4689,24 +4689,24 @@
       <c r="AN47" s="39"/>
     </row>
     <row r="48" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="103" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="59">
-        <v>10</v>
-      </c>
-      <c r="C48" s="113">
+        <v>11</v>
+      </c>
+      <c r="C48" s="104">
         <v>202302238</v>
       </c>
-      <c r="D48" s="113" t="s">
+      <c r="D48" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="114">
+      <c r="E48" s="105">
         <v>1071157029</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
-      <c r="H48" s="106"/>
+      <c r="H48" s="111"/>
       <c r="I48" s="40"/>
       <c r="J48" s="41"/>
       <c r="K48" s="41"/>
@@ -5546,6 +5546,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="H33:H34"/>
@@ -5555,14 +5563,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="H17:H22"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5753,18 +5753,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5786,14 +5786,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5807,4 +5799,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0971217-A130-4D35-954A-10324F21DA7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D5B16-08E9-4589-B14D-B92AA681C7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023년도 학생명부 및 채점표" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -577,9 +588,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0\ ;\-0.0"/>
-    <numFmt numFmtId="177" formatCode="0\ ;\-0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1056,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1067,27 +1077,12 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,40 +1095,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1163,27 +1125,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,27 +1134,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1227,45 +1147,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,76 +1159,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1355,10 +1173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,6 +1181,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1374,6 +1192,130 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1603,8 +1545,8 @@
   </sheetPr>
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1615,3945 +1557,4031 @@
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="30" width="11.42578125" customWidth="1"/>
-    <col min="38" max="38" width="11.140625" customWidth="1"/>
-    <col min="40" max="40" width="10.85546875" customWidth="1"/>
+    <col min="9" max="30" width="11.42578125" style="92" customWidth="1"/>
+    <col min="31" max="37" width="12.5703125" style="92"/>
+    <col min="38" max="38" width="11.140625" style="92" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" style="92"/>
+    <col min="40" max="40" width="10.85546875" style="92" customWidth="1"/>
     <col min="41" max="41" width="3.28515625" customWidth="1"/>
     <col min="43" max="43" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AG1" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="AH1" s="25" t="s">
+      <c r="AH1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AK1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="59" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="31">
         <v>1</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="13">
         <v>201902340</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="11">
         <v>1062616855</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="68">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="51">
+        <v>9</v>
+      </c>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="63">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="63">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="61">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
         <v>0</v>
       </c>
-      <c r="AK2" s="63">
+      <c r="AK2" s="61">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
         <v>0</v>
       </c>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="70">
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>0</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="AN2" s="61"/>
     </row>
     <row r="3" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="14">
         <v>202002164</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="12">
         <v>1040770178</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="68">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51">
+        <v>10</v>
+      </c>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="63">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK3" s="63">
+      <c r="AK3" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="70">
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>0</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="AN3" s="61"/>
     </row>
     <row r="4" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="31">
         <v>2</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="14">
         <v>202102174</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="15">
         <v>1035483107</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="68">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="51">
+        <v>8</v>
+      </c>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="63">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK4" s="63">
+      <c r="AK4" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="70">
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="AN4" s="61"/>
     </row>
     <row r="5" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="31">
         <v>2</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="14">
         <v>202102176</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="15">
         <v>1034885660</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="68">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="51">
+        <v>10</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="63">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK5" s="63">
+      <c r="AK5" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="70">
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="AN5" s="61"/>
     </row>
     <row r="6" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="14">
         <v>202102180</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="15">
         <v>1068481280</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="68">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="51">
+        <v>9</v>
+      </c>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="63">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK6" s="63">
+      <c r="AK6" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="70">
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="AN6" s="61"/>
     </row>
     <row r="7" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="14">
         <v>202102181</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="15">
         <v>1087003498</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="68">
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="51">
+        <v>9</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="63">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="63">
+      <c r="AK7" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="70">
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="AN7" s="61"/>
     </row>
     <row r="8" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="31">
         <v>4</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="14">
         <v>202102185</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="15">
         <v>1055950902</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="68">
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="51">
+        <v>8.5</v>
+      </c>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="63">
+        <v>8.5</v>
+      </c>
+      <c r="AJ8" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="63">
+      <c r="AK8" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="70">
+      <c r="AL8" s="61"/>
+      <c r="AM8" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3181818181818183</v>
       </c>
       <c r="AN8" s="61"/>
     </row>
     <row r="9" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="31">
         <v>4</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="14">
         <v>202102186</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="15">
         <v>1026607868</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="68">
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="51">
+        <v>6.5</v>
+      </c>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="63">
+        <v>6.5</v>
+      </c>
+      <c r="AJ9" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK9" s="63">
+      <c r="AK9" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="69"/>
-      <c r="AM9" s="70">
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.7727272727272727</v>
       </c>
       <c r="AN9" s="61"/>
     </row>
     <row r="10" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="31">
         <v>5</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="14">
         <v>202102191</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="15">
         <v>1053735886</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="68">
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="51">
+        <v>10</v>
+      </c>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="63">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK10" s="63">
+      <c r="AK10" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="70">
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="AN10" s="61"/>
     </row>
     <row r="11" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="31">
         <v>5</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="14">
         <v>202102194</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="15">
         <v>1025098390</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="68">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="51">
+        <v>10</v>
+      </c>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="63">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK11" s="63">
+      <c r="AK11" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="70">
+      <c r="AL11" s="61"/>
+      <c r="AM11" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="AN11" s="61"/>
     </row>
     <row r="12" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="31">
         <v>6</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="14">
         <v>202102204</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="15">
         <v>1095120261</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="63"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="68">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="51">
+        <v>8.5</v>
+      </c>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="63">
+        <v>8.5</v>
+      </c>
+      <c r="AJ12" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="63">
+      <c r="AK12" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="70">
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3181818181818183</v>
       </c>
       <c r="AN12" s="61"/>
     </row>
     <row r="13" spans="1:40" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="31">
         <v>6</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="14">
         <v>202102206</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="15">
         <v>1038055177</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="68">
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51">
+        <v>7</v>
+      </c>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="63">
+        <v>7</v>
+      </c>
+      <c r="AJ13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="63">
+      <c r="AK13" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="70">
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.9090909090909089</v>
       </c>
       <c r="AN13" s="61"/>
     </row>
     <row r="14" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="31">
         <v>7</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="14">
         <v>202102213</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="15">
         <v>1062944063</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="68">
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="51">
+        <v>9</v>
+      </c>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="63">
+        <v>9</v>
+      </c>
+      <c r="AJ14" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="63">
+      <c r="AK14" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="70">
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="AN14" s="61"/>
     </row>
     <row r="15" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="31">
         <v>7</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="14">
         <v>202200893</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="15">
         <v>1066458590</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="68">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="63">
+      <c r="AJ15" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="63">
+      <c r="AK15" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="70">
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN15" s="61"/>
     </row>
     <row r="16" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="31">
         <v>8</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="14">
         <v>202302201</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="15">
         <v>1057564673</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="68">
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="51">
+        <v>0</v>
+      </c>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ16" s="63">
+      <c r="AJ16" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="63">
+      <c r="AK16" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="70">
+      <c r="AL16" s="61"/>
+      <c r="AM16" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN16" s="61"/>
     </row>
     <row r="17" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="31">
         <v>8</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="14">
         <v>202302202</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="15">
         <v>1075748239</v>
       </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="68">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="51">
+        <v>0</v>
+      </c>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="63">
+      <c r="AJ17" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="63">
+      <c r="AK17" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="70">
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN17" s="61"/>
     </row>
     <row r="18" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="31">
         <v>9</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="14">
         <v>202302205</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="15">
         <v>1080108037</v>
       </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="68">
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="51">
+        <v>8</v>
+      </c>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="63">
+        <v>8</v>
+      </c>
+      <c r="AJ18" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="63">
+      <c r="AK18" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="70">
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="AN18" s="61"/>
     </row>
     <row r="19" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="31">
         <v>9</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="14">
         <v>202302209</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="15">
         <v>1028429638</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="68">
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="51">
+        <v>8</v>
+      </c>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="63">
+        <v>8</v>
+      </c>
+      <c r="AJ19" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="63">
+      <c r="AK19" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="70">
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="AN19" s="61"/>
     </row>
     <row r="20" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="31">
         <v>10</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="14">
         <v>202302212</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="15">
         <v>1034543395</v>
       </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="68">
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="51">
+        <v>10</v>
+      </c>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="63">
+        <v>10</v>
+      </c>
+      <c r="AJ20" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="63">
+      <c r="AK20" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="69"/>
-      <c r="AM20" s="70">
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="AN20" s="61"/>
     </row>
     <row r="21" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="31">
         <v>10</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="14">
         <v>202302215</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="15">
         <v>1023100766</v>
       </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="63"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="68">
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="51">
+        <v>0</v>
+      </c>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="63">
+      <c r="AJ21" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="63">
+      <c r="AK21" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="70">
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN21" s="61"/>
     </row>
     <row r="22" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="31">
         <v>11</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="14">
         <v>202302228</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="15">
         <v>1065063292</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="68">
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="51">
+        <v>6.5</v>
+      </c>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="63">
+        <v>6.5</v>
+      </c>
+      <c r="AJ22" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="63">
+      <c r="AK22" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="69"/>
-      <c r="AM22" s="70">
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.7727272727272727</v>
       </c>
       <c r="AN22" s="61"/>
     </row>
     <row r="23" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="31">
         <v>11</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="14">
         <v>202302229</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="15">
         <v>1097630809</v>
       </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="67"/>
-      <c r="AI23" s="68">
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="51">
+        <v>10</v>
+      </c>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="63">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="63">
+      <c r="AK23" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="69"/>
-      <c r="AM23" s="70">
+      <c r="AL23" s="61"/>
+      <c r="AM23" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="AN23" s="61"/>
     </row>
     <row r="24" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="31">
         <v>12</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="14">
         <v>202302240</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="15">
         <v>1041544826</v>
       </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="68">
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="51">
+        <v>0</v>
+      </c>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ24" s="63">
+      <c r="AJ24" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK24" s="63">
+      <c r="AK24" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL24" s="69"/>
-      <c r="AM24" s="70">
+      <c r="AL24" s="61"/>
+      <c r="AM24" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN24" s="61"/>
     </row>
-    <row r="25" spans="1:40" s="96" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+    <row r="25" spans="1:40" s="38" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="87">
+      <c r="B25" s="37">
         <v>12</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="18">
         <v>202302253</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="19">
         <v>1085764654</v>
       </c>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="91"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="88">
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="68">
+        <v>9</v>
+      </c>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="68">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="89">
+        <v>9</v>
+      </c>
+      <c r="AJ25" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK25" s="89">
+      <c r="AK25" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="94"/>
-      <c r="AM25" s="95">
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="69">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN25" s="87"/>
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="AN25" s="69"/>
     </row>
     <row r="26" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="33">
         <v>1</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="34">
         <v>202101247</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="35">
         <v>1064704526</v>
       </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="80"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="83"/>
-      <c r="AG26" s="83"/>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="99">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="71">
+        <v>5.5</v>
+      </c>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="74">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="100">
+        <v>5.5</v>
+      </c>
+      <c r="AJ26" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="100">
+      <c r="AK26" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="85"/>
-      <c r="AM26" s="102">
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="75">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>0</v>
-      </c>
-      <c r="AN26" s="76"/>
+        <v>1.5</v>
+      </c>
+      <c r="AN26" s="72"/>
     </row>
     <row r="27" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="23">
         <v>1</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="20">
         <v>202102173</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="21">
         <v>1041993515</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="97">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="76">
+        <v>7</v>
+      </c>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="78"/>
+      <c r="AI27" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="98">
+        <v>7</v>
+      </c>
+      <c r="AJ27" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="98">
+      <c r="AK27" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="46"/>
-      <c r="AM27" s="101">
+      <c r="AL27" s="77"/>
+      <c r="AM27" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN27" s="39"/>
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="AN27" s="77"/>
     </row>
     <row r="28" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="23">
         <v>2</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="20">
         <v>202102178</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="21">
         <v>1025548196</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="97">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="76">
+        <v>7</v>
+      </c>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="98">
+        <v>7</v>
+      </c>
+      <c r="AJ28" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="98">
+      <c r="AK28" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="101">
+      <c r="AL28" s="77"/>
+      <c r="AM28" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN28" s="39"/>
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="AN28" s="77"/>
     </row>
     <row r="29" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="23">
         <v>2</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="20">
         <v>202102179</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="21">
         <v>1084775680</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="97">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="76">
+        <v>10</v>
+      </c>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="98">
+        <v>10</v>
+      </c>
+      <c r="AJ29" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="98">
+      <c r="AK29" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="46"/>
-      <c r="AM29" s="101">
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN29" s="39"/>
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="AN29" s="77"/>
     </row>
     <row r="30" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="23">
         <v>3</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="20">
         <v>202102182</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="21">
         <v>1080032181</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="97">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="76">
+        <v>9</v>
+      </c>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="78"/>
+      <c r="AI30" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="98">
+        <v>9</v>
+      </c>
+      <c r="AJ30" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="98">
+      <c r="AK30" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="101">
+      <c r="AL30" s="77"/>
+      <c r="AM30" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN30" s="39"/>
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="AN30" s="77"/>
     </row>
     <row r="31" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="23">
         <v>3</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="20">
         <v>202102183</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="21">
         <v>1035547469</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="97">
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="76">
+        <v>8</v>
+      </c>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="98">
+        <v>8</v>
+      </c>
+      <c r="AJ31" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="98">
+      <c r="AK31" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="46"/>
-      <c r="AM31" s="101">
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN31" s="39"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AN31" s="77"/>
     </row>
     <row r="32" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B32" s="23">
         <v>4</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="20">
         <v>202102187</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="21">
         <v>1072025802</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="43"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="97">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="76">
+        <v>6</v>
+      </c>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="78"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="78"/>
+      <c r="AI32" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="98">
+        <v>6</v>
+      </c>
+      <c r="AJ32" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="98">
+      <c r="AK32" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="46"/>
-      <c r="AM32" s="101">
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN32" s="39"/>
+        <v>1.6363636363636362</v>
+      </c>
+      <c r="AN32" s="77"/>
     </row>
     <row r="33" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="23">
         <v>4</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="20">
         <v>202102189</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="21">
         <v>1043552635</v>
       </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="97">
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="76">
+        <v>9.5</v>
+      </c>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="78"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="77"/>
+      <c r="AG33" s="77"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="98">
+        <v>9.5</v>
+      </c>
+      <c r="AJ33" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="98">
+      <c r="AK33" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="46"/>
-      <c r="AM33" s="101">
+      <c r="AL33" s="77"/>
+      <c r="AM33" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="39"/>
+        <v>2.5909090909090908</v>
+      </c>
+      <c r="AN33" s="77"/>
     </row>
     <row r="34" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="23">
         <v>5</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="20">
         <v>202102195</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="21">
         <v>1032998886</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="43"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="97">
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="76">
+        <v>8</v>
+      </c>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="77"/>
+      <c r="V34" s="77"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
+      <c r="Y34" s="77"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="77"/>
+      <c r="AB34" s="77"/>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="78"/>
+      <c r="AE34" s="76"/>
+      <c r="AF34" s="77"/>
+      <c r="AG34" s="77"/>
+      <c r="AH34" s="78"/>
+      <c r="AI34" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="98">
+        <v>8</v>
+      </c>
+      <c r="AJ34" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="98">
+      <c r="AK34" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="46"/>
-      <c r="AM34" s="101">
+      <c r="AL34" s="77"/>
+      <c r="AM34" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="39"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AN34" s="77"/>
     </row>
     <row r="35" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="23">
         <v>5</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="20">
         <v>202102196</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="21">
         <v>1046262504</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="43"/>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="44"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="97">
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="76">
+        <v>8</v>
+      </c>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
+      <c r="Y35" s="77"/>
+      <c r="Z35" s="77"/>
+      <c r="AA35" s="77"/>
+      <c r="AB35" s="77"/>
+      <c r="AC35" s="77"/>
+      <c r="AD35" s="78"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="77"/>
+      <c r="AG35" s="77"/>
+      <c r="AH35" s="78"/>
+      <c r="AI35" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="98">
+        <v>8</v>
+      </c>
+      <c r="AJ35" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="98">
+      <c r="AK35" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="46"/>
-      <c r="AM35" s="101">
+      <c r="AL35" s="77"/>
+      <c r="AM35" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="39"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AN35" s="77"/>
     </row>
     <row r="36" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="23">
         <v>6</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="20">
         <v>202102209</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="21">
         <v>1092448601</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="44"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="97">
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="76">
+        <v>8</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="77"/>
+      <c r="V36" s="77"/>
+      <c r="W36" s="77"/>
+      <c r="X36" s="77"/>
+      <c r="Y36" s="77"/>
+      <c r="Z36" s="77"/>
+      <c r="AA36" s="77"/>
+      <c r="AB36" s="77"/>
+      <c r="AC36" s="77"/>
+      <c r="AD36" s="78"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="77"/>
+      <c r="AG36" s="77"/>
+      <c r="AH36" s="78"/>
+      <c r="AI36" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="98">
+        <v>8</v>
+      </c>
+      <c r="AJ36" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="98">
+      <c r="AK36" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="46"/>
-      <c r="AM36" s="101">
+      <c r="AL36" s="77"/>
+      <c r="AM36" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="39"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AN36" s="77"/>
     </row>
     <row r="37" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="23">
         <v>6</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="20">
         <v>202102212</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="21">
         <v>1044907503</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="43"/>
-      <c r="AF37" s="44"/>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="97">
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="76">
+        <v>8</v>
+      </c>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="77"/>
+      <c r="Y37" s="77"/>
+      <c r="Z37" s="77"/>
+      <c r="AA37" s="77"/>
+      <c r="AB37" s="77"/>
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="78"/>
+      <c r="AE37" s="76"/>
+      <c r="AF37" s="77"/>
+      <c r="AG37" s="77"/>
+      <c r="AH37" s="78"/>
+      <c r="AI37" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="98">
+        <v>8</v>
+      </c>
+      <c r="AJ37" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="98">
+      <c r="AK37" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="46"/>
-      <c r="AM37" s="101">
+      <c r="AL37" s="77"/>
+      <c r="AM37" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN37" s="39"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AN37" s="77"/>
     </row>
     <row r="38" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="23">
         <v>7</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="20">
         <v>202202142</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="21">
         <v>1049252840</v>
       </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="42"/>
-      <c r="AE38" s="43"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="97">
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="76">
+        <v>9</v>
+      </c>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="77"/>
+      <c r="Y38" s="77"/>
+      <c r="Z38" s="77"/>
+      <c r="AA38" s="77"/>
+      <c r="AB38" s="77"/>
+      <c r="AC38" s="77"/>
+      <c r="AD38" s="78"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="77"/>
+      <c r="AG38" s="77"/>
+      <c r="AH38" s="78"/>
+      <c r="AI38" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="98">
+        <v>9</v>
+      </c>
+      <c r="AJ38" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="98">
+      <c r="AK38" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="46"/>
-      <c r="AM38" s="101">
+      <c r="AL38" s="77"/>
+      <c r="AM38" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN38" s="39"/>
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="AN38" s="77"/>
     </row>
     <row r="39" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B39" s="25">
         <v>7</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="20">
         <v>202301209</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="21">
         <v>1063361323</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
-      <c r="AH39" s="45"/>
-      <c r="AI39" s="97">
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="76">
+        <v>7</v>
+      </c>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="77"/>
+      <c r="Y39" s="77"/>
+      <c r="Z39" s="77"/>
+      <c r="AA39" s="77"/>
+      <c r="AB39" s="77"/>
+      <c r="AC39" s="77"/>
+      <c r="AD39" s="78"/>
+      <c r="AE39" s="76"/>
+      <c r="AF39" s="77"/>
+      <c r="AG39" s="77"/>
+      <c r="AH39" s="78"/>
+      <c r="AI39" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="98">
+        <v>7</v>
+      </c>
+      <c r="AJ39" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="98">
+      <c r="AK39" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="46"/>
-      <c r="AM39" s="101">
+      <c r="AL39" s="77"/>
+      <c r="AM39" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN39" s="39"/>
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="AN39" s="77"/>
     </row>
     <row r="40" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="48">
+      <c r="B40" s="25">
         <v>7</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="20">
         <v>202302217</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="21">
         <v>1094899244</v>
       </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="44"/>
-      <c r="AG40" s="44"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="97">
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="76">
+        <v>9.5</v>
+      </c>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="77"/>
+      <c r="AB40" s="77"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="78"/>
+      <c r="AE40" s="76"/>
+      <c r="AF40" s="77"/>
+      <c r="AG40" s="77"/>
+      <c r="AH40" s="78"/>
+      <c r="AI40" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="98">
+        <v>9.5</v>
+      </c>
+      <c r="AJ40" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="98">
+      <c r="AK40" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="46"/>
-      <c r="AM40" s="101">
+      <c r="AL40" s="77"/>
+      <c r="AM40" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN40" s="39"/>
+        <v>2.5909090909090908</v>
+      </c>
+      <c r="AN40" s="77"/>
     </row>
     <row r="41" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="48">
+      <c r="B41" s="25">
         <v>8</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="20">
         <v>202302203</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="21">
         <v>1090777074</v>
       </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41"/>
-      <c r="AD41" s="42"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="44"/>
-      <c r="AH41" s="45"/>
-      <c r="AI41" s="97">
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="76">
+        <v>5.5</v>
+      </c>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="77"/>
+      <c r="V41" s="77"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+      <c r="Y41" s="77"/>
+      <c r="Z41" s="77"/>
+      <c r="AA41" s="77"/>
+      <c r="AB41" s="77"/>
+      <c r="AC41" s="77"/>
+      <c r="AD41" s="78"/>
+      <c r="AE41" s="76"/>
+      <c r="AF41" s="77"/>
+      <c r="AG41" s="77"/>
+      <c r="AH41" s="78"/>
+      <c r="AI41" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="98">
+        <v>5.5</v>
+      </c>
+      <c r="AJ41" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="98">
+      <c r="AK41" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="46"/>
-      <c r="AM41" s="101">
+      <c r="AL41" s="77"/>
+      <c r="AM41" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN41" s="39"/>
+        <v>1.5</v>
+      </c>
+      <c r="AN41" s="77"/>
     </row>
     <row r="42" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="48">
+      <c r="B42" s="25">
         <v>8</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="20">
         <v>202302204</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="21">
         <v>1094306141</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="97">
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="76">
+        <v>7.5</v>
+      </c>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="77"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="77"/>
+      <c r="Y42" s="77"/>
+      <c r="Z42" s="77"/>
+      <c r="AA42" s="77"/>
+      <c r="AB42" s="77"/>
+      <c r="AC42" s="77"/>
+      <c r="AD42" s="78"/>
+      <c r="AE42" s="76"/>
+      <c r="AF42" s="77"/>
+      <c r="AG42" s="77"/>
+      <c r="AH42" s="78"/>
+      <c r="AI42" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="98">
+        <v>7.5</v>
+      </c>
+      <c r="AJ42" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK42" s="98">
+      <c r="AK42" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="46"/>
-      <c r="AM42" s="101">
+      <c r="AL42" s="77"/>
+      <c r="AM42" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN42" s="39"/>
+        <v>2.0454545454545454</v>
+      </c>
+      <c r="AN42" s="77"/>
     </row>
     <row r="43" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="39">
+      <c r="B43" s="23">
         <v>9</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="20">
         <v>202302210</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="21">
         <v>1040757120</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
-      <c r="AB43" s="41"/>
-      <c r="AC43" s="41"/>
-      <c r="AD43" s="42"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
-      <c r="AH43" s="45"/>
-      <c r="AI43" s="97">
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="76">
+        <v>7.5</v>
+      </c>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="77"/>
+      <c r="Z43" s="77"/>
+      <c r="AA43" s="77"/>
+      <c r="AB43" s="77"/>
+      <c r="AC43" s="77"/>
+      <c r="AD43" s="78"/>
+      <c r="AE43" s="76"/>
+      <c r="AF43" s="77"/>
+      <c r="AG43" s="77"/>
+      <c r="AH43" s="78"/>
+      <c r="AI43" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="98">
+        <v>7.5</v>
+      </c>
+      <c r="AJ43" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK43" s="98">
+      <c r="AK43" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL43" s="46"/>
-      <c r="AM43" s="101">
+      <c r="AL43" s="77"/>
+      <c r="AM43" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN43" s="39"/>
+        <v>2.0454545454545454</v>
+      </c>
+      <c r="AN43" s="77"/>
     </row>
     <row r="44" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="39">
+      <c r="B44" s="23">
         <v>9</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="20">
         <v>202302211</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="21">
         <v>1074671567</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="41"/>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="41"/>
-      <c r="AB44" s="41"/>
-      <c r="AC44" s="41"/>
-      <c r="AD44" s="42"/>
-      <c r="AE44" s="43"/>
-      <c r="AF44" s="44"/>
-      <c r="AG44" s="44"/>
-      <c r="AH44" s="45"/>
-      <c r="AI44" s="97">
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="76">
+        <v>0</v>
+      </c>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="77"/>
+      <c r="W44" s="77"/>
+      <c r="X44" s="77"/>
+      <c r="Y44" s="77"/>
+      <c r="Z44" s="77"/>
+      <c r="AA44" s="77"/>
+      <c r="AB44" s="77"/>
+      <c r="AC44" s="77"/>
+      <c r="AD44" s="78"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="77"/>
+      <c r="AG44" s="77"/>
+      <c r="AH44" s="78"/>
+      <c r="AI44" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ44" s="98">
+      <c r="AJ44" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK44" s="98">
+      <c r="AK44" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL44" s="46"/>
-      <c r="AM44" s="101">
+      <c r="AL44" s="77"/>
+      <c r="AM44" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN44" s="39"/>
+      <c r="AN44" s="77"/>
     </row>
-    <row r="45" spans="1:40" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
+    <row r="45" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="23">
         <v>10</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="20">
         <v>202302226</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="21">
         <v>1046182647</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="51"/>
-      <c r="V45" s="51"/>
-      <c r="W45" s="51"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="51"/>
-      <c r="AA45" s="51"/>
-      <c r="AB45" s="51"/>
-      <c r="AC45" s="51"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="54"/>
-      <c r="AF45" s="55"/>
-      <c r="AG45" s="55"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="97">
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="81">
+        <v>10</v>
+      </c>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="84"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="82"/>
+      <c r="AD45" s="84"/>
+      <c r="AE45" s="81"/>
+      <c r="AF45" s="82"/>
+      <c r="AG45" s="82"/>
+      <c r="AH45" s="84"/>
+      <c r="AI45" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="98">
+        <v>10</v>
+      </c>
+      <c r="AJ45" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK45" s="98">
+      <c r="AK45" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL45" s="46"/>
-      <c r="AM45" s="101">
+      <c r="AL45" s="77"/>
+      <c r="AM45" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN45" s="39"/>
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="AN45" s="77"/>
     </row>
-    <row r="46" spans="1:40" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="38" t="s">
+    <row r="46" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="39">
+      <c r="B46" s="23">
         <v>10</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="20">
         <v>202302227</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="21">
         <v>1038871469</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="51"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="51"/>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="54"/>
-      <c r="AF46" s="55"/>
-      <c r="AG46" s="55"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="97">
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="81">
+        <v>10</v>
+      </c>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="81"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="82"/>
+      <c r="AA46" s="82"/>
+      <c r="AB46" s="82"/>
+      <c r="AC46" s="82"/>
+      <c r="AD46" s="84"/>
+      <c r="AE46" s="81"/>
+      <c r="AF46" s="82"/>
+      <c r="AG46" s="82"/>
+      <c r="AH46" s="84"/>
+      <c r="AI46" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="98">
+        <v>10</v>
+      </c>
+      <c r="AJ46" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK46" s="98">
+      <c r="AK46" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="46"/>
-      <c r="AM46" s="101">
+      <c r="AL46" s="77"/>
+      <c r="AM46" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN46" s="39"/>
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="AN46" s="77"/>
     </row>
-    <row r="47" spans="1:40" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="38" t="s">
+    <row r="47" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="58">
+      <c r="B47" s="28">
         <v>11</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="20">
         <v>202302237</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="21">
         <v>1038626854</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="50"/>
-      <c r="U47" s="51"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="51"/>
-      <c r="AC47" s="51"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="55"/>
-      <c r="AG47" s="55"/>
-      <c r="AH47" s="56"/>
-      <c r="AI47" s="97">
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="81">
+        <v>8</v>
+      </c>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="84"/>
+      <c r="T47" s="81"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="82"/>
+      <c r="AC47" s="82"/>
+      <c r="AD47" s="84"/>
+      <c r="AE47" s="81"/>
+      <c r="AF47" s="82"/>
+      <c r="AG47" s="82"/>
+      <c r="AH47" s="84"/>
+      <c r="AI47" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="98">
+        <v>8</v>
+      </c>
+      <c r="AJ47" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK47" s="98">
+      <c r="AK47" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="46"/>
-      <c r="AM47" s="101">
+      <c r="AL47" s="77"/>
+      <c r="AM47" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN47" s="39"/>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AN47" s="77"/>
     </row>
     <row r="48" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="59">
+      <c r="B48" s="29">
         <v>11</v>
       </c>
-      <c r="C48" s="104">
+      <c r="C48" s="40">
         <v>202302238</v>
       </c>
-      <c r="D48" s="104" t="s">
+      <c r="D48" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="105">
+      <c r="E48" s="41">
         <v>1071157029</v>
       </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="43"/>
-      <c r="AF48" s="44"/>
-      <c r="AG48" s="44"/>
-      <c r="AH48" s="45"/>
-      <c r="AI48" s="97">
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="76">
+        <v>3.5</v>
+      </c>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="77"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="78"/>
+      <c r="T48" s="76"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
+      <c r="AB48" s="77"/>
+      <c r="AC48" s="77"/>
+      <c r="AD48" s="78"/>
+      <c r="AE48" s="76"/>
+      <c r="AF48" s="77"/>
+      <c r="AG48" s="77"/>
+      <c r="AH48" s="78"/>
+      <c r="AI48" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="98">
+        <v>3.5</v>
+      </c>
+      <c r="AJ48" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK48" s="98">
+      <c r="AK48" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL48" s="46"/>
-      <c r="AM48" s="101">
+      <c r="AL48" s="77"/>
+      <c r="AM48" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN48" s="39"/>
+        <v>0.95454545454545447</v>
+      </c>
+      <c r="AN48" s="77"/>
     </row>
     <row r="49" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="16" t="e">
+      <c r="I49" s="85">
         <f>AVERAGE(I2:I25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="6" t="e">
+        <v>7.2173913043478262</v>
+      </c>
+      <c r="J49" s="86" t="e">
         <f>AVERAGE(J2:J25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="6" t="e">
+      <c r="K49" s="86" t="e">
         <f>AVERAGE(K2:K25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="6" t="e">
+      <c r="L49" s="86" t="e">
         <f>AVERAGE(L2:L32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M49" s="6" t="e">
+      <c r="M49" s="86" t="e">
         <f>AVERAGE(M2:M32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N49" s="6" t="e">
+      <c r="N49" s="86" t="e">
         <f>AVERAGE(N2:N32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="6" t="e">
+      <c r="O49" s="86" t="e">
         <f>AVERAGE(O2:O32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P49" s="6" t="e">
+      <c r="P49" s="86" t="e">
         <f>AVERAGE(P2:P26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q49" s="6" t="e">
+      <c r="Q49" s="86" t="e">
         <f>AVERAGE(Q2:Q32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R49" s="6" t="e">
+      <c r="R49" s="86" t="e">
         <f>AVERAGE(R2:R32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S49" s="17" t="e">
+      <c r="S49" s="87" t="e">
         <f>AVERAGE(S2:S32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T49" s="16" t="e">
+      <c r="T49" s="85" t="e">
         <f>AVERAGE(T2:T25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U49" s="6" t="e">
+      <c r="U49" s="86" t="e">
         <f>AVERAGE(U2:U32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V49" s="6" t="e">
+      <c r="V49" s="86" t="e">
         <f>AVERAGE(V2:V25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W49" s="6" t="e">
+      <c r="W49" s="86" t="e">
         <f>AVERAGE(W2:W32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X49" s="6" t="e">
+      <c r="X49" s="86" t="e">
         <f>AVERAGE(X2:X25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y49" s="6" t="e">
+      <c r="Y49" s="86" t="e">
         <f>AVERAGE(Y2:Y25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z49" s="6" t="e">
+      <c r="Z49" s="86" t="e">
         <f>AVERAGE(Z2:Z32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="6" t="e">
+      <c r="AA49" s="86" t="e">
         <f>AVERAGE(AA2:AA25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB49" s="6" t="e">
+      <c r="AB49" s="86" t="e">
         <f>AVERAGE(AB2:AB32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC49" s="6" t="e">
+      <c r="AC49" s="86" t="e">
         <f>AVERAGE(AC2:AC25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="17" t="e">
+      <c r="AD49" s="87" t="e">
         <f>AVERAGE(AD2:AD32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE49" s="16" t="e">
+      <c r="AE49" s="85" t="e">
         <f>AVERAGE(AE2:AE32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF49" s="6" t="e">
+      <c r="AF49" s="86" t="e">
         <f>AVERAGE(AF2:AF32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG49" s="6" t="e">
+      <c r="AG49" s="86" t="e">
         <f>AVERAGE(AG2:AG32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH49" s="17" t="e">
+      <c r="AH49" s="87" t="e">
         <f>AVERAGE(AH2:AH32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI49" s="15">
+      <c r="AI49" s="88">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="6">
+        <v>6.916666666666667</v>
+      </c>
+      <c r="AJ49" s="86">
         <f>AVERAGE(AJ2:AJ25)</f>
         <v>0</v>
       </c>
-      <c r="AK49" s="6">
+      <c r="AK49" s="86">
         <f>AVERAGE(AK2:AK25)</f>
         <v>0</v>
       </c>
-      <c r="AL49" s="6" t="e">
+      <c r="AL49" s="86" t="e">
         <f>AVERAGE(AL2:AL25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM49" s="6">
+      <c r="AM49" s="86">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>0</v>
-      </c>
-      <c r="AN49" s="6"/>
+        <v>1.8863636363636365</v>
+      </c>
+      <c r="AN49" s="86"/>
     </row>
     <row r="50" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="16" t="e">
+      <c r="I50" s="85">
         <f>AVERAGE(I26:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J50" s="6" t="e">
+        <v>7.4565217391304346</v>
+      </c>
+      <c r="J50" s="86" t="e">
         <f t="shared" ref="J50:AM50" si="4">AVERAGE(J26:J48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="6" t="e">
+      <c r="K50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="6" t="e">
+      <c r="L50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M50" s="6" t="e">
+      <c r="M50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="6" t="e">
+      <c r="N50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O50" s="6" t="e">
+      <c r="O50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P50" s="6" t="e">
+      <c r="P50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q50" s="6" t="e">
+      <c r="Q50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R50" s="6" t="e">
+      <c r="R50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S50" s="17" t="e">
+      <c r="S50" s="87" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T50" s="16" t="e">
+      <c r="T50" s="85" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U50" s="6" t="e">
+      <c r="U50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V50" s="6" t="e">
+      <c r="V50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W50" s="6" t="e">
+      <c r="W50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X50" s="6" t="e">
+      <c r="X50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y50" s="6" t="e">
+      <c r="Y50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z50" s="6" t="e">
+      <c r="Z50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="6" t="e">
+      <c r="AA50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB50" s="6" t="e">
+      <c r="AB50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="6" t="e">
+      <c r="AC50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="17" t="e">
+      <c r="AD50" s="87" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE50" s="16" t="e">
+      <c r="AE50" s="85" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF50" s="6" t="e">
+      <c r="AF50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG50" s="6" t="e">
+      <c r="AG50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH50" s="17" t="e">
+      <c r="AH50" s="87" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI50" s="15">
+      <c r="AI50" s="88">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="6">
+        <v>7.4565217391304346</v>
+      </c>
+      <c r="AJ50" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK50" s="6">
+      <c r="AK50" s="86">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="6" t="e">
+      <c r="AL50" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM50" s="6">
+      <c r="AM50" s="86">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AN50" s="6"/>
+        <v>2.0335968379446636</v>
+      </c>
+      <c r="AN50" s="86"/>
     </row>
     <row r="51" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="16" t="e">
+      <c r="I51" s="85">
         <f t="shared" ref="I51:AM51" si="5">AVERAGE(I2:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J51" s="6" t="e">
+        <v>7.3369565217391308</v>
+      </c>
+      <c r="J51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="6" t="e">
+      <c r="K51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="6" t="e">
+      <c r="L51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M51" s="6" t="e">
+      <c r="M51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N51" s="6" t="e">
+      <c r="N51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O51" s="6" t="e">
+      <c r="O51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P51" s="6" t="e">
+      <c r="P51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q51" s="6" t="e">
+      <c r="Q51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R51" s="6" t="e">
+      <c r="R51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S51" s="17" t="e">
+      <c r="S51" s="87" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T51" s="16" t="e">
+      <c r="T51" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U51" s="6" t="e">
+      <c r="U51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V51" s="6" t="e">
+      <c r="V51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W51" s="6" t="e">
+      <c r="W51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X51" s="6" t="e">
+      <c r="X51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y51" s="6" t="e">
+      <c r="Y51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z51" s="6" t="e">
+      <c r="Z51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="6" t="e">
+      <c r="AA51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB51" s="6" t="e">
+      <c r="AB51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC51" s="6" t="e">
+      <c r="AC51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="17" t="e">
+      <c r="AD51" s="87" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE51" s="16" t="e">
+      <c r="AE51" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF51" s="6" t="e">
+      <c r="AF51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG51" s="6" t="e">
+      <c r="AG51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH51" s="17" t="e">
+      <c r="AH51" s="87" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI51" s="15">
+      <c r="AI51" s="88">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="6">
+        <v>7.1808510638297873</v>
+      </c>
+      <c r="AJ51" s="86">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK51" s="6">
+      <c r="AK51" s="86">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL51" s="6" t="e">
+      <c r="AL51" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM51" s="6">
+      <c r="AM51" s="86">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AN51" s="6"/>
+        <v>1.9584139264990335</v>
+      </c>
+      <c r="AN51" s="86"/>
     </row>
     <row r="52" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="16" t="e">
+      <c r="I52" s="85">
         <f t="shared" ref="I52:AM52" si="6">STDEV(I2:I48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J52" s="6" t="e">
+        <v>2.9572027845886293</v>
+      </c>
+      <c r="J52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="6" t="e">
+      <c r="K52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="6" t="e">
+      <c r="L52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M52" s="6" t="e">
+      <c r="M52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N52" s="6" t="e">
+      <c r="N52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O52" s="6" t="e">
+      <c r="O52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P52" s="6" t="e">
+      <c r="P52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q52" s="6" t="e">
+      <c r="Q52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R52" s="6" t="e">
+      <c r="R52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S52" s="17" t="e">
+      <c r="S52" s="87" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T52" s="16" t="e">
+      <c r="T52" s="85" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U52" s="6" t="e">
+      <c r="U52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V52" s="6" t="e">
+      <c r="V52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W52" s="6" t="e">
+      <c r="W52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X52" s="6" t="e">
+      <c r="X52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y52" s="6" t="e">
+      <c r="Y52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z52" s="6" t="e">
+      <c r="Z52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="6" t="e">
+      <c r="AA52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB52" s="6" t="e">
+      <c r="AB52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC52" s="6" t="e">
+      <c r="AC52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="17" t="e">
+      <c r="AD52" s="87" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE52" s="16" t="e">
+      <c r="AE52" s="85" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF52" s="6" t="e">
+      <c r="AF52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG52" s="6" t="e">
+      <c r="AG52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH52" s="17" t="e">
+      <c r="AH52" s="87" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI52" s="15">
+      <c r="AI52" s="88">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="6">
+        <v>3.1145268534424386</v>
+      </c>
+      <c r="AJ52" s="86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK52" s="6">
+      <c r="AK52" s="86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="6" t="e">
+      <c r="AL52" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM52" s="6">
+      <c r="AM52" s="86">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN52" s="6"/>
+        <v>0.84941641457520922</v>
+      </c>
+      <c r="AN52" s="86"/>
     </row>
     <row r="53" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="85">
         <f t="shared" ref="I53:AM53" si="7">MAX(I2:I48)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="6">
+        <v>10</v>
+      </c>
+      <c r="J53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="Q53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S53" s="17">
+      <c r="S53" s="87">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T53" s="16">
+      <c r="T53" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U53" s="6">
+      <c r="U53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V53" s="6">
+      <c r="V53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W53" s="6">
+      <c r="W53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X53" s="6">
+      <c r="X53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="Y53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z53" s="6">
+      <c r="Z53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA53" s="6">
+      <c r="AA53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB53" s="6">
+      <c r="AB53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="6">
+      <c r="AC53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="17">
+      <c r="AD53" s="87">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="16">
+      <c r="AE53" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF53" s="6">
+      <c r="AF53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="6">
+      <c r="AG53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="17">
+      <c r="AH53" s="87">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI53" s="15">
+      <c r="AI53" s="88">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="6">
+        <v>10</v>
+      </c>
+      <c r="AJ53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK53" s="6">
+      <c r="AK53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL53" s="6">
+      <c r="AL53" s="86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AM53" s="6">
+      <c r="AM53" s="86">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN53" s="6"/>
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="AN53" s="86"/>
     </row>
     <row r="54" spans="6:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="89">
         <f t="shared" ref="I54:AM54" si="8">MIN(I2:I48)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O54" s="19">
+      <c r="O54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P54" s="19">
+      <c r="P54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="19">
+      <c r="Q54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R54" s="19">
+      <c r="R54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S54" s="20">
+      <c r="S54" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T54" s="18">
+      <c r="T54" s="89">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U54" s="19">
+      <c r="U54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V54" s="19">
+      <c r="V54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W54" s="19">
+      <c r="W54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X54" s="19">
+      <c r="X54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y54" s="19">
+      <c r="Y54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z54" s="19">
+      <c r="Z54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA54" s="19">
+      <c r="AA54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB54" s="19">
+      <c r="AB54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="19">
+      <c r="AC54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD54" s="20">
+      <c r="AD54" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE54" s="18">
+      <c r="AE54" s="89">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF54" s="19">
+      <c r="AF54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="19">
+      <c r="AG54" s="90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH54" s="20">
+      <c r="AH54" s="91">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI54" s="15">
+      <c r="AI54" s="88">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ54" s="6">
+      <c r="AJ54" s="86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK54" s="6">
+      <c r="AK54" s="86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL54" s="6">
+      <c r="AL54" s="86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM54" s="6">
+      <c r="AM54" s="86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN54" s="6"/>
+      <c r="AN54" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="H17:H22"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="H33:H34"/>
@@ -5563,6 +5591,14 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5571,6 +5607,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -5752,35 +5803,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5802,9 +5828,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D5B16-08E9-4589-B14D-B92AA681C7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44437B2E-2E16-47C0-9461-EC8EF9BDEB1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,9 +589,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -722,6 +722,27 @@
       <name val="Arial"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -773,7 +794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -960,10 +981,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -972,31 +991,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1062,11 +1059,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1086,7 +1120,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,197 +1159,244 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1545,8 +1626,8 @@
   </sheetPr>
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1557,11 +1638,11 @@
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="30" width="11.42578125" style="92" customWidth="1"/>
-    <col min="31" max="37" width="12.5703125" style="92"/>
-    <col min="38" max="38" width="11.140625" style="92" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" style="92"/>
-    <col min="40" max="40" width="10.85546875" style="92" customWidth="1"/>
+    <col min="9" max="30" width="11.42578125" style="75" customWidth="1"/>
+    <col min="31" max="37" width="12.5703125" style="75"/>
+    <col min="38" max="38" width="11.140625" style="75" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" style="75"/>
+    <col min="40" max="40" width="10.85546875" style="75" customWidth="1"/>
     <col min="41" max="41" width="3.28515625" customWidth="1"/>
     <col min="43" max="43" width="2.140625" customWidth="1"/>
   </cols>
@@ -1591,108 +1672,108 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="V1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="X1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="53" t="s">
+      <c r="Y1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="53" t="s">
+      <c r="Z1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="53" t="s">
+      <c r="AA1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="53" t="s">
+      <c r="AB1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="53" t="s">
+      <c r="AC1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="54" t="s">
+      <c r="AD1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="55" t="s">
+      <c r="AE1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="56" t="s">
+      <c r="AF1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="56" t="s">
+      <c r="AG1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AH1" s="57" t="s">
+      <c r="AH1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="58" t="s">
+      <c r="AI1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="59" t="s">
+      <c r="AJ1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="60" t="s">
+      <c r="AK1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" s="59" t="s">
+      <c r="AL1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="59" t="s">
+      <c r="AM1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="59" t="s">
+      <c r="AN1" s="42" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="26">
         <v>1</v>
       </c>
       <c r="C2" s="13">
@@ -1704,61 +1785,61 @@
       <c r="E2" s="11">
         <v>1062616855</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="51">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="34">
         <v>9</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="46">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
         <v>9</v>
       </c>
-      <c r="AJ2" s="61">
+      <c r="AJ2" s="44">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
         <v>0</v>
       </c>
-      <c r="AK2" s="61">
+      <c r="AK2" s="44">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
         <v>0</v>
       </c>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61">
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
         <v>2.4545454545454546</v>
       </c>
-      <c r="AN2" s="61"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="26">
         <v>1</v>
       </c>
       <c r="C3" s="14">
@@ -1770,61 +1851,61 @@
       <c r="E3" s="12">
         <v>1040770178</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="51">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="34">
         <v>10</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AJ3" s="61">
+      <c r="AJ3" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK3" s="61">
+      <c r="AK3" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61">
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
         <v>2.7272727272727275</v>
       </c>
-      <c r="AN3" s="61"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="26">
         <v>2</v>
       </c>
       <c r="C4" s="14">
@@ -1836,61 +1917,61 @@
       <c r="E4" s="15">
         <v>1035483107</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="51">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="34">
         <v>8</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="63">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ4" s="61">
+      <c r="AJ4" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK4" s="61">
+      <c r="AK4" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61">
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44">
         <f t="shared" si="3"/>
         <v>2.1818181818181817</v>
       </c>
-      <c r="AN4" s="61"/>
+      <c r="AN4" s="44"/>
     </row>
     <row r="5" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="26">
         <v>2</v>
       </c>
       <c r="C5" s="14">
@@ -1902,61 +1983,61 @@
       <c r="E5" s="15">
         <v>1034885660</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="51">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="34">
         <v>10</v>
       </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="63">
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AJ5" s="61">
+      <c r="AJ5" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK5" s="61">
+      <c r="AK5" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61">
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44">
         <f t="shared" si="3"/>
         <v>2.7272727272727275</v>
       </c>
-      <c r="AN5" s="61"/>
+      <c r="AN5" s="44"/>
     </row>
     <row r="6" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <v>3</v>
       </c>
       <c r="C6" s="14">
@@ -1968,61 +2049,61 @@
       <c r="E6" s="15">
         <v>1068481280</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="51">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="34">
         <v>9</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="63">
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="46">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AJ6" s="61">
+      <c r="AJ6" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK6" s="61">
+      <c r="AK6" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61">
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44">
         <f t="shared" si="3"/>
         <v>2.4545454545454546</v>
       </c>
-      <c r="AN6" s="61"/>
+      <c r="AN6" s="44"/>
     </row>
     <row r="7" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="26">
         <v>3</v>
       </c>
       <c r="C7" s="14">
@@ -2034,61 +2115,61 @@
       <c r="E7" s="15">
         <v>1087003498</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="51">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="34">
         <v>9</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="63">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="46">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AJ7" s="61">
+      <c r="AJ7" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="61">
+      <c r="AK7" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61">
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44">
         <f t="shared" si="3"/>
         <v>2.4545454545454546</v>
       </c>
-      <c r="AN7" s="61"/>
+      <c r="AN7" s="44"/>
     </row>
     <row r="8" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="26">
         <v>4</v>
       </c>
       <c r="C8" s="14">
@@ -2100,61 +2181,61 @@
       <c r="E8" s="15">
         <v>1055950902</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="51">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="34">
         <v>8.5</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="63">
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="46">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="AJ8" s="61">
+      <c r="AJ8" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="61">
+      <c r="AK8" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61">
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44">
         <f t="shared" si="3"/>
         <v>2.3181818181818183</v>
       </c>
-      <c r="AN8" s="61"/>
+      <c r="AN8" s="44"/>
     </row>
     <row r="9" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="26">
         <v>4</v>
       </c>
       <c r="C9" s="14">
@@ -2166,61 +2247,61 @@
       <c r="E9" s="15">
         <v>1026607868</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="51">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="34">
         <v>6.5</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="63">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="46">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="AJ9" s="61">
+      <c r="AJ9" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK9" s="61">
+      <c r="AK9" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61">
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44">
         <f t="shared" si="3"/>
         <v>1.7727272727272727</v>
       </c>
-      <c r="AN9" s="61"/>
+      <c r="AN9" s="44"/>
     </row>
     <row r="10" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="26">
         <v>5</v>
       </c>
       <c r="C10" s="14">
@@ -2232,61 +2313,61 @@
       <c r="E10" s="15">
         <v>1053735886</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="51">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="34">
         <v>10</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="63">
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AJ10" s="61">
+      <c r="AJ10" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK10" s="61">
+      <c r="AK10" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61">
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44">
         <f t="shared" si="3"/>
         <v>2.7272727272727275</v>
       </c>
-      <c r="AN10" s="61"/>
+      <c r="AN10" s="44"/>
     </row>
     <row r="11" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="26">
         <v>5</v>
       </c>
       <c r="C11" s="14">
@@ -2298,61 +2379,61 @@
       <c r="E11" s="15">
         <v>1025098390</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="51">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="34">
         <v>10</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="61"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="63">
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AJ11" s="61">
+      <c r="AJ11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK11" s="61">
+      <c r="AK11" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="61">
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44">
         <f t="shared" si="3"/>
         <v>2.7272727272727275</v>
       </c>
-      <c r="AN11" s="61"/>
+      <c r="AN11" s="44"/>
     </row>
     <row r="12" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="26">
         <v>6</v>
       </c>
       <c r="C12" s="14">
@@ -2364,61 +2445,61 @@
       <c r="E12" s="15">
         <v>1095120261</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="51">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="34">
         <v>8.5</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="61"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="63">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="46">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="AJ12" s="61">
+      <c r="AJ12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="61">
+      <c r="AK12" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="61">
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44">
         <f t="shared" si="3"/>
         <v>2.3181818181818183</v>
       </c>
-      <c r="AN12" s="61"/>
+      <c r="AN12" s="44"/>
     </row>
     <row r="13" spans="1:40" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="26">
         <v>6</v>
       </c>
       <c r="C13" s="14">
@@ -2430,61 +2511,61 @@
       <c r="E13" s="15">
         <v>1038055177</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="34">
         <v>7</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="63">
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AJ13" s="61">
+      <c r="AJ13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="61">
+      <c r="AK13" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="61">
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44">
         <f t="shared" si="3"/>
         <v>1.9090909090909089</v>
       </c>
-      <c r="AN13" s="61"/>
+      <c r="AN13" s="44"/>
     </row>
     <row r="14" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="26">
         <v>7</v>
       </c>
       <c r="C14" s="14">
@@ -2496,61 +2577,61 @@
       <c r="E14" s="15">
         <v>1062944063</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="51">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="34">
         <v>9</v>
       </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63">
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="46">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AJ14" s="61">
+      <c r="AJ14" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="61">
+      <c r="AK14" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="61">
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44">
         <f t="shared" si="3"/>
         <v>2.4545454545454546</v>
       </c>
-      <c r="AN14" s="61"/>
+      <c r="AN14" s="44"/>
     </row>
     <row r="15" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="26">
         <v>7</v>
       </c>
       <c r="C15" s="14">
@@ -2562,59 +2643,59 @@
       <c r="E15" s="15">
         <v>1066458590</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="63">
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="61">
+      <c r="AJ15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="61">
+      <c r="AK15" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="61"/>
-      <c r="AM15" s="61">
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="61"/>
+      <c r="AN15" s="44"/>
     </row>
     <row r="16" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="26">
         <v>8</v>
       </c>
       <c r="C16" s="14">
@@ -2626,61 +2707,61 @@
       <c r="E16" s="15">
         <v>1057564673</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="51">
-        <v>0</v>
-      </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="63">
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="91">
+        <v>0</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ16" s="61">
+      <c r="AJ16" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="61">
+      <c r="AK16" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="61">
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="61"/>
+      <c r="AN16" s="44"/>
     </row>
     <row r="17" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="26">
         <v>8</v>
       </c>
       <c r="C17" s="14">
@@ -2692,61 +2773,61 @@
       <c r="E17" s="15">
         <v>1075748239</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="51">
-        <v>0</v>
-      </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="63">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="91">
+        <v>0</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="61">
+      <c r="AJ17" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="61">
+      <c r="AK17" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="61">
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="61"/>
+      <c r="AN17" s="44"/>
     </row>
     <row r="18" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="26">
         <v>9</v>
       </c>
       <c r="C18" s="14">
@@ -2758,61 +2839,61 @@
       <c r="E18" s="15">
         <v>1080108037</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="51">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="34">
         <v>8</v>
       </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="63">
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ18" s="61">
+      <c r="AJ18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="61">
+      <c r="AK18" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61">
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44">
         <f t="shared" si="3"/>
         <v>2.1818181818181817</v>
       </c>
-      <c r="AN18" s="61"/>
+      <c r="AN18" s="44"/>
     </row>
     <row r="19" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="26">
         <v>9</v>
       </c>
       <c r="C19" s="14">
@@ -2824,61 +2905,61 @@
       <c r="E19" s="15">
         <v>1028429638</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="51">
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="34">
         <v>8</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="63">
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ19" s="61">
+      <c r="AJ19" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="61">
+      <c r="AK19" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61">
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44">
         <f t="shared" si="3"/>
         <v>2.1818181818181817</v>
       </c>
-      <c r="AN19" s="61"/>
+      <c r="AN19" s="44"/>
     </row>
     <row r="20" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="26">
         <v>10</v>
       </c>
       <c r="C20" s="14">
@@ -2890,61 +2971,61 @@
       <c r="E20" s="15">
         <v>1034543395</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="51">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="34">
         <v>10</v>
       </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="63">
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AJ20" s="61">
+      <c r="AJ20" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="61">
+      <c r="AK20" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="61">
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44">
         <f t="shared" si="3"/>
         <v>2.7272727272727275</v>
       </c>
-      <c r="AN20" s="61"/>
+      <c r="AN20" s="44"/>
     </row>
     <row r="21" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="26">
         <v>10</v>
       </c>
       <c r="C21" s="14">
@@ -2956,61 +3037,61 @@
       <c r="E21" s="15">
         <v>1023100766</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="51">
-        <v>0</v>
-      </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="63">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="91">
+        <v>0</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="61">
+      <c r="AJ21" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="61">
+      <c r="AK21" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61">
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="61"/>
+      <c r="AN21" s="44"/>
     </row>
     <row r="22" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="26">
         <v>11</v>
       </c>
       <c r="C22" s="14">
@@ -3022,61 +3103,61 @@
       <c r="E22" s="15">
         <v>1065063292</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="51">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="34">
         <v>6.5</v>
       </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="63">
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="46">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="AJ22" s="61">
+      <c r="AJ22" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="61">
+      <c r="AK22" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="61">
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44">
         <f t="shared" si="3"/>
         <v>1.7727272727272727</v>
       </c>
-      <c r="AN22" s="61"/>
+      <c r="AN22" s="44"/>
     </row>
     <row r="23" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="26">
         <v>11</v>
       </c>
       <c r="C23" s="14">
@@ -3088,61 +3169,61 @@
       <c r="E23" s="15">
         <v>1097630809</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="51">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="34">
         <v>10</v>
       </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="61"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="63">
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AJ23" s="61">
+      <c r="AJ23" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="61">
+      <c r="AK23" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="61">
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44">
         <f t="shared" si="3"/>
         <v>2.7272727272727275</v>
       </c>
-      <c r="AN23" s="61"/>
+      <c r="AN23" s="44"/>
     </row>
     <row r="24" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="26">
         <v>12</v>
       </c>
       <c r="C24" s="14">
@@ -3154,61 +3235,61 @@
       <c r="E24" s="15">
         <v>1041544826</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="51">
-        <v>0</v>
-      </c>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="61"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="63">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="91">
+        <v>0</v>
+      </c>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ24" s="61">
+      <c r="AJ24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK24" s="61">
+      <c r="AK24" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="61">
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="61"/>
+      <c r="AN24" s="44"/>
     </row>
-    <row r="25" spans="1:40" s="38" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+    <row r="25" spans="1:40" s="33" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="32">
         <v>12</v>
       </c>
       <c r="C25" s="18">
@@ -3220,121 +3301,121 @@
       <c r="E25" s="19">
         <v>1085764654</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="68">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="51">
         <v>9</v>
       </c>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="70"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="69"/>
-      <c r="AH25" s="70"/>
-      <c r="AI25" s="68">
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AJ25" s="69">
+      <c r="AJ25" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK25" s="69">
+      <c r="AK25" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="69"/>
-      <c r="AM25" s="69">
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52">
         <f t="shared" si="3"/>
         <v>2.4545454545454546</v>
       </c>
-      <c r="AN25" s="69"/>
+      <c r="AN25" s="52"/>
     </row>
     <row r="26" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="28">
         <v>1</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="29">
         <v>202101247</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="30">
         <v>1064704526</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="71">
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="54">
         <v>5.5</v>
       </c>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="74">
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="57">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="AJ26" s="75">
+      <c r="AJ26" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="75">
+      <c r="AK26" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="72"/>
-      <c r="AM26" s="75">
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="58">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
         <v>1.5</v>
       </c>
-      <c r="AN26" s="72"/>
+      <c r="AN26" s="55"/>
     </row>
     <row r="27" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
@@ -3354,53 +3435,53 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="76">
+      <c r="H27" s="79"/>
+      <c r="I27" s="59">
         <v>7</v>
       </c>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="76"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="77"/>
-      <c r="AH27" s="78"/>
-      <c r="AI27" s="79">
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="62">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AJ27" s="80">
+      <c r="AJ27" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="80">
+      <c r="AK27" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="77"/>
-      <c r="AM27" s="80">
+      <c r="AL27" s="60"/>
+      <c r="AM27" s="63">
         <f t="shared" si="3"/>
         <v>1.9090909090909089</v>
       </c>
-      <c r="AN27" s="77"/>
+      <c r="AN27" s="60"/>
     </row>
     <row r="28" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
@@ -3420,53 +3501,53 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="76">
+      <c r="H28" s="78"/>
+      <c r="I28" s="59">
         <v>7</v>
       </c>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="77"/>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="77"/>
-      <c r="AG28" s="77"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="79">
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="62">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AJ28" s="80">
+      <c r="AJ28" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="80">
+      <c r="AK28" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL28" s="77"/>
-      <c r="AM28" s="80">
+      <c r="AL28" s="60"/>
+      <c r="AM28" s="63">
         <f t="shared" si="3"/>
         <v>1.9090909090909089</v>
       </c>
-      <c r="AN28" s="77"/>
+      <c r="AN28" s="60"/>
     </row>
     <row r="29" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
@@ -3486,53 +3567,53 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="76">
+      <c r="H29" s="79"/>
+      <c r="I29" s="59">
         <v>10</v>
       </c>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="76"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="77"/>
-      <c r="AH29" s="78"/>
-      <c r="AI29" s="79">
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="62">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AJ29" s="80">
+      <c r="AJ29" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="80">
+      <c r="AK29" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="80">
+      <c r="AL29" s="60"/>
+      <c r="AM29" s="63">
         <f t="shared" si="3"/>
         <v>2.7272727272727275</v>
       </c>
-      <c r="AN29" s="77"/>
+      <c r="AN29" s="60"/>
     </row>
     <row r="30" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
@@ -3552,53 +3633,53 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="76">
+      <c r="H30" s="78"/>
+      <c r="I30" s="59">
         <v>9</v>
       </c>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="76"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="77"/>
-      <c r="AH30" s="78"/>
-      <c r="AI30" s="79">
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="62">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AJ30" s="80">
+      <c r="AJ30" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="80">
+      <c r="AK30" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="77"/>
-      <c r="AM30" s="80">
+      <c r="AL30" s="60"/>
+      <c r="AM30" s="63">
         <f t="shared" si="3"/>
         <v>2.4545454545454546</v>
       </c>
-      <c r="AN30" s="77"/>
+      <c r="AN30" s="60"/>
     </row>
     <row r="31" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
@@ -3618,53 +3699,53 @@
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="76">
+      <c r="H31" s="79"/>
+      <c r="I31" s="59">
         <v>8</v>
       </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="76"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="77"/>
-      <c r="AH31" s="78"/>
-      <c r="AI31" s="79">
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ31" s="80">
+      <c r="AJ31" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="80">
+      <c r="AK31" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="80">
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="63">
         <f t="shared" si="3"/>
         <v>2.1818181818181817</v>
       </c>
-      <c r="AN31" s="77"/>
+      <c r="AN31" s="60"/>
     </row>
     <row r="32" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
@@ -3684,53 +3765,53 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="76">
+      <c r="H32" s="99"/>
+      <c r="I32" s="59">
         <v>6</v>
       </c>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="76"/>
-      <c r="AF32" s="77"/>
-      <c r="AG32" s="77"/>
-      <c r="AH32" s="78"/>
-      <c r="AI32" s="79">
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="60"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="62">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AJ32" s="80">
+      <c r="AJ32" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="80">
+      <c r="AK32" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="77"/>
-      <c r="AM32" s="80">
+      <c r="AL32" s="60"/>
+      <c r="AM32" s="63">
         <f t="shared" si="3"/>
         <v>1.6363636363636362</v>
       </c>
-      <c r="AN32" s="77"/>
+      <c r="AN32" s="60"/>
     </row>
     <row r="33" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
@@ -3750,53 +3831,53 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="76">
+      <c r="H33" s="100"/>
+      <c r="I33" s="59">
         <v>9.5</v>
       </c>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="77"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="76"/>
-      <c r="AF33" s="77"/>
-      <c r="AG33" s="77"/>
-      <c r="AH33" s="78"/>
-      <c r="AI33" s="79">
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="62">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="AJ33" s="80">
+      <c r="AJ33" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="80">
+      <c r="AK33" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="77"/>
-      <c r="AM33" s="80">
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="63">
         <f t="shared" si="3"/>
         <v>2.5909090909090908</v>
       </c>
-      <c r="AN33" s="77"/>
+      <c r="AN33" s="60"/>
     </row>
     <row r="34" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
@@ -3816,53 +3897,53 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="76">
+      <c r="H34" s="101"/>
+      <c r="I34" s="59">
         <v>8</v>
       </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="78"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="77"/>
-      <c r="Y34" s="77"/>
-      <c r="Z34" s="77"/>
-      <c r="AA34" s="77"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="78"/>
-      <c r="AE34" s="76"/>
-      <c r="AF34" s="77"/>
-      <c r="AG34" s="77"/>
-      <c r="AH34" s="78"/>
-      <c r="AI34" s="79">
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ34" s="80">
+      <c r="AJ34" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="80">
+      <c r="AK34" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="77"/>
-      <c r="AM34" s="80">
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="63">
         <f t="shared" si="3"/>
         <v>2.1818181818181817</v>
       </c>
-      <c r="AN34" s="77"/>
+      <c r="AN34" s="60"/>
     </row>
     <row r="35" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
@@ -3882,53 +3963,53 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="76">
+      <c r="H35" s="102"/>
+      <c r="I35" s="59">
         <v>8</v>
       </c>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="77"/>
-      <c r="V35" s="77"/>
-      <c r="W35" s="77"/>
-      <c r="X35" s="77"/>
-      <c r="Y35" s="77"/>
-      <c r="Z35" s="77"/>
-      <c r="AA35" s="77"/>
-      <c r="AB35" s="77"/>
-      <c r="AC35" s="77"/>
-      <c r="AD35" s="78"/>
-      <c r="AE35" s="76"/>
-      <c r="AF35" s="77"/>
-      <c r="AG35" s="77"/>
-      <c r="AH35" s="78"/>
-      <c r="AI35" s="79">
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ35" s="80">
+      <c r="AJ35" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="80">
+      <c r="AK35" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="77"/>
-      <c r="AM35" s="80">
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="63">
         <f t="shared" si="3"/>
         <v>2.1818181818181817</v>
       </c>
-      <c r="AN35" s="77"/>
+      <c r="AN35" s="60"/>
     </row>
     <row r="36" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
@@ -3948,53 +4029,53 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="76">
+      <c r="H36" s="99"/>
+      <c r="I36" s="59">
         <v>8</v>
       </c>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="77"/>
-      <c r="V36" s="77"/>
-      <c r="W36" s="77"/>
-      <c r="X36" s="77"/>
-      <c r="Y36" s="77"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="77"/>
-      <c r="AB36" s="77"/>
-      <c r="AC36" s="77"/>
-      <c r="AD36" s="78"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="77"/>
-      <c r="AG36" s="77"/>
-      <c r="AH36" s="78"/>
-      <c r="AI36" s="79">
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ36" s="80">
+      <c r="AJ36" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="80">
+      <c r="AK36" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="77"/>
-      <c r="AM36" s="80">
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="63">
         <f t="shared" si="3"/>
         <v>2.1818181818181817</v>
       </c>
-      <c r="AN36" s="77"/>
+      <c r="AN36" s="60"/>
     </row>
     <row r="37" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
@@ -4014,53 +4095,53 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="76">
+      <c r="H37" s="100"/>
+      <c r="I37" s="59">
         <v>8</v>
       </c>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77"/>
-      <c r="W37" s="77"/>
-      <c r="X37" s="77"/>
-      <c r="Y37" s="77"/>
-      <c r="Z37" s="77"/>
-      <c r="AA37" s="77"/>
-      <c r="AB37" s="77"/>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="77"/>
-      <c r="AG37" s="77"/>
-      <c r="AH37" s="78"/>
-      <c r="AI37" s="79">
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ37" s="80">
+      <c r="AJ37" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="80">
+      <c r="AK37" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="77"/>
-      <c r="AM37" s="80">
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="63">
         <f t="shared" si="3"/>
         <v>2.1818181818181817</v>
       </c>
-      <c r="AN37" s="77"/>
+      <c r="AN37" s="60"/>
     </row>
     <row r="38" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
@@ -4080,59 +4161,59 @@
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="76">
+      <c r="H38" s="101"/>
+      <c r="I38" s="59">
         <v>9</v>
       </c>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="76"/>
-      <c r="U38" s="77"/>
-      <c r="V38" s="77"/>
-      <c r="W38" s="77"/>
-      <c r="X38" s="77"/>
-      <c r="Y38" s="77"/>
-      <c r="Z38" s="77"/>
-      <c r="AA38" s="77"/>
-      <c r="AB38" s="77"/>
-      <c r="AC38" s="77"/>
-      <c r="AD38" s="78"/>
-      <c r="AE38" s="76"/>
-      <c r="AF38" s="77"/>
-      <c r="AG38" s="77"/>
-      <c r="AH38" s="78"/>
-      <c r="AI38" s="79">
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="62">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AJ38" s="80">
+      <c r="AJ38" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="80">
+      <c r="AK38" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="77"/>
-      <c r="AM38" s="80">
+      <c r="AL38" s="60"/>
+      <c r="AM38" s="63">
         <f t="shared" si="3"/>
         <v>2.4545454545454546</v>
       </c>
-      <c r="AN38" s="77"/>
+      <c r="AN38" s="60"/>
     </row>
     <row r="39" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="24">
         <v>7</v>
       </c>
       <c r="C39" s="20">
@@ -4146,59 +4227,59 @@
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="76">
+      <c r="H39" s="103"/>
+      <c r="I39" s="59">
         <v>7</v>
       </c>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="76"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="77"/>
-      <c r="W39" s="77"/>
-      <c r="X39" s="77"/>
-      <c r="Y39" s="77"/>
-      <c r="Z39" s="77"/>
-      <c r="AA39" s="77"/>
-      <c r="AB39" s="77"/>
-      <c r="AC39" s="77"/>
-      <c r="AD39" s="78"/>
-      <c r="AE39" s="76"/>
-      <c r="AF39" s="77"/>
-      <c r="AG39" s="77"/>
-      <c r="AH39" s="78"/>
-      <c r="AI39" s="79">
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="61"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="60"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="62">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AJ39" s="80">
+      <c r="AJ39" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="80">
+      <c r="AK39" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="77"/>
-      <c r="AM39" s="80">
+      <c r="AL39" s="60"/>
+      <c r="AM39" s="63">
         <f t="shared" si="3"/>
         <v>1.9090909090909089</v>
       </c>
-      <c r="AN39" s="77"/>
+      <c r="AN39" s="60"/>
     </row>
     <row r="40" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="24">
         <v>7</v>
       </c>
       <c r="C40" s="20">
@@ -4212,59 +4293,59 @@
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="76">
+      <c r="H40" s="102"/>
+      <c r="I40" s="59">
         <v>9.5</v>
       </c>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="78"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="77"/>
-      <c r="V40" s="77"/>
-      <c r="W40" s="77"/>
-      <c r="X40" s="77"/>
-      <c r="Y40" s="77"/>
-      <c r="Z40" s="77"/>
-      <c r="AA40" s="77"/>
-      <c r="AB40" s="77"/>
-      <c r="AC40" s="77"/>
-      <c r="AD40" s="78"/>
-      <c r="AE40" s="76"/>
-      <c r="AF40" s="77"/>
-      <c r="AG40" s="77"/>
-      <c r="AH40" s="78"/>
-      <c r="AI40" s="79">
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="60"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="62">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="AJ40" s="80">
+      <c r="AJ40" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="80">
+      <c r="AK40" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="77"/>
-      <c r="AM40" s="80">
+      <c r="AL40" s="60"/>
+      <c r="AM40" s="63">
         <f t="shared" si="3"/>
         <v>2.5909090909090908</v>
       </c>
-      <c r="AN40" s="77"/>
+      <c r="AN40" s="60"/>
     </row>
     <row r="41" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <v>8</v>
       </c>
       <c r="C41" s="20">
@@ -4278,59 +4359,59 @@
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="76">
+      <c r="H41" s="99"/>
+      <c r="I41" s="59">
         <v>5.5</v>
       </c>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="77"/>
-      <c r="S41" s="78"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="77"/>
-      <c r="V41" s="77"/>
-      <c r="W41" s="77"/>
-      <c r="X41" s="77"/>
-      <c r="Y41" s="77"/>
-      <c r="Z41" s="77"/>
-      <c r="AA41" s="77"/>
-      <c r="AB41" s="77"/>
-      <c r="AC41" s="77"/>
-      <c r="AD41" s="78"/>
-      <c r="AE41" s="76"/>
-      <c r="AF41" s="77"/>
-      <c r="AG41" s="77"/>
-      <c r="AH41" s="78"/>
-      <c r="AI41" s="79">
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="61"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="60"/>
+      <c r="AG41" s="60"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="62">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="AJ41" s="80">
+      <c r="AJ41" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="80">
+      <c r="AK41" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="77"/>
-      <c r="AM41" s="80">
+      <c r="AL41" s="60"/>
+      <c r="AM41" s="63">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="AN41" s="77"/>
+      <c r="AN41" s="60"/>
     </row>
     <row r="42" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="24">
         <v>8</v>
       </c>
       <c r="C42" s="20">
@@ -4344,53 +4425,53 @@
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="76">
+      <c r="H42" s="100"/>
+      <c r="I42" s="59">
         <v>7.5</v>
       </c>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="77"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="77"/>
-      <c r="V42" s="77"/>
-      <c r="W42" s="77"/>
-      <c r="X42" s="77"/>
-      <c r="Y42" s="77"/>
-      <c r="Z42" s="77"/>
-      <c r="AA42" s="77"/>
-      <c r="AB42" s="77"/>
-      <c r="AC42" s="77"/>
-      <c r="AD42" s="78"/>
-      <c r="AE42" s="76"/>
-      <c r="AF42" s="77"/>
-      <c r="AG42" s="77"/>
-      <c r="AH42" s="78"/>
-      <c r="AI42" s="79">
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="60"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="62">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="AJ42" s="80">
+      <c r="AJ42" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK42" s="80">
+      <c r="AK42" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="77"/>
-      <c r="AM42" s="80">
+      <c r="AL42" s="60"/>
+      <c r="AM42" s="63">
         <f t="shared" si="3"/>
         <v>2.0454545454545454</v>
       </c>
-      <c r="AN42" s="77"/>
+      <c r="AN42" s="60"/>
     </row>
     <row r="43" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
@@ -4410,53 +4491,53 @@
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="76">
+      <c r="H43" s="99"/>
+      <c r="I43" s="59">
         <v>7.5</v>
       </c>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="77"/>
-      <c r="S43" s="78"/>
-      <c r="T43" s="76"/>
-      <c r="U43" s="77"/>
-      <c r="V43" s="77"/>
-      <c r="W43" s="77"/>
-      <c r="X43" s="77"/>
-      <c r="Y43" s="77"/>
-      <c r="Z43" s="77"/>
-      <c r="AA43" s="77"/>
-      <c r="AB43" s="77"/>
-      <c r="AC43" s="77"/>
-      <c r="AD43" s="78"/>
-      <c r="AE43" s="76"/>
-      <c r="AF43" s="77"/>
-      <c r="AG43" s="77"/>
-      <c r="AH43" s="78"/>
-      <c r="AI43" s="79">
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="60"/>
+      <c r="AG43" s="60"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="62">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="AJ43" s="80">
+      <c r="AJ43" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK43" s="80">
+      <c r="AK43" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL43" s="77"/>
-      <c r="AM43" s="80">
+      <c r="AL43" s="60"/>
+      <c r="AM43" s="63">
         <f t="shared" si="3"/>
         <v>2.0454545454545454</v>
       </c>
-      <c r="AN43" s="77"/>
+      <c r="AN43" s="60"/>
     </row>
     <row r="44" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
@@ -4476,317 +4557,317 @@
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="76">
-        <v>0</v>
-      </c>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="77"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="77"/>
-      <c r="V44" s="77"/>
-      <c r="W44" s="77"/>
-      <c r="X44" s="77"/>
-      <c r="Y44" s="77"/>
-      <c r="Z44" s="77"/>
-      <c r="AA44" s="77"/>
-      <c r="AB44" s="77"/>
-      <c r="AC44" s="77"/>
-      <c r="AD44" s="78"/>
-      <c r="AE44" s="76"/>
-      <c r="AF44" s="77"/>
-      <c r="AG44" s="77"/>
-      <c r="AH44" s="78"/>
-      <c r="AI44" s="79">
+      <c r="H44" s="100"/>
+      <c r="I44" s="64">
+        <v>0</v>
+      </c>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="60"/>
+      <c r="Y44" s="60"/>
+      <c r="Z44" s="60"/>
+      <c r="AA44" s="60"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="59"/>
+      <c r="AF44" s="60"/>
+      <c r="AG44" s="60"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ44" s="80">
+      <c r="AJ44" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK44" s="80">
+      <c r="AK44" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL44" s="77"/>
-      <c r="AM44" s="80">
+      <c r="AL44" s="60"/>
+      <c r="AM44" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN44" s="77"/>
+      <c r="AN44" s="60"/>
     </row>
     <row r="45" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="82">
         <v>10</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="83">
         <v>202302226</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="84">
         <v>1046182647</v>
       </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="81">
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="85">
         <v>10</v>
       </c>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="82"/>
-      <c r="AC45" s="82"/>
-      <c r="AD45" s="84"/>
-      <c r="AE45" s="81"/>
-      <c r="AF45" s="82"/>
-      <c r="AG45" s="82"/>
-      <c r="AH45" s="84"/>
-      <c r="AI45" s="79">
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="67"/>
+      <c r="AE45" s="64"/>
+      <c r="AF45" s="65"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="67"/>
+      <c r="AI45" s="62">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AJ45" s="80">
+      <c r="AJ45" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK45" s="80">
+      <c r="AK45" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL45" s="77"/>
-      <c r="AM45" s="80">
+      <c r="AL45" s="60"/>
+      <c r="AM45" s="63">
         <f t="shared" si="3"/>
         <v>2.7272727272727275</v>
       </c>
-      <c r="AN45" s="77"/>
+      <c r="AN45" s="60"/>
     </row>
     <row r="46" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="82">
         <v>10</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="83">
         <v>202302227</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="84">
         <v>1038871469</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="81">
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="85">
         <v>10</v>
       </c>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="82"/>
-      <c r="Z46" s="82"/>
-      <c r="AA46" s="82"/>
-      <c r="AB46" s="82"/>
-      <c r="AC46" s="82"/>
-      <c r="AD46" s="84"/>
-      <c r="AE46" s="81"/>
-      <c r="AF46" s="82"/>
-      <c r="AG46" s="82"/>
-      <c r="AH46" s="84"/>
-      <c r="AI46" s="79">
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="65"/>
+      <c r="AA46" s="65"/>
+      <c r="AB46" s="65"/>
+      <c r="AC46" s="65"/>
+      <c r="AD46" s="67"/>
+      <c r="AE46" s="64"/>
+      <c r="AF46" s="65"/>
+      <c r="AG46" s="65"/>
+      <c r="AH46" s="67"/>
+      <c r="AI46" s="62">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AJ46" s="80">
+      <c r="AJ46" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK46" s="80">
+      <c r="AK46" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="77"/>
-      <c r="AM46" s="80">
+      <c r="AL46" s="60"/>
+      <c r="AM46" s="63">
         <f t="shared" si="3"/>
         <v>2.7272727272727275</v>
       </c>
-      <c r="AN46" s="77"/>
+      <c r="AN46" s="60"/>
     </row>
     <row r="47" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="86">
         <v>11</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="83">
         <v>202302237</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="84">
         <v>1038626854</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="81">
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="85">
         <v>8</v>
       </c>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="84"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="82"/>
-      <c r="V47" s="82"/>
-      <c r="W47" s="82"/>
-      <c r="X47" s="82"/>
-      <c r="Y47" s="82"/>
-      <c r="Z47" s="82"/>
-      <c r="AA47" s="82"/>
-      <c r="AB47" s="82"/>
-      <c r="AC47" s="82"/>
-      <c r="AD47" s="84"/>
-      <c r="AE47" s="81"/>
-      <c r="AF47" s="82"/>
-      <c r="AG47" s="82"/>
-      <c r="AH47" s="84"/>
-      <c r="AI47" s="79">
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="64"/>
+      <c r="U47" s="65"/>
+      <c r="V47" s="65"/>
+      <c r="W47" s="65"/>
+      <c r="X47" s="65"/>
+      <c r="Y47" s="65"/>
+      <c r="Z47" s="65"/>
+      <c r="AA47" s="65"/>
+      <c r="AB47" s="65"/>
+      <c r="AC47" s="65"/>
+      <c r="AD47" s="67"/>
+      <c r="AE47" s="64"/>
+      <c r="AF47" s="65"/>
+      <c r="AG47" s="65"/>
+      <c r="AH47" s="67"/>
+      <c r="AI47" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ47" s="80">
+      <c r="AJ47" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK47" s="80">
+      <c r="AK47" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="77"/>
-      <c r="AM47" s="80">
+      <c r="AL47" s="60"/>
+      <c r="AM47" s="63">
         <f t="shared" si="3"/>
         <v>2.1818181818181817</v>
       </c>
-      <c r="AN47" s="77"/>
+      <c r="AN47" s="60"/>
     </row>
     <row r="48" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="88">
         <v>11</v>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="89">
         <v>202302238</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="90">
         <v>1071157029</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="76">
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="85">
         <v>3.5</v>
       </c>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="77"/>
-      <c r="Q48" s="77"/>
-      <c r="R48" s="77"/>
-      <c r="S48" s="78"/>
-      <c r="T48" s="76"/>
-      <c r="U48" s="77"/>
-      <c r="V48" s="77"/>
-      <c r="W48" s="77"/>
-      <c r="X48" s="77"/>
-      <c r="Y48" s="77"/>
-      <c r="Z48" s="77"/>
-      <c r="AA48" s="77"/>
-      <c r="AB48" s="77"/>
-      <c r="AC48" s="77"/>
-      <c r="AD48" s="78"/>
-      <c r="AE48" s="76"/>
-      <c r="AF48" s="77"/>
-      <c r="AG48" s="77"/>
-      <c r="AH48" s="78"/>
-      <c r="AI48" s="79">
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="59"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="60"/>
+      <c r="Y48" s="60"/>
+      <c r="Z48" s="60"/>
+      <c r="AA48" s="60"/>
+      <c r="AB48" s="60"/>
+      <c r="AC48" s="60"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="59"/>
+      <c r="AF48" s="60"/>
+      <c r="AG48" s="60"/>
+      <c r="AH48" s="61"/>
+      <c r="AI48" s="62">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="AJ48" s="80">
+      <c r="AJ48" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK48" s="80">
+      <c r="AK48" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL48" s="77"/>
-      <c r="AM48" s="80">
+      <c r="AL48" s="60"/>
+      <c r="AM48" s="63">
         <f t="shared" si="3"/>
         <v>0.95454545454545447</v>
       </c>
-      <c r="AN48" s="77"/>
+      <c r="AN48" s="60"/>
     </row>
     <row r="49" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F49" s="1"/>
@@ -4794,131 +4875,131 @@
       <c r="H49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="85">
+      <c r="I49" s="68">
         <f>AVERAGE(I2:I25)</f>
         <v>7.2173913043478262</v>
       </c>
-      <c r="J49" s="86" t="e">
+      <c r="J49" s="69" t="e">
         <f>AVERAGE(J2:J25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="86" t="e">
+      <c r="K49" s="69" t="e">
         <f>AVERAGE(K2:K25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="86" t="e">
+      <c r="L49" s="69" t="e">
         <f>AVERAGE(L2:L32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M49" s="86" t="e">
+      <c r="M49" s="69" t="e">
         <f>AVERAGE(M2:M32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N49" s="86" t="e">
+      <c r="N49" s="69" t="e">
         <f>AVERAGE(N2:N32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="86" t="e">
+      <c r="O49" s="69" t="e">
         <f>AVERAGE(O2:O32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P49" s="86" t="e">
+      <c r="P49" s="69" t="e">
         <f>AVERAGE(P2:P26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q49" s="86" t="e">
+      <c r="Q49" s="69" t="e">
         <f>AVERAGE(Q2:Q32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R49" s="86" t="e">
+      <c r="R49" s="69" t="e">
         <f>AVERAGE(R2:R32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S49" s="87" t="e">
+      <c r="S49" s="70" t="e">
         <f>AVERAGE(S2:S32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T49" s="85" t="e">
+      <c r="T49" s="68" t="e">
         <f>AVERAGE(T2:T25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U49" s="86" t="e">
+      <c r="U49" s="69" t="e">
         <f>AVERAGE(U2:U32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V49" s="86" t="e">
+      <c r="V49" s="69" t="e">
         <f>AVERAGE(V2:V25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W49" s="86" t="e">
+      <c r="W49" s="69" t="e">
         <f>AVERAGE(W2:W32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X49" s="86" t="e">
+      <c r="X49" s="69" t="e">
         <f>AVERAGE(X2:X25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y49" s="86" t="e">
+      <c r="Y49" s="69" t="e">
         <f>AVERAGE(Y2:Y25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z49" s="86" t="e">
+      <c r="Z49" s="69" t="e">
         <f>AVERAGE(Z2:Z32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="86" t="e">
+      <c r="AA49" s="69" t="e">
         <f>AVERAGE(AA2:AA25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB49" s="86" t="e">
+      <c r="AB49" s="69" t="e">
         <f>AVERAGE(AB2:AB32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC49" s="86" t="e">
+      <c r="AC49" s="69" t="e">
         <f>AVERAGE(AC2:AC25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="87" t="e">
+      <c r="AD49" s="70" t="e">
         <f>AVERAGE(AD2:AD32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE49" s="85" t="e">
+      <c r="AE49" s="68" t="e">
         <f>AVERAGE(AE2:AE32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF49" s="86" t="e">
+      <c r="AF49" s="69" t="e">
         <f>AVERAGE(AF2:AF32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG49" s="86" t="e">
+      <c r="AG49" s="69" t="e">
         <f>AVERAGE(AG2:AG32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH49" s="87" t="e">
+      <c r="AH49" s="70" t="e">
         <f>AVERAGE(AH2:AH32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI49" s="88">
+      <c r="AI49" s="71">
         <f>AVERAGE(AI2:AI25)</f>
         <v>6.916666666666667</v>
       </c>
-      <c r="AJ49" s="86">
+      <c r="AJ49" s="69">
         <f>AVERAGE(AJ2:AJ25)</f>
         <v>0</v>
       </c>
-      <c r="AK49" s="86">
+      <c r="AK49" s="69">
         <f>AVERAGE(AK2:AK25)</f>
         <v>0</v>
       </c>
-      <c r="AL49" s="86" t="e">
+      <c r="AL49" s="69" t="e">
         <f>AVERAGE(AL2:AL25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM49" s="86">
+      <c r="AM49" s="69">
         <f>AVERAGE(AM2:AM25)</f>
         <v>1.8863636363636365</v>
       </c>
-      <c r="AN49" s="86"/>
+      <c r="AN49" s="69"/>
     </row>
     <row r="50" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F50" s="2"/>
@@ -4926,131 +5007,131 @@
       <c r="H50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="85">
+      <c r="I50" s="68">
         <f>AVERAGE(I26:I48)</f>
         <v>7.4565217391304346</v>
       </c>
-      <c r="J50" s="86" t="e">
+      <c r="J50" s="69" t="e">
         <f t="shared" ref="J50:AM50" si="4">AVERAGE(J26:J48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="86" t="e">
+      <c r="K50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="86" t="e">
+      <c r="L50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M50" s="86" t="e">
+      <c r="M50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="86" t="e">
+      <c r="N50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O50" s="86" t="e">
+      <c r="O50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P50" s="86" t="e">
+      <c r="P50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q50" s="86" t="e">
+      <c r="Q50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R50" s="86" t="e">
+      <c r="R50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S50" s="87" t="e">
+      <c r="S50" s="70" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T50" s="85" t="e">
+      <c r="T50" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U50" s="86" t="e">
+      <c r="U50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V50" s="86" t="e">
+      <c r="V50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W50" s="86" t="e">
+      <c r="W50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X50" s="86" t="e">
+      <c r="X50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y50" s="86" t="e">
+      <c r="Y50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z50" s="86" t="e">
+      <c r="Z50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="86" t="e">
+      <c r="AA50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB50" s="86" t="e">
+      <c r="AB50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="86" t="e">
+      <c r="AC50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="87" t="e">
+      <c r="AD50" s="70" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE50" s="85" t="e">
+      <c r="AE50" s="68" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF50" s="86" t="e">
+      <c r="AF50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG50" s="86" t="e">
+      <c r="AG50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH50" s="87" t="e">
+      <c r="AH50" s="70" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI50" s="88">
+      <c r="AI50" s="71">
         <f t="shared" si="4"/>
         <v>7.4565217391304346</v>
       </c>
-      <c r="AJ50" s="86">
+      <c r="AJ50" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK50" s="86">
+      <c r="AK50" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="86" t="e">
+      <c r="AL50" s="69" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM50" s="86">
+      <c r="AM50" s="69">
         <f t="shared" si="4"/>
         <v>2.0335968379446636</v>
       </c>
-      <c r="AN50" s="86"/>
+      <c r="AN50" s="69"/>
     </row>
     <row r="51" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F51" s="2"/>
@@ -5058,131 +5139,131 @@
       <c r="H51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="85">
+      <c r="I51" s="68">
         <f t="shared" ref="I51:AM51" si="5">AVERAGE(I2:I48)</f>
         <v>7.3369565217391308</v>
       </c>
-      <c r="J51" s="86" t="e">
+      <c r="J51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="86" t="e">
+      <c r="K51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="86" t="e">
+      <c r="L51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M51" s="86" t="e">
+      <c r="M51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N51" s="86" t="e">
+      <c r="N51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O51" s="86" t="e">
+      <c r="O51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P51" s="86" t="e">
+      <c r="P51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q51" s="86" t="e">
+      <c r="Q51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R51" s="86" t="e">
+      <c r="R51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S51" s="87" t="e">
+      <c r="S51" s="70" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T51" s="85" t="e">
+      <c r="T51" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U51" s="86" t="e">
+      <c r="U51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V51" s="86" t="e">
+      <c r="V51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W51" s="86" t="e">
+      <c r="W51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X51" s="86" t="e">
+      <c r="X51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y51" s="86" t="e">
+      <c r="Y51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z51" s="86" t="e">
+      <c r="Z51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="86" t="e">
+      <c r="AA51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB51" s="86" t="e">
+      <c r="AB51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC51" s="86" t="e">
+      <c r="AC51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="87" t="e">
+      <c r="AD51" s="70" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE51" s="85" t="e">
+      <c r="AE51" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF51" s="86" t="e">
+      <c r="AF51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG51" s="86" t="e">
+      <c r="AG51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH51" s="87" t="e">
+      <c r="AH51" s="70" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI51" s="88">
+      <c r="AI51" s="71">
         <f t="shared" si="5"/>
         <v>7.1808510638297873</v>
       </c>
-      <c r="AJ51" s="86">
+      <c r="AJ51" s="69">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK51" s="86">
+      <c r="AK51" s="69">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL51" s="86" t="e">
+      <c r="AL51" s="69" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM51" s="86">
+      <c r="AM51" s="69">
         <f t="shared" si="5"/>
         <v>1.9584139264990335</v>
       </c>
-      <c r="AN51" s="86"/>
+      <c r="AN51" s="69"/>
     </row>
     <row r="52" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F52" s="2"/>
@@ -5190,131 +5271,131 @@
       <c r="H52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="85">
+      <c r="I52" s="68">
         <f t="shared" ref="I52:AM52" si="6">STDEV(I2:I48)</f>
         <v>2.9572027845886293</v>
       </c>
-      <c r="J52" s="86" t="e">
+      <c r="J52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="86" t="e">
+      <c r="K52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="86" t="e">
+      <c r="L52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M52" s="86" t="e">
+      <c r="M52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N52" s="86" t="e">
+      <c r="N52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O52" s="86" t="e">
+      <c r="O52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P52" s="86" t="e">
+      <c r="P52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q52" s="86" t="e">
+      <c r="Q52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R52" s="86" t="e">
+      <c r="R52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S52" s="87" t="e">
+      <c r="S52" s="70" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T52" s="85" t="e">
+      <c r="T52" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U52" s="86" t="e">
+      <c r="U52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V52" s="86" t="e">
+      <c r="V52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W52" s="86" t="e">
+      <c r="W52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X52" s="86" t="e">
+      <c r="X52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y52" s="86" t="e">
+      <c r="Y52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z52" s="86" t="e">
+      <c r="Z52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="86" t="e">
+      <c r="AA52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB52" s="86" t="e">
+      <c r="AB52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC52" s="86" t="e">
+      <c r="AC52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="87" t="e">
+      <c r="AD52" s="70" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE52" s="85" t="e">
+      <c r="AE52" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF52" s="86" t="e">
+      <c r="AF52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG52" s="86" t="e">
+      <c r="AG52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH52" s="87" t="e">
+      <c r="AH52" s="70" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI52" s="88">
+      <c r="AI52" s="71">
         <f t="shared" si="6"/>
         <v>3.1145268534424386</v>
       </c>
-      <c r="AJ52" s="86">
+      <c r="AJ52" s="69">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK52" s="86">
+      <c r="AK52" s="69">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="86" t="e">
+      <c r="AL52" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM52" s="86">
+      <c r="AM52" s="69">
         <f t="shared" si="6"/>
         <v>0.84941641457520922</v>
       </c>
-      <c r="AN52" s="86"/>
+      <c r="AN52" s="69"/>
     </row>
     <row r="53" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
@@ -5322,131 +5403,131 @@
       <c r="H53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="85">
+      <c r="I53" s="68">
         <f t="shared" ref="I53:AM53" si="7">MAX(I2:I48)</f>
         <v>10</v>
       </c>
-      <c r="J53" s="86">
+      <c r="J53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K53" s="86">
+      <c r="K53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L53" s="86">
+      <c r="L53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M53" s="86">
+      <c r="M53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N53" s="86">
+      <c r="N53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O53" s="86">
+      <c r="O53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P53" s="86">
+      <c r="P53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="86">
+      <c r="Q53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R53" s="86">
+      <c r="R53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S53" s="87">
+      <c r="S53" s="70">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T53" s="85">
+      <c r="T53" s="68">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U53" s="86">
+      <c r="U53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V53" s="86">
+      <c r="V53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W53" s="86">
+      <c r="W53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X53" s="86">
+      <c r="X53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y53" s="86">
+      <c r="Y53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z53" s="86">
+      <c r="Z53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA53" s="86">
+      <c r="AA53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB53" s="86">
+      <c r="AB53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="86">
+      <c r="AC53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="87">
+      <c r="AD53" s="70">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="85">
+      <c r="AE53" s="68">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF53" s="86">
+      <c r="AF53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="86">
+      <c r="AG53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="87">
+      <c r="AH53" s="70">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI53" s="88">
+      <c r="AI53" s="71">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AJ53" s="86">
+      <c r="AJ53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK53" s="86">
+      <c r="AK53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL53" s="86">
+      <c r="AL53" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AM53" s="86">
+      <c r="AM53" s="69">
         <f t="shared" si="7"/>
         <v>2.7272727272727275</v>
       </c>
-      <c r="AN53" s="86"/>
+      <c r="AN53" s="69"/>
     </row>
     <row r="54" spans="6:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
@@ -5454,151 +5535,157 @@
       <c r="H54" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="89">
+      <c r="I54" s="72">
         <f t="shared" ref="I54:AM54" si="8">MIN(I2:I48)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="90">
+      <c r="J54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K54" s="90">
+      <c r="K54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L54" s="90">
+      <c r="L54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M54" s="90">
+      <c r="M54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N54" s="90">
+      <c r="N54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O54" s="90">
+      <c r="O54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P54" s="90">
+      <c r="P54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="90">
+      <c r="Q54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R54" s="90">
+      <c r="R54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S54" s="91">
+      <c r="S54" s="74">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T54" s="89">
+      <c r="T54" s="72">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U54" s="90">
+      <c r="U54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V54" s="90">
+      <c r="V54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W54" s="90">
+      <c r="W54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X54" s="90">
+      <c r="X54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y54" s="90">
+      <c r="Y54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z54" s="90">
+      <c r="Z54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA54" s="90">
+      <c r="AA54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB54" s="90">
+      <c r="AB54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="90">
+      <c r="AC54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD54" s="91">
+      <c r="AD54" s="74">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE54" s="89">
+      <c r="AE54" s="72">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF54" s="90">
+      <c r="AF54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="90">
+      <c r="AG54" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH54" s="91">
+      <c r="AH54" s="74">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI54" s="88">
+      <c r="AI54" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ54" s="86">
+      <c r="AJ54" s="69">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK54" s="86">
+      <c r="AK54" s="69">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL54" s="86">
+      <c r="AL54" s="69">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM54" s="86">
+      <c r="AM54" s="69">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN54" s="86"/>
+      <c r="AN54" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="23">
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H36:H38"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="H17:H22"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5616,12 +5703,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -5803,6 +5884,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
@@ -5812,22 +5899,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5843,4 +5914,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44437B2E-2E16-47C0-9461-EC8EF9BDEB1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF80AF4D-B9AD-46DD-8532-F10292BDFDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1309,94 +1309,94 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="19" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1626,8 +1626,8 @@
   </sheetPr>
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
-      <c r="H2" s="76"/>
+      <c r="H2" s="106"/>
       <c r="I2" s="34">
         <v>9</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="77"/>
+      <c r="H3" s="107"/>
       <c r="I3" s="34">
         <v>10</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
-      <c r="H4" s="76"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="34">
         <v>8</v>
       </c>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="77"/>
+      <c r="H5" s="107"/>
       <c r="I5" s="34">
         <v>10</v>
       </c>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="76"/>
+      <c r="H6" s="106"/>
       <c r="I6" s="34">
         <v>9</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="77"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="34">
         <v>9</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="76"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="34">
         <v>8.5</v>
       </c>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="77"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="34">
         <v>6.5</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="76"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="34">
         <v>10</v>
       </c>
@@ -2381,9 +2381,9 @@
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="77"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
@@ -2412,7 +2412,7 @@
       <c r="AH11" s="45"/>
       <c r="AI11" s="46">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ11" s="44">
         <f t="shared" si="1"/>
@@ -2425,7 +2425,7 @@
       <c r="AL11" s="44"/>
       <c r="AM11" s="44">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="AN11" s="44"/>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="76"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="34">
         <v>8.5</v>
       </c>
@@ -2513,9 +2513,9 @@
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="77"/>
+      <c r="H13" s="107"/>
       <c r="I13" s="34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
@@ -2544,7 +2544,7 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="46">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ13" s="44">
         <f t="shared" si="1"/>
@@ -2557,7 +2557,7 @@
       <c r="AL13" s="44"/>
       <c r="AM13" s="44">
         <f t="shared" si="3"/>
-        <v>1.9090909090909089</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="AN13" s="44"/>
     </row>
@@ -2579,9 +2579,9 @@
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="76"/>
+      <c r="H14" s="106"/>
       <c r="I14" s="34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
@@ -2610,7 +2610,7 @@
       <c r="AH14" s="45"/>
       <c r="AI14" s="46">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ14" s="44">
         <f t="shared" si="1"/>
@@ -2623,7 +2623,7 @@
       <c r="AL14" s="44"/>
       <c r="AM14" s="44">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="AN14" s="44"/>
     </row>
@@ -2645,8 +2645,10 @@
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="34"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="34">
+        <v>5</v>
+      </c>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
@@ -2674,7 +2676,7 @@
       <c r="AH15" s="45"/>
       <c r="AI15" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ15" s="44">
         <f t="shared" si="1"/>
@@ -2687,7 +2689,7 @@
       <c r="AL15" s="44"/>
       <c r="AM15" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3636363636363638</v>
       </c>
       <c r="AN15" s="44"/>
     </row>
@@ -2709,8 +2711,8 @@
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="91">
+      <c r="H16" s="104"/>
+      <c r="I16" s="86">
         <v>0</v>
       </c>
       <c r="J16" s="44"/>
@@ -2775,8 +2777,8 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="91">
+      <c r="H17" s="105"/>
+      <c r="I17" s="86">
         <v>0</v>
       </c>
       <c r="J17" s="44"/>
@@ -2841,9 +2843,9 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="92"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
@@ -2872,7 +2874,7 @@
       <c r="AH18" s="45"/>
       <c r="AI18" s="46">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ18" s="44">
         <f t="shared" si="1"/>
@@ -2885,7 +2887,7 @@
       <c r="AL18" s="44"/>
       <c r="AM18" s="44">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="AN18" s="44"/>
     </row>
@@ -2907,7 +2909,7 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="96"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="34">
         <v>8</v>
       </c>
@@ -2973,7 +2975,7 @@
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="92"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="34">
         <v>10</v>
       </c>
@@ -3039,8 +3041,8 @@
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="91">
+      <c r="H21" s="103"/>
+      <c r="I21" s="86">
         <v>0</v>
       </c>
       <c r="J21" s="44"/>
@@ -3105,7 +3107,7 @@
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="94"/>
+      <c r="H22" s="101"/>
       <c r="I22" s="34">
         <v>6.5</v>
       </c>
@@ -3171,7 +3173,7 @@
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="95"/>
+      <c r="H23" s="102"/>
       <c r="I23" s="34">
         <v>10</v>
       </c>
@@ -3237,8 +3239,8 @@
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="91">
+      <c r="H24" s="99"/>
+      <c r="I24" s="86">
         <v>0</v>
       </c>
       <c r="J24" s="44"/>
@@ -3303,9 +3305,9 @@
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="93"/>
+      <c r="H25" s="100"/>
       <c r="I25" s="51">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
@@ -3334,7 +3336,7 @@
       <c r="AH25" s="53"/>
       <c r="AI25" s="51">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ25" s="52">
         <f t="shared" si="1"/>
@@ -3347,7 +3349,7 @@
       <c r="AL25" s="52"/>
       <c r="AM25" s="52">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>2.3181818181818183</v>
       </c>
       <c r="AN25" s="52"/>
     </row>
@@ -3369,7 +3371,7 @@
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="80"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="54">
         <v>5.5</v>
       </c>
@@ -3435,7 +3437,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="79"/>
+      <c r="H27" s="97"/>
       <c r="I27" s="59">
         <v>7</v>
       </c>
@@ -3501,9 +3503,9 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="78"/>
+      <c r="H28" s="98"/>
       <c r="I28" s="59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J28" s="60"/>
       <c r="K28" s="60"/>
@@ -3532,7 +3534,7 @@
       <c r="AH28" s="61"/>
       <c r="AI28" s="62">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ28" s="63">
         <f t="shared" si="1"/>
@@ -3545,7 +3547,7 @@
       <c r="AL28" s="60"/>
       <c r="AM28" s="63">
         <f t="shared" si="3"/>
-        <v>1.9090909090909089</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="AN28" s="60"/>
     </row>
@@ -3567,7 +3569,7 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="79"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="59">
         <v>10</v>
       </c>
@@ -3633,7 +3635,7 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="78"/>
+      <c r="H30" s="98"/>
       <c r="I30" s="59">
         <v>9</v>
       </c>
@@ -3699,7 +3701,7 @@
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="79"/>
+      <c r="H31" s="97"/>
       <c r="I31" s="59">
         <v>8</v>
       </c>
@@ -3765,9 +3767,9 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="99"/>
+      <c r="H32" s="92"/>
       <c r="I32" s="59">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J32" s="60"/>
       <c r="K32" s="60"/>
@@ -3796,7 +3798,7 @@
       <c r="AH32" s="61"/>
       <c r="AI32" s="62">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ32" s="63">
         <f t="shared" si="1"/>
@@ -3809,7 +3811,7 @@
       <c r="AL32" s="60"/>
       <c r="AM32" s="63">
         <f t="shared" si="3"/>
-        <v>1.6363636363636362</v>
+        <v>1.5</v>
       </c>
       <c r="AN32" s="60"/>
     </row>
@@ -3831,9 +3833,9 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="100"/>
+      <c r="H33" s="93"/>
       <c r="I33" s="59">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J33" s="60"/>
       <c r="K33" s="60"/>
@@ -3862,7 +3864,7 @@
       <c r="AH33" s="61"/>
       <c r="AI33" s="62">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ33" s="63">
         <f t="shared" si="1"/>
@@ -3875,7 +3877,7 @@
       <c r="AL33" s="60"/>
       <c r="AM33" s="63">
         <f t="shared" si="3"/>
-        <v>2.5909090909090908</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="AN33" s="60"/>
     </row>
@@ -3897,7 +3899,7 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="101"/>
+      <c r="H34" s="89"/>
       <c r="I34" s="59">
         <v>8</v>
       </c>
@@ -3963,7 +3965,7 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="102"/>
+      <c r="H35" s="91"/>
       <c r="I35" s="59">
         <v>8</v>
       </c>
@@ -4029,7 +4031,7 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="99"/>
+      <c r="H36" s="92"/>
       <c r="I36" s="59">
         <v>8</v>
       </c>
@@ -4095,7 +4097,7 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="100"/>
+      <c r="H37" s="93"/>
       <c r="I37" s="59">
         <v>8</v>
       </c>
@@ -4161,7 +4163,7 @@
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="101"/>
+      <c r="H38" s="89"/>
       <c r="I38" s="59">
         <v>9</v>
       </c>
@@ -4227,9 +4229,9 @@
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="103"/>
+      <c r="H39" s="90"/>
       <c r="I39" s="59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J39" s="60"/>
       <c r="K39" s="60"/>
@@ -4258,7 +4260,7 @@
       <c r="AH39" s="61"/>
       <c r="AI39" s="62">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ39" s="63">
         <f t="shared" si="1"/>
@@ -4271,7 +4273,7 @@
       <c r="AL39" s="60"/>
       <c r="AM39" s="63">
         <f t="shared" si="3"/>
-        <v>1.9090909090909089</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="AN39" s="60"/>
     </row>
@@ -4293,7 +4295,7 @@
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="102"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="59">
         <v>9.5</v>
       </c>
@@ -4359,7 +4361,7 @@
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="99"/>
+      <c r="H41" s="92"/>
       <c r="I41" s="59">
         <v>5.5</v>
       </c>
@@ -4425,7 +4427,7 @@
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="100"/>
+      <c r="H42" s="93"/>
       <c r="I42" s="59">
         <v>7.5</v>
       </c>
@@ -4491,7 +4493,7 @@
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="99"/>
+      <c r="H43" s="92"/>
       <c r="I43" s="59">
         <v>7.5</v>
       </c>
@@ -4557,7 +4559,7 @@
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="100"/>
+      <c r="H44" s="93"/>
       <c r="I44" s="64">
         <v>0</v>
       </c>
@@ -4606,25 +4608,25 @@
       <c r="AN44" s="60"/>
     </row>
     <row r="45" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="82">
+      <c r="B45" s="77">
         <v>10</v>
       </c>
-      <c r="C45" s="83">
+      <c r="C45" s="78">
         <v>202302226</v>
       </c>
-      <c r="D45" s="83" t="s">
+      <c r="D45" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="84">
+      <c r="E45" s="79">
         <v>1046182647</v>
       </c>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="85">
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="80">
         <v>10</v>
       </c>
       <c r="J45" s="65"/>
@@ -4672,25 +4674,25 @@
       <c r="AN45" s="60"/>
     </row>
     <row r="46" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="82">
+      <c r="B46" s="77">
         <v>10</v>
       </c>
-      <c r="C46" s="83">
+      <c r="C46" s="78">
         <v>202302227</v>
       </c>
-      <c r="D46" s="83" t="s">
+      <c r="D46" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="84">
+      <c r="E46" s="79">
         <v>1038871469</v>
       </c>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="85">
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="80">
         <v>10</v>
       </c>
       <c r="J46" s="65"/>
@@ -4738,25 +4740,25 @@
       <c r="AN46" s="60"/>
     </row>
     <row r="47" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="86">
+      <c r="B47" s="81">
         <v>11</v>
       </c>
-      <c r="C47" s="83">
+      <c r="C47" s="78">
         <v>202302237</v>
       </c>
-      <c r="D47" s="83" t="s">
+      <c r="D47" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="84">
+      <c r="E47" s="79">
         <v>1038626854</v>
       </c>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="85">
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="80">
         <v>8</v>
       </c>
       <c r="J47" s="65"/>
@@ -4804,25 +4806,25 @@
       <c r="AN47" s="60"/>
     </row>
     <row r="48" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="88">
+      <c r="B48" s="83">
         <v>11</v>
       </c>
-      <c r="C48" s="89">
+      <c r="C48" s="84">
         <v>202302238</v>
       </c>
-      <c r="D48" s="89" t="s">
+      <c r="D48" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="90">
+      <c r="E48" s="85">
         <v>1071157029</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="85">
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="80">
         <v>3.5</v>
       </c>
       <c r="J48" s="60"/>
@@ -4877,7 +4879,7 @@
       </c>
       <c r="I49" s="68">
         <f>AVERAGE(I2:I25)</f>
-        <v>7.2173913043478262</v>
+        <v>7.104166666666667</v>
       </c>
       <c r="J49" s="69" t="e">
         <f>AVERAGE(J2:J25)</f>
@@ -4981,7 +4983,7 @@
       </c>
       <c r="AI49" s="71">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>6.916666666666667</v>
+        <v>7.104166666666667</v>
       </c>
       <c r="AJ49" s="69">
         <f>AVERAGE(AJ2:AJ25)</f>
@@ -4997,7 +4999,7 @@
       </c>
       <c r="AM49" s="69">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>1.8863636363636365</v>
+        <v>1.9375</v>
       </c>
       <c r="AN49" s="69"/>
     </row>
@@ -5009,7 +5011,7 @@
       </c>
       <c r="I50" s="68">
         <f>AVERAGE(I26:I48)</f>
-        <v>7.4565217391304346</v>
+        <v>7.5434782608695654</v>
       </c>
       <c r="J50" s="69" t="e">
         <f t="shared" ref="J50:AM50" si="4">AVERAGE(J26:J48)</f>
@@ -5113,7 +5115,7 @@
       </c>
       <c r="AI50" s="71">
         <f t="shared" si="4"/>
-        <v>7.4565217391304346</v>
+        <v>7.5434782608695654</v>
       </c>
       <c r="AJ50" s="69">
         <f t="shared" si="4"/>
@@ -5129,7 +5131,7 @@
       </c>
       <c r="AM50" s="69">
         <f t="shared" si="4"/>
-        <v>2.0335968379446636</v>
+        <v>2.0573122529644268</v>
       </c>
       <c r="AN50" s="69"/>
     </row>
@@ -5141,7 +5143,7 @@
       </c>
       <c r="I51" s="68">
         <f t="shared" ref="I51:AM51" si="5">AVERAGE(I2:I48)</f>
-        <v>7.3369565217391308</v>
+        <v>7.3191489361702127</v>
       </c>
       <c r="J51" s="69" t="e">
         <f t="shared" si="5"/>
@@ -5245,7 +5247,7 @@
       </c>
       <c r="AI51" s="71">
         <f t="shared" si="5"/>
-        <v>7.1808510638297873</v>
+        <v>7.3191489361702127</v>
       </c>
       <c r="AJ51" s="69">
         <f t="shared" si="5"/>
@@ -5261,7 +5263,7 @@
       </c>
       <c r="AM51" s="69">
         <f t="shared" si="5"/>
-        <v>1.9584139264990335</v>
+        <v>1.9961315280464225</v>
       </c>
       <c r="AN51" s="69"/>
     </row>
@@ -5273,7 +5275,7 @@
       </c>
       <c r="I52" s="68">
         <f t="shared" ref="I52:AM52" si="6">STDEV(I2:I48)</f>
-        <v>2.9572027845886293</v>
+        <v>2.9422439157800109</v>
       </c>
       <c r="J52" s="69" t="e">
         <f t="shared" si="6"/>
@@ -5377,7 +5379,7 @@
       </c>
       <c r="AI52" s="71">
         <f t="shared" si="6"/>
-        <v>3.1145268534424386</v>
+        <v>2.9422439157800109</v>
       </c>
       <c r="AJ52" s="69">
         <f t="shared" si="6"/>
@@ -5393,7 +5395,7 @@
       </c>
       <c r="AM52" s="69">
         <f t="shared" si="6"/>
-        <v>0.84941641457520922</v>
+        <v>0.80243015884909163</v>
       </c>
       <c r="AN52" s="69"/>
     </row>
@@ -5663,21 +5665,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H15"/>
@@ -5686,6 +5673,21 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5694,12 +5696,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5885,15 +5884,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5917,17 +5927,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF80AF4D-B9AD-46DD-8532-F10292BDFDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3855E56-B398-47F7-B565-5E8876505383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,13 +638,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -743,6 +736,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1129,27 +1129,27 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1174,7 +1174,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1197,13 +1197,13 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,7 +1212,7 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,15 +1278,6 @@
     <xf numFmtId="176" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,48 +1300,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="19" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="18" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,11 +1335,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,9 +1364,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1384,19 +1373,30 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1626,8 +1626,8 @@
   </sheetPr>
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1638,11 +1638,11 @@
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="30" width="11.42578125" style="75" customWidth="1"/>
-    <col min="31" max="37" width="12.5703125" style="75"/>
-    <col min="38" max="38" width="11.140625" style="75" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" style="75"/>
-    <col min="40" max="40" width="10.85546875" style="75" customWidth="1"/>
+    <col min="9" max="30" width="11.42578125" style="72" customWidth="1"/>
+    <col min="31" max="37" width="12.5703125" style="72"/>
+    <col min="38" max="38" width="11.140625" style="72" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" style="72"/>
+    <col min="40" max="40" width="10.85546875" style="72" customWidth="1"/>
     <col min="41" max="41" width="3.28515625" customWidth="1"/>
     <col min="43" max="43" width="2.140625" customWidth="1"/>
   </cols>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
-      <c r="H2" s="106"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="34">
         <v>9</v>
       </c>
@@ -1801,7 +1801,9 @@
       <c r="Q2" s="44"/>
       <c r="R2" s="44"/>
       <c r="S2" s="45"/>
-      <c r="T2" s="34"/>
+      <c r="T2" s="34">
+        <v>9.5</v>
+      </c>
       <c r="U2" s="44"/>
       <c r="V2" s="44"/>
       <c r="W2" s="44"/>
@@ -1822,7 +1824,7 @@
       </c>
       <c r="AJ2" s="44">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" s="44">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1831,7 +1833,7 @@
       <c r="AL2" s="44"/>
       <c r="AM2" s="44">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>2.4545454545454546</v>
+        <v>5.045454545454545</v>
       </c>
       <c r="AN2" s="44"/>
     </row>
@@ -1853,7 +1855,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="107"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="34">
         <v>10</v>
       </c>
@@ -1867,7 +1869,9 @@
       <c r="Q3" s="44"/>
       <c r="R3" s="44"/>
       <c r="S3" s="45"/>
-      <c r="T3" s="34"/>
+      <c r="T3" s="34">
+        <v>9.5</v>
+      </c>
       <c r="U3" s="44"/>
       <c r="V3" s="44"/>
       <c r="W3" s="44"/>
@@ -1888,7 +1892,7 @@
       </c>
       <c r="AJ3" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" s="44">
         <f t="shared" si="2"/>
@@ -1897,7 +1901,7 @@
       <c r="AL3" s="44"/>
       <c r="AM3" s="44">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>2.7272727272727275</v>
+        <v>5.3181818181818183</v>
       </c>
       <c r="AN3" s="44"/>
     </row>
@@ -1919,7 +1923,7 @@
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
-      <c r="H4" s="106"/>
+      <c r="H4" s="86"/>
       <c r="I4" s="34">
         <v>8</v>
       </c>
@@ -1933,7 +1937,9 @@
       <c r="Q4" s="44"/>
       <c r="R4" s="44"/>
       <c r="S4" s="45"/>
-      <c r="T4" s="34"/>
+      <c r="T4" s="34">
+        <v>10</v>
+      </c>
       <c r="U4" s="44"/>
       <c r="V4" s="44"/>
       <c r="W4" s="44"/>
@@ -1954,7 +1960,7 @@
       </c>
       <c r="AJ4" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK4" s="44">
         <f t="shared" si="2"/>
@@ -1963,7 +1969,7 @@
       <c r="AL4" s="44"/>
       <c r="AM4" s="44">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN4" s="44"/>
     </row>
@@ -1985,7 +1991,7 @@
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="107"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="34">
         <v>10</v>
       </c>
@@ -1999,7 +2005,9 @@
       <c r="Q5" s="44"/>
       <c r="R5" s="44"/>
       <c r="S5" s="45"/>
-      <c r="T5" s="34"/>
+      <c r="T5" s="34">
+        <v>10</v>
+      </c>
       <c r="U5" s="44"/>
       <c r="V5" s="44"/>
       <c r="W5" s="44"/>
@@ -2020,7 +2028,7 @@
       </c>
       <c r="AJ5" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK5" s="44">
         <f t="shared" si="2"/>
@@ -2029,7 +2037,7 @@
       <c r="AL5" s="44"/>
       <c r="AM5" s="44">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN5" s="44"/>
     </row>
@@ -2051,7 +2059,7 @@
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="106"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="34">
         <v>9</v>
       </c>
@@ -2065,7 +2073,9 @@
       <c r="Q6" s="44"/>
       <c r="R6" s="44"/>
       <c r="S6" s="45"/>
-      <c r="T6" s="34"/>
+      <c r="T6" s="34">
+        <v>7</v>
+      </c>
       <c r="U6" s="44"/>
       <c r="V6" s="44"/>
       <c r="W6" s="44"/>
@@ -2086,7 +2096,7 @@
       </c>
       <c r="AJ6" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK6" s="44">
         <f t="shared" si="2"/>
@@ -2095,7 +2105,7 @@
       <c r="AL6" s="44"/>
       <c r="AM6" s="44">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="AN6" s="44"/>
     </row>
@@ -2117,7 +2127,7 @@
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="107"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="34">
         <v>9</v>
       </c>
@@ -2131,7 +2141,9 @@
       <c r="Q7" s="44"/>
       <c r="R7" s="44"/>
       <c r="S7" s="45"/>
-      <c r="T7" s="34"/>
+      <c r="T7" s="34">
+        <v>7</v>
+      </c>
       <c r="U7" s="44"/>
       <c r="V7" s="44"/>
       <c r="W7" s="44"/>
@@ -2152,7 +2164,7 @@
       </c>
       <c r="AJ7" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK7" s="44">
         <f t="shared" si="2"/>
@@ -2161,7 +2173,7 @@
       <c r="AL7" s="44"/>
       <c r="AM7" s="44">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="AN7" s="44"/>
     </row>
@@ -2183,7 +2195,7 @@
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="106"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="34">
         <v>8.5</v>
       </c>
@@ -2197,7 +2209,9 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="45"/>
-      <c r="T8" s="34"/>
+      <c r="T8" s="34">
+        <v>9</v>
+      </c>
       <c r="U8" s="44"/>
       <c r="V8" s="44"/>
       <c r="W8" s="44"/>
@@ -2218,7 +2232,7 @@
       </c>
       <c r="AJ8" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK8" s="44">
         <f t="shared" si="2"/>
@@ -2227,7 +2241,7 @@
       <c r="AL8" s="44"/>
       <c r="AM8" s="44">
         <f t="shared" si="3"/>
-        <v>2.3181818181818183</v>
+        <v>4.7727272727272734</v>
       </c>
       <c r="AN8" s="44"/>
     </row>
@@ -2249,7 +2263,7 @@
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="107"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="34">
         <v>6.5</v>
       </c>
@@ -2263,7 +2277,9 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
       <c r="S9" s="45"/>
-      <c r="T9" s="34"/>
+      <c r="T9" s="34">
+        <v>9</v>
+      </c>
       <c r="U9" s="44"/>
       <c r="V9" s="44"/>
       <c r="W9" s="44"/>
@@ -2284,7 +2300,7 @@
       </c>
       <c r="AJ9" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK9" s="44">
         <f t="shared" si="2"/>
@@ -2293,7 +2309,7 @@
       <c r="AL9" s="44"/>
       <c r="AM9" s="44">
         <f t="shared" si="3"/>
-        <v>1.7727272727272727</v>
+        <v>4.2272727272727275</v>
       </c>
       <c r="AN9" s="44"/>
     </row>
@@ -2315,7 +2331,7 @@
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="106"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="34">
         <v>10</v>
       </c>
@@ -2329,7 +2345,9 @@
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
       <c r="S10" s="45"/>
-      <c r="T10" s="34"/>
+      <c r="T10" s="34">
+        <v>9</v>
+      </c>
       <c r="U10" s="44"/>
       <c r="V10" s="44"/>
       <c r="W10" s="44"/>
@@ -2350,7 +2368,7 @@
       </c>
       <c r="AJ10" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK10" s="44">
         <f t="shared" si="2"/>
@@ -2359,7 +2377,7 @@
       <c r="AL10" s="44"/>
       <c r="AM10" s="44">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.1818181818181817</v>
       </c>
       <c r="AN10" s="44"/>
     </row>
@@ -2381,7 +2399,7 @@
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="107"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="34">
         <v>9</v>
       </c>
@@ -2395,7 +2413,9 @@
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
       <c r="S11" s="45"/>
-      <c r="T11" s="34"/>
+      <c r="T11" s="34">
+        <v>9</v>
+      </c>
       <c r="U11" s="44"/>
       <c r="V11" s="44"/>
       <c r="W11" s="44"/>
@@ -2416,7 +2436,7 @@
       </c>
       <c r="AJ11" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK11" s="44">
         <f t="shared" si="2"/>
@@ -2425,7 +2445,7 @@
       <c r="AL11" s="44"/>
       <c r="AM11" s="44">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN11" s="44"/>
     </row>
@@ -2447,7 +2467,7 @@
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="106"/>
+      <c r="H12" s="86"/>
       <c r="I12" s="34">
         <v>8.5</v>
       </c>
@@ -2461,7 +2481,9 @@
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
       <c r="S12" s="45"/>
-      <c r="T12" s="34"/>
+      <c r="T12" s="34">
+        <v>8.5</v>
+      </c>
       <c r="U12" s="44"/>
       <c r="V12" s="44"/>
       <c r="W12" s="44"/>
@@ -2482,7 +2504,7 @@
       </c>
       <c r="AJ12" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AK12" s="44">
         <f t="shared" si="2"/>
@@ -2491,7 +2513,7 @@
       <c r="AL12" s="44"/>
       <c r="AM12" s="44">
         <f t="shared" si="3"/>
-        <v>2.3181818181818183</v>
+        <v>4.6363636363636367</v>
       </c>
       <c r="AN12" s="44"/>
     </row>
@@ -2513,7 +2535,7 @@
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="107"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="34">
         <v>8</v>
       </c>
@@ -2527,7 +2549,9 @@
       <c r="Q13" s="47"/>
       <c r="R13" s="47"/>
       <c r="S13" s="48"/>
-      <c r="T13" s="34"/>
+      <c r="T13" s="34">
+        <v>8.5</v>
+      </c>
       <c r="U13" s="47"/>
       <c r="V13" s="47"/>
       <c r="W13" s="47"/>
@@ -2548,7 +2572,7 @@
       </c>
       <c r="AJ13" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AK13" s="44">
         <f t="shared" si="2"/>
@@ -2557,7 +2581,7 @@
       <c r="AL13" s="44"/>
       <c r="AM13" s="44">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.5</v>
       </c>
       <c r="AN13" s="44"/>
     </row>
@@ -2579,7 +2603,7 @@
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="106"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="34">
         <v>8</v>
       </c>
@@ -2593,7 +2617,9 @@
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
       <c r="S14" s="45"/>
-      <c r="T14" s="34"/>
+      <c r="T14" s="34">
+        <v>10</v>
+      </c>
       <c r="U14" s="44"/>
       <c r="V14" s="44"/>
       <c r="W14" s="44"/>
@@ -2614,7 +2640,7 @@
       </c>
       <c r="AJ14" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK14" s="44">
         <f t="shared" si="2"/>
@@ -2623,7 +2649,7 @@
       <c r="AL14" s="44"/>
       <c r="AM14" s="44">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN14" s="44"/>
     </row>
@@ -2645,7 +2671,7 @@
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="107"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="34">
         <v>5</v>
       </c>
@@ -2659,7 +2685,9 @@
       <c r="Q15" s="49"/>
       <c r="R15" s="44"/>
       <c r="S15" s="45"/>
-      <c r="T15" s="34"/>
+      <c r="T15" s="34">
+        <v>10</v>
+      </c>
       <c r="U15" s="44"/>
       <c r="V15" s="44"/>
       <c r="W15" s="44"/>
@@ -2680,7 +2708,7 @@
       </c>
       <c r="AJ15" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK15" s="44">
         <f t="shared" si="2"/>
@@ -2689,7 +2717,7 @@
       <c r="AL15" s="44"/>
       <c r="AM15" s="44">
         <f t="shared" si="3"/>
-        <v>1.3636363636363638</v>
+        <v>4.0909090909090917</v>
       </c>
       <c r="AN15" s="44"/>
     </row>
@@ -2711,8 +2739,8 @@
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="86">
+      <c r="H16" s="90"/>
+      <c r="I16" s="83">
         <v>0</v>
       </c>
       <c r="J16" s="44"/>
@@ -2725,7 +2753,9 @@
       <c r="Q16" s="44"/>
       <c r="R16" s="44"/>
       <c r="S16" s="45"/>
-      <c r="T16" s="34"/>
+      <c r="T16" s="34">
+        <v>8.5</v>
+      </c>
       <c r="U16" s="44"/>
       <c r="V16" s="44"/>
       <c r="W16" s="44"/>
@@ -2746,7 +2776,7 @@
       </c>
       <c r="AJ16" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AK16" s="44">
         <f t="shared" si="2"/>
@@ -2755,7 +2785,7 @@
       <c r="AL16" s="44"/>
       <c r="AM16" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3181818181818183</v>
       </c>
       <c r="AN16" s="44"/>
     </row>
@@ -2777,8 +2807,8 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="86">
+      <c r="H17" s="91"/>
+      <c r="I17" s="83">
         <v>0</v>
       </c>
       <c r="J17" s="44"/>
@@ -2791,7 +2821,9 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="45"/>
-      <c r="T17" s="34"/>
+      <c r="T17" s="34">
+        <v>8.5</v>
+      </c>
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
       <c r="W17" s="44"/>
@@ -2812,7 +2844,7 @@
       </c>
       <c r="AJ17" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AK17" s="44">
         <f t="shared" si="2"/>
@@ -2821,7 +2853,7 @@
       <c r="AL17" s="44"/>
       <c r="AM17" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3181818181818183</v>
       </c>
       <c r="AN17" s="44"/>
     </row>
@@ -2843,7 +2875,7 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="99"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="34">
         <v>9</v>
       </c>
@@ -2857,7 +2889,9 @@
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="45"/>
-      <c r="T18" s="34"/>
+      <c r="T18" s="34">
+        <v>8.5</v>
+      </c>
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="44"/>
@@ -2878,7 +2912,7 @@
       </c>
       <c r="AJ18" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AK18" s="44">
         <f t="shared" si="2"/>
@@ -2887,7 +2921,7 @@
       <c r="AL18" s="44"/>
       <c r="AM18" s="44">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>4.7727272727272734</v>
       </c>
       <c r="AN18" s="44"/>
     </row>
@@ -2909,7 +2943,7 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="103"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="34">
         <v>8</v>
       </c>
@@ -2923,7 +2957,9 @@
       <c r="Q19" s="44"/>
       <c r="R19" s="44"/>
       <c r="S19" s="45"/>
-      <c r="T19" s="34"/>
+      <c r="T19" s="34">
+        <v>8.5</v>
+      </c>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
       <c r="W19" s="44"/>
@@ -2944,7 +2980,7 @@
       </c>
       <c r="AJ19" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AK19" s="44">
         <f t="shared" si="2"/>
@@ -2953,7 +2989,7 @@
       <c r="AL19" s="44"/>
       <c r="AM19" s="44">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.5</v>
       </c>
       <c r="AN19" s="44"/>
     </row>
@@ -2975,7 +3011,7 @@
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="99"/>
+      <c r="H20" s="88"/>
       <c r="I20" s="34">
         <v>10</v>
       </c>
@@ -2989,7 +3025,9 @@
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
       <c r="S20" s="45"/>
-      <c r="T20" s="34"/>
+      <c r="T20" s="34">
+        <v>7</v>
+      </c>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="44"/>
@@ -3010,7 +3048,7 @@
       </c>
       <c r="AJ20" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK20" s="44">
         <f t="shared" si="2"/>
@@ -3019,7 +3057,7 @@
       <c r="AL20" s="44"/>
       <c r="AM20" s="44">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>4.6363636363636367</v>
       </c>
       <c r="AN20" s="44"/>
     </row>
@@ -3041,8 +3079,8 @@
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="86">
+      <c r="H21" s="89"/>
+      <c r="I21" s="83">
         <v>0</v>
       </c>
       <c r="J21" s="44"/>
@@ -3055,7 +3093,9 @@
       <c r="Q21" s="44"/>
       <c r="R21" s="44"/>
       <c r="S21" s="45"/>
-      <c r="T21" s="34"/>
+      <c r="T21" s="34">
+        <v>7</v>
+      </c>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
       <c r="W21" s="44"/>
@@ -3076,7 +3116,7 @@
       </c>
       <c r="AJ21" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK21" s="44">
         <f t="shared" si="2"/>
@@ -3085,7 +3125,7 @@
       <c r="AL21" s="44"/>
       <c r="AM21" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.9090909090909089</v>
       </c>
       <c r="AN21" s="44"/>
     </row>
@@ -3107,7 +3147,7 @@
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="101"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="34">
         <v>6.5</v>
       </c>
@@ -3121,7 +3161,9 @@
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
       <c r="S22" s="45"/>
-      <c r="T22" s="34"/>
+      <c r="T22" s="34">
+        <v>10</v>
+      </c>
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
       <c r="W22" s="44"/>
@@ -3142,7 +3184,7 @@
       </c>
       <c r="AJ22" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK22" s="44">
         <f t="shared" si="2"/>
@@ -3151,7 +3193,7 @@
       <c r="AL22" s="44"/>
       <c r="AM22" s="44">
         <f t="shared" si="3"/>
-        <v>1.7727272727272727</v>
+        <v>4.5</v>
       </c>
       <c r="AN22" s="44"/>
     </row>
@@ -3173,7 +3215,7 @@
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="102"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="34">
         <v>10</v>
       </c>
@@ -3187,7 +3229,9 @@
       <c r="Q23" s="50"/>
       <c r="R23" s="44"/>
       <c r="S23" s="45"/>
-      <c r="T23" s="34"/>
+      <c r="T23" s="34">
+        <v>10</v>
+      </c>
       <c r="U23" s="44"/>
       <c r="V23" s="44"/>
       <c r="W23" s="44"/>
@@ -3208,7 +3252,7 @@
       </c>
       <c r="AJ23" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK23" s="44">
         <f t="shared" si="2"/>
@@ -3217,7 +3261,7 @@
       <c r="AL23" s="44"/>
       <c r="AM23" s="44">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN23" s="44"/>
     </row>
@@ -3239,8 +3283,8 @@
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="86">
+      <c r="H24" s="88"/>
+      <c r="I24" s="83">
         <v>0</v>
       </c>
       <c r="J24" s="44"/>
@@ -3253,7 +3297,9 @@
       <c r="Q24" s="50"/>
       <c r="R24" s="44"/>
       <c r="S24" s="45"/>
-      <c r="T24" s="34"/>
+      <c r="T24" s="34">
+        <v>9</v>
+      </c>
       <c r="U24" s="44"/>
       <c r="V24" s="44"/>
       <c r="W24" s="44"/>
@@ -3274,7 +3320,7 @@
       </c>
       <c r="AJ24" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK24" s="44">
         <f t="shared" si="2"/>
@@ -3283,7 +3329,7 @@
       <c r="AL24" s="44"/>
       <c r="AM24" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="AN24" s="44"/>
     </row>
@@ -3305,7 +3351,7 @@
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="100"/>
+      <c r="H25" s="97"/>
       <c r="I25" s="51">
         <v>8.5</v>
       </c>
@@ -3319,7 +3365,9 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="52"/>
       <c r="S25" s="53"/>
-      <c r="T25" s="51"/>
+      <c r="T25" s="51">
+        <v>9</v>
+      </c>
       <c r="U25" s="52"/>
       <c r="V25" s="52"/>
       <c r="W25" s="52"/>
@@ -3340,7 +3388,7 @@
       </c>
       <c r="AJ25" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK25" s="52">
         <f t="shared" si="2"/>
@@ -3349,7 +3397,7 @@
       <c r="AL25" s="52"/>
       <c r="AM25" s="52">
         <f t="shared" si="3"/>
-        <v>2.3181818181818183</v>
+        <v>4.7727272727272734</v>
       </c>
       <c r="AN25" s="52"/>
     </row>
@@ -3371,7 +3419,7 @@
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="96"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="54">
         <v>5.5</v>
       </c>
@@ -3385,7 +3433,9 @@
       <c r="Q26" s="55"/>
       <c r="R26" s="55"/>
       <c r="S26" s="56"/>
-      <c r="T26" s="54"/>
+      <c r="T26" s="54">
+        <v>7.5</v>
+      </c>
       <c r="U26" s="55"/>
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
@@ -3406,7 +3456,7 @@
       </c>
       <c r="AJ26" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AK26" s="58">
         <f t="shared" si="2"/>
@@ -3415,7 +3465,7 @@
       <c r="AL26" s="55"/>
       <c r="AM26" s="58">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>1.5</v>
+        <v>3.5454545454545454</v>
       </c>
       <c r="AN26" s="55"/>
     </row>
@@ -3437,7 +3487,7 @@
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="97"/>
+      <c r="H27" s="95"/>
       <c r="I27" s="59">
         <v>7</v>
       </c>
@@ -3451,7 +3501,9 @@
       <c r="Q27" s="60"/>
       <c r="R27" s="60"/>
       <c r="S27" s="61"/>
-      <c r="T27" s="59"/>
+      <c r="T27" s="59">
+        <v>7.5</v>
+      </c>
       <c r="U27" s="60"/>
       <c r="V27" s="60"/>
       <c r="W27" s="60"/>
@@ -3472,7 +3524,7 @@
       </c>
       <c r="AJ27" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AK27" s="63">
         <f t="shared" si="2"/>
@@ -3481,7 +3533,7 @@
       <c r="AL27" s="60"/>
       <c r="AM27" s="63">
         <f t="shared" si="3"/>
-        <v>1.9090909090909089</v>
+        <v>3.9545454545454541</v>
       </c>
       <c r="AN27" s="60"/>
     </row>
@@ -3503,7 +3555,7 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="98"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="59">
         <v>8</v>
       </c>
@@ -3517,7 +3569,9 @@
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="61"/>
-      <c r="T28" s="59"/>
+      <c r="T28" s="59">
+        <v>8</v>
+      </c>
       <c r="U28" s="60"/>
       <c r="V28" s="60"/>
       <c r="W28" s="60"/>
@@ -3538,7 +3592,7 @@
       </c>
       <c r="AJ28" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK28" s="63">
         <f t="shared" si="2"/>
@@ -3547,7 +3601,7 @@
       <c r="AL28" s="60"/>
       <c r="AM28" s="63">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="AN28" s="60"/>
     </row>
@@ -3569,7 +3623,7 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="97"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="59">
         <v>10</v>
       </c>
@@ -3583,7 +3637,9 @@
       <c r="Q29" s="60"/>
       <c r="R29" s="60"/>
       <c r="S29" s="61"/>
-      <c r="T29" s="59"/>
+      <c r="T29" s="59">
+        <v>8</v>
+      </c>
       <c r="U29" s="60"/>
       <c r="V29" s="60"/>
       <c r="W29" s="60"/>
@@ -3604,7 +3660,7 @@
       </c>
       <c r="AJ29" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK29" s="63">
         <f t="shared" si="2"/>
@@ -3613,7 +3669,7 @@
       <c r="AL29" s="60"/>
       <c r="AM29" s="63">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN29" s="60"/>
     </row>
@@ -3635,7 +3691,7 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="98"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="59">
         <v>9</v>
       </c>
@@ -3649,7 +3705,9 @@
       <c r="Q30" s="60"/>
       <c r="R30" s="60"/>
       <c r="S30" s="61"/>
-      <c r="T30" s="59"/>
+      <c r="T30" s="59">
+        <v>10</v>
+      </c>
       <c r="U30" s="60"/>
       <c r="V30" s="60"/>
       <c r="W30" s="60"/>
@@ -3670,7 +3728,7 @@
       </c>
       <c r="AJ30" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK30" s="63">
         <f t="shared" si="2"/>
@@ -3679,7 +3737,7 @@
       <c r="AL30" s="60"/>
       <c r="AM30" s="63">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>5.1818181818181817</v>
       </c>
       <c r="AN30" s="60"/>
     </row>
@@ -3701,7 +3759,7 @@
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="97"/>
+      <c r="H31" s="95"/>
       <c r="I31" s="59">
         <v>8</v>
       </c>
@@ -3715,7 +3773,9 @@
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="61"/>
-      <c r="T31" s="59"/>
+      <c r="T31" s="59">
+        <v>10</v>
+      </c>
       <c r="U31" s="60"/>
       <c r="V31" s="60"/>
       <c r="W31" s="60"/>
@@ -3736,7 +3796,7 @@
       </c>
       <c r="AJ31" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK31" s="63">
         <f t="shared" si="2"/>
@@ -3745,7 +3805,7 @@
       <c r="AL31" s="60"/>
       <c r="AM31" s="63">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN31" s="60"/>
     </row>
@@ -3767,7 +3827,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="92"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="59">
         <v>5.5</v>
       </c>
@@ -3781,7 +3841,9 @@
       <c r="Q32" s="60"/>
       <c r="R32" s="60"/>
       <c r="S32" s="61"/>
-      <c r="T32" s="59"/>
+      <c r="T32" s="59">
+        <v>6</v>
+      </c>
       <c r="U32" s="60"/>
       <c r="V32" s="60"/>
       <c r="W32" s="60"/>
@@ -3802,7 +3864,7 @@
       </c>
       <c r="AJ32" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK32" s="63">
         <f t="shared" si="2"/>
@@ -3811,7 +3873,7 @@
       <c r="AL32" s="60"/>
       <c r="AM32" s="63">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>3.1363636363636362</v>
       </c>
       <c r="AN32" s="60"/>
     </row>
@@ -3833,7 +3895,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="93"/>
+      <c r="H33" s="85"/>
       <c r="I33" s="59">
         <v>10</v>
       </c>
@@ -3847,7 +3909,9 @@
       <c r="Q33" s="60"/>
       <c r="R33" s="60"/>
       <c r="S33" s="61"/>
-      <c r="T33" s="59"/>
+      <c r="T33" s="59">
+        <v>6</v>
+      </c>
       <c r="U33" s="60"/>
       <c r="V33" s="60"/>
       <c r="W33" s="60"/>
@@ -3868,7 +3932,7 @@
       </c>
       <c r="AJ33" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK33" s="63">
         <f t="shared" si="2"/>
@@ -3877,7 +3941,7 @@
       <c r="AL33" s="60"/>
       <c r="AM33" s="63">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="AN33" s="60"/>
     </row>
@@ -3899,7 +3963,7 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="89"/>
+      <c r="H34" s="92"/>
       <c r="I34" s="59">
         <v>8</v>
       </c>
@@ -3913,7 +3977,9 @@
       <c r="Q34" s="60"/>
       <c r="R34" s="60"/>
       <c r="S34" s="61"/>
-      <c r="T34" s="59"/>
+      <c r="T34" s="59">
+        <v>9</v>
+      </c>
       <c r="U34" s="60"/>
       <c r="V34" s="60"/>
       <c r="W34" s="60"/>
@@ -3934,7 +4000,7 @@
       </c>
       <c r="AJ34" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK34" s="63">
         <f t="shared" si="2"/>
@@ -3943,7 +4009,7 @@
       <c r="AL34" s="60"/>
       <c r="AM34" s="63">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.6363636363636367</v>
       </c>
       <c r="AN34" s="60"/>
     </row>
@@ -3965,7 +4031,7 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="91"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="59">
         <v>8</v>
       </c>
@@ -3979,7 +4045,9 @@
       <c r="Q35" s="60"/>
       <c r="R35" s="60"/>
       <c r="S35" s="61"/>
-      <c r="T35" s="59"/>
+      <c r="T35" s="59">
+        <v>9</v>
+      </c>
       <c r="U35" s="60"/>
       <c r="V35" s="60"/>
       <c r="W35" s="60"/>
@@ -4000,7 +4068,7 @@
       </c>
       <c r="AJ35" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK35" s="63">
         <f t="shared" si="2"/>
@@ -4009,7 +4077,7 @@
       <c r="AL35" s="60"/>
       <c r="AM35" s="63">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.6363636363636367</v>
       </c>
       <c r="AN35" s="60"/>
     </row>
@@ -4031,7 +4099,7 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="92"/>
+      <c r="H36" s="84"/>
       <c r="I36" s="59">
         <v>8</v>
       </c>
@@ -4045,7 +4113,9 @@
       <c r="Q36" s="60"/>
       <c r="R36" s="60"/>
       <c r="S36" s="61"/>
-      <c r="T36" s="59"/>
+      <c r="T36" s="59">
+        <v>10</v>
+      </c>
       <c r="U36" s="60"/>
       <c r="V36" s="60"/>
       <c r="W36" s="60"/>
@@ -4066,7 +4136,7 @@
       </c>
       <c r="AJ36" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK36" s="63">
         <f t="shared" si="2"/>
@@ -4075,7 +4145,7 @@
       <c r="AL36" s="60"/>
       <c r="AM36" s="63">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN36" s="60"/>
     </row>
@@ -4097,7 +4167,7 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="93"/>
+      <c r="H37" s="85"/>
       <c r="I37" s="59">
         <v>8</v>
       </c>
@@ -4111,7 +4181,9 @@
       <c r="Q37" s="60"/>
       <c r="R37" s="60"/>
       <c r="S37" s="61"/>
-      <c r="T37" s="59"/>
+      <c r="T37" s="59">
+        <v>10</v>
+      </c>
       <c r="U37" s="60"/>
       <c r="V37" s="60"/>
       <c r="W37" s="60"/>
@@ -4132,7 +4204,7 @@
       </c>
       <c r="AJ37" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK37" s="63">
         <f t="shared" si="2"/>
@@ -4141,7 +4213,7 @@
       <c r="AL37" s="60"/>
       <c r="AM37" s="63">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN37" s="60"/>
     </row>
@@ -4163,7 +4235,7 @@
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="89"/>
+      <c r="H38" s="92"/>
       <c r="I38" s="59">
         <v>9</v>
       </c>
@@ -4177,7 +4249,9 @@
       <c r="Q38" s="60"/>
       <c r="R38" s="60"/>
       <c r="S38" s="61"/>
-      <c r="T38" s="59"/>
+      <c r="T38" s="59">
+        <v>8</v>
+      </c>
       <c r="U38" s="60"/>
       <c r="V38" s="60"/>
       <c r="W38" s="60"/>
@@ -4198,7 +4272,7 @@
       </c>
       <c r="AJ38" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK38" s="63">
         <f t="shared" si="2"/>
@@ -4207,7 +4281,7 @@
       <c r="AL38" s="60"/>
       <c r="AM38" s="63">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>4.6363636363636367</v>
       </c>
       <c r="AN38" s="60"/>
     </row>
@@ -4229,7 +4303,7 @@
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="90"/>
+      <c r="H39" s="102"/>
       <c r="I39" s="59">
         <v>8</v>
       </c>
@@ -4243,7 +4317,9 @@
       <c r="Q39" s="60"/>
       <c r="R39" s="60"/>
       <c r="S39" s="61"/>
-      <c r="T39" s="59"/>
+      <c r="T39" s="59">
+        <v>8</v>
+      </c>
       <c r="U39" s="60"/>
       <c r="V39" s="60"/>
       <c r="W39" s="60"/>
@@ -4264,7 +4340,7 @@
       </c>
       <c r="AJ39" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK39" s="63">
         <f t="shared" si="2"/>
@@ -4273,7 +4349,7 @@
       <c r="AL39" s="60"/>
       <c r="AM39" s="63">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="AN39" s="60"/>
     </row>
@@ -4295,7 +4371,7 @@
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="91"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="59">
         <v>9.5</v>
       </c>
@@ -4309,7 +4385,9 @@
       <c r="Q40" s="60"/>
       <c r="R40" s="60"/>
       <c r="S40" s="61"/>
-      <c r="T40" s="59"/>
+      <c r="T40" s="59">
+        <v>8</v>
+      </c>
       <c r="U40" s="60"/>
       <c r="V40" s="60"/>
       <c r="W40" s="60"/>
@@ -4330,7 +4408,7 @@
       </c>
       <c r="AJ40" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK40" s="63">
         <f t="shared" si="2"/>
@@ -4339,7 +4417,7 @@
       <c r="AL40" s="60"/>
       <c r="AM40" s="63">
         <f t="shared" si="3"/>
-        <v>2.5909090909090908</v>
+        <v>4.7727272727272725</v>
       </c>
       <c r="AN40" s="60"/>
     </row>
@@ -4361,7 +4439,7 @@
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="92"/>
+      <c r="H41" s="84"/>
       <c r="I41" s="59">
         <v>5.5</v>
       </c>
@@ -4375,7 +4453,9 @@
       <c r="Q41" s="60"/>
       <c r="R41" s="60"/>
       <c r="S41" s="61"/>
-      <c r="T41" s="59"/>
+      <c r="T41" s="59">
+        <v>10</v>
+      </c>
       <c r="U41" s="60"/>
       <c r="V41" s="60"/>
       <c r="W41" s="60"/>
@@ -4396,7 +4476,7 @@
       </c>
       <c r="AJ41" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK41" s="63">
         <f t="shared" si="2"/>
@@ -4405,7 +4485,7 @@
       <c r="AL41" s="60"/>
       <c r="AM41" s="63">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>4.2272727272727275</v>
       </c>
       <c r="AN41" s="60"/>
     </row>
@@ -4427,7 +4507,7 @@
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="93"/>
+      <c r="H42" s="85"/>
       <c r="I42" s="59">
         <v>7.5</v>
       </c>
@@ -4441,7 +4521,9 @@
       <c r="Q42" s="60"/>
       <c r="R42" s="60"/>
       <c r="S42" s="61"/>
-      <c r="T42" s="59"/>
+      <c r="T42" s="59">
+        <v>10</v>
+      </c>
       <c r="U42" s="60"/>
       <c r="V42" s="60"/>
       <c r="W42" s="60"/>
@@ -4462,7 +4544,7 @@
       </c>
       <c r="AJ42" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK42" s="63">
         <f t="shared" si="2"/>
@@ -4471,7 +4553,7 @@
       <c r="AL42" s="60"/>
       <c r="AM42" s="63">
         <f t="shared" si="3"/>
-        <v>2.0454545454545454</v>
+        <v>4.7727272727272734</v>
       </c>
       <c r="AN42" s="60"/>
     </row>
@@ -4493,7 +4575,7 @@
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="92"/>
+      <c r="H43" s="84"/>
       <c r="I43" s="59">
         <v>7.5</v>
       </c>
@@ -4507,7 +4589,9 @@
       <c r="Q43" s="60"/>
       <c r="R43" s="60"/>
       <c r="S43" s="61"/>
-      <c r="T43" s="59"/>
+      <c r="T43" s="59">
+        <v>8</v>
+      </c>
       <c r="U43" s="60"/>
       <c r="V43" s="60"/>
       <c r="W43" s="60"/>
@@ -4528,7 +4612,7 @@
       </c>
       <c r="AJ43" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK43" s="63">
         <f t="shared" si="2"/>
@@ -4537,7 +4621,7 @@
       <c r="AL43" s="60"/>
       <c r="AM43" s="63">
         <f t="shared" si="3"/>
-        <v>2.0454545454545454</v>
+        <v>4.2272727272727266</v>
       </c>
       <c r="AN43" s="60"/>
     </row>
@@ -4559,7 +4643,7 @@
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="93"/>
+      <c r="H44" s="85"/>
       <c r="I44" s="64">
         <v>0</v>
       </c>
@@ -4573,7 +4657,9 @@
       <c r="Q44" s="60"/>
       <c r="R44" s="60"/>
       <c r="S44" s="61"/>
-      <c r="T44" s="59"/>
+      <c r="T44" s="59">
+        <v>8</v>
+      </c>
       <c r="U44" s="60"/>
       <c r="V44" s="60"/>
       <c r="W44" s="60"/>
@@ -4594,7 +4680,7 @@
       </c>
       <c r="AJ44" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK44" s="63">
         <f t="shared" si="2"/>
@@ -4603,64 +4689,66 @@
       <c r="AL44" s="60"/>
       <c r="AM44" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="AN44" s="60"/>
     </row>
     <row r="45" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="77">
+      <c r="B45" s="74">
         <v>10</v>
       </c>
-      <c r="C45" s="78">
+      <c r="C45" s="75">
         <v>202302226</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="79">
+      <c r="E45" s="76">
         <v>1046182647</v>
       </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="80">
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="77">
         <v>10</v>
       </c>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="64"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="67"/>
-      <c r="AE45" s="64"/>
-      <c r="AF45" s="65"/>
-      <c r="AG45" s="65"/>
-      <c r="AH45" s="67"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="77">
+        <v>10</v>
+      </c>
+      <c r="U45" s="105"/>
+      <c r="V45" s="105"/>
+      <c r="W45" s="105"/>
+      <c r="X45" s="105"/>
+      <c r="Y45" s="105"/>
+      <c r="Z45" s="105"/>
+      <c r="AA45" s="105"/>
+      <c r="AB45" s="105"/>
+      <c r="AC45" s="105"/>
+      <c r="AD45" s="107"/>
+      <c r="AE45" s="77"/>
+      <c r="AF45" s="105"/>
+      <c r="AG45" s="105"/>
+      <c r="AH45" s="107"/>
       <c r="AI45" s="62">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AJ45" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK45" s="63">
         <f t="shared" si="2"/>
@@ -4669,64 +4757,66 @@
       <c r="AL45" s="60"/>
       <c r="AM45" s="63">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN45" s="60"/>
     </row>
     <row r="46" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="77">
+      <c r="B46" s="74">
         <v>10</v>
       </c>
-      <c r="C46" s="78">
+      <c r="C46" s="75">
         <v>202302227</v>
       </c>
-      <c r="D46" s="78" t="s">
+      <c r="D46" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="79">
+      <c r="E46" s="76">
         <v>1038871469</v>
       </c>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="80">
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="77">
         <v>10</v>
       </c>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="66"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="64"/>
-      <c r="U46" s="65"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="65"/>
-      <c r="AA46" s="65"/>
-      <c r="AB46" s="65"/>
-      <c r="AC46" s="65"/>
-      <c r="AD46" s="67"/>
-      <c r="AE46" s="64"/>
-      <c r="AF46" s="65"/>
-      <c r="AG46" s="65"/>
-      <c r="AH46" s="67"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="105"/>
+      <c r="S46" s="107"/>
+      <c r="T46" s="77">
+        <v>10</v>
+      </c>
+      <c r="U46" s="105"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="105"/>
+      <c r="X46" s="105"/>
+      <c r="Y46" s="105"/>
+      <c r="Z46" s="105"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="105"/>
+      <c r="AD46" s="107"/>
+      <c r="AE46" s="77"/>
+      <c r="AF46" s="105"/>
+      <c r="AG46" s="105"/>
+      <c r="AH46" s="107"/>
       <c r="AI46" s="62">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AJ46" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK46" s="63">
         <f t="shared" si="2"/>
@@ -4735,64 +4825,66 @@
       <c r="AL46" s="60"/>
       <c r="AM46" s="63">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN46" s="60"/>
     </row>
     <row r="47" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="81">
+      <c r="B47" s="78">
         <v>11</v>
       </c>
-      <c r="C47" s="78">
+      <c r="C47" s="75">
         <v>202302237</v>
       </c>
-      <c r="D47" s="78" t="s">
+      <c r="D47" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="79">
+      <c r="E47" s="76">
         <v>1038626854</v>
       </c>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="80">
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="77">
         <v>8</v>
       </c>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="65"/>
-      <c r="Q47" s="66"/>
-      <c r="R47" s="65"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="64"/>
-      <c r="U47" s="65"/>
-      <c r="V47" s="65"/>
-      <c r="W47" s="65"/>
-      <c r="X47" s="65"/>
-      <c r="Y47" s="65"/>
-      <c r="Z47" s="65"/>
-      <c r="AA47" s="65"/>
-      <c r="AB47" s="65"/>
-      <c r="AC47" s="65"/>
-      <c r="AD47" s="67"/>
-      <c r="AE47" s="64"/>
-      <c r="AF47" s="65"/>
-      <c r="AG47" s="65"/>
-      <c r="AH47" s="67"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="106"/>
+      <c r="R47" s="105"/>
+      <c r="S47" s="107"/>
+      <c r="T47" s="77">
+        <v>10</v>
+      </c>
+      <c r="U47" s="105"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="105"/>
+      <c r="X47" s="105"/>
+      <c r="Y47" s="105"/>
+      <c r="Z47" s="105"/>
+      <c r="AA47" s="105"/>
+      <c r="AB47" s="105"/>
+      <c r="AC47" s="105"/>
+      <c r="AD47" s="107"/>
+      <c r="AE47" s="77"/>
+      <c r="AF47" s="105"/>
+      <c r="AG47" s="105"/>
+      <c r="AH47" s="107"/>
       <c r="AI47" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AJ47" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK47" s="63">
         <f t="shared" si="2"/>
@@ -4801,64 +4893,66 @@
       <c r="AL47" s="60"/>
       <c r="AM47" s="63">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN47" s="60"/>
     </row>
     <row r="48" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83">
+      <c r="B48" s="80">
         <v>11</v>
       </c>
-      <c r="C48" s="84">
+      <c r="C48" s="81">
         <v>202302238</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="85">
+      <c r="E48" s="82">
         <v>1071157029</v>
       </c>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="80">
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="77">
         <v>3.5</v>
       </c>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="61"/>
-      <c r="T48" s="59"/>
-      <c r="U48" s="60"/>
-      <c r="V48" s="60"/>
-      <c r="W48" s="60"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="60"/>
-      <c r="Z48" s="60"/>
-      <c r="AA48" s="60"/>
-      <c r="AB48" s="60"/>
-      <c r="AC48" s="60"/>
-      <c r="AD48" s="61"/>
-      <c r="AE48" s="59"/>
-      <c r="AF48" s="60"/>
-      <c r="AG48" s="60"/>
-      <c r="AH48" s="61"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="105"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="107"/>
+      <c r="T48" s="77">
+        <v>10</v>
+      </c>
+      <c r="U48" s="105"/>
+      <c r="V48" s="105"/>
+      <c r="W48" s="105"/>
+      <c r="X48" s="105"/>
+      <c r="Y48" s="105"/>
+      <c r="Z48" s="105"/>
+      <c r="AA48" s="105"/>
+      <c r="AB48" s="105"/>
+      <c r="AC48" s="105"/>
+      <c r="AD48" s="107"/>
+      <c r="AE48" s="77"/>
+      <c r="AF48" s="105"/>
+      <c r="AG48" s="105"/>
+      <c r="AH48" s="107"/>
       <c r="AI48" s="62">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="AJ48" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK48" s="63">
         <f t="shared" si="2"/>
@@ -4867,7 +4961,7 @@
       <c r="AL48" s="60"/>
       <c r="AM48" s="63">
         <f t="shared" si="3"/>
-        <v>0.95454545454545447</v>
+        <v>3.6818181818181821</v>
       </c>
       <c r="AN48" s="60"/>
     </row>
@@ -4877,131 +4971,131 @@
       <c r="H49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="68">
+      <c r="I49" s="65">
         <f>AVERAGE(I2:I25)</f>
         <v>7.104166666666667</v>
       </c>
-      <c r="J49" s="69" t="e">
+      <c r="J49" s="66" t="e">
         <f>AVERAGE(J2:J25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="69" t="e">
+      <c r="K49" s="66" t="e">
         <f>AVERAGE(K2:K25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="69" t="e">
+      <c r="L49" s="66" t="e">
         <f>AVERAGE(L2:L32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M49" s="69" t="e">
+      <c r="M49" s="66" t="e">
         <f>AVERAGE(M2:M32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N49" s="69" t="e">
+      <c r="N49" s="66" t="e">
         <f>AVERAGE(N2:N32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="69" t="e">
+      <c r="O49" s="66" t="e">
         <f>AVERAGE(O2:O32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P49" s="69" t="e">
+      <c r="P49" s="66" t="e">
         <f>AVERAGE(P2:P26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q49" s="69" t="e">
+      <c r="Q49" s="66" t="e">
         <f>AVERAGE(Q2:Q32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R49" s="69" t="e">
+      <c r="R49" s="66" t="e">
         <f>AVERAGE(R2:R32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S49" s="70" t="e">
+      <c r="S49" s="67" t="e">
         <f>AVERAGE(S2:S32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T49" s="68" t="e">
+      <c r="T49" s="65">
         <f>AVERAGE(T2:T25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U49" s="69" t="e">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="U49" s="66" t="e">
         <f>AVERAGE(U2:U32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V49" s="69" t="e">
+      <c r="V49" s="66" t="e">
         <f>AVERAGE(V2:V25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W49" s="69" t="e">
+      <c r="W49" s="66" t="e">
         <f>AVERAGE(W2:W32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X49" s="69" t="e">
+      <c r="X49" s="66" t="e">
         <f>AVERAGE(X2:X25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y49" s="69" t="e">
+      <c r="Y49" s="66" t="e">
         <f>AVERAGE(Y2:Y25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z49" s="69" t="e">
+      <c r="Z49" s="66" t="e">
         <f>AVERAGE(Z2:Z32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="69" t="e">
+      <c r="AA49" s="66" t="e">
         <f>AVERAGE(AA2:AA25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB49" s="69" t="e">
+      <c r="AB49" s="66" t="e">
         <f>AVERAGE(AB2:AB32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC49" s="69" t="e">
+      <c r="AC49" s="66" t="e">
         <f>AVERAGE(AC2:AC25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="70" t="e">
+      <c r="AD49" s="67" t="e">
         <f>AVERAGE(AD2:AD32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE49" s="68" t="e">
+      <c r="AE49" s="65" t="e">
         <f>AVERAGE(AE2:AE32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF49" s="69" t="e">
+      <c r="AF49" s="66" t="e">
         <f>AVERAGE(AF2:AF32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG49" s="69" t="e">
+      <c r="AG49" s="66" t="e">
         <f>AVERAGE(AG2:AG32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH49" s="70" t="e">
+      <c r="AH49" s="67" t="e">
         <f>AVERAGE(AH2:AH32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI49" s="71">
+      <c r="AI49" s="68">
         <f>AVERAGE(AI2:AI25)</f>
         <v>7.104166666666667</v>
       </c>
-      <c r="AJ49" s="69">
+      <c r="AJ49" s="66">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="69">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="AK49" s="66">
         <f>AVERAGE(AK2:AK25)</f>
         <v>0</v>
       </c>
-      <c r="AL49" s="69" t="e">
+      <c r="AL49" s="66" t="e">
         <f>AVERAGE(AL2:AL25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM49" s="69">
+      <c r="AM49" s="66">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>1.9375</v>
-      </c>
-      <c r="AN49" s="69"/>
+        <v>4.3465909090909074</v>
+      </c>
+      <c r="AN49" s="66"/>
     </row>
     <row r="50" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F50" s="2"/>
@@ -5009,131 +5103,131 @@
       <c r="H50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="68">
+      <c r="I50" s="65">
         <f>AVERAGE(I26:I48)</f>
         <v>7.5434782608695654</v>
       </c>
-      <c r="J50" s="69" t="e">
+      <c r="J50" s="66" t="e">
         <f t="shared" ref="J50:AM50" si="4">AVERAGE(J26:J48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="69" t="e">
+      <c r="K50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="69" t="e">
+      <c r="L50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M50" s="69" t="e">
+      <c r="M50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="69" t="e">
+      <c r="N50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O50" s="69" t="e">
+      <c r="O50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P50" s="69" t="e">
+      <c r="P50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q50" s="69" t="e">
+      <c r="Q50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R50" s="69" t="e">
+      <c r="R50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S50" s="70" t="e">
+      <c r="S50" s="67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T50" s="68" t="e">
+      <c r="T50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U50" s="69" t="e">
+        <v>8.7391304347826093</v>
+      </c>
+      <c r="U50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V50" s="69" t="e">
+      <c r="V50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W50" s="69" t="e">
+      <c r="W50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X50" s="69" t="e">
+      <c r="X50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y50" s="69" t="e">
+      <c r="Y50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z50" s="69" t="e">
+      <c r="Z50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="69" t="e">
+      <c r="AA50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB50" s="69" t="e">
+      <c r="AB50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="69" t="e">
+      <c r="AC50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="70" t="e">
+      <c r="AD50" s="67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE50" s="68" t="e">
+      <c r="AE50" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF50" s="69" t="e">
+      <c r="AF50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG50" s="69" t="e">
+      <c r="AG50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH50" s="70" t="e">
+      <c r="AH50" s="67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI50" s="71">
+      <c r="AI50" s="68">
         <f t="shared" si="4"/>
         <v>7.5434782608695654</v>
       </c>
-      <c r="AJ50" s="69">
+      <c r="AJ50" s="66">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="69">
+        <v>8.7391304347826093</v>
+      </c>
+      <c r="AK50" s="66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="69" t="e">
+      <c r="AL50" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM50" s="69">
+      <c r="AM50" s="66">
         <f t="shared" si="4"/>
-        <v>2.0573122529644268</v>
-      </c>
-      <c r="AN50" s="69"/>
+        <v>4.4407114624505928</v>
+      </c>
+      <c r="AN50" s="66"/>
     </row>
     <row r="51" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F51" s="2"/>
@@ -5141,131 +5235,131 @@
       <c r="H51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="68">
+      <c r="I51" s="65">
         <f t="shared" ref="I51:AM51" si="5">AVERAGE(I2:I48)</f>
         <v>7.3191489361702127</v>
       </c>
-      <c r="J51" s="69" t="e">
+      <c r="J51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="69" t="e">
+      <c r="K51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="69" t="e">
+      <c r="L51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M51" s="69" t="e">
+      <c r="M51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N51" s="69" t="e">
+      <c r="N51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O51" s="69" t="e">
+      <c r="O51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P51" s="69" t="e">
+      <c r="P51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q51" s="69" t="e">
+      <c r="Q51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R51" s="69" t="e">
+      <c r="R51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S51" s="70" t="e">
+      <c r="S51" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T51" s="68" t="e">
+      <c r="T51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U51" s="69" t="e">
+        <v>8.787234042553191</v>
+      </c>
+      <c r="U51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V51" s="69" t="e">
+      <c r="V51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W51" s="69" t="e">
+      <c r="W51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X51" s="69" t="e">
+      <c r="X51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y51" s="69" t="e">
+      <c r="Y51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z51" s="69" t="e">
+      <c r="Z51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="69" t="e">
+      <c r="AA51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB51" s="69" t="e">
+      <c r="AB51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC51" s="69" t="e">
+      <c r="AC51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="70" t="e">
+      <c r="AD51" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE51" s="68" t="e">
+      <c r="AE51" s="65" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF51" s="69" t="e">
+      <c r="AF51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG51" s="69" t="e">
+      <c r="AG51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH51" s="70" t="e">
+      <c r="AH51" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI51" s="71">
+      <c r="AI51" s="68">
         <f t="shared" si="5"/>
         <v>7.3191489361702127</v>
       </c>
-      <c r="AJ51" s="69">
+      <c r="AJ51" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK51" s="69">
+        <v>8.787234042553191</v>
+      </c>
+      <c r="AK51" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL51" s="69" t="e">
+      <c r="AL51" s="66" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM51" s="69">
+      <c r="AM51" s="66">
         <f t="shared" si="5"/>
-        <v>1.9961315280464225</v>
-      </c>
-      <c r="AN51" s="69"/>
+        <v>4.3926499032882012</v>
+      </c>
+      <c r="AN51" s="66"/>
     </row>
     <row r="52" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F52" s="2"/>
@@ -5273,131 +5367,131 @@
       <c r="H52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="68">
+      <c r="I52" s="65">
         <f t="shared" ref="I52:AM52" si="6">STDEV(I2:I48)</f>
         <v>2.9422439157800109</v>
       </c>
-      <c r="J52" s="69" t="e">
+      <c r="J52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="69" t="e">
+      <c r="K52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="69" t="e">
+      <c r="L52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M52" s="69" t="e">
+      <c r="M52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N52" s="69" t="e">
+      <c r="N52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O52" s="69" t="e">
+      <c r="O52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P52" s="69" t="e">
+      <c r="P52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q52" s="69" t="e">
+      <c r="Q52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R52" s="69" t="e">
+      <c r="R52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S52" s="70" t="e">
+      <c r="S52" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T52" s="68" t="e">
+      <c r="T52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U52" s="69" t="e">
+        <v>1.1550676662423383</v>
+      </c>
+      <c r="U52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V52" s="69" t="e">
+      <c r="V52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W52" s="69" t="e">
+      <c r="W52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X52" s="69" t="e">
+      <c r="X52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y52" s="69" t="e">
+      <c r="Y52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z52" s="69" t="e">
+      <c r="Z52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="69" t="e">
+      <c r="AA52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB52" s="69" t="e">
+      <c r="AB52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC52" s="69" t="e">
+      <c r="AC52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="70" t="e">
+      <c r="AD52" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE52" s="68" t="e">
+      <c r="AE52" s="65" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF52" s="69" t="e">
+      <c r="AF52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG52" s="69" t="e">
+      <c r="AG52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH52" s="70" t="e">
+      <c r="AH52" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI52" s="71">
+      <c r="AI52" s="68">
         <f t="shared" si="6"/>
         <v>2.9422439157800109</v>
       </c>
-      <c r="AJ52" s="69">
+      <c r="AJ52" s="66">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AK52" s="69">
+        <v>1.1550676662423383</v>
+      </c>
+      <c r="AK52" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="69" t="e">
+      <c r="AL52" s="66" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM52" s="69">
+      <c r="AM52" s="66">
         <f t="shared" si="6"/>
-        <v>0.80243015884909163</v>
-      </c>
-      <c r="AN52" s="69"/>
+        <v>0.89461927757395387</v>
+      </c>
+      <c r="AN52" s="66"/>
     </row>
     <row r="53" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
@@ -5405,131 +5499,131 @@
       <c r="H53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="68">
+      <c r="I53" s="65">
         <f t="shared" ref="I53:AM53" si="7">MAX(I2:I48)</f>
         <v>10</v>
       </c>
-      <c r="J53" s="69">
+      <c r="J53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K53" s="69">
+      <c r="K53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L53" s="69">
+      <c r="L53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M53" s="69">
+      <c r="M53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N53" s="69">
+      <c r="N53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O53" s="69">
+      <c r="O53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P53" s="69">
+      <c r="P53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="69">
+      <c r="Q53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R53" s="69">
+      <c r="R53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S53" s="70">
+      <c r="S53" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T53" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE53" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH53" s="70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI53" s="71">
+      <c r="T53" s="65">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AJ53" s="69">
+      <c r="U53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AK53" s="69">
+      <c r="V53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL53" s="69">
+      <c r="W53" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AM53" s="69">
+      <c r="X53" s="66">
         <f t="shared" si="7"/>
-        <v>2.7272727272727275</v>
-      </c>
-      <c r="AN53" s="69"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="68">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AJ53" s="66">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AK53" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL53" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM53" s="66">
+        <f t="shared" si="7"/>
+        <v>5.454545454545455</v>
+      </c>
+      <c r="AN53" s="66"/>
     </row>
     <row r="54" spans="6:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
@@ -5537,134 +5631,141 @@
       <c r="H54" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="72">
+      <c r="I54" s="69">
         <f t="shared" ref="I54:AM54" si="8">MIN(I2:I48)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="73">
+      <c r="J54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K54" s="73">
+      <c r="K54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L54" s="73">
+      <c r="L54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M54" s="73">
+      <c r="M54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N54" s="73">
+      <c r="N54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O54" s="73">
+      <c r="O54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P54" s="73">
+      <c r="P54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="73">
+      <c r="Q54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R54" s="73">
+      <c r="R54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S54" s="74">
+      <c r="S54" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T54" s="72">
+      <c r="T54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="73">
+        <v>6</v>
+      </c>
+      <c r="U54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V54" s="73">
+      <c r="V54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W54" s="73">
+      <c r="W54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X54" s="73">
+      <c r="X54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y54" s="73">
+      <c r="Y54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z54" s="73">
+      <c r="Z54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA54" s="73">
+      <c r="AA54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB54" s="73">
+      <c r="AB54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="73">
+      <c r="AC54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD54" s="74">
+      <c r="AD54" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE54" s="72">
+      <c r="AE54" s="69">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF54" s="73">
+      <c r="AF54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="73">
+      <c r="AG54" s="70">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH54" s="74">
+      <c r="AH54" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI54" s="71">
+      <c r="AI54" s="68">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ54" s="69">
+      <c r="AJ54" s="66">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK54" s="69">
+        <v>6</v>
+      </c>
+      <c r="AK54" s="66">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL54" s="69">
+      <c r="AL54" s="66">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM54" s="69">
+      <c r="AM54" s="66">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN54" s="69"/>
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="AN54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H15"/>
@@ -5681,13 +5782,6 @@
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5696,9 +5790,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5884,26 +5981,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5927,9 +6013,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5034FC-57E8-4503-AA9E-EF8FD5639A79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29C5FE4-CD01-4DF4-9DEE-EAC226FB908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1327,31 +1338,19 @@
     <xf numFmtId="176" fontId="17" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,23 +1359,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1386,8 +1372,33 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,7 +1630,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1790,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="99"/>
+      <c r="H2" s="98"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1849,7 +1860,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="100"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1919,7 +1930,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="99"/>
+      <c r="H4" s="98"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1989,7 +2000,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="100"/>
+      <c r="H5" s="99"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2059,7 +2070,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="99"/>
+      <c r="H6" s="98"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2129,7 +2140,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="100"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2199,7 +2210,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="99"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2269,7 +2280,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="100"/>
+      <c r="H9" s="99"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2339,7 +2350,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="99"/>
+      <c r="H10" s="98"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2356,7 +2367,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="44"/>
       <c r="T10" s="33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
@@ -2378,7 +2389,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
@@ -2387,7 +2398,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>7.9090909090909092</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2409,7 +2420,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="100"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2426,7 +2437,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="44"/>
       <c r="T11" s="33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
@@ -2448,7 +2459,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
@@ -2457,7 +2468,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>7.2272727272727266</v>
+        <v>7.5</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2479,7 +2490,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="99"/>
+      <c r="H12" s="98"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2549,11 +2560,11 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="100"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
-      <c r="J13" s="107">
+      <c r="J13" s="86">
         <v>7.5</v>
       </c>
       <c r="K13" s="46"/>
@@ -2619,7 +2630,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="99"/>
+      <c r="H14" s="98"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2689,7 +2700,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="100"/>
+      <c r="H15" s="99"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2759,7 +2770,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="102"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -2829,7 +2840,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="103"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -2899,7 +2910,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="86"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -2969,7 +2980,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="101"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3039,7 +3050,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="86"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3109,7 +3120,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="101"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3179,7 +3190,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="88"/>
+      <c r="H22" s="101"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3249,7 +3260,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="89"/>
+      <c r="H23" s="102"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3319,7 +3330,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="86"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3389,7 +3400,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="87"/>
+      <c r="H25" s="100"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3459,7 +3470,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="104"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3529,7 +3540,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="105"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3599,7 +3610,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="106"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3669,7 +3680,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="105"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -3739,7 +3750,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="106"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -3809,7 +3820,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="105"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -3879,7 +3890,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="95"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -3949,7 +3960,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="96"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4019,7 +4030,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="92"/>
+      <c r="H34" s="93"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4159,7 +4170,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="95"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4229,7 +4240,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="96"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4299,7 +4310,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="92"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4369,7 +4380,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="93"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4509,7 +4520,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="95"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -4579,7 +4590,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="96"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -4649,7 +4660,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="95"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -4719,7 +4730,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="96"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -4789,7 +4800,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="97"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -4859,7 +4870,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="98"/>
+      <c r="H46" s="107"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -4929,7 +4940,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="90"/>
+      <c r="H47" s="103"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -4999,7 +5010,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="91"/>
+      <c r="H48" s="104"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5103,7 +5114,7 @@
       </c>
       <c r="T49" s="64">
         <f>AVERAGE(T2:T25)</f>
-        <v>8.8333333333333339</v>
+        <v>8.9166666666666661</v>
       </c>
       <c r="U49" s="65" t="e">
         <f>AVERAGE(U2:U32)</f>
@@ -5167,7 +5178,7 @@
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>8.8333333333333339</v>
+        <v>8.9166666666666661</v>
       </c>
       <c r="AK49" s="65">
         <f>AVERAGE(AK2:AK25)</f>
@@ -5179,7 +5190,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>6.6931818181818192</v>
+        <v>6.7159090909090908</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5367,7 +5378,7 @@
       </c>
       <c r="T51" s="64">
         <f t="shared" si="5"/>
-        <v>8.787234042553191</v>
+        <v>8.8297872340425538</v>
       </c>
       <c r="U51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5431,7 +5442,7 @@
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
-        <v>8.787234042553191</v>
+        <v>8.8297872340425538</v>
       </c>
       <c r="AK51" s="65">
         <f t="shared" si="5"/>
@@ -5443,7 +5454,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>6.7340425531914905</v>
+        <v>6.745647969052226</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -5499,7 +5510,7 @@
       </c>
       <c r="T52" s="64">
         <f t="shared" si="6"/>
-        <v>1.1550676662423383</v>
+        <v>1.18080939330264</v>
       </c>
       <c r="U52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -5563,7 +5574,7 @@
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
-        <v>1.1550676662423383</v>
+        <v>1.18080939330264</v>
       </c>
       <c r="AK52" s="65">
         <f t="shared" si="6"/>
@@ -5575,7 +5586,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>1.0010764383999819</v>
+        <v>1.0108404328806324</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -5845,6 +5856,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -5853,21 +5877,8 @@
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5876,21 +5887,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6072,10 +6068,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6097,19 +6118,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29C5FE4-CD01-4DF4-9DEE-EAC226FB908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56C667B-DE6C-41B1-B405-6122E69C165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,6 +1341,37 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,18 +1382,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,10 +1391,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1384,21 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,7 +1630,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,14 +1790,16 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="98"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
       <c r="J2" s="43">
         <v>8</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="43">
+        <v>8</v>
+      </c>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
       <c r="N2" s="43"/>
@@ -1825,7 +1827,7 @@
       <c r="AH2" s="44"/>
       <c r="AI2" s="45">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
@@ -1838,7 +1840,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>7.2272727272727275</v>
+        <v>9.4090909090909101</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1860,14 +1862,16 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="99"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
       <c r="J3" s="43">
         <v>8.5</v>
       </c>
-      <c r="K3" s="43"/>
+      <c r="K3" s="43">
+        <v>9</v>
+      </c>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
       <c r="N3" s="43"/>
@@ -1895,7 +1899,7 @@
       <c r="AH3" s="44"/>
       <c r="AI3" s="45">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>27.5</v>
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
@@ -1908,7 +1912,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>7.6363636363636367</v>
+        <v>10.09090909090909</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1930,14 +1934,16 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="98"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
       <c r="J4" s="43">
         <v>9</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="43">
+        <v>4.5</v>
+      </c>
       <c r="L4" s="43"/>
       <c r="M4" s="43"/>
       <c r="N4" s="43"/>
@@ -1965,7 +1971,7 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="45">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21.5</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
@@ -1978,7 +1984,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>7.3636363636363642</v>
+        <v>8.5909090909090917</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2000,14 +2006,16 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="99"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
       <c r="J5" s="43">
         <v>10</v>
       </c>
-      <c r="K5" s="43"/>
+      <c r="K5" s="43">
+        <v>10</v>
+      </c>
       <c r="L5" s="43"/>
       <c r="M5" s="43"/>
       <c r="N5" s="43"/>
@@ -2035,7 +2043,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="45">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
@@ -2048,7 +2056,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2070,14 +2078,16 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="98"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
       <c r="J6" s="43">
         <v>7.5</v>
       </c>
-      <c r="K6" s="43"/>
+      <c r="K6" s="43">
+        <v>10</v>
+      </c>
       <c r="L6" s="43"/>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
@@ -2105,7 +2115,7 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="45">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>26.5</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
@@ -2118,7 +2128,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>6.4090909090909092</v>
+        <v>9.1363636363636367</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2140,14 +2150,16 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="99"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
       <c r="J7" s="43">
         <v>8</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="43">
+        <v>10</v>
+      </c>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
       <c r="N7" s="43"/>
@@ -2175,7 +2187,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
@@ -2188,7 +2200,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>6.5454545454545459</v>
+        <v>9.2727272727272716</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2210,14 +2222,16 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="98"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
       <c r="J8" s="43">
         <v>6</v>
       </c>
-      <c r="K8" s="43"/>
+      <c r="K8" s="43">
+        <v>10</v>
+      </c>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
       <c r="N8" s="43"/>
@@ -2245,7 +2259,7 @@
       <c r="AH8" s="44"/>
       <c r="AI8" s="45">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>24.5</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
@@ -2258,7 +2272,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>6.4090909090909083</v>
+        <v>9.1363636363636367</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2280,14 +2294,16 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="99"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
       <c r="J9" s="43">
         <v>8.5</v>
       </c>
-      <c r="K9" s="43"/>
+      <c r="K9" s="43">
+        <v>10</v>
+      </c>
       <c r="L9" s="43"/>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -2315,7 +2331,7 @@
       <c r="AH9" s="44"/>
       <c r="AI9" s="45">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
@@ -2328,7 +2344,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>6.545454545454545</v>
+        <v>9.2727272727272734</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2350,14 +2366,16 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="98"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
       <c r="J10" s="43">
         <v>9</v>
       </c>
-      <c r="K10" s="43"/>
+      <c r="K10" s="43">
+        <v>10</v>
+      </c>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -2385,7 +2403,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
@@ -2398,7 +2416,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>7.9090909090909092</v>
+        <v>10.636363636363637</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2420,14 +2438,16 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="99"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
       <c r="J11" s="43">
         <v>8.5</v>
       </c>
-      <c r="K11" s="43"/>
+      <c r="K11" s="43">
+        <v>8</v>
+      </c>
       <c r="L11" s="43"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
@@ -2455,7 +2475,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>25.5</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
@@ -2468,7 +2488,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>9.6818181818181817</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2490,14 +2510,16 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="98"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
       <c r="J12" s="43">
         <v>10</v>
       </c>
-      <c r="K12" s="43"/>
+      <c r="K12" s="43">
+        <v>10</v>
+      </c>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
@@ -2525,7 +2547,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>28.5</v>
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
@@ -2538,7 +2560,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>7.3636363636363642</v>
+        <v>10.09090909090909</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2560,14 +2582,16 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="99"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
       <c r="J13" s="86">
         <v>7.5</v>
       </c>
-      <c r="K13" s="46"/>
+      <c r="K13" s="46">
+        <v>9.5</v>
+      </c>
       <c r="L13" s="46"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -2595,7 +2619,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
@@ -2608,7 +2632,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>6.545454545454545</v>
+        <v>9.1363636363636367</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2630,14 +2654,16 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="98"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
       <c r="J14" s="43">
         <v>7</v>
       </c>
-      <c r="K14" s="43"/>
+      <c r="K14" s="43">
+        <v>9</v>
+      </c>
       <c r="L14" s="43"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -2665,7 +2691,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
@@ -2678,7 +2704,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>6.8181818181818183</v>
+        <v>9.2727272727272734</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2700,14 +2726,16 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="99"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
       <c r="J15" s="43">
         <v>10</v>
       </c>
-      <c r="K15" s="43"/>
+      <c r="K15" s="43">
+        <v>7</v>
+      </c>
       <c r="L15" s="43"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -2735,7 +2763,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
@@ -2748,7 +2776,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>6.8181818181818183</v>
+        <v>8.7272727272727266</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -2770,7 +2798,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="89"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -2840,14 +2868,16 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="90"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
       <c r="J17" s="43">
         <v>9</v>
       </c>
-      <c r="K17" s="43"/>
+      <c r="K17" s="43">
+        <v>10</v>
+      </c>
       <c r="L17" s="43"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -2875,7 +2905,7 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="45">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
@@ -2888,7 +2918,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>4.7727272727272734</v>
+        <v>7.5</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -2910,14 +2940,16 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="87"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
       <c r="J18" s="43">
         <v>10</v>
       </c>
-      <c r="K18" s="43"/>
+      <c r="K18" s="43">
+        <v>10</v>
+      </c>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -2945,7 +2977,7 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
@@ -2958,7 +2990,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>10.227272727272727</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -2980,14 +3012,16 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="88"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
       <c r="J19" s="43">
         <v>8</v>
       </c>
-      <c r="K19" s="43"/>
+      <c r="K19" s="43">
+        <v>8</v>
+      </c>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -3015,7 +3049,7 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="45">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
@@ -3028,7 +3062,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>6.6818181818181817</v>
+        <v>8.8636363636363633</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3050,14 +3084,16 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="87"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
       <c r="J20" s="43">
         <v>10</v>
       </c>
-      <c r="K20" s="43"/>
+      <c r="K20" s="43">
+        <v>8.5</v>
+      </c>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -3085,7 +3121,7 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28.5</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
@@ -3098,7 +3134,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>7.3636363636363642</v>
+        <v>9.6818181818181817</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3120,7 +3156,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="88"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3190,14 +3226,16 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="101"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
       <c r="J22" s="43">
         <v>8.5</v>
       </c>
-      <c r="K22" s="43"/>
+      <c r="K22" s="43">
+        <v>10</v>
+      </c>
       <c r="L22" s="43"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -3225,7 +3263,7 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="45">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
@@ -3238,7 +3276,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>6.8181818181818183</v>
+        <v>9.5454545454545467</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3260,14 +3298,16 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="102"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
       <c r="J23" s="43">
         <v>10</v>
       </c>
-      <c r="K23" s="43"/>
+      <c r="K23" s="43">
+        <v>9</v>
+      </c>
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
@@ -3295,7 +3335,7 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="45">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
@@ -3308,7 +3348,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>10.636363636363637</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3330,14 +3370,16 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
       <c r="J24" s="43">
         <v>9</v>
       </c>
-      <c r="K24" s="43"/>
+      <c r="K24" s="43">
+        <v>8</v>
+      </c>
       <c r="L24" s="43"/>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
@@ -3365,7 +3407,7 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
@@ -3378,7 +3420,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>4.9090909090909092</v>
+        <v>7.0909090909090917</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3400,14 +3442,16 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="100"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
       <c r="J25" s="51">
         <v>6.5</v>
       </c>
-      <c r="K25" s="51"/>
+      <c r="K25" s="51">
+        <v>8.5</v>
+      </c>
       <c r="L25" s="51"/>
       <c r="M25" s="51"/>
       <c r="N25" s="51"/>
@@ -3435,7 +3479,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="50">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
@@ -3448,7 +3492,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>6.545454545454545</v>
+        <v>8.8636363636363633</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3470,14 +3514,16 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="95"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
       <c r="J26" s="54">
         <v>8.5</v>
       </c>
-      <c r="K26" s="54"/>
+      <c r="K26" s="54">
+        <v>9</v>
+      </c>
       <c r="L26" s="54"/>
       <c r="M26" s="54"/>
       <c r="N26" s="54"/>
@@ -3505,7 +3551,7 @@
       <c r="AH26" s="55"/>
       <c r="AI26" s="56">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
@@ -3518,7 +3564,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>5.8636363636363633</v>
+        <v>8.3181818181818183</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -3540,14 +3586,16 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="96"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
       <c r="J27" s="59">
         <v>10</v>
       </c>
-      <c r="K27" s="59"/>
+      <c r="K27" s="59">
+        <v>8</v>
+      </c>
       <c r="L27" s="59"/>
       <c r="M27" s="59"/>
       <c r="N27" s="59"/>
@@ -3575,7 +3623,7 @@
       <c r="AH27" s="60"/>
       <c r="AI27" s="61">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
@@ -3588,7 +3636,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>6.6818181818181817</v>
+        <v>8.8636363636363633</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -3610,14 +3658,16 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
       <c r="J28" s="59">
         <v>8.5</v>
       </c>
-      <c r="K28" s="59"/>
+      <c r="K28" s="59">
+        <v>10</v>
+      </c>
       <c r="L28" s="59"/>
       <c r="M28" s="59"/>
       <c r="N28" s="59"/>
@@ -3645,7 +3695,7 @@
       <c r="AH28" s="60"/>
       <c r="AI28" s="61">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>26.5</v>
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
@@ -3658,7 +3708,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>6.6818181818181817</v>
+        <v>9.4090909090909101</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -3680,14 +3730,16 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
       <c r="J29" s="59">
         <v>10</v>
       </c>
-      <c r="K29" s="59"/>
+      <c r="K29" s="59">
+        <v>10</v>
+      </c>
       <c r="L29" s="59"/>
       <c r="M29" s="59"/>
       <c r="N29" s="59"/>
@@ -3715,7 +3767,7 @@
       <c r="AH29" s="60"/>
       <c r="AI29" s="61">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
@@ -3728,7 +3780,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>10.363636363636363</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -3750,14 +3802,16 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="97"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
       <c r="J30" s="59">
         <v>8</v>
       </c>
-      <c r="K30" s="59"/>
+      <c r="K30" s="59">
+        <v>9</v>
+      </c>
       <c r="L30" s="59"/>
       <c r="M30" s="59"/>
       <c r="N30" s="59"/>
@@ -3785,7 +3839,7 @@
       <c r="AH30" s="60"/>
       <c r="AI30" s="61">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
@@ -3798,7 +3852,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>7.3636363636363642</v>
+        <v>9.8181818181818183</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -3820,14 +3874,16 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="96"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
       <c r="J31" s="59">
         <v>10</v>
       </c>
-      <c r="K31" s="59"/>
+      <c r="K31" s="59">
+        <v>9</v>
+      </c>
       <c r="L31" s="59"/>
       <c r="M31" s="59"/>
       <c r="N31" s="59"/>
@@ -3855,7 +3911,7 @@
       <c r="AH31" s="60"/>
       <c r="AI31" s="61">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
@@ -3868,7 +3924,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>10.09090909090909</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -3890,14 +3946,16 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="91"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
       <c r="J32" s="59">
         <v>9</v>
       </c>
-      <c r="K32" s="59"/>
+      <c r="K32" s="59">
+        <v>7</v>
+      </c>
       <c r="L32" s="59"/>
       <c r="M32" s="59"/>
       <c r="N32" s="59"/>
@@ -3925,7 +3983,7 @@
       <c r="AH32" s="60"/>
       <c r="AI32" s="61">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>21.5</v>
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
@@ -3938,7 +3996,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>5.5909090909090899</v>
+        <v>7.5</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -3960,14 +4018,16 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
       <c r="J33" s="59">
         <v>10</v>
       </c>
-      <c r="K33" s="59"/>
+      <c r="K33" s="59">
+        <v>8</v>
+      </c>
       <c r="L33" s="59"/>
       <c r="M33" s="59"/>
       <c r="N33" s="59"/>
@@ -3995,7 +4055,7 @@
       <c r="AH33" s="60"/>
       <c r="AI33" s="61">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
@@ -4008,7 +4068,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>7.0909090909090917</v>
+        <v>9.2727272727272716</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4030,14 +4090,16 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="93"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
       <c r="J34" s="59">
         <v>10</v>
       </c>
-      <c r="K34" s="59"/>
+      <c r="K34" s="59">
+        <v>10</v>
+      </c>
       <c r="L34" s="59"/>
       <c r="M34" s="59"/>
       <c r="N34" s="59"/>
@@ -4065,7 +4127,7 @@
       <c r="AH34" s="60"/>
       <c r="AI34" s="61">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
@@ -4078,7 +4140,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>7.3636363636363633</v>
+        <v>10.09090909090909</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4100,14 +4162,16 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
       <c r="J35" s="59">
         <v>10</v>
       </c>
-      <c r="K35" s="59"/>
+      <c r="K35" s="59">
+        <v>8</v>
+      </c>
       <c r="L35" s="59"/>
       <c r="M35" s="59"/>
       <c r="N35" s="59"/>
@@ -4135,7 +4199,7 @@
       <c r="AH35" s="60"/>
       <c r="AI35" s="61">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
@@ -4148,7 +4212,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>7.3636363636363633</v>
+        <v>9.545454545454545</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4170,14 +4234,16 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="91"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
       <c r="J36" s="59">
         <v>10</v>
       </c>
-      <c r="K36" s="59"/>
+      <c r="K36" s="59">
+        <v>9</v>
+      </c>
       <c r="L36" s="59"/>
       <c r="M36" s="59"/>
       <c r="N36" s="59"/>
@@ -4205,7 +4271,7 @@
       <c r="AH36" s="60"/>
       <c r="AI36" s="61">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
@@ -4218,7 +4284,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>10.09090909090909</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4240,14 +4306,16 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="92"/>
+      <c r="H37" s="88"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
       <c r="J37" s="59">
         <v>6.5</v>
       </c>
-      <c r="K37" s="59"/>
+      <c r="K37" s="59">
+        <v>9.5</v>
+      </c>
       <c r="L37" s="59"/>
       <c r="M37" s="59"/>
       <c r="N37" s="59"/>
@@ -4275,7 +4343,7 @@
       <c r="AH37" s="60"/>
       <c r="AI37" s="61">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
@@ -4288,7 +4356,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>6.6818181818181817</v>
+        <v>9.2727272727272734</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -4310,14 +4378,16 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="93"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
       <c r="J38" s="59">
         <v>7</v>
       </c>
-      <c r="K38" s="59"/>
+      <c r="K38" s="59">
+        <v>9</v>
+      </c>
       <c r="L38" s="59"/>
       <c r="M38" s="59"/>
       <c r="N38" s="59"/>
@@ -4345,7 +4415,7 @@
       <c r="AH38" s="60"/>
       <c r="AI38" s="61">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
@@ -4358,7 +4428,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>6.545454545454545</v>
+        <v>9</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -4380,14 +4450,16 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="105"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
       <c r="J39" s="59">
         <v>6.5</v>
       </c>
-      <c r="K39" s="59"/>
+      <c r="K39" s="59">
+        <v>8</v>
+      </c>
       <c r="L39" s="59"/>
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
@@ -4415,7 +4487,7 @@
       <c r="AH39" s="60"/>
       <c r="AI39" s="61">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>22.5</v>
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
@@ -4428,7 +4500,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>6.1363636363636358</v>
+        <v>8.3181818181818183</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -4450,7 +4522,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="94"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -4520,7 +4592,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="91"/>
+      <c r="H41" s="87"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -4590,14 +4662,16 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="92"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
       <c r="J42" s="59">
         <v>8.5</v>
       </c>
-      <c r="K42" s="59"/>
+      <c r="K42" s="59">
+        <v>7</v>
+      </c>
       <c r="L42" s="59"/>
       <c r="M42" s="59"/>
       <c r="N42" s="59"/>
@@ -4625,7 +4699,7 @@
       <c r="AH42" s="60"/>
       <c r="AI42" s="61">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
@@ -4638,7 +4712,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>7.0909090909090908</v>
+        <v>9</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -4660,14 +4734,16 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="91"/>
+      <c r="H43" s="87"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
       <c r="J43" s="59">
         <v>6</v>
       </c>
-      <c r="K43" s="59"/>
+      <c r="K43" s="59">
+        <v>8</v>
+      </c>
       <c r="L43" s="59"/>
       <c r="M43" s="59"/>
       <c r="N43" s="59"/>
@@ -4695,7 +4771,7 @@
       <c r="AH43" s="60"/>
       <c r="AI43" s="61">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>21.5</v>
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
@@ -4708,7 +4784,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>5.8636363636363633</v>
+        <v>8.0454545454545467</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -4730,14 +4806,16 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="92"/>
+      <c r="H44" s="88"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
       <c r="J44" s="59">
         <v>8</v>
       </c>
-      <c r="K44" s="59"/>
+      <c r="K44" s="59">
+        <v>6</v>
+      </c>
       <c r="L44" s="59"/>
       <c r="M44" s="59"/>
       <c r="N44" s="59"/>
@@ -4765,7 +4843,7 @@
       <c r="AH44" s="60"/>
       <c r="AI44" s="61">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
@@ -4778,7 +4856,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>4.3636363636363633</v>
+        <v>6</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -4800,14 +4878,16 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="106"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
       <c r="J45" s="83">
         <v>10</v>
       </c>
-      <c r="K45" s="83"/>
+      <c r="K45" s="83">
+        <v>6</v>
+      </c>
       <c r="L45" s="83"/>
       <c r="M45" s="83"/>
       <c r="N45" s="83"/>
@@ -4835,7 +4915,7 @@
       <c r="AH45" s="85"/>
       <c r="AI45" s="61">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
@@ -4848,7 +4928,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>9.8181818181818183</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -4870,14 +4950,16 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="107"/>
+      <c r="H46" s="95"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
       <c r="J46" s="83">
         <v>10</v>
       </c>
-      <c r="K46" s="83"/>
+      <c r="K46" s="83">
+        <v>9</v>
+      </c>
       <c r="L46" s="83"/>
       <c r="M46" s="83"/>
       <c r="N46" s="83"/>
@@ -4905,7 +4987,7 @@
       <c r="AH46" s="85"/>
       <c r="AI46" s="61">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
@@ -4918,7 +5000,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>10.636363636363637</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -4940,14 +5022,16 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="103"/>
+      <c r="H47" s="89"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
       <c r="J47" s="83">
         <v>10</v>
       </c>
-      <c r="K47" s="83"/>
+      <c r="K47" s="83">
+        <v>8</v>
+      </c>
       <c r="L47" s="83"/>
       <c r="M47" s="83"/>
       <c r="N47" s="83"/>
@@ -4975,7 +5059,7 @@
       <c r="AH47" s="85"/>
       <c r="AI47" s="61">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
@@ -4988,7 +5072,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>9.8181818181818183</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5010,14 +5094,16 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="104"/>
+      <c r="H48" s="90"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
       <c r="J48" s="83">
         <v>7.5</v>
       </c>
-      <c r="K48" s="83"/>
+      <c r="K48" s="83">
+        <v>9</v>
+      </c>
       <c r="L48" s="83"/>
       <c r="M48" s="83"/>
       <c r="N48" s="83"/>
@@ -5045,7 +5131,7 @@
       <c r="AH48" s="85"/>
       <c r="AI48" s="61">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
@@ -5058,7 +5144,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>5.7272727272727275</v>
+        <v>8.1818181818181834</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -5076,9 +5162,9 @@
         <f>AVERAGE(J2:J25)</f>
         <v>8.6041666666666661</v>
       </c>
-      <c r="K49" s="65" t="e">
+      <c r="K49" s="65">
         <f>AVERAGE(K2:K25)</f>
-        <v>#DIV/0!</v>
+        <v>8.954545454545455</v>
       </c>
       <c r="L49" s="65" t="e">
         <f>AVERAGE(L2:L32)</f>
@@ -5174,7 +5260,7 @@
       </c>
       <c r="AI49" s="67">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>15.708333333333334</v>
+        <v>23.916666666666668</v>
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
@@ -5190,7 +5276,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>6.7159090909090908</v>
+        <v>8.9545454545454568</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5208,9 +5294,9 @@
         <f t="shared" ref="J50:AM50" si="4">AVERAGE(J26:J48)</f>
         <v>8.5652173913043477</v>
       </c>
-      <c r="K50" s="65" t="e">
+      <c r="K50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.4047619047619051</v>
       </c>
       <c r="L50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -5306,7 +5392,7 @@
       </c>
       <c r="AI50" s="67">
         <f t="shared" si="4"/>
-        <v>16.108695652173914</v>
+        <v>23.782608695652176</v>
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
@@ -5322,7 +5408,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>6.7766798418972325</v>
+        <v>8.8695652173913011</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -5340,9 +5426,9 @@
         <f t="shared" si="5"/>
         <v>8.585106382978724</v>
       </c>
-      <c r="K51" s="65" t="e">
+      <c r="K51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8.6860465116279073</v>
       </c>
       <c r="L51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5438,7 +5524,7 @@
       </c>
       <c r="AI51" s="67">
         <f t="shared" si="5"/>
-        <v>15.904255319148936</v>
+        <v>23.851063829787233</v>
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
@@ -5454,7 +5540,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>6.745647969052226</v>
+        <v>8.9129593810444874</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -5472,9 +5558,9 @@
         <f t="shared" si="6"/>
         <v>1.4077392797464223</v>
       </c>
-      <c r="K52" s="65" t="e">
+      <c r="K52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.2911016697358428</v>
       </c>
       <c r="L52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -5570,7 +5656,7 @@
       </c>
       <c r="AI52" s="67">
         <f t="shared" si="6"/>
-        <v>3.387377942406097</v>
+        <v>5.1656420258584976</v>
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
@@ -5586,7 +5672,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>1.0108404328806324</v>
+        <v>1.4814043708927263</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -5606,7 +5692,7 @@
       </c>
       <c r="K53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L53" s="65">
         <f t="shared" si="7"/>
@@ -5702,7 +5788,7 @@
       </c>
       <c r="AI53" s="67">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
@@ -5718,7 +5804,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>8.1818181818181834</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -5738,7 +5824,7 @@
       </c>
       <c r="K54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L54" s="69">
         <f t="shared" si="8"/>
@@ -5834,7 +5920,7 @@
       </c>
       <c r="AI54" s="67">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ54" s="65">
         <f t="shared" si="8"/>
@@ -5856,19 +5942,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -5879,6 +5952,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5887,6 +5973,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6068,35 +6169,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6118,9 +6194,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56C667B-DE6C-41B1-B405-6122E69C165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A59784-7472-430F-92F9-5DAF5B3EEFAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1341,47 +1330,28 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,6 +1369,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,7 +1619,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1779,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="96"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1811,7 +1800,9 @@
       <c r="T2" s="33">
         <v>9.5</v>
       </c>
-      <c r="U2" s="43"/>
+      <c r="U2" s="43">
+        <v>10</v>
+      </c>
       <c r="V2" s="43"/>
       <c r="W2" s="43"/>
       <c r="X2" s="43"/>
@@ -1831,7 +1822,7 @@
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>9.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK2" s="43">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1840,7 +1831,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>9.4090909090909101</v>
+        <v>12.136363636363637</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1862,7 +1853,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="97"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1883,7 +1874,9 @@
       <c r="T3" s="33">
         <v>9.5</v>
       </c>
-      <c r="U3" s="43"/>
+      <c r="U3" s="43">
+        <v>10</v>
+      </c>
       <c r="V3" s="43"/>
       <c r="W3" s="43"/>
       <c r="X3" s="43"/>
@@ -1903,7 +1896,7 @@
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" s="43">
         <f t="shared" si="2"/>
@@ -1912,7 +1905,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>10.09090909090909</v>
+        <v>12.818181818181818</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1934,7 +1927,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="96"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1955,7 +1948,9 @@
       <c r="T4" s="33">
         <v>10</v>
       </c>
-      <c r="U4" s="43"/>
+      <c r="U4" s="43">
+        <v>10</v>
+      </c>
       <c r="V4" s="43"/>
       <c r="W4" s="43"/>
       <c r="X4" s="43"/>
@@ -1975,7 +1970,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" si="2"/>
@@ -1984,7 +1979,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>8.5909090909090917</v>
+        <v>11.31818181818182</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2006,7 +2001,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="97"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2027,7 +2022,9 @@
       <c r="T5" s="33">
         <v>10</v>
       </c>
-      <c r="U5" s="43"/>
+      <c r="U5" s="43">
+        <v>10</v>
+      </c>
       <c r="V5" s="43"/>
       <c r="W5" s="43"/>
       <c r="X5" s="43"/>
@@ -2047,7 +2044,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK5" s="43">
         <f t="shared" si="2"/>
@@ -2056,7 +2053,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>10.90909090909091</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2078,7 +2075,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="96"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2099,7 +2096,9 @@
       <c r="T6" s="33">
         <v>7</v>
       </c>
-      <c r="U6" s="43"/>
+      <c r="U6" s="43">
+        <v>10</v>
+      </c>
       <c r="V6" s="43"/>
       <c r="W6" s="43"/>
       <c r="X6" s="43"/>
@@ -2119,7 +2118,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK6" s="43">
         <f t="shared" si="2"/>
@@ -2128,7 +2127,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>9.1363636363636367</v>
+        <v>11.863636363636363</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2150,7 +2149,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="97"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2171,7 +2170,9 @@
       <c r="T7" s="33">
         <v>7</v>
       </c>
-      <c r="U7" s="43"/>
+      <c r="U7" s="43">
+        <v>10</v>
+      </c>
       <c r="V7" s="43"/>
       <c r="W7" s="43"/>
       <c r="X7" s="43"/>
@@ -2191,7 +2192,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK7" s="43">
         <f t="shared" si="2"/>
@@ -2200,7 +2201,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>9.2727272727272716</v>
+        <v>12</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2222,7 +2223,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="96"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2243,7 +2244,9 @@
       <c r="T8" s="33">
         <v>9</v>
       </c>
-      <c r="U8" s="43"/>
+      <c r="U8" s="43">
+        <v>10</v>
+      </c>
       <c r="V8" s="43"/>
       <c r="W8" s="43"/>
       <c r="X8" s="43"/>
@@ -2263,7 +2266,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
@@ -2272,7 +2275,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>9.1363636363636367</v>
+        <v>11.863636363636363</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2294,7 +2297,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="97"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2315,7 +2318,9 @@
       <c r="T9" s="33">
         <v>9</v>
       </c>
-      <c r="U9" s="43"/>
+      <c r="U9" s="43">
+        <v>10</v>
+      </c>
       <c r="V9" s="43"/>
       <c r="W9" s="43"/>
       <c r="X9" s="43"/>
@@ -2335,7 +2340,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
@@ -2344,7 +2349,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>9.2727272727272734</v>
+        <v>12</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2366,7 +2371,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="96"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2387,7 +2392,9 @@
       <c r="T10" s="33">
         <v>10</v>
       </c>
-      <c r="U10" s="43"/>
+      <c r="U10" s="43">
+        <v>10</v>
+      </c>
       <c r="V10" s="43"/>
       <c r="W10" s="43"/>
       <c r="X10" s="43"/>
@@ -2407,7 +2414,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
@@ -2416,7 +2423,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>10.636363636363637</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2438,7 +2445,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="97"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2459,7 +2466,9 @@
       <c r="T11" s="33">
         <v>10</v>
       </c>
-      <c r="U11" s="43"/>
+      <c r="U11" s="43">
+        <v>10</v>
+      </c>
       <c r="V11" s="43"/>
       <c r="W11" s="43"/>
       <c r="X11" s="43"/>
@@ -2479,7 +2488,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
@@ -2488,7 +2497,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>9.6818181818181817</v>
+        <v>12.40909090909091</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2510,7 +2519,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="96"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2531,7 +2540,9 @@
       <c r="T12" s="33">
         <v>8.5</v>
       </c>
-      <c r="U12" s="43"/>
+      <c r="U12" s="43">
+        <v>9.5</v>
+      </c>
       <c r="V12" s="43"/>
       <c r="W12" s="43"/>
       <c r="X12" s="43"/>
@@ -2551,7 +2562,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>18</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
@@ -2560,7 +2571,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>10.09090909090909</v>
+        <v>12.681818181818182</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2582,7 +2593,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="97"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2603,7 +2614,9 @@
       <c r="T13" s="33">
         <v>8.5</v>
       </c>
-      <c r="U13" s="46"/>
+      <c r="U13" s="86">
+        <v>9.5</v>
+      </c>
       <c r="V13" s="46"/>
       <c r="W13" s="46"/>
       <c r="X13" s="43"/>
@@ -2623,7 +2636,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>18</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
@@ -2632,7 +2645,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>9.1363636363636367</v>
+        <v>11.727272727272727</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2654,7 +2667,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2675,7 +2688,9 @@
       <c r="T14" s="33">
         <v>10</v>
       </c>
-      <c r="U14" s="43"/>
+      <c r="U14" s="43">
+        <v>8</v>
+      </c>
       <c r="V14" s="43"/>
       <c r="W14" s="43"/>
       <c r="X14" s="43"/>
@@ -2695,7 +2710,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AK14" s="43">
         <f t="shared" si="2"/>
@@ -2704,7 +2719,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>9.2727272727272734</v>
+        <v>11.454545454545453</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2726,7 +2741,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2747,7 +2762,9 @@
       <c r="T15" s="33">
         <v>10</v>
       </c>
-      <c r="U15" s="43"/>
+      <c r="U15" s="43">
+        <v>8</v>
+      </c>
       <c r="V15" s="43"/>
       <c r="W15" s="43"/>
       <c r="X15" s="43"/>
@@ -2767,7 +2784,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AK15" s="43">
         <f t="shared" si="2"/>
@@ -2776,7 +2793,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>8.7272727272727266</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -2798,7 +2815,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="100"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -2817,7 +2834,9 @@
       <c r="T16" s="33">
         <v>8.5</v>
       </c>
-      <c r="U16" s="43"/>
+      <c r="U16" s="43">
+        <v>10</v>
+      </c>
       <c r="V16" s="43"/>
       <c r="W16" s="43"/>
       <c r="X16" s="43"/>
@@ -2837,7 +2856,7 @@
       </c>
       <c r="AJ16" s="43">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK16" s="43">
         <f t="shared" si="2"/>
@@ -2846,7 +2865,7 @@
       <c r="AL16" s="43"/>
       <c r="AM16" s="43">
         <f t="shared" si="3"/>
-        <v>4.7727272727272734</v>
+        <v>7.5</v>
       </c>
       <c r="AN16" s="43"/>
     </row>
@@ -2868,7 +2887,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="101"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -2889,7 +2908,9 @@
       <c r="T17" s="33">
         <v>8.5</v>
       </c>
-      <c r="U17" s="43"/>
+      <c r="U17" s="43">
+        <v>10</v>
+      </c>
       <c r="V17" s="43"/>
       <c r="W17" s="43"/>
       <c r="X17" s="43"/>
@@ -2909,7 +2930,7 @@
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK17" s="43">
         <f t="shared" si="2"/>
@@ -2918,7 +2939,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>10.227272727272727</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -2940,7 +2961,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="98"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -2961,7 +2982,9 @@
       <c r="T18" s="33">
         <v>8.5</v>
       </c>
-      <c r="U18" s="43"/>
+      <c r="U18" s="43">
+        <v>7</v>
+      </c>
       <c r="V18" s="43"/>
       <c r="W18" s="43"/>
       <c r="X18" s="43"/>
@@ -2981,7 +3004,7 @@
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK18" s="43">
         <f t="shared" si="2"/>
@@ -2990,7 +3013,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>10.227272727272727</v>
+        <v>12.136363636363635</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3012,7 +3035,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="99"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3033,7 +3056,9 @@
       <c r="T19" s="33">
         <v>8.5</v>
       </c>
-      <c r="U19" s="43"/>
+      <c r="U19" s="43">
+        <v>7</v>
+      </c>
       <c r="V19" s="43"/>
       <c r="W19" s="43"/>
       <c r="X19" s="43"/>
@@ -3053,7 +3078,7 @@
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK19" s="43">
         <f t="shared" si="2"/>
@@ -3062,7 +3087,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>8.8636363636363633</v>
+        <v>10.772727272727272</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3084,7 +3109,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="98"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3105,7 +3130,9 @@
       <c r="T20" s="33">
         <v>7</v>
       </c>
-      <c r="U20" s="43"/>
+      <c r="U20" s="43">
+        <v>10</v>
+      </c>
       <c r="V20" s="43"/>
       <c r="W20" s="43"/>
       <c r="X20" s="43"/>
@@ -3125,7 +3152,7 @@
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK20" s="43">
         <f t="shared" si="2"/>
@@ -3134,7 +3161,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>9.6818181818181817</v>
+        <v>12.40909090909091</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3156,7 +3183,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="99"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3175,7 +3202,9 @@
       <c r="T21" s="33">
         <v>7</v>
       </c>
-      <c r="U21" s="43"/>
+      <c r="U21" s="43">
+        <v>10</v>
+      </c>
       <c r="V21" s="43"/>
       <c r="W21" s="43"/>
       <c r="X21" s="43"/>
@@ -3195,7 +3224,7 @@
       </c>
       <c r="AJ21" s="43">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK21" s="43">
         <f t="shared" si="2"/>
@@ -3204,7 +3233,7 @@
       <c r="AL21" s="43"/>
       <c r="AM21" s="43">
         <f t="shared" si="3"/>
-        <v>4.3636363636363633</v>
+        <v>7.0909090909090917</v>
       </c>
       <c r="AN21" s="43"/>
     </row>
@@ -3226,7 +3255,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="106"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3247,7 +3276,9 @@
       <c r="T22" s="33">
         <v>10</v>
       </c>
-      <c r="U22" s="43"/>
+      <c r="U22" s="43">
+        <v>10</v>
+      </c>
       <c r="V22" s="43"/>
       <c r="W22" s="43"/>
       <c r="X22" s="43"/>
@@ -3267,7 +3298,7 @@
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
@@ -3276,7 +3307,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>9.5454545454545467</v>
+        <v>12.272727272727273</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3298,7 +3329,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="107"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3319,7 +3350,9 @@
       <c r="T23" s="33">
         <v>10</v>
       </c>
-      <c r="U23" s="43"/>
+      <c r="U23" s="43">
+        <v>10</v>
+      </c>
       <c r="V23" s="43"/>
       <c r="W23" s="43"/>
       <c r="X23" s="43"/>
@@ -3339,7 +3372,7 @@
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK23" s="43">
         <f t="shared" si="2"/>
@@ -3348,7 +3381,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>10.636363636363637</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3370,7 +3403,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="98"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3391,7 +3424,9 @@
       <c r="T24" s="33">
         <v>9</v>
       </c>
-      <c r="U24" s="43"/>
+      <c r="U24" s="43">
+        <v>10</v>
+      </c>
       <c r="V24" s="43"/>
       <c r="W24" s="43"/>
       <c r="X24" s="43"/>
@@ -3411,7 +3446,7 @@
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="2"/>
@@ -3420,7 +3455,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>7.0909090909090917</v>
+        <v>9.8181818181818183</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3442,7 +3477,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="105"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3463,7 +3498,9 @@
       <c r="T25" s="50">
         <v>9</v>
       </c>
-      <c r="U25" s="51"/>
+      <c r="U25" s="51">
+        <v>10</v>
+      </c>
       <c r="V25" s="51"/>
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
@@ -3483,7 +3520,7 @@
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK25" s="51">
         <f t="shared" si="2"/>
@@ -3492,7 +3529,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>8.8636363636363633</v>
+        <v>11.59090909090909</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3514,7 +3551,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="102"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3535,7 +3572,9 @@
       <c r="T26" s="53">
         <v>7.5</v>
       </c>
-      <c r="U26" s="54"/>
+      <c r="U26" s="54">
+        <v>9</v>
+      </c>
       <c r="V26" s="54"/>
       <c r="W26" s="54"/>
       <c r="X26" s="54"/>
@@ -3555,7 +3594,7 @@
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK26" s="57">
         <f t="shared" si="2"/>
@@ -3564,7 +3603,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>8.3181818181818183</v>
+        <v>10.772727272727273</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -3586,7 +3625,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="103"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3607,7 +3646,9 @@
       <c r="T27" s="58">
         <v>7.5</v>
       </c>
-      <c r="U27" s="59"/>
+      <c r="U27" s="59">
+        <v>9</v>
+      </c>
       <c r="V27" s="59"/>
       <c r="W27" s="59"/>
       <c r="X27" s="59"/>
@@ -3627,7 +3668,7 @@
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK27" s="62">
         <f t="shared" si="2"/>
@@ -3636,7 +3677,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>8.8636363636363633</v>
+        <v>11.318181818181818</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -3658,7 +3699,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="104"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3679,7 +3720,9 @@
       <c r="T28" s="58">
         <v>8</v>
       </c>
-      <c r="U28" s="59"/>
+      <c r="U28" s="59">
+        <v>7</v>
+      </c>
       <c r="V28" s="59"/>
       <c r="W28" s="59"/>
       <c r="X28" s="59"/>
@@ -3699,7 +3742,7 @@
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AK28" s="62">
         <f t="shared" si="2"/>
@@ -3708,7 +3751,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>9.4090909090909101</v>
+        <v>11.318181818181818</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -3730,7 +3773,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="103"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -3751,7 +3794,9 @@
       <c r="T29" s="58">
         <v>8</v>
       </c>
-      <c r="U29" s="59"/>
+      <c r="U29" s="59">
+        <v>7</v>
+      </c>
       <c r="V29" s="59"/>
       <c r="W29" s="59"/>
       <c r="X29" s="59"/>
@@ -3771,7 +3816,7 @@
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AK29" s="62">
         <f t="shared" si="2"/>
@@ -3780,7 +3825,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>10.363636363636363</v>
+        <v>12.272727272727273</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -3802,7 +3847,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -3823,7 +3868,9 @@
       <c r="T30" s="58">
         <v>10</v>
       </c>
-      <c r="U30" s="59"/>
+      <c r="U30" s="59">
+        <v>10</v>
+      </c>
       <c r="V30" s="59"/>
       <c r="W30" s="59"/>
       <c r="X30" s="59"/>
@@ -3843,7 +3890,7 @@
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK30" s="62">
         <f t="shared" si="2"/>
@@ -3852,7 +3899,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>9.8181818181818183</v>
+        <v>12.545454545454547</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -3874,7 +3921,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="103"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -3895,7 +3942,9 @@
       <c r="T31" s="58">
         <v>10</v>
       </c>
-      <c r="U31" s="59"/>
+      <c r="U31" s="59">
+        <v>10</v>
+      </c>
       <c r="V31" s="59"/>
       <c r="W31" s="59"/>
       <c r="X31" s="59"/>
@@ -3915,7 +3964,7 @@
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK31" s="62">
         <f t="shared" si="2"/>
@@ -3924,7 +3973,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>10.09090909090909</v>
+        <v>12.818181818181818</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -3946,7 +3995,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="87"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -3967,7 +4016,9 @@
       <c r="T32" s="58">
         <v>6</v>
       </c>
-      <c r="U32" s="59"/>
+      <c r="U32" s="59">
+        <v>9.5</v>
+      </c>
       <c r="V32" s="59"/>
       <c r="W32" s="59"/>
       <c r="X32" s="59"/>
@@ -3987,7 +4038,7 @@
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="AK32" s="62">
         <f t="shared" si="2"/>
@@ -3996,7 +4047,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>10.09090909090909</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4018,7 +4069,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="88"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4039,7 +4090,9 @@
       <c r="T33" s="58">
         <v>6</v>
       </c>
-      <c r="U33" s="59"/>
+      <c r="U33" s="59">
+        <v>9.5</v>
+      </c>
       <c r="V33" s="59"/>
       <c r="W33" s="59"/>
       <c r="X33" s="59"/>
@@ -4059,7 +4112,7 @@
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="AK33" s="62">
         <f t="shared" si="2"/>
@@ -4068,7 +4121,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>9.2727272727272716</v>
+        <v>11.863636363636363</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4090,7 +4143,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="91"/>
+      <c r="H34" s="93"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4111,7 +4164,9 @@
       <c r="T34" s="58">
         <v>9</v>
       </c>
-      <c r="U34" s="59"/>
+      <c r="U34" s="59">
+        <v>9</v>
+      </c>
       <c r="V34" s="59"/>
       <c r="W34" s="59"/>
       <c r="X34" s="59"/>
@@ -4131,7 +4186,7 @@
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AK34" s="62">
         <f t="shared" si="2"/>
@@ -4140,7 +4195,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>10.09090909090909</v>
+        <v>12.545454545454545</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4162,7 +4217,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4183,7 +4238,9 @@
       <c r="T35" s="58">
         <v>9</v>
       </c>
-      <c r="U35" s="59"/>
+      <c r="U35" s="59">
+        <v>9</v>
+      </c>
       <c r="V35" s="59"/>
       <c r="W35" s="59"/>
       <c r="X35" s="59"/>
@@ -4203,7 +4260,7 @@
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AK35" s="62">
         <f t="shared" si="2"/>
@@ -4212,7 +4269,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>9.545454545454545</v>
+        <v>12</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4234,7 +4291,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="87"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4255,7 +4312,9 @@
       <c r="T36" s="58">
         <v>10</v>
       </c>
-      <c r="U36" s="59"/>
+      <c r="U36" s="59">
+        <v>10</v>
+      </c>
       <c r="V36" s="59"/>
       <c r="W36" s="59"/>
       <c r="X36" s="59"/>
@@ -4275,7 +4334,7 @@
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK36" s="62">
         <f t="shared" si="2"/>
@@ -4284,7 +4343,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>10.09090909090909</v>
+        <v>12.818181818181818</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4306,7 +4365,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4327,7 +4386,9 @@
       <c r="T37" s="58">
         <v>10</v>
       </c>
-      <c r="U37" s="59"/>
+      <c r="U37" s="59">
+        <v>10</v>
+      </c>
       <c r="V37" s="59"/>
       <c r="W37" s="59"/>
       <c r="X37" s="59"/>
@@ -4347,7 +4408,7 @@
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK37" s="62">
         <f t="shared" si="2"/>
@@ -4356,7 +4417,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>9.2727272727272734</v>
+        <v>12</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -4378,7 +4439,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="91"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4399,7 +4460,9 @@
       <c r="T38" s="58">
         <v>8</v>
       </c>
-      <c r="U38" s="59"/>
+      <c r="U38" s="59">
+        <v>10</v>
+      </c>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
       <c r="X38" s="59"/>
@@ -4419,7 +4482,7 @@
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK38" s="62">
         <f t="shared" si="2"/>
@@ -4428,7 +4491,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11.727272727272727</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -4450,7 +4513,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="92"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4471,7 +4534,9 @@
       <c r="T39" s="58">
         <v>8</v>
       </c>
-      <c r="U39" s="59"/>
+      <c r="U39" s="59">
+        <v>10</v>
+      </c>
       <c r="V39" s="59"/>
       <c r="W39" s="59"/>
       <c r="X39" s="59"/>
@@ -4491,7 +4556,7 @@
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK39" s="62">
         <f t="shared" si="2"/>
@@ -4500,7 +4565,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>8.3181818181818183</v>
+        <v>11.045454545454547</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -4522,7 +4587,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
+      <c r="H40" s="94"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -4541,7 +4606,9 @@
       <c r="T40" s="58">
         <v>8</v>
       </c>
-      <c r="U40" s="59"/>
+      <c r="U40" s="59">
+        <v>10</v>
+      </c>
       <c r="V40" s="59"/>
       <c r="W40" s="59"/>
       <c r="X40" s="59"/>
@@ -4561,7 +4628,7 @@
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK40" s="62">
         <f t="shared" si="2"/>
@@ -4570,7 +4637,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>7.2272727272727275</v>
+        <v>9.954545454545455</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -4592,7 +4659,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="87"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -4611,7 +4678,9 @@
       <c r="T41" s="58">
         <v>10</v>
       </c>
-      <c r="U41" s="59"/>
+      <c r="U41" s="59">
+        <v>10</v>
+      </c>
       <c r="V41" s="59"/>
       <c r="W41" s="59"/>
       <c r="X41" s="59"/>
@@ -4631,7 +4700,7 @@
       </c>
       <c r="AJ41" s="62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK41" s="62">
         <f t="shared" si="2"/>
@@ -4640,7 +4709,7 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="62">
         <f t="shared" si="3"/>
-        <v>5.3181818181818183</v>
+        <v>8.0454545454545467</v>
       </c>
       <c r="AN41" s="59"/>
     </row>
@@ -4662,7 +4731,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="88"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -4683,7 +4752,9 @@
       <c r="T42" s="58">
         <v>10</v>
       </c>
-      <c r="U42" s="59"/>
+      <c r="U42" s="59">
+        <v>10</v>
+      </c>
       <c r="V42" s="59"/>
       <c r="W42" s="59"/>
       <c r="X42" s="59"/>
@@ -4703,7 +4774,7 @@
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK42" s="62">
         <f t="shared" si="2"/>
@@ -4712,7 +4783,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11.727272727272727</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -4734,7 +4805,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="87"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -4755,7 +4826,9 @@
       <c r="T43" s="58">
         <v>8</v>
       </c>
-      <c r="U43" s="59"/>
+      <c r="U43" s="59">
+        <v>10</v>
+      </c>
       <c r="V43" s="59"/>
       <c r="W43" s="59"/>
       <c r="X43" s="59"/>
@@ -4775,7 +4848,7 @@
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK43" s="62">
         <f t="shared" si="2"/>
@@ -4784,7 +4857,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>8.0454545454545467</v>
+        <v>10.772727272727273</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -4806,7 +4879,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="88"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -4827,7 +4900,9 @@
       <c r="T44" s="58">
         <v>8</v>
       </c>
-      <c r="U44" s="59"/>
+      <c r="U44" s="59">
+        <v>10</v>
+      </c>
       <c r="V44" s="59"/>
       <c r="W44" s="59"/>
       <c r="X44" s="59"/>
@@ -4847,7 +4922,7 @@
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK44" s="62">
         <f t="shared" si="2"/>
@@ -4856,7 +4931,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8.7272727272727266</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -4878,7 +4953,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="94"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -4899,7 +4974,9 @@
       <c r="T45" s="76">
         <v>10</v>
       </c>
-      <c r="U45" s="83"/>
+      <c r="U45" s="83">
+        <v>9.5</v>
+      </c>
       <c r="V45" s="83"/>
       <c r="W45" s="83"/>
       <c r="X45" s="83"/>
@@ -4919,7 +4996,7 @@
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="AK45" s="62">
         <f t="shared" si="2"/>
@@ -4928,7 +5005,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>9.8181818181818183</v>
+        <v>12.40909090909091</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -4950,7 +5027,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="95"/>
+      <c r="H46" s="107"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -4971,7 +5048,9 @@
       <c r="T46" s="76">
         <v>10</v>
       </c>
-      <c r="U46" s="83"/>
+      <c r="U46" s="83">
+        <v>9.5</v>
+      </c>
       <c r="V46" s="83"/>
       <c r="W46" s="83"/>
       <c r="X46" s="83"/>
@@ -4991,7 +5070,7 @@
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="AK46" s="62">
         <f t="shared" si="2"/>
@@ -5000,7 +5079,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>10.636363636363637</v>
+        <v>13.227272727272727</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5022,7 +5101,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="89"/>
+      <c r="H47" s="103"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5043,7 +5122,9 @@
       <c r="T47" s="76">
         <v>10</v>
       </c>
-      <c r="U47" s="83"/>
+      <c r="U47" s="83">
+        <v>9.5</v>
+      </c>
       <c r="V47" s="83"/>
       <c r="W47" s="83"/>
       <c r="X47" s="83"/>
@@ -5063,7 +5144,7 @@
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="AK47" s="62">
         <f t="shared" si="2"/>
@@ -5072,7 +5153,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>9.8181818181818183</v>
+        <v>12.40909090909091</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5094,7 +5175,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="90"/>
+      <c r="H48" s="104"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5115,7 +5196,9 @@
       <c r="T48" s="76">
         <v>10</v>
       </c>
-      <c r="U48" s="83"/>
+      <c r="U48" s="83">
+        <v>9.5</v>
+      </c>
       <c r="V48" s="83"/>
       <c r="W48" s="83"/>
       <c r="X48" s="83"/>
@@ -5135,7 +5218,7 @@
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="AK48" s="62">
         <f t="shared" si="2"/>
@@ -5144,7 +5227,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>10.772727272727273</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -5202,9 +5285,9 @@
         <f>AVERAGE(T2:T25)</f>
         <v>8.9166666666666661</v>
       </c>
-      <c r="U49" s="65" t="e">
-        <f>AVERAGE(U2:U32)</f>
-        <v>#DIV/0!</v>
+      <c r="U49" s="65">
+        <f>AVERAGE(U2:U48)</f>
+        <v>9.4893617021276597</v>
       </c>
       <c r="V49" s="65" t="e">
         <f>AVERAGE(V2:V25)</f>
@@ -5264,7 +5347,7 @@
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>8.9166666666666661</v>
+        <v>18.458333333333332</v>
       </c>
       <c r="AK49" s="65">
         <f>AVERAGE(AK2:AK25)</f>
@@ -5276,7 +5359,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>8.9545454545454568</v>
+        <v>11.55681818181818</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5334,9 +5417,9 @@
         <f t="shared" si="4"/>
         <v>8.7391304347826093</v>
       </c>
-      <c r="U50" s="65" t="e">
+      <c r="U50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.4347826086956523</v>
       </c>
       <c r="V50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -5396,7 +5479,7 @@
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
-        <v>8.7391304347826093</v>
+        <v>18.173913043478262</v>
       </c>
       <c r="AK50" s="65">
         <f t="shared" si="4"/>
@@ -5408,7 +5491,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>8.8695652173913011</v>
+        <v>11.442687747035571</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -5466,9 +5549,9 @@
         <f t="shared" si="5"/>
         <v>8.8297872340425538</v>
       </c>
-      <c r="U51" s="65" t="e">
+      <c r="U51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.4893617021276597</v>
       </c>
       <c r="V51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5528,7 +5611,7 @@
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
-        <v>8.8297872340425538</v>
+        <v>18.319148936170212</v>
       </c>
       <c r="AK51" s="65">
         <f t="shared" si="5"/>
@@ -5540,7 +5623,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>8.9129593810444874</v>
+        <v>11.500967117988393</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -5598,9 +5681,9 @@
         <f t="shared" si="6"/>
         <v>1.18080939330264</v>
       </c>
-      <c r="U52" s="65" t="e">
+      <c r="U52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.90583472015623157</v>
       </c>
       <c r="V52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -5660,7 +5743,7 @@
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
-        <v>1.18080939330264</v>
+        <v>1.5653362325117446</v>
       </c>
       <c r="AK52" s="65">
         <f t="shared" si="6"/>
@@ -5672,7 +5755,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>1.4814043708927263</v>
+        <v>1.4507574613956173</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -5732,7 +5815,7 @@
       </c>
       <c r="U53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V53" s="65">
         <f t="shared" si="7"/>
@@ -5792,7 +5875,7 @@
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK53" s="65">
         <f t="shared" si="7"/>
@@ -5804,7 +5887,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>10.90909090909091</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -5864,7 +5947,7 @@
       </c>
       <c r="U54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V54" s="69">
         <f t="shared" si="8"/>
@@ -5924,7 +6007,7 @@
       </c>
       <c r="AJ54" s="65">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AK54" s="65">
         <f t="shared" si="8"/>
@@ -5936,12 +6019,25 @@
       </c>
       <c r="AM54" s="65">
         <f t="shared" si="8"/>
-        <v>4.3636363636363633</v>
+        <v>7.0909090909090917</v>
       </c>
       <c r="AN54" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -5952,19 +6048,6 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5982,12 +6065,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6169,6 +6246,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
@@ -6178,22 +6261,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6209,4 +6276,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A59784-7472-430F-92F9-5DAF5B3EEFAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD73945-6EE2-4762-921A-44F24AB70ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1330,6 +1341,37 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,18 +1382,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,25 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,7 +1630,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1790,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="101"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1853,7 +1864,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="102"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1927,7 +1938,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="101"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2001,7 +2012,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="102"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2075,7 +2086,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="101"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2149,7 +2160,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="102"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2223,7 +2234,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="101"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2297,7 +2308,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="102"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2371,7 +2382,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="101"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2445,7 +2456,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2519,7 +2530,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="101"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2541,7 +2552,7 @@
         <v>8.5</v>
       </c>
       <c r="U12" s="43">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V12" s="43"/>
       <c r="W12" s="43"/>
@@ -2562,7 +2573,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
@@ -2571,7 +2582,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>12.681818181818182</v>
+        <v>12.818181818181818</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2593,7 +2604,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="102"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2615,7 +2626,7 @@
         <v>8.5</v>
       </c>
       <c r="U13" s="86">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V13" s="46"/>
       <c r="W13" s="46"/>
@@ -2636,7 +2647,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
@@ -2645,7 +2656,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>11.727272727272727</v>
+        <v>11.863636363636363</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2667,7 +2678,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="101"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2741,7 +2752,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="102"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2815,7 +2826,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="89"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -2887,7 +2898,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="90"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -2961,7 +2972,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="87"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3035,7 +3046,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="88"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3109,7 +3120,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="87"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3117,7 +3128,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="43">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
@@ -3148,7 +3159,7 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
@@ -3161,7 +3172,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>12.40909090909091</v>
+        <v>12.545454545454545</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3183,7 +3194,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="88"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3255,7 +3266,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="99"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3329,7 +3340,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="100"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3403,7 +3414,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3477,7 +3488,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="98"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3551,7 +3562,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="95"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3625,7 +3636,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="96"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3699,7 +3710,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3773,7 +3784,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -3847,7 +3858,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="97"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -3921,7 +3932,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="96"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -3995,7 +4006,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="91"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4069,7 +4080,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4143,7 +4154,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="93"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4217,7 +4228,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4291,7 +4302,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="91"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4365,7 +4376,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="92"/>
+      <c r="H37" s="88"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4439,7 +4450,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="93"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4513,7 +4524,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="105"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4587,7 +4598,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="94"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -4659,7 +4670,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="91"/>
+      <c r="H41" s="87"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -4731,7 +4742,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="92"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -4805,7 +4816,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="91"/>
+      <c r="H43" s="87"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -4879,7 +4890,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="92"/>
+      <c r="H44" s="88"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -4953,7 +4964,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="106"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5027,7 +5038,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="107"/>
+      <c r="H46" s="95"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5101,7 +5112,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="103"/>
+      <c r="H47" s="89"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5175,7 +5186,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="104"/>
+      <c r="H48" s="90"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5247,7 +5258,7 @@
       </c>
       <c r="K49" s="65">
         <f>AVERAGE(K2:K25)</f>
-        <v>8.954545454545455</v>
+        <v>8.9772727272727266</v>
       </c>
       <c r="L49" s="65" t="e">
         <f>AVERAGE(L2:L32)</f>
@@ -5287,7 +5298,7 @@
       </c>
       <c r="U49" s="65">
         <f>AVERAGE(U2:U48)</f>
-        <v>9.4893617021276597</v>
+        <v>9.5106382978723403</v>
       </c>
       <c r="V49" s="65" t="e">
         <f>AVERAGE(V2:V25)</f>
@@ -5343,11 +5354,11 @@
       </c>
       <c r="AI49" s="67">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>23.916666666666668</v>
+        <v>23.9375</v>
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>18.458333333333332</v>
+        <v>18.5</v>
       </c>
       <c r="AK49" s="65">
         <f>AVERAGE(AK2:AK25)</f>
@@ -5359,7 +5370,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>11.55681818181818</v>
+        <v>11.573863636363635</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5511,7 +5522,7 @@
       </c>
       <c r="K51" s="65">
         <f t="shared" si="5"/>
-        <v>8.6860465116279073</v>
+        <v>8.6976744186046506</v>
       </c>
       <c r="L51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5551,7 +5562,7 @@
       </c>
       <c r="U51" s="65">
         <f t="shared" si="5"/>
-        <v>9.4893617021276597</v>
+        <v>9.5106382978723403</v>
       </c>
       <c r="V51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5607,11 +5618,11 @@
       </c>
       <c r="AI51" s="67">
         <f t="shared" si="5"/>
-        <v>23.851063829787233</v>
+        <v>23.861702127659573</v>
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
-        <v>18.319148936170212</v>
+        <v>18.340425531914892</v>
       </c>
       <c r="AK51" s="65">
         <f t="shared" si="5"/>
@@ -5623,7 +5634,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>11.500967117988393</v>
+        <v>11.509671179883945</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -5643,7 +5654,7 @@
       </c>
       <c r="K52" s="65">
         <f t="shared" si="6"/>
-        <v>1.2911016697358428</v>
+        <v>1.2916376412271275</v>
       </c>
       <c r="L52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -5683,7 +5694,7 @@
       </c>
       <c r="U52" s="65">
         <f t="shared" si="6"/>
-        <v>0.90583472015623157</v>
+        <v>0.91181473198117913</v>
       </c>
       <c r="V52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -5739,11 +5750,11 @@
       </c>
       <c r="AI52" s="67">
         <f t="shared" si="6"/>
-        <v>5.1656420258584976</v>
+        <v>5.175928952182292</v>
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
-        <v>1.5653362325117446</v>
+        <v>1.5642277681457706</v>
       </c>
       <c r="AK52" s="65">
         <f t="shared" si="6"/>
@@ -5755,7 +5766,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>1.4507574613956173</v>
+        <v>1.4558706960064347</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6025,19 +6036,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6048,6 +6046,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6056,12 +6067,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6247,15 +6255,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6279,17 +6298,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD73945-6EE2-4762-921A-44F24AB70ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CA7F35-DB5A-4056-A855-25C9A851429B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,47 +1341,28 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,6 +1380,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,7 +1630,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="96"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="97"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="96"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="97"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="96"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="97"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="96"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="97"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="96"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="97"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="96"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="97"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="100"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="101"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="98"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="99"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="98"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="99"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="106"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="107"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="98"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="105"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="102"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="103"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="104"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="103"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="103"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="87"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="88"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="91"/>
+      <c r="H34" s="93"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="87"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="91"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="92"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4598,14 +4598,16 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
+      <c r="H40" s="94"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
       <c r="J40" s="59">
         <v>9</v>
       </c>
-      <c r="K40" s="59"/>
+      <c r="K40" s="59">
+        <v>5</v>
+      </c>
       <c r="L40" s="59"/>
       <c r="M40" s="59"/>
       <c r="N40" s="59"/>
@@ -4635,7 +4637,7 @@
       <c r="AH40" s="60"/>
       <c r="AI40" s="61">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>23.5</v>
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
@@ -4648,7 +4650,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>9.954545454545455</v>
+        <v>11.318181818181817</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -4670,14 +4672,16 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="87"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
       <c r="J41" s="59">
         <v>4</v>
       </c>
-      <c r="K41" s="59"/>
+      <c r="K41" s="59">
+        <v>4</v>
+      </c>
       <c r="L41" s="59"/>
       <c r="M41" s="59"/>
       <c r="N41" s="59"/>
@@ -4707,7 +4711,7 @@
       <c r="AH41" s="60"/>
       <c r="AI41" s="61">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ41" s="62">
         <f t="shared" si="1"/>
@@ -4720,7 +4724,7 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="62">
         <f t="shared" si="3"/>
-        <v>8.0454545454545467</v>
+        <v>9.1363636363636367</v>
       </c>
       <c r="AN41" s="59"/>
     </row>
@@ -4742,7 +4746,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="88"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -4816,7 +4820,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="87"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -4890,7 +4894,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="88"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -4964,7 +4968,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="94"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5038,7 +5042,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="95"/>
+      <c r="H46" s="107"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5112,7 +5116,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="89"/>
+      <c r="H47" s="103"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5186,7 +5190,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="90"/>
+      <c r="H48" s="104"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5390,7 +5394,7 @@
       </c>
       <c r="K50" s="65">
         <f t="shared" si="4"/>
-        <v>8.4047619047619051</v>
+        <v>8.0652173913043477</v>
       </c>
       <c r="L50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -5486,7 +5490,7 @@
       </c>
       <c r="AI50" s="67">
         <f t="shared" si="4"/>
-        <v>23.782608695652176</v>
+        <v>24.173913043478262</v>
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
@@ -5502,7 +5506,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>11.442687747035571</v>
+        <v>11.549407114624502</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -5522,7 +5526,7 @@
       </c>
       <c r="K51" s="65">
         <f t="shared" si="5"/>
-        <v>8.6976744186046506</v>
+        <v>8.5111111111111111</v>
       </c>
       <c r="L51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5618,7 +5622,7 @@
       </c>
       <c r="AI51" s="67">
         <f t="shared" si="5"/>
-        <v>23.861702127659573</v>
+        <v>24.053191489361701</v>
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
@@ -5634,7 +5638,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>11.509671179883945</v>
+        <v>11.561895551257253</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -5654,7 +5658,7 @@
       </c>
       <c r="K52" s="65">
         <f t="shared" si="6"/>
-        <v>1.2916376412271275</v>
+        <v>1.5392179570132103</v>
       </c>
       <c r="L52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -5750,7 +5754,7 @@
       </c>
       <c r="AI52" s="67">
         <f t="shared" si="6"/>
-        <v>5.175928952182292</v>
+        <v>4.8970199928487954</v>
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
@@ -5766,7 +5770,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>1.4558706960064347</v>
+        <v>1.3880044567267154</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -5918,7 +5922,7 @@
       </c>
       <c r="K54" s="69">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L54" s="69">
         <f t="shared" si="8"/>
@@ -6036,6 +6040,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6046,19 +6063,6 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6067,9 +6071,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6255,26 +6262,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6298,9 +6294,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CA7F35-DB5A-4056-A855-25C9A851429B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F2A494-AAB3-45CC-818A-3629C519C74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,6 +1341,37 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,18 +1382,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,25 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,7 +1630,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="101"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1814,7 +1814,9 @@
       <c r="U2" s="43">
         <v>10</v>
       </c>
-      <c r="V2" s="43"/>
+      <c r="V2" s="43">
+        <v>10</v>
+      </c>
       <c r="W2" s="43"/>
       <c r="X2" s="43"/>
       <c r="Y2" s="43"/>
@@ -1833,7 +1835,7 @@
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>19.5</v>
+        <v>29.5</v>
       </c>
       <c r="AK2" s="43">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1842,7 +1844,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>12.136363636363637</v>
+        <v>14.863636363636363</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1864,7 +1866,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="102"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1888,7 +1890,9 @@
       <c r="U3" s="43">
         <v>10</v>
       </c>
-      <c r="V3" s="43"/>
+      <c r="V3" s="43">
+        <v>10</v>
+      </c>
       <c r="W3" s="43"/>
       <c r="X3" s="43"/>
       <c r="Y3" s="43"/>
@@ -1907,7 +1911,7 @@
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>29.5</v>
       </c>
       <c r="AK3" s="43">
         <f t="shared" si="2"/>
@@ -1916,7 +1920,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>12.818181818181818</v>
+        <v>15.545454545454545</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1938,7 +1942,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="101"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1962,7 +1966,9 @@
       <c r="U4" s="43">
         <v>10</v>
       </c>
-      <c r="V4" s="43"/>
+      <c r="V4" s="43">
+        <v>10</v>
+      </c>
       <c r="W4" s="43"/>
       <c r="X4" s="43"/>
       <c r="Y4" s="43"/>
@@ -1981,7 +1987,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" si="2"/>
@@ -1990,7 +1996,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>11.31818181818182</v>
+        <v>14.045454545454547</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2012,7 +2018,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="102"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2036,7 +2042,9 @@
       <c r="U5" s="43">
         <v>10</v>
       </c>
-      <c r="V5" s="43"/>
+      <c r="V5" s="43">
+        <v>10</v>
+      </c>
       <c r="W5" s="43"/>
       <c r="X5" s="43"/>
       <c r="Y5" s="43"/>
@@ -2055,7 +2063,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK5" s="43">
         <f t="shared" si="2"/>
@@ -2064,7 +2072,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>13.636363636363637</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2086,7 +2094,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="101"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2110,7 +2118,9 @@
       <c r="U6" s="43">
         <v>10</v>
       </c>
-      <c r="V6" s="43"/>
+      <c r="V6" s="43">
+        <v>9</v>
+      </c>
       <c r="W6" s="43"/>
       <c r="X6" s="43"/>
       <c r="Y6" s="43"/>
@@ -2129,7 +2139,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AK6" s="43">
         <f t="shared" si="2"/>
@@ -2138,7 +2148,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>11.863636363636363</v>
+        <v>14.318181818181818</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2160,7 +2170,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="102"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2184,7 +2194,9 @@
       <c r="U7" s="43">
         <v>10</v>
       </c>
-      <c r="V7" s="43"/>
+      <c r="V7" s="43">
+        <v>9</v>
+      </c>
       <c r="W7" s="43"/>
       <c r="X7" s="43"/>
       <c r="Y7" s="43"/>
@@ -2203,7 +2215,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AK7" s="43">
         <f t="shared" si="2"/>
@@ -2212,7 +2224,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.454545454545453</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2234,7 +2246,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="101"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2258,7 +2270,9 @@
       <c r="U8" s="43">
         <v>10</v>
       </c>
-      <c r="V8" s="43"/>
+      <c r="V8" s="43">
+        <v>10</v>
+      </c>
       <c r="W8" s="43"/>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
@@ -2277,7 +2291,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
@@ -2286,7 +2300,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>11.863636363636363</v>
+        <v>14.59090909090909</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2308,7 +2322,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="102"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2332,7 +2346,9 @@
       <c r="U9" s="43">
         <v>10</v>
       </c>
-      <c r="V9" s="43"/>
+      <c r="V9" s="43">
+        <v>10</v>
+      </c>
       <c r="W9" s="43"/>
       <c r="X9" s="43"/>
       <c r="Y9" s="43"/>
@@ -2351,7 +2367,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
@@ -2360,7 +2376,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2382,7 +2398,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="101"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2406,7 +2422,9 @@
       <c r="U10" s="43">
         <v>10</v>
       </c>
-      <c r="V10" s="43"/>
+      <c r="V10" s="43">
+        <v>10</v>
+      </c>
       <c r="W10" s="43"/>
       <c r="X10" s="43"/>
       <c r="Y10" s="43"/>
@@ -2425,7 +2443,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
@@ -2434,7 +2452,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>16.09090909090909</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2456,7 +2474,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2480,7 +2498,9 @@
       <c r="U11" s="43">
         <v>10</v>
       </c>
-      <c r="V11" s="43"/>
+      <c r="V11" s="43">
+        <v>10</v>
+      </c>
       <c r="W11" s="43"/>
       <c r="X11" s="43"/>
       <c r="Y11" s="43"/>
@@ -2499,7 +2519,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
@@ -2508,7 +2528,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>12.40909090909091</v>
+        <v>15.136363636363637</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2530,7 +2550,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="101"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2554,7 +2574,9 @@
       <c r="U12" s="43">
         <v>10</v>
       </c>
-      <c r="V12" s="43"/>
+      <c r="V12" s="43">
+        <v>10</v>
+      </c>
       <c r="W12" s="43"/>
       <c r="X12" s="43"/>
       <c r="Y12" s="43"/>
@@ -2573,7 +2595,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>18.5</v>
+        <v>28.5</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
@@ -2582,7 +2604,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>12.818181818181818</v>
+        <v>15.545454545454545</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2604,7 +2626,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="102"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2628,7 +2650,9 @@
       <c r="U13" s="86">
         <v>10</v>
       </c>
-      <c r="V13" s="46"/>
+      <c r="V13" s="46">
+        <v>10</v>
+      </c>
       <c r="W13" s="46"/>
       <c r="X13" s="43"/>
       <c r="Y13" s="43"/>
@@ -2647,7 +2671,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>18.5</v>
+        <v>28.5</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
@@ -2656,7 +2680,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>11.863636363636363</v>
+        <v>14.59090909090909</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2678,7 +2702,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="101"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2702,7 +2726,9 @@
       <c r="U14" s="43">
         <v>8</v>
       </c>
-      <c r="V14" s="43"/>
+      <c r="V14" s="43">
+        <v>10</v>
+      </c>
       <c r="W14" s="43"/>
       <c r="X14" s="43"/>
       <c r="Y14" s="43"/>
@@ -2721,7 +2747,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK14" s="43">
         <f t="shared" si="2"/>
@@ -2730,7 +2756,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>11.454545454545453</v>
+        <v>14.18181818181818</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2752,7 +2778,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="102"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2776,7 +2802,9 @@
       <c r="U15" s="43">
         <v>8</v>
       </c>
-      <c r="V15" s="43"/>
+      <c r="V15" s="43">
+        <v>10</v>
+      </c>
       <c r="W15" s="43"/>
       <c r="X15" s="43"/>
       <c r="Y15" s="43"/>
@@ -2795,7 +2823,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK15" s="43">
         <f t="shared" si="2"/>
@@ -2804,7 +2832,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>10.90909090909091</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -2826,7 +2854,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="89"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -2898,7 +2926,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="90"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -2922,7 +2950,9 @@
       <c r="U17" s="43">
         <v>10</v>
       </c>
-      <c r="V17" s="43"/>
+      <c r="V17" s="43">
+        <v>9.5</v>
+      </c>
       <c r="W17" s="43"/>
       <c r="X17" s="43"/>
       <c r="Y17" s="43"/>
@@ -2941,7 +2971,7 @@
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AK17" s="43">
         <f t="shared" si="2"/>
@@ -2950,7 +2980,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>10.227272727272727</v>
+        <v>12.818181818181817</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -2972,7 +3002,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="87"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -2996,7 +3026,9 @@
       <c r="U18" s="43">
         <v>7</v>
       </c>
-      <c r="V18" s="43"/>
+      <c r="V18" s="43">
+        <v>8</v>
+      </c>
       <c r="W18" s="43"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="43"/>
@@ -3015,7 +3047,7 @@
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="AK18" s="43">
         <f t="shared" si="2"/>
@@ -3024,7 +3056,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>12.136363636363635</v>
+        <v>14.318181818181817</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3046,7 +3078,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="88"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3070,7 +3102,9 @@
       <c r="U19" s="43">
         <v>7</v>
       </c>
-      <c r="V19" s="43"/>
+      <c r="V19" s="43">
+        <v>8</v>
+      </c>
       <c r="W19" s="43"/>
       <c r="X19" s="43"/>
       <c r="Y19" s="43"/>
@@ -3089,7 +3123,7 @@
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="AK19" s="43">
         <f t="shared" si="2"/>
@@ -3098,7 +3132,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>10.772727272727272</v>
+        <v>12.954545454545453</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3120,7 +3154,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="87"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3144,7 +3178,9 @@
       <c r="U20" s="43">
         <v>10</v>
       </c>
-      <c r="V20" s="43"/>
+      <c r="V20" s="43">
+        <v>9.5</v>
+      </c>
       <c r="W20" s="43"/>
       <c r="X20" s="43"/>
       <c r="Y20" s="43"/>
@@ -3163,7 +3199,7 @@
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>26.5</v>
       </c>
       <c r="AK20" s="43">
         <f t="shared" si="2"/>
@@ -3172,7 +3208,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>12.545454545454545</v>
+        <v>15.136363636363637</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3194,7 +3230,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="88"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3266,7 +3302,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="99"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3290,7 +3326,9 @@
       <c r="U22" s="43">
         <v>10</v>
       </c>
-      <c r="V22" s="43"/>
+      <c r="V22" s="43">
+        <v>10</v>
+      </c>
       <c r="W22" s="43"/>
       <c r="X22" s="43"/>
       <c r="Y22" s="43"/>
@@ -3309,7 +3347,7 @@
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
@@ -3318,7 +3356,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>12.272727272727273</v>
+        <v>15</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3340,7 +3378,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="100"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3364,7 +3402,9 @@
       <c r="U23" s="43">
         <v>10</v>
       </c>
-      <c r="V23" s="43"/>
+      <c r="V23" s="43">
+        <v>10</v>
+      </c>
       <c r="W23" s="43"/>
       <c r="X23" s="43"/>
       <c r="Y23" s="43"/>
@@ -3383,7 +3423,7 @@
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK23" s="43">
         <f t="shared" si="2"/>
@@ -3392,7 +3432,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>16.09090909090909</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3414,7 +3454,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3438,7 +3478,9 @@
       <c r="U24" s="43">
         <v>10</v>
       </c>
-      <c r="V24" s="43"/>
+      <c r="V24" s="43">
+        <v>7</v>
+      </c>
       <c r="W24" s="43"/>
       <c r="X24" s="43"/>
       <c r="Y24" s="43"/>
@@ -3457,7 +3499,7 @@
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="2"/>
@@ -3466,7 +3508,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>9.8181818181818183</v>
+        <v>11.727272727272727</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3488,7 +3530,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="98"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3512,7 +3554,9 @@
       <c r="U25" s="51">
         <v>10</v>
       </c>
-      <c r="V25" s="51"/>
+      <c r="V25" s="51">
+        <v>7</v>
+      </c>
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
       <c r="Y25" s="51"/>
@@ -3531,7 +3575,7 @@
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AK25" s="51">
         <f t="shared" si="2"/>
@@ -3540,7 +3584,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>11.59090909090909</v>
+        <v>13.5</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3562,7 +3606,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="95"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3586,7 +3630,9 @@
       <c r="U26" s="54">
         <v>9</v>
       </c>
-      <c r="V26" s="54"/>
+      <c r="V26" s="54">
+        <v>9</v>
+      </c>
       <c r="W26" s="54"/>
       <c r="X26" s="54"/>
       <c r="Y26" s="54"/>
@@ -3605,7 +3651,7 @@
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>25.5</v>
       </c>
       <c r="AK26" s="57">
         <f t="shared" si="2"/>
@@ -3614,7 +3660,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>10.772727272727273</v>
+        <v>13.227272727272727</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -3636,7 +3682,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="96"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3660,7 +3706,9 @@
       <c r="U27" s="59">
         <v>9</v>
       </c>
-      <c r="V27" s="59"/>
+      <c r="V27" s="59">
+        <v>9</v>
+      </c>
       <c r="W27" s="59"/>
       <c r="X27" s="59"/>
       <c r="Y27" s="59"/>
@@ -3679,7 +3727,7 @@
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>25.5</v>
       </c>
       <c r="AK27" s="62">
         <f t="shared" si="2"/>
@@ -3688,7 +3736,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>11.318181818181818</v>
+        <v>13.772727272727273</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -3710,7 +3758,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3734,7 +3782,9 @@
       <c r="U28" s="59">
         <v>7</v>
       </c>
-      <c r="V28" s="59"/>
+      <c r="V28" s="59">
+        <v>6</v>
+      </c>
       <c r="W28" s="59"/>
       <c r="X28" s="59"/>
       <c r="Y28" s="59"/>
@@ -3753,7 +3803,7 @@
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK28" s="62">
         <f t="shared" si="2"/>
@@ -3762,7 +3812,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>11.318181818181818</v>
+        <v>12.954545454545455</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -3784,7 +3834,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -3808,7 +3858,9 @@
       <c r="U29" s="59">
         <v>7</v>
       </c>
-      <c r="V29" s="59"/>
+      <c r="V29" s="59">
+        <v>6</v>
+      </c>
       <c r="W29" s="59"/>
       <c r="X29" s="59"/>
       <c r="Y29" s="59"/>
@@ -3827,7 +3879,7 @@
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK29" s="62">
         <f t="shared" si="2"/>
@@ -3836,7 +3888,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>12.272727272727273</v>
+        <v>13.90909090909091</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -3858,7 +3910,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="97"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -3882,7 +3934,9 @@
       <c r="U30" s="59">
         <v>10</v>
       </c>
-      <c r="V30" s="59"/>
+      <c r="V30" s="59">
+        <v>9</v>
+      </c>
       <c r="W30" s="59"/>
       <c r="X30" s="59"/>
       <c r="Y30" s="59"/>
@@ -3901,7 +3955,7 @@
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK30" s="62">
         <f t="shared" si="2"/>
@@ -3910,7 +3964,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>12.545454545454547</v>
+        <v>15</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -3932,7 +3986,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="96"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -3956,7 +4010,9 @@
       <c r="U31" s="59">
         <v>10</v>
       </c>
-      <c r="V31" s="59"/>
+      <c r="V31" s="59">
+        <v>9</v>
+      </c>
       <c r="W31" s="59"/>
       <c r="X31" s="59"/>
       <c r="Y31" s="59"/>
@@ -3975,7 +4031,7 @@
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK31" s="62">
         <f t="shared" si="2"/>
@@ -3984,7 +4040,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>12.818181818181818</v>
+        <v>15.272727272727272</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -4006,7 +4062,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="91"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4030,7 +4086,9 @@
       <c r="U32" s="59">
         <v>9.5</v>
       </c>
-      <c r="V32" s="59"/>
+      <c r="V32" s="59">
+        <v>9</v>
+      </c>
       <c r="W32" s="59"/>
       <c r="X32" s="59"/>
       <c r="Y32" s="59"/>
@@ -4049,7 +4107,7 @@
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>24.5</v>
       </c>
       <c r="AK32" s="62">
         <f t="shared" si="2"/>
@@ -4058,7 +4116,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>10.09090909090909</v>
+        <v>12.545454545454547</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4080,7 +4138,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4104,7 +4162,9 @@
       <c r="U33" s="59">
         <v>9.5</v>
       </c>
-      <c r="V33" s="59"/>
+      <c r="V33" s="59">
+        <v>9</v>
+      </c>
       <c r="W33" s="59"/>
       <c r="X33" s="59"/>
       <c r="Y33" s="59"/>
@@ -4123,7 +4183,7 @@
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>24.5</v>
       </c>
       <c r="AK33" s="62">
         <f t="shared" si="2"/>
@@ -4132,7 +4192,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>11.863636363636363</v>
+        <v>14.318181818181817</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4154,7 +4214,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="93"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4178,7 +4238,9 @@
       <c r="U34" s="59">
         <v>9</v>
       </c>
-      <c r="V34" s="59"/>
+      <c r="V34" s="59">
+        <v>10</v>
+      </c>
       <c r="W34" s="59"/>
       <c r="X34" s="59"/>
       <c r="Y34" s="59"/>
@@ -4197,7 +4259,7 @@
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK34" s="62">
         <f t="shared" si="2"/>
@@ -4206,7 +4268,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>12.545454545454545</v>
+        <v>15.272727272727272</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4228,7 +4290,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4252,7 +4314,9 @@
       <c r="U35" s="59">
         <v>9</v>
       </c>
-      <c r="V35" s="59"/>
+      <c r="V35" s="59">
+        <v>10</v>
+      </c>
       <c r="W35" s="59"/>
       <c r="X35" s="59"/>
       <c r="Y35" s="59"/>
@@ -4271,7 +4335,7 @@
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK35" s="62">
         <f t="shared" si="2"/>
@@ -4280,7 +4344,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4302,7 +4366,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="91"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4326,7 +4390,9 @@
       <c r="U36" s="59">
         <v>10</v>
       </c>
-      <c r="V36" s="59"/>
+      <c r="V36" s="59">
+        <v>9</v>
+      </c>
       <c r="W36" s="59"/>
       <c r="X36" s="59"/>
       <c r="Y36" s="59"/>
@@ -4345,7 +4411,7 @@
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK36" s="62">
         <f t="shared" si="2"/>
@@ -4354,7 +4420,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>12.818181818181818</v>
+        <v>15.272727272727272</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4376,7 +4442,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="92"/>
+      <c r="H37" s="88"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4400,7 +4466,9 @@
       <c r="U37" s="59">
         <v>10</v>
       </c>
-      <c r="V37" s="59"/>
+      <c r="V37" s="59">
+        <v>9</v>
+      </c>
       <c r="W37" s="59"/>
       <c r="X37" s="59"/>
       <c r="Y37" s="59"/>
@@ -4419,7 +4487,7 @@
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK37" s="62">
         <f t="shared" si="2"/>
@@ -4428,7 +4496,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.454545454545453</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -4450,7 +4518,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="93"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4474,7 +4542,9 @@
       <c r="U38" s="59">
         <v>10</v>
       </c>
-      <c r="V38" s="59"/>
+      <c r="V38" s="59">
+        <v>9</v>
+      </c>
       <c r="W38" s="59"/>
       <c r="X38" s="59"/>
       <c r="Y38" s="59"/>
@@ -4493,7 +4563,7 @@
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AK38" s="62">
         <f t="shared" si="2"/>
@@ -4502,7 +4572,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>11.727272727272727</v>
+        <v>14.181818181818182</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -4524,7 +4594,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="105"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4548,7 +4618,9 @@
       <c r="U39" s="59">
         <v>10</v>
       </c>
-      <c r="V39" s="59"/>
+      <c r="V39" s="59">
+        <v>9</v>
+      </c>
       <c r="W39" s="59"/>
       <c r="X39" s="59"/>
       <c r="Y39" s="59"/>
@@ -4567,7 +4639,7 @@
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AK39" s="62">
         <f t="shared" si="2"/>
@@ -4576,7 +4648,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>11.045454545454547</v>
+        <v>13.5</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -4598,7 +4670,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="94"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -4622,7 +4694,9 @@
       <c r="U40" s="59">
         <v>10</v>
       </c>
-      <c r="V40" s="59"/>
+      <c r="V40" s="59">
+        <v>9</v>
+      </c>
       <c r="W40" s="59"/>
       <c r="X40" s="59"/>
       <c r="Y40" s="59"/>
@@ -4641,7 +4715,7 @@
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AK40" s="62">
         <f t="shared" si="2"/>
@@ -4650,7 +4724,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>11.318181818181817</v>
+        <v>13.772727272727272</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -4672,7 +4746,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="91"/>
+      <c r="H41" s="87"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -4696,7 +4770,9 @@
       <c r="U41" s="59">
         <v>10</v>
       </c>
-      <c r="V41" s="59"/>
+      <c r="V41" s="59">
+        <v>7</v>
+      </c>
       <c r="W41" s="59"/>
       <c r="X41" s="59"/>
       <c r="Y41" s="59"/>
@@ -4715,7 +4791,7 @@
       </c>
       <c r="AJ41" s="62">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AK41" s="62">
         <f t="shared" si="2"/>
@@ -4724,7 +4800,7 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="62">
         <f t="shared" si="3"/>
-        <v>9.1363636363636367</v>
+        <v>11.045454545454545</v>
       </c>
       <c r="AN41" s="59"/>
     </row>
@@ -4746,7 +4822,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="92"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -4770,7 +4846,9 @@
       <c r="U42" s="59">
         <v>10</v>
       </c>
-      <c r="V42" s="59"/>
+      <c r="V42" s="59">
+        <v>7</v>
+      </c>
       <c r="W42" s="59"/>
       <c r="X42" s="59"/>
       <c r="Y42" s="59"/>
@@ -4789,7 +4867,7 @@
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AK42" s="62">
         <f t="shared" si="2"/>
@@ -4798,7 +4876,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>11.727272727272727</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -4820,7 +4898,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="91"/>
+      <c r="H43" s="87"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -4844,7 +4922,9 @@
       <c r="U43" s="59">
         <v>10</v>
       </c>
-      <c r="V43" s="59"/>
+      <c r="V43" s="59">
+        <v>9</v>
+      </c>
       <c r="W43" s="59"/>
       <c r="X43" s="59"/>
       <c r="Y43" s="59"/>
@@ -4863,7 +4943,7 @@
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AK43" s="62">
         <f t="shared" si="2"/>
@@ -4872,7 +4952,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>10.772727272727273</v>
+        <v>13.227272727272727</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -4894,7 +4974,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="92"/>
+      <c r="H44" s="88"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -4918,7 +4998,9 @@
       <c r="U44" s="59">
         <v>10</v>
       </c>
-      <c r="V44" s="59"/>
+      <c r="V44" s="59">
+        <v>9</v>
+      </c>
       <c r="W44" s="59"/>
       <c r="X44" s="59"/>
       <c r="Y44" s="59"/>
@@ -4937,7 +5019,7 @@
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AK44" s="62">
         <f t="shared" si="2"/>
@@ -4946,7 +5028,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>8.7272727272727266</v>
+        <v>11.181818181818182</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -4968,7 +5050,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="106"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -4992,7 +5074,9 @@
       <c r="U45" s="83">
         <v>9.5</v>
       </c>
-      <c r="V45" s="83"/>
+      <c r="V45" s="83">
+        <v>10</v>
+      </c>
       <c r="W45" s="83"/>
       <c r="X45" s="83"/>
       <c r="Y45" s="83"/>
@@ -5011,7 +5095,7 @@
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>29.5</v>
       </c>
       <c r="AK45" s="62">
         <f t="shared" si="2"/>
@@ -5020,7 +5104,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>12.40909090909091</v>
+        <v>15.136363636363637</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -5042,7 +5126,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="107"/>
+      <c r="H46" s="95"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5066,7 +5150,9 @@
       <c r="U46" s="83">
         <v>9.5</v>
       </c>
-      <c r="V46" s="83"/>
+      <c r="V46" s="83">
+        <v>10</v>
+      </c>
       <c r="W46" s="83"/>
       <c r="X46" s="83"/>
       <c r="Y46" s="83"/>
@@ -5085,7 +5171,7 @@
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>29.5</v>
       </c>
       <c r="AK46" s="62">
         <f t="shared" si="2"/>
@@ -5094,7 +5180,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>13.227272727272727</v>
+        <v>15.954545454545453</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5116,7 +5202,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="103"/>
+      <c r="H47" s="89"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5140,7 +5226,9 @@
       <c r="U47" s="83">
         <v>9.5</v>
       </c>
-      <c r="V47" s="83"/>
+      <c r="V47" s="83">
+        <v>8.5</v>
+      </c>
       <c r="W47" s="83"/>
       <c r="X47" s="83"/>
       <c r="Y47" s="83"/>
@@ -5159,7 +5247,7 @@
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AK47" s="62">
         <f t="shared" si="2"/>
@@ -5168,7 +5256,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>12.40909090909091</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5190,7 +5278,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="104"/>
+      <c r="H48" s="90"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5214,7 +5302,9 @@
       <c r="U48" s="83">
         <v>9.5</v>
       </c>
-      <c r="V48" s="83"/>
+      <c r="V48" s="83">
+        <v>8.5</v>
+      </c>
       <c r="W48" s="83"/>
       <c r="X48" s="83"/>
       <c r="Y48" s="83"/>
@@ -5233,7 +5323,7 @@
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AK48" s="62">
         <f t="shared" si="2"/>
@@ -5242,7 +5332,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>10.772727272727273</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -5304,9 +5394,9 @@
         <f>AVERAGE(U2:U48)</f>
         <v>9.5106382978723403</v>
       </c>
-      <c r="V49" s="65" t="e">
+      <c r="V49" s="65">
         <f>AVERAGE(V2:V25)</f>
-        <v>#DIV/0!</v>
+        <v>9.4090909090909083</v>
       </c>
       <c r="W49" s="65" t="e">
         <f>AVERAGE(W2:W32)</f>
@@ -5362,7 +5452,7 @@
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>18.5</v>
+        <v>27.125</v>
       </c>
       <c r="AK49" s="65">
         <f>AVERAGE(AK2:AK25)</f>
@@ -5374,7 +5464,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>11.573863636363635</v>
+        <v>13.92613636363636</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5436,9 +5526,9 @@
         <f t="shared" si="4"/>
         <v>9.4347826086956523</v>
       </c>
-      <c r="V50" s="65" t="e">
+      <c r="V50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="W50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -5494,7 +5584,7 @@
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
-        <v>18.173913043478262</v>
+        <v>26.869565217391305</v>
       </c>
       <c r="AK50" s="65">
         <f t="shared" si="4"/>
@@ -5506,7 +5596,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>11.549407114624502</v>
+        <v>13.920948616600786</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -5568,9 +5658,9 @@
         <f t="shared" si="5"/>
         <v>9.5106382978723403</v>
       </c>
-      <c r="V51" s="65" t="e">
+      <c r="V51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.0444444444444443</v>
       </c>
       <c r="W51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5626,7 +5716,7 @@
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
-        <v>18.340425531914892</v>
+        <v>27</v>
       </c>
       <c r="AK51" s="65">
         <f t="shared" si="5"/>
@@ -5638,7 +5728,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>11.561895551257253</v>
+        <v>13.923597678916824</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -5700,9 +5790,9 @@
         <f t="shared" si="6"/>
         <v>0.91181473198117913</v>
       </c>
-      <c r="V52" s="65" t="e">
+      <c r="V52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.1171301616104528</v>
       </c>
       <c r="W52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -5758,7 +5848,7 @@
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
-        <v>1.5642277681457706</v>
+        <v>2.9653799521932371</v>
       </c>
       <c r="AK52" s="65">
         <f t="shared" si="6"/>
@@ -5770,7 +5860,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>1.3880044567267154</v>
+        <v>1.8510882481361473</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -5834,7 +5924,7 @@
       </c>
       <c r="V53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W53" s="65">
         <f t="shared" si="7"/>
@@ -5890,7 +5980,7 @@
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK53" s="65">
         <f t="shared" si="7"/>
@@ -5902,7 +5992,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>13.636363636363637</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -5966,7 +6056,7 @@
       </c>
       <c r="V54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W54" s="69">
         <f t="shared" si="8"/>
@@ -6022,7 +6112,7 @@
       </c>
       <c r="AJ54" s="65">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK54" s="65">
         <f t="shared" si="8"/>
@@ -6040,19 +6130,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6063,6 +6140,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6071,12 +6161,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6262,15 +6349,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6294,17 +6392,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F2A494-AAB3-45CC-818A-3629C519C74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5378C4-FECB-4D53-9D89-E5485E57FA23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1341,47 +1330,28 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,6 +1369,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,7 +1619,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W48" sqref="W48"/>
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1779,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="96"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1800,7 +1789,9 @@
       <c r="K2" s="43">
         <v>8</v>
       </c>
-      <c r="L2" s="43"/>
+      <c r="L2" s="43">
+        <v>10</v>
+      </c>
       <c r="M2" s="43"/>
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
@@ -1831,7 +1822,7 @@
       <c r="AH2" s="44"/>
       <c r="AI2" s="45">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
@@ -1844,7 +1835,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>14.863636363636363</v>
+        <v>17.59090909090909</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1866,7 +1857,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="97"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1876,7 +1867,9 @@
       <c r="K3" s="43">
         <v>9</v>
       </c>
-      <c r="L3" s="43"/>
+      <c r="L3" s="43">
+        <v>10</v>
+      </c>
       <c r="M3" s="43"/>
       <c r="N3" s="43"/>
       <c r="O3" s="43"/>
@@ -1907,7 +1900,7 @@
       <c r="AH3" s="44"/>
       <c r="AI3" s="45">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>37.5</v>
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
@@ -1920,7 +1913,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>15.545454545454545</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1942,7 +1935,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="96"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1952,7 +1945,9 @@
       <c r="K4" s="43">
         <v>4.5</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="43">
+        <v>9.5</v>
+      </c>
       <c r="M4" s="43"/>
       <c r="N4" s="43"/>
       <c r="O4" s="43"/>
@@ -1983,7 +1978,7 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="45">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>31</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
@@ -1996,7 +1991,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>14.045454545454547</v>
+        <v>16.636363636363633</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2018,7 +2013,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="97"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2028,7 +2023,9 @@
       <c r="K5" s="43">
         <v>10</v>
       </c>
-      <c r="L5" s="43"/>
+      <c r="L5" s="43">
+        <v>10</v>
+      </c>
       <c r="M5" s="43"/>
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
@@ -2059,7 +2056,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="45">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
@@ -2072,7 +2069,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>16.363636363636363</v>
+        <v>19.090909090909093</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2094,7 +2091,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="96"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2104,7 +2101,9 @@
       <c r="K6" s="43">
         <v>10</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="43">
+        <v>8.5</v>
+      </c>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
@@ -2135,7 +2134,7 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="45">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>35</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
@@ -2148,7 +2147,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>14.318181818181818</v>
+        <v>16.636363636363637</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2170,7 +2169,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="97"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2180,7 +2179,9 @@
       <c r="K7" s="43">
         <v>10</v>
       </c>
-      <c r="L7" s="43"/>
+      <c r="L7" s="43">
+        <v>9</v>
+      </c>
       <c r="M7" s="43"/>
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
@@ -2211,7 +2212,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
@@ -2224,7 +2225,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>14.454545454545453</v>
+        <v>16.90909090909091</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2246,7 +2247,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="96"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2256,7 +2257,9 @@
       <c r="K8" s="43">
         <v>10</v>
       </c>
-      <c r="L8" s="43"/>
+      <c r="L8" s="43">
+        <v>10</v>
+      </c>
       <c r="M8" s="43"/>
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
@@ -2287,7 +2290,7 @@
       <c r="AH8" s="44"/>
       <c r="AI8" s="45">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>34.5</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
@@ -2300,7 +2303,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>14.59090909090909</v>
+        <v>17.31818181818182</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2322,7 +2325,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="97"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2332,7 +2335,9 @@
       <c r="K9" s="43">
         <v>10</v>
       </c>
-      <c r="L9" s="43"/>
+      <c r="L9" s="43">
+        <v>10</v>
+      </c>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
       <c r="O9" s="43"/>
@@ -2363,7 +2368,7 @@
       <c r="AH9" s="44"/>
       <c r="AI9" s="45">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
@@ -2376,7 +2381,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2398,7 +2403,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="96"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2408,7 +2413,9 @@
       <c r="K10" s="43">
         <v>10</v>
       </c>
-      <c r="L10" s="43"/>
+      <c r="L10" s="43">
+        <v>9</v>
+      </c>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
@@ -2439,7 +2446,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
@@ -2452,7 +2459,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>16.09090909090909</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2474,7 +2481,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="97"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2484,7 +2491,9 @@
       <c r="K11" s="43">
         <v>8</v>
       </c>
-      <c r="L11" s="43"/>
+      <c r="L11" s="43">
+        <v>10</v>
+      </c>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
@@ -2515,7 +2524,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>35.5</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
@@ -2528,7 +2537,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>15.136363636363637</v>
+        <v>17.863636363636367</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2550,7 +2559,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="96"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2560,7 +2569,9 @@
       <c r="K12" s="43">
         <v>10</v>
       </c>
-      <c r="L12" s="43"/>
+      <c r="L12" s="43">
+        <v>8</v>
+      </c>
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
@@ -2591,7 +2602,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>36.5</v>
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
@@ -2604,7 +2615,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>15.545454545454545</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2626,7 +2637,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="97"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2636,7 +2647,9 @@
       <c r="K13" s="46">
         <v>9.5</v>
       </c>
-      <c r="L13" s="46"/>
+      <c r="L13" s="46">
+        <v>10</v>
+      </c>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
       <c r="O13" s="43"/>
@@ -2667,7 +2680,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
@@ -2680,7 +2693,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>14.59090909090909</v>
+        <v>17.318181818181817</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2702,7 +2715,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2712,7 +2725,9 @@
       <c r="K14" s="43">
         <v>9</v>
       </c>
-      <c r="L14" s="43"/>
+      <c r="L14" s="43">
+        <v>10</v>
+      </c>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
@@ -2743,7 +2758,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
@@ -2756,7 +2771,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>14.18181818181818</v>
+        <v>16.90909090909091</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2778,7 +2793,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2788,7 +2803,9 @@
       <c r="K15" s="43">
         <v>7</v>
       </c>
-      <c r="L15" s="43"/>
+      <c r="L15" s="43">
+        <v>8</v>
+      </c>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
       <c r="O15" s="43"/>
@@ -2819,7 +2836,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
@@ -2832,11 +2849,11 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>13.636363636363637</v>
+        <v>15.818181818181817</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
-    <row r="16" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>35</v>
       </c>
@@ -2854,7 +2871,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="100"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -2926,7 +2943,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="101"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -2936,7 +2953,9 @@
       <c r="K17" s="43">
         <v>10</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="43">
+        <v>10</v>
+      </c>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
@@ -2967,7 +2986,7 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="45">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
@@ -2980,7 +2999,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>12.818181818181817</v>
+        <v>15.545454545454543</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3002,7 +3021,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="98"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3012,7 +3031,9 @@
       <c r="K18" s="43">
         <v>10</v>
       </c>
-      <c r="L18" s="43"/>
+      <c r="L18" s="43">
+        <v>10</v>
+      </c>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43"/>
@@ -3043,7 +3064,7 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
@@ -3056,7 +3077,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>14.318181818181817</v>
+        <v>17.045454545454547</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3078,7 +3099,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="99"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3088,7 +3109,9 @@
       <c r="K19" s="43">
         <v>8</v>
       </c>
-      <c r="L19" s="43"/>
+      <c r="L19" s="43">
+        <v>8</v>
+      </c>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
       <c r="O19" s="43"/>
@@ -3119,7 +3142,7 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="45">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
@@ -3132,7 +3155,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>12.954545454545453</v>
+        <v>15.136363636363635</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3154,7 +3177,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="98"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3164,7 +3187,9 @@
       <c r="K20" s="43">
         <v>9</v>
       </c>
-      <c r="L20" s="43"/>
+      <c r="L20" s="43">
+        <v>10</v>
+      </c>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
@@ -3195,7 +3220,7 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
@@ -3208,11 +3233,11 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>15.136363636363637</v>
+        <v>17.863636363636363</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
-    <row r="21" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>35</v>
       </c>
@@ -3230,7 +3255,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="99"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3302,7 +3327,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="106"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3312,7 +3337,9 @@
       <c r="K22" s="43">
         <v>10</v>
       </c>
-      <c r="L22" s="43"/>
+      <c r="L22" s="43">
+        <v>9</v>
+      </c>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
       <c r="O22" s="43"/>
@@ -3343,7 +3370,7 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="45">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
@@ -3356,7 +3383,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3378,7 +3405,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="107"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3388,7 +3415,9 @@
       <c r="K23" s="43">
         <v>9</v>
       </c>
-      <c r="L23" s="43"/>
+      <c r="L23" s="43">
+        <v>10</v>
+      </c>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
       <c r="O23" s="43"/>
@@ -3419,7 +3448,7 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="45">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
@@ -3432,7 +3461,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>16.09090909090909</v>
+        <v>18.81818181818182</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3454,7 +3483,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="98"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3464,7 +3493,9 @@
       <c r="K24" s="43">
         <v>8</v>
       </c>
-      <c r="L24" s="43"/>
+      <c r="L24" s="43">
+        <v>9.5</v>
+      </c>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
       <c r="O24" s="43"/>
@@ -3495,7 +3526,7 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>26.5</v>
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
@@ -3508,7 +3539,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>11.727272727272727</v>
+        <v>14.318181818181818</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3530,7 +3561,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="105"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3540,7 +3571,9 @@
       <c r="K25" s="51">
         <v>8.5</v>
       </c>
-      <c r="L25" s="51"/>
+      <c r="L25" s="51">
+        <v>9.5</v>
+      </c>
       <c r="M25" s="51"/>
       <c r="N25" s="51"/>
       <c r="O25" s="51"/>
@@ -3571,7 +3604,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="50">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>33</v>
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
@@ -3584,7 +3617,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>13.5</v>
+        <v>16.09090909090909</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3606,7 +3639,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="102"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3616,7 +3649,9 @@
       <c r="K26" s="54">
         <v>9</v>
       </c>
-      <c r="L26" s="54"/>
+      <c r="L26" s="54">
+        <v>10</v>
+      </c>
       <c r="M26" s="54"/>
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
@@ -3647,7 +3682,7 @@
       <c r="AH26" s="55"/>
       <c r="AI26" s="56">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
@@ -3660,7 +3695,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>13.227272727272727</v>
+        <v>15.954545454545453</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -3682,7 +3717,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="103"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3692,7 +3727,9 @@
       <c r="K27" s="59">
         <v>8</v>
       </c>
-      <c r="L27" s="59"/>
+      <c r="L27" s="59">
+        <v>10</v>
+      </c>
       <c r="M27" s="59"/>
       <c r="N27" s="59"/>
       <c r="O27" s="59"/>
@@ -3723,7 +3760,7 @@
       <c r="AH27" s="60"/>
       <c r="AI27" s="61">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
@@ -3736,7 +3773,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>13.772727272727273</v>
+        <v>16.5</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -3758,7 +3795,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="104"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3768,7 +3805,9 @@
       <c r="K28" s="59">
         <v>10</v>
       </c>
-      <c r="L28" s="59"/>
+      <c r="L28" s="59">
+        <v>9.5</v>
+      </c>
       <c r="M28" s="59"/>
       <c r="N28" s="59"/>
       <c r="O28" s="59"/>
@@ -3799,7 +3838,7 @@
       <c r="AH28" s="60"/>
       <c r="AI28" s="61">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>36</v>
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
@@ -3812,7 +3851,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>12.954545454545455</v>
+        <v>15.545454545454547</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -3834,7 +3873,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="103"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -3844,7 +3883,9 @@
       <c r="K29" s="59">
         <v>10</v>
       </c>
-      <c r="L29" s="59"/>
+      <c r="L29" s="59">
+        <v>10</v>
+      </c>
       <c r="M29" s="59"/>
       <c r="N29" s="59"/>
       <c r="O29" s="59"/>
@@ -3875,7 +3916,7 @@
       <c r="AH29" s="60"/>
       <c r="AI29" s="61">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
@@ -3888,7 +3929,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>13.90909090909091</v>
+        <v>16.636363636363637</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -3910,7 +3951,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -3920,7 +3961,9 @@
       <c r="K30" s="59">
         <v>9</v>
       </c>
-      <c r="L30" s="59"/>
+      <c r="L30" s="59">
+        <v>10</v>
+      </c>
       <c r="M30" s="59"/>
       <c r="N30" s="59"/>
       <c r="O30" s="59"/>
@@ -3951,7 +3994,7 @@
       <c r="AH30" s="60"/>
       <c r="AI30" s="61">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
@@ -3964,7 +4007,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -3986,7 +4029,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="103"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -3996,7 +4039,9 @@
       <c r="K31" s="59">
         <v>9</v>
       </c>
-      <c r="L31" s="59"/>
+      <c r="L31" s="59">
+        <v>10</v>
+      </c>
       <c r="M31" s="59"/>
       <c r="N31" s="59"/>
       <c r="O31" s="59"/>
@@ -4027,7 +4072,7 @@
       <c r="AH31" s="60"/>
       <c r="AI31" s="61">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
@@ -4040,7 +4085,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>15.272727272727272</v>
+        <v>18</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -4062,7 +4107,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="87"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4072,7 +4117,9 @@
       <c r="K32" s="59">
         <v>7</v>
       </c>
-      <c r="L32" s="59"/>
+      <c r="L32" s="59">
+        <v>7.5</v>
+      </c>
       <c r="M32" s="59"/>
       <c r="N32" s="59"/>
       <c r="O32" s="59"/>
@@ -4103,7 +4150,7 @@
       <c r="AH32" s="60"/>
       <c r="AI32" s="61">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>29</v>
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
@@ -4116,7 +4163,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>12.545454545454547</v>
+        <v>14.59090909090909</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4138,7 +4185,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="88"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4148,7 +4195,9 @@
       <c r="K33" s="59">
         <v>8</v>
       </c>
-      <c r="L33" s="59"/>
+      <c r="L33" s="59">
+        <v>10</v>
+      </c>
       <c r="M33" s="59"/>
       <c r="N33" s="59"/>
       <c r="O33" s="59"/>
@@ -4179,7 +4228,7 @@
       <c r="AH33" s="60"/>
       <c r="AI33" s="61">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
@@ -4192,7 +4241,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>14.318181818181817</v>
+        <v>17.045454545454547</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4214,7 +4263,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="91"/>
+      <c r="H34" s="93"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4224,7 +4273,9 @@
       <c r="K34" s="59">
         <v>10</v>
       </c>
-      <c r="L34" s="59"/>
+      <c r="L34" s="59">
+        <v>10</v>
+      </c>
       <c r="M34" s="59"/>
       <c r="N34" s="59"/>
       <c r="O34" s="59"/>
@@ -4255,7 +4306,7 @@
       <c r="AH34" s="60"/>
       <c r="AI34" s="61">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
@@ -4268,7 +4319,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>15.272727272727272</v>
+        <v>18</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4290,7 +4341,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4300,7 +4351,9 @@
       <c r="K35" s="59">
         <v>8</v>
       </c>
-      <c r="L35" s="59"/>
+      <c r="L35" s="59">
+        <v>10</v>
+      </c>
       <c r="M35" s="59"/>
       <c r="N35" s="59"/>
       <c r="O35" s="59"/>
@@ -4331,7 +4384,7 @@
       <c r="AH35" s="60"/>
       <c r="AI35" s="61">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
@@ -4344,7 +4397,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4366,7 +4419,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="87"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4376,7 +4429,9 @@
       <c r="K36" s="59">
         <v>9</v>
       </c>
-      <c r="L36" s="59"/>
+      <c r="L36" s="59">
+        <v>8</v>
+      </c>
       <c r="M36" s="59"/>
       <c r="N36" s="59"/>
       <c r="O36" s="59"/>
@@ -4407,7 +4462,7 @@
       <c r="AH36" s="60"/>
       <c r="AI36" s="61">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
@@ -4420,7 +4475,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>15.272727272727272</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4442,7 +4497,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4452,7 +4507,9 @@
       <c r="K37" s="59">
         <v>9.5</v>
       </c>
-      <c r="L37" s="59"/>
+      <c r="L37" s="59">
+        <v>10</v>
+      </c>
       <c r="M37" s="59"/>
       <c r="N37" s="59"/>
       <c r="O37" s="59"/>
@@ -4483,7 +4540,7 @@
       <c r="AH37" s="60"/>
       <c r="AI37" s="61">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
@@ -4496,7 +4553,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>14.454545454545453</v>
+        <v>17.18181818181818</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -4518,7 +4575,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="91"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4528,7 +4585,9 @@
       <c r="K38" s="59">
         <v>9</v>
       </c>
-      <c r="L38" s="59"/>
+      <c r="L38" s="59">
+        <v>10</v>
+      </c>
       <c r="M38" s="59"/>
       <c r="N38" s="59"/>
       <c r="O38" s="59"/>
@@ -4559,7 +4618,7 @@
       <c r="AH38" s="60"/>
       <c r="AI38" s="61">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
@@ -4572,7 +4631,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>14.181818181818182</v>
+        <v>16.909090909090907</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -4594,7 +4653,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="92"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4604,7 +4663,9 @@
       <c r="K39" s="59">
         <v>8</v>
       </c>
-      <c r="L39" s="59"/>
+      <c r="L39" s="59">
+        <v>10</v>
+      </c>
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
@@ -4635,7 +4696,7 @@
       <c r="AH39" s="60"/>
       <c r="AI39" s="61">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>32.5</v>
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
@@ -4648,7 +4709,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>13.5</v>
+        <v>16.227272727272727</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -4670,7 +4731,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
+      <c r="H40" s="94"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -4680,7 +4741,9 @@
       <c r="K40" s="59">
         <v>5</v>
       </c>
-      <c r="L40" s="59"/>
+      <c r="L40" s="59">
+        <v>9.5</v>
+      </c>
       <c r="M40" s="59"/>
       <c r="N40" s="59"/>
       <c r="O40" s="59"/>
@@ -4711,7 +4774,7 @@
       <c r="AH40" s="60"/>
       <c r="AI40" s="61">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>33</v>
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
@@ -4724,7 +4787,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>13.772727272727272</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -4746,7 +4809,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="87"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -4756,7 +4819,9 @@
       <c r="K41" s="59">
         <v>4</v>
       </c>
-      <c r="L41" s="59"/>
+      <c r="L41" s="59">
+        <v>3.5</v>
+      </c>
       <c r="M41" s="59"/>
       <c r="N41" s="59"/>
       <c r="O41" s="59"/>
@@ -4787,7 +4852,7 @@
       <c r="AH41" s="60"/>
       <c r="AI41" s="61">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AJ41" s="62">
         <f t="shared" si="1"/>
@@ -4800,7 +4865,7 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="62">
         <f t="shared" si="3"/>
-        <v>11.045454545454545</v>
+        <v>12</v>
       </c>
       <c r="AN41" s="59"/>
     </row>
@@ -4822,7 +4887,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="88"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -4832,7 +4897,9 @@
       <c r="K42" s="59">
         <v>7</v>
       </c>
-      <c r="L42" s="59"/>
+      <c r="L42" s="59">
+        <v>9</v>
+      </c>
       <c r="M42" s="59"/>
       <c r="N42" s="59"/>
       <c r="O42" s="59"/>
@@ -4863,7 +4930,7 @@
       <c r="AH42" s="60"/>
       <c r="AI42" s="61">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
@@ -4876,7 +4943,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>13.636363636363637</v>
+        <v>16.09090909090909</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -4898,7 +4965,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="87"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -4908,7 +4975,9 @@
       <c r="K43" s="59">
         <v>8</v>
       </c>
-      <c r="L43" s="59"/>
+      <c r="L43" s="59">
+        <v>9.5</v>
+      </c>
       <c r="M43" s="59"/>
       <c r="N43" s="59"/>
       <c r="O43" s="59"/>
@@ -4939,7 +5008,7 @@
       <c r="AH43" s="60"/>
       <c r="AI43" s="61">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>31</v>
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
@@ -4952,7 +5021,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>13.227272727272727</v>
+        <v>15.818181818181817</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -4974,7 +5043,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="88"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -4984,7 +5053,9 @@
       <c r="K44" s="59">
         <v>6</v>
       </c>
-      <c r="L44" s="59"/>
+      <c r="L44" s="59">
+        <v>10</v>
+      </c>
       <c r="M44" s="59"/>
       <c r="N44" s="59"/>
       <c r="O44" s="59"/>
@@ -5015,7 +5086,7 @@
       <c r="AH44" s="60"/>
       <c r="AI44" s="61">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
@@ -5028,7 +5099,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>11.181818181818182</v>
+        <v>13.909090909090908</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -5050,7 +5121,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="94"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5060,7 +5131,9 @@
       <c r="K45" s="83">
         <v>6</v>
       </c>
-      <c r="L45" s="83"/>
+      <c r="L45" s="83">
+        <v>10</v>
+      </c>
       <c r="M45" s="83"/>
       <c r="N45" s="83"/>
       <c r="O45" s="83"/>
@@ -5091,7 +5164,7 @@
       <c r="AH45" s="85"/>
       <c r="AI45" s="61">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
@@ -5104,7 +5177,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>15.136363636363637</v>
+        <v>17.863636363636363</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -5126,7 +5199,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="95"/>
+      <c r="H46" s="107"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5136,7 +5209,9 @@
       <c r="K46" s="83">
         <v>9</v>
       </c>
-      <c r="L46" s="83"/>
+      <c r="L46" s="83">
+        <v>10</v>
+      </c>
       <c r="M46" s="83"/>
       <c r="N46" s="83"/>
       <c r="O46" s="83"/>
@@ -5167,7 +5242,7 @@
       <c r="AH46" s="85"/>
       <c r="AI46" s="61">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
@@ -5180,7 +5255,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>15.954545454545453</v>
+        <v>18.68181818181818</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5202,7 +5277,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="89"/>
+      <c r="H47" s="103"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5212,7 +5287,9 @@
       <c r="K47" s="83">
         <v>8</v>
       </c>
-      <c r="L47" s="83"/>
+      <c r="L47" s="83">
+        <v>10</v>
+      </c>
       <c r="M47" s="83"/>
       <c r="N47" s="83"/>
       <c r="O47" s="83"/>
@@ -5243,7 +5320,7 @@
       <c r="AH47" s="85"/>
       <c r="AI47" s="61">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
@@ -5256,7 +5333,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5278,7 +5355,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="90"/>
+      <c r="H48" s="104"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5288,7 +5365,9 @@
       <c r="K48" s="83">
         <v>9</v>
       </c>
-      <c r="L48" s="83"/>
+      <c r="L48" s="83">
+        <v>10</v>
+      </c>
       <c r="M48" s="83"/>
       <c r="N48" s="83"/>
       <c r="O48" s="83"/>
@@ -5319,7 +5398,7 @@
       <c r="AH48" s="85"/>
       <c r="AI48" s="61">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
@@ -5332,7 +5411,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>13.09090909090909</v>
+        <v>15.818181818181817</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -5354,9 +5433,9 @@
         <f>AVERAGE(K2:K25)</f>
         <v>8.9772727272727266</v>
       </c>
-      <c r="L49" s="65" t="e">
-        <f>AVERAGE(L2:L32)</f>
-        <v>#DIV/0!</v>
+      <c r="L49" s="65">
+        <f>AVERAGE(L2:L38)</f>
+        <v>9.5142857142857142</v>
       </c>
       <c r="M49" s="65" t="e">
         <f>AVERAGE(M2:M32)</f>
@@ -5448,7 +5527,7 @@
       </c>
       <c r="AI49" s="67">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>23.9375</v>
+        <v>32.604166666666664</v>
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
@@ -5464,7 +5543,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>13.92613636363636</v>
+        <v>16.289772727272727</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5486,9 +5565,9 @@
         <f t="shared" si="4"/>
         <v>8.0652173913043477</v>
       </c>
-      <c r="L50" s="65" t="e">
+      <c r="L50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.4130434782608692</v>
       </c>
       <c r="M50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -5580,7 +5659,7 @@
       </c>
       <c r="AI50" s="67">
         <f t="shared" si="4"/>
-        <v>24.173913043478262</v>
+        <v>33.586956521739133</v>
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
@@ -5596,7 +5675,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>13.920948616600786</v>
+        <v>16.488142292490117</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -5618,9 +5697,9 @@
         <f t="shared" si="5"/>
         <v>8.5111111111111111</v>
       </c>
-      <c r="L51" s="65" t="e">
+      <c r="L51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.4333333333333336</v>
       </c>
       <c r="M51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5712,7 +5791,7 @@
       </c>
       <c r="AI51" s="67">
         <f t="shared" si="5"/>
-        <v>24.053191489361701</v>
+        <v>33.085106382978722</v>
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
@@ -5728,7 +5807,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>13.923597678916824</v>
+        <v>16.386847195357834</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -5750,9 +5829,9 @@
         <f t="shared" si="6"/>
         <v>1.5392179570132103</v>
       </c>
-      <c r="L52" s="65" t="e">
+      <c r="L52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.1461397661875132</v>
       </c>
       <c r="M52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -5844,7 +5923,7 @@
       </c>
       <c r="AI52" s="67">
         <f t="shared" si="6"/>
-        <v>4.8970199928487954</v>
+        <v>6.6759783104411028</v>
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
@@ -5860,7 +5939,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>1.8510882481361473</v>
+        <v>2.3593734806897522</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -5884,7 +5963,7 @@
       </c>
       <c r="L53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M53" s="65">
         <f t="shared" si="7"/>
@@ -5976,7 +6055,7 @@
       </c>
       <c r="AI53" s="67">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
@@ -5992,7 +6071,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>16.363636363636363</v>
+        <v>19.090909090909093</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -6016,7 +6095,7 @@
       </c>
       <c r="L54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M54" s="69">
         <f t="shared" si="8"/>
@@ -6130,6 +6209,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6140,19 +6232,6 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6167,6 +6246,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6348,15 +6436,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
@@ -6374,6 +6453,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6389,12 +6476,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5378C4-FECB-4D53-9D89-E5485E57FA23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10E126E-32F9-4EF5-96EB-9499EB283A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1330,6 +1330,37 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,18 +1371,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,25 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+      <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="101"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1808,7 +1808,9 @@
       <c r="V2" s="43">
         <v>10</v>
       </c>
-      <c r="W2" s="43"/>
+      <c r="W2" s="43">
+        <v>10</v>
+      </c>
       <c r="X2" s="43"/>
       <c r="Y2" s="43"/>
       <c r="Z2" s="43"/>
@@ -1826,7 +1828,7 @@
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>29.5</v>
+        <v>39.5</v>
       </c>
       <c r="AK2" s="43">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1835,7 +1837,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>17.59090909090909</v>
+        <v>20.318181818181817</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1857,7 +1859,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="102"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1886,7 +1888,9 @@
       <c r="V3" s="43">
         <v>10</v>
       </c>
-      <c r="W3" s="43"/>
+      <c r="W3" s="43">
+        <v>10</v>
+      </c>
       <c r="X3" s="43"/>
       <c r="Y3" s="43"/>
       <c r="Z3" s="43"/>
@@ -1904,7 +1908,7 @@
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
-        <v>29.5</v>
+        <v>39.5</v>
       </c>
       <c r="AK3" s="43">
         <f t="shared" si="2"/>
@@ -1913,7 +1917,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>18.272727272727273</v>
+        <v>21</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1935,7 +1939,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="101"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1964,7 +1968,9 @@
       <c r="V4" s="43">
         <v>10</v>
       </c>
-      <c r="W4" s="43"/>
+      <c r="W4" s="43">
+        <v>10</v>
+      </c>
       <c r="X4" s="43"/>
       <c r="Y4" s="43"/>
       <c r="Z4" s="43"/>
@@ -1982,7 +1988,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" si="2"/>
@@ -1991,7 +1997,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>16.636363636363633</v>
+        <v>19.363636363636363</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2013,7 +2019,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="102"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2042,7 +2048,9 @@
       <c r="V5" s="43">
         <v>10</v>
       </c>
-      <c r="W5" s="43"/>
+      <c r="W5" s="43">
+        <v>10</v>
+      </c>
       <c r="X5" s="43"/>
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
@@ -2060,7 +2068,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK5" s="43">
         <f t="shared" si="2"/>
@@ -2069,7 +2077,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>19.090909090909093</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2091,7 +2099,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="101"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2120,7 +2128,9 @@
       <c r="V6" s="43">
         <v>9</v>
       </c>
-      <c r="W6" s="43"/>
+      <c r="W6" s="43">
+        <v>8</v>
+      </c>
       <c r="X6" s="43"/>
       <c r="Y6" s="43"/>
       <c r="Z6" s="43"/>
@@ -2138,7 +2148,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AK6" s="43">
         <f t="shared" si="2"/>
@@ -2147,7 +2157,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>16.636363636363637</v>
+        <v>18.81818181818182</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2169,7 +2179,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="102"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2198,7 +2208,9 @@
       <c r="V7" s="43">
         <v>9</v>
       </c>
-      <c r="W7" s="43"/>
+      <c r="W7" s="43">
+        <v>8</v>
+      </c>
       <c r="X7" s="43"/>
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
@@ -2216,7 +2228,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AK7" s="43">
         <f t="shared" si="2"/>
@@ -2225,7 +2237,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>16.90909090909091</v>
+        <v>19.090909090909093</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2247,7 +2259,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="101"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2276,7 +2288,9 @@
       <c r="V8" s="43">
         <v>10</v>
       </c>
-      <c r="W8" s="43"/>
+      <c r="W8" s="43">
+        <v>8.5</v>
+      </c>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
@@ -2294,7 +2308,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
@@ -2303,7 +2317,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>17.31818181818182</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2325,7 +2339,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="102"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2354,7 +2368,9 @@
       <c r="V9" s="43">
         <v>10</v>
       </c>
-      <c r="W9" s="43"/>
+      <c r="W9" s="43">
+        <v>8.5</v>
+      </c>
       <c r="X9" s="43"/>
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
@@ -2372,7 +2388,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>37.5</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
@@ -2381,7 +2397,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>19.772727272727273</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2403,7 +2419,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="101"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2432,7 +2448,9 @@
       <c r="V10" s="43">
         <v>10</v>
       </c>
-      <c r="W10" s="43"/>
+      <c r="W10" s="43">
+        <v>10</v>
+      </c>
       <c r="X10" s="43"/>
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
@@ -2450,7 +2468,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
@@ -2459,7 +2477,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>18.545454545454547</v>
+        <v>21.272727272727273</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2481,7 +2499,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2510,7 +2528,9 @@
       <c r="V11" s="43">
         <v>10</v>
       </c>
-      <c r="W11" s="43"/>
+      <c r="W11" s="43">
+        <v>10</v>
+      </c>
       <c r="X11" s="43"/>
       <c r="Y11" s="43"/>
       <c r="Z11" s="43"/>
@@ -2528,7 +2548,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
@@ -2537,7 +2557,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>17.863636363636367</v>
+        <v>20.590909090909093</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2559,7 +2579,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="101"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2588,7 +2608,9 @@
       <c r="V12" s="43">
         <v>10</v>
       </c>
-      <c r="W12" s="43"/>
+      <c r="W12" s="43">
+        <v>9.5</v>
+      </c>
       <c r="X12" s="43"/>
       <c r="Y12" s="43"/>
       <c r="Z12" s="43"/>
@@ -2606,7 +2628,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>28.5</v>
+        <v>38</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
@@ -2615,7 +2637,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>17.727272727272727</v>
+        <v>20.31818181818182</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2637,7 +2659,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="102"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2666,7 +2688,9 @@
       <c r="V13" s="46">
         <v>10</v>
       </c>
-      <c r="W13" s="46"/>
+      <c r="W13" s="46">
+        <v>9.5</v>
+      </c>
       <c r="X13" s="43"/>
       <c r="Y13" s="43"/>
       <c r="Z13" s="43"/>
@@ -2684,7 +2708,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>28.5</v>
+        <v>38</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
@@ -2693,7 +2717,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>17.318181818181817</v>
+        <v>19.909090909090907</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2715,7 +2739,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="101"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2744,7 +2768,9 @@
       <c r="V14" s="43">
         <v>10</v>
       </c>
-      <c r="W14" s="43"/>
+      <c r="W14" s="43">
+        <v>10</v>
+      </c>
       <c r="X14" s="43"/>
       <c r="Y14" s="43"/>
       <c r="Z14" s="43"/>
@@ -2762,7 +2788,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK14" s="43">
         <f t="shared" si="2"/>
@@ -2771,7 +2797,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>16.90909090909091</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2793,7 +2819,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="102"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2822,7 +2848,9 @@
       <c r="V15" s="43">
         <v>10</v>
       </c>
-      <c r="W15" s="43"/>
+      <c r="W15" s="43">
+        <v>10</v>
+      </c>
       <c r="X15" s="43"/>
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
@@ -2840,7 +2868,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK15" s="43">
         <f t="shared" si="2"/>
@@ -2849,7 +2877,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>15.818181818181817</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -2871,7 +2899,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="89"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -2943,7 +2971,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="90"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -2972,7 +3000,9 @@
       <c r="V17" s="43">
         <v>9.5</v>
       </c>
-      <c r="W17" s="43"/>
+      <c r="W17" s="43">
+        <v>10</v>
+      </c>
       <c r="X17" s="43"/>
       <c r="Y17" s="43"/>
       <c r="Z17" s="43"/>
@@ -2990,7 +3020,7 @@
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK17" s="43">
         <f t="shared" si="2"/>
@@ -2999,7 +3029,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>15.545454545454543</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3021,7 +3051,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="87"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3050,7 +3080,9 @@
       <c r="V18" s="43">
         <v>8</v>
       </c>
-      <c r="W18" s="43"/>
+      <c r="W18" s="43">
+        <v>9.5</v>
+      </c>
       <c r="X18" s="43"/>
       <c r="Y18" s="43"/>
       <c r="Z18" s="43"/>
@@ -3068,7 +3100,7 @@
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
-        <v>23.5</v>
+        <v>33</v>
       </c>
       <c r="AK18" s="43">
         <f t="shared" si="2"/>
@@ -3077,7 +3109,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>17.045454545454547</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3099,7 +3131,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="88"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3128,7 +3160,9 @@
       <c r="V19" s="43">
         <v>8</v>
       </c>
-      <c r="W19" s="43"/>
+      <c r="W19" s="43">
+        <v>9.5</v>
+      </c>
       <c r="X19" s="43"/>
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
@@ -3146,7 +3180,7 @@
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
-        <v>23.5</v>
+        <v>33</v>
       </c>
       <c r="AK19" s="43">
         <f t="shared" si="2"/>
@@ -3155,7 +3189,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>15.136363636363635</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3177,7 +3211,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="87"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3206,7 +3240,9 @@
       <c r="V20" s="43">
         <v>9.5</v>
       </c>
-      <c r="W20" s="43"/>
+      <c r="W20" s="43">
+        <v>10</v>
+      </c>
       <c r="X20" s="43"/>
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
@@ -3224,7 +3260,7 @@
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
-        <v>26.5</v>
+        <v>36.5</v>
       </c>
       <c r="AK20" s="43">
         <f t="shared" si="2"/>
@@ -3233,7 +3269,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>17.863636363636363</v>
+        <v>20.590909090909093</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3255,7 +3291,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="88"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3327,7 +3363,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="99"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3356,7 +3392,9 @@
       <c r="V22" s="43">
         <v>10</v>
       </c>
-      <c r="W22" s="43"/>
+      <c r="W22" s="43">
+        <v>9.5</v>
+      </c>
       <c r="X22" s="43"/>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
@@ -3374,7 +3412,7 @@
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>39.5</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
@@ -3383,7 +3421,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>20.045454545454547</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3405,7 +3443,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="100"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3434,7 +3472,9 @@
       <c r="V23" s="43">
         <v>10</v>
       </c>
-      <c r="W23" s="43"/>
+      <c r="W23" s="43">
+        <v>9.5</v>
+      </c>
       <c r="X23" s="43"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
@@ -3452,7 +3492,7 @@
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>39.5</v>
       </c>
       <c r="AK23" s="43">
         <f t="shared" si="2"/>
@@ -3461,7 +3501,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>18.81818181818182</v>
+        <v>21.409090909090907</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3483,7 +3523,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3512,7 +3552,9 @@
       <c r="V24" s="43">
         <v>7</v>
       </c>
-      <c r="W24" s="43"/>
+      <c r="W24" s="43">
+        <v>9.5</v>
+      </c>
       <c r="X24" s="43"/>
       <c r="Y24" s="43"/>
       <c r="Z24" s="43"/>
@@ -3530,7 +3572,7 @@
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>35.5</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="2"/>
@@ -3539,7 +3581,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>14.318181818181818</v>
+        <v>16.90909090909091</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3561,7 +3603,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="98"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3590,7 +3632,9 @@
       <c r="V25" s="51">
         <v>7</v>
       </c>
-      <c r="W25" s="51"/>
+      <c r="W25" s="51">
+        <v>9.5</v>
+      </c>
       <c r="X25" s="51"/>
       <c r="Y25" s="51"/>
       <c r="Z25" s="51"/>
@@ -3608,7 +3652,7 @@
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>35.5</v>
       </c>
       <c r="AK25" s="51">
         <f t="shared" si="2"/>
@@ -3617,7 +3661,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>16.09090909090909</v>
+        <v>18.681818181818183</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3639,7 +3683,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="95"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3668,7 +3712,9 @@
       <c r="V26" s="54">
         <v>9</v>
       </c>
-      <c r="W26" s="54"/>
+      <c r="W26" s="54">
+        <v>10</v>
+      </c>
       <c r="X26" s="54"/>
       <c r="Y26" s="54"/>
       <c r="Z26" s="54"/>
@@ -3686,7 +3732,7 @@
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
-        <v>25.5</v>
+        <v>35.5</v>
       </c>
       <c r="AK26" s="57">
         <f t="shared" si="2"/>
@@ -3695,7 +3741,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>15.954545454545453</v>
+        <v>18.681818181818183</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -3717,7 +3763,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="96"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3746,7 +3792,9 @@
       <c r="V27" s="59">
         <v>9</v>
       </c>
-      <c r="W27" s="59"/>
+      <c r="W27" s="59">
+        <v>10</v>
+      </c>
       <c r="X27" s="59"/>
       <c r="Y27" s="59"/>
       <c r="Z27" s="59"/>
@@ -3764,7 +3812,7 @@
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
-        <v>25.5</v>
+        <v>35.5</v>
       </c>
       <c r="AK27" s="62">
         <f t="shared" si="2"/>
@@ -3773,7 +3821,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>16.5</v>
+        <v>19.227272727272727</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -3795,7 +3843,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3824,7 +3872,9 @@
       <c r="V28" s="59">
         <v>6</v>
       </c>
-      <c r="W28" s="59"/>
+      <c r="W28" s="59">
+        <v>9</v>
+      </c>
       <c r="X28" s="59"/>
       <c r="Y28" s="59"/>
       <c r="Z28" s="59"/>
@@ -3842,7 +3892,7 @@
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AK28" s="62">
         <f t="shared" si="2"/>
@@ -3851,7 +3901,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>15.545454545454547</v>
+        <v>18</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -3873,7 +3923,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -3902,7 +3952,9 @@
       <c r="V29" s="59">
         <v>6</v>
       </c>
-      <c r="W29" s="59"/>
+      <c r="W29" s="59">
+        <v>9</v>
+      </c>
       <c r="X29" s="59"/>
       <c r="Y29" s="59"/>
       <c r="Z29" s="59"/>
@@ -3920,7 +3972,7 @@
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AK29" s="62">
         <f t="shared" si="2"/>
@@ -3929,7 +3981,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>16.636363636363637</v>
+        <v>19.090909090909093</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -3951,7 +4003,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="97"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -3980,7 +4032,9 @@
       <c r="V30" s="59">
         <v>9</v>
       </c>
-      <c r="W30" s="59"/>
+      <c r="W30" s="59">
+        <v>10</v>
+      </c>
       <c r="X30" s="59"/>
       <c r="Y30" s="59"/>
       <c r="Z30" s="59"/>
@@ -3998,7 +4052,7 @@
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AK30" s="62">
         <f t="shared" si="2"/>
@@ -4007,7 +4061,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>17.727272727272727</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -4029,7 +4083,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="96"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4058,7 +4112,9 @@
       <c r="V31" s="59">
         <v>9</v>
       </c>
-      <c r="W31" s="59"/>
+      <c r="W31" s="59">
+        <v>10</v>
+      </c>
       <c r="X31" s="59"/>
       <c r="Y31" s="59"/>
       <c r="Z31" s="59"/>
@@ -4076,7 +4132,7 @@
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AK31" s="62">
         <f t="shared" si="2"/>
@@ -4085,7 +4141,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -4107,7 +4163,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="91"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4136,7 +4192,9 @@
       <c r="V32" s="59">
         <v>9</v>
       </c>
-      <c r="W32" s="59"/>
+      <c r="W32" s="59">
+        <v>9</v>
+      </c>
       <c r="X32" s="59"/>
       <c r="Y32" s="59"/>
       <c r="Z32" s="59"/>
@@ -4154,7 +4212,7 @@
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
-        <v>24.5</v>
+        <v>33.5</v>
       </c>
       <c r="AK32" s="62">
         <f t="shared" si="2"/>
@@ -4163,7 +4221,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>14.59090909090909</v>
+        <v>17.045454545454547</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4185,7 +4243,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4214,7 +4272,9 @@
       <c r="V33" s="59">
         <v>9</v>
       </c>
-      <c r="W33" s="59"/>
+      <c r="W33" s="59">
+        <v>9</v>
+      </c>
       <c r="X33" s="59"/>
       <c r="Y33" s="59"/>
       <c r="Z33" s="59"/>
@@ -4232,7 +4292,7 @@
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
-        <v>24.5</v>
+        <v>33.5</v>
       </c>
       <c r="AK33" s="62">
         <f t="shared" si="2"/>
@@ -4241,7 +4301,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>17.045454545454547</v>
+        <v>19.5</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4263,7 +4323,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="93"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4292,7 +4352,9 @@
       <c r="V34" s="59">
         <v>10</v>
       </c>
-      <c r="W34" s="59"/>
+      <c r="W34" s="59">
+        <v>9.5</v>
+      </c>
       <c r="X34" s="59"/>
       <c r="Y34" s="59"/>
       <c r="Z34" s="59"/>
@@ -4310,7 +4372,7 @@
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>37.5</v>
       </c>
       <c r="AK34" s="62">
         <f t="shared" si="2"/>
@@ -4319,7 +4381,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>20.59090909090909</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4341,7 +4403,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4370,7 +4432,9 @@
       <c r="V35" s="59">
         <v>10</v>
       </c>
-      <c r="W35" s="59"/>
+      <c r="W35" s="59">
+        <v>9.5</v>
+      </c>
       <c r="X35" s="59"/>
       <c r="Y35" s="59"/>
       <c r="Z35" s="59"/>
@@ -4388,7 +4452,7 @@
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>37.5</v>
       </c>
       <c r="AK35" s="62">
         <f t="shared" si="2"/>
@@ -4397,7 +4461,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>20.045454545454547</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4419,7 +4483,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="91"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4448,7 +4512,9 @@
       <c r="V36" s="59">
         <v>9</v>
       </c>
-      <c r="W36" s="59"/>
+      <c r="W36" s="59">
+        <v>10</v>
+      </c>
       <c r="X36" s="59"/>
       <c r="Y36" s="59"/>
       <c r="Z36" s="59"/>
@@ -4466,7 +4532,7 @@
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AK36" s="62">
         <f t="shared" si="2"/>
@@ -4475,7 +4541,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>20.18181818181818</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4497,7 +4563,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="92"/>
+      <c r="H37" s="88"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4526,7 +4592,9 @@
       <c r="V37" s="59">
         <v>9</v>
       </c>
-      <c r="W37" s="59"/>
+      <c r="W37" s="59">
+        <v>10</v>
+      </c>
       <c r="X37" s="59"/>
       <c r="Y37" s="59"/>
       <c r="Z37" s="59"/>
@@ -4544,7 +4612,7 @@
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AK37" s="62">
         <f t="shared" si="2"/>
@@ -4553,7 +4621,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>17.18181818181818</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -4575,7 +4643,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="93"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4604,7 +4672,9 @@
       <c r="V38" s="59">
         <v>9</v>
       </c>
-      <c r="W38" s="59"/>
+      <c r="W38" s="59">
+        <v>8.5</v>
+      </c>
       <c r="X38" s="59"/>
       <c r="Y38" s="59"/>
       <c r="Z38" s="59"/>
@@ -4622,7 +4692,7 @@
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>35.5</v>
       </c>
       <c r="AK38" s="62">
         <f t="shared" si="2"/>
@@ -4631,7 +4701,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>16.909090909090907</v>
+        <v>19.227272727272727</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -4653,7 +4723,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="105"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4682,7 +4752,9 @@
       <c r="V39" s="59">
         <v>9</v>
       </c>
-      <c r="W39" s="59"/>
+      <c r="W39" s="59">
+        <v>8.5</v>
+      </c>
       <c r="X39" s="59"/>
       <c r="Y39" s="59"/>
       <c r="Z39" s="59"/>
@@ -4700,7 +4772,7 @@
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>35.5</v>
       </c>
       <c r="AK39" s="62">
         <f t="shared" si="2"/>
@@ -4709,7 +4781,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>16.227272727272727</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -4731,7 +4803,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="94"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -4760,7 +4832,9 @@
       <c r="V40" s="59">
         <v>9</v>
       </c>
-      <c r="W40" s="59"/>
+      <c r="W40" s="59">
+        <v>8.5</v>
+      </c>
       <c r="X40" s="59"/>
       <c r="Y40" s="59"/>
       <c r="Z40" s="59"/>
@@ -4778,7 +4852,7 @@
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>35.5</v>
       </c>
       <c r="AK40" s="62">
         <f t="shared" si="2"/>
@@ -4787,7 +4861,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>16.363636363636363</v>
+        <v>18.681818181818183</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -4809,7 +4883,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="91"/>
+      <c r="H41" s="87"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -4838,7 +4912,9 @@
       <c r="V41" s="59">
         <v>7</v>
       </c>
-      <c r="W41" s="59"/>
+      <c r="W41" s="59">
+        <v>10</v>
+      </c>
       <c r="X41" s="59"/>
       <c r="Y41" s="59"/>
       <c r="Z41" s="59"/>
@@ -4856,7 +4932,7 @@
       </c>
       <c r="AJ41" s="62">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AK41" s="62">
         <f t="shared" si="2"/>
@@ -4865,7 +4941,7 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="62">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.727272727272728</v>
       </c>
       <c r="AN41" s="59"/>
     </row>
@@ -4887,7 +4963,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="92"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -4916,7 +4992,9 @@
       <c r="V42" s="59">
         <v>7</v>
       </c>
-      <c r="W42" s="59"/>
+      <c r="W42" s="59">
+        <v>10</v>
+      </c>
       <c r="X42" s="59"/>
       <c r="Y42" s="59"/>
       <c r="Z42" s="59"/>
@@ -4934,7 +5012,7 @@
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AK42" s="62">
         <f t="shared" si="2"/>
@@ -4943,7 +5021,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>16.09090909090909</v>
+        <v>18.81818181818182</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -4965,7 +5043,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="91"/>
+      <c r="H43" s="87"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -4994,7 +5072,9 @@
       <c r="V43" s="59">
         <v>9</v>
       </c>
-      <c r="W43" s="59"/>
+      <c r="W43" s="59">
+        <v>9</v>
+      </c>
       <c r="X43" s="59"/>
       <c r="Y43" s="59"/>
       <c r="Z43" s="59"/>
@@ -5012,7 +5092,7 @@
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AK43" s="62">
         <f t="shared" si="2"/>
@@ -5021,7 +5101,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>15.818181818181817</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -5043,7 +5123,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="92"/>
+      <c r="H44" s="88"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -5072,7 +5152,9 @@
       <c r="V44" s="59">
         <v>9</v>
       </c>
-      <c r="W44" s="59"/>
+      <c r="W44" s="59">
+        <v>9</v>
+      </c>
       <c r="X44" s="59"/>
       <c r="Y44" s="59"/>
       <c r="Z44" s="59"/>
@@ -5090,7 +5172,7 @@
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AK44" s="62">
         <f t="shared" si="2"/>
@@ -5099,7 +5181,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>13.909090909090908</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -5121,7 +5203,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="106"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5150,7 +5232,9 @@
       <c r="V45" s="83">
         <v>10</v>
       </c>
-      <c r="W45" s="83"/>
+      <c r="W45" s="83">
+        <v>9</v>
+      </c>
       <c r="X45" s="83"/>
       <c r="Y45" s="83"/>
       <c r="Z45" s="83"/>
@@ -5168,7 +5252,7 @@
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
-        <v>29.5</v>
+        <v>38.5</v>
       </c>
       <c r="AK45" s="62">
         <f t="shared" si="2"/>
@@ -5177,7 +5261,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>17.863636363636363</v>
+        <v>20.31818181818182</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -5199,7 +5283,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="107"/>
+      <c r="H46" s="95"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5228,7 +5312,9 @@
       <c r="V46" s="83">
         <v>10</v>
       </c>
-      <c r="W46" s="83"/>
+      <c r="W46" s="83">
+        <v>9</v>
+      </c>
       <c r="X46" s="83"/>
       <c r="Y46" s="83"/>
       <c r="Z46" s="83"/>
@@ -5246,7 +5332,7 @@
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
-        <v>29.5</v>
+        <v>38.5</v>
       </c>
       <c r="AK46" s="62">
         <f t="shared" si="2"/>
@@ -5255,7 +5341,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>18.68181818181818</v>
+        <v>21.136363636363637</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5277,7 +5363,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="103"/>
+      <c r="H47" s="89"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5306,7 +5392,9 @@
       <c r="V47" s="83">
         <v>8.5</v>
       </c>
-      <c r="W47" s="83"/>
+      <c r="W47" s="83">
+        <v>9.5</v>
+      </c>
       <c r="X47" s="83"/>
       <c r="Y47" s="83"/>
       <c r="Z47" s="83"/>
@@ -5324,7 +5412,7 @@
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>37.5</v>
       </c>
       <c r="AK47" s="62">
         <f t="shared" si="2"/>
@@ -5333,7 +5421,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>20.045454545454547</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5355,7 +5443,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="104"/>
+      <c r="H48" s="90"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5384,7 +5472,9 @@
       <c r="V48" s="83">
         <v>8.5</v>
       </c>
-      <c r="W48" s="83"/>
+      <c r="W48" s="83">
+        <v>9.5</v>
+      </c>
       <c r="X48" s="83"/>
       <c r="Y48" s="83"/>
       <c r="Z48" s="83"/>
@@ -5402,7 +5492,7 @@
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>37.5</v>
       </c>
       <c r="AK48" s="62">
         <f t="shared" si="2"/>
@@ -5411,7 +5501,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>15.818181818181817</v>
+        <v>18.409090909090907</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -5477,9 +5567,9 @@
         <f>AVERAGE(V2:V25)</f>
         <v>9.4090909090909083</v>
       </c>
-      <c r="W49" s="65" t="e">
-        <f>AVERAGE(W2:W32)</f>
-        <v>#DIV/0!</v>
+      <c r="W49" s="65">
+        <f>AVERAGE(W2:W48)</f>
+        <v>9.4333333333333336</v>
       </c>
       <c r="X49" s="65" t="e">
         <f>AVERAGE(X2:X25)</f>
@@ -5531,7 +5621,7 @@
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>27.125</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="AK49" s="65">
         <f>AVERAGE(AK2:AK25)</f>
@@ -5543,7 +5633,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>16.289772727272727</v>
+        <v>18.66477272727273</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5609,9 +5699,9 @@
         <f t="shared" si="4"/>
         <v>8.695652173913043</v>
       </c>
-      <c r="W50" s="65" t="e">
+      <c r="W50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.3695652173913047</v>
       </c>
       <c r="X50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -5663,7 +5753,7 @@
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
-        <v>26.869565217391305</v>
+        <v>36.239130434782609</v>
       </c>
       <c r="AK50" s="65">
         <f t="shared" si="4"/>
@@ -5675,7 +5765,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>16.488142292490117</v>
+        <v>19.043478260869566</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -5741,9 +5831,9 @@
         <f t="shared" si="5"/>
         <v>9.0444444444444443</v>
       </c>
-      <c r="W51" s="65" t="e">
+      <c r="W51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.4333333333333336</v>
       </c>
       <c r="X51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5795,7 +5885,7 @@
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>36.031914893617021</v>
       </c>
       <c r="AK51" s="65">
         <f t="shared" si="5"/>
@@ -5807,7 +5897,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>16.386847195357834</v>
+        <v>18.850096711798837</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -5873,9 +5963,9 @@
         <f t="shared" si="6"/>
         <v>1.1171301616104528</v>
       </c>
-      <c r="W52" s="65" t="e">
+      <c r="W52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.59924194537007303</v>
       </c>
       <c r="X52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -5927,7 +6017,7 @@
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
-        <v>2.9653799521932371</v>
+        <v>4.6078905096715612</v>
       </c>
       <c r="AK52" s="65">
         <f t="shared" si="6"/>
@@ -5939,7 +6029,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>2.3593734806897522</v>
+        <v>2.8178457483797303</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6007,7 +6097,7 @@
       </c>
       <c r="W53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X53" s="65">
         <f t="shared" si="7"/>
@@ -6059,7 +6149,7 @@
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK53" s="65">
         <f t="shared" si="7"/>
@@ -6071,7 +6161,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>19.090909090909093</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -6139,7 +6229,7 @@
       </c>
       <c r="W54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X54" s="69">
         <f t="shared" si="8"/>
@@ -6209,19 +6299,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6232,6 +6309,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6246,15 +6336,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6436,6 +6517,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
@@ -6453,14 +6543,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6476,4 +6558,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10E126E-32F9-4EF5-96EB-9499EB283A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8356DBA-2364-450A-BEC5-EA3539B02598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023년도 학생명부 및 채점표" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1330,47 +1341,28 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,6 +1380,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,7 +1630,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W49" sqref="W49"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1790,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="96"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1792,7 +1803,9 @@
       <c r="L2" s="43">
         <v>10</v>
       </c>
-      <c r="M2" s="43"/>
+      <c r="M2" s="43">
+        <v>9</v>
+      </c>
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
@@ -1824,7 +1837,7 @@
       <c r="AH2" s="44"/>
       <c r="AI2" s="45">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
@@ -1837,7 +1850,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>20.318181818181817</v>
+        <v>22.772727272727273</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1859,7 +1872,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="97"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1872,7 +1885,9 @@
       <c r="L3" s="43">
         <v>10</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="43">
+        <v>9.5</v>
+      </c>
       <c r="N3" s="43"/>
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
@@ -1904,7 +1919,7 @@
       <c r="AH3" s="44"/>
       <c r="AI3" s="45">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>47</v>
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
@@ -1917,7 +1932,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>21</v>
+        <v>23.590909090909086</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1939,7 +1954,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="96"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1952,7 +1967,9 @@
       <c r="L4" s="43">
         <v>9.5</v>
       </c>
-      <c r="M4" s="43"/>
+      <c r="M4" s="43">
+        <v>9</v>
+      </c>
       <c r="N4" s="43"/>
       <c r="O4" s="43"/>
       <c r="P4" s="43"/>
@@ -1984,7 +2001,7 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="45">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
@@ -1997,7 +2014,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>19.363636363636363</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2019,7 +2036,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="97"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2032,7 +2049,9 @@
       <c r="L5" s="43">
         <v>10</v>
       </c>
-      <c r="M5" s="43"/>
+      <c r="M5" s="43">
+        <v>10</v>
+      </c>
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
@@ -2064,7 +2083,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="45">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
@@ -2077,7 +2096,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>21.81818181818182</v>
+        <v>24.545454545454547</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2099,7 +2118,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="96"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2112,7 +2131,9 @@
       <c r="L6" s="43">
         <v>8.5</v>
       </c>
-      <c r="M6" s="43"/>
+      <c r="M6" s="43">
+        <v>9</v>
+      </c>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
@@ -2144,7 +2165,7 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="45">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
@@ -2157,7 +2178,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>18.81818181818182</v>
+        <v>21.272727272727273</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2179,7 +2200,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="97"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2192,7 +2213,9 @@
       <c r="L7" s="43">
         <v>9</v>
       </c>
-      <c r="M7" s="43"/>
+      <c r="M7" s="43">
+        <v>10</v>
+      </c>
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
@@ -2224,7 +2247,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
@@ -2237,7 +2260,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>19.090909090909093</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2259,7 +2282,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="96"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2272,7 +2295,9 @@
       <c r="L8" s="43">
         <v>10</v>
       </c>
-      <c r="M8" s="43"/>
+      <c r="M8" s="43">
+        <v>9</v>
+      </c>
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
@@ -2304,7 +2329,7 @@
       <c r="AH8" s="44"/>
       <c r="AI8" s="45">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>43.5</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
@@ -2317,7 +2342,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>19.636363636363637</v>
+        <v>22.09090909090909</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2339,7 +2364,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="97"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2352,7 +2377,9 @@
       <c r="L9" s="43">
         <v>10</v>
       </c>
-      <c r="M9" s="43"/>
+      <c r="M9" s="43">
+        <v>10</v>
+      </c>
       <c r="N9" s="43"/>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
@@ -2384,7 +2411,7 @@
       <c r="AH9" s="44"/>
       <c r="AI9" s="45">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
@@ -2397,7 +2424,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>19.772727272727273</v>
+        <v>22.5</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2419,7 +2446,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="96"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2432,7 +2459,9 @@
       <c r="L10" s="43">
         <v>9</v>
       </c>
-      <c r="M10" s="43"/>
+      <c r="M10" s="43">
+        <v>9</v>
+      </c>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
@@ -2464,7 +2493,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
@@ -2477,7 +2506,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>21.272727272727273</v>
+        <v>23.727272727272727</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2499,7 +2528,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="97"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2512,7 +2541,9 @@
       <c r="L11" s="43">
         <v>10</v>
       </c>
-      <c r="M11" s="43"/>
+      <c r="M11" s="43">
+        <v>8</v>
+      </c>
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
@@ -2544,7 +2575,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45">
         <f t="shared" si="0"/>
-        <v>35.5</v>
+        <v>43.5</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
@@ -2557,7 +2588,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>20.590909090909093</v>
+        <v>22.772727272727273</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2579,7 +2610,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="96"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2592,7 +2623,9 @@
       <c r="L12" s="43">
         <v>8</v>
       </c>
-      <c r="M12" s="43"/>
+      <c r="M12" s="43">
+        <v>10</v>
+      </c>
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
@@ -2624,7 +2657,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>46.5</v>
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
@@ -2637,7 +2670,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>20.31818181818182</v>
+        <v>23.045454545454547</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2659,7 +2692,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="97"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2672,7 +2705,9 @@
       <c r="L13" s="46">
         <v>10</v>
       </c>
-      <c r="M13" s="43"/>
+      <c r="M13" s="43">
+        <v>8</v>
+      </c>
       <c r="N13" s="43"/>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
@@ -2704,7 +2739,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
@@ -2717,7 +2752,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>19.909090909090907</v>
+        <v>22.090909090909093</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2739,7 +2774,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2752,7 +2787,9 @@
       <c r="L14" s="43">
         <v>10</v>
       </c>
-      <c r="M14" s="43"/>
+      <c r="M14" s="43">
+        <v>9</v>
+      </c>
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
@@ -2784,7 +2821,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
@@ -2797,7 +2834,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>19.636363636363637</v>
+        <v>22.090909090909093</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2819,7 +2856,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2832,7 +2869,9 @@
       <c r="L15" s="43">
         <v>8</v>
       </c>
-      <c r="M15" s="43"/>
+      <c r="M15" s="43">
+        <v>8.5</v>
+      </c>
       <c r="N15" s="43"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
@@ -2864,7 +2903,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>38.5</v>
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
@@ -2877,7 +2916,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>18.545454545454547</v>
+        <v>20.863636363636363</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -2899,7 +2938,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="100"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -2971,7 +3010,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="101"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -2984,7 +3023,9 @@
       <c r="L17" s="43">
         <v>10</v>
       </c>
-      <c r="M17" s="43"/>
+      <c r="M17" s="43">
+        <v>8</v>
+      </c>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
       <c r="P17" s="43"/>
@@ -3016,7 +3057,7 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="45">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
@@ -3029,7 +3070,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>18.272727272727273</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3051,7 +3092,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="98"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3064,7 +3105,9 @@
       <c r="L18" s="43">
         <v>10</v>
       </c>
-      <c r="M18" s="43"/>
+      <c r="M18" s="43">
+        <v>10</v>
+      </c>
       <c r="N18" s="43"/>
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
@@ -3096,7 +3139,7 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
@@ -3109,7 +3152,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>19.636363636363637</v>
+        <v>22.363636363636363</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3131,7 +3174,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="99"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3144,7 +3187,9 @@
       <c r="L19" s="43">
         <v>8</v>
       </c>
-      <c r="M19" s="43"/>
+      <c r="M19" s="43">
+        <v>8.5</v>
+      </c>
       <c r="N19" s="43"/>
       <c r="O19" s="43"/>
       <c r="P19" s="43"/>
@@ -3176,7 +3221,7 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="45">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40.5</v>
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
@@ -3189,7 +3234,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>17.727272727272727</v>
+        <v>20.045454545454547</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3211,7 +3256,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="98"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3224,7 +3269,9 @@
       <c r="L20" s="43">
         <v>10</v>
       </c>
-      <c r="M20" s="43"/>
+      <c r="M20" s="43">
+        <v>7.5</v>
+      </c>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
@@ -3256,7 +3303,7 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>46.5</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
@@ -3269,7 +3316,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>20.590909090909093</v>
+        <v>22.636363636363637</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3291,7 +3338,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="99"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3363,7 +3410,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="106"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3376,7 +3423,9 @@
       <c r="L22" s="43">
         <v>9</v>
       </c>
-      <c r="M22" s="43"/>
+      <c r="M22" s="43">
+        <v>8</v>
+      </c>
       <c r="N22" s="43"/>
       <c r="O22" s="43"/>
       <c r="P22" s="43"/>
@@ -3408,7 +3457,7 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="45">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
@@ -3421,7 +3470,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>20.045454545454547</v>
+        <v>22.227272727272727</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3443,7 +3492,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="107"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3456,7 +3505,9 @@
       <c r="L23" s="43">
         <v>10</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="43">
+        <v>9</v>
+      </c>
       <c r="N23" s="43"/>
       <c r="O23" s="43"/>
       <c r="P23" s="43"/>
@@ -3488,7 +3539,7 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="45">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
@@ -3501,7 +3552,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>21.409090909090907</v>
+        <v>23.86363636363636</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3523,7 +3574,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="98"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3536,7 +3587,9 @@
       <c r="L24" s="43">
         <v>9.5</v>
       </c>
-      <c r="M24" s="43"/>
+      <c r="M24" s="43">
+        <v>9.5</v>
+      </c>
       <c r="N24" s="43"/>
       <c r="O24" s="43"/>
       <c r="P24" s="43"/>
@@ -3568,7 +3621,7 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>36</v>
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
@@ -3581,7 +3634,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>16.90909090909091</v>
+        <v>19.5</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3603,7 +3656,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="105"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3616,7 +3669,9 @@
       <c r="L25" s="51">
         <v>9.5</v>
       </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="51">
+        <v>7</v>
+      </c>
       <c r="N25" s="51"/>
       <c r="O25" s="51"/>
       <c r="P25" s="51"/>
@@ -3648,7 +3703,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="50">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
@@ -3661,7 +3716,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>18.681818181818183</v>
+        <v>20.590909090909093</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3683,7 +3738,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="102"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3696,7 +3751,9 @@
       <c r="L26" s="54">
         <v>10</v>
       </c>
-      <c r="M26" s="54"/>
+      <c r="M26" s="54">
+        <v>10</v>
+      </c>
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
       <c r="P26" s="54"/>
@@ -3728,7 +3785,7 @@
       <c r="AH26" s="55"/>
       <c r="AI26" s="56">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
@@ -3741,7 +3798,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>18.681818181818183</v>
+        <v>21.409090909090914</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -3763,7 +3820,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="103"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3776,7 +3833,9 @@
       <c r="L27" s="59">
         <v>10</v>
       </c>
-      <c r="M27" s="59"/>
+      <c r="M27" s="59">
+        <v>5.5</v>
+      </c>
       <c r="N27" s="59"/>
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
@@ -3808,7 +3867,7 @@
       <c r="AH27" s="60"/>
       <c r="AI27" s="61">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
@@ -3821,7 +3880,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>19.227272727272727</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -3843,7 +3902,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="104"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3856,7 +3915,9 @@
       <c r="L28" s="59">
         <v>9.5</v>
       </c>
-      <c r="M28" s="59"/>
+      <c r="M28" s="59">
+        <v>9</v>
+      </c>
       <c r="N28" s="59"/>
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
@@ -3888,7 +3949,7 @@
       <c r="AH28" s="60"/>
       <c r="AI28" s="61">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
@@ -3901,7 +3962,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -3923,7 +3984,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="103"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -3936,7 +3997,9 @@
       <c r="L29" s="59">
         <v>10</v>
       </c>
-      <c r="M29" s="59"/>
+      <c r="M29" s="59">
+        <v>9</v>
+      </c>
       <c r="N29" s="59"/>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
@@ -3968,7 +4031,7 @@
       <c r="AH29" s="60"/>
       <c r="AI29" s="61">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
@@ -3981,7 +4044,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>19.090909090909093</v>
+        <v>21.545454545454547</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -4003,7 +4066,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -4016,7 +4079,9 @@
       <c r="L30" s="59">
         <v>10</v>
       </c>
-      <c r="M30" s="59"/>
+      <c r="M30" s="59">
+        <v>9</v>
+      </c>
       <c r="N30" s="59"/>
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
@@ -4048,7 +4113,7 @@
       <c r="AH30" s="60"/>
       <c r="AI30" s="61">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
@@ -4061,7 +4126,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>20.454545454545453</v>
+        <v>22.90909090909091</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -4083,7 +4148,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="103"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4096,7 +4161,9 @@
       <c r="L31" s="59">
         <v>10</v>
       </c>
-      <c r="M31" s="59"/>
+      <c r="M31" s="59">
+        <v>10</v>
+      </c>
       <c r="N31" s="59"/>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
@@ -4128,7 +4195,7 @@
       <c r="AH31" s="60"/>
       <c r="AI31" s="61">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
@@ -4141,7 +4208,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>20.727272727272727</v>
+        <v>23.454545454545453</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -4163,7 +4230,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="87"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4176,7 +4243,9 @@
       <c r="L32" s="59">
         <v>7.5</v>
       </c>
-      <c r="M32" s="59"/>
+      <c r="M32" s="59">
+        <v>7</v>
+      </c>
       <c r="N32" s="59"/>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
@@ -4208,7 +4277,7 @@
       <c r="AH32" s="60"/>
       <c r="AI32" s="61">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
@@ -4221,7 +4290,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>17.045454545454547</v>
+        <v>18.954545454545453</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4243,7 +4312,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="88"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4256,7 +4325,9 @@
       <c r="L33" s="59">
         <v>10</v>
       </c>
-      <c r="M33" s="59"/>
+      <c r="M33" s="59">
+        <v>5</v>
+      </c>
       <c r="N33" s="59"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
@@ -4288,7 +4359,7 @@
       <c r="AH33" s="60"/>
       <c r="AI33" s="61">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
@@ -4301,7 +4372,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>19.5</v>
+        <v>20.863636363636367</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4323,7 +4394,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="91"/>
+      <c r="H34" s="93"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4336,7 +4407,9 @@
       <c r="L34" s="59">
         <v>10</v>
       </c>
-      <c r="M34" s="59"/>
+      <c r="M34" s="59">
+        <v>10</v>
+      </c>
       <c r="N34" s="59"/>
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
@@ -4368,7 +4441,7 @@
       <c r="AH34" s="60"/>
       <c r="AI34" s="61">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
@@ -4381,7 +4454,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>20.59090909090909</v>
+        <v>23.318181818181817</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4403,7 +4476,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4416,7 +4489,9 @@
       <c r="L35" s="59">
         <v>10</v>
       </c>
-      <c r="M35" s="59"/>
+      <c r="M35" s="59">
+        <v>9</v>
+      </c>
       <c r="N35" s="59"/>
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
@@ -4448,7 +4523,7 @@
       <c r="AH35" s="60"/>
       <c r="AI35" s="61">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
@@ -4461,7 +4536,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>20.045454545454547</v>
+        <v>22.5</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4483,7 +4558,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="87"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4496,7 +4571,9 @@
       <c r="L36" s="59">
         <v>8</v>
       </c>
-      <c r="M36" s="59"/>
+      <c r="M36" s="59">
+        <v>10</v>
+      </c>
       <c r="N36" s="59"/>
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
@@ -4528,7 +4605,7 @@
       <c r="AH36" s="60"/>
       <c r="AI36" s="61">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
@@ -4541,7 +4618,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>20.18181818181818</v>
+        <v>22.90909090909091</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4563,7 +4640,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4576,7 +4653,9 @@
       <c r="L37" s="59">
         <v>10</v>
       </c>
-      <c r="M37" s="59"/>
+      <c r="M37" s="59">
+        <v>8.5</v>
+      </c>
       <c r="N37" s="59"/>
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
@@ -4608,7 +4687,7 @@
       <c r="AH37" s="60"/>
       <c r="AI37" s="61">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>42.5</v>
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
@@ -4621,7 +4700,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>19.90909090909091</v>
+        <v>22.227272727272727</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -4643,7 +4722,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="91"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4656,7 +4735,9 @@
       <c r="L38" s="59">
         <v>10</v>
       </c>
-      <c r="M38" s="59"/>
+      <c r="M38" s="59">
+        <v>8.5</v>
+      </c>
       <c r="N38" s="59"/>
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
@@ -4688,7 +4769,7 @@
       <c r="AH38" s="60"/>
       <c r="AI38" s="61">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>43.5</v>
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
@@ -4701,7 +4782,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>19.227272727272727</v>
+        <v>21.545454545454547</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -4723,7 +4804,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="92"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4736,7 +4817,9 @@
       <c r="L39" s="59">
         <v>10</v>
       </c>
-      <c r="M39" s="59"/>
+      <c r="M39" s="59">
+        <v>9.5</v>
+      </c>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
@@ -4768,7 +4851,7 @@
       <c r="AH39" s="60"/>
       <c r="AI39" s="61">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>42</v>
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
@@ -4781,7 +4864,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>18.545454545454547</v>
+        <v>21.13636363636364</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -4803,7 +4886,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
+      <c r="H40" s="94"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -4816,7 +4899,9 @@
       <c r="L40" s="59">
         <v>9.5</v>
       </c>
-      <c r="M40" s="59"/>
+      <c r="M40" s="59">
+        <v>6.5</v>
+      </c>
       <c r="N40" s="59"/>
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
@@ -4848,7 +4933,7 @@
       <c r="AH40" s="60"/>
       <c r="AI40" s="61">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39.5</v>
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
@@ -4861,7 +4946,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>18.681818181818183</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -4883,7 +4968,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="87"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -4896,7 +4981,9 @@
       <c r="L41" s="59">
         <v>3.5</v>
       </c>
-      <c r="M41" s="59"/>
+      <c r="M41" s="59">
+        <v>0</v>
+      </c>
       <c r="N41" s="59"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
@@ -4963,7 +5050,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="88"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -4976,7 +5063,9 @@
       <c r="L42" s="59">
         <v>9</v>
       </c>
-      <c r="M42" s="59"/>
+      <c r="M42" s="59">
+        <v>7</v>
+      </c>
       <c r="N42" s="59"/>
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
@@ -5008,7 +5097,7 @@
       <c r="AH42" s="60"/>
       <c r="AI42" s="61">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
@@ -5021,7 +5110,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>18.81818181818182</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -5043,7 +5132,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="87"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -5056,7 +5145,9 @@
       <c r="L43" s="59">
         <v>9.5</v>
       </c>
-      <c r="M43" s="59"/>
+      <c r="M43" s="59">
+        <v>9</v>
+      </c>
       <c r="N43" s="59"/>
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
@@ -5088,7 +5179,7 @@
       <c r="AH43" s="60"/>
       <c r="AI43" s="61">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
@@ -5101,7 +5192,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>18.272727272727273</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -5123,7 +5214,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="88"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -5136,7 +5227,9 @@
       <c r="L44" s="59">
         <v>10</v>
       </c>
-      <c r="M44" s="59"/>
+      <c r="M44" s="59">
+        <v>8.5</v>
+      </c>
       <c r="N44" s="59"/>
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
@@ -5168,7 +5261,7 @@
       <c r="AH44" s="60"/>
       <c r="AI44" s="61">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>32.5</v>
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
@@ -5181,7 +5274,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>16.363636363636363</v>
+        <v>18.68181818181818</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -5203,7 +5296,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="94"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5216,7 +5309,9 @@
       <c r="L45" s="83">
         <v>10</v>
       </c>
-      <c r="M45" s="83"/>
+      <c r="M45" s="83">
+        <v>9.5</v>
+      </c>
       <c r="N45" s="83"/>
       <c r="O45" s="83"/>
       <c r="P45" s="83"/>
@@ -5248,7 +5343,7 @@
       <c r="AH45" s="85"/>
       <c r="AI45" s="61">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>45.5</v>
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
@@ -5261,7 +5356,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>20.31818181818182</v>
+        <v>22.909090909090907</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -5283,7 +5378,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="95"/>
+      <c r="H46" s="107"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5296,7 +5391,9 @@
       <c r="L46" s="83">
         <v>10</v>
       </c>
-      <c r="M46" s="83"/>
+      <c r="M46" s="83">
+        <v>8.5</v>
+      </c>
       <c r="N46" s="83"/>
       <c r="O46" s="83"/>
       <c r="P46" s="83"/>
@@ -5328,7 +5425,7 @@
       <c r="AH46" s="85"/>
       <c r="AI46" s="61">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>47.5</v>
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
@@ -5341,7 +5438,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>21.136363636363637</v>
+        <v>23.454545454545453</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5363,7 +5460,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="89"/>
+      <c r="H47" s="103"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5376,7 +5473,9 @@
       <c r="L47" s="83">
         <v>10</v>
       </c>
-      <c r="M47" s="83"/>
+      <c r="M47" s="83">
+        <v>9</v>
+      </c>
       <c r="N47" s="83"/>
       <c r="O47" s="83"/>
       <c r="P47" s="83"/>
@@ -5408,7 +5507,7 @@
       <c r="AH47" s="85"/>
       <c r="AI47" s="61">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
@@ -5421,7 +5520,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>20.045454545454547</v>
+        <v>22.5</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5443,7 +5542,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="90"/>
+      <c r="H48" s="104"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5456,7 +5555,9 @@
       <c r="L48" s="83">
         <v>10</v>
       </c>
-      <c r="M48" s="83"/>
+      <c r="M48" s="83">
+        <v>10</v>
+      </c>
       <c r="N48" s="83"/>
       <c r="O48" s="83"/>
       <c r="P48" s="83"/>
@@ -5488,7 +5589,7 @@
       <c r="AH48" s="85"/>
       <c r="AI48" s="61">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
@@ -5501,7 +5602,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>18.409090909090907</v>
+        <v>21.136363636363637</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -5527,9 +5628,9 @@
         <f>AVERAGE(L2:L38)</f>
         <v>9.5142857142857142</v>
       </c>
-      <c r="M49" s="65" t="e">
-        <f>AVERAGE(M2:M32)</f>
-        <v>#DIV/0!</v>
+      <c r="M49" s="65">
+        <f>AVERAGE(M2:M35)</f>
+        <v>8.71875</v>
       </c>
       <c r="N49" s="65" t="e">
         <f>AVERAGE(N2:N32)</f>
@@ -5617,7 +5718,7 @@
       </c>
       <c r="AI49" s="67">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>32.604166666666664</v>
+        <v>40.75</v>
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
@@ -5633,7 +5734,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>18.66477272727273</v>
+        <v>20.886363636363637</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5659,9 +5760,9 @@
         <f t="shared" si="4"/>
         <v>9.4130434782608692</v>
       </c>
-      <c r="M50" s="65" t="e">
+      <c r="M50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.1739130434782616</v>
       </c>
       <c r="N50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -5749,7 +5850,7 @@
       </c>
       <c r="AI50" s="67">
         <f t="shared" si="4"/>
-        <v>33.586956521739133</v>
+        <v>41.760869565217391</v>
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
@@ -5765,7 +5866,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>19.043478260869566</v>
+        <v>21.272727272727273</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -5791,9 +5892,9 @@
         <f t="shared" si="5"/>
         <v>9.4333333333333336</v>
       </c>
-      <c r="M51" s="65" t="e">
+      <c r="M51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8.5222222222222221</v>
       </c>
       <c r="N51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5881,7 +5982,7 @@
       </c>
       <c r="AI51" s="67">
         <f t="shared" si="5"/>
-        <v>33.085106382978722</v>
+        <v>41.244680851063826</v>
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
@@ -5897,7 +5998,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>18.850096711798837</v>
+        <v>21.075435203094781</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -5923,9 +6024,9 @@
         <f t="shared" si="6"/>
         <v>1.1461397661875132</v>
       </c>
-      <c r="M52" s="65" t="e">
+      <c r="M52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.7579545046456797</v>
       </c>
       <c r="N52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6013,7 +6114,7 @@
       </c>
       <c r="AI52" s="67">
         <f t="shared" si="6"/>
-        <v>6.6759783104411028</v>
+        <v>8.7133532832892708</v>
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
@@ -6029,7 +6130,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>2.8178457483797303</v>
+        <v>3.3707898054700673</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6057,7 +6158,7 @@
       </c>
       <c r="M53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N53" s="65">
         <f t="shared" si="7"/>
@@ -6145,7 +6246,7 @@
       </c>
       <c r="AI53" s="67">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
@@ -6161,7 +6262,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>21.81818181818182</v>
+        <v>24.545454545454547</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -6299,6 +6400,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6309,19 +6423,6 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6330,9 +6431,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6518,26 +6622,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6561,9 +6654,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8356DBA-2364-450A-BEC5-EA3539B02598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756AA2B-A75D-4281-B980-4F594CA0C8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,6 +1341,37 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,18 +1382,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,25 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,7 +1630,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="101"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="102"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="101"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="102"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="101"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="102"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="101"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="102"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="101"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="101"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="102"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="101"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="102"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="89"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="90"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="87"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>10</v>
       </c>
       <c r="M18" s="43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18" s="43"/>
       <c r="O18" s="43"/>
@@ -3139,7 +3139,7 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
@@ -3152,7 +3152,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>22.363636363636363</v>
+        <v>22.09090909090909</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="88"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="87"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="88"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="99"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="100"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>9.5</v>
       </c>
       <c r="M24" s="43">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="N24" s="43"/>
       <c r="O24" s="43"/>
@@ -3621,7 +3621,7 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
@@ -3634,7 +3634,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>19.5</v>
+        <v>19.227272727272727</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="98"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="95"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="96"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="97"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="96"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="91"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="93"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="91"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="92"/>
+      <c r="H37" s="88"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="93"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="105"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="94"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="91"/>
+      <c r="H41" s="87"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="92"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="91"/>
+      <c r="H43" s="87"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="92"/>
+      <c r="H44" s="88"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="106"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="107"/>
+      <c r="H46" s="95"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="103"/>
+      <c r="H47" s="89"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="104"/>
+      <c r="H48" s="90"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="M49" s="65">
         <f>AVERAGE(M2:M35)</f>
-        <v>8.71875</v>
+        <v>8.65625</v>
       </c>
       <c r="N49" s="65" t="e">
         <f>AVERAGE(N2:N32)</f>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="AI49" s="67">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>40.75</v>
+        <v>40.666666666666664</v>
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>20.886363636363637</v>
+        <v>20.863636363636363</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="M51" s="65">
         <f t="shared" si="5"/>
-        <v>8.5222222222222221</v>
+        <v>8.4777777777777779</v>
       </c>
       <c r="N51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AI51" s="67">
         <f t="shared" si="5"/>
-        <v>41.244680851063826</v>
+        <v>41.202127659574465</v>
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>21.075435203094781</v>
+        <v>21.063829787234045</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="M52" s="65">
         <f t="shared" si="6"/>
-        <v>1.7579545046456797</v>
+        <v>1.7384539747207055</v>
       </c>
       <c r="N52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="AI52" s="67">
         <f t="shared" si="6"/>
-        <v>8.7133532832892708</v>
+        <v>8.7094773307388085</v>
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>3.3707898054700673</v>
+        <v>3.3717541660873751</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6400,19 +6400,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6423,6 +6410,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6431,12 +6431,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6622,15 +6619,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6654,17 +6662,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756AA2B-A75D-4281-B980-4F594CA0C8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681FFC8F-EE28-41E4-83CA-05B8ED6DDE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,47 +1341,28 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,6 +1380,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,7 +1630,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="96"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1824,7 +1824,9 @@
       <c r="W2" s="43">
         <v>10</v>
       </c>
-      <c r="X2" s="43"/>
+      <c r="X2" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Y2" s="43"/>
       <c r="Z2" s="43"/>
       <c r="AA2" s="43"/>
@@ -1841,7 +1843,7 @@
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>39.5</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="43">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1850,7 +1852,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>22.772727272727273</v>
+        <v>25.363636363636363</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1872,7 +1874,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="97"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1906,7 +1908,9 @@
       <c r="W3" s="43">
         <v>10</v>
       </c>
-      <c r="X3" s="43"/>
+      <c r="X3" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Y3" s="43"/>
       <c r="Z3" s="43"/>
       <c r="AA3" s="43"/>
@@ -1923,7 +1927,7 @@
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
-        <v>39.5</v>
+        <v>49</v>
       </c>
       <c r="AK3" s="43">
         <f t="shared" si="2"/>
@@ -1932,7 +1936,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>23.590909090909086</v>
+        <v>26.18181818181818</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1954,7 +1958,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="96"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1988,7 +1992,9 @@
       <c r="W4" s="43">
         <v>10</v>
       </c>
-      <c r="X4" s="43"/>
+      <c r="X4" s="43">
+        <v>10</v>
+      </c>
       <c r="Y4" s="43"/>
       <c r="Z4" s="43"/>
       <c r="AA4" s="43"/>
@@ -2005,7 +2011,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" si="2"/>
@@ -2014,7 +2020,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>21.81818181818182</v>
+        <v>24.545454545454547</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2036,7 +2042,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="97"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2070,7 +2076,9 @@
       <c r="W5" s="43">
         <v>10</v>
       </c>
-      <c r="X5" s="43"/>
+      <c r="X5" s="43">
+        <v>10</v>
+      </c>
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
       <c r="AA5" s="43"/>
@@ -2087,7 +2095,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK5" s="43">
         <f t="shared" si="2"/>
@@ -2096,7 +2104,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>24.545454545454547</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2118,7 +2126,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="96"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2152,7 +2160,9 @@
       <c r="W6" s="43">
         <v>8</v>
       </c>
-      <c r="X6" s="43"/>
+      <c r="X6" s="43">
+        <v>9</v>
+      </c>
       <c r="Y6" s="43"/>
       <c r="Z6" s="43"/>
       <c r="AA6" s="43"/>
@@ -2169,7 +2179,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AK6" s="43">
         <f t="shared" si="2"/>
@@ -2178,7 +2188,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>21.272727272727273</v>
+        <v>23.727272727272727</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2200,7 +2210,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="97"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2234,7 +2244,9 @@
       <c r="W7" s="43">
         <v>8</v>
       </c>
-      <c r="X7" s="43"/>
+      <c r="X7" s="43">
+        <v>9</v>
+      </c>
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
       <c r="AA7" s="43"/>
@@ -2251,7 +2263,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AK7" s="43">
         <f t="shared" si="2"/>
@@ -2260,7 +2272,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>21.81818181818182</v>
+        <v>24.272727272727273</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2282,7 +2294,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="96"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2316,7 +2328,9 @@
       <c r="W8" s="43">
         <v>8.5</v>
       </c>
-      <c r="X8" s="43"/>
+      <c r="X8" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
       <c r="AA8" s="43"/>
@@ -2333,7 +2347,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>47</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
@@ -2342,7 +2356,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>22.09090909090909</v>
+        <v>24.68181818181818</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2364,7 +2378,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="97"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2398,7 +2412,9 @@
       <c r="W9" s="43">
         <v>8.5</v>
       </c>
-      <c r="X9" s="43"/>
+      <c r="X9" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
       <c r="AA9" s="43"/>
@@ -2415,7 +2431,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>47</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
@@ -2424,7 +2440,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>22.5</v>
+        <v>25.09090909090909</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2446,7 +2462,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="96"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2480,7 +2496,9 @@
       <c r="W10" s="43">
         <v>10</v>
       </c>
-      <c r="X10" s="43"/>
+      <c r="X10" s="43">
+        <v>10</v>
+      </c>
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
       <c r="AA10" s="43"/>
@@ -2497,7 +2515,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
@@ -2506,7 +2524,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>23.727272727272727</v>
+        <v>26.454545454545453</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2528,7 +2546,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="97"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2562,7 +2580,9 @@
       <c r="W11" s="43">
         <v>10</v>
       </c>
-      <c r="X11" s="43"/>
+      <c r="X11" s="43">
+        <v>10</v>
+      </c>
       <c r="Y11" s="43"/>
       <c r="Z11" s="43"/>
       <c r="AA11" s="43"/>
@@ -2579,7 +2599,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
@@ -2588,7 +2608,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>22.772727272727273</v>
+        <v>25.5</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2610,7 +2630,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="96"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2644,7 +2664,9 @@
       <c r="W12" s="43">
         <v>9.5</v>
       </c>
-      <c r="X12" s="43"/>
+      <c r="X12" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Y12" s="43"/>
       <c r="Z12" s="43"/>
       <c r="AA12" s="43"/>
@@ -2661,7 +2683,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>47.5</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
@@ -2670,7 +2692,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>23.045454545454547</v>
+        <v>25.636363636363637</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2692,7 +2714,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="97"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2720,13 +2742,15 @@
       <c r="U13" s="86">
         <v>10</v>
       </c>
-      <c r="V13" s="46">
-        <v>10</v>
-      </c>
-      <c r="W13" s="46">
+      <c r="V13" s="86">
+        <v>10</v>
+      </c>
+      <c r="W13" s="86">
         <v>9.5</v>
       </c>
-      <c r="X13" s="43"/>
+      <c r="X13" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Y13" s="43"/>
       <c r="Z13" s="43"/>
       <c r="AA13" s="43"/>
@@ -2743,7 +2767,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>47.5</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
@@ -2752,7 +2776,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>22.090909090909093</v>
+        <v>24.681818181818183</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2774,7 +2798,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2808,7 +2832,9 @@
       <c r="W14" s="43">
         <v>10</v>
       </c>
-      <c r="X14" s="43"/>
+      <c r="X14" s="43">
+        <v>9</v>
+      </c>
       <c r="Y14" s="43"/>
       <c r="Z14" s="43"/>
       <c r="AA14" s="43"/>
@@ -2825,7 +2851,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AK14" s="43">
         <f t="shared" si="2"/>
@@ -2834,7 +2860,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>22.090909090909093</v>
+        <v>24.545454545454547</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2856,7 +2882,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2890,7 +2916,9 @@
       <c r="W15" s="43">
         <v>10</v>
       </c>
-      <c r="X15" s="43"/>
+      <c r="X15" s="43">
+        <v>9</v>
+      </c>
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
@@ -2907,7 +2935,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AK15" s="43">
         <f t="shared" si="2"/>
@@ -2916,7 +2944,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>20.863636363636363</v>
+        <v>23.318181818181817</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -2938,7 +2966,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="100"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -3010,7 +3038,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="101"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -3044,7 +3072,9 @@
       <c r="W17" s="43">
         <v>10</v>
       </c>
-      <c r="X17" s="43"/>
+      <c r="X17" s="43">
+        <v>6</v>
+      </c>
       <c r="Y17" s="43"/>
       <c r="Z17" s="43"/>
       <c r="AA17" s="43"/>
@@ -3061,7 +3091,7 @@
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK17" s="43">
         <f t="shared" si="2"/>
@@ -3070,7 +3100,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>20.454545454545453</v>
+        <v>22.090909090909093</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3092,7 +3122,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="98"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3126,7 +3156,9 @@
       <c r="W18" s="43">
         <v>9.5</v>
       </c>
-      <c r="X18" s="43"/>
+      <c r="X18" s="43">
+        <v>8.5</v>
+      </c>
       <c r="Y18" s="43"/>
       <c r="Z18" s="43"/>
       <c r="AA18" s="43"/>
@@ -3143,7 +3175,7 @@
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>41.5</v>
       </c>
       <c r="AK18" s="43">
         <f t="shared" si="2"/>
@@ -3152,7 +3184,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>22.09090909090909</v>
+        <v>24.409090909090907</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3174,7 +3206,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="99"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3208,7 +3240,9 @@
       <c r="W19" s="43">
         <v>9.5</v>
       </c>
-      <c r="X19" s="43"/>
+      <c r="X19" s="43">
+        <v>8.5</v>
+      </c>
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
       <c r="AA19" s="43"/>
@@ -3225,7 +3259,7 @@
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>41.5</v>
       </c>
       <c r="AK19" s="43">
         <f t="shared" si="2"/>
@@ -3234,7 +3268,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>20.045454545454547</v>
+        <v>22.363636363636363</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3256,7 +3290,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="98"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3290,7 +3324,9 @@
       <c r="W20" s="43">
         <v>10</v>
       </c>
-      <c r="X20" s="43"/>
+      <c r="X20" s="43">
+        <v>6</v>
+      </c>
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="43"/>
@@ -3307,7 +3343,7 @@
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>42.5</v>
       </c>
       <c r="AK20" s="43">
         <f t="shared" si="2"/>
@@ -3316,7 +3352,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>22.636363636363637</v>
+        <v>24.272727272727273</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3338,7 +3374,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="99"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3410,7 +3446,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="106"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3444,7 +3480,9 @@
       <c r="W22" s="43">
         <v>9.5</v>
       </c>
-      <c r="X22" s="43"/>
+      <c r="X22" s="43">
+        <v>7</v>
+      </c>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
       <c r="AA22" s="43"/>
@@ -3461,7 +3499,7 @@
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>39.5</v>
+        <v>46.5</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
@@ -3470,7 +3508,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>22.227272727272727</v>
+        <v>24.136363636363637</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3492,7 +3530,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="107"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3526,7 +3564,9 @@
       <c r="W23" s="43">
         <v>9.5</v>
       </c>
-      <c r="X23" s="43"/>
+      <c r="X23" s="43">
+        <v>7</v>
+      </c>
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
       <c r="AA23" s="43"/>
@@ -3543,7 +3583,7 @@
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
-        <v>39.5</v>
+        <v>46.5</v>
       </c>
       <c r="AK23" s="43">
         <f t="shared" si="2"/>
@@ -3552,7 +3592,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>23.86363636363636</v>
+        <v>25.772727272727273</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3574,7 +3614,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="98"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3608,7 +3648,9 @@
       <c r="W24" s="43">
         <v>9.5</v>
       </c>
-      <c r="X24" s="43"/>
+      <c r="X24" s="43">
+        <v>8.5</v>
+      </c>
       <c r="Y24" s="43"/>
       <c r="Z24" s="43"/>
       <c r="AA24" s="43"/>
@@ -3625,7 +3667,7 @@
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
-        <v>35.5</v>
+        <v>44</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="2"/>
@@ -3634,7 +3676,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>19.227272727272727</v>
+        <v>21.545454545454547</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3656,7 +3698,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="105"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3690,7 +3732,9 @@
       <c r="W25" s="51">
         <v>9.5</v>
       </c>
-      <c r="X25" s="51"/>
+      <c r="X25" s="51">
+        <v>8.5</v>
+      </c>
       <c r="Y25" s="51"/>
       <c r="Z25" s="51"/>
       <c r="AA25" s="51"/>
@@ -3707,7 +3751,7 @@
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
-        <v>35.5</v>
+        <v>44</v>
       </c>
       <c r="AK25" s="51">
         <f t="shared" si="2"/>
@@ -3716,7 +3760,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>20.590909090909093</v>
+        <v>22.90909090909091</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3738,7 +3782,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="102"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3820,7 +3864,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="103"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3902,7 +3946,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="104"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3984,7 +4028,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="103"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -4066,7 +4110,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -4148,7 +4192,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="103"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4230,7 +4274,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="87"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4312,7 +4356,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="88"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4394,7 +4438,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="91"/>
+      <c r="H34" s="93"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4476,7 +4520,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4558,7 +4602,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="87"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4640,7 +4684,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4722,7 +4766,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="91"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4804,7 +4848,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="92"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4886,7 +4930,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
+      <c r="H40" s="94"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -4968,7 +5012,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="87"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -5050,7 +5094,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="88"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -5132,7 +5176,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="87"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -5214,7 +5258,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="88"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -5296,7 +5340,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="94"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5378,7 +5422,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="95"/>
+      <c r="H46" s="107"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5460,7 +5504,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="89"/>
+      <c r="H47" s="103"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5542,7 +5586,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="90"/>
+      <c r="H48" s="104"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5672,9 +5716,9 @@
         <f>AVERAGE(W2:W48)</f>
         <v>9.4333333333333336</v>
       </c>
-      <c r="X49" s="65" t="e">
+      <c r="X49" s="65">
         <f>AVERAGE(X2:X25)</f>
-        <v>#DIV/0!</v>
+        <v>8.7727272727272734</v>
       </c>
       <c r="Y49" s="65" t="e">
         <f>AVERAGE(Y2:Y25)</f>
@@ -5722,7 +5766,7 @@
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>35.833333333333336</v>
+        <v>43.875</v>
       </c>
       <c r="AK49" s="65">
         <f>AVERAGE(AK2:AK25)</f>
@@ -5734,7 +5778,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>20.863636363636363</v>
+        <v>23.056818181818176</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5936,9 +5980,9 @@
         <f t="shared" si="5"/>
         <v>9.4333333333333336</v>
       </c>
-      <c r="X51" s="65" t="e">
+      <c r="X51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8.7727272727272734</v>
       </c>
       <c r="Y51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -5986,7 +6030,7 @@
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
-        <v>36.031914893617021</v>
+        <v>40.138297872340424</v>
       </c>
       <c r="AK51" s="65">
         <f t="shared" si="5"/>
@@ -5998,7 +6042,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>21.063829787234045</v>
+        <v>22.183752417794974</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -6068,9 +6112,9 @@
         <f t="shared" si="6"/>
         <v>0.59924194537007303</v>
       </c>
-      <c r="X52" s="65" t="e">
+      <c r="X52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.2220910332321764</v>
       </c>
       <c r="Y52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6118,7 +6162,7 @@
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
-        <v>4.6078905096715612</v>
+        <v>7.3593345986869076</v>
       </c>
       <c r="AK52" s="65">
         <f t="shared" si="6"/>
@@ -6130,7 +6174,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>3.3717541660873751</v>
+        <v>3.9174806266053097</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6202,7 +6246,7 @@
       </c>
       <c r="X53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y53" s="65">
         <f t="shared" si="7"/>
@@ -6250,7 +6294,7 @@
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK53" s="65">
         <f t="shared" si="7"/>
@@ -6262,7 +6306,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>24.545454545454547</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -6334,7 +6378,7 @@
       </c>
       <c r="X54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y54" s="69">
         <f t="shared" si="8"/>
@@ -6400,6 +6444,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6410,19 +6467,6 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6431,9 +6475,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6619,26 +6666,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6662,9 +6698,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681FFC8F-EE28-41E4-83CA-05B8ED6DDE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674414C2-1E9E-4E60-9A1A-CFE2F9B5B657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1341,6 +1330,37 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,18 +1371,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,25 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,7 +1619,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1779,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="101"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1806,7 +1795,9 @@
       <c r="M2" s="43">
         <v>9</v>
       </c>
-      <c r="N2" s="43"/>
+      <c r="N2" s="43">
+        <v>10</v>
+      </c>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
       <c r="Q2" s="43"/>
@@ -1839,7 +1830,7 @@
       <c r="AH2" s="44"/>
       <c r="AI2" s="45">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
@@ -1852,7 +1843,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>25.363636363636363</v>
+        <v>28.09090909090909</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1874,7 +1865,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="102"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1890,7 +1881,9 @@
       <c r="M3" s="43">
         <v>9.5</v>
       </c>
-      <c r="N3" s="43"/>
+      <c r="N3" s="43">
+        <v>10</v>
+      </c>
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
       <c r="Q3" s="43"/>
@@ -1923,7 +1916,7 @@
       <c r="AH3" s="44"/>
       <c r="AI3" s="45">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
@@ -1936,7 +1929,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>26.18181818181818</v>
+        <v>28.909090909090907</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1958,7 +1951,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="101"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1974,7 +1967,9 @@
       <c r="M4" s="43">
         <v>9</v>
       </c>
-      <c r="N4" s="43"/>
+      <c r="N4" s="43">
+        <v>8</v>
+      </c>
       <c r="O4" s="43"/>
       <c r="P4" s="43"/>
       <c r="Q4" s="43"/>
@@ -2007,7 +2002,7 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="45">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
@@ -2020,7 +2015,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>24.545454545454547</v>
+        <v>26.727272727272727</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2042,7 +2037,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="102"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2058,7 +2053,9 @@
       <c r="M5" s="43">
         <v>10</v>
       </c>
-      <c r="N5" s="43"/>
+      <c r="N5" s="43">
+        <v>10</v>
+      </c>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="43"/>
@@ -2091,7 +2088,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="45">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
@@ -2104,7 +2101,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>27.272727272727273</v>
+        <v>30</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2126,7 +2123,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="101"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2142,7 +2139,9 @@
       <c r="M6" s="43">
         <v>9</v>
       </c>
-      <c r="N6" s="43"/>
+      <c r="N6" s="43">
+        <v>10</v>
+      </c>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="43"/>
@@ -2175,7 +2174,7 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="45">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
@@ -2188,7 +2187,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>23.727272727272727</v>
+        <v>26.454545454545453</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2210,7 +2209,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="102"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2226,7 +2225,9 @@
       <c r="M7" s="43">
         <v>10</v>
       </c>
-      <c r="N7" s="43"/>
+      <c r="N7" s="43">
+        <v>10</v>
+      </c>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="43"/>
@@ -2259,7 +2260,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
@@ -2272,7 +2273,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>24.272727272727273</v>
+        <v>27</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2294,7 +2295,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="101"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2310,7 +2311,9 @@
       <c r="M8" s="43">
         <v>9</v>
       </c>
-      <c r="N8" s="43"/>
+      <c r="N8" s="43">
+        <v>10</v>
+      </c>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="43"/>
@@ -2343,7 +2346,7 @@
       <c r="AH8" s="44"/>
       <c r="AI8" s="45">
         <f t="shared" si="0"/>
-        <v>43.5</v>
+        <v>53.5</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
@@ -2356,7 +2359,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>24.68181818181818</v>
+        <v>27.409090909090907</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2378,7 +2381,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="102"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2394,7 +2397,9 @@
       <c r="M9" s="43">
         <v>10</v>
       </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="43">
+        <v>10</v>
+      </c>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="43"/>
@@ -2427,7 +2432,7 @@
       <c r="AH9" s="44"/>
       <c r="AI9" s="45">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
@@ -2440,7 +2445,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>25.09090909090909</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2462,7 +2467,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="101"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2478,7 +2483,9 @@
       <c r="M10" s="43">
         <v>9</v>
       </c>
-      <c r="N10" s="43"/>
+      <c r="N10" s="43">
+        <v>10</v>
+      </c>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
@@ -2511,7 +2518,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
@@ -2524,7 +2531,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>26.454545454545453</v>
+        <v>29.18181818181818</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2546,7 +2553,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2562,7 +2569,9 @@
       <c r="M11" s="43">
         <v>8</v>
       </c>
-      <c r="N11" s="43"/>
+      <c r="N11" s="43">
+        <v>9.5</v>
+      </c>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
@@ -2595,7 +2604,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45">
         <f t="shared" si="0"/>
-        <v>43.5</v>
+        <v>53</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
@@ -2608,7 +2617,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>25.5</v>
+        <v>28.090909090909093</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2630,7 +2639,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="101"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2646,7 +2655,9 @@
       <c r="M12" s="43">
         <v>10</v>
       </c>
-      <c r="N12" s="43"/>
+      <c r="N12" s="43">
+        <v>10</v>
+      </c>
       <c r="O12" s="43"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
@@ -2679,7 +2690,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45">
         <f t="shared" si="0"/>
-        <v>46.5</v>
+        <v>56.5</v>
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
@@ -2692,7 +2703,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>25.636363636363637</v>
+        <v>28.363636363636367</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2714,7 +2725,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="102"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2730,7 +2741,9 @@
       <c r="M13" s="43">
         <v>8</v>
       </c>
-      <c r="N13" s="43"/>
+      <c r="N13" s="43">
+        <v>8</v>
+      </c>
       <c r="O13" s="43"/>
       <c r="P13" s="43"/>
       <c r="Q13" s="46"/>
@@ -2763,7 +2776,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
@@ -2776,7 +2789,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>24.681818181818183</v>
+        <v>26.863636363636363</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2798,7 +2811,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="101"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2814,7 +2827,9 @@
       <c r="M14" s="43">
         <v>9</v>
       </c>
-      <c r="N14" s="43"/>
+      <c r="N14" s="43">
+        <v>9</v>
+      </c>
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
@@ -2847,7 +2862,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
@@ -2860,7 +2875,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>24.545454545454547</v>
+        <v>27</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2882,7 +2897,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="102"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2898,7 +2913,9 @@
       <c r="M15" s="43">
         <v>8.5</v>
       </c>
-      <c r="N15" s="43"/>
+      <c r="N15" s="43">
+        <v>9.5</v>
+      </c>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="48"/>
@@ -2931,7 +2948,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45">
         <f t="shared" si="0"/>
-        <v>38.5</v>
+        <v>48</v>
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
@@ -2944,7 +2961,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>23.318181818181817</v>
+        <v>25.909090909090907</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -2966,7 +2983,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="89"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -3038,7 +3055,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="90"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -3054,7 +3071,9 @@
       <c r="M17" s="43">
         <v>8</v>
       </c>
-      <c r="N17" s="43"/>
+      <c r="N17" s="43">
+        <v>10</v>
+      </c>
       <c r="O17" s="43"/>
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
@@ -3087,7 +3106,7 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="45">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
@@ -3100,7 +3119,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>22.090909090909093</v>
+        <v>24.818181818181817</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3122,7 +3141,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="87"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3138,7 +3157,9 @@
       <c r="M18" s="43">
         <v>9</v>
       </c>
-      <c r="N18" s="43"/>
+      <c r="N18" s="43">
+        <v>10</v>
+      </c>
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="43"/>
@@ -3171,7 +3192,7 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
@@ -3184,7 +3205,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>24.409090909090907</v>
+        <v>27.136363636363633</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3206,7 +3227,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="88"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3222,7 +3243,9 @@
       <c r="M19" s="43">
         <v>8.5</v>
       </c>
-      <c r="N19" s="43"/>
+      <c r="N19" s="43">
+        <v>8.5</v>
+      </c>
       <c r="O19" s="43"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
@@ -3255,7 +3278,7 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="45">
         <f t="shared" si="0"/>
-        <v>40.5</v>
+        <v>49</v>
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
@@ -3268,7 +3291,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>22.363636363636363</v>
+        <v>24.68181818181818</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3290,7 +3313,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="87"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3306,7 +3329,9 @@
       <c r="M20" s="43">
         <v>7.5</v>
       </c>
-      <c r="N20" s="43"/>
+      <c r="N20" s="43">
+        <v>10</v>
+      </c>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
@@ -3339,7 +3364,7 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>46.5</v>
+        <v>56.5</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
@@ -3352,7 +3377,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>24.272727272727273</v>
+        <v>27</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3374,7 +3399,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="88"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3446,7 +3471,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="99"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3462,7 +3487,9 @@
       <c r="M22" s="43">
         <v>8</v>
       </c>
-      <c r="N22" s="43"/>
+      <c r="N22" s="43">
+        <v>10</v>
+      </c>
       <c r="O22" s="43"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
@@ -3495,7 +3522,7 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="45">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
@@ -3508,7 +3535,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>24.136363636363637</v>
+        <v>26.863636363636363</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3530,7 +3557,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="100"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3546,7 +3573,9 @@
       <c r="M23" s="43">
         <v>9</v>
       </c>
-      <c r="N23" s="43"/>
+      <c r="N23" s="43">
+        <v>8</v>
+      </c>
       <c r="O23" s="43"/>
       <c r="P23" s="43"/>
       <c r="Q23" s="49"/>
@@ -3579,7 +3608,7 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="45">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
@@ -3592,7 +3621,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>25.772727272727273</v>
+        <v>27.954545454545453</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3614,7 +3643,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3630,7 +3659,9 @@
       <c r="M24" s="43">
         <v>8.5</v>
       </c>
-      <c r="N24" s="43"/>
+      <c r="N24" s="43">
+        <v>10</v>
+      </c>
       <c r="O24" s="43"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="49"/>
@@ -3663,7 +3694,7 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
@@ -3676,7 +3707,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>21.545454545454547</v>
+        <v>24.272727272727273</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3698,7 +3729,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="98"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3714,7 +3745,9 @@
       <c r="M25" s="51">
         <v>7</v>
       </c>
-      <c r="N25" s="51"/>
+      <c r="N25" s="51">
+        <v>9</v>
+      </c>
       <c r="O25" s="51"/>
       <c r="P25" s="51"/>
       <c r="Q25" s="51"/>
@@ -3747,7 +3780,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="50">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
@@ -3760,7 +3793,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>22.90909090909091</v>
+        <v>25.363636363636363</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3782,7 +3815,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="95"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3864,7 +3897,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="96"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3946,7 +3979,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -4028,7 +4061,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -4110,7 +4143,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="97"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -4192,7 +4225,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="96"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4274,7 +4307,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="91"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4356,7 +4389,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4438,7 +4471,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="93"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4520,7 +4553,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4602,7 +4635,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="91"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4684,7 +4717,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="92"/>
+      <c r="H37" s="88"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4766,7 +4799,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="93"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4848,7 +4881,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="105"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4930,7 +4963,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="94"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -5012,7 +5045,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="91"/>
+      <c r="H41" s="87"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -5094,7 +5127,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="92"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -5176,7 +5209,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="91"/>
+      <c r="H43" s="87"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -5258,7 +5291,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="92"/>
+      <c r="H44" s="88"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -5340,7 +5373,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="106"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5422,7 +5455,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="107"/>
+      <c r="H46" s="95"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5504,7 +5537,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="103"/>
+      <c r="H47" s="89"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5586,7 +5619,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="104"/>
+      <c r="H48" s="90"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5676,9 +5709,9 @@
         <f>AVERAGE(M2:M35)</f>
         <v>8.65625</v>
       </c>
-      <c r="N49" s="65" t="e">
+      <c r="N49" s="65">
         <f>AVERAGE(N2:N32)</f>
-        <v>#DIV/0!</v>
+        <v>9.5227272727272734</v>
       </c>
       <c r="O49" s="65" t="e">
         <f>AVERAGE(O2:O32)</f>
@@ -5762,7 +5795,7 @@
       </c>
       <c r="AI49" s="67">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>40.666666666666664</v>
+        <v>49.395833333333336</v>
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
@@ -5778,7 +5811,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>23.056818181818176</v>
+        <v>25.4375</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5940,9 +5973,9 @@
         <f t="shared" si="5"/>
         <v>8.4777777777777779</v>
       </c>
-      <c r="N51" s="65" t="e">
+      <c r="N51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.5227272727272734</v>
       </c>
       <c r="O51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -6026,7 +6059,7 @@
       </c>
       <c r="AI51" s="67">
         <f t="shared" si="5"/>
-        <v>41.202127659574465</v>
+        <v>45.659574468085104</v>
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
@@ -6042,7 +6075,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>22.183752417794974</v>
+        <v>23.399419729206969</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -6072,9 +6105,9 @@
         <f t="shared" si="6"/>
         <v>1.7384539747207055</v>
       </c>
-      <c r="N52" s="65" t="e">
+      <c r="N52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.74765144551634743</v>
       </c>
       <c r="O52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6158,7 +6191,7 @@
       </c>
       <c r="AI52" s="67">
         <f t="shared" si="6"/>
-        <v>8.7094773307388085</v>
+        <v>10.999064378677422</v>
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
@@ -6174,7 +6207,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>3.9174806266053097</v>
+        <v>4.7781160634982758</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6206,7 +6239,7 @@
       </c>
       <c r="N53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O53" s="65">
         <f t="shared" si="7"/>
@@ -6290,7 +6323,7 @@
       </c>
       <c r="AI53" s="67">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
@@ -6306,7 +6339,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>27.272727272727273</v>
+        <v>30</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -6338,7 +6371,7 @@
       </c>
       <c r="N54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O54" s="69">
         <f t="shared" si="8"/>
@@ -6444,19 +6477,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6467,6 +6487,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6484,6 +6517,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6665,12 +6704,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
@@ -6680,6 +6713,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6695,20 +6744,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674414C2-1E9E-4E60-9A1A-CFE2F9B5B657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11C8CF-BAFD-4CE7-87FA-33A1FC269A07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1330,47 +1330,28 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,6 +1369,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="96"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="97"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="96"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="97"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="96"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="97"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="96"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="97"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="96"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="97"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="96"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="97"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="100"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="101"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="98"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="99"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="98"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="99"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="106"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="107"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="98"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="105"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="102"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3831,7 +3831,9 @@
       <c r="M26" s="54">
         <v>10</v>
       </c>
-      <c r="N26" s="54"/>
+      <c r="N26" s="54">
+        <v>10</v>
+      </c>
       <c r="O26" s="54"/>
       <c r="P26" s="54"/>
       <c r="Q26" s="54"/>
@@ -3862,7 +3864,7 @@
       <c r="AH26" s="55"/>
       <c r="AI26" s="56">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
@@ -3875,7 +3877,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>21.409090909090914</v>
+        <v>24.13636363636364</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -3897,7 +3899,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="103"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3913,7 +3915,9 @@
       <c r="M27" s="59">
         <v>5.5</v>
       </c>
-      <c r="N27" s="59"/>
+      <c r="N27" s="59">
+        <v>10</v>
+      </c>
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
@@ -3944,7 +3948,7 @@
       <c r="AH27" s="60"/>
       <c r="AI27" s="61">
         <f t="shared" si="0"/>
-        <v>40.5</v>
+        <v>50.5</v>
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
@@ -3957,7 +3961,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>20.727272727272727</v>
+        <v>23.454545454545457</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -3979,7 +3983,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="104"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -3995,7 +3999,9 @@
       <c r="M28" s="59">
         <v>9</v>
       </c>
-      <c r="N28" s="59"/>
+      <c r="N28" s="59">
+        <v>9</v>
+      </c>
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="59"/>
@@ -4026,7 +4032,7 @@
       <c r="AH28" s="60"/>
       <c r="AI28" s="61">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
@@ -4039,7 +4045,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>20.454545454545453</v>
+        <v>22.909090909090907</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -4061,7 +4067,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="103"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -4077,7 +4083,9 @@
       <c r="M29" s="59">
         <v>9</v>
       </c>
-      <c r="N29" s="59"/>
+      <c r="N29" s="59">
+        <v>10</v>
+      </c>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="59"/>
@@ -4108,7 +4116,7 @@
       <c r="AH29" s="60"/>
       <c r="AI29" s="61">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
@@ -4121,7 +4129,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>21.545454545454547</v>
+        <v>24.272727272727273</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -4143,7 +4151,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -4159,7 +4167,9 @@
       <c r="M30" s="59">
         <v>9</v>
       </c>
-      <c r="N30" s="59"/>
+      <c r="N30" s="59">
+        <v>10</v>
+      </c>
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
@@ -4190,7 +4200,7 @@
       <c r="AH30" s="60"/>
       <c r="AI30" s="61">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
@@ -4203,7 +4213,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>22.90909090909091</v>
+        <v>25.636363636363637</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -4225,7 +4235,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="103"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4241,7 +4251,9 @@
       <c r="M31" s="59">
         <v>10</v>
       </c>
-      <c r="N31" s="59"/>
+      <c r="N31" s="59">
+        <v>10</v>
+      </c>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="59"/>
@@ -4272,7 +4284,7 @@
       <c r="AH31" s="60"/>
       <c r="AI31" s="61">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
@@ -4285,7 +4297,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>23.454545454545453</v>
+        <v>26.18181818181818</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -4307,7 +4319,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="87"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4323,7 +4335,9 @@
       <c r="M32" s="59">
         <v>7</v>
       </c>
-      <c r="N32" s="59"/>
+      <c r="N32" s="59">
+        <v>7</v>
+      </c>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="59"/>
@@ -4354,7 +4368,7 @@
       <c r="AH32" s="60"/>
       <c r="AI32" s="61">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
@@ -4367,7 +4381,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>18.954545454545453</v>
+        <v>20.863636363636367</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4389,7 +4403,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="88"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4405,7 +4419,9 @@
       <c r="M33" s="59">
         <v>5</v>
       </c>
-      <c r="N33" s="59"/>
+      <c r="N33" s="59">
+        <v>10</v>
+      </c>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="59"/>
@@ -4436,7 +4452,7 @@
       <c r="AH33" s="60"/>
       <c r="AI33" s="61">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
@@ -4449,7 +4465,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>20.863636363636367</v>
+        <v>23.590909090909093</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4471,7 +4487,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="91"/>
+      <c r="H34" s="93"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4487,7 +4503,9 @@
       <c r="M34" s="59">
         <v>10</v>
       </c>
-      <c r="N34" s="59"/>
+      <c r="N34" s="59">
+        <v>9</v>
+      </c>
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="59"/>
@@ -4518,7 +4536,7 @@
       <c r="AH34" s="60"/>
       <c r="AI34" s="61">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
@@ -4531,7 +4549,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>23.318181818181817</v>
+        <v>25.772727272727273</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4553,7 +4571,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4569,7 +4587,9 @@
       <c r="M35" s="59">
         <v>9</v>
       </c>
-      <c r="N35" s="59"/>
+      <c r="N35" s="59">
+        <v>10</v>
+      </c>
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="59"/>
@@ -4600,7 +4620,7 @@
       <c r="AH35" s="60"/>
       <c r="AI35" s="61">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
@@ -4613,7 +4633,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>22.5</v>
+        <v>25.227272727272727</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4635,7 +4655,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="87"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4651,7 +4671,9 @@
       <c r="M36" s="59">
         <v>10</v>
       </c>
-      <c r="N36" s="59"/>
+      <c r="N36" s="59">
+        <v>9</v>
+      </c>
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="59"/>
@@ -4682,7 +4704,7 @@
       <c r="AH36" s="60"/>
       <c r="AI36" s="61">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
@@ -4695,7 +4717,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>22.90909090909091</v>
+        <v>25.363636363636363</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4717,7 +4739,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4733,7 +4755,9 @@
       <c r="M37" s="59">
         <v>8.5</v>
       </c>
-      <c r="N37" s="59"/>
+      <c r="N37" s="59">
+        <v>10</v>
+      </c>
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="59"/>
@@ -4764,7 +4788,7 @@
       <c r="AH37" s="60"/>
       <c r="AI37" s="61">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>52.5</v>
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
@@ -4777,7 +4801,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>22.227272727272727</v>
+        <v>24.954545454545453</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -4799,7 +4823,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="91"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4815,7 +4839,9 @@
       <c r="M38" s="59">
         <v>8.5</v>
       </c>
-      <c r="N38" s="59"/>
+      <c r="N38" s="59">
+        <v>10</v>
+      </c>
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="59"/>
@@ -4846,7 +4872,7 @@
       <c r="AH38" s="60"/>
       <c r="AI38" s="61">
         <f t="shared" si="0"/>
-        <v>43.5</v>
+        <v>53.5</v>
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
@@ -4859,7 +4885,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>21.545454545454547</v>
+        <v>24.272727272727273</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -4881,7 +4907,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="92"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4897,7 +4923,9 @@
       <c r="M39" s="59">
         <v>9.5</v>
       </c>
-      <c r="N39" s="59"/>
+      <c r="N39" s="59">
+        <v>7.5</v>
+      </c>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="59"/>
@@ -4928,7 +4956,7 @@
       <c r="AH39" s="60"/>
       <c r="AI39" s="61">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>49.5</v>
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
@@ -4941,7 +4969,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>21.13636363636364</v>
+        <v>23.181818181818183</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -4963,7 +4991,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
+      <c r="H40" s="94"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -4979,7 +5007,9 @@
       <c r="M40" s="59">
         <v>6.5</v>
       </c>
-      <c r="N40" s="59"/>
+      <c r="N40" s="59">
+        <v>9.5</v>
+      </c>
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="59"/>
@@ -5010,7 +5040,7 @@
       <c r="AH40" s="60"/>
       <c r="AI40" s="61">
         <f t="shared" si="0"/>
-        <v>39.5</v>
+        <v>49</v>
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
@@ -5023,7 +5053,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>20.454545454545453</v>
+        <v>23.045454545454547</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -5045,7 +5075,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="87"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -5061,7 +5091,9 @@
       <c r="M41" s="59">
         <v>0</v>
       </c>
-      <c r="N41" s="59"/>
+      <c r="N41" s="59">
+        <v>0</v>
+      </c>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -5127,7 +5159,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="88"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -5143,7 +5175,9 @@
       <c r="M42" s="59">
         <v>7</v>
       </c>
-      <c r="N42" s="59"/>
+      <c r="N42" s="59">
+        <v>9.5</v>
+      </c>
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
       <c r="Q42" s="59"/>
@@ -5174,7 +5208,7 @@
       <c r="AH42" s="60"/>
       <c r="AI42" s="61">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>48.5</v>
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
@@ -5187,7 +5221,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>20.727272727272727</v>
+        <v>23.31818181818182</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -5209,7 +5243,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="87"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -5225,7 +5259,9 @@
       <c r="M43" s="59">
         <v>9</v>
       </c>
-      <c r="N43" s="59"/>
+      <c r="N43" s="59">
+        <v>8</v>
+      </c>
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
       <c r="Q43" s="59"/>
@@ -5256,7 +5292,7 @@
       <c r="AH43" s="60"/>
       <c r="AI43" s="61">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
@@ -5269,7 +5305,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>20.727272727272727</v>
+        <v>22.909090909090907</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -5291,7 +5327,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="88"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -5307,7 +5343,9 @@
       <c r="M44" s="59">
         <v>8.5</v>
       </c>
-      <c r="N44" s="59"/>
+      <c r="N44" s="59">
+        <v>8</v>
+      </c>
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
       <c r="Q44" s="59"/>
@@ -5338,7 +5376,7 @@
       <c r="AH44" s="60"/>
       <c r="AI44" s="61">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
@@ -5351,7 +5389,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>18.68181818181818</v>
+        <v>20.863636363636363</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -5373,7 +5411,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="94"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5389,7 +5427,9 @@
       <c r="M45" s="83">
         <v>9.5</v>
       </c>
-      <c r="N45" s="83"/>
+      <c r="N45" s="83">
+        <v>7.5</v>
+      </c>
       <c r="O45" s="83"/>
       <c r="P45" s="83"/>
       <c r="Q45" s="84"/>
@@ -5420,7 +5460,7 @@
       <c r="AH45" s="85"/>
       <c r="AI45" s="61">
         <f t="shared" si="0"/>
-        <v>45.5</v>
+        <v>53</v>
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
@@ -5433,7 +5473,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>22.909090909090907</v>
+        <v>24.954545454545453</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -5455,7 +5495,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="95"/>
+      <c r="H46" s="107"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5471,7 +5511,9 @@
       <c r="M46" s="83">
         <v>8.5</v>
       </c>
-      <c r="N46" s="83"/>
+      <c r="N46" s="83">
+        <v>10</v>
+      </c>
       <c r="O46" s="83"/>
       <c r="P46" s="83"/>
       <c r="Q46" s="84"/>
@@ -5502,7 +5544,7 @@
       <c r="AH46" s="85"/>
       <c r="AI46" s="61">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>57.5</v>
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
@@ -5515,7 +5557,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>23.454545454545453</v>
+        <v>26.18181818181818</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5537,7 +5579,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="89"/>
+      <c r="H47" s="103"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5553,7 +5595,9 @@
       <c r="M47" s="83">
         <v>9</v>
       </c>
-      <c r="N47" s="83"/>
+      <c r="N47" s="83">
+        <v>10</v>
+      </c>
       <c r="O47" s="83"/>
       <c r="P47" s="83"/>
       <c r="Q47" s="84"/>
@@ -5584,7 +5628,7 @@
       <c r="AH47" s="85"/>
       <c r="AI47" s="61">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
@@ -5597,7 +5641,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>22.5</v>
+        <v>25.227272727272727</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5619,7 +5663,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="90"/>
+      <c r="H48" s="104"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5635,7 +5679,9 @@
       <c r="M48" s="83">
         <v>10</v>
       </c>
-      <c r="N48" s="83"/>
+      <c r="N48" s="83">
+        <v>7</v>
+      </c>
       <c r="O48" s="83"/>
       <c r="P48" s="83"/>
       <c r="Q48" s="83"/>
@@ -5666,7 +5712,7 @@
       <c r="AH48" s="85"/>
       <c r="AI48" s="61">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
@@ -5679,7 +5725,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>21.136363636363637</v>
+        <v>23.045454545454543</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -5710,8 +5756,8 @@
         <v>8.65625</v>
       </c>
       <c r="N49" s="65">
-        <f>AVERAGE(N2:N32)</f>
-        <v>9.5227272727272734</v>
+        <f>AVERAGE(N2:N48)</f>
+        <v>9.1222222222222218</v>
       </c>
       <c r="O49" s="65" t="e">
         <f>AVERAGE(O2:O32)</f>
@@ -5841,9 +5887,9 @@
         <f t="shared" si="4"/>
         <v>8.1739130434782616</v>
       </c>
-      <c r="N50" s="65" t="e">
+      <c r="N50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.7391304347826093</v>
       </c>
       <c r="O50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -5927,7 +5973,7 @@
       </c>
       <c r="AI50" s="67">
         <f t="shared" si="4"/>
-        <v>41.760869565217391</v>
+        <v>50.5</v>
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
@@ -5943,7 +5989,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>21.272727272727273</v>
+        <v>23.656126482213441</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -5975,7 +6021,7 @@
       </c>
       <c r="N51" s="65">
         <f t="shared" si="5"/>
-        <v>9.5227272727272734</v>
+        <v>9.1222222222222218</v>
       </c>
       <c r="O51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -6059,7 +6105,7 @@
       </c>
       <c r="AI51" s="67">
         <f t="shared" si="5"/>
-        <v>45.659574468085104</v>
+        <v>49.936170212765958</v>
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
@@ -6075,7 +6121,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>23.399419729206969</v>
+        <v>24.565764023210829</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -6107,7 +6153,7 @@
       </c>
       <c r="N52" s="65">
         <f t="shared" si="6"/>
-        <v>0.74765144551634743</v>
+        <v>1.6792705246473809</v>
       </c>
       <c r="O52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6191,7 +6237,7 @@
       </c>
       <c r="AI52" s="67">
         <f t="shared" si="6"/>
-        <v>10.999064378677422</v>
+        <v>10.978544798079623</v>
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
@@ -6207,7 +6253,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>4.7781160634982758</v>
+        <v>4.499998088699229</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6371,7 +6417,7 @@
       </c>
       <c r="N54" s="69">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O54" s="69">
         <f t="shared" si="8"/>
@@ -6477,6 +6523,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6487,19 +6546,6 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6517,12 +6563,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6704,6 +6744,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
@@ -6713,22 +6759,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6744,4 +6774,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11C8CF-BAFD-4CE7-87FA-33A1FC269A07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AF95E-0E00-43D3-AAFF-B900DB73F2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1330,6 +1341,37 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,18 +1382,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,25 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,7 +1630,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1790,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="101"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1865,7 +1876,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="102"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1951,7 +1962,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="101"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2037,7 +2048,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="102"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2123,7 +2134,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="101"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2209,7 +2220,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="102"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2295,7 +2306,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="101"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2381,7 +2392,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="102"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2467,7 +2478,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="101"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2553,7 +2564,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2639,7 +2650,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="101"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2725,7 +2736,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="102"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2811,7 +2822,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="101"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2897,7 +2908,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="102"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2983,7 +2994,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="89"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -3055,7 +3066,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="90"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -3141,7 +3152,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="87"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3227,7 +3238,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="88"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3313,7 +3324,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="87"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3399,7 +3410,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="88"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3471,7 +3482,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="99"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3557,7 +3568,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="100"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3643,7 +3654,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3729,7 +3740,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="98"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3815,7 +3826,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="95"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3851,7 +3862,9 @@
       <c r="W26" s="54">
         <v>10</v>
       </c>
-      <c r="X26" s="54"/>
+      <c r="X26" s="54">
+        <v>9</v>
+      </c>
       <c r="Y26" s="54"/>
       <c r="Z26" s="54"/>
       <c r="AA26" s="54"/>
@@ -3868,7 +3881,7 @@
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
-        <v>35.5</v>
+        <v>44.5</v>
       </c>
       <c r="AK26" s="57">
         <f t="shared" si="2"/>
@@ -3877,7 +3890,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>24.13636363636364</v>
+        <v>26.590909090909093</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -3899,7 +3912,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="96"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3935,7 +3948,9 @@
       <c r="W27" s="59">
         <v>10</v>
       </c>
-      <c r="X27" s="59"/>
+      <c r="X27" s="59">
+        <v>9</v>
+      </c>
       <c r="Y27" s="59"/>
       <c r="Z27" s="59"/>
       <c r="AA27" s="59"/>
@@ -3952,7 +3967,7 @@
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
-        <v>35.5</v>
+        <v>44.5</v>
       </c>
       <c r="AK27" s="62">
         <f t="shared" si="2"/>
@@ -3961,7 +3976,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>23.454545454545457</v>
+        <v>25.90909090909091</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -3983,7 +3998,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -4019,7 +4034,9 @@
       <c r="W28" s="59">
         <v>9</v>
       </c>
-      <c r="X28" s="59"/>
+      <c r="X28" s="59">
+        <v>8</v>
+      </c>
       <c r="Y28" s="59"/>
       <c r="Z28" s="59"/>
       <c r="AA28" s="59"/>
@@ -4036,7 +4053,7 @@
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AK28" s="62">
         <f t="shared" si="2"/>
@@ -4045,7 +4062,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>22.909090909090907</v>
+        <v>25.09090909090909</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -4067,7 +4084,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -4103,7 +4120,9 @@
       <c r="W29" s="59">
         <v>9</v>
       </c>
-      <c r="X29" s="59"/>
+      <c r="X29" s="59">
+        <v>8</v>
+      </c>
       <c r="Y29" s="59"/>
       <c r="Z29" s="59"/>
       <c r="AA29" s="59"/>
@@ -4120,7 +4139,7 @@
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AK29" s="62">
         <f t="shared" si="2"/>
@@ -4129,7 +4148,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>24.272727272727273</v>
+        <v>26.454545454545453</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -4151,7 +4170,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="97"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -4187,7 +4206,9 @@
       <c r="W30" s="59">
         <v>10</v>
       </c>
-      <c r="X30" s="59"/>
+      <c r="X30" s="59">
+        <v>10</v>
+      </c>
       <c r="Y30" s="59"/>
       <c r="Z30" s="59"/>
       <c r="AA30" s="59"/>
@@ -4204,7 +4225,7 @@
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AK30" s="62">
         <f t="shared" si="2"/>
@@ -4213,7 +4234,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>25.636363636363637</v>
+        <v>28.363636363636363</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -4235,7 +4256,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="96"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4271,7 +4292,9 @@
       <c r="W31" s="59">
         <v>10</v>
       </c>
-      <c r="X31" s="59"/>
+      <c r="X31" s="59">
+        <v>10</v>
+      </c>
       <c r="Y31" s="59"/>
       <c r="Z31" s="59"/>
       <c r="AA31" s="59"/>
@@ -4288,7 +4311,7 @@
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AK31" s="62">
         <f t="shared" si="2"/>
@@ -4297,7 +4320,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>26.18181818181818</v>
+        <v>28.909090909090907</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -4319,7 +4342,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="91"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4355,7 +4378,9 @@
       <c r="W32" s="59">
         <v>9</v>
       </c>
-      <c r="X32" s="59"/>
+      <c r="X32" s="59">
+        <v>3.5</v>
+      </c>
       <c r="Y32" s="59"/>
       <c r="Z32" s="59"/>
       <c r="AA32" s="59"/>
@@ -4372,7 +4397,7 @@
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
-        <v>33.5</v>
+        <v>37</v>
       </c>
       <c r="AK32" s="62">
         <f t="shared" si="2"/>
@@ -4381,7 +4406,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>20.863636363636367</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4403,7 +4428,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4439,7 +4464,9 @@
       <c r="W33" s="59">
         <v>9</v>
       </c>
-      <c r="X33" s="59"/>
+      <c r="X33" s="59">
+        <v>3.5</v>
+      </c>
       <c r="Y33" s="59"/>
       <c r="Z33" s="59"/>
       <c r="AA33" s="59"/>
@@ -4456,7 +4483,7 @@
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
-        <v>33.5</v>
+        <v>37</v>
       </c>
       <c r="AK33" s="62">
         <f t="shared" si="2"/>
@@ -4465,7 +4492,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>23.590909090909093</v>
+        <v>24.545454545454547</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4487,7 +4514,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="93"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4523,7 +4550,9 @@
       <c r="W34" s="59">
         <v>9.5</v>
       </c>
-      <c r="X34" s="59"/>
+      <c r="X34" s="59">
+        <v>10</v>
+      </c>
       <c r="Y34" s="59"/>
       <c r="Z34" s="59"/>
       <c r="AA34" s="59"/>
@@ -4540,7 +4569,7 @@
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>47.5</v>
       </c>
       <c r="AK34" s="62">
         <f t="shared" si="2"/>
@@ -4549,7 +4578,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>25.772727272727273</v>
+        <v>28.5</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4571,7 +4600,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4607,7 +4636,9 @@
       <c r="W35" s="59">
         <v>9.5</v>
       </c>
-      <c r="X35" s="59"/>
+      <c r="X35" s="59">
+        <v>10</v>
+      </c>
       <c r="Y35" s="59"/>
       <c r="Z35" s="59"/>
       <c r="AA35" s="59"/>
@@ -4624,7 +4655,7 @@
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>47.5</v>
       </c>
       <c r="AK35" s="62">
         <f t="shared" si="2"/>
@@ -4633,7 +4664,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>25.227272727272727</v>
+        <v>27.954545454545453</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4655,7 +4686,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="91"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4691,7 +4722,9 @@
       <c r="W36" s="59">
         <v>10</v>
       </c>
-      <c r="X36" s="59"/>
+      <c r="X36" s="59">
+        <v>9</v>
+      </c>
       <c r="Y36" s="59"/>
       <c r="Z36" s="59"/>
       <c r="AA36" s="59"/>
@@ -4708,7 +4741,7 @@
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AK36" s="62">
         <f t="shared" si="2"/>
@@ -4717,7 +4750,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>25.363636363636363</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4739,7 +4772,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="92"/>
+      <c r="H37" s="88"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4775,7 +4808,9 @@
       <c r="W37" s="59">
         <v>10</v>
       </c>
-      <c r="X37" s="59"/>
+      <c r="X37" s="59">
+        <v>9</v>
+      </c>
       <c r="Y37" s="59"/>
       <c r="Z37" s="59"/>
       <c r="AA37" s="59"/>
@@ -4792,7 +4827,7 @@
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AK37" s="62">
         <f t="shared" si="2"/>
@@ -4801,7 +4836,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>24.954545454545453</v>
+        <v>27.409090909090907</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -4823,7 +4858,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="93"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4859,7 +4894,9 @@
       <c r="W38" s="59">
         <v>8.5</v>
       </c>
-      <c r="X38" s="59"/>
+      <c r="X38" s="59">
+        <v>8</v>
+      </c>
       <c r="Y38" s="59"/>
       <c r="Z38" s="59"/>
       <c r="AA38" s="59"/>
@@ -4876,7 +4913,7 @@
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
-        <v>35.5</v>
+        <v>43.5</v>
       </c>
       <c r="AK38" s="62">
         <f t="shared" si="2"/>
@@ -4885,7 +4922,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>24.272727272727273</v>
+        <v>26.454545454545453</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -4907,7 +4944,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="105"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4943,7 +4980,9 @@
       <c r="W39" s="59">
         <v>8.5</v>
       </c>
-      <c r="X39" s="59"/>
+      <c r="X39" s="59">
+        <v>8</v>
+      </c>
       <c r="Y39" s="59"/>
       <c r="Z39" s="59"/>
       <c r="AA39" s="59"/>
@@ -4960,7 +4999,7 @@
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
-        <v>35.5</v>
+        <v>43.5</v>
       </c>
       <c r="AK39" s="62">
         <f t="shared" si="2"/>
@@ -4969,7 +5008,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>23.181818181818183</v>
+        <v>25.363636363636363</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -4991,7 +5030,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="94"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -5027,7 +5066,9 @@
       <c r="W40" s="59">
         <v>8.5</v>
       </c>
-      <c r="X40" s="59"/>
+      <c r="X40" s="59">
+        <v>8</v>
+      </c>
       <c r="Y40" s="59"/>
       <c r="Z40" s="59"/>
       <c r="AA40" s="59"/>
@@ -5044,7 +5085,7 @@
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
-        <v>35.5</v>
+        <v>43.5</v>
       </c>
       <c r="AK40" s="62">
         <f t="shared" si="2"/>
@@ -5053,7 +5094,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>23.045454545454547</v>
+        <v>25.227272727272727</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -5075,7 +5116,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="91"/>
+      <c r="H41" s="87"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -5111,7 +5152,9 @@
       <c r="W41" s="59">
         <v>10</v>
       </c>
-      <c r="X41" s="59"/>
+      <c r="X41" s="59">
+        <v>9</v>
+      </c>
       <c r="Y41" s="59"/>
       <c r="Z41" s="59"/>
       <c r="AA41" s="59"/>
@@ -5128,7 +5171,7 @@
       </c>
       <c r="AJ41" s="62">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AK41" s="62">
         <f t="shared" si="2"/>
@@ -5137,7 +5180,7 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="62">
         <f t="shared" si="3"/>
-        <v>14.727272727272728</v>
+        <v>17.18181818181818</v>
       </c>
       <c r="AN41" s="59"/>
     </row>
@@ -5159,7 +5202,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="92"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -5195,7 +5238,9 @@
       <c r="W42" s="59">
         <v>10</v>
       </c>
-      <c r="X42" s="59"/>
+      <c r="X42" s="59">
+        <v>9</v>
+      </c>
       <c r="Y42" s="59"/>
       <c r="Z42" s="59"/>
       <c r="AA42" s="59"/>
@@ -5212,7 +5257,7 @@
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AK42" s="62">
         <f t="shared" si="2"/>
@@ -5221,7 +5266,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>23.31818181818182</v>
+        <v>25.772727272727273</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -5243,7 +5288,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="91"/>
+      <c r="H43" s="87"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -5279,7 +5324,9 @@
       <c r="W43" s="59">
         <v>9</v>
       </c>
-      <c r="X43" s="59"/>
+      <c r="X43" s="59">
+        <v>7.5</v>
+      </c>
       <c r="Y43" s="59"/>
       <c r="Z43" s="59"/>
       <c r="AA43" s="59"/>
@@ -5296,7 +5343,7 @@
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>43.5</v>
       </c>
       <c r="AK43" s="62">
         <f t="shared" si="2"/>
@@ -5305,7 +5352,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>22.909090909090907</v>
+        <v>24.954545454545453</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -5327,7 +5374,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="92"/>
+      <c r="H44" s="88"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -5363,7 +5410,9 @@
       <c r="W44" s="59">
         <v>9</v>
       </c>
-      <c r="X44" s="59"/>
+      <c r="X44" s="59">
+        <v>7.5</v>
+      </c>
       <c r="Y44" s="59"/>
       <c r="Z44" s="59"/>
       <c r="AA44" s="59"/>
@@ -5380,7 +5429,7 @@
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>43.5</v>
       </c>
       <c r="AK44" s="62">
         <f t="shared" si="2"/>
@@ -5389,7 +5438,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>20.863636363636363</v>
+        <v>22.909090909090907</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -5411,7 +5460,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="106"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5447,7 +5496,9 @@
       <c r="W45" s="83">
         <v>9</v>
       </c>
-      <c r="X45" s="83"/>
+      <c r="X45" s="83">
+        <v>6</v>
+      </c>
       <c r="Y45" s="83"/>
       <c r="Z45" s="83"/>
       <c r="AA45" s="83"/>
@@ -5464,7 +5515,7 @@
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>44.5</v>
       </c>
       <c r="AK45" s="62">
         <f t="shared" si="2"/>
@@ -5473,7 +5524,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>24.954545454545453</v>
+        <v>26.590909090909093</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -5495,7 +5546,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="107"/>
+      <c r="H46" s="95"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5531,7 +5582,9 @@
       <c r="W46" s="83">
         <v>9</v>
       </c>
-      <c r="X46" s="83"/>
+      <c r="X46" s="83">
+        <v>6</v>
+      </c>
       <c r="Y46" s="83"/>
       <c r="Z46" s="83"/>
       <c r="AA46" s="83"/>
@@ -5548,7 +5601,7 @@
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>44.5</v>
       </c>
       <c r="AK46" s="62">
         <f t="shared" si="2"/>
@@ -5557,7 +5610,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>26.18181818181818</v>
+        <v>27.81818181818182</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5579,7 +5632,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="103"/>
+      <c r="H47" s="89"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5615,7 +5668,9 @@
       <c r="W47" s="83">
         <v>9.5</v>
       </c>
-      <c r="X47" s="83"/>
+      <c r="X47" s="83">
+        <v>8</v>
+      </c>
       <c r="Y47" s="83"/>
       <c r="Z47" s="83"/>
       <c r="AA47" s="83"/>
@@ -5632,7 +5687,7 @@
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>45.5</v>
       </c>
       <c r="AK47" s="62">
         <f t="shared" si="2"/>
@@ -5641,7 +5696,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>25.227272727272727</v>
+        <v>27.409090909090907</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5663,7 +5718,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="104"/>
+      <c r="H48" s="90"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5699,7 +5754,9 @@
       <c r="W48" s="83">
         <v>9.5</v>
       </c>
-      <c r="X48" s="83"/>
+      <c r="X48" s="83">
+        <v>8</v>
+      </c>
       <c r="Y48" s="83"/>
       <c r="Z48" s="83"/>
       <c r="AA48" s="83"/>
@@ -5716,7 +5773,7 @@
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>45.5</v>
       </c>
       <c r="AK48" s="62">
         <f t="shared" si="2"/>
@@ -5725,7 +5782,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>23.045454545454543</v>
+        <v>25.227272727272727</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -5927,9 +5984,9 @@
         <f t="shared" si="4"/>
         <v>9.3695652173913047</v>
       </c>
-      <c r="X50" s="65" t="e">
+      <c r="X50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
       <c r="Y50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -5977,7 +6034,7 @@
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
-        <v>36.239130434782609</v>
+        <v>44.239130434782609</v>
       </c>
       <c r="AK50" s="65">
         <f t="shared" si="4"/>
@@ -5989,7 +6046,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>23.656126482213441</v>
+        <v>25.837944664031625</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -6061,7 +6118,7 @@
       </c>
       <c r="X51" s="65">
         <f t="shared" si="5"/>
-        <v>8.7727272727272734</v>
+        <v>8.3777777777777782</v>
       </c>
       <c r="Y51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -6109,7 +6166,7 @@
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
-        <v>40.138297872340424</v>
+        <v>44.053191489361701</v>
       </c>
       <c r="AK51" s="65">
         <f t="shared" si="5"/>
@@ -6121,7 +6178,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>24.565764023210829</v>
+        <v>25.633462282398458</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -6193,7 +6250,7 @@
       </c>
       <c r="X52" s="65">
         <f t="shared" si="6"/>
-        <v>1.2220910332321764</v>
+        <v>1.5744968733028335</v>
       </c>
       <c r="Y52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6241,7 +6298,7 @@
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
-        <v>7.3593345986869076</v>
+        <v>6.5177300350935754</v>
       </c>
       <c r="AK52" s="65">
         <f t="shared" si="6"/>
@@ -6253,7 +6310,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>4.499998088699229</v>
+        <v>4.4499088987605804</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6457,7 +6514,7 @@
       </c>
       <c r="X54" s="69">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Y54" s="69">
         <f t="shared" si="8"/>
@@ -6523,19 +6580,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6546,6 +6590,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6554,12 +6611,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6745,15 +6799,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6777,17 +6842,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AF95E-0E00-43D3-AAFF-B900DB73F2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E2CDC-E3E9-41CA-AD1D-4A3D08AE568D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1341,47 +1330,28 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,6 +1369,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,7 +1619,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1779,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="96"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1829,7 +1818,9 @@
       <c r="X2" s="43">
         <v>9.5</v>
       </c>
-      <c r="Y2" s="43"/>
+      <c r="Y2" s="43">
+        <v>9</v>
+      </c>
       <c r="Z2" s="43"/>
       <c r="AA2" s="43"/>
       <c r="AB2" s="43"/>
@@ -1845,7 +1836,7 @@
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="43">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1854,7 +1845,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>28.09090909090909</v>
+        <v>30.545454545454543</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1876,7 +1867,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="97"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1915,7 +1906,9 @@
       <c r="X3" s="43">
         <v>9.5</v>
       </c>
-      <c r="Y3" s="43"/>
+      <c r="Y3" s="43">
+        <v>9</v>
+      </c>
       <c r="Z3" s="43"/>
       <c r="AA3" s="43"/>
       <c r="AB3" s="43"/>
@@ -1931,7 +1924,7 @@
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AK3" s="43">
         <f t="shared" si="2"/>
@@ -1940,7 +1933,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>28.909090909090907</v>
+        <v>31.36363636363636</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1962,7 +1955,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="96"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2001,7 +1994,9 @@
       <c r="X4" s="43">
         <v>10</v>
       </c>
-      <c r="Y4" s="43"/>
+      <c r="Y4" s="43">
+        <v>10</v>
+      </c>
       <c r="Z4" s="43"/>
       <c r="AA4" s="43"/>
       <c r="AB4" s="43"/>
@@ -2017,7 +2012,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" si="2"/>
@@ -2026,7 +2021,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>26.727272727272727</v>
+        <v>29.454545454545453</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2048,7 +2043,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="97"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2087,7 +2082,9 @@
       <c r="X5" s="43">
         <v>10</v>
       </c>
-      <c r="Y5" s="43"/>
+      <c r="Y5" s="43">
+        <v>10</v>
+      </c>
       <c r="Z5" s="43"/>
       <c r="AA5" s="43"/>
       <c r="AB5" s="43"/>
@@ -2103,7 +2100,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK5" s="43">
         <f t="shared" si="2"/>
@@ -2112,7 +2109,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>32.727272727272727</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2134,7 +2131,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="96"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2173,7 +2170,9 @@
       <c r="X6" s="43">
         <v>9</v>
       </c>
-      <c r="Y6" s="43"/>
+      <c r="Y6" s="43">
+        <v>7</v>
+      </c>
       <c r="Z6" s="43"/>
       <c r="AA6" s="43"/>
       <c r="AB6" s="43"/>
@@ -2189,7 +2188,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AK6" s="43">
         <f t="shared" si="2"/>
@@ -2198,7 +2197,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>26.454545454545453</v>
+        <v>28.363636363636363</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2220,7 +2219,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="97"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2259,7 +2258,9 @@
       <c r="X7" s="43">
         <v>9</v>
       </c>
-      <c r="Y7" s="43"/>
+      <c r="Y7" s="43">
+        <v>7</v>
+      </c>
       <c r="Z7" s="43"/>
       <c r="AA7" s="43"/>
       <c r="AB7" s="43"/>
@@ -2275,7 +2276,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AK7" s="43">
         <f t="shared" si="2"/>
@@ -2284,7 +2285,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28.909090909090907</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2306,7 +2307,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="96"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2345,7 +2346,9 @@
       <c r="X8" s="43">
         <v>9.5</v>
       </c>
-      <c r="Y8" s="43"/>
+      <c r="Y8" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Z8" s="43"/>
       <c r="AA8" s="43"/>
       <c r="AB8" s="43"/>
@@ -2361,7 +2364,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>56.5</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
@@ -2370,7 +2373,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>27.409090909090907</v>
+        <v>30</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2392,7 +2395,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="97"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2431,7 +2434,9 @@
       <c r="X9" s="43">
         <v>9.5</v>
       </c>
-      <c r="Y9" s="43"/>
+      <c r="Y9" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Z9" s="43"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="43"/>
@@ -2447,7 +2452,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>56.5</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
@@ -2456,7 +2461,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>27.818181818181817</v>
+        <v>30.40909090909091</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2478,7 +2483,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="96"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2517,7 +2522,9 @@
       <c r="X10" s="43">
         <v>10</v>
       </c>
-      <c r="Y10" s="43"/>
+      <c r="Y10" s="43">
+        <v>10</v>
+      </c>
       <c r="Z10" s="43"/>
       <c r="AA10" s="43"/>
       <c r="AB10" s="43"/>
@@ -2533,7 +2540,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
@@ -2542,7 +2549,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>29.18181818181818</v>
+        <v>31.909090909090907</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2564,7 +2571,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="97"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2603,7 +2610,9 @@
       <c r="X11" s="43">
         <v>10</v>
       </c>
-      <c r="Y11" s="43"/>
+      <c r="Y11" s="43">
+        <v>10</v>
+      </c>
       <c r="Z11" s="43"/>
       <c r="AA11" s="43"/>
       <c r="AB11" s="43"/>
@@ -2619,7 +2628,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
@@ -2628,7 +2637,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>28.090909090909093</v>
+        <v>30.81818181818182</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2650,7 +2659,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="96"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2689,7 +2698,9 @@
       <c r="X12" s="43">
         <v>9.5</v>
       </c>
-      <c r="Y12" s="43"/>
+      <c r="Y12" s="43">
+        <v>10</v>
+      </c>
       <c r="Z12" s="43"/>
       <c r="AA12" s="43"/>
       <c r="AB12" s="43"/>
@@ -2705,7 +2716,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>57.5</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
@@ -2714,7 +2725,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>28.363636363636367</v>
+        <v>31.090909090909093</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2736,7 +2747,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="97"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2775,7 +2786,9 @@
       <c r="X13" s="43">
         <v>9.5</v>
       </c>
-      <c r="Y13" s="43"/>
+      <c r="Y13" s="43">
+        <v>10</v>
+      </c>
       <c r="Z13" s="43"/>
       <c r="AA13" s="43"/>
       <c r="AB13" s="46"/>
@@ -2791,7 +2804,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>57.5</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
@@ -2800,7 +2813,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>26.863636363636363</v>
+        <v>29.59090909090909</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2822,7 +2835,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2861,7 +2874,9 @@
       <c r="X14" s="43">
         <v>9</v>
       </c>
-      <c r="Y14" s="43"/>
+      <c r="Y14" s="43">
+        <v>10</v>
+      </c>
       <c r="Z14" s="43"/>
       <c r="AA14" s="43"/>
       <c r="AB14" s="43"/>
@@ -2877,7 +2892,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AK14" s="43">
         <f t="shared" si="2"/>
@@ -2886,7 +2901,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>29.727272727272727</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2908,7 +2923,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -2947,7 +2962,9 @@
       <c r="X15" s="43">
         <v>9</v>
       </c>
-      <c r="Y15" s="43"/>
+      <c r="Y15" s="43">
+        <v>10</v>
+      </c>
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
       <c r="AB15" s="43"/>
@@ -2963,7 +2980,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AK15" s="43">
         <f t="shared" si="2"/>
@@ -2972,7 +2989,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>25.909090909090907</v>
+        <v>28.636363636363633</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -2994,7 +3011,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="100"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -3066,7 +3083,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="101"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -3105,7 +3122,9 @@
       <c r="X17" s="43">
         <v>6</v>
       </c>
-      <c r="Y17" s="43"/>
+      <c r="Y17" s="43">
+        <v>10</v>
+      </c>
       <c r="Z17" s="43"/>
       <c r="AA17" s="43"/>
       <c r="AB17" s="43"/>
@@ -3121,7 +3140,7 @@
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AK17" s="43">
         <f t="shared" si="2"/>
@@ -3130,7 +3149,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>24.818181818181817</v>
+        <v>27.545454545454543</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3152,7 +3171,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="98"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3191,7 +3210,9 @@
       <c r="X18" s="43">
         <v>8.5</v>
       </c>
-      <c r="Y18" s="43"/>
+      <c r="Y18" s="43">
+        <v>10</v>
+      </c>
       <c r="Z18" s="43"/>
       <c r="AA18" s="43"/>
       <c r="AB18" s="43"/>
@@ -3207,7 +3228,7 @@
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
-        <v>41.5</v>
+        <v>51.5</v>
       </c>
       <c r="AK18" s="43">
         <f t="shared" si="2"/>
@@ -3216,7 +3237,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>27.136363636363633</v>
+        <v>29.863636363636363</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3238,7 +3259,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="99"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3277,7 +3298,9 @@
       <c r="X19" s="43">
         <v>8.5</v>
       </c>
-      <c r="Y19" s="43"/>
+      <c r="Y19" s="43">
+        <v>10</v>
+      </c>
       <c r="Z19" s="43"/>
       <c r="AA19" s="43"/>
       <c r="AB19" s="43"/>
@@ -3293,7 +3316,7 @@
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
-        <v>41.5</v>
+        <v>51.5</v>
       </c>
       <c r="AK19" s="43">
         <f t="shared" si="2"/>
@@ -3302,7 +3325,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>24.68181818181818</v>
+        <v>27.40909090909091</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3324,7 +3347,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="98"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3363,7 +3386,9 @@
       <c r="X20" s="43">
         <v>6</v>
       </c>
-      <c r="Y20" s="43"/>
+      <c r="Y20" s="43">
+        <v>10</v>
+      </c>
       <c r="Z20" s="43"/>
       <c r="AA20" s="43"/>
       <c r="AB20" s="43"/>
@@ -3379,7 +3404,7 @@
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
-        <v>42.5</v>
+        <v>52.5</v>
       </c>
       <c r="AK20" s="43">
         <f t="shared" si="2"/>
@@ -3388,7 +3413,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>29.727272727272727</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3410,7 +3435,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="99"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3482,7 +3507,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="106"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3521,7 +3546,9 @@
       <c r="X22" s="43">
         <v>7</v>
       </c>
-      <c r="Y22" s="43"/>
+      <c r="Y22" s="43">
+        <v>10</v>
+      </c>
       <c r="Z22" s="43"/>
       <c r="AA22" s="43"/>
       <c r="AB22" s="43"/>
@@ -3537,7 +3564,7 @@
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>46.5</v>
+        <v>56.5</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
@@ -3546,7 +3573,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>26.863636363636363</v>
+        <v>29.590909090909093</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3568,7 +3595,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="107"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3607,7 +3634,9 @@
       <c r="X23" s="43">
         <v>7</v>
       </c>
-      <c r="Y23" s="43"/>
+      <c r="Y23" s="43">
+        <v>10</v>
+      </c>
       <c r="Z23" s="43"/>
       <c r="AA23" s="43"/>
       <c r="AB23" s="43"/>
@@ -3623,7 +3652,7 @@
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
-        <v>46.5</v>
+        <v>56.5</v>
       </c>
       <c r="AK23" s="43">
         <f t="shared" si="2"/>
@@ -3632,7 +3661,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>27.954545454545453</v>
+        <v>30.68181818181818</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3654,7 +3683,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="98"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3693,7 +3722,9 @@
       <c r="X24" s="43">
         <v>8.5</v>
       </c>
-      <c r="Y24" s="43"/>
+      <c r="Y24" s="43">
+        <v>10</v>
+      </c>
       <c r="Z24" s="43"/>
       <c r="AA24" s="43"/>
       <c r="AB24" s="43"/>
@@ -3709,7 +3740,7 @@
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="2"/>
@@ -3718,7 +3749,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>24.272727272727273</v>
+        <v>27</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3740,7 +3771,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="105"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3779,7 +3810,9 @@
       <c r="X25" s="51">
         <v>8.5</v>
       </c>
-      <c r="Y25" s="51"/>
+      <c r="Y25" s="51">
+        <v>10</v>
+      </c>
       <c r="Z25" s="51"/>
       <c r="AA25" s="51"/>
       <c r="AB25" s="51"/>
@@ -3795,7 +3828,7 @@
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AK25" s="51">
         <f t="shared" si="2"/>
@@ -3804,7 +3837,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>25.363636363636363</v>
+        <v>28.09090909090909</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3826,7 +3859,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="102"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3865,7 +3898,9 @@
       <c r="X26" s="54">
         <v>9</v>
       </c>
-      <c r="Y26" s="54"/>
+      <c r="Y26" s="54">
+        <v>10</v>
+      </c>
       <c r="Z26" s="54"/>
       <c r="AA26" s="54"/>
       <c r="AB26" s="54"/>
@@ -3881,7 +3916,7 @@
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
-        <v>44.5</v>
+        <v>54.5</v>
       </c>
       <c r="AK26" s="57">
         <f t="shared" si="2"/>
@@ -3890,7 +3925,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>26.590909090909093</v>
+        <v>29.31818181818182</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -3912,7 +3947,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="103"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -3951,7 +3986,9 @@
       <c r="X27" s="59">
         <v>9</v>
       </c>
-      <c r="Y27" s="59"/>
+      <c r="Y27" s="59">
+        <v>10</v>
+      </c>
       <c r="Z27" s="59"/>
       <c r="AA27" s="59"/>
       <c r="AB27" s="59"/>
@@ -3967,7 +4004,7 @@
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
-        <v>44.5</v>
+        <v>54.5</v>
       </c>
       <c r="AK27" s="62">
         <f t="shared" si="2"/>
@@ -3976,7 +4013,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>25.90909090909091</v>
+        <v>28.63636363636364</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -3998,7 +4035,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="104"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -4037,7 +4074,9 @@
       <c r="X28" s="59">
         <v>8</v>
       </c>
-      <c r="Y28" s="59"/>
+      <c r="Y28" s="59">
+        <v>8</v>
+      </c>
       <c r="Z28" s="59"/>
       <c r="AA28" s="59"/>
       <c r="AB28" s="59"/>
@@ -4053,7 +4092,7 @@
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AK28" s="62">
         <f t="shared" si="2"/>
@@ -4062,7 +4101,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>25.09090909090909</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -4084,7 +4123,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="103"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -4123,7 +4162,9 @@
       <c r="X29" s="59">
         <v>8</v>
       </c>
-      <c r="Y29" s="59"/>
+      <c r="Y29" s="59">
+        <v>8</v>
+      </c>
       <c r="Z29" s="59"/>
       <c r="AA29" s="59"/>
       <c r="AB29" s="59"/>
@@ -4139,7 +4180,7 @@
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AK29" s="62">
         <f t="shared" si="2"/>
@@ -4148,7 +4189,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>26.454545454545453</v>
+        <v>28.636363636363633</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -4170,7 +4211,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -4209,7 +4250,9 @@
       <c r="X30" s="59">
         <v>10</v>
       </c>
-      <c r="Y30" s="59"/>
+      <c r="Y30" s="59">
+        <v>10</v>
+      </c>
       <c r="Z30" s="59"/>
       <c r="AA30" s="59"/>
       <c r="AB30" s="59"/>
@@ -4225,7 +4268,7 @@
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AK30" s="62">
         <f t="shared" si="2"/>
@@ -4234,7 +4277,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>28.363636363636363</v>
+        <v>31.09090909090909</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -4256,7 +4299,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="103"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4295,7 +4338,9 @@
       <c r="X31" s="59">
         <v>10</v>
       </c>
-      <c r="Y31" s="59"/>
+      <c r="Y31" s="59">
+        <v>10</v>
+      </c>
       <c r="Z31" s="59"/>
       <c r="AA31" s="59"/>
       <c r="AB31" s="59"/>
@@ -4311,7 +4356,7 @@
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AK31" s="62">
         <f t="shared" si="2"/>
@@ -4320,7 +4365,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>28.909090909090907</v>
+        <v>31.636363636363633</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -4342,7 +4387,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="87"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4381,7 +4426,9 @@
       <c r="X32" s="59">
         <v>3.5</v>
       </c>
-      <c r="Y32" s="59"/>
+      <c r="Y32" s="59">
+        <v>8</v>
+      </c>
       <c r="Z32" s="59"/>
       <c r="AA32" s="59"/>
       <c r="AB32" s="59"/>
@@ -4397,7 +4444,7 @@
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AK32" s="62">
         <f t="shared" si="2"/>
@@ -4406,7 +4453,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>21.81818181818182</v>
+        <v>24</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4428,7 +4475,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="88"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4467,7 +4514,9 @@
       <c r="X33" s="59">
         <v>3.5</v>
       </c>
-      <c r="Y33" s="59"/>
+      <c r="Y33" s="59">
+        <v>8</v>
+      </c>
       <c r="Z33" s="59"/>
       <c r="AA33" s="59"/>
       <c r="AB33" s="59"/>
@@ -4483,7 +4532,7 @@
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AK33" s="62">
         <f t="shared" si="2"/>
@@ -4492,7 +4541,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>24.545454545454547</v>
+        <v>26.727272727272727</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4514,7 +4563,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="91"/>
+      <c r="H34" s="93"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4553,7 +4602,9 @@
       <c r="X34" s="59">
         <v>10</v>
       </c>
-      <c r="Y34" s="59"/>
+      <c r="Y34" s="59">
+        <v>9</v>
+      </c>
       <c r="Z34" s="59"/>
       <c r="AA34" s="59"/>
       <c r="AB34" s="59"/>
@@ -4569,7 +4620,7 @@
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>56.5</v>
       </c>
       <c r="AK34" s="62">
         <f t="shared" si="2"/>
@@ -4578,7 +4629,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>28.5</v>
+        <v>30.954545454545453</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4600,7 +4651,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4639,7 +4690,9 @@
       <c r="X35" s="59">
         <v>10</v>
       </c>
-      <c r="Y35" s="59"/>
+      <c r="Y35" s="59">
+        <v>9</v>
+      </c>
       <c r="Z35" s="59"/>
       <c r="AA35" s="59"/>
       <c r="AB35" s="59"/>
@@ -4655,7 +4708,7 @@
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>56.5</v>
       </c>
       <c r="AK35" s="62">
         <f t="shared" si="2"/>
@@ -4664,7 +4717,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>27.954545454545453</v>
+        <v>30.40909090909091</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4686,7 +4739,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="87"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4725,7 +4778,9 @@
       <c r="X36" s="59">
         <v>9</v>
       </c>
-      <c r="Y36" s="59"/>
+      <c r="Y36" s="59">
+        <v>9</v>
+      </c>
       <c r="Z36" s="59"/>
       <c r="AA36" s="59"/>
       <c r="AB36" s="59"/>
@@ -4741,7 +4796,7 @@
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AK36" s="62">
         <f t="shared" si="2"/>
@@ -4750,7 +4805,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>27.818181818181817</v>
+        <v>30.272727272727273</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4772,7 +4827,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4811,7 +4866,9 @@
       <c r="X37" s="59">
         <v>9</v>
       </c>
-      <c r="Y37" s="59"/>
+      <c r="Y37" s="59">
+        <v>9</v>
+      </c>
       <c r="Z37" s="59"/>
       <c r="AA37" s="59"/>
       <c r="AB37" s="59"/>
@@ -4827,7 +4884,7 @@
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AK37" s="62">
         <f t="shared" si="2"/>
@@ -4836,7 +4893,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>27.409090909090907</v>
+        <v>29.863636363636363</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -4858,7 +4915,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="91"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -4897,7 +4954,9 @@
       <c r="X38" s="59">
         <v>8</v>
       </c>
-      <c r="Y38" s="59"/>
+      <c r="Y38" s="59">
+        <v>10</v>
+      </c>
       <c r="Z38" s="59"/>
       <c r="AA38" s="59"/>
       <c r="AB38" s="59"/>
@@ -4913,7 +4972,7 @@
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>53.5</v>
       </c>
       <c r="AK38" s="62">
         <f t="shared" si="2"/>
@@ -4922,7 +4981,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>26.454545454545453</v>
+        <v>29.181818181818183</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -4944,7 +5003,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="92"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -4983,7 +5042,9 @@
       <c r="X39" s="59">
         <v>8</v>
       </c>
-      <c r="Y39" s="59"/>
+      <c r="Y39" s="59">
+        <v>10</v>
+      </c>
       <c r="Z39" s="59"/>
       <c r="AA39" s="59"/>
       <c r="AB39" s="59"/>
@@ -4999,7 +5060,7 @@
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>53.5</v>
       </c>
       <c r="AK39" s="62">
         <f t="shared" si="2"/>
@@ -5008,7 +5069,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>25.363636363636363</v>
+        <v>28.090909090909093</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -5030,7 +5091,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
+      <c r="H40" s="94"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -5069,7 +5130,9 @@
       <c r="X40" s="59">
         <v>8</v>
       </c>
-      <c r="Y40" s="59"/>
+      <c r="Y40" s="59">
+        <v>10</v>
+      </c>
       <c r="Z40" s="59"/>
       <c r="AA40" s="59"/>
       <c r="AB40" s="59"/>
@@ -5085,7 +5148,7 @@
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>53.5</v>
       </c>
       <c r="AK40" s="62">
         <f t="shared" si="2"/>
@@ -5094,7 +5157,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>25.227272727272727</v>
+        <v>27.954545454545453</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -5116,7 +5179,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="87"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -5155,7 +5218,9 @@
       <c r="X41" s="59">
         <v>9</v>
       </c>
-      <c r="Y41" s="59"/>
+      <c r="Y41" s="59">
+        <v>10</v>
+      </c>
       <c r="Z41" s="59"/>
       <c r="AA41" s="59"/>
       <c r="AB41" s="59"/>
@@ -5171,7 +5236,7 @@
       </c>
       <c r="AJ41" s="62">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AK41" s="62">
         <f t="shared" si="2"/>
@@ -5180,7 +5245,7 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="62">
         <f t="shared" si="3"/>
-        <v>17.18181818181818</v>
+        <v>19.909090909090907</v>
       </c>
       <c r="AN41" s="59"/>
     </row>
@@ -5202,7 +5267,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="88"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -5241,7 +5306,9 @@
       <c r="X42" s="59">
         <v>9</v>
       </c>
-      <c r="Y42" s="59"/>
+      <c r="Y42" s="59">
+        <v>10</v>
+      </c>
       <c r="Z42" s="59"/>
       <c r="AA42" s="59"/>
       <c r="AB42" s="59"/>
@@ -5257,7 +5324,7 @@
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AK42" s="62">
         <f t="shared" si="2"/>
@@ -5266,7 +5333,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>25.772727272727273</v>
+        <v>28.5</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -5288,7 +5355,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="87"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -5327,7 +5394,9 @@
       <c r="X43" s="59">
         <v>7.5</v>
       </c>
-      <c r="Y43" s="59"/>
+      <c r="Y43" s="59">
+        <v>8</v>
+      </c>
       <c r="Z43" s="59"/>
       <c r="AA43" s="59"/>
       <c r="AB43" s="59"/>
@@ -5343,7 +5412,7 @@
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>51.5</v>
       </c>
       <c r="AK43" s="62">
         <f t="shared" si="2"/>
@@ -5352,7 +5421,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>24.954545454545453</v>
+        <v>27.136363636363637</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -5374,7 +5443,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="88"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -5413,7 +5482,9 @@
       <c r="X44" s="59">
         <v>7.5</v>
       </c>
-      <c r="Y44" s="59"/>
+      <c r="Y44" s="59">
+        <v>8</v>
+      </c>
       <c r="Z44" s="59"/>
       <c r="AA44" s="59"/>
       <c r="AB44" s="59"/>
@@ -5429,7 +5500,7 @@
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>51.5</v>
       </c>
       <c r="AK44" s="62">
         <f t="shared" si="2"/>
@@ -5438,7 +5509,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>22.909090909090907</v>
+        <v>25.090909090909093</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -5460,7 +5531,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="94"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5499,7 +5570,9 @@
       <c r="X45" s="83">
         <v>6</v>
       </c>
-      <c r="Y45" s="83"/>
+      <c r="Y45" s="83">
+        <v>9</v>
+      </c>
       <c r="Z45" s="83"/>
       <c r="AA45" s="83"/>
       <c r="AB45" s="83"/>
@@ -5515,7 +5588,7 @@
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
-        <v>44.5</v>
+        <v>53.5</v>
       </c>
       <c r="AK45" s="62">
         <f t="shared" si="2"/>
@@ -5524,7 +5597,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>26.590909090909093</v>
+        <v>29.045454545454547</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -5546,7 +5619,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="95"/>
+      <c r="H46" s="107"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5585,7 +5658,9 @@
       <c r="X46" s="83">
         <v>6</v>
       </c>
-      <c r="Y46" s="83"/>
+      <c r="Y46" s="83">
+        <v>9</v>
+      </c>
       <c r="Z46" s="83"/>
       <c r="AA46" s="83"/>
       <c r="AB46" s="83"/>
@@ -5601,7 +5676,7 @@
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
-        <v>44.5</v>
+        <v>53.5</v>
       </c>
       <c r="AK46" s="62">
         <f t="shared" si="2"/>
@@ -5610,7 +5685,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>27.81818181818182</v>
+        <v>30.272727272727273</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5632,7 +5707,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="89"/>
+      <c r="H47" s="103"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5671,7 +5746,9 @@
       <c r="X47" s="83">
         <v>8</v>
       </c>
-      <c r="Y47" s="83"/>
+      <c r="Y47" s="83">
+        <v>9.5</v>
+      </c>
       <c r="Z47" s="83"/>
       <c r="AA47" s="83"/>
       <c r="AB47" s="83"/>
@@ -5687,7 +5764,7 @@
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
-        <v>45.5</v>
+        <v>55</v>
       </c>
       <c r="AK47" s="62">
         <f t="shared" si="2"/>
@@ -5696,7 +5773,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>27.409090909090907</v>
+        <v>30</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5718,7 +5795,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="90"/>
+      <c r="H48" s="104"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -5757,7 +5834,9 @@
       <c r="X48" s="83">
         <v>8</v>
       </c>
-      <c r="Y48" s="83"/>
+      <c r="Y48" s="83">
+        <v>9.5</v>
+      </c>
       <c r="Z48" s="83"/>
       <c r="AA48" s="83"/>
       <c r="AB48" s="83"/>
@@ -5773,7 +5852,7 @@
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
-        <v>45.5</v>
+        <v>55</v>
       </c>
       <c r="AK48" s="62">
         <f t="shared" si="2"/>
@@ -5782,7 +5861,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>25.227272727272727</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -5856,9 +5935,9 @@
         <f>AVERAGE(X2:X25)</f>
         <v>8.7727272727272734</v>
       </c>
-      <c r="Y49" s="65" t="e">
+      <c r="Y49" s="65">
         <f>AVERAGE(Y2:Y25)</f>
-        <v>#DIV/0!</v>
+        <v>9.5909090909090917</v>
       </c>
       <c r="Z49" s="65" t="e">
         <f>AVERAGE(Z2:Z32)</f>
@@ -5902,7 +5981,7 @@
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>43.875</v>
+        <v>52.666666666666664</v>
       </c>
       <c r="AK49" s="65">
         <f>AVERAGE(AK2:AK25)</f>
@@ -5914,7 +5993,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>25.4375</v>
+        <v>27.835227272727277</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -5988,9 +6067,9 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Y50" s="65" t="e">
+      <c r="Y50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.1739130434782616</v>
       </c>
       <c r="Z50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -6034,7 +6113,7 @@
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
-        <v>44.239130434782609</v>
+        <v>53.413043478260867</v>
       </c>
       <c r="AK50" s="65">
         <f t="shared" si="4"/>
@@ -6046,7 +6125,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>25.837944664031625</v>
+        <v>28.339920948616601</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -6120,9 +6199,9 @@
         <f t="shared" si="5"/>
         <v>8.3777777777777782</v>
       </c>
-      <c r="Y51" s="65" t="e">
+      <c r="Y51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.3777777777777782</v>
       </c>
       <c r="Z51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -6166,7 +6245,7 @@
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
-        <v>44.053191489361701</v>
+        <v>53.031914893617021</v>
       </c>
       <c r="AK51" s="65">
         <f t="shared" si="5"/>
@@ -6178,7 +6257,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>25.633462282398458</v>
+        <v>28.082205029013544</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -6252,9 +6331,9 @@
         <f t="shared" si="6"/>
         <v>1.5744968733028335</v>
       </c>
-      <c r="Y52" s="65" t="e">
+      <c r="Y52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.87357387388320695</v>
       </c>
       <c r="Z52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6298,7 +6377,7 @@
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
-        <v>6.5177300350935754</v>
+        <v>8.4315686916074615</v>
       </c>
       <c r="AK52" s="65">
         <f t="shared" si="6"/>
@@ -6310,7 +6389,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>4.4499088987605804</v>
+        <v>4.934011536620317</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6386,7 +6465,7 @@
       </c>
       <c r="Y53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z53" s="65">
         <f t="shared" si="7"/>
@@ -6430,7 +6509,7 @@
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK53" s="65">
         <f t="shared" si="7"/>
@@ -6442,7 +6521,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>32.727272727272727</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -6518,7 +6597,7 @@
       </c>
       <c r="Y54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z54" s="69">
         <f t="shared" si="8"/>
@@ -6580,6 +6659,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6590,19 +6682,6 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6617,6 +6696,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6798,15 +6886,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
@@ -6824,6 +6903,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6839,12 +6926,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E2CDC-E3E9-41CA-AD1D-4A3D08AE568D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6617F6B-8AA7-4617-8928-4ED0FDC76A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t xml:space="preserve">                                                             </t>
   </si>
@@ -581,6 +592,10 @@
       </rPr>
       <t>정영석</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1619,7 +1634,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y50" sqref="Y50"/>
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1798,7 +1813,9 @@
       <c r="N2" s="43">
         <v>10</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="43">
+        <v>8</v>
+      </c>
       <c r="P2" s="43"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
@@ -1821,7 +1838,9 @@
       <c r="Y2" s="43">
         <v>9</v>
       </c>
-      <c r="Z2" s="43"/>
+      <c r="Z2" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AA2" s="43"/>
       <c r="AB2" s="43"/>
       <c r="AC2" s="43"/>
@@ -1832,11 +1851,11 @@
       <c r="AH2" s="44"/>
       <c r="AI2" s="45">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>58</v>
+        <v>67.5</v>
       </c>
       <c r="AK2" s="43">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1845,7 +1864,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>30.545454545454543</v>
+        <v>35.318181818181813</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1886,7 +1905,9 @@
       <c r="N3" s="43">
         <v>10</v>
       </c>
-      <c r="O3" s="43"/>
+      <c r="O3" s="43">
+        <v>9</v>
+      </c>
       <c r="P3" s="43"/>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
@@ -1909,7 +1930,9 @@
       <c r="Y3" s="43">
         <v>9</v>
       </c>
-      <c r="Z3" s="43"/>
+      <c r="Z3" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AA3" s="43"/>
       <c r="AB3" s="43"/>
       <c r="AC3" s="43"/>
@@ -1920,11 +1943,11 @@
       <c r="AH3" s="44"/>
       <c r="AI3" s="45">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>67.5</v>
       </c>
       <c r="AK3" s="43">
         <f t="shared" si="2"/>
@@ -1933,7 +1956,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>31.36363636363636</v>
+        <v>36.409090909090907</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1974,7 +1997,9 @@
       <c r="N4" s="43">
         <v>8</v>
       </c>
-      <c r="O4" s="43"/>
+      <c r="O4" s="43">
+        <v>9</v>
+      </c>
       <c r="P4" s="43"/>
       <c r="Q4" s="43"/>
       <c r="R4" s="43"/>
@@ -1997,7 +2022,9 @@
       <c r="Y4" s="43">
         <v>10</v>
       </c>
-      <c r="Z4" s="43"/>
+      <c r="Z4" s="43">
+        <v>10</v>
+      </c>
       <c r="AA4" s="43"/>
       <c r="AB4" s="43"/>
       <c r="AC4" s="43"/>
@@ -2008,11 +2035,11 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="45">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" si="2"/>
@@ -2021,7 +2048,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>29.454545454545453</v>
+        <v>34.636363636363633</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2062,7 +2089,9 @@
       <c r="N5" s="43">
         <v>10</v>
       </c>
-      <c r="O5" s="43"/>
+      <c r="O5" s="43">
+        <v>10</v>
+      </c>
       <c r="P5" s="43"/>
       <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
@@ -2085,7 +2114,9 @@
       <c r="Y5" s="43">
         <v>10</v>
       </c>
-      <c r="Z5" s="43"/>
+      <c r="Z5" s="43">
+        <v>10</v>
+      </c>
       <c r="AA5" s="43"/>
       <c r="AB5" s="43"/>
       <c r="AC5" s="43"/>
@@ -2096,11 +2127,11 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="45">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK5" s="43">
         <f t="shared" si="2"/>
@@ -2109,7 +2140,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>32.727272727272727</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2150,7 +2181,9 @@
       <c r="N6" s="43">
         <v>10</v>
       </c>
-      <c r="O6" s="43"/>
+      <c r="O6" s="43">
+        <v>9</v>
+      </c>
       <c r="P6" s="43"/>
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
@@ -2173,7 +2206,9 @@
       <c r="Y6" s="43">
         <v>7</v>
       </c>
-      <c r="Z6" s="43"/>
+      <c r="Z6" s="43">
+        <v>10</v>
+      </c>
       <c r="AA6" s="43"/>
       <c r="AB6" s="43"/>
       <c r="AC6" s="43"/>
@@ -2184,11 +2219,11 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="45">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK6" s="43">
         <f t="shared" si="2"/>
@@ -2197,7 +2232,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>28.363636363636363</v>
+        <v>33.545454545454547</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2238,7 +2273,9 @@
       <c r="N7" s="43">
         <v>10</v>
       </c>
-      <c r="O7" s="43"/>
+      <c r="O7" s="43">
+        <v>9</v>
+      </c>
       <c r="P7" s="43"/>
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
@@ -2261,7 +2298,9 @@
       <c r="Y7" s="43">
         <v>7</v>
       </c>
-      <c r="Z7" s="43"/>
+      <c r="Z7" s="43">
+        <v>10</v>
+      </c>
       <c r="AA7" s="43"/>
       <c r="AB7" s="43"/>
       <c r="AC7" s="43"/>
@@ -2272,11 +2311,11 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK7" s="43">
         <f t="shared" si="2"/>
@@ -2285,7 +2324,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>28.909090909090907</v>
+        <v>34.090909090909093</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2326,7 +2365,9 @@
       <c r="N8" s="43">
         <v>10</v>
       </c>
-      <c r="O8" s="43"/>
+      <c r="O8" s="43">
+        <v>9</v>
+      </c>
       <c r="P8" s="43"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="43"/>
@@ -2349,7 +2390,9 @@
       <c r="Y8" s="43">
         <v>9.5</v>
       </c>
-      <c r="Z8" s="43"/>
+      <c r="Z8" s="43">
+        <v>10</v>
+      </c>
       <c r="AA8" s="43"/>
       <c r="AB8" s="43"/>
       <c r="AC8" s="43"/>
@@ -2360,11 +2403,11 @@
       <c r="AH8" s="44"/>
       <c r="AI8" s="45">
         <f t="shared" si="0"/>
-        <v>53.5</v>
+        <v>62.5</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
@@ -2373,7 +2416,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>35.18181818181818</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2414,7 +2457,9 @@
       <c r="N9" s="43">
         <v>10</v>
       </c>
-      <c r="O9" s="43"/>
+      <c r="O9" s="43">
+        <v>9</v>
+      </c>
       <c r="P9" s="43"/>
       <c r="Q9" s="43"/>
       <c r="R9" s="43"/>
@@ -2437,7 +2482,9 @@
       <c r="Y9" s="43">
         <v>9.5</v>
       </c>
-      <c r="Z9" s="43"/>
+      <c r="Z9" s="43">
+        <v>10</v>
+      </c>
       <c r="AA9" s="43"/>
       <c r="AB9" s="43"/>
       <c r="AC9" s="43"/>
@@ -2448,11 +2495,11 @@
       <c r="AH9" s="44"/>
       <c r="AI9" s="45">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
@@ -2461,7 +2508,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>30.40909090909091</v>
+        <v>35.590909090909086</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2502,7 +2549,9 @@
       <c r="N10" s="43">
         <v>10</v>
       </c>
-      <c r="O10" s="43"/>
+      <c r="O10" s="43">
+        <v>9.5</v>
+      </c>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
@@ -2525,7 +2574,9 @@
       <c r="Y10" s="43">
         <v>10</v>
       </c>
-      <c r="Z10" s="43"/>
+      <c r="Z10" s="43">
+        <v>10</v>
+      </c>
       <c r="AA10" s="43"/>
       <c r="AB10" s="43"/>
       <c r="AC10" s="43"/>
@@ -2536,11 +2587,11 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>66.5</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
@@ -2549,7 +2600,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>31.909090909090907</v>
+        <v>37.22727272727272</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2590,7 +2641,9 @@
       <c r="N11" s="43">
         <v>9.5</v>
       </c>
-      <c r="O11" s="43"/>
+      <c r="O11" s="43">
+        <v>9</v>
+      </c>
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
@@ -2613,7 +2666,9 @@
       <c r="Y11" s="43">
         <v>10</v>
       </c>
-      <c r="Z11" s="43"/>
+      <c r="Z11" s="43">
+        <v>10</v>
+      </c>
       <c r="AA11" s="43"/>
       <c r="AB11" s="43"/>
       <c r="AC11" s="43"/>
@@ -2624,11 +2679,11 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
@@ -2637,7 +2692,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>30.81818181818182</v>
+        <v>36</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2678,7 +2733,9 @@
       <c r="N12" s="43">
         <v>10</v>
       </c>
-      <c r="O12" s="43"/>
+      <c r="O12" s="43">
+        <v>10</v>
+      </c>
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="43"/>
@@ -2701,7 +2758,9 @@
       <c r="Y12" s="43">
         <v>10</v>
       </c>
-      <c r="Z12" s="43"/>
+      <c r="Z12" s="43">
+        <v>10</v>
+      </c>
       <c r="AA12" s="43"/>
       <c r="AB12" s="43"/>
       <c r="AC12" s="43"/>
@@ -2712,11 +2771,11 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45">
         <f t="shared" si="0"/>
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>57.5</v>
+        <v>67.5</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
@@ -2725,7 +2784,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>31.090909090909093</v>
+        <v>36.545454545454547</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2766,7 +2825,9 @@
       <c r="N13" s="43">
         <v>8</v>
       </c>
-      <c r="O13" s="43"/>
+      <c r="O13" s="43">
+        <v>9</v>
+      </c>
       <c r="P13" s="43"/>
       <c r="Q13" s="46"/>
       <c r="R13" s="46"/>
@@ -2789,7 +2850,9 @@
       <c r="Y13" s="43">
         <v>10</v>
       </c>
-      <c r="Z13" s="43"/>
+      <c r="Z13" s="43">
+        <v>10</v>
+      </c>
       <c r="AA13" s="43"/>
       <c r="AB13" s="46"/>
       <c r="AC13" s="46"/>
@@ -2800,11 +2863,11 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>57.5</v>
+        <v>67.5</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
@@ -2813,7 +2876,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>29.59090909090909</v>
+        <v>34.772727272727273</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2854,7 +2917,9 @@
       <c r="N14" s="43">
         <v>9</v>
       </c>
-      <c r="O14" s="43"/>
+      <c r="O14" s="43">
+        <v>9</v>
+      </c>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
       <c r="R14" s="43"/>
@@ -2877,7 +2942,9 @@
       <c r="Y14" s="43">
         <v>10</v>
       </c>
-      <c r="Z14" s="43"/>
+      <c r="Z14" s="43">
+        <v>10</v>
+      </c>
       <c r="AA14" s="43"/>
       <c r="AB14" s="43"/>
       <c r="AC14" s="43"/>
@@ -2888,11 +2955,11 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AK14" s="43">
         <f t="shared" si="2"/>
@@ -2901,7 +2968,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>29.727272727272727</v>
+        <v>34.909090909090907</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2942,7 +3009,9 @@
       <c r="N15" s="43">
         <v>9.5</v>
       </c>
-      <c r="O15" s="43"/>
+      <c r="O15" s="43">
+        <v>8.5</v>
+      </c>
       <c r="P15" s="43"/>
       <c r="Q15" s="48"/>
       <c r="R15" s="43"/>
@@ -2965,7 +3034,9 @@
       <c r="Y15" s="43">
         <v>10</v>
       </c>
-      <c r="Z15" s="43"/>
+      <c r="Z15" s="43">
+        <v>10</v>
+      </c>
       <c r="AA15" s="43"/>
       <c r="AB15" s="43"/>
       <c r="AC15" s="43"/>
@@ -2976,11 +3047,11 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>56.5</v>
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AK15" s="43">
         <f t="shared" si="2"/>
@@ -2989,7 +3060,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>28.636363636363633</v>
+        <v>33.681818181818187</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -3102,7 +3173,9 @@
       <c r="N17" s="43">
         <v>10</v>
       </c>
-      <c r="O17" s="43"/>
+      <c r="O17" s="43">
+        <v>10</v>
+      </c>
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
       <c r="R17" s="43"/>
@@ -3125,7 +3198,9 @@
       <c r="Y17" s="43">
         <v>10</v>
       </c>
-      <c r="Z17" s="43"/>
+      <c r="Z17" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AA17" s="43"/>
       <c r="AB17" s="43"/>
       <c r="AC17" s="43"/>
@@ -3136,11 +3211,11 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="45">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>63.5</v>
       </c>
       <c r="AK17" s="43">
         <f t="shared" si="2"/>
@@ -3149,7 +3224,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>27.545454545454543</v>
+        <v>32.86363636363636</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3190,7 +3265,9 @@
       <c r="N18" s="43">
         <v>10</v>
       </c>
-      <c r="O18" s="43"/>
+      <c r="O18" s="43">
+        <v>9</v>
+      </c>
       <c r="P18" s="43"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="43"/>
@@ -3213,7 +3290,9 @@
       <c r="Y18" s="43">
         <v>10</v>
       </c>
-      <c r="Z18" s="43"/>
+      <c r="Z18" s="43">
+        <v>10</v>
+      </c>
       <c r="AA18" s="43"/>
       <c r="AB18" s="43"/>
       <c r="AC18" s="43"/>
@@ -3224,11 +3303,11 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
-        <v>51.5</v>
+        <v>61.5</v>
       </c>
       <c r="AK18" s="43">
         <f t="shared" si="2"/>
@@ -3237,7 +3316,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>29.863636363636363</v>
+        <v>35.045454545454547</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3278,7 +3357,9 @@
       <c r="N19" s="43">
         <v>8.5</v>
       </c>
-      <c r="O19" s="43"/>
+      <c r="O19" s="43">
+        <v>10</v>
+      </c>
       <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
@@ -3301,7 +3382,9 @@
       <c r="Y19" s="43">
         <v>10</v>
       </c>
-      <c r="Z19" s="43"/>
+      <c r="Z19" s="43">
+        <v>10</v>
+      </c>
       <c r="AA19" s="43"/>
       <c r="AB19" s="43"/>
       <c r="AC19" s="43"/>
@@ -3312,11 +3395,11 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="45">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
-        <v>51.5</v>
+        <v>61.5</v>
       </c>
       <c r="AK19" s="43">
         <f t="shared" si="2"/>
@@ -3325,7 +3408,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>27.40909090909091</v>
+        <v>32.86363636363636</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3366,7 +3449,9 @@
       <c r="N20" s="43">
         <v>10</v>
       </c>
-      <c r="O20" s="43"/>
+      <c r="O20" s="43">
+        <v>10</v>
+      </c>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="43"/>
@@ -3389,7 +3474,9 @@
       <c r="Y20" s="43">
         <v>10</v>
       </c>
-      <c r="Z20" s="43"/>
+      <c r="Z20" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AA20" s="43"/>
       <c r="AB20" s="43"/>
       <c r="AC20" s="43"/>
@@ -3400,11 +3487,11 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
-        <v>52.5</v>
+        <v>62</v>
       </c>
       <c r="AK20" s="43">
         <f t="shared" si="2"/>
@@ -3413,7 +3500,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>29.727272727272727</v>
+        <v>35.04545454545454</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3526,7 +3613,9 @@
       <c r="N22" s="43">
         <v>10</v>
       </c>
-      <c r="O22" s="43"/>
+      <c r="O22" s="43">
+        <v>8</v>
+      </c>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
@@ -3549,7 +3638,9 @@
       <c r="Y22" s="43">
         <v>10</v>
       </c>
-      <c r="Z22" s="43"/>
+      <c r="Z22" s="43">
+        <v>10</v>
+      </c>
       <c r="AA22" s="43"/>
       <c r="AB22" s="43"/>
       <c r="AC22" s="43"/>
@@ -3560,11 +3651,11 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="45">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
@@ -3573,7 +3664,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>29.590909090909093</v>
+        <v>34.5</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3614,7 +3705,9 @@
       <c r="N23" s="43">
         <v>8</v>
       </c>
-      <c r="O23" s="43"/>
+      <c r="O23" s="43">
+        <v>9</v>
+      </c>
       <c r="P23" s="43"/>
       <c r="Q23" s="49"/>
       <c r="R23" s="43"/>
@@ -3637,7 +3730,9 @@
       <c r="Y23" s="43">
         <v>10</v>
       </c>
-      <c r="Z23" s="43"/>
+      <c r="Z23" s="43">
+        <v>10</v>
+      </c>
       <c r="AA23" s="43"/>
       <c r="AB23" s="43"/>
       <c r="AC23" s="43"/>
@@ -3648,11 +3743,11 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="45">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="AK23" s="43">
         <f t="shared" si="2"/>
@@ -3661,7 +3756,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>30.68181818181818</v>
+        <v>35.86363636363636</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3702,7 +3797,9 @@
       <c r="N24" s="43">
         <v>10</v>
       </c>
-      <c r="O24" s="43"/>
+      <c r="O24" s="43">
+        <v>10</v>
+      </c>
       <c r="P24" s="43"/>
       <c r="Q24" s="49"/>
       <c r="R24" s="43"/>
@@ -3725,7 +3822,9 @@
       <c r="Y24" s="43">
         <v>10</v>
       </c>
-      <c r="Z24" s="43"/>
+      <c r="Z24" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AA24" s="43"/>
       <c r="AB24" s="43"/>
       <c r="AC24" s="43"/>
@@ -3736,11 +3835,11 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>63.5</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="2"/>
@@ -3749,7 +3848,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>32.318181818181813</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3790,8 +3889,12 @@
       <c r="N25" s="51">
         <v>9</v>
       </c>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
+      <c r="O25" s="51">
+        <v>8.5</v>
+      </c>
+      <c r="P25" s="51" t="s">
+        <v>95</v>
+      </c>
       <c r="Q25" s="51"/>
       <c r="R25" s="51"/>
       <c r="S25" s="52"/>
@@ -3813,7 +3916,9 @@
       <c r="Y25" s="51">
         <v>10</v>
       </c>
-      <c r="Z25" s="51"/>
+      <c r="Z25" s="51">
+        <v>9.5</v>
+      </c>
       <c r="AA25" s="51"/>
       <c r="AB25" s="51"/>
       <c r="AC25" s="51"/>
@@ -3824,11 +3929,11 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="50">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>57.5</v>
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>63.5</v>
       </c>
       <c r="AK25" s="51">
         <f t="shared" si="2"/>
@@ -3837,7 +3942,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>28.09090909090909</v>
+        <v>33</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3878,7 +3983,9 @@
       <c r="N26" s="54">
         <v>10</v>
       </c>
-      <c r="O26" s="54"/>
+      <c r="O26" s="54">
+        <v>9</v>
+      </c>
       <c r="P26" s="54"/>
       <c r="Q26" s="54"/>
       <c r="R26" s="54"/>
@@ -3901,7 +4008,9 @@
       <c r="Y26" s="54">
         <v>10</v>
       </c>
-      <c r="Z26" s="54"/>
+      <c r="Z26" s="54">
+        <v>10</v>
+      </c>
       <c r="AA26" s="54"/>
       <c r="AB26" s="54"/>
       <c r="AC26" s="54"/>
@@ -3912,11 +4021,11 @@
       <c r="AH26" s="55"/>
       <c r="AI26" s="56">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>64.5</v>
       </c>
       <c r="AK26" s="57">
         <f t="shared" si="2"/>
@@ -3925,7 +4034,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>29.31818181818182</v>
+        <v>34.5</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -3966,7 +4075,9 @@
       <c r="N27" s="59">
         <v>10</v>
       </c>
-      <c r="O27" s="59"/>
+      <c r="O27" s="59">
+        <v>10</v>
+      </c>
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
       <c r="R27" s="59"/>
@@ -3989,7 +4100,9 @@
       <c r="Y27" s="59">
         <v>10</v>
       </c>
-      <c r="Z27" s="59"/>
+      <c r="Z27" s="59">
+        <v>10</v>
+      </c>
       <c r="AA27" s="59"/>
       <c r="AB27" s="59"/>
       <c r="AC27" s="59"/>
@@ -4000,11 +4113,11 @@
       <c r="AH27" s="60"/>
       <c r="AI27" s="61">
         <f t="shared" si="0"/>
-        <v>50.5</v>
+        <v>60.5</v>
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>64.5</v>
       </c>
       <c r="AK27" s="62">
         <f t="shared" si="2"/>
@@ -4013,7 +4126,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>28.63636363636364</v>
+        <v>34.090909090909093</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -4054,7 +4167,9 @@
       <c r="N28" s="59">
         <v>9</v>
       </c>
-      <c r="O28" s="59"/>
+      <c r="O28" s="59">
+        <v>9</v>
+      </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="59"/>
       <c r="R28" s="59"/>
@@ -4077,7 +4192,9 @@
       <c r="Y28" s="59">
         <v>8</v>
       </c>
-      <c r="Z28" s="59"/>
+      <c r="Z28" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AA28" s="59"/>
       <c r="AB28" s="59"/>
       <c r="AC28" s="59"/>
@@ -4088,11 +4205,11 @@
       <c r="AH28" s="60"/>
       <c r="AI28" s="61">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>55.5</v>
       </c>
       <c r="AK28" s="62">
         <f t="shared" si="2"/>
@@ -4101,7 +4218,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>27.272727272727273</v>
+        <v>32.31818181818182</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -4142,7 +4259,9 @@
       <c r="N29" s="59">
         <v>10</v>
       </c>
-      <c r="O29" s="59"/>
+      <c r="O29" s="59">
+        <v>9</v>
+      </c>
       <c r="P29" s="59"/>
       <c r="Q29" s="59"/>
       <c r="R29" s="59"/>
@@ -4165,7 +4284,9 @@
       <c r="Y29" s="59">
         <v>8</v>
       </c>
-      <c r="Z29" s="59"/>
+      <c r="Z29" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AA29" s="59"/>
       <c r="AB29" s="59"/>
       <c r="AC29" s="59"/>
@@ -4176,11 +4297,11 @@
       <c r="AH29" s="60"/>
       <c r="AI29" s="61">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>55.5</v>
       </c>
       <c r="AK29" s="62">
         <f t="shared" si="2"/>
@@ -4189,7 +4310,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>28.636363636363633</v>
+        <v>33.68181818181818</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -4230,7 +4351,9 @@
       <c r="N30" s="59">
         <v>10</v>
       </c>
-      <c r="O30" s="59"/>
+      <c r="O30" s="59">
+        <v>10</v>
+      </c>
       <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
       <c r="R30" s="59"/>
@@ -4253,7 +4376,9 @@
       <c r="Y30" s="59">
         <v>10</v>
       </c>
-      <c r="Z30" s="59"/>
+      <c r="Z30" s="59">
+        <v>9</v>
+      </c>
       <c r="AA30" s="59"/>
       <c r="AB30" s="59"/>
       <c r="AC30" s="59"/>
@@ -4264,11 +4389,11 @@
       <c r="AH30" s="60"/>
       <c r="AI30" s="61">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AK30" s="62">
         <f t="shared" si="2"/>
@@ -4277,7 +4402,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>31.09090909090909</v>
+        <v>36.272727272727273</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -4318,7 +4443,9 @@
       <c r="N31" s="59">
         <v>10</v>
       </c>
-      <c r="O31" s="59"/>
+      <c r="O31" s="59">
+        <v>9</v>
+      </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59"/>
       <c r="R31" s="59"/>
@@ -4341,7 +4468,9 @@
       <c r="Y31" s="59">
         <v>10</v>
       </c>
-      <c r="Z31" s="59"/>
+      <c r="Z31" s="59">
+        <v>9</v>
+      </c>
       <c r="AA31" s="59"/>
       <c r="AB31" s="59"/>
       <c r="AC31" s="59"/>
@@ -4352,11 +4481,11 @@
       <c r="AH31" s="60"/>
       <c r="AI31" s="61">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AK31" s="62">
         <f t="shared" si="2"/>
@@ -4365,7 +4494,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>31.636363636363633</v>
+        <v>36.545454545454547</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -4406,7 +4535,9 @@
       <c r="N32" s="59">
         <v>7</v>
       </c>
-      <c r="O32" s="59"/>
+      <c r="O32" s="59">
+        <v>10</v>
+      </c>
       <c r="P32" s="59"/>
       <c r="Q32" s="59"/>
       <c r="R32" s="59"/>
@@ -4429,7 +4560,9 @@
       <c r="Y32" s="59">
         <v>8</v>
       </c>
-      <c r="Z32" s="59"/>
+      <c r="Z32" s="59">
+        <v>8</v>
+      </c>
       <c r="AA32" s="59"/>
       <c r="AB32" s="59"/>
       <c r="AC32" s="59"/>
@@ -4440,11 +4573,11 @@
       <c r="AH32" s="60"/>
       <c r="AI32" s="61">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AK32" s="62">
         <f t="shared" si="2"/>
@@ -4453,7 +4586,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>28.90909090909091</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4494,7 +4627,9 @@
       <c r="N33" s="59">
         <v>10</v>
       </c>
-      <c r="O33" s="59"/>
+      <c r="O33" s="59">
+        <v>9.5</v>
+      </c>
       <c r="P33" s="59"/>
       <c r="Q33" s="59"/>
       <c r="R33" s="59"/>
@@ -4517,7 +4652,9 @@
       <c r="Y33" s="59">
         <v>8</v>
       </c>
-      <c r="Z33" s="59"/>
+      <c r="Z33" s="59">
+        <v>8</v>
+      </c>
       <c r="AA33" s="59"/>
       <c r="AB33" s="59"/>
       <c r="AC33" s="59"/>
@@ -4528,11 +4665,11 @@
       <c r="AH33" s="60"/>
       <c r="AI33" s="61">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>62.5</v>
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AK33" s="62">
         <f t="shared" si="2"/>
@@ -4541,7 +4678,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>26.727272727272727</v>
+        <v>31.5</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4582,7 +4719,9 @@
       <c r="N34" s="59">
         <v>9</v>
       </c>
-      <c r="O34" s="59"/>
+      <c r="O34" s="59">
+        <v>10</v>
+      </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59"/>
       <c r="R34" s="59"/>
@@ -4605,7 +4744,9 @@
       <c r="Y34" s="59">
         <v>9</v>
       </c>
-      <c r="Z34" s="59"/>
+      <c r="Z34" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AA34" s="59"/>
       <c r="AB34" s="59"/>
       <c r="AC34" s="59"/>
@@ -4616,11 +4757,11 @@
       <c r="AH34" s="60"/>
       <c r="AI34" s="61">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
-        <v>56.5</v>
+        <v>66</v>
       </c>
       <c r="AK34" s="62">
         <f t="shared" si="2"/>
@@ -4629,7 +4770,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>30.954545454545453</v>
+        <v>36.272727272727273</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4670,7 +4811,9 @@
       <c r="N35" s="59">
         <v>10</v>
       </c>
-      <c r="O35" s="59"/>
+      <c r="O35" s="59">
+        <v>10</v>
+      </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59"/>
       <c r="R35" s="59"/>
@@ -4693,7 +4836,9 @@
       <c r="Y35" s="59">
         <v>9</v>
       </c>
-      <c r="Z35" s="59"/>
+      <c r="Z35" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AA35" s="59"/>
       <c r="AB35" s="59"/>
       <c r="AC35" s="59"/>
@@ -4704,11 +4849,11 @@
       <c r="AH35" s="60"/>
       <c r="AI35" s="61">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
-        <v>56.5</v>
+        <v>66</v>
       </c>
       <c r="AK35" s="62">
         <f t="shared" si="2"/>
@@ -4717,7 +4862,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>30.40909090909091</v>
+        <v>35.727272727272727</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4758,7 +4903,9 @@
       <c r="N36" s="59">
         <v>9</v>
       </c>
-      <c r="O36" s="59"/>
+      <c r="O36" s="59">
+        <v>8</v>
+      </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59"/>
       <c r="R36" s="59"/>
@@ -4781,7 +4928,9 @@
       <c r="Y36" s="59">
         <v>9</v>
       </c>
-      <c r="Z36" s="59"/>
+      <c r="Z36" s="59">
+        <v>8</v>
+      </c>
       <c r="AA36" s="59"/>
       <c r="AB36" s="59"/>
       <c r="AC36" s="59"/>
@@ -4792,11 +4941,11 @@
       <c r="AH36" s="60"/>
       <c r="AI36" s="61">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AK36" s="62">
         <f t="shared" si="2"/>
@@ -4805,7 +4954,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>30.272727272727273</v>
+        <v>34.636363636363633</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4846,7 +4995,9 @@
       <c r="N37" s="59">
         <v>10</v>
       </c>
-      <c r="O37" s="59"/>
+      <c r="O37" s="59">
+        <v>10</v>
+      </c>
       <c r="P37" s="59"/>
       <c r="Q37" s="59"/>
       <c r="R37" s="59"/>
@@ -4869,7 +5020,9 @@
       <c r="Y37" s="59">
         <v>9</v>
       </c>
-      <c r="Z37" s="59"/>
+      <c r="Z37" s="59">
+        <v>8</v>
+      </c>
       <c r="AA37" s="59"/>
       <c r="AB37" s="59"/>
       <c r="AC37" s="59"/>
@@ -4880,11 +5033,11 @@
       <c r="AH37" s="60"/>
       <c r="AI37" s="61">
         <f t="shared" si="0"/>
-        <v>52.5</v>
+        <v>62.5</v>
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AK37" s="62">
         <f t="shared" si="2"/>
@@ -4893,7 +5046,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>29.863636363636363</v>
+        <v>34.772727272727273</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -4934,7 +5087,9 @@
       <c r="N38" s="59">
         <v>10</v>
       </c>
-      <c r="O38" s="59"/>
+      <c r="O38" s="59">
+        <v>10</v>
+      </c>
       <c r="P38" s="59"/>
       <c r="Q38" s="59"/>
       <c r="R38" s="59"/>
@@ -4957,7 +5112,9 @@
       <c r="Y38" s="59">
         <v>10</v>
       </c>
-      <c r="Z38" s="59"/>
+      <c r="Z38" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AA38" s="59"/>
       <c r="AB38" s="59"/>
       <c r="AC38" s="59"/>
@@ -4968,11 +5125,11 @@
       <c r="AH38" s="60"/>
       <c r="AI38" s="61">
         <f t="shared" si="0"/>
-        <v>53.5</v>
+        <v>63.5</v>
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>63</v>
       </c>
       <c r="AK38" s="62">
         <f t="shared" si="2"/>
@@ -4981,7 +5138,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>29.181818181818183</v>
+        <v>34.5</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -5022,7 +5179,9 @@
       <c r="N39" s="59">
         <v>7.5</v>
       </c>
-      <c r="O39" s="59"/>
+      <c r="O39" s="59">
+        <v>9</v>
+      </c>
       <c r="P39" s="59"/>
       <c r="Q39" s="59"/>
       <c r="R39" s="59"/>
@@ -5045,7 +5204,9 @@
       <c r="Y39" s="59">
         <v>10</v>
       </c>
-      <c r="Z39" s="59"/>
+      <c r="Z39" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AA39" s="59"/>
       <c r="AB39" s="59"/>
       <c r="AC39" s="59"/>
@@ -5056,11 +5217,11 @@
       <c r="AH39" s="60"/>
       <c r="AI39" s="61">
         <f t="shared" si="0"/>
-        <v>49.5</v>
+        <v>58.5</v>
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>63</v>
       </c>
       <c r="AK39" s="62">
         <f t="shared" si="2"/>
@@ -5069,7 +5230,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>28.090909090909093</v>
+        <v>33.13636363636364</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -5110,7 +5271,9 @@
       <c r="N40" s="59">
         <v>9.5</v>
       </c>
-      <c r="O40" s="59"/>
+      <c r="O40" s="59">
+        <v>8</v>
+      </c>
       <c r="P40" s="59"/>
       <c r="Q40" s="59"/>
       <c r="R40" s="59"/>
@@ -5133,7 +5296,9 @@
       <c r="Y40" s="59">
         <v>10</v>
       </c>
-      <c r="Z40" s="59"/>
+      <c r="Z40" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AA40" s="59"/>
       <c r="AB40" s="59"/>
       <c r="AC40" s="59"/>
@@ -5144,11 +5309,11 @@
       <c r="AH40" s="60"/>
       <c r="AI40" s="61">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>63</v>
       </c>
       <c r="AK40" s="62">
         <f t="shared" si="2"/>
@@ -5157,7 +5322,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>27.954545454545453</v>
+        <v>32.727272727272727</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -5198,7 +5363,9 @@
       <c r="N41" s="59">
         <v>0</v>
       </c>
-      <c r="O41" s="59"/>
+      <c r="O41" s="59">
+        <v>7.5</v>
+      </c>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
       <c r="R41" s="59"/>
@@ -5221,7 +5388,9 @@
       <c r="Y41" s="59">
         <v>10</v>
       </c>
-      <c r="Z41" s="59"/>
+      <c r="Z41" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AA41" s="59"/>
       <c r="AB41" s="59"/>
       <c r="AC41" s="59"/>
@@ -5232,11 +5401,11 @@
       <c r="AH41" s="60"/>
       <c r="AI41" s="61">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>24.5</v>
       </c>
       <c r="AJ41" s="62">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>65.5</v>
       </c>
       <c r="AK41" s="62">
         <f t="shared" si="2"/>
@@ -5245,7 +5414,7 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="62">
         <f t="shared" si="3"/>
-        <v>19.909090909090907</v>
+        <v>24.545454545454547</v>
       </c>
       <c r="AN41" s="59"/>
     </row>
@@ -5286,7 +5455,9 @@
       <c r="N42" s="59">
         <v>9.5</v>
       </c>
-      <c r="O42" s="59"/>
+      <c r="O42" s="59">
+        <v>8.5</v>
+      </c>
       <c r="P42" s="59"/>
       <c r="Q42" s="59"/>
       <c r="R42" s="59"/>
@@ -5309,7 +5480,9 @@
       <c r="Y42" s="59">
         <v>10</v>
       </c>
-      <c r="Z42" s="59"/>
+      <c r="Z42" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AA42" s="59"/>
       <c r="AB42" s="59"/>
       <c r="AC42" s="59"/>
@@ -5320,11 +5493,11 @@
       <c r="AH42" s="60"/>
       <c r="AI42" s="61">
         <f t="shared" si="0"/>
-        <v>48.5</v>
+        <v>57</v>
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>65.5</v>
       </c>
       <c r="AK42" s="62">
         <f t="shared" si="2"/>
@@ -5333,7 +5506,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>28.5</v>
+        <v>33.409090909090907</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -5374,7 +5547,9 @@
       <c r="N43" s="59">
         <v>8</v>
       </c>
-      <c r="O43" s="59"/>
+      <c r="O43" s="59">
+        <v>7.5</v>
+      </c>
       <c r="P43" s="59"/>
       <c r="Q43" s="59"/>
       <c r="R43" s="59"/>
@@ -5397,7 +5572,9 @@
       <c r="Y43" s="59">
         <v>8</v>
       </c>
-      <c r="Z43" s="59"/>
+      <c r="Z43" s="59">
+        <v>9</v>
+      </c>
       <c r="AA43" s="59"/>
       <c r="AB43" s="59"/>
       <c r="AC43" s="59"/>
@@ -5408,11 +5585,11 @@
       <c r="AH43" s="60"/>
       <c r="AI43" s="61">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>55.5</v>
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
-        <v>51.5</v>
+        <v>60.5</v>
       </c>
       <c r="AK43" s="62">
         <f t="shared" si="2"/>
@@ -5421,7 +5598,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>27.136363636363637</v>
+        <v>31.636363636363633</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -5462,7 +5639,9 @@
       <c r="N44" s="59">
         <v>8</v>
       </c>
-      <c r="O44" s="59"/>
+      <c r="O44" s="59">
+        <v>8</v>
+      </c>
       <c r="P44" s="59"/>
       <c r="Q44" s="59"/>
       <c r="R44" s="59"/>
@@ -5485,7 +5664,9 @@
       <c r="Y44" s="59">
         <v>8</v>
       </c>
-      <c r="Z44" s="59"/>
+      <c r="Z44" s="59">
+        <v>9</v>
+      </c>
       <c r="AA44" s="59"/>
       <c r="AB44" s="59"/>
       <c r="AC44" s="59"/>
@@ -5496,11 +5677,11 @@
       <c r="AH44" s="60"/>
       <c r="AI44" s="61">
         <f t="shared" si="0"/>
-        <v>40.5</v>
+        <v>48.5</v>
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
-        <v>51.5</v>
+        <v>60.5</v>
       </c>
       <c r="AK44" s="62">
         <f t="shared" si="2"/>
@@ -5509,7 +5690,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>25.090909090909093</v>
+        <v>29.727272727272727</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -5550,7 +5731,9 @@
       <c r="N45" s="83">
         <v>7.5</v>
       </c>
-      <c r="O45" s="83"/>
+      <c r="O45" s="83">
+        <v>8</v>
+      </c>
       <c r="P45" s="83"/>
       <c r="Q45" s="84"/>
       <c r="R45" s="83"/>
@@ -5573,7 +5756,9 @@
       <c r="Y45" s="83">
         <v>9</v>
       </c>
-      <c r="Z45" s="83"/>
+      <c r="Z45" s="83">
+        <v>9</v>
+      </c>
       <c r="AA45" s="83"/>
       <c r="AB45" s="83"/>
       <c r="AC45" s="83"/>
@@ -5584,11 +5769,11 @@
       <c r="AH45" s="85"/>
       <c r="AI45" s="61">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>62.5</v>
       </c>
       <c r="AK45" s="62">
         <f t="shared" si="2"/>
@@ -5597,7 +5782,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>29.045454545454547</v>
+        <v>33.681818181818187</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -5638,7 +5823,9 @@
       <c r="N46" s="83">
         <v>10</v>
       </c>
-      <c r="O46" s="83"/>
+      <c r="O46" s="83">
+        <v>9</v>
+      </c>
       <c r="P46" s="83"/>
       <c r="Q46" s="84"/>
       <c r="R46" s="83"/>
@@ -5661,7 +5848,9 @@
       <c r="Y46" s="83">
         <v>9</v>
       </c>
-      <c r="Z46" s="83"/>
+      <c r="Z46" s="83">
+        <v>9</v>
+      </c>
       <c r="AA46" s="83"/>
       <c r="AB46" s="83"/>
       <c r="AC46" s="83"/>
@@ -5672,11 +5861,11 @@
       <c r="AH46" s="85"/>
       <c r="AI46" s="61">
         <f t="shared" si="0"/>
-        <v>57.5</v>
+        <v>66.5</v>
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>62.5</v>
       </c>
       <c r="AK46" s="62">
         <f t="shared" si="2"/>
@@ -5685,7 +5874,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>30.272727272727273</v>
+        <v>35.18181818181818</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5726,7 +5915,9 @@
       <c r="N47" s="83">
         <v>10</v>
       </c>
-      <c r="O47" s="83"/>
+      <c r="O47" s="83">
+        <v>9</v>
+      </c>
       <c r="P47" s="83"/>
       <c r="Q47" s="84"/>
       <c r="R47" s="83"/>
@@ -5749,7 +5940,9 @@
       <c r="Y47" s="83">
         <v>9.5</v>
       </c>
-      <c r="Z47" s="83"/>
+      <c r="Z47" s="83">
+        <v>9.5</v>
+      </c>
       <c r="AA47" s="83"/>
       <c r="AB47" s="83"/>
       <c r="AC47" s="83"/>
@@ -5760,11 +5953,11 @@
       <c r="AH47" s="85"/>
       <c r="AI47" s="61">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>64.5</v>
       </c>
       <c r="AK47" s="62">
         <f t="shared" si="2"/>
@@ -5773,7 +5966,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>35.045454545454547</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5814,7 +6007,9 @@
       <c r="N48" s="83">
         <v>7</v>
       </c>
-      <c r="O48" s="83"/>
+      <c r="O48" s="83">
+        <v>8</v>
+      </c>
       <c r="P48" s="83"/>
       <c r="Q48" s="83"/>
       <c r="R48" s="83"/>
@@ -5837,7 +6032,9 @@
       <c r="Y48" s="83">
         <v>9.5</v>
       </c>
-      <c r="Z48" s="83"/>
+      <c r="Z48" s="83">
+        <v>9.5</v>
+      </c>
       <c r="AA48" s="83"/>
       <c r="AB48" s="83"/>
       <c r="AC48" s="83"/>
@@ -5848,11 +6045,11 @@
       <c r="AH48" s="85"/>
       <c r="AI48" s="61">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>64.5</v>
       </c>
       <c r="AK48" s="62">
         <f t="shared" si="2"/>
@@ -5861,7 +6058,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>27.818181818181817</v>
+        <v>32.590909090909093</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -5895,9 +6092,9 @@
         <f>AVERAGE(N2:N48)</f>
         <v>9.1222222222222218</v>
       </c>
-      <c r="O49" s="65" t="e">
-        <f>AVERAGE(O2:O32)</f>
-        <v>#DIV/0!</v>
+      <c r="O49" s="65">
+        <f>AVERAGE(O2:O48)</f>
+        <v>9.0555555555555554</v>
       </c>
       <c r="P49" s="65" t="e">
         <f>AVERAGE(P2:P26)</f>
@@ -5939,9 +6136,9 @@
         <f>AVERAGE(Y2:Y25)</f>
         <v>9.5909090909090917</v>
       </c>
-      <c r="Z49" s="65" t="e">
-        <f>AVERAGE(Z2:Z32)</f>
-        <v>#DIV/0!</v>
+      <c r="Z49" s="65">
+        <f>AVERAGE(Z2:Z48)</f>
+        <v>9.5</v>
       </c>
       <c r="AA49" s="65" t="e">
         <f>AVERAGE(AA2:AA25)</f>
@@ -5977,11 +6174,11 @@
       </c>
       <c r="AI49" s="67">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>49.395833333333336</v>
+        <v>57.791666666666664</v>
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>52.666666666666664</v>
+        <v>61.708333333333336</v>
       </c>
       <c r="AK49" s="65">
         <f>AVERAGE(AK2:AK25)</f>
@@ -5993,7 +6190,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>27.835227272727277</v>
+        <v>32.590909090909086</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -6027,9 +6224,9 @@
         <f t="shared" si="4"/>
         <v>8.7391304347826093</v>
       </c>
-      <c r="O50" s="65" t="e">
+      <c r="O50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.9565217391304355</v>
       </c>
       <c r="P50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -6071,9 +6268,9 @@
         <f t="shared" si="4"/>
         <v>9.1739130434782616</v>
       </c>
-      <c r="Z50" s="65" t="e">
+      <c r="Z50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.1521739130434785</v>
       </c>
       <c r="AA50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -6109,11 +6306,11 @@
       </c>
       <c r="AI50" s="67">
         <f t="shared" si="4"/>
-        <v>50.5</v>
+        <v>59.456521739130437</v>
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
-        <v>53.413043478260867</v>
+        <v>62.565217391304351</v>
       </c>
       <c r="AK50" s="65">
         <f t="shared" si="4"/>
@@ -6125,7 +6322,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>28.339920948616601</v>
+        <v>33.278656126482204</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -6159,9 +6356,9 @@
         <f t="shared" si="5"/>
         <v>9.1222222222222218</v>
       </c>
-      <c r="O51" s="65" t="e">
+      <c r="O51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.0555555555555554</v>
       </c>
       <c r="P51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -6203,9 +6400,9 @@
         <f t="shared" si="5"/>
         <v>9.3777777777777782</v>
       </c>
-      <c r="Z51" s="65" t="e">
+      <c r="Z51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.5</v>
       </c>
       <c r="AA51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -6241,11 +6438,11 @@
       </c>
       <c r="AI51" s="67">
         <f t="shared" si="5"/>
-        <v>49.936170212765958</v>
+        <v>58.606382978723403</v>
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
-        <v>53.031914893617021</v>
+        <v>62.127659574468083</v>
       </c>
       <c r="AK51" s="65">
         <f t="shared" si="5"/>
@@ -6257,7 +6454,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>28.082205029013544</v>
+        <v>32.927466150870409</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -6291,9 +6488,9 @@
         <f t="shared" si="6"/>
         <v>1.6792705246473809</v>
       </c>
-      <c r="O52" s="65" t="e">
+      <c r="O52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.76293558513855364</v>
       </c>
       <c r="P52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6335,9 +6532,9 @@
         <f t="shared" si="6"/>
         <v>0.87357387388320695</v>
       </c>
-      <c r="Z52" s="65" t="e">
+      <c r="Z52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.58387420812114221</v>
       </c>
       <c r="AA52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6373,11 +6570,11 @@
       </c>
       <c r="AI52" s="67">
         <f t="shared" si="6"/>
-        <v>10.978544798079623</v>
+        <v>12.668403081396933</v>
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
-        <v>8.4315686916074615</v>
+        <v>10.284786191847944</v>
       </c>
       <c r="AK52" s="65">
         <f t="shared" si="6"/>
@@ -6389,7 +6586,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>4.934011536620317</v>
+        <v>5.9225497349047842</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6425,7 +6622,7 @@
       </c>
       <c r="O53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P53" s="65">
         <f t="shared" si="7"/>
@@ -6469,7 +6666,7 @@
       </c>
       <c r="Z53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA53" s="65">
         <f t="shared" si="7"/>
@@ -6505,11 +6702,11 @@
       </c>
       <c r="AI53" s="67">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK53" s="65">
         <f t="shared" si="7"/>
@@ -6521,7 +6718,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>32.727272727272727</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -6557,7 +6754,7 @@
       </c>
       <c r="O54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="P54" s="69">
         <f t="shared" si="8"/>
@@ -6601,7 +6798,7 @@
       </c>
       <c r="Z54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA54" s="69">
         <f t="shared" si="8"/>

--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6617F6B-8AA7-4617-8928-4ED0FDC76A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911CA23-FF28-4CEB-AE86-EBD264937DE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,22 +19,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
   <si>
     <t xml:space="preserve">                                                             </t>
   </si>
@@ -592,10 +581,6 @@
       </rPr>
       <t>정영석</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1345,6 +1330,37 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,18 +1371,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1384,25 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1634,7 +1619,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1794,7 +1779,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="101"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1816,7 +1801,9 @@
       <c r="O2" s="43">
         <v>8</v>
       </c>
-      <c r="P2" s="43"/>
+      <c r="P2" s="43">
+        <v>10</v>
+      </c>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
       <c r="S2" s="44"/>
@@ -1851,7 +1838,7 @@
       <c r="AH2" s="44"/>
       <c r="AI2" s="45">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
@@ -1864,7 +1851,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>35.318181818181813</v>
+        <v>38.045454545454547</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1886,7 +1873,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="102"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1908,7 +1895,9 @@
       <c r="O3" s="43">
         <v>9</v>
       </c>
-      <c r="P3" s="43"/>
+      <c r="P3" s="43">
+        <v>10</v>
+      </c>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
       <c r="S3" s="44"/>
@@ -1943,7 +1932,7 @@
       <c r="AH3" s="44"/>
       <c r="AI3" s="45">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
@@ -1956,7 +1945,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>36.409090909090907</v>
+        <v>39.13636363636364</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1978,7 +1967,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="101"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2000,7 +1989,9 @@
       <c r="O4" s="43">
         <v>9</v>
       </c>
-      <c r="P4" s="43"/>
+      <c r="P4" s="43">
+        <v>10</v>
+      </c>
       <c r="Q4" s="43"/>
       <c r="R4" s="43"/>
       <c r="S4" s="44"/>
@@ -2035,7 +2026,7 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="45">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
@@ -2048,7 +2039,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>34.636363636363633</v>
+        <v>37.36363636363636</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2070,7 +2061,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="102"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2092,7 +2083,9 @@
       <c r="O5" s="43">
         <v>10</v>
       </c>
-      <c r="P5" s="43"/>
+      <c r="P5" s="43">
+        <v>10</v>
+      </c>
       <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
       <c r="S5" s="44"/>
@@ -2127,7 +2120,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="45">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
@@ -2140,7 +2133,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>38.18181818181818</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2162,7 +2155,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="101"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2184,7 +2177,9 @@
       <c r="O6" s="43">
         <v>9</v>
       </c>
-      <c r="P6" s="43"/>
+      <c r="P6" s="43">
+        <v>10</v>
+      </c>
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
       <c r="S6" s="44"/>
@@ -2219,7 +2214,7 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="45">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
@@ -2232,7 +2227,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>33.545454545454547</v>
+        <v>36.272727272727273</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2254,7 +2249,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="102"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2276,7 +2271,9 @@
       <c r="O7" s="43">
         <v>9</v>
       </c>
-      <c r="P7" s="43"/>
+      <c r="P7" s="43">
+        <v>10</v>
+      </c>
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
       <c r="S7" s="44"/>
@@ -2311,7 +2308,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
@@ -2324,7 +2321,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>34.090909090909093</v>
+        <v>36.818181818181813</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2346,7 +2343,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="101"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2368,7 +2365,9 @@
       <c r="O8" s="43">
         <v>9</v>
       </c>
-      <c r="P8" s="43"/>
+      <c r="P8" s="43">
+        <v>10</v>
+      </c>
       <c r="Q8" s="43"/>
       <c r="R8" s="43"/>
       <c r="S8" s="44"/>
@@ -2403,7 +2402,7 @@
       <c r="AH8" s="44"/>
       <c r="AI8" s="45">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
@@ -2416,7 +2415,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>35.18181818181818</v>
+        <v>37.909090909090907</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2438,7 +2437,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="102"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2460,7 +2459,9 @@
       <c r="O9" s="43">
         <v>9</v>
       </c>
-      <c r="P9" s="43"/>
+      <c r="P9" s="43">
+        <v>10</v>
+      </c>
       <c r="Q9" s="43"/>
       <c r="R9" s="43"/>
       <c r="S9" s="44"/>
@@ -2495,7 +2496,7 @@
       <c r="AH9" s="44"/>
       <c r="AI9" s="45">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
@@ -2508,7 +2509,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>35.590909090909086</v>
+        <v>38.318181818181813</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2530,7 +2531,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="101"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2552,7 +2553,9 @@
       <c r="O10" s="43">
         <v>9.5</v>
       </c>
-      <c r="P10" s="43"/>
+      <c r="P10" s="43">
+        <v>10</v>
+      </c>
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
       <c r="S10" s="44"/>
@@ -2587,7 +2590,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45">
         <f t="shared" si="0"/>
-        <v>66.5</v>
+        <v>76.5</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
@@ -2600,7 +2603,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>37.22727272727272</v>
+        <v>39.954545454545453</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2622,7 +2625,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2644,7 +2647,9 @@
       <c r="O11" s="43">
         <v>9</v>
       </c>
-      <c r="P11" s="43"/>
+      <c r="P11" s="43">
+        <v>10</v>
+      </c>
       <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
       <c r="S11" s="44"/>
@@ -2679,7 +2684,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
@@ -2692,7 +2697,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>38.727272727272727</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2714,7 +2719,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="101"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2736,7 +2741,9 @@
       <c r="O12" s="43">
         <v>10</v>
       </c>
-      <c r="P12" s="43"/>
+      <c r="P12" s="43">
+        <v>10</v>
+      </c>
       <c r="Q12" s="43"/>
       <c r="R12" s="43"/>
       <c r="S12" s="44"/>
@@ -2771,7 +2778,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45">
         <f t="shared" si="0"/>
-        <v>66.5</v>
+        <v>76.5</v>
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
@@ -2784,7 +2791,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
+        <v>39.272727272727273</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2806,7 +2813,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="102"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2828,7 +2835,9 @@
       <c r="O13" s="43">
         <v>9</v>
       </c>
-      <c r="P13" s="43"/>
+      <c r="P13" s="43">
+        <v>10</v>
+      </c>
       <c r="Q13" s="46"/>
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
@@ -2863,7 +2872,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
@@ -2876,7 +2885,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>34.772727272727273</v>
+        <v>37.5</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2898,7 +2907,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="101"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2920,7 +2929,9 @@
       <c r="O14" s="43">
         <v>9</v>
       </c>
-      <c r="P14" s="43"/>
+      <c r="P14" s="43">
+        <v>9</v>
+      </c>
       <c r="Q14" s="43"/>
       <c r="R14" s="43"/>
       <c r="S14" s="44"/>
@@ -2955,7 +2966,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
@@ -2968,7 +2979,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>34.909090909090907</v>
+        <v>37.36363636363636</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -2990,7 +3001,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="102"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -3012,7 +3023,9 @@
       <c r="O15" s="43">
         <v>8.5</v>
       </c>
-      <c r="P15" s="43"/>
+      <c r="P15" s="43">
+        <v>10</v>
+      </c>
       <c r="Q15" s="48"/>
       <c r="R15" s="43"/>
       <c r="S15" s="44"/>
@@ -3047,7 +3060,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45">
         <f t="shared" si="0"/>
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
@@ -3060,7 +3073,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>33.681818181818187</v>
+        <v>36.409090909090907</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -3082,7 +3095,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="89"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -3154,7 +3167,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="90"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -3176,7 +3189,9 @@
       <c r="O17" s="43">
         <v>10</v>
       </c>
-      <c r="P17" s="43"/>
+      <c r="P17" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Q17" s="43"/>
       <c r="R17" s="43"/>
       <c r="S17" s="44"/>
@@ -3211,7 +3226,7 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="45">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>66.5</v>
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
@@ -3224,7 +3239,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>32.86363636363636</v>
+        <v>35.454545454545453</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3246,7 +3261,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="87"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3268,7 +3283,9 @@
       <c r="O18" s="43">
         <v>9</v>
       </c>
-      <c r="P18" s="43"/>
+      <c r="P18" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Q18" s="43"/>
       <c r="R18" s="43"/>
       <c r="S18" s="44"/>
@@ -3303,7 +3320,7 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>76.5</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
@@ -3316,7 +3333,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>35.045454545454547</v>
+        <v>37.63636363636364</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3338,7 +3355,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="88"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3360,7 +3377,9 @@
       <c r="O19" s="43">
         <v>10</v>
       </c>
-      <c r="P19" s="43"/>
+      <c r="P19" s="43">
+        <v>10</v>
+      </c>
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
       <c r="S19" s="44"/>
@@ -3395,7 +3414,7 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="45">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
@@ -3408,7 +3427,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>32.86363636363636</v>
+        <v>35.590909090909093</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3430,7 +3449,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="87"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3452,7 +3471,9 @@
       <c r="O20" s="43">
         <v>10</v>
       </c>
-      <c r="P20" s="43"/>
+      <c r="P20" s="43">
+        <v>10</v>
+      </c>
       <c r="Q20" s="43"/>
       <c r="R20" s="43"/>
       <c r="S20" s="44"/>
@@ -3487,7 +3508,7 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>66.5</v>
+        <v>76.5</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
@@ -3500,7 +3521,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>35.04545454545454</v>
+        <v>37.772727272727266</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3522,7 +3543,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="88"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3594,7 +3615,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="99"/>
+      <c r="H22" s="106"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3616,7 +3637,9 @@
       <c r="O22" s="43">
         <v>8</v>
       </c>
-      <c r="P22" s="43"/>
+      <c r="P22" s="43">
+        <v>10</v>
+      </c>
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
       <c r="S22" s="44"/>
@@ -3651,7 +3674,7 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="45">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
@@ -3664,7 +3687,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>34.5</v>
+        <v>37.22727272727272</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3686,7 +3709,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="100"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3708,7 +3731,9 @@
       <c r="O23" s="43">
         <v>9</v>
       </c>
-      <c r="P23" s="43"/>
+      <c r="P23" s="43">
+        <v>9.5</v>
+      </c>
       <c r="Q23" s="49"/>
       <c r="R23" s="43"/>
       <c r="S23" s="44"/>
@@ -3743,7 +3768,7 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="45">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>74.5</v>
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
@@ -3756,7 +3781,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>35.86363636363636</v>
+        <v>38.454545454545453</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3778,7 +3803,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3800,7 +3825,9 @@
       <c r="O24" s="43">
         <v>10</v>
       </c>
-      <c r="P24" s="43"/>
+      <c r="P24" s="43">
+        <v>9</v>
+      </c>
       <c r="Q24" s="49"/>
       <c r="R24" s="43"/>
       <c r="S24" s="44"/>
@@ -3835,7 +3862,7 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
@@ -3848,7 +3875,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>32.318181818181813</v>
+        <v>34.772727272727266</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3870,7 +3897,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="98"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3892,8 +3919,8 @@
       <c r="O25" s="51">
         <v>8.5</v>
       </c>
-      <c r="P25" s="51" t="s">
-        <v>95</v>
+      <c r="P25" s="51">
+        <v>9</v>
       </c>
       <c r="Q25" s="51"/>
       <c r="R25" s="51"/>
@@ -3929,7 +3956,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="50">
         <f t="shared" si="0"/>
-        <v>57.5</v>
+        <v>66.5</v>
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
@@ -3942,7 +3969,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>35.454545454545453</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3964,7 +3991,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="95"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -3986,7 +4013,9 @@
       <c r="O26" s="54">
         <v>9</v>
       </c>
-      <c r="P26" s="54"/>
+      <c r="P26" s="54">
+        <v>10</v>
+      </c>
       <c r="Q26" s="54"/>
       <c r="R26" s="54"/>
       <c r="S26" s="55"/>
@@ -4021,7 +4050,7 @@
       <c r="AH26" s="55"/>
       <c r="AI26" s="56">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
@@ -4034,7 +4063,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>34.5</v>
+        <v>37.227272727272727</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -4056,7 +4085,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="96"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -4078,7 +4107,9 @@
       <c r="O27" s="59">
         <v>10</v>
       </c>
-      <c r="P27" s="59"/>
+      <c r="P27" s="59">
+        <v>10</v>
+      </c>
       <c r="Q27" s="59"/>
       <c r="R27" s="59"/>
       <c r="S27" s="60"/>
@@ -4113,7 +4144,7 @@
       <c r="AH27" s="60"/>
       <c r="AI27" s="61">
         <f t="shared" si="0"/>
-        <v>60.5</v>
+        <v>70.5</v>
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
@@ -4126,7 +4157,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>34.090909090909093</v>
+        <v>36.818181818181813</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -4148,7 +4179,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -4170,7 +4201,9 @@
       <c r="O28" s="59">
         <v>9</v>
       </c>
-      <c r="P28" s="59"/>
+      <c r="P28" s="59">
+        <v>10</v>
+      </c>
       <c r="Q28" s="59"/>
       <c r="R28" s="59"/>
       <c r="S28" s="60"/>
@@ -4205,7 +4238,7 @@
       <c r="AH28" s="60"/>
       <c r="AI28" s="61">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
@@ -4218,7 +4251,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>32.31818181818182</v>
+        <v>35.045454545454547</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -4240,7 +4273,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -4262,7 +4295,9 @@
       <c r="O29" s="59">
         <v>9</v>
       </c>
-      <c r="P29" s="59"/>
+      <c r="P29" s="59">
+        <v>10</v>
+      </c>
       <c r="Q29" s="59"/>
       <c r="R29" s="59"/>
       <c r="S29" s="60"/>
@@ -4297,7 +4332,7 @@
       <c r="AH29" s="60"/>
       <c r="AI29" s="61">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
@@ -4310,7 +4345,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>33.68181818181818</v>
+        <v>36.409090909090907</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -4332,7 +4367,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="97"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -4354,7 +4389,9 @@
       <c r="O30" s="59">
         <v>10</v>
       </c>
-      <c r="P30" s="59"/>
+      <c r="P30" s="59">
+        <v>10</v>
+      </c>
       <c r="Q30" s="59"/>
       <c r="R30" s="59"/>
       <c r="S30" s="60"/>
@@ -4389,7 +4426,7 @@
       <c r="AH30" s="60"/>
       <c r="AI30" s="61">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
@@ -4402,7 +4439,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>36.272727272727273</v>
+        <v>39</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -4424,7 +4461,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="96"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4446,7 +4483,9 @@
       <c r="O31" s="59">
         <v>9</v>
       </c>
-      <c r="P31" s="59"/>
+      <c r="P31" s="59">
+        <v>10</v>
+      </c>
       <c r="Q31" s="59"/>
       <c r="R31" s="59"/>
       <c r="S31" s="60"/>
@@ -4481,7 +4520,7 @@
       <c r="AH31" s="60"/>
       <c r="AI31" s="61">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
@@ -4494,7 +4533,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
+        <v>39.272727272727273</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -4516,7 +4555,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="91"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4538,7 +4577,9 @@
       <c r="O32" s="59">
         <v>10</v>
       </c>
-      <c r="P32" s="59"/>
+      <c r="P32" s="59">
+        <v>9</v>
+      </c>
       <c r="Q32" s="59"/>
       <c r="R32" s="59"/>
       <c r="S32" s="60"/>
@@ -4573,7 +4614,7 @@
       <c r="AH32" s="60"/>
       <c r="AI32" s="61">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
@@ -4586,7 +4627,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>28.90909090909091</v>
+        <v>31.36363636363636</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4608,7 +4649,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4630,7 +4671,9 @@
       <c r="O33" s="59">
         <v>9.5</v>
       </c>
-      <c r="P33" s="59"/>
+      <c r="P33" s="59">
+        <v>10</v>
+      </c>
       <c r="Q33" s="59"/>
       <c r="R33" s="59"/>
       <c r="S33" s="60"/>
@@ -4665,7 +4708,7 @@
       <c r="AH33" s="60"/>
       <c r="AI33" s="61">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
@@ -4678,7 +4721,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>31.5</v>
+        <v>34.227272727272727</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4700,7 +4743,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="93"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4722,7 +4765,9 @@
       <c r="O34" s="59">
         <v>10</v>
       </c>
-      <c r="P34" s="59"/>
+      <c r="P34" s="59">
+        <v>10</v>
+      </c>
       <c r="Q34" s="59"/>
       <c r="R34" s="59"/>
       <c r="S34" s="60"/>
@@ -4757,7 +4802,7 @@
       <c r="AH34" s="60"/>
       <c r="AI34" s="61">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
@@ -4770,7 +4815,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>36.272727272727273</v>
+        <v>39</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4792,7 +4837,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4814,7 +4859,9 @@
       <c r="O35" s="59">
         <v>10</v>
       </c>
-      <c r="P35" s="59"/>
+      <c r="P35" s="59">
+        <v>8.5</v>
+      </c>
       <c r="Q35" s="59"/>
       <c r="R35" s="59"/>
       <c r="S35" s="60"/>
@@ -4849,7 +4896,7 @@
       <c r="AH35" s="60"/>
       <c r="AI35" s="61">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>73.5</v>
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
@@ -4862,7 +4909,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>35.727272727272727</v>
+        <v>38.045454545454547</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4884,7 +4931,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="91"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4906,7 +4953,9 @@
       <c r="O36" s="59">
         <v>8</v>
       </c>
-      <c r="P36" s="59"/>
+      <c r="P36" s="59">
+        <v>10</v>
+      </c>
       <c r="Q36" s="59"/>
       <c r="R36" s="59"/>
       <c r="S36" s="60"/>
@@ -4941,7 +4990,7 @@
       <c r="AH36" s="60"/>
       <c r="AI36" s="61">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
@@ -4954,7 +5003,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>34.636363636363633</v>
+        <v>37.36363636363636</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -4976,7 +5025,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="92"/>
+      <c r="H37" s="88"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -4998,7 +5047,9 @@
       <c r="O37" s="59">
         <v>10</v>
       </c>
-      <c r="P37" s="59"/>
+      <c r="P37" s="59">
+        <v>10</v>
+      </c>
       <c r="Q37" s="59"/>
       <c r="R37" s="59"/>
       <c r="S37" s="60"/>
@@ -5033,7 +5084,7 @@
       <c r="AH37" s="60"/>
       <c r="AI37" s="61">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
@@ -5046,7 +5097,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>34.772727272727273</v>
+        <v>37.5</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -5068,7 +5119,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="93"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -5090,7 +5141,9 @@
       <c r="O38" s="59">
         <v>10</v>
       </c>
-      <c r="P38" s="59"/>
+      <c r="P38" s="59">
+        <v>10</v>
+      </c>
       <c r="Q38" s="59"/>
       <c r="R38" s="59"/>
       <c r="S38" s="60"/>
@@ -5125,7 +5178,7 @@
       <c r="AH38" s="60"/>
       <c r="AI38" s="61">
         <f t="shared" si="0"/>
-        <v>63.5</v>
+        <v>73.5</v>
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
@@ -5138,7 +5191,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>34.5</v>
+        <v>37.227272727272734</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -5160,7 +5213,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="105"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -5182,7 +5235,9 @@
       <c r="O39" s="59">
         <v>9</v>
       </c>
-      <c r="P39" s="59"/>
+      <c r="P39" s="59">
+        <v>10</v>
+      </c>
       <c r="Q39" s="59"/>
       <c r="R39" s="59"/>
       <c r="S39" s="60"/>
@@ -5217,7 +5272,7 @@
       <c r="AH39" s="60"/>
       <c r="AI39" s="61">
         <f t="shared" si="0"/>
-        <v>58.5</v>
+        <v>68.5</v>
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
@@ -5230,7 +5285,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>33.13636363636364</v>
+        <v>35.86363636363636</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -5252,7 +5307,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="94"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -5274,7 +5329,9 @@
       <c r="O40" s="59">
         <v>8</v>
       </c>
-      <c r="P40" s="59"/>
+      <c r="P40" s="59">
+        <v>10</v>
+      </c>
       <c r="Q40" s="59"/>
       <c r="R40" s="59"/>
       <c r="S40" s="60"/>
@@ -5309,7 +5366,7 @@
       <c r="AH40" s="60"/>
       <c r="AI40" s="61">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
@@ -5322,7 +5379,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>32.727272727272727</v>
+        <v>35.454545454545453</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -5344,7 +5401,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="91"/>
+      <c r="H41" s="87"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -5366,7 +5423,9 @@
       <c r="O41" s="59">
         <v>7.5</v>
       </c>
-      <c r="P41" s="59"/>
+      <c r="P41" s="59">
+        <v>9</v>
+      </c>
       <c r="Q41" s="59"/>
       <c r="R41" s="59"/>
       <c r="S41" s="60"/>
@@ -5401,7 +5460,7 @@
       <c r="AH41" s="60"/>
       <c r="AI41" s="61">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>33.5</v>
       </c>
       <c r="AJ41" s="62">
         <f t="shared" si="1"/>
@@ -5414,7 +5473,7 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="62">
         <f t="shared" si="3"/>
-        <v>24.545454545454547</v>
+        <v>27</v>
       </c>
       <c r="AN41" s="59"/>
     </row>
@@ -5436,7 +5495,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="92"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -5458,7 +5517,9 @@
       <c r="O42" s="59">
         <v>8.5</v>
       </c>
-      <c r="P42" s="59"/>
+      <c r="P42" s="59">
+        <v>9</v>
+      </c>
       <c r="Q42" s="59"/>
       <c r="R42" s="59"/>
       <c r="S42" s="60"/>
@@ -5493,7 +5554,7 @@
       <c r="AH42" s="60"/>
       <c r="AI42" s="61">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
@@ -5506,7 +5567,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>33.409090909090907</v>
+        <v>35.86363636363636</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -5528,7 +5589,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="91"/>
+      <c r="H43" s="87"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -5550,7 +5611,9 @@
       <c r="O43" s="59">
         <v>7.5</v>
       </c>
-      <c r="P43" s="59"/>
+      <c r="P43" s="59">
+        <v>9</v>
+      </c>
       <c r="Q43" s="59"/>
       <c r="R43" s="59"/>
       <c r="S43" s="60"/>
@@ -5585,7 +5648,7 @@
       <c r="AH43" s="60"/>
       <c r="AI43" s="61">
         <f t="shared" si="0"/>
-        <v>55.5</v>
+        <v>64.5</v>
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
@@ -5598,7 +5661,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>31.636363636363633</v>
+        <v>34.090909090909093</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -5620,7 +5683,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="92"/>
+      <c r="H44" s="88"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -5642,7 +5705,9 @@
       <c r="O44" s="59">
         <v>8</v>
       </c>
-      <c r="P44" s="59"/>
+      <c r="P44" s="59">
+        <v>10</v>
+      </c>
       <c r="Q44" s="59"/>
       <c r="R44" s="59"/>
       <c r="S44" s="60"/>
@@ -5677,7 +5742,7 @@
       <c r="AH44" s="60"/>
       <c r="AI44" s="61">
         <f t="shared" si="0"/>
-        <v>48.5</v>
+        <v>58.5</v>
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
@@ -5690,7 +5755,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>29.727272727272727</v>
+        <v>32.454545454545453</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -5712,7 +5777,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="106"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5734,7 +5799,9 @@
       <c r="O45" s="83">
         <v>8</v>
       </c>
-      <c r="P45" s="83"/>
+      <c r="P45" s="83">
+        <v>9</v>
+      </c>
       <c r="Q45" s="84"/>
       <c r="R45" s="83"/>
       <c r="S45" s="85"/>
@@ -5769,7 +5836,7 @@
       <c r="AH45" s="85"/>
       <c r="AI45" s="61">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
@@ -5782,7 +5849,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>33.681818181818187</v>
+        <v>36.13636363636364</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -5804,7 +5871,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="107"/>
+      <c r="H46" s="95"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5826,7 +5893,9 @@
       <c r="O46" s="83">
         <v>9</v>
       </c>
-      <c r="P46" s="83"/>
+      <c r="P46" s="83">
+        <v>10</v>
+      </c>
       <c r="Q46" s="84"/>
       <c r="R46" s="83"/>
       <c r="S46" s="85"/>
@@ -5861,7 +5930,7 @@
       <c r="AH46" s="85"/>
       <c r="AI46" s="61">
         <f t="shared" si="0"/>
-        <v>66.5</v>
+        <v>76.5</v>
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
@@ -5874,7 +5943,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>35.18181818181818</v>
+        <v>37.909090909090907</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5896,7 +5965,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="103"/>
+      <c r="H47" s="89"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -5918,7 +5987,9 @@
       <c r="O47" s="83">
         <v>9</v>
       </c>
-      <c r="P47" s="83"/>
+      <c r="P47" s="83">
+        <v>10</v>
+      </c>
       <c r="Q47" s="84"/>
       <c r="R47" s="83"/>
       <c r="S47" s="85"/>
@@ -5953,7 +6024,7 @@
       <c r="AH47" s="85"/>
       <c r="AI47" s="61">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
@@ -5966,7 +6037,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>35.045454545454547</v>
+        <v>37.772727272727273</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -5988,7 +6059,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="104"/>
+      <c r="H48" s="90"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -6010,7 +6081,9 @@
       <c r="O48" s="83">
         <v>8</v>
       </c>
-      <c r="P48" s="83"/>
+      <c r="P48" s="83">
+        <v>10</v>
+      </c>
       <c r="Q48" s="83"/>
       <c r="R48" s="83"/>
       <c r="S48" s="85"/>
@@ -6045,7 +6118,7 @@
       <c r="AH48" s="85"/>
       <c r="AI48" s="61">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
@@ -6058,7 +6131,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>32.590909090909093</v>
+        <v>35.318181818181813</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -6096,9 +6169,9 @@
         <f>AVERAGE(O2:O48)</f>
         <v>9.0555555555555554</v>
       </c>
-      <c r="P49" s="65" t="e">
+      <c r="P49" s="65">
         <f>AVERAGE(P2:P26)</f>
-        <v>#DIV/0!</v>
+        <v>9.804347826086957</v>
       </c>
       <c r="Q49" s="65" t="e">
         <f>AVERAGE(Q2:Q32)</f>
@@ -6174,7 +6247,7 @@
       </c>
       <c r="AI49" s="67">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>57.791666666666664</v>
+        <v>66.770833333333329</v>
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
@@ -6190,7 +6263,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>32.590909090909086</v>
+        <v>35.039772727272734</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -6228,9 +6301,9 @@
         <f t="shared" si="4"/>
         <v>8.9565217391304355</v>
       </c>
-      <c r="P50" s="65" t="e">
+      <c r="P50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.7173913043478262</v>
       </c>
       <c r="Q50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -6306,7 +6379,7 @@
       </c>
       <c r="AI50" s="67">
         <f t="shared" si="4"/>
-        <v>59.456521739130437</v>
+        <v>69.173913043478265</v>
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
@@ -6322,7 +6395,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>33.278656126482204</v>
+        <v>35.928853754940718</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -6360,9 +6433,9 @@
         <f t="shared" si="5"/>
         <v>9.0555555555555554</v>
       </c>
-      <c r="P51" s="65" t="e">
+      <c r="P51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.7555555555555564</v>
       </c>
       <c r="Q51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -6438,7 +6511,7 @@
       </c>
       <c r="AI51" s="67">
         <f t="shared" si="5"/>
-        <v>58.606382978723403</v>
+        <v>67.946808510638292</v>
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
@@ -6454,7 +6527,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>32.927466150870409</v>
+        <v>35.474854932301731</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -6492,9 +6565,9 @@
         <f t="shared" si="6"/>
         <v>0.76293558513855364</v>
       </c>
-      <c r="P52" s="65" t="e">
+      <c r="P52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.4346134936801766</v>
       </c>
       <c r="Q52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6570,7 +6643,7 @@
       </c>
       <c r="AI52" s="67">
         <f t="shared" si="6"/>
-        <v>12.668403081396933</v>
+        <v>14.456544344191594</v>
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
@@ -6586,7 +6659,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>5.9225497349047842</v>
+        <v>6.4431844045044366</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6626,7 +6699,7 @@
       </c>
       <c r="P53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q53" s="65">
         <f t="shared" si="7"/>
@@ -6702,7 +6775,7 @@
       </c>
       <c r="AI53" s="67">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
@@ -6718,7 +6791,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>38.18181818181818</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -6758,7 +6831,7 @@
       </c>
       <c r="P54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q54" s="69">
         <f t="shared" si="8"/>
@@ -6856,19 +6929,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6879,6 +6939,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6893,15 +6966,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -7083,6 +7147,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
@@ -7100,14 +7173,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7123,4 +7188,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911CA23-FF28-4CEB-AE86-EBD264937DE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE158411-1C67-49F6-8232-E317DB8395DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1330,47 +1330,28 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,6 +1369,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="96"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1828,7 +1828,9 @@
       <c r="Z2" s="43">
         <v>9.5</v>
       </c>
-      <c r="AA2" s="43"/>
+      <c r="AA2" s="43">
+        <v>10</v>
+      </c>
       <c r="AB2" s="43"/>
       <c r="AC2" s="43"/>
       <c r="AD2" s="44"/>
@@ -1842,7 +1844,7 @@
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>67.5</v>
+        <v>77.5</v>
       </c>
       <c r="AK2" s="43">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1851,7 +1853,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>38.045454545454547</v>
+        <v>40.772727272727273</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1873,7 +1875,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="97"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1922,7 +1924,9 @@
       <c r="Z3" s="43">
         <v>9.5</v>
       </c>
-      <c r="AA3" s="43"/>
+      <c r="AA3" s="43">
+        <v>10</v>
+      </c>
       <c r="AB3" s="43"/>
       <c r="AC3" s="43"/>
       <c r="AD3" s="44"/>
@@ -1936,7 +1940,7 @@
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
-        <v>67.5</v>
+        <v>77.5</v>
       </c>
       <c r="AK3" s="43">
         <f t="shared" si="2"/>
@@ -1945,7 +1949,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>39.13636363636364</v>
+        <v>41.86363636363636</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1967,7 +1971,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="96"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2016,7 +2020,9 @@
       <c r="Z4" s="43">
         <v>10</v>
       </c>
-      <c r="AA4" s="43"/>
+      <c r="AA4" s="43">
+        <v>10</v>
+      </c>
       <c r="AB4" s="43"/>
       <c r="AC4" s="43"/>
       <c r="AD4" s="44"/>
@@ -2030,7 +2036,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" si="2"/>
@@ -2039,7 +2045,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>37.36363636363636</v>
+        <v>40.090909090909093</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2061,7 +2067,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="97"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2110,7 +2116,9 @@
       <c r="Z5" s="43">
         <v>10</v>
       </c>
-      <c r="AA5" s="43"/>
+      <c r="AA5" s="43">
+        <v>10</v>
+      </c>
       <c r="AB5" s="43"/>
       <c r="AC5" s="43"/>
       <c r="AD5" s="44"/>
@@ -2124,7 +2132,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK5" s="43">
         <f t="shared" si="2"/>
@@ -2133,7 +2141,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
+        <v>43.63636363636364</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2155,7 +2163,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="96"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2204,7 +2212,9 @@
       <c r="Z6" s="43">
         <v>10</v>
       </c>
-      <c r="AA6" s="43"/>
+      <c r="AA6" s="43">
+        <v>9</v>
+      </c>
       <c r="AB6" s="43"/>
       <c r="AC6" s="43"/>
       <c r="AD6" s="44"/>
@@ -2218,7 +2228,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AK6" s="43">
         <f t="shared" si="2"/>
@@ -2227,7 +2237,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>36.272727272727273</v>
+        <v>38.727272727272734</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2249,7 +2259,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="97"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2298,7 +2308,9 @@
       <c r="Z7" s="43">
         <v>10</v>
       </c>
-      <c r="AA7" s="43"/>
+      <c r="AA7" s="43">
+        <v>9</v>
+      </c>
       <c r="AB7" s="43"/>
       <c r="AC7" s="43"/>
       <c r="AD7" s="44"/>
@@ -2312,7 +2324,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AK7" s="43">
         <f t="shared" si="2"/>
@@ -2321,7 +2333,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>36.818181818181813</v>
+        <v>39.272727272727273</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2343,7 +2355,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="96"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2392,7 +2404,9 @@
       <c r="Z8" s="43">
         <v>10</v>
       </c>
-      <c r="AA8" s="43"/>
+      <c r="AA8" s="43">
+        <v>10</v>
+      </c>
       <c r="AB8" s="43"/>
       <c r="AC8" s="43"/>
       <c r="AD8" s="44"/>
@@ -2406,7 +2420,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>66.5</v>
+        <v>76.5</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
@@ -2415,7 +2429,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>37.909090909090907</v>
+        <v>40.63636363636364</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2437,7 +2451,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="97"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2486,7 +2500,9 @@
       <c r="Z9" s="43">
         <v>10</v>
       </c>
-      <c r="AA9" s="43"/>
+      <c r="AA9" s="43">
+        <v>10</v>
+      </c>
       <c r="AB9" s="43"/>
       <c r="AC9" s="43"/>
       <c r="AD9" s="44"/>
@@ -2500,7 +2516,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>66.5</v>
+        <v>76.5</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
@@ -2509,7 +2525,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>38.318181818181813</v>
+        <v>41.045454545454547</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2531,7 +2547,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="96"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2580,7 +2596,9 @@
       <c r="Z10" s="43">
         <v>10</v>
       </c>
-      <c r="AA10" s="43"/>
+      <c r="AA10" s="43">
+        <v>8</v>
+      </c>
       <c r="AB10" s="43"/>
       <c r="AC10" s="43"/>
       <c r="AD10" s="44"/>
@@ -2594,7 +2612,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
@@ -2603,7 +2621,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>39.954545454545453</v>
+        <v>42.13636363636364</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2625,7 +2643,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="97"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2674,7 +2692,9 @@
       <c r="Z11" s="43">
         <v>10</v>
       </c>
-      <c r="AA11" s="43"/>
+      <c r="AA11" s="43">
+        <v>8</v>
+      </c>
       <c r="AB11" s="43"/>
       <c r="AC11" s="43"/>
       <c r="AD11" s="44"/>
@@ -2688,7 +2708,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
@@ -2697,7 +2717,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>38.727272727272727</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2719,7 +2739,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="96"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2768,7 +2788,9 @@
       <c r="Z12" s="43">
         <v>10</v>
       </c>
-      <c r="AA12" s="43"/>
+      <c r="AA12" s="43">
+        <v>10</v>
+      </c>
       <c r="AB12" s="43"/>
       <c r="AC12" s="43"/>
       <c r="AD12" s="44"/>
@@ -2782,7 +2804,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>67.5</v>
+        <v>77.5</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
@@ -2791,7 +2813,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>39.272727272727273</v>
+        <v>42</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2813,7 +2835,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="97"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2862,7 +2884,9 @@
       <c r="Z13" s="43">
         <v>10</v>
       </c>
-      <c r="AA13" s="43"/>
+      <c r="AA13" s="43">
+        <v>10</v>
+      </c>
       <c r="AB13" s="46"/>
       <c r="AC13" s="46"/>
       <c r="AD13" s="46"/>
@@ -2876,7 +2900,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>67.5</v>
+        <v>77.5</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
@@ -2885,7 +2909,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>40.227272727272727</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2907,7 +2931,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2956,7 +2980,9 @@
       <c r="Z14" s="43">
         <v>10</v>
       </c>
-      <c r="AA14" s="43"/>
+      <c r="AA14" s="43">
+        <v>9</v>
+      </c>
       <c r="AB14" s="43"/>
       <c r="AC14" s="43"/>
       <c r="AD14" s="44"/>
@@ -2970,7 +2996,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AK14" s="43">
         <f t="shared" si="2"/>
@@ -2979,7 +3005,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>37.36363636363636</v>
+        <v>39.818181818181813</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -3001,7 +3027,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -3050,7 +3076,9 @@
       <c r="Z15" s="43">
         <v>10</v>
       </c>
-      <c r="AA15" s="43"/>
+      <c r="AA15" s="43">
+        <v>9</v>
+      </c>
       <c r="AB15" s="43"/>
       <c r="AC15" s="43"/>
       <c r="AD15" s="44"/>
@@ -3064,7 +3092,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AK15" s="43">
         <f t="shared" si="2"/>
@@ -3073,7 +3101,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>36.409090909090907</v>
+        <v>38.86363636363636</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -3095,7 +3123,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="100"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="82">
         <v>0</v>
       </c>
@@ -3167,7 +3195,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="101"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="82">
         <v>0</v>
       </c>
@@ -3216,7 +3244,9 @@
       <c r="Z17" s="43">
         <v>9.5</v>
       </c>
-      <c r="AA17" s="43"/>
+      <c r="AA17" s="43">
+        <v>9</v>
+      </c>
       <c r="AB17" s="43"/>
       <c r="AC17" s="43"/>
       <c r="AD17" s="44"/>
@@ -3230,7 +3260,7 @@
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
-        <v>63.5</v>
+        <v>72.5</v>
       </c>
       <c r="AK17" s="43">
         <f t="shared" si="2"/>
@@ -3239,7 +3269,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>35.454545454545453</v>
+        <v>37.909090909090907</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3261,7 +3291,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="98"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3310,7 +3340,9 @@
       <c r="Z18" s="43">
         <v>10</v>
       </c>
-      <c r="AA18" s="43"/>
+      <c r="AA18" s="43">
+        <v>9</v>
+      </c>
       <c r="AB18" s="43"/>
       <c r="AC18" s="43"/>
       <c r="AD18" s="44"/>
@@ -3324,7 +3356,7 @@
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
-        <v>61.5</v>
+        <v>70.5</v>
       </c>
       <c r="AK18" s="43">
         <f t="shared" si="2"/>
@@ -3333,7 +3365,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>37.63636363636364</v>
+        <v>40.090909090909093</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3355,7 +3387,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="99"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3404,7 +3436,9 @@
       <c r="Z19" s="43">
         <v>10</v>
       </c>
-      <c r="AA19" s="43"/>
+      <c r="AA19" s="43">
+        <v>9</v>
+      </c>
       <c r="AB19" s="43"/>
       <c r="AC19" s="43"/>
       <c r="AD19" s="44"/>
@@ -3418,7 +3452,7 @@
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
-        <v>61.5</v>
+        <v>70.5</v>
       </c>
       <c r="AK19" s="43">
         <f t="shared" si="2"/>
@@ -3427,7 +3461,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>35.590909090909093</v>
+        <v>38.045454545454547</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3449,7 +3483,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="98"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3498,7 +3532,9 @@
       <c r="Z20" s="43">
         <v>9.5</v>
       </c>
-      <c r="AA20" s="43"/>
+      <c r="AA20" s="43">
+        <v>9</v>
+      </c>
       <c r="AB20" s="43"/>
       <c r="AC20" s="43"/>
       <c r="AD20" s="44"/>
@@ -3512,7 +3548,7 @@
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AK20" s="43">
         <f t="shared" si="2"/>
@@ -3521,7 +3557,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>37.772727272727266</v>
+        <v>40.227272727272734</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3543,7 +3579,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="99"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="82">
         <v>0</v>
       </c>
@@ -3615,7 +3651,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="106"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3664,7 +3700,9 @@
       <c r="Z22" s="43">
         <v>10</v>
       </c>
-      <c r="AA22" s="43"/>
+      <c r="AA22" s="43">
+        <v>10</v>
+      </c>
       <c r="AB22" s="43"/>
       <c r="AC22" s="43"/>
       <c r="AD22" s="44"/>
@@ -3678,7 +3716,7 @@
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>66.5</v>
+        <v>76.5</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
@@ -3687,7 +3725,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>37.22727272727272</v>
+        <v>39.954545454545453</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3709,7 +3747,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="107"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3758,7 +3796,9 @@
       <c r="Z23" s="43">
         <v>10</v>
       </c>
-      <c r="AA23" s="43"/>
+      <c r="AA23" s="43">
+        <v>10</v>
+      </c>
       <c r="AB23" s="43"/>
       <c r="AC23" s="43"/>
       <c r="AD23" s="44"/>
@@ -3772,7 +3812,7 @@
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
-        <v>66.5</v>
+        <v>76.5</v>
       </c>
       <c r="AK23" s="43">
         <f t="shared" si="2"/>
@@ -3781,7 +3821,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>38.454545454545453</v>
+        <v>41.18181818181818</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3803,7 +3843,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="98"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="82">
         <v>0</v>
       </c>
@@ -3852,7 +3892,9 @@
       <c r="Z24" s="43">
         <v>9.5</v>
       </c>
-      <c r="AA24" s="43"/>
+      <c r="AA24" s="43">
+        <v>10</v>
+      </c>
       <c r="AB24" s="43"/>
       <c r="AC24" s="43"/>
       <c r="AD24" s="44"/>
@@ -3866,7 +3908,7 @@
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
-        <v>63.5</v>
+        <v>73.5</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="2"/>
@@ -3875,7 +3917,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>34.772727272727266</v>
+        <v>37.5</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3897,7 +3939,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="105"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="50">
         <v>8.5</v>
       </c>
@@ -3946,7 +3988,9 @@
       <c r="Z25" s="51">
         <v>9.5</v>
       </c>
-      <c r="AA25" s="51"/>
+      <c r="AA25" s="51">
+        <v>10</v>
+      </c>
       <c r="AB25" s="51"/>
       <c r="AC25" s="51"/>
       <c r="AD25" s="52"/>
@@ -3960,7 +4004,7 @@
       </c>
       <c r="AJ25" s="51">
         <f t="shared" si="1"/>
-        <v>63.5</v>
+        <v>73.5</v>
       </c>
       <c r="AK25" s="51">
         <f t="shared" si="2"/>
@@ -3969,7 +4013,7 @@
       <c r="AL25" s="51"/>
       <c r="AM25" s="51">
         <f t="shared" si="3"/>
-        <v>35.454545454545453</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="AN25" s="51"/>
     </row>
@@ -3991,7 +4035,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="102"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="53">
         <v>5.5</v>
       </c>
@@ -4040,7 +4084,9 @@
       <c r="Z26" s="54">
         <v>10</v>
       </c>
-      <c r="AA26" s="54"/>
+      <c r="AA26" s="54">
+        <v>9</v>
+      </c>
       <c r="AB26" s="54"/>
       <c r="AC26" s="54"/>
       <c r="AD26" s="55"/>
@@ -4054,7 +4100,7 @@
       </c>
       <c r="AJ26" s="57">
         <f t="shared" si="1"/>
-        <v>64.5</v>
+        <v>73.5</v>
       </c>
       <c r="AK26" s="57">
         <f t="shared" si="2"/>
@@ -4063,7 +4109,7 @@
       <c r="AL26" s="54"/>
       <c r="AM26" s="57">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>37.227272727272727</v>
+        <v>39.681818181818187</v>
       </c>
       <c r="AN26" s="54"/>
     </row>
@@ -4085,7 +4131,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="103"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="58">
         <v>7</v>
       </c>
@@ -4134,7 +4180,9 @@
       <c r="Z27" s="59">
         <v>10</v>
       </c>
-      <c r="AA27" s="59"/>
+      <c r="AA27" s="59">
+        <v>9</v>
+      </c>
       <c r="AB27" s="59"/>
       <c r="AC27" s="59"/>
       <c r="AD27" s="60"/>
@@ -4148,7 +4196,7 @@
       </c>
       <c r="AJ27" s="62">
         <f t="shared" si="1"/>
-        <v>64.5</v>
+        <v>73.5</v>
       </c>
       <c r="AK27" s="62">
         <f t="shared" si="2"/>
@@ -4157,7 +4205,7 @@
       <c r="AL27" s="59"/>
       <c r="AM27" s="62">
         <f t="shared" si="3"/>
-        <v>36.818181818181813</v>
+        <v>39.272727272727273</v>
       </c>
       <c r="AN27" s="59"/>
     </row>
@@ -4179,7 +4227,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="104"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="58">
         <v>8</v>
       </c>
@@ -4228,7 +4276,9 @@
       <c r="Z28" s="59">
         <v>9.5</v>
       </c>
-      <c r="AA28" s="59"/>
+      <c r="AA28" s="59">
+        <v>10</v>
+      </c>
       <c r="AB28" s="59"/>
       <c r="AC28" s="59"/>
       <c r="AD28" s="60"/>
@@ -4242,7 +4292,7 @@
       </c>
       <c r="AJ28" s="62">
         <f t="shared" si="1"/>
-        <v>55.5</v>
+        <v>65.5</v>
       </c>
       <c r="AK28" s="62">
         <f t="shared" si="2"/>
@@ -4251,7 +4301,7 @@
       <c r="AL28" s="59"/>
       <c r="AM28" s="62">
         <f t="shared" si="3"/>
-        <v>35.045454545454547</v>
+        <v>37.772727272727273</v>
       </c>
       <c r="AN28" s="59"/>
     </row>
@@ -4273,7 +4323,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="103"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="58">
         <v>10</v>
       </c>
@@ -4322,7 +4372,9 @@
       <c r="Z29" s="59">
         <v>9.5</v>
       </c>
-      <c r="AA29" s="59"/>
+      <c r="AA29" s="59">
+        <v>10</v>
+      </c>
       <c r="AB29" s="59"/>
       <c r="AC29" s="59"/>
       <c r="AD29" s="60"/>
@@ -4336,7 +4388,7 @@
       </c>
       <c r="AJ29" s="62">
         <f t="shared" si="1"/>
-        <v>55.5</v>
+        <v>65.5</v>
       </c>
       <c r="AK29" s="62">
         <f t="shared" si="2"/>
@@ -4345,7 +4397,7 @@
       <c r="AL29" s="59"/>
       <c r="AM29" s="62">
         <f t="shared" si="3"/>
-        <v>36.409090909090907</v>
+        <v>39.13636363636364</v>
       </c>
       <c r="AN29" s="59"/>
     </row>
@@ -4367,7 +4419,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="104"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="58">
         <v>9</v>
       </c>
@@ -4416,7 +4468,9 @@
       <c r="Z30" s="59">
         <v>9</v>
       </c>
-      <c r="AA30" s="59"/>
+      <c r="AA30" s="59">
+        <v>9</v>
+      </c>
       <c r="AB30" s="59"/>
       <c r="AC30" s="59"/>
       <c r="AD30" s="60"/>
@@ -4430,7 +4484,7 @@
       </c>
       <c r="AJ30" s="62">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AK30" s="62">
         <f t="shared" si="2"/>
@@ -4439,7 +4493,7 @@
       <c r="AL30" s="59"/>
       <c r="AM30" s="62">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>41.454545454545453</v>
       </c>
       <c r="AN30" s="59"/>
     </row>
@@ -4461,7 +4515,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="103"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="58">
         <v>8</v>
       </c>
@@ -4510,7 +4564,9 @@
       <c r="Z31" s="59">
         <v>9</v>
       </c>
-      <c r="AA31" s="59"/>
+      <c r="AA31" s="59">
+        <v>9</v>
+      </c>
       <c r="AB31" s="59"/>
       <c r="AC31" s="59"/>
       <c r="AD31" s="60"/>
@@ -4524,7 +4580,7 @@
       </c>
       <c r="AJ31" s="62">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AK31" s="62">
         <f t="shared" si="2"/>
@@ -4533,7 +4589,7 @@
       <c r="AL31" s="59"/>
       <c r="AM31" s="62">
         <f t="shared" si="3"/>
-        <v>39.272727272727273</v>
+        <v>41.727272727272727</v>
       </c>
       <c r="AN31" s="59"/>
     </row>
@@ -4555,7 +4611,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="87"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="58">
         <v>5.5</v>
       </c>
@@ -4604,7 +4660,9 @@
       <c r="Z32" s="59">
         <v>8</v>
       </c>
-      <c r="AA32" s="59"/>
+      <c r="AA32" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AB32" s="59"/>
       <c r="AC32" s="59"/>
       <c r="AD32" s="60"/>
@@ -4618,7 +4676,7 @@
       </c>
       <c r="AJ32" s="62">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>62.5</v>
       </c>
       <c r="AK32" s="62">
         <f t="shared" si="2"/>
@@ -4627,7 +4685,7 @@
       <c r="AL32" s="59"/>
       <c r="AM32" s="62">
         <f t="shared" si="3"/>
-        <v>31.36363636363636</v>
+        <v>33.954545454545453</v>
       </c>
       <c r="AN32" s="59"/>
     </row>
@@ -4649,7 +4707,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="88"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="58">
         <v>10</v>
       </c>
@@ -4698,7 +4756,9 @@
       <c r="Z33" s="59">
         <v>8</v>
       </c>
-      <c r="AA33" s="59"/>
+      <c r="AA33" s="59">
+        <v>9.5</v>
+      </c>
       <c r="AB33" s="59"/>
       <c r="AC33" s="59"/>
       <c r="AD33" s="60"/>
@@ -4712,7 +4772,7 @@
       </c>
       <c r="AJ33" s="62">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>62.5</v>
       </c>
       <c r="AK33" s="62">
         <f t="shared" si="2"/>
@@ -4721,7 +4781,7 @@
       <c r="AL33" s="59"/>
       <c r="AM33" s="62">
         <f t="shared" si="3"/>
-        <v>34.227272727272727</v>
+        <v>36.81818181818182</v>
       </c>
       <c r="AN33" s="59"/>
     </row>
@@ -4743,7 +4803,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="91"/>
+      <c r="H34" s="93"/>
       <c r="I34" s="58">
         <v>8</v>
       </c>
@@ -4792,7 +4852,9 @@
       <c r="Z34" s="59">
         <v>9.5</v>
       </c>
-      <c r="AA34" s="59"/>
+      <c r="AA34" s="59">
+        <v>10</v>
+      </c>
       <c r="AB34" s="59"/>
       <c r="AC34" s="59"/>
       <c r="AD34" s="60"/>
@@ -4806,7 +4868,7 @@
       </c>
       <c r="AJ34" s="62">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK34" s="62">
         <f t="shared" si="2"/>
@@ -4815,7 +4877,7 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="62">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>41.727272727272727</v>
       </c>
       <c r="AN34" s="59"/>
     </row>
@@ -4837,7 +4899,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="58">
         <v>8</v>
       </c>
@@ -4886,7 +4948,9 @@
       <c r="Z35" s="59">
         <v>9.5</v>
       </c>
-      <c r="AA35" s="59"/>
+      <c r="AA35" s="59">
+        <v>10</v>
+      </c>
       <c r="AB35" s="59"/>
       <c r="AC35" s="59"/>
       <c r="AD35" s="60"/>
@@ -4900,7 +4964,7 @@
       </c>
       <c r="AJ35" s="62">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK35" s="62">
         <f t="shared" si="2"/>
@@ -4909,7 +4973,7 @@
       <c r="AL35" s="59"/>
       <c r="AM35" s="62">
         <f t="shared" si="3"/>
-        <v>38.045454545454547</v>
+        <v>40.772727272727273</v>
       </c>
       <c r="AN35" s="59"/>
     </row>
@@ -4931,7 +4995,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="87"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="58">
         <v>8</v>
       </c>
@@ -4980,7 +5044,9 @@
       <c r="Z36" s="59">
         <v>8</v>
       </c>
-      <c r="AA36" s="59"/>
+      <c r="AA36" s="59">
+        <v>9</v>
+      </c>
       <c r="AB36" s="59"/>
       <c r="AC36" s="59"/>
       <c r="AD36" s="60"/>
@@ -4994,7 +5060,7 @@
       </c>
       <c r="AJ36" s="62">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AK36" s="62">
         <f t="shared" si="2"/>
@@ -5003,7 +5069,7 @@
       <c r="AL36" s="59"/>
       <c r="AM36" s="62">
         <f t="shared" si="3"/>
-        <v>37.36363636363636</v>
+        <v>39.81818181818182</v>
       </c>
       <c r="AN36" s="59"/>
     </row>
@@ -5025,7 +5091,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="58">
         <v>8</v>
       </c>
@@ -5074,7 +5140,9 @@
       <c r="Z37" s="59">
         <v>8</v>
       </c>
-      <c r="AA37" s="59"/>
+      <c r="AA37" s="59">
+        <v>9</v>
+      </c>
       <c r="AB37" s="59"/>
       <c r="AC37" s="59"/>
       <c r="AD37" s="60"/>
@@ -5088,7 +5156,7 @@
       </c>
       <c r="AJ37" s="62">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AK37" s="62">
         <f t="shared" si="2"/>
@@ -5097,7 +5165,7 @@
       <c r="AL37" s="59"/>
       <c r="AM37" s="62">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>39.954545454545453</v>
       </c>
       <c r="AN37" s="59"/>
     </row>
@@ -5119,7 +5187,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="91"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="58">
         <v>9</v>
       </c>
@@ -5168,7 +5236,9 @@
       <c r="Z38" s="59">
         <v>9.5</v>
       </c>
-      <c r="AA38" s="59"/>
+      <c r="AA38" s="59">
+        <v>9</v>
+      </c>
       <c r="AB38" s="59"/>
       <c r="AC38" s="59"/>
       <c r="AD38" s="60"/>
@@ -5182,7 +5252,7 @@
       </c>
       <c r="AJ38" s="62">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AK38" s="62">
         <f t="shared" si="2"/>
@@ -5191,7 +5261,7 @@
       <c r="AL38" s="59"/>
       <c r="AM38" s="62">
         <f t="shared" si="3"/>
-        <v>37.227272727272734</v>
+        <v>39.681818181818187</v>
       </c>
       <c r="AN38" s="59"/>
     </row>
@@ -5213,7 +5283,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="92"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="58">
         <v>8</v>
       </c>
@@ -5262,7 +5332,9 @@
       <c r="Z39" s="59">
         <v>9.5</v>
       </c>
-      <c r="AA39" s="59"/>
+      <c r="AA39" s="59">
+        <v>9</v>
+      </c>
       <c r="AB39" s="59"/>
       <c r="AC39" s="59"/>
       <c r="AD39" s="60"/>
@@ -5276,7 +5348,7 @@
       </c>
       <c r="AJ39" s="62">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AK39" s="62">
         <f t="shared" si="2"/>
@@ -5285,7 +5357,7 @@
       <c r="AL39" s="59"/>
       <c r="AM39" s="62">
         <f t="shared" si="3"/>
-        <v>35.86363636363636</v>
+        <v>38.318181818181813</v>
       </c>
       <c r="AN39" s="59"/>
     </row>
@@ -5307,7 +5379,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
+      <c r="H40" s="94"/>
       <c r="I40" s="58">
         <v>9.5</v>
       </c>
@@ -5356,7 +5428,9 @@
       <c r="Z40" s="59">
         <v>9.5</v>
       </c>
-      <c r="AA40" s="59"/>
+      <c r="AA40" s="59">
+        <v>9</v>
+      </c>
       <c r="AB40" s="59"/>
       <c r="AC40" s="59"/>
       <c r="AD40" s="60"/>
@@ -5370,7 +5444,7 @@
       </c>
       <c r="AJ40" s="62">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AK40" s="62">
         <f t="shared" si="2"/>
@@ -5379,7 +5453,7 @@
       <c r="AL40" s="59"/>
       <c r="AM40" s="62">
         <f t="shared" si="3"/>
-        <v>35.454545454545453</v>
+        <v>37.909090909090907</v>
       </c>
       <c r="AN40" s="59"/>
     </row>
@@ -5401,7 +5475,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="87"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="58">
         <v>5.5</v>
       </c>
@@ -5450,7 +5524,9 @@
       <c r="Z41" s="59">
         <v>9.5</v>
       </c>
-      <c r="AA41" s="59"/>
+      <c r="AA41" s="59">
+        <v>9</v>
+      </c>
       <c r="AB41" s="59"/>
       <c r="AC41" s="59"/>
       <c r="AD41" s="60"/>
@@ -5464,7 +5540,7 @@
       </c>
       <c r="AJ41" s="62">
         <f t="shared" si="1"/>
-        <v>65.5</v>
+        <v>74.5</v>
       </c>
       <c r="AK41" s="62">
         <f t="shared" si="2"/>
@@ -5473,7 +5549,7 @@
       <c r="AL41" s="59"/>
       <c r="AM41" s="62">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>29.454545454545453</v>
       </c>
       <c r="AN41" s="59"/>
     </row>
@@ -5495,7 +5571,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="88"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="58">
         <v>7.5</v>
       </c>
@@ -5544,7 +5620,9 @@
       <c r="Z42" s="59">
         <v>9.5</v>
       </c>
-      <c r="AA42" s="59"/>
+      <c r="AA42" s="59">
+        <v>9</v>
+      </c>
       <c r="AB42" s="59"/>
       <c r="AC42" s="59"/>
       <c r="AD42" s="60"/>
@@ -5558,7 +5636,7 @@
       </c>
       <c r="AJ42" s="62">
         <f t="shared" si="1"/>
-        <v>65.5</v>
+        <v>74.5</v>
       </c>
       <c r="AK42" s="62">
         <f t="shared" si="2"/>
@@ -5567,7 +5645,7 @@
       <c r="AL42" s="59"/>
       <c r="AM42" s="62">
         <f t="shared" si="3"/>
-        <v>35.86363636363636</v>
+        <v>38.318181818181813</v>
       </c>
       <c r="AN42" s="59"/>
     </row>
@@ -5589,7 +5667,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="87"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="58">
         <v>7.5</v>
       </c>
@@ -5638,7 +5716,9 @@
       <c r="Z43" s="59">
         <v>9</v>
       </c>
-      <c r="AA43" s="59"/>
+      <c r="AA43" s="59">
+        <v>9</v>
+      </c>
       <c r="AB43" s="59"/>
       <c r="AC43" s="59"/>
       <c r="AD43" s="60"/>
@@ -5652,7 +5732,7 @@
       </c>
       <c r="AJ43" s="62">
         <f t="shared" si="1"/>
-        <v>60.5</v>
+        <v>69.5</v>
       </c>
       <c r="AK43" s="62">
         <f t="shared" si="2"/>
@@ -5661,7 +5741,7 @@
       <c r="AL43" s="59"/>
       <c r="AM43" s="62">
         <f t="shared" si="3"/>
-        <v>34.090909090909093</v>
+        <v>36.545454545454547</v>
       </c>
       <c r="AN43" s="59"/>
     </row>
@@ -5683,7 +5763,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="88"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="63">
         <v>0</v>
       </c>
@@ -5732,7 +5812,9 @@
       <c r="Z44" s="59">
         <v>9</v>
       </c>
-      <c r="AA44" s="59"/>
+      <c r="AA44" s="59">
+        <v>9</v>
+      </c>
       <c r="AB44" s="59"/>
       <c r="AC44" s="59"/>
       <c r="AD44" s="60"/>
@@ -5746,7 +5828,7 @@
       </c>
       <c r="AJ44" s="62">
         <f t="shared" si="1"/>
-        <v>60.5</v>
+        <v>69.5</v>
       </c>
       <c r="AK44" s="62">
         <f t="shared" si="2"/>
@@ -5755,7 +5837,7 @@
       <c r="AL44" s="59"/>
       <c r="AM44" s="62">
         <f t="shared" si="3"/>
-        <v>32.454545454545453</v>
+        <v>34.909090909090907</v>
       </c>
       <c r="AN44" s="59"/>
     </row>
@@ -5777,7 +5859,7 @@
       </c>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
-      <c r="H45" s="94"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="76">
         <v>10</v>
       </c>
@@ -5826,7 +5908,9 @@
       <c r="Z45" s="83">
         <v>9</v>
       </c>
-      <c r="AA45" s="83"/>
+      <c r="AA45" s="83">
+        <v>10</v>
+      </c>
       <c r="AB45" s="83"/>
       <c r="AC45" s="83"/>
       <c r="AD45" s="85"/>
@@ -5840,7 +5924,7 @@
       </c>
       <c r="AJ45" s="62">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
       <c r="AK45" s="62">
         <f t="shared" si="2"/>
@@ -5849,7 +5933,7 @@
       <c r="AL45" s="59"/>
       <c r="AM45" s="62">
         <f t="shared" si="3"/>
-        <v>36.13636363636364</v>
+        <v>38.86363636363636</v>
       </c>
       <c r="AN45" s="59"/>
     </row>
@@ -5871,7 +5955,7 @@
       </c>
       <c r="F46" s="77"/>
       <c r="G46" s="77"/>
-      <c r="H46" s="95"/>
+      <c r="H46" s="107"/>
       <c r="I46" s="76">
         <v>10</v>
       </c>
@@ -5920,7 +6004,9 @@
       <c r="Z46" s="83">
         <v>9</v>
       </c>
-      <c r="AA46" s="83"/>
+      <c r="AA46" s="83">
+        <v>10</v>
+      </c>
       <c r="AB46" s="83"/>
       <c r="AC46" s="83"/>
       <c r="AD46" s="85"/>
@@ -5934,7 +6020,7 @@
       </c>
       <c r="AJ46" s="62">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
       <c r="AK46" s="62">
         <f t="shared" si="2"/>
@@ -5943,7 +6029,7 @@
       <c r="AL46" s="59"/>
       <c r="AM46" s="62">
         <f t="shared" si="3"/>
-        <v>37.909090909090907</v>
+        <v>40.63636363636364</v>
       </c>
       <c r="AN46" s="59"/>
     </row>
@@ -5965,7 +6051,7 @@
       </c>
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
-      <c r="H47" s="89"/>
+      <c r="H47" s="103"/>
       <c r="I47" s="76">
         <v>8</v>
       </c>
@@ -6014,7 +6100,9 @@
       <c r="Z47" s="83">
         <v>9.5</v>
       </c>
-      <c r="AA47" s="83"/>
+      <c r="AA47" s="83">
+        <v>8</v>
+      </c>
       <c r="AB47" s="83"/>
       <c r="AC47" s="83"/>
       <c r="AD47" s="85"/>
@@ -6028,7 +6116,7 @@
       </c>
       <c r="AJ47" s="62">
         <f t="shared" si="1"/>
-        <v>64.5</v>
+        <v>72.5</v>
       </c>
       <c r="AK47" s="62">
         <f t="shared" si="2"/>
@@ -6037,7 +6125,7 @@
       <c r="AL47" s="59"/>
       <c r="AM47" s="62">
         <f t="shared" si="3"/>
-        <v>37.772727272727273</v>
+        <v>39.954545454545453</v>
       </c>
       <c r="AN47" s="59"/>
     </row>
@@ -6059,7 +6147,7 @@
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
-      <c r="H48" s="90"/>
+      <c r="H48" s="104"/>
       <c r="I48" s="76">
         <v>3.5</v>
       </c>
@@ -6108,7 +6196,9 @@
       <c r="Z48" s="83">
         <v>9.5</v>
       </c>
-      <c r="AA48" s="83"/>
+      <c r="AA48" s="83">
+        <v>8</v>
+      </c>
       <c r="AB48" s="83"/>
       <c r="AC48" s="83"/>
       <c r="AD48" s="85"/>
@@ -6122,7 +6212,7 @@
       </c>
       <c r="AJ48" s="62">
         <f t="shared" si="1"/>
-        <v>64.5</v>
+        <v>72.5</v>
       </c>
       <c r="AK48" s="62">
         <f t="shared" si="2"/>
@@ -6131,7 +6221,7 @@
       <c r="AL48" s="59"/>
       <c r="AM48" s="62">
         <f t="shared" si="3"/>
-        <v>35.318181818181813</v>
+        <v>37.5</v>
       </c>
       <c r="AN48" s="59"/>
     </row>
@@ -6213,9 +6303,9 @@
         <f>AVERAGE(Z2:Z48)</f>
         <v>9.5</v>
       </c>
-      <c r="AA49" s="65" t="e">
+      <c r="AA49" s="65">
         <f>AVERAGE(AA2:AA25)</f>
-        <v>#DIV/0!</v>
+        <v>9.454545454545455</v>
       </c>
       <c r="AB49" s="65" t="e">
         <f>AVERAGE(AB2:AB32)</f>
@@ -6251,7 +6341,7 @@
       </c>
       <c r="AJ49" s="65">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>61.708333333333336</v>
+        <v>70.375</v>
       </c>
       <c r="AK49" s="65">
         <f>AVERAGE(AK2:AK25)</f>
@@ -6263,7 +6353,7 @@
       </c>
       <c r="AM49" s="65">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>35.039772727272734</v>
+        <v>37.403409090909093</v>
       </c>
       <c r="AN49" s="65"/>
     </row>
@@ -6345,9 +6435,9 @@
         <f t="shared" si="4"/>
         <v>9.1521739130434785</v>
       </c>
-      <c r="AA50" s="65" t="e">
+      <c r="AA50" s="65">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.2173913043478262</v>
       </c>
       <c r="AB50" s="65" t="e">
         <f t="shared" si="4"/>
@@ -6383,7 +6473,7 @@
       </c>
       <c r="AJ50" s="65">
         <f t="shared" si="4"/>
-        <v>62.565217391304351</v>
+        <v>71.782608695652172</v>
       </c>
       <c r="AK50" s="65">
         <f t="shared" si="4"/>
@@ -6395,7 +6485,7 @@
       </c>
       <c r="AM50" s="65">
         <f t="shared" si="4"/>
-        <v>35.928853754940718</v>
+        <v>38.442687747035571</v>
       </c>
       <c r="AN50" s="65"/>
     </row>
@@ -6477,9 +6567,9 @@
         <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
-      <c r="AA51" s="65" t="e">
+      <c r="AA51" s="65">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="AB51" s="65" t="e">
         <f t="shared" si="5"/>
@@ -6515,7 +6605,7 @@
       </c>
       <c r="AJ51" s="65">
         <f t="shared" si="5"/>
-        <v>62.127659574468083</v>
+        <v>71.063829787234042</v>
       </c>
       <c r="AK51" s="65">
         <f t="shared" si="5"/>
@@ -6527,7 +6617,7 @@
       </c>
       <c r="AM51" s="65">
         <f t="shared" si="5"/>
-        <v>35.474854932301731</v>
+        <v>37.911992263056099</v>
       </c>
       <c r="AN51" s="65"/>
     </row>
@@ -6609,9 +6699,9 @@
         <f t="shared" si="6"/>
         <v>0.58387420812114221</v>
       </c>
-      <c r="AA52" s="65" t="e">
+      <c r="AA52" s="65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.63065622388689091</v>
       </c>
       <c r="AB52" s="65" t="e">
         <f t="shared" si="6"/>
@@ -6647,7 +6737,7 @@
       </c>
       <c r="AJ52" s="65">
         <f t="shared" si="6"/>
-        <v>10.284786191847944</v>
+        <v>12.063066621644104</v>
       </c>
       <c r="AK52" s="65">
         <f t="shared" si="6"/>
@@ -6659,7 +6749,7 @@
       </c>
       <c r="AM52" s="65">
         <f t="shared" si="6"/>
-        <v>6.4431844045044366</v>
+        <v>6.9378134784640473</v>
       </c>
       <c r="AN52" s="65"/>
     </row>
@@ -6743,7 +6833,7 @@
       </c>
       <c r="AA53" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB53" s="65">
         <f t="shared" si="7"/>
@@ -6779,7 +6869,7 @@
       </c>
       <c r="AJ53" s="65">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK53" s="65">
         <f t="shared" si="7"/>
@@ -6791,7 +6881,7 @@
       </c>
       <c r="AM53" s="65">
         <f t="shared" si="7"/>
-        <v>40.909090909090907</v>
+        <v>43.63636363636364</v>
       </c>
       <c r="AN53" s="65"/>
     </row>
@@ -6875,7 +6965,7 @@
       </c>
       <c r="AA54" s="69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB54" s="69">
         <f t="shared" si="8"/>
@@ -6929,6 +7019,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -6939,19 +7042,6 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6966,6 +7056,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -7147,15 +7246,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
@@ -7173,6 +7263,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7188,12 +7286,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE158411-1C67-49F6-8232-E317DB8395DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568714BA-02B7-456C-98C4-16D13C7D054D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -591,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -625,19 +636,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -727,13 +725,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1092,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1121,24 +1112,24 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1163,7 +1154,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1186,13 +1177,13 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,7 +1192,7 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,12 +1210,6 @@
     <xf numFmtId="176" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1289,45 +1274,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="17" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1374,19 +1362,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1606,8 @@
   </sheetPr>
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1630,11 +1618,11 @@
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="30" width="11.42578125" style="71" customWidth="1"/>
-    <col min="31" max="37" width="12.5703125" style="71"/>
-    <col min="38" max="38" width="11.140625" style="71" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" style="71"/>
-    <col min="40" max="40" width="10.85546875" style="71" customWidth="1"/>
+    <col min="9" max="30" width="11.42578125" style="69" customWidth="1"/>
+    <col min="31" max="37" width="12.5703125" style="69"/>
+    <col min="38" max="38" width="11.140625" style="69" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" style="69"/>
+    <col min="40" max="40" width="10.85546875" style="69" customWidth="1"/>
     <col min="41" max="41" width="3.28515625" customWidth="1"/>
     <col min="43" max="43" width="2.140625" customWidth="1"/>
   </cols>
@@ -1779,7 +1767,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="101"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1804,7 +1792,9 @@
       <c r="P2" s="43">
         <v>10</v>
       </c>
-      <c r="Q2" s="43"/>
+      <c r="Q2" s="84">
+        <v>9.5</v>
+      </c>
       <c r="R2" s="43"/>
       <c r="S2" s="44"/>
       <c r="T2" s="33">
@@ -1840,7 +1830,7 @@
       <c r="AH2" s="44"/>
       <c r="AI2" s="45">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
-        <v>72</v>
+        <v>81.5</v>
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
@@ -1853,7 +1843,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>40.772727272727273</v>
+        <v>43.363636363636367</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1875,7 +1865,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="102"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1900,7 +1890,9 @@
       <c r="P3" s="43">
         <v>10</v>
       </c>
-      <c r="Q3" s="43"/>
+      <c r="Q3" s="84">
+        <v>10</v>
+      </c>
       <c r="R3" s="43"/>
       <c r="S3" s="44"/>
       <c r="T3" s="33">
@@ -1936,7 +1928,7 @@
       <c r="AH3" s="44"/>
       <c r="AI3" s="45">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
@@ -1949,7 +1941,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>41.86363636363636</v>
+        <v>44.590909090909093</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1971,7 +1963,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="101"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1996,7 +1988,9 @@
       <c r="P4" s="43">
         <v>10</v>
       </c>
-      <c r="Q4" s="43"/>
+      <c r="Q4" s="84">
+        <v>9</v>
+      </c>
       <c r="R4" s="43"/>
       <c r="S4" s="44"/>
       <c r="T4" s="33">
@@ -2032,7 +2026,7 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="45">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
@@ -2045,7 +2039,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>40.090909090909093</v>
+        <v>42.545454545454547</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2067,7 +2061,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="102"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2092,7 +2086,9 @@
       <c r="P5" s="43">
         <v>10</v>
       </c>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="84">
+        <v>8.5</v>
+      </c>
       <c r="R5" s="43"/>
       <c r="S5" s="44"/>
       <c r="T5" s="33">
@@ -2128,7 +2124,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="45">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>88.5</v>
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
@@ -2141,7 +2137,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>43.63636363636364</v>
+        <v>45.954545454545453</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2163,7 +2159,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="101"/>
+      <c r="H6" s="100"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2188,7 +2184,9 @@
       <c r="P6" s="43">
         <v>10</v>
       </c>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="84">
+        <v>10</v>
+      </c>
       <c r="R6" s="43"/>
       <c r="S6" s="44"/>
       <c r="T6" s="33">
@@ -2224,7 +2222,7 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="45">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
@@ -2237,7 +2235,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>38.727272727272734</v>
+        <v>41.454545454545453</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2259,7 +2257,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="102"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2284,7 +2282,9 @@
       <c r="P7" s="43">
         <v>10</v>
       </c>
-      <c r="Q7" s="43"/>
+      <c r="Q7" s="84">
+        <v>10</v>
+      </c>
       <c r="R7" s="43"/>
       <c r="S7" s="44"/>
       <c r="T7" s="33">
@@ -2320,7 +2320,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
@@ -2333,7 +2333,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>39.272727272727273</v>
+        <v>42</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="101"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2380,7 +2380,9 @@
       <c r="P8" s="43">
         <v>10</v>
       </c>
-      <c r="Q8" s="43"/>
+      <c r="Q8" s="84">
+        <v>9</v>
+      </c>
       <c r="R8" s="43"/>
       <c r="S8" s="44"/>
       <c r="T8" s="33">
@@ -2416,7 +2418,7 @@
       <c r="AH8" s="44"/>
       <c r="AI8" s="45">
         <f t="shared" si="0"/>
-        <v>72.5</v>
+        <v>81.5</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
@@ -2429,7 +2431,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>40.63636363636364</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2451,7 +2453,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="102"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2476,7 +2478,9 @@
       <c r="P9" s="43">
         <v>10</v>
       </c>
-      <c r="Q9" s="43"/>
+      <c r="Q9" s="84">
+        <v>7.5</v>
+      </c>
       <c r="R9" s="43"/>
       <c r="S9" s="44"/>
       <c r="T9" s="33">
@@ -2512,7 +2516,7 @@
       <c r="AH9" s="44"/>
       <c r="AI9" s="45">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>81.5</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
@@ -2525,7 +2529,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>41.045454545454547</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2547,7 +2551,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="101"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2572,7 +2576,9 @@
       <c r="P10" s="43">
         <v>10</v>
       </c>
-      <c r="Q10" s="43"/>
+      <c r="Q10" s="84">
+        <v>8</v>
+      </c>
       <c r="R10" s="43"/>
       <c r="S10" s="44"/>
       <c r="T10" s="33">
@@ -2608,7 +2614,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45">
         <f t="shared" si="0"/>
-        <v>76.5</v>
+        <v>84.5</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
@@ -2621,7 +2627,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>42.13636363636364</v>
+        <v>44.31818181818182</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2643,7 +2649,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="102"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2668,7 +2674,9 @@
       <c r="P11" s="43">
         <v>10</v>
       </c>
-      <c r="Q11" s="43"/>
+      <c r="Q11" s="84">
+        <v>9</v>
+      </c>
       <c r="R11" s="43"/>
       <c r="S11" s="44"/>
       <c r="T11" s="33">
@@ -2704,7 +2712,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
@@ -2717,7 +2725,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
+        <v>43.36363636363636</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2739,7 +2747,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="101"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2764,7 +2772,9 @@
       <c r="P12" s="43">
         <v>10</v>
       </c>
-      <c r="Q12" s="43"/>
+      <c r="Q12" s="84">
+        <v>6</v>
+      </c>
       <c r="R12" s="43"/>
       <c r="S12" s="44"/>
       <c r="T12" s="33">
@@ -2800,7 +2810,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45">
         <f t="shared" si="0"/>
-        <v>76.5</v>
+        <v>82.5</v>
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
@@ -2813,7 +2823,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43.63636363636364</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2835,20 +2845,20 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="102"/>
+      <c r="H13" s="101"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="83">
         <v>7.5</v>
       </c>
-      <c r="K13" s="46">
-        <v>9.5</v>
-      </c>
-      <c r="L13" s="46">
-        <v>10</v>
-      </c>
-      <c r="M13" s="43">
+      <c r="K13" s="84">
+        <v>9.5</v>
+      </c>
+      <c r="L13" s="84">
+        <v>10</v>
+      </c>
+      <c r="M13" s="84">
         <v>8</v>
       </c>
       <c r="N13" s="43">
@@ -2860,19 +2870,21 @@
       <c r="P13" s="43">
         <v>10</v>
       </c>
-      <c r="Q13" s="46"/>
+      <c r="Q13" s="84">
+        <v>9</v>
+      </c>
       <c r="R13" s="46"/>
       <c r="S13" s="47"/>
       <c r="T13" s="33">
         <v>8.5</v>
       </c>
-      <c r="U13" s="86">
-        <v>10</v>
-      </c>
-      <c r="V13" s="86">
-        <v>10</v>
-      </c>
-      <c r="W13" s="86">
+      <c r="U13" s="83">
+        <v>10</v>
+      </c>
+      <c r="V13" s="83">
+        <v>10</v>
+      </c>
+      <c r="W13" s="83">
         <v>9.5</v>
       </c>
       <c r="X13" s="43">
@@ -2896,7 +2908,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
@@ -2909,7 +2921,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>40.227272727272727</v>
+        <v>42.68181818181818</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2931,7 +2943,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="101"/>
+      <c r="H14" s="100"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2956,7 +2968,9 @@
       <c r="P14" s="43">
         <v>9</v>
       </c>
-      <c r="Q14" s="43"/>
+      <c r="Q14" s="84">
+        <v>10</v>
+      </c>
       <c r="R14" s="43"/>
       <c r="S14" s="44"/>
       <c r="T14" s="33">
@@ -2992,7 +3006,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
@@ -3005,7 +3019,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>39.818181818181813</v>
+        <v>42.545454545454547</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -3027,7 +3041,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="102"/>
+      <c r="H15" s="101"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -3052,7 +3066,9 @@
       <c r="P15" s="43">
         <v>10</v>
       </c>
-      <c r="Q15" s="48"/>
+      <c r="Q15" s="84">
+        <v>7.5</v>
+      </c>
       <c r="R15" s="43"/>
       <c r="S15" s="44"/>
       <c r="T15" s="33">
@@ -3088,7 +3104,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45">
         <f t="shared" si="0"/>
-        <v>66.5</v>
+        <v>74</v>
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
@@ -3101,7 +3117,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>38.86363636363636</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -3123,8 +3139,8 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="82">
+      <c r="H16" s="88"/>
+      <c r="I16" s="80">
         <v>0</v>
       </c>
       <c r="J16" s="43">
@@ -3136,7 +3152,7 @@
       <c r="N16" s="43"/>
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
+      <c r="Q16" s="84"/>
       <c r="R16" s="43"/>
       <c r="S16" s="44"/>
       <c r="T16" s="33">
@@ -3195,8 +3211,8 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="82">
+      <c r="H17" s="89"/>
+      <c r="I17" s="80">
         <v>0</v>
       </c>
       <c r="J17" s="43">
@@ -3220,7 +3236,9 @@
       <c r="P17" s="43">
         <v>9.5</v>
       </c>
-      <c r="Q17" s="43"/>
+      <c r="Q17" s="84">
+        <v>9</v>
+      </c>
       <c r="R17" s="43"/>
       <c r="S17" s="44"/>
       <c r="T17" s="33">
@@ -3256,7 +3274,7 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="45">
         <f t="shared" si="0"/>
-        <v>66.5</v>
+        <v>75.5</v>
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
@@ -3269,7 +3287,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>37.909090909090907</v>
+        <v>40.363636363636367</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3291,7 +3309,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="87"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3316,7 +3334,9 @@
       <c r="P18" s="43">
         <v>9.5</v>
       </c>
-      <c r="Q18" s="43"/>
+      <c r="Q18" s="84">
+        <v>10</v>
+      </c>
       <c r="R18" s="43"/>
       <c r="S18" s="44"/>
       <c r="T18" s="33">
@@ -3352,7 +3372,7 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>76.5</v>
+        <v>86.5</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
@@ -3365,7 +3385,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>40.090909090909093</v>
+        <v>42.818181818181813</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3387,7 +3407,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="88"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3412,7 +3432,9 @@
       <c r="P19" s="43">
         <v>10</v>
       </c>
-      <c r="Q19" s="43"/>
+      <c r="Q19" s="84">
+        <v>8.5</v>
+      </c>
       <c r="R19" s="43"/>
       <c r="S19" s="44"/>
       <c r="T19" s="33">
@@ -3448,7 +3470,7 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="45">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>77.5</v>
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
@@ -3461,7 +3483,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>38.045454545454547</v>
+        <v>40.36363636363636</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3483,7 +3505,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="87"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3508,7 +3530,9 @@
       <c r="P20" s="43">
         <v>10</v>
       </c>
-      <c r="Q20" s="43"/>
+      <c r="Q20" s="84">
+        <v>9</v>
+      </c>
       <c r="R20" s="43"/>
       <c r="S20" s="44"/>
       <c r="T20" s="33">
@@ -3544,7 +3568,7 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>76.5</v>
+        <v>85.5</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
@@ -3557,7 +3581,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>40.227272727272734</v>
+        <v>42.681818181818187</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3579,8 +3603,8 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="82">
+      <c r="H21" s="87"/>
+      <c r="I21" s="80">
         <v>0</v>
       </c>
       <c r="J21" s="43">
@@ -3592,7 +3616,7 @@
       <c r="N21" s="43"/>
       <c r="O21" s="43"/>
       <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
+      <c r="Q21" s="84"/>
       <c r="R21" s="43"/>
       <c r="S21" s="44"/>
       <c r="T21" s="33">
@@ -3651,7 +3675,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="99"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3676,7 +3700,9 @@
       <c r="P22" s="43">
         <v>10</v>
       </c>
-      <c r="Q22" s="43"/>
+      <c r="Q22" s="84">
+        <v>9.5</v>
+      </c>
       <c r="R22" s="43"/>
       <c r="S22" s="44"/>
       <c r="T22" s="33">
@@ -3712,7 +3738,7 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="45">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>79.5</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
@@ -3725,7 +3751,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>39.954545454545453</v>
+        <v>42.545454545454547</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3747,7 +3773,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="100"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3772,7 +3798,9 @@
       <c r="P23" s="43">
         <v>9.5</v>
       </c>
-      <c r="Q23" s="49"/>
+      <c r="Q23" s="84">
+        <v>7</v>
+      </c>
       <c r="R23" s="43"/>
       <c r="S23" s="44"/>
       <c r="T23" s="33">
@@ -3808,7 +3836,7 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="45">
         <f t="shared" si="0"/>
-        <v>74.5</v>
+        <v>81.5</v>
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
@@ -3821,7 +3849,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>41.18181818181818</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3843,8 +3871,8 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="82">
+      <c r="H24" s="86"/>
+      <c r="I24" s="80">
         <v>0</v>
       </c>
       <c r="J24" s="43">
@@ -3868,7 +3896,9 @@
       <c r="P24" s="43">
         <v>9</v>
       </c>
-      <c r="Q24" s="49"/>
+      <c r="Q24" s="84">
+        <v>9.5</v>
+      </c>
       <c r="R24" s="43"/>
       <c r="S24" s="44"/>
       <c r="T24" s="33">
@@ -3904,7 +3934,7 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>73.5</v>
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
@@ -3917,7 +3947,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>40.090909090909093</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3939,83 +3969,85 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="50">
+      <c r="H25" s="97"/>
+      <c r="I25" s="48">
         <v>8.5</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="49">
         <v>6.5</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="49">
         <v>8.5</v>
       </c>
-      <c r="L25" s="51">
-        <v>9.5</v>
-      </c>
-      <c r="M25" s="51">
+      <c r="L25" s="49">
+        <v>9.5</v>
+      </c>
+      <c r="M25" s="49">
         <v>7</v>
       </c>
-      <c r="N25" s="51">
-        <v>9</v>
-      </c>
-      <c r="O25" s="51">
+      <c r="N25" s="49">
+        <v>9</v>
+      </c>
+      <c r="O25" s="49">
         <v>8.5</v>
       </c>
-      <c r="P25" s="51">
-        <v>9</v>
-      </c>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="50">
-        <v>9</v>
-      </c>
-      <c r="U25" s="51">
-        <v>10</v>
-      </c>
-      <c r="V25" s="51">
+      <c r="P25" s="49">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="85">
+        <v>8</v>
+      </c>
+      <c r="R25" s="49"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="48">
+        <v>9</v>
+      </c>
+      <c r="U25" s="49">
+        <v>10</v>
+      </c>
+      <c r="V25" s="49">
         <v>7</v>
       </c>
-      <c r="W25" s="51">
-        <v>9.5</v>
-      </c>
-      <c r="X25" s="51">
+      <c r="W25" s="49">
+        <v>9.5</v>
+      </c>
+      <c r="X25" s="49">
         <v>8.5</v>
       </c>
-      <c r="Y25" s="51">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="51">
-        <v>9.5</v>
-      </c>
-      <c r="AA25" s="51">
-        <v>10</v>
-      </c>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="50">
+      <c r="Y25" s="49">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="49">
+        <v>9.5</v>
+      </c>
+      <c r="AA25" s="49">
+        <v>10</v>
+      </c>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="48">
         <f t="shared" si="0"/>
-        <v>66.5</v>
-      </c>
-      <c r="AJ25" s="51">
+        <v>74.5</v>
+      </c>
+      <c r="AJ25" s="49">
         <f t="shared" si="1"/>
         <v>73.5</v>
       </c>
-      <c r="AK25" s="51">
+      <c r="AK25" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="51">
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49">
         <f t="shared" si="3"/>
-        <v>38.18181818181818</v>
-      </c>
-      <c r="AN25" s="51"/>
+        <v>40.36363636363636</v>
+      </c>
+      <c r="AN25" s="49"/>
     </row>
     <row r="26" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
@@ -4035,83 +4067,85 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="53">
+      <c r="H26" s="94"/>
+      <c r="I26" s="51">
         <v>5.5</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="52">
         <v>8.5</v>
       </c>
-      <c r="K26" s="54">
-        <v>9</v>
-      </c>
-      <c r="L26" s="54">
-        <v>10</v>
-      </c>
-      <c r="M26" s="54">
-        <v>10</v>
-      </c>
-      <c r="N26" s="54">
-        <v>10</v>
-      </c>
-      <c r="O26" s="54">
-        <v>9</v>
-      </c>
-      <c r="P26" s="54">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="53">
+      <c r="K26" s="52">
+        <v>9</v>
+      </c>
+      <c r="L26" s="52">
+        <v>10</v>
+      </c>
+      <c r="M26" s="52">
+        <v>10</v>
+      </c>
+      <c r="N26" s="52">
+        <v>10</v>
+      </c>
+      <c r="O26" s="52">
+        <v>9</v>
+      </c>
+      <c r="P26" s="52">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="52">
+        <v>10</v>
+      </c>
+      <c r="R26" s="52"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="51">
         <v>7.5</v>
       </c>
-      <c r="U26" s="54">
-        <v>9</v>
-      </c>
-      <c r="V26" s="54">
-        <v>9</v>
-      </c>
-      <c r="W26" s="54">
-        <v>10</v>
-      </c>
-      <c r="X26" s="54">
-        <v>9</v>
-      </c>
-      <c r="Y26" s="54">
-        <v>10</v>
-      </c>
-      <c r="Z26" s="54">
-        <v>10</v>
-      </c>
-      <c r="AA26" s="54">
-        <v>9</v>
-      </c>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="56">
+      <c r="U26" s="52">
+        <v>9</v>
+      </c>
+      <c r="V26" s="52">
+        <v>9</v>
+      </c>
+      <c r="W26" s="52">
+        <v>10</v>
+      </c>
+      <c r="X26" s="52">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="52">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="52">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="52">
+        <v>9</v>
+      </c>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="54">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="AJ26" s="57">
+        <v>82</v>
+      </c>
+      <c r="AJ26" s="55">
         <f t="shared" si="1"/>
         <v>73.5</v>
       </c>
-      <c r="AK26" s="57">
+      <c r="AK26" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="57">
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="55">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>39.681818181818187</v>
-      </c>
-      <c r="AN26" s="54"/>
+        <v>42.409090909090907</v>
+      </c>
+      <c r="AN26" s="52"/>
     </row>
     <row r="27" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
@@ -4131,83 +4165,85 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="58">
+      <c r="H27" s="95"/>
+      <c r="I27" s="56">
         <v>7</v>
       </c>
-      <c r="J27" s="59">
-        <v>10</v>
-      </c>
-      <c r="K27" s="59">
-        <v>8</v>
-      </c>
-      <c r="L27" s="59">
-        <v>10</v>
-      </c>
-      <c r="M27" s="59">
+      <c r="J27" s="57">
+        <v>10</v>
+      </c>
+      <c r="K27" s="57">
+        <v>8</v>
+      </c>
+      <c r="L27" s="57">
+        <v>10</v>
+      </c>
+      <c r="M27" s="57">
         <v>5.5</v>
       </c>
-      <c r="N27" s="59">
-        <v>10</v>
-      </c>
-      <c r="O27" s="59">
-        <v>10</v>
-      </c>
-      <c r="P27" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="58">
+      <c r="N27" s="57">
+        <v>10</v>
+      </c>
+      <c r="O27" s="57">
+        <v>10</v>
+      </c>
+      <c r="P27" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="57">
+        <v>9</v>
+      </c>
+      <c r="R27" s="57"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="56">
         <v>7.5</v>
       </c>
-      <c r="U27" s="59">
-        <v>9</v>
-      </c>
-      <c r="V27" s="59">
-        <v>9</v>
-      </c>
-      <c r="W27" s="59">
-        <v>10</v>
-      </c>
-      <c r="X27" s="59">
-        <v>9</v>
-      </c>
-      <c r="Y27" s="59">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="59">
-        <v>10</v>
-      </c>
-      <c r="AA27" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="61">
+      <c r="U27" s="57">
+        <v>9</v>
+      </c>
+      <c r="V27" s="57">
+        <v>9</v>
+      </c>
+      <c r="W27" s="57">
+        <v>10</v>
+      </c>
+      <c r="X27" s="57">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="57">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="57">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="59">
         <f t="shared" si="0"/>
-        <v>70.5</v>
-      </c>
-      <c r="AJ27" s="62">
+        <v>79.5</v>
+      </c>
+      <c r="AJ27" s="60">
         <f t="shared" si="1"/>
         <v>73.5</v>
       </c>
-      <c r="AK27" s="62">
+      <c r="AK27" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="62">
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="60">
         <f t="shared" si="3"/>
-        <v>39.272727272727273</v>
-      </c>
-      <c r="AN27" s="59"/>
+        <v>41.727272727272734</v>
+      </c>
+      <c r="AN27" s="57"/>
     </row>
     <row r="28" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
@@ -4227,83 +4263,85 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="58">
-        <v>8</v>
-      </c>
-      <c r="J28" s="59">
+      <c r="H28" s="96"/>
+      <c r="I28" s="56">
+        <v>8</v>
+      </c>
+      <c r="J28" s="57">
         <v>8.5</v>
       </c>
-      <c r="K28" s="59">
-        <v>10</v>
-      </c>
-      <c r="L28" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="M28" s="59">
-        <v>9</v>
-      </c>
-      <c r="N28" s="59">
-        <v>9</v>
-      </c>
-      <c r="O28" s="59">
-        <v>9</v>
-      </c>
-      <c r="P28" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="58">
-        <v>8</v>
-      </c>
-      <c r="U28" s="59">
+      <c r="K28" s="57">
+        <v>10</v>
+      </c>
+      <c r="L28" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="M28" s="57">
+        <v>9</v>
+      </c>
+      <c r="N28" s="57">
+        <v>9</v>
+      </c>
+      <c r="O28" s="57">
+        <v>9</v>
+      </c>
+      <c r="P28" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="57">
+        <v>9</v>
+      </c>
+      <c r="R28" s="57"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="56">
+        <v>8</v>
+      </c>
+      <c r="U28" s="57">
         <v>7</v>
       </c>
-      <c r="V28" s="59">
+      <c r="V28" s="57">
         <v>6</v>
       </c>
-      <c r="W28" s="59">
-        <v>9</v>
-      </c>
-      <c r="X28" s="59">
-        <v>8</v>
-      </c>
-      <c r="Y28" s="59">
-        <v>8</v>
-      </c>
-      <c r="Z28" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AA28" s="59">
-        <v>10</v>
-      </c>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="61">
+      <c r="W28" s="57">
+        <v>9</v>
+      </c>
+      <c r="X28" s="57">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="57">
+        <v>8</v>
+      </c>
+      <c r="Z28" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AA28" s="57">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="59">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="AJ28" s="62">
+        <v>82</v>
+      </c>
+      <c r="AJ28" s="60">
         <f t="shared" si="1"/>
         <v>65.5</v>
       </c>
-      <c r="AK28" s="62">
+      <c r="AK28" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="62">
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="60">
         <f t="shared" si="3"/>
-        <v>37.772727272727273</v>
-      </c>
-      <c r="AN28" s="59"/>
+        <v>40.227272727272727</v>
+      </c>
+      <c r="AN28" s="57"/>
     </row>
     <row r="29" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
@@ -4323,83 +4361,85 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="58">
-        <v>10</v>
-      </c>
-      <c r="J29" s="59">
-        <v>10</v>
-      </c>
-      <c r="K29" s="59">
-        <v>10</v>
-      </c>
-      <c r="L29" s="59">
-        <v>10</v>
-      </c>
-      <c r="M29" s="59">
-        <v>9</v>
-      </c>
-      <c r="N29" s="59">
-        <v>10</v>
-      </c>
-      <c r="O29" s="59">
-        <v>9</v>
-      </c>
-      <c r="P29" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="58">
-        <v>8</v>
-      </c>
-      <c r="U29" s="59">
+      <c r="H29" s="95"/>
+      <c r="I29" s="56">
+        <v>10</v>
+      </c>
+      <c r="J29" s="57">
+        <v>10</v>
+      </c>
+      <c r="K29" s="57">
+        <v>10</v>
+      </c>
+      <c r="L29" s="57">
+        <v>10</v>
+      </c>
+      <c r="M29" s="57">
+        <v>9</v>
+      </c>
+      <c r="N29" s="57">
+        <v>10</v>
+      </c>
+      <c r="O29" s="57">
+        <v>9</v>
+      </c>
+      <c r="P29" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="57">
+        <v>10</v>
+      </c>
+      <c r="R29" s="57"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="56">
+        <v>8</v>
+      </c>
+      <c r="U29" s="57">
         <v>7</v>
       </c>
-      <c r="V29" s="59">
+      <c r="V29" s="57">
         <v>6</v>
       </c>
-      <c r="W29" s="59">
-        <v>9</v>
-      </c>
-      <c r="X29" s="59">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="59">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AA29" s="59">
-        <v>10</v>
-      </c>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="61">
+      <c r="W29" s="57">
+        <v>9</v>
+      </c>
+      <c r="X29" s="57">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="57">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AA29" s="57">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="59">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="AJ29" s="62">
+        <v>88</v>
+      </c>
+      <c r="AJ29" s="60">
         <f t="shared" si="1"/>
         <v>65.5</v>
       </c>
-      <c r="AK29" s="62">
+      <c r="AK29" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="62">
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="60">
         <f t="shared" si="3"/>
-        <v>39.13636363636364</v>
-      </c>
-      <c r="AN29" s="59"/>
+        <v>41.86363636363636</v>
+      </c>
+      <c r="AN29" s="57"/>
     </row>
     <row r="30" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
@@ -4419,83 +4459,85 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="58">
-        <v>9</v>
-      </c>
-      <c r="J30" s="59">
-        <v>8</v>
-      </c>
-      <c r="K30" s="59">
-        <v>9</v>
-      </c>
-      <c r="L30" s="59">
-        <v>10</v>
-      </c>
-      <c r="M30" s="59">
-        <v>9</v>
-      </c>
-      <c r="N30" s="59">
-        <v>10</v>
-      </c>
-      <c r="O30" s="59">
-        <v>10</v>
-      </c>
-      <c r="P30" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="58">
-        <v>10</v>
-      </c>
-      <c r="U30" s="59">
-        <v>10</v>
-      </c>
-      <c r="V30" s="59">
-        <v>9</v>
-      </c>
-      <c r="W30" s="59">
-        <v>10</v>
-      </c>
-      <c r="X30" s="59">
-        <v>10</v>
-      </c>
-      <c r="Y30" s="59">
-        <v>10</v>
-      </c>
-      <c r="Z30" s="59">
-        <v>9</v>
-      </c>
-      <c r="AA30" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="59"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="61">
+      <c r="H30" s="96"/>
+      <c r="I30" s="56">
+        <v>9</v>
+      </c>
+      <c r="J30" s="57">
+        <v>8</v>
+      </c>
+      <c r="K30" s="57">
+        <v>9</v>
+      </c>
+      <c r="L30" s="57">
+        <v>10</v>
+      </c>
+      <c r="M30" s="57">
+        <v>9</v>
+      </c>
+      <c r="N30" s="57">
+        <v>10</v>
+      </c>
+      <c r="O30" s="57">
+        <v>10</v>
+      </c>
+      <c r="P30" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="R30" s="57"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="56">
+        <v>10</v>
+      </c>
+      <c r="U30" s="57">
+        <v>10</v>
+      </c>
+      <c r="V30" s="57">
+        <v>9</v>
+      </c>
+      <c r="W30" s="57">
+        <v>10</v>
+      </c>
+      <c r="X30" s="57">
+        <v>10</v>
+      </c>
+      <c r="Y30" s="57">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="57">
+        <v>9</v>
+      </c>
+      <c r="AA30" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="59">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="AJ30" s="62">
+        <v>84.5</v>
+      </c>
+      <c r="AJ30" s="60">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="AK30" s="62">
+      <c r="AK30" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="59"/>
-      <c r="AM30" s="62">
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="60">
         <f t="shared" si="3"/>
-        <v>41.454545454545453</v>
-      </c>
-      <c r="AN30" s="59"/>
+        <v>44.045454545454547</v>
+      </c>
+      <c r="AN30" s="57"/>
     </row>
     <row r="31" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
@@ -4515,83 +4557,85 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="58">
-        <v>8</v>
-      </c>
-      <c r="J31" s="59">
-        <v>10</v>
-      </c>
-      <c r="K31" s="59">
-        <v>9</v>
-      </c>
-      <c r="L31" s="59">
-        <v>10</v>
-      </c>
-      <c r="M31" s="59">
-        <v>10</v>
-      </c>
-      <c r="N31" s="59">
-        <v>10</v>
-      </c>
-      <c r="O31" s="59">
-        <v>9</v>
-      </c>
-      <c r="P31" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="58">
-        <v>10</v>
-      </c>
-      <c r="U31" s="59">
-        <v>10</v>
-      </c>
-      <c r="V31" s="59">
-        <v>9</v>
-      </c>
-      <c r="W31" s="59">
-        <v>10</v>
-      </c>
-      <c r="X31" s="59">
-        <v>10</v>
-      </c>
-      <c r="Y31" s="59">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="59">
-        <v>9</v>
-      </c>
-      <c r="AA31" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="61">
+      <c r="H31" s="95"/>
+      <c r="I31" s="56">
+        <v>8</v>
+      </c>
+      <c r="J31" s="57">
+        <v>10</v>
+      </c>
+      <c r="K31" s="57">
+        <v>9</v>
+      </c>
+      <c r="L31" s="57">
+        <v>10</v>
+      </c>
+      <c r="M31" s="57">
+        <v>10</v>
+      </c>
+      <c r="N31" s="57">
+        <v>10</v>
+      </c>
+      <c r="O31" s="57">
+        <v>9</v>
+      </c>
+      <c r="P31" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="57">
+        <v>10</v>
+      </c>
+      <c r="R31" s="57"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="56">
+        <v>10</v>
+      </c>
+      <c r="U31" s="57">
+        <v>10</v>
+      </c>
+      <c r="V31" s="57">
+        <v>9</v>
+      </c>
+      <c r="W31" s="57">
+        <v>10</v>
+      </c>
+      <c r="X31" s="57">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="57">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="57">
+        <v>9</v>
+      </c>
+      <c r="AA31" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="59">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="AJ31" s="62">
+        <v>86</v>
+      </c>
+      <c r="AJ31" s="60">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="AK31" s="62">
+      <c r="AK31" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="62">
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="60">
         <f t="shared" si="3"/>
-        <v>41.727272727272727</v>
-      </c>
-      <c r="AN31" s="59"/>
+        <v>44.454545454545453</v>
+      </c>
+      <c r="AN31" s="57"/>
     </row>
     <row r="32" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
@@ -4611,83 +4655,85 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="58">
+      <c r="H32" s="90"/>
+      <c r="I32" s="56">
         <v>5.5</v>
       </c>
-      <c r="J32" s="59">
-        <v>9</v>
-      </c>
-      <c r="K32" s="59">
+      <c r="J32" s="57">
+        <v>9</v>
+      </c>
+      <c r="K32" s="57">
         <v>7</v>
       </c>
-      <c r="L32" s="59">
+      <c r="L32" s="57">
         <v>7.5</v>
       </c>
-      <c r="M32" s="59">
+      <c r="M32" s="57">
         <v>7</v>
       </c>
-      <c r="N32" s="59">
+      <c r="N32" s="57">
         <v>7</v>
       </c>
-      <c r="O32" s="59">
-        <v>10</v>
-      </c>
-      <c r="P32" s="59">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="58">
+      <c r="O32" s="57">
+        <v>10</v>
+      </c>
+      <c r="P32" s="57">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="R32" s="57"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="56">
         <v>6</v>
       </c>
-      <c r="U32" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="V32" s="59">
-        <v>9</v>
-      </c>
-      <c r="W32" s="59">
-        <v>9</v>
-      </c>
-      <c r="X32" s="59">
+      <c r="U32" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="V32" s="57">
+        <v>9</v>
+      </c>
+      <c r="W32" s="57">
+        <v>9</v>
+      </c>
+      <c r="X32" s="57">
         <v>3.5</v>
       </c>
-      <c r="Y32" s="59">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="59">
-        <v>8</v>
-      </c>
-      <c r="AA32" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="61">
+      <c r="Y32" s="57">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="57">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="58"/>
+      <c r="AI32" s="59">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="AJ32" s="62">
+        <v>71.5</v>
+      </c>
+      <c r="AJ32" s="60">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="AK32" s="62">
+      <c r="AK32" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="62">
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="60">
         <f t="shared" si="3"/>
-        <v>33.954545454545453</v>
-      </c>
-      <c r="AN32" s="59"/>
+        <v>36.545454545454547</v>
+      </c>
+      <c r="AN32" s="57"/>
     </row>
     <row r="33" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
@@ -4707,83 +4753,85 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="58">
-        <v>10</v>
-      </c>
-      <c r="J33" s="59">
-        <v>10</v>
-      </c>
-      <c r="K33" s="59">
-        <v>8</v>
-      </c>
-      <c r="L33" s="59">
-        <v>10</v>
-      </c>
-      <c r="M33" s="59">
+      <c r="H33" s="91"/>
+      <c r="I33" s="56">
+        <v>10</v>
+      </c>
+      <c r="J33" s="57">
+        <v>10</v>
+      </c>
+      <c r="K33" s="57">
+        <v>8</v>
+      </c>
+      <c r="L33" s="57">
+        <v>10</v>
+      </c>
+      <c r="M33" s="57">
         <v>5</v>
       </c>
-      <c r="N33" s="59">
-        <v>10</v>
-      </c>
-      <c r="O33" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="P33" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="58">
+      <c r="N33" s="57">
+        <v>10</v>
+      </c>
+      <c r="O33" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="P33" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="57">
+        <v>8.5</v>
+      </c>
+      <c r="R33" s="57"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="56">
         <v>6</v>
       </c>
-      <c r="U33" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="V33" s="59">
-        <v>9</v>
-      </c>
-      <c r="W33" s="59">
-        <v>9</v>
-      </c>
-      <c r="X33" s="59">
+      <c r="U33" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="V33" s="57">
+        <v>9</v>
+      </c>
+      <c r="W33" s="57">
+        <v>9</v>
+      </c>
+      <c r="X33" s="57">
         <v>3.5</v>
       </c>
-      <c r="Y33" s="59">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="59">
-        <v>8</v>
-      </c>
-      <c r="AA33" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="61">
+      <c r="Y33" s="57">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="57">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="58"/>
+      <c r="AI33" s="59">
         <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-      <c r="AJ33" s="62">
+        <v>81</v>
+      </c>
+      <c r="AJ33" s="60">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="AK33" s="62">
+      <c r="AK33" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="62">
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="60">
         <f t="shared" si="3"/>
-        <v>36.81818181818182</v>
-      </c>
-      <c r="AN33" s="59"/>
+        <v>39.13636363636364</v>
+      </c>
+      <c r="AN33" s="57"/>
     </row>
     <row r="34" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
@@ -4803,83 +4851,85 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="58">
-        <v>8</v>
-      </c>
-      <c r="J34" s="59">
-        <v>10</v>
-      </c>
-      <c r="K34" s="59">
-        <v>10</v>
-      </c>
-      <c r="L34" s="59">
-        <v>10</v>
-      </c>
-      <c r="M34" s="59">
-        <v>10</v>
-      </c>
-      <c r="N34" s="59">
-        <v>9</v>
-      </c>
-      <c r="O34" s="59">
-        <v>10</v>
-      </c>
-      <c r="P34" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="58">
-        <v>9</v>
-      </c>
-      <c r="U34" s="59">
-        <v>9</v>
-      </c>
-      <c r="V34" s="59">
-        <v>10</v>
-      </c>
-      <c r="W34" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="X34" s="59">
-        <v>10</v>
-      </c>
-      <c r="Y34" s="59">
-        <v>9</v>
-      </c>
-      <c r="Z34" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AA34" s="59">
-        <v>10</v>
-      </c>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="61">
+      <c r="H34" s="92"/>
+      <c r="I34" s="56">
+        <v>8</v>
+      </c>
+      <c r="J34" s="57">
+        <v>10</v>
+      </c>
+      <c r="K34" s="57">
+        <v>10</v>
+      </c>
+      <c r="L34" s="57">
+        <v>10</v>
+      </c>
+      <c r="M34" s="57">
+        <v>10</v>
+      </c>
+      <c r="N34" s="57">
+        <v>9</v>
+      </c>
+      <c r="O34" s="57">
+        <v>10</v>
+      </c>
+      <c r="P34" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="57">
+        <v>10</v>
+      </c>
+      <c r="R34" s="57"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="56">
+        <v>9</v>
+      </c>
+      <c r="U34" s="57">
+        <v>9</v>
+      </c>
+      <c r="V34" s="57">
+        <v>10</v>
+      </c>
+      <c r="W34" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="X34" s="57">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="57">
+        <v>9</v>
+      </c>
+      <c r="Z34" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AA34" s="57">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="59">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="AJ34" s="62">
+        <v>87</v>
+      </c>
+      <c r="AJ34" s="60">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="AK34" s="62">
+      <c r="AK34" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="59"/>
-      <c r="AM34" s="62">
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="60">
         <f t="shared" si="3"/>
-        <v>41.727272727272727</v>
-      </c>
-      <c r="AN34" s="59"/>
+        <v>44.454545454545453</v>
+      </c>
+      <c r="AN34" s="57"/>
     </row>
     <row r="35" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
@@ -4899,83 +4949,85 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="58">
-        <v>8</v>
-      </c>
-      <c r="J35" s="59">
-        <v>10</v>
-      </c>
-      <c r="K35" s="59">
-        <v>8</v>
-      </c>
-      <c r="L35" s="59">
-        <v>10</v>
-      </c>
-      <c r="M35" s="59">
-        <v>9</v>
-      </c>
-      <c r="N35" s="59">
-        <v>10</v>
-      </c>
-      <c r="O35" s="59">
-        <v>10</v>
-      </c>
-      <c r="P35" s="59">
+      <c r="H35" s="93"/>
+      <c r="I35" s="56">
+        <v>8</v>
+      </c>
+      <c r="J35" s="57">
+        <v>10</v>
+      </c>
+      <c r="K35" s="57">
+        <v>8</v>
+      </c>
+      <c r="L35" s="57">
+        <v>10</v>
+      </c>
+      <c r="M35" s="57">
+        <v>9</v>
+      </c>
+      <c r="N35" s="57">
+        <v>10</v>
+      </c>
+      <c r="O35" s="57">
+        <v>10</v>
+      </c>
+      <c r="P35" s="57">
         <v>8.5</v>
       </c>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="58">
-        <v>9</v>
-      </c>
-      <c r="U35" s="59">
-        <v>9</v>
-      </c>
-      <c r="V35" s="59">
-        <v>10</v>
-      </c>
-      <c r="W35" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="X35" s="59">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="59">
-        <v>9</v>
-      </c>
-      <c r="Z35" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AA35" s="59">
-        <v>10</v>
-      </c>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="59"/>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="61">
+      <c r="Q35" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="R35" s="57"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="56">
+        <v>9</v>
+      </c>
+      <c r="U35" s="57">
+        <v>9</v>
+      </c>
+      <c r="V35" s="57">
+        <v>10</v>
+      </c>
+      <c r="W35" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="X35" s="57">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="57">
+        <v>9</v>
+      </c>
+      <c r="Z35" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AA35" s="57">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="57"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="59">
         <f t="shared" si="0"/>
-        <v>73.5</v>
-      </c>
-      <c r="AJ35" s="62">
+        <v>83</v>
+      </c>
+      <c r="AJ35" s="60">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="AK35" s="62">
+      <c r="AK35" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="59"/>
-      <c r="AM35" s="62">
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="60">
         <f t="shared" si="3"/>
-        <v>40.772727272727273</v>
-      </c>
-      <c r="AN35" s="59"/>
+        <v>43.36363636363636</v>
+      </c>
+      <c r="AN35" s="57"/>
     </row>
     <row r="36" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
@@ -4995,83 +5047,85 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="58">
-        <v>8</v>
-      </c>
-      <c r="J36" s="59">
-        <v>10</v>
-      </c>
-      <c r="K36" s="59">
-        <v>9</v>
-      </c>
-      <c r="L36" s="59">
-        <v>8</v>
-      </c>
-      <c r="M36" s="59">
-        <v>10</v>
-      </c>
-      <c r="N36" s="59">
-        <v>9</v>
-      </c>
-      <c r="O36" s="59">
-        <v>8</v>
-      </c>
-      <c r="P36" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="58">
-        <v>10</v>
-      </c>
-      <c r="U36" s="59">
-        <v>10</v>
-      </c>
-      <c r="V36" s="59">
-        <v>9</v>
-      </c>
-      <c r="W36" s="59">
-        <v>10</v>
-      </c>
-      <c r="X36" s="59">
-        <v>9</v>
-      </c>
-      <c r="Y36" s="59">
-        <v>9</v>
-      </c>
-      <c r="Z36" s="59">
-        <v>8</v>
-      </c>
-      <c r="AA36" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="58"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="61">
+      <c r="H36" s="90"/>
+      <c r="I36" s="56">
+        <v>8</v>
+      </c>
+      <c r="J36" s="57">
+        <v>10</v>
+      </c>
+      <c r="K36" s="57">
+        <v>9</v>
+      </c>
+      <c r="L36" s="57">
+        <v>8</v>
+      </c>
+      <c r="M36" s="57">
+        <v>10</v>
+      </c>
+      <c r="N36" s="57">
+        <v>9</v>
+      </c>
+      <c r="O36" s="57">
+        <v>8</v>
+      </c>
+      <c r="P36" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="R36" s="57"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="56">
+        <v>10</v>
+      </c>
+      <c r="U36" s="57">
+        <v>10</v>
+      </c>
+      <c r="V36" s="57">
+        <v>9</v>
+      </c>
+      <c r="W36" s="57">
+        <v>10</v>
+      </c>
+      <c r="X36" s="57">
+        <v>9</v>
+      </c>
+      <c r="Y36" s="57">
+        <v>9</v>
+      </c>
+      <c r="Z36" s="57">
+        <v>8</v>
+      </c>
+      <c r="AA36" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="59">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="AJ36" s="62">
+        <v>81.5</v>
+      </c>
+      <c r="AJ36" s="60">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="AK36" s="62">
+      <c r="AK36" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="59"/>
-      <c r="AM36" s="62">
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="60">
         <f t="shared" si="3"/>
-        <v>39.81818181818182</v>
-      </c>
-      <c r="AN36" s="59"/>
+        <v>42.409090909090914</v>
+      </c>
+      <c r="AN36" s="57"/>
     </row>
     <row r="37" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
@@ -5091,83 +5145,85 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="58">
-        <v>8</v>
-      </c>
-      <c r="J37" s="59">
+      <c r="H37" s="91"/>
+      <c r="I37" s="56">
+        <v>8</v>
+      </c>
+      <c r="J37" s="57">
         <v>6.5</v>
       </c>
-      <c r="K37" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="L37" s="59">
-        <v>10</v>
-      </c>
-      <c r="M37" s="59">
+      <c r="K37" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="L37" s="57">
+        <v>10</v>
+      </c>
+      <c r="M37" s="57">
         <v>8.5</v>
       </c>
-      <c r="N37" s="59">
-        <v>10</v>
-      </c>
-      <c r="O37" s="59">
-        <v>10</v>
-      </c>
-      <c r="P37" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="58">
-        <v>10</v>
-      </c>
-      <c r="U37" s="59">
-        <v>10</v>
-      </c>
-      <c r="V37" s="59">
-        <v>9</v>
-      </c>
-      <c r="W37" s="59">
-        <v>10</v>
-      </c>
-      <c r="X37" s="59">
-        <v>9</v>
-      </c>
-      <c r="Y37" s="59">
-        <v>9</v>
-      </c>
-      <c r="Z37" s="59">
-        <v>8</v>
-      </c>
-      <c r="AA37" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="58"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="61">
+      <c r="N37" s="57">
+        <v>10</v>
+      </c>
+      <c r="O37" s="57">
+        <v>10</v>
+      </c>
+      <c r="P37" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="57">
+        <v>9</v>
+      </c>
+      <c r="R37" s="57"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="56">
+        <v>10</v>
+      </c>
+      <c r="U37" s="57">
+        <v>10</v>
+      </c>
+      <c r="V37" s="57">
+        <v>9</v>
+      </c>
+      <c r="W37" s="57">
+        <v>10</v>
+      </c>
+      <c r="X37" s="57">
+        <v>9</v>
+      </c>
+      <c r="Y37" s="57">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="57">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="58"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="57"/>
+      <c r="AG37" s="57"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="59">
         <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-      <c r="AJ37" s="62">
+        <v>81.5</v>
+      </c>
+      <c r="AJ37" s="60">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="AK37" s="62">
+      <c r="AK37" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="59"/>
-      <c r="AM37" s="62">
+      <c r="AL37" s="57"/>
+      <c r="AM37" s="60">
         <f t="shared" si="3"/>
-        <v>39.954545454545453</v>
-      </c>
-      <c r="AN37" s="59"/>
+        <v>42.409090909090914</v>
+      </c>
+      <c r="AN37" s="57"/>
     </row>
     <row r="38" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
@@ -5187,83 +5243,85 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="58">
-        <v>9</v>
-      </c>
-      <c r="J38" s="59">
+      <c r="H38" s="92"/>
+      <c r="I38" s="56">
+        <v>9</v>
+      </c>
+      <c r="J38" s="57">
         <v>7</v>
       </c>
-      <c r="K38" s="59">
-        <v>9</v>
-      </c>
-      <c r="L38" s="59">
-        <v>10</v>
-      </c>
-      <c r="M38" s="59">
+      <c r="K38" s="57">
+        <v>9</v>
+      </c>
+      <c r="L38" s="57">
+        <v>10</v>
+      </c>
+      <c r="M38" s="57">
         <v>8.5</v>
       </c>
-      <c r="N38" s="59">
-        <v>10</v>
-      </c>
-      <c r="O38" s="59">
-        <v>10</v>
-      </c>
-      <c r="P38" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="58">
-        <v>8</v>
-      </c>
-      <c r="U38" s="59">
-        <v>10</v>
-      </c>
-      <c r="V38" s="59">
-        <v>9</v>
-      </c>
-      <c r="W38" s="59">
+      <c r="N38" s="57">
+        <v>10</v>
+      </c>
+      <c r="O38" s="57">
+        <v>10</v>
+      </c>
+      <c r="P38" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="57">
+        <v>9</v>
+      </c>
+      <c r="R38" s="57"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="56">
+        <v>8</v>
+      </c>
+      <c r="U38" s="57">
+        <v>10</v>
+      </c>
+      <c r="V38" s="57">
+        <v>9</v>
+      </c>
+      <c r="W38" s="57">
         <v>8.5</v>
       </c>
-      <c r="X38" s="59">
-        <v>8</v>
-      </c>
-      <c r="Y38" s="59">
-        <v>10</v>
-      </c>
-      <c r="Z38" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AA38" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="60"/>
-      <c r="AI38" s="61">
+      <c r="X38" s="57">
+        <v>8</v>
+      </c>
+      <c r="Y38" s="57">
+        <v>10</v>
+      </c>
+      <c r="Z38" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AA38" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB38" s="57"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
+      <c r="AH38" s="58"/>
+      <c r="AI38" s="59">
         <f t="shared" si="0"/>
-        <v>73.5</v>
-      </c>
-      <c r="AJ38" s="62">
+        <v>82.5</v>
+      </c>
+      <c r="AJ38" s="60">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AK38" s="62">
+      <c r="AK38" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="59"/>
-      <c r="AM38" s="62">
+      <c r="AL38" s="57"/>
+      <c r="AM38" s="60">
         <f t="shared" si="3"/>
-        <v>39.681818181818187</v>
-      </c>
-      <c r="AN38" s="59"/>
+        <v>42.13636363636364</v>
+      </c>
+      <c r="AN38" s="57"/>
     </row>
     <row r="39" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
@@ -5283,83 +5341,85 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="58">
-        <v>8</v>
-      </c>
-      <c r="J39" s="59">
+      <c r="H39" s="104"/>
+      <c r="I39" s="56">
+        <v>8</v>
+      </c>
+      <c r="J39" s="57">
         <v>6.5</v>
       </c>
-      <c r="K39" s="59">
-        <v>8</v>
-      </c>
-      <c r="L39" s="59">
-        <v>10</v>
-      </c>
-      <c r="M39" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="N39" s="59">
+      <c r="K39" s="57">
+        <v>8</v>
+      </c>
+      <c r="L39" s="57">
+        <v>10</v>
+      </c>
+      <c r="M39" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="N39" s="57">
         <v>7.5</v>
       </c>
-      <c r="O39" s="59">
-        <v>9</v>
-      </c>
-      <c r="P39" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="58">
-        <v>8</v>
-      </c>
-      <c r="U39" s="59">
-        <v>10</v>
-      </c>
-      <c r="V39" s="59">
-        <v>9</v>
-      </c>
-      <c r="W39" s="59">
+      <c r="O39" s="57">
+        <v>9</v>
+      </c>
+      <c r="P39" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="57">
+        <v>7</v>
+      </c>
+      <c r="R39" s="57"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="56">
+        <v>8</v>
+      </c>
+      <c r="U39" s="57">
+        <v>10</v>
+      </c>
+      <c r="V39" s="57">
+        <v>9</v>
+      </c>
+      <c r="W39" s="57">
         <v>8.5</v>
       </c>
-      <c r="X39" s="59">
-        <v>8</v>
-      </c>
-      <c r="Y39" s="59">
-        <v>10</v>
-      </c>
-      <c r="Z39" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AA39" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="60"/>
-      <c r="AI39" s="61">
+      <c r="X39" s="57">
+        <v>8</v>
+      </c>
+      <c r="Y39" s="57">
+        <v>10</v>
+      </c>
+      <c r="Z39" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AA39" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB39" s="57"/>
+      <c r="AC39" s="57"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="57"/>
+      <c r="AG39" s="57"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="59">
         <f t="shared" si="0"/>
-        <v>68.5</v>
-      </c>
-      <c r="AJ39" s="62">
+        <v>75.5</v>
+      </c>
+      <c r="AJ39" s="60">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AK39" s="62">
+      <c r="AK39" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="59"/>
-      <c r="AM39" s="62">
+      <c r="AL39" s="57"/>
+      <c r="AM39" s="60">
         <f t="shared" si="3"/>
-        <v>38.318181818181813</v>
-      </c>
-      <c r="AN39" s="59"/>
+        <v>40.227272727272734</v>
+      </c>
+      <c r="AN39" s="57"/>
     </row>
     <row r="40" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
@@ -5379,83 +5439,85 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="58">
-        <v>9.5</v>
-      </c>
-      <c r="J40" s="59">
-        <v>9</v>
-      </c>
-      <c r="K40" s="59">
+      <c r="H40" s="93"/>
+      <c r="I40" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="J40" s="57">
+        <v>9</v>
+      </c>
+      <c r="K40" s="57">
         <v>5</v>
       </c>
-      <c r="L40" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="M40" s="59">
+      <c r="L40" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="M40" s="57">
         <v>6.5</v>
       </c>
-      <c r="N40" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="O40" s="59">
-        <v>8</v>
-      </c>
-      <c r="P40" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="58">
-        <v>8</v>
-      </c>
-      <c r="U40" s="59">
-        <v>10</v>
-      </c>
-      <c r="V40" s="59">
-        <v>9</v>
-      </c>
-      <c r="W40" s="59">
+      <c r="N40" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="O40" s="57">
+        <v>8</v>
+      </c>
+      <c r="P40" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="57">
+        <v>6</v>
+      </c>
+      <c r="R40" s="57"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="56">
+        <v>8</v>
+      </c>
+      <c r="U40" s="57">
+        <v>10</v>
+      </c>
+      <c r="V40" s="57">
+        <v>9</v>
+      </c>
+      <c r="W40" s="57">
         <v>8.5</v>
       </c>
-      <c r="X40" s="59">
-        <v>8</v>
-      </c>
-      <c r="Y40" s="59">
-        <v>10</v>
-      </c>
-      <c r="Z40" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AA40" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="60"/>
-      <c r="AE40" s="58"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="60"/>
-      <c r="AI40" s="61">
+      <c r="X40" s="57">
+        <v>8</v>
+      </c>
+      <c r="Y40" s="57">
+        <v>10</v>
+      </c>
+      <c r="Z40" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AA40" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB40" s="57"/>
+      <c r="AC40" s="57"/>
+      <c r="AD40" s="58"/>
+      <c r="AE40" s="56"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="57"/>
+      <c r="AH40" s="58"/>
+      <c r="AI40" s="59">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="AJ40" s="62">
+        <v>73</v>
+      </c>
+      <c r="AJ40" s="60">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AK40" s="62">
+      <c r="AK40" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="62">
+      <c r="AL40" s="57"/>
+      <c r="AM40" s="60">
         <f t="shared" si="3"/>
-        <v>37.909090909090907</v>
-      </c>
-      <c r="AN40" s="59"/>
+        <v>39.545454545454547</v>
+      </c>
+      <c r="AN40" s="57"/>
     </row>
     <row r="41" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
@@ -5475,83 +5537,85 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="58">
+      <c r="H41" s="90"/>
+      <c r="I41" s="56">
         <v>5.5</v>
       </c>
-      <c r="J41" s="59">
+      <c r="J41" s="57">
         <v>4</v>
       </c>
-      <c r="K41" s="59">
+      <c r="K41" s="57">
         <v>4</v>
       </c>
-      <c r="L41" s="59">
+      <c r="L41" s="57">
         <v>3.5</v>
       </c>
-      <c r="M41" s="59">
-        <v>0</v>
-      </c>
-      <c r="N41" s="59">
-        <v>0</v>
-      </c>
-      <c r="O41" s="59">
+      <c r="M41" s="57">
+        <v>0</v>
+      </c>
+      <c r="N41" s="57">
+        <v>0</v>
+      </c>
+      <c r="O41" s="57">
         <v>7.5</v>
       </c>
-      <c r="P41" s="59">
-        <v>9</v>
-      </c>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="58">
-        <v>10</v>
-      </c>
-      <c r="U41" s="59">
-        <v>10</v>
-      </c>
-      <c r="V41" s="59">
+      <c r="P41" s="57">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="57">
+        <v>8.5</v>
+      </c>
+      <c r="R41" s="57"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="56">
+        <v>10</v>
+      </c>
+      <c r="U41" s="57">
+        <v>10</v>
+      </c>
+      <c r="V41" s="57">
         <v>7</v>
       </c>
-      <c r="W41" s="59">
-        <v>10</v>
-      </c>
-      <c r="X41" s="59">
-        <v>9</v>
-      </c>
-      <c r="Y41" s="59">
-        <v>10</v>
-      </c>
-      <c r="Z41" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AA41" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="60"/>
-      <c r="AE41" s="58"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="60"/>
-      <c r="AI41" s="61">
+      <c r="W41" s="57">
+        <v>10</v>
+      </c>
+      <c r="X41" s="57">
+        <v>9</v>
+      </c>
+      <c r="Y41" s="57">
+        <v>10</v>
+      </c>
+      <c r="Z41" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AA41" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB41" s="57"/>
+      <c r="AC41" s="57"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="56"/>
+      <c r="AF41" s="57"/>
+      <c r="AG41" s="57"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="59">
         <f t="shared" si="0"/>
-        <v>33.5</v>
-      </c>
-      <c r="AJ41" s="62">
+        <v>42</v>
+      </c>
+      <c r="AJ41" s="60">
         <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
-      <c r="AK41" s="62">
+      <c r="AK41" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="59"/>
-      <c r="AM41" s="62">
+      <c r="AL41" s="57"/>
+      <c r="AM41" s="60">
         <f t="shared" si="3"/>
-        <v>29.454545454545453</v>
-      </c>
-      <c r="AN41" s="59"/>
+        <v>31.772727272727273</v>
+      </c>
+      <c r="AN41" s="57"/>
     </row>
     <row r="42" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
@@ -5571,83 +5635,85 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="58">
+      <c r="H42" s="91"/>
+      <c r="I42" s="56">
         <v>7.5</v>
       </c>
-      <c r="J42" s="59">
+      <c r="J42" s="57">
         <v>8.5</v>
       </c>
-      <c r="K42" s="59">
+      <c r="K42" s="57">
         <v>7</v>
       </c>
-      <c r="L42" s="59">
-        <v>9</v>
-      </c>
-      <c r="M42" s="59">
+      <c r="L42" s="57">
+        <v>9</v>
+      </c>
+      <c r="M42" s="57">
         <v>7</v>
       </c>
-      <c r="N42" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="O42" s="59">
+      <c r="N42" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="O42" s="57">
         <v>8.5</v>
       </c>
-      <c r="P42" s="59">
-        <v>9</v>
-      </c>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="58">
-        <v>10</v>
-      </c>
-      <c r="U42" s="59">
-        <v>10</v>
-      </c>
-      <c r="V42" s="59">
+      <c r="P42" s="57">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="57">
+        <v>9</v>
+      </c>
+      <c r="R42" s="57"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="56">
+        <v>10</v>
+      </c>
+      <c r="U42" s="57">
+        <v>10</v>
+      </c>
+      <c r="V42" s="57">
         <v>7</v>
       </c>
-      <c r="W42" s="59">
-        <v>10</v>
-      </c>
-      <c r="X42" s="59">
-        <v>9</v>
-      </c>
-      <c r="Y42" s="59">
-        <v>10</v>
-      </c>
-      <c r="Z42" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="AA42" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
-      <c r="AD42" s="60"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="59"/>
-      <c r="AH42" s="60"/>
-      <c r="AI42" s="61">
+      <c r="W42" s="57">
+        <v>10</v>
+      </c>
+      <c r="X42" s="57">
+        <v>9</v>
+      </c>
+      <c r="Y42" s="57">
+        <v>10</v>
+      </c>
+      <c r="Z42" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="AA42" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="56"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="58"/>
+      <c r="AI42" s="59">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="AJ42" s="62">
+        <v>75</v>
+      </c>
+      <c r="AJ42" s="60">
         <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
-      <c r="AK42" s="62">
+      <c r="AK42" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="59"/>
-      <c r="AM42" s="62">
+      <c r="AL42" s="57"/>
+      <c r="AM42" s="60">
         <f t="shared" si="3"/>
-        <v>38.318181818181813</v>
-      </c>
-      <c r="AN42" s="59"/>
+        <v>40.772727272727266</v>
+      </c>
+      <c r="AN42" s="57"/>
     </row>
     <row r="43" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
@@ -5667,83 +5733,85 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="58">
+      <c r="H43" s="90"/>
+      <c r="I43" s="56">
         <v>7.5</v>
       </c>
-      <c r="J43" s="59">
+      <c r="J43" s="57">
         <v>6</v>
       </c>
-      <c r="K43" s="59">
-        <v>8</v>
-      </c>
-      <c r="L43" s="59">
-        <v>9.5</v>
-      </c>
-      <c r="M43" s="59">
-        <v>9</v>
-      </c>
-      <c r="N43" s="59">
-        <v>8</v>
-      </c>
-      <c r="O43" s="59">
+      <c r="K43" s="57">
+        <v>8</v>
+      </c>
+      <c r="L43" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="M43" s="57">
+        <v>9</v>
+      </c>
+      <c r="N43" s="57">
+        <v>8</v>
+      </c>
+      <c r="O43" s="57">
         <v>7.5</v>
       </c>
-      <c r="P43" s="59">
-        <v>9</v>
-      </c>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="58">
-        <v>8</v>
-      </c>
-      <c r="U43" s="59">
-        <v>10</v>
-      </c>
-      <c r="V43" s="59">
-        <v>9</v>
-      </c>
-      <c r="W43" s="59">
-        <v>9</v>
-      </c>
-      <c r="X43" s="59">
+      <c r="P43" s="57">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="57">
+        <v>9</v>
+      </c>
+      <c r="R43" s="57"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="56">
+        <v>8</v>
+      </c>
+      <c r="U43" s="57">
+        <v>10</v>
+      </c>
+      <c r="V43" s="57">
+        <v>9</v>
+      </c>
+      <c r="W43" s="57">
+        <v>9</v>
+      </c>
+      <c r="X43" s="57">
         <v>7.5</v>
       </c>
-      <c r="Y43" s="59">
-        <v>8</v>
-      </c>
-      <c r="Z43" s="59">
-        <v>9</v>
-      </c>
-      <c r="AA43" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB43" s="59"/>
-      <c r="AC43" s="59"/>
-      <c r="AD43" s="60"/>
-      <c r="AE43" s="58"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="59"/>
-      <c r="AH43" s="60"/>
-      <c r="AI43" s="61">
+      <c r="Y43" s="57">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="57">
+        <v>9</v>
+      </c>
+      <c r="AA43" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="56"/>
+      <c r="AF43" s="57"/>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="59">
         <f t="shared" si="0"/>
-        <v>64.5</v>
-      </c>
-      <c r="AJ43" s="62">
+        <v>73.5</v>
+      </c>
+      <c r="AJ43" s="60">
         <f t="shared" si="1"/>
         <v>69.5</v>
       </c>
-      <c r="AK43" s="62">
+      <c r="AK43" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL43" s="59"/>
-      <c r="AM43" s="62">
+      <c r="AL43" s="57"/>
+      <c r="AM43" s="60">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
-      </c>
-      <c r="AN43" s="59"/>
+        <v>39</v>
+      </c>
+      <c r="AN43" s="57"/>
     </row>
     <row r="44" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
@@ -5763,467 +5831,477 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="63">
-        <v>0</v>
-      </c>
-      <c r="J44" s="59">
-        <v>8</v>
-      </c>
-      <c r="K44" s="59">
+      <c r="H44" s="91"/>
+      <c r="I44" s="61">
+        <v>0</v>
+      </c>
+      <c r="J44" s="57">
+        <v>8</v>
+      </c>
+      <c r="K44" s="57">
         <v>6</v>
       </c>
-      <c r="L44" s="59">
-        <v>10</v>
-      </c>
-      <c r="M44" s="59">
+      <c r="L44" s="57">
+        <v>10</v>
+      </c>
+      <c r="M44" s="57">
         <v>8.5</v>
       </c>
-      <c r="N44" s="59">
-        <v>8</v>
-      </c>
-      <c r="O44" s="59">
-        <v>8</v>
-      </c>
-      <c r="P44" s="59">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="58">
-        <v>8</v>
-      </c>
-      <c r="U44" s="59">
-        <v>10</v>
-      </c>
-      <c r="V44" s="59">
-        <v>9</v>
-      </c>
-      <c r="W44" s="59">
-        <v>9</v>
-      </c>
-      <c r="X44" s="59">
+      <c r="N44" s="57">
+        <v>8</v>
+      </c>
+      <c r="O44" s="57">
+        <v>8</v>
+      </c>
+      <c r="P44" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="R44" s="57"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="56">
+        <v>8</v>
+      </c>
+      <c r="U44" s="57">
+        <v>10</v>
+      </c>
+      <c r="V44" s="57">
+        <v>9</v>
+      </c>
+      <c r="W44" s="57">
+        <v>9</v>
+      </c>
+      <c r="X44" s="57">
         <v>7.5</v>
       </c>
-      <c r="Y44" s="59">
-        <v>8</v>
-      </c>
-      <c r="Z44" s="59">
-        <v>9</v>
-      </c>
-      <c r="AA44" s="59">
-        <v>9</v>
-      </c>
-      <c r="AB44" s="59"/>
-      <c r="AC44" s="59"/>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="58"/>
-      <c r="AF44" s="59"/>
-      <c r="AG44" s="59"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="61">
+      <c r="Y44" s="57">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="57">
+        <v>9</v>
+      </c>
+      <c r="AA44" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="56"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="58"/>
+      <c r="AI44" s="59">
         <f t="shared" si="0"/>
-        <v>58.5</v>
-      </c>
-      <c r="AJ44" s="62">
+        <v>68</v>
+      </c>
+      <c r="AJ44" s="60">
         <f t="shared" si="1"/>
         <v>69.5</v>
       </c>
-      <c r="AK44" s="62">
+      <c r="AK44" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL44" s="59"/>
-      <c r="AM44" s="62">
+      <c r="AL44" s="57"/>
+      <c r="AM44" s="60">
         <f t="shared" si="3"/>
-        <v>34.909090909090907</v>
-      </c>
-      <c r="AN44" s="59"/>
+        <v>37.5</v>
+      </c>
+      <c r="AN44" s="57"/>
     </row>
     <row r="45" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="73">
-        <v>10</v>
-      </c>
-      <c r="C45" s="74">
+      <c r="B45" s="71">
+        <v>10</v>
+      </c>
+      <c r="C45" s="72">
         <v>202302226</v>
       </c>
-      <c r="D45" s="74" t="s">
+      <c r="D45" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="75">
+      <c r="E45" s="73">
         <v>1046182647</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="76">
-        <v>10</v>
-      </c>
-      <c r="J45" s="83">
-        <v>10</v>
-      </c>
-      <c r="K45" s="83">
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="74">
+        <v>10</v>
+      </c>
+      <c r="J45" s="81">
+        <v>10</v>
+      </c>
+      <c r="K45" s="81">
         <v>6</v>
       </c>
-      <c r="L45" s="83">
-        <v>10</v>
-      </c>
-      <c r="M45" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="N45" s="83">
+      <c r="L45" s="81">
+        <v>10</v>
+      </c>
+      <c r="M45" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="N45" s="81">
         <v>7.5</v>
       </c>
-      <c r="O45" s="83">
-        <v>8</v>
-      </c>
-      <c r="P45" s="83">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="83"/>
-      <c r="S45" s="85"/>
-      <c r="T45" s="76">
-        <v>10</v>
-      </c>
-      <c r="U45" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="V45" s="83">
-        <v>10</v>
-      </c>
-      <c r="W45" s="83">
-        <v>9</v>
-      </c>
-      <c r="X45" s="83">
+      <c r="O45" s="81">
+        <v>8</v>
+      </c>
+      <c r="P45" s="81">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="R45" s="81"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="74">
+        <v>10</v>
+      </c>
+      <c r="U45" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="V45" s="81">
+        <v>10</v>
+      </c>
+      <c r="W45" s="81">
+        <v>9</v>
+      </c>
+      <c r="X45" s="81">
         <v>6</v>
       </c>
-      <c r="Y45" s="83">
-        <v>9</v>
-      </c>
-      <c r="Z45" s="83">
-        <v>9</v>
-      </c>
-      <c r="AA45" s="83">
-        <v>10</v>
-      </c>
-      <c r="AB45" s="83"/>
-      <c r="AC45" s="83"/>
-      <c r="AD45" s="85"/>
-      <c r="AE45" s="76"/>
-      <c r="AF45" s="83"/>
-      <c r="AG45" s="83"/>
-      <c r="AH45" s="85"/>
-      <c r="AI45" s="61">
+      <c r="Y45" s="81">
+        <v>9</v>
+      </c>
+      <c r="Z45" s="81">
+        <v>9</v>
+      </c>
+      <c r="AA45" s="81">
+        <v>10</v>
+      </c>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="81"/>
+      <c r="AD45" s="82"/>
+      <c r="AE45" s="74"/>
+      <c r="AF45" s="81"/>
+      <c r="AG45" s="81"/>
+      <c r="AH45" s="82"/>
+      <c r="AI45" s="59">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AJ45" s="62">
+        <v>79.5</v>
+      </c>
+      <c r="AJ45" s="60">
         <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
-      <c r="AK45" s="62">
+      <c r="AK45" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL45" s="59"/>
-      <c r="AM45" s="62">
+      <c r="AL45" s="57"/>
+      <c r="AM45" s="60">
         <f t="shared" si="3"/>
-        <v>38.86363636363636</v>
-      </c>
-      <c r="AN45" s="59"/>
+        <v>41.454545454545453</v>
+      </c>
+      <c r="AN45" s="57"/>
     </row>
     <row r="46" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="73">
-        <v>10</v>
-      </c>
-      <c r="C46" s="74">
+      <c r="B46" s="71">
+        <v>10</v>
+      </c>
+      <c r="C46" s="72">
         <v>202302227</v>
       </c>
-      <c r="D46" s="74" t="s">
+      <c r="D46" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="75">
+      <c r="E46" s="73">
         <v>1038871469</v>
       </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="76">
-        <v>10</v>
-      </c>
-      <c r="J46" s="83">
-        <v>10</v>
-      </c>
-      <c r="K46" s="83">
-        <v>9</v>
-      </c>
-      <c r="L46" s="83">
-        <v>10</v>
-      </c>
-      <c r="M46" s="83">
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="74">
+        <v>10</v>
+      </c>
+      <c r="J46" s="81">
+        <v>10</v>
+      </c>
+      <c r="K46" s="81">
+        <v>9</v>
+      </c>
+      <c r="L46" s="81">
+        <v>10</v>
+      </c>
+      <c r="M46" s="81">
         <v>8.5</v>
       </c>
-      <c r="N46" s="83">
-        <v>10</v>
-      </c>
-      <c r="O46" s="83">
-        <v>9</v>
-      </c>
-      <c r="P46" s="83">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="83"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="76">
-        <v>10</v>
-      </c>
-      <c r="U46" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="V46" s="83">
-        <v>10</v>
-      </c>
-      <c r="W46" s="83">
-        <v>9</v>
-      </c>
-      <c r="X46" s="83">
+      <c r="N46" s="81">
+        <v>10</v>
+      </c>
+      <c r="O46" s="81">
+        <v>9</v>
+      </c>
+      <c r="P46" s="81">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="81">
+        <v>9</v>
+      </c>
+      <c r="R46" s="81"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="74">
+        <v>10</v>
+      </c>
+      <c r="U46" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="V46" s="81">
+        <v>10</v>
+      </c>
+      <c r="W46" s="81">
+        <v>9</v>
+      </c>
+      <c r="X46" s="81">
         <v>6</v>
       </c>
-      <c r="Y46" s="83">
-        <v>9</v>
-      </c>
-      <c r="Z46" s="83">
-        <v>9</v>
-      </c>
-      <c r="AA46" s="83">
-        <v>10</v>
-      </c>
-      <c r="AB46" s="83"/>
-      <c r="AC46" s="83"/>
-      <c r="AD46" s="85"/>
-      <c r="AE46" s="76"/>
-      <c r="AF46" s="83"/>
-      <c r="AG46" s="83"/>
-      <c r="AH46" s="85"/>
-      <c r="AI46" s="61">
+      <c r="Y46" s="81">
+        <v>9</v>
+      </c>
+      <c r="Z46" s="81">
+        <v>9</v>
+      </c>
+      <c r="AA46" s="81">
+        <v>10</v>
+      </c>
+      <c r="AB46" s="81"/>
+      <c r="AC46" s="81"/>
+      <c r="AD46" s="82"/>
+      <c r="AE46" s="74"/>
+      <c r="AF46" s="81"/>
+      <c r="AG46" s="81"/>
+      <c r="AH46" s="82"/>
+      <c r="AI46" s="59">
         <f t="shared" si="0"/>
-        <v>76.5</v>
-      </c>
-      <c r="AJ46" s="62">
+        <v>85.5</v>
+      </c>
+      <c r="AJ46" s="60">
         <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
-      <c r="AK46" s="62">
+      <c r="AK46" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="59"/>
-      <c r="AM46" s="62">
+      <c r="AL46" s="57"/>
+      <c r="AM46" s="60">
         <f t="shared" si="3"/>
-        <v>40.63636363636364</v>
-      </c>
-      <c r="AN46" s="59"/>
+        <v>43.090909090909093</v>
+      </c>
+      <c r="AN46" s="57"/>
     </row>
     <row r="47" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="77">
+      <c r="B47" s="75">
         <v>11</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="72">
         <v>202302237</v>
       </c>
-      <c r="D47" s="74" t="s">
+      <c r="D47" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="75">
+      <c r="E47" s="73">
         <v>1038626854</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="76">
-        <v>8</v>
-      </c>
-      <c r="J47" s="83">
-        <v>10</v>
-      </c>
-      <c r="K47" s="83">
-        <v>8</v>
-      </c>
-      <c r="L47" s="83">
-        <v>10</v>
-      </c>
-      <c r="M47" s="83">
-        <v>9</v>
-      </c>
-      <c r="N47" s="83">
-        <v>10</v>
-      </c>
-      <c r="O47" s="83">
-        <v>9</v>
-      </c>
-      <c r="P47" s="83">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="83"/>
-      <c r="S47" s="85"/>
-      <c r="T47" s="76">
-        <v>10</v>
-      </c>
-      <c r="U47" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="V47" s="83">
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="74">
+        <v>8</v>
+      </c>
+      <c r="J47" s="81">
+        <v>10</v>
+      </c>
+      <c r="K47" s="81">
+        <v>8</v>
+      </c>
+      <c r="L47" s="81">
+        <v>10</v>
+      </c>
+      <c r="M47" s="81">
+        <v>9</v>
+      </c>
+      <c r="N47" s="81">
+        <v>10</v>
+      </c>
+      <c r="O47" s="81">
+        <v>9</v>
+      </c>
+      <c r="P47" s="81">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="81">
+        <v>10</v>
+      </c>
+      <c r="R47" s="81"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="74">
+        <v>10</v>
+      </c>
+      <c r="U47" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="V47" s="81">
         <v>8.5</v>
       </c>
-      <c r="W47" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="X47" s="83">
-        <v>8</v>
-      </c>
-      <c r="Y47" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="Z47" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="AA47" s="83">
-        <v>8</v>
-      </c>
-      <c r="AB47" s="83"/>
-      <c r="AC47" s="83"/>
-      <c r="AD47" s="85"/>
-      <c r="AE47" s="76"/>
-      <c r="AF47" s="83"/>
-      <c r="AG47" s="83"/>
-      <c r="AH47" s="85"/>
-      <c r="AI47" s="61">
+      <c r="W47" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="X47" s="81">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="Z47" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="AA47" s="81">
+        <v>8</v>
+      </c>
+      <c r="AB47" s="81"/>
+      <c r="AC47" s="81"/>
+      <c r="AD47" s="82"/>
+      <c r="AE47" s="74"/>
+      <c r="AF47" s="81"/>
+      <c r="AG47" s="81"/>
+      <c r="AH47" s="82"/>
+      <c r="AI47" s="59">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="AJ47" s="62">
+        <v>84</v>
+      </c>
+      <c r="AJ47" s="60">
         <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
-      <c r="AK47" s="62">
+      <c r="AK47" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="59"/>
-      <c r="AM47" s="62">
+      <c r="AL47" s="57"/>
+      <c r="AM47" s="60">
         <f t="shared" si="3"/>
-        <v>39.954545454545453</v>
-      </c>
-      <c r="AN47" s="59"/>
+        <v>42.681818181818187</v>
+      </c>
+      <c r="AN47" s="57"/>
     </row>
     <row r="48" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="78" t="s">
+      <c r="A48" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="79">
+      <c r="B48" s="77">
         <v>11</v>
       </c>
-      <c r="C48" s="80">
+      <c r="C48" s="78">
         <v>202302238</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="81">
+      <c r="E48" s="79">
         <v>1071157029</v>
       </c>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="76">
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="74">
         <v>3.5</v>
       </c>
-      <c r="J48" s="83">
+      <c r="J48" s="81">
         <v>7.5</v>
       </c>
-      <c r="K48" s="83">
-        <v>9</v>
-      </c>
-      <c r="L48" s="83">
-        <v>10</v>
-      </c>
-      <c r="M48" s="83">
-        <v>10</v>
-      </c>
-      <c r="N48" s="83">
+      <c r="K48" s="81">
+        <v>9</v>
+      </c>
+      <c r="L48" s="81">
+        <v>10</v>
+      </c>
+      <c r="M48" s="81">
+        <v>10</v>
+      </c>
+      <c r="N48" s="81">
         <v>7</v>
       </c>
-      <c r="O48" s="83">
-        <v>8</v>
-      </c>
-      <c r="P48" s="83">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="83"/>
-      <c r="R48" s="83"/>
-      <c r="S48" s="85"/>
-      <c r="T48" s="76">
-        <v>10</v>
-      </c>
-      <c r="U48" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="V48" s="83">
+      <c r="O48" s="81">
+        <v>8</v>
+      </c>
+      <c r="P48" s="81">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="R48" s="81"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="74">
+        <v>10</v>
+      </c>
+      <c r="U48" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="V48" s="81">
         <v>8.5</v>
       </c>
-      <c r="W48" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="X48" s="83">
-        <v>8</v>
-      </c>
-      <c r="Y48" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="Z48" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="AA48" s="83">
-        <v>8</v>
-      </c>
-      <c r="AB48" s="83"/>
-      <c r="AC48" s="83"/>
-      <c r="AD48" s="85"/>
-      <c r="AE48" s="76"/>
-      <c r="AF48" s="83"/>
-      <c r="AG48" s="83"/>
-      <c r="AH48" s="85"/>
-      <c r="AI48" s="61">
+      <c r="W48" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="X48" s="81">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="Z48" s="81">
+        <v>9.5</v>
+      </c>
+      <c r="AA48" s="81">
+        <v>8</v>
+      </c>
+      <c r="AB48" s="81"/>
+      <c r="AC48" s="81"/>
+      <c r="AD48" s="82"/>
+      <c r="AE48" s="74"/>
+      <c r="AF48" s="81"/>
+      <c r="AG48" s="81"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="59">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="AJ48" s="62">
+        <v>74.5</v>
+      </c>
+      <c r="AJ48" s="60">
         <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
-      <c r="AK48" s="62">
+      <c r="AK48" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL48" s="59"/>
-      <c r="AM48" s="62">
+      <c r="AL48" s="57"/>
+      <c r="AM48" s="60">
         <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="AN48" s="59"/>
+        <v>40.090909090909093</v>
+      </c>
+      <c r="AN48" s="57"/>
     </row>
     <row r="49" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F49" s="1"/>
@@ -6231,131 +6309,131 @@
       <c r="H49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="62">
         <f>AVERAGE(I2:I25)</f>
         <v>7.104166666666667</v>
       </c>
-      <c r="J49" s="65">
+      <c r="J49" s="63">
         <f>AVERAGE(J2:J25)</f>
         <v>8.6041666666666661</v>
       </c>
-      <c r="K49" s="65">
+      <c r="K49" s="63">
         <f>AVERAGE(K2:K25)</f>
         <v>8.9772727272727266</v>
       </c>
-      <c r="L49" s="65">
+      <c r="L49" s="63">
         <f>AVERAGE(L2:L38)</f>
         <v>9.5142857142857142</v>
       </c>
-      <c r="M49" s="65">
+      <c r="M49" s="63">
         <f>AVERAGE(M2:M35)</f>
         <v>8.65625</v>
       </c>
-      <c r="N49" s="65">
+      <c r="N49" s="63">
         <f>AVERAGE(N2:N48)</f>
         <v>9.1222222222222218</v>
       </c>
-      <c r="O49" s="65">
+      <c r="O49" s="63">
         <f>AVERAGE(O2:O48)</f>
         <v>9.0555555555555554</v>
       </c>
-      <c r="P49" s="65">
+      <c r="P49" s="63">
         <f>AVERAGE(P2:P26)</f>
         <v>9.804347826086957</v>
       </c>
-      <c r="Q49" s="65" t="e">
-        <f>AVERAGE(Q2:Q32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R49" s="65" t="e">
+      <c r="Q49" s="63">
+        <f>AVERAGE(Q2:Q48)</f>
+        <v>8.9555555555555557</v>
+      </c>
+      <c r="R49" s="63" t="e">
         <f>AVERAGE(R2:R32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S49" s="66" t="e">
+      <c r="S49" s="64" t="e">
         <f>AVERAGE(S2:S32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T49" s="64">
+      <c r="T49" s="62">
         <f>AVERAGE(T2:T25)</f>
         <v>8.9166666666666661</v>
       </c>
-      <c r="U49" s="65">
+      <c r="U49" s="63">
         <f>AVERAGE(U2:U48)</f>
         <v>9.5106382978723403</v>
       </c>
-      <c r="V49" s="65">
+      <c r="V49" s="63">
         <f>AVERAGE(V2:V25)</f>
         <v>9.4090909090909083</v>
       </c>
-      <c r="W49" s="65">
+      <c r="W49" s="63">
         <f>AVERAGE(W2:W48)</f>
         <v>9.4333333333333336</v>
       </c>
-      <c r="X49" s="65">
+      <c r="X49" s="63">
         <f>AVERAGE(X2:X25)</f>
         <v>8.7727272727272734</v>
       </c>
-      <c r="Y49" s="65">
+      <c r="Y49" s="63">
         <f>AVERAGE(Y2:Y25)</f>
         <v>9.5909090909090917</v>
       </c>
-      <c r="Z49" s="65">
+      <c r="Z49" s="63">
         <f>AVERAGE(Z2:Z48)</f>
         <v>9.5</v>
       </c>
-      <c r="AA49" s="65">
+      <c r="AA49" s="63">
         <f>AVERAGE(AA2:AA25)</f>
         <v>9.454545454545455</v>
       </c>
-      <c r="AB49" s="65" t="e">
+      <c r="AB49" s="63" t="e">
         <f>AVERAGE(AB2:AB32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC49" s="65" t="e">
+      <c r="AC49" s="63" t="e">
         <f>AVERAGE(AC2:AC25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="66" t="e">
+      <c r="AD49" s="64" t="e">
         <f>AVERAGE(AD2:AD32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE49" s="64" t="e">
+      <c r="AE49" s="62" t="e">
         <f>AVERAGE(AE2:AE32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF49" s="65" t="e">
+      <c r="AF49" s="63" t="e">
         <f>AVERAGE(AF2:AF32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG49" s="65" t="e">
+      <c r="AG49" s="63" t="e">
         <f>AVERAGE(AG2:AG32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH49" s="66" t="e">
+      <c r="AH49" s="64" t="e">
         <f>AVERAGE(AH2:AH32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI49" s="67">
+      <c r="AI49" s="65">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>66.770833333333329</v>
-      </c>
-      <c r="AJ49" s="65">
+        <v>74.833333333333329</v>
+      </c>
+      <c r="AJ49" s="63">
         <f>AVERAGE(AJ2:AJ25)</f>
         <v>70.375</v>
       </c>
-      <c r="AK49" s="65">
+      <c r="AK49" s="63">
         <f>AVERAGE(AK2:AK25)</f>
         <v>0</v>
       </c>
-      <c r="AL49" s="65" t="e">
+      <c r="AL49" s="63" t="e">
         <f>AVERAGE(AL2:AL25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM49" s="65">
+      <c r="AM49" s="63">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>37.403409090909093</v>
-      </c>
-      <c r="AN49" s="65"/>
+        <v>39.602272727272727</v>
+      </c>
+      <c r="AN49" s="63"/>
     </row>
     <row r="50" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F50" s="2"/>
@@ -6363,131 +6441,131 @@
       <c r="H50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="64">
+      <c r="I50" s="62">
         <f>AVERAGE(I26:I48)</f>
         <v>7.5434782608695654</v>
       </c>
-      <c r="J50" s="65">
+      <c r="J50" s="63">
         <f t="shared" ref="J50:AM50" si="4">AVERAGE(J26:J48)</f>
         <v>8.5652173913043477</v>
       </c>
-      <c r="K50" s="65">
+      <c r="K50" s="63">
         <f t="shared" si="4"/>
         <v>8.0652173913043477</v>
       </c>
-      <c r="L50" s="65">
+      <c r="L50" s="63">
         <f t="shared" si="4"/>
         <v>9.4130434782608692</v>
       </c>
-      <c r="M50" s="65">
+      <c r="M50" s="63">
         <f t="shared" si="4"/>
         <v>8.1739130434782616</v>
       </c>
-      <c r="N50" s="65">
+      <c r="N50" s="63">
         <f t="shared" si="4"/>
         <v>8.7391304347826093</v>
       </c>
-      <c r="O50" s="65">
+      <c r="O50" s="63">
         <f t="shared" si="4"/>
         <v>8.9565217391304355</v>
       </c>
-      <c r="P50" s="65">
+      <c r="P50" s="63">
         <f t="shared" si="4"/>
         <v>9.7173913043478262</v>
       </c>
-      <c r="Q50" s="65" t="e">
+      <c r="Q50" s="63">
+        <f t="shared" si="4"/>
+        <v>9.1086956521739122</v>
+      </c>
+      <c r="R50" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R50" s="65" t="e">
+      <c r="S50" s="64" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S50" s="66" t="e">
+      <c r="T50" s="62">
+        <f t="shared" si="4"/>
+        <v>8.7391304347826093</v>
+      </c>
+      <c r="U50" s="63">
+        <f t="shared" si="4"/>
+        <v>9.4347826086956523</v>
+      </c>
+      <c r="V50" s="63">
+        <f t="shared" si="4"/>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="W50" s="63">
+        <f t="shared" si="4"/>
+        <v>9.3695652173913047</v>
+      </c>
+      <c r="X50" s="63">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="Y50" s="63">
+        <f t="shared" si="4"/>
+        <v>9.1739130434782616</v>
+      </c>
+      <c r="Z50" s="63">
+        <f t="shared" si="4"/>
+        <v>9.1521739130434785</v>
+      </c>
+      <c r="AA50" s="63">
+        <f t="shared" si="4"/>
+        <v>9.2173913043478262</v>
+      </c>
+      <c r="AB50" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T50" s="64">
-        <f t="shared" si="4"/>
-        <v>8.7391304347826093</v>
-      </c>
-      <c r="U50" s="65">
-        <f t="shared" si="4"/>
-        <v>9.4347826086956523</v>
-      </c>
-      <c r="V50" s="65">
-        <f t="shared" si="4"/>
-        <v>8.695652173913043</v>
-      </c>
-      <c r="W50" s="65">
-        <f t="shared" si="4"/>
-        <v>9.3695652173913047</v>
-      </c>
-      <c r="X50" s="65">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="Y50" s="65">
-        <f t="shared" si="4"/>
-        <v>9.1739130434782616</v>
-      </c>
-      <c r="Z50" s="65">
-        <f t="shared" si="4"/>
-        <v>9.1521739130434785</v>
-      </c>
-      <c r="AA50" s="65">
-        <f t="shared" si="4"/>
-        <v>9.2173913043478262</v>
-      </c>
-      <c r="AB50" s="65" t="e">
+      <c r="AC50" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="65" t="e">
+      <c r="AD50" s="64" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="66" t="e">
+      <c r="AE50" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE50" s="64" t="e">
+      <c r="AF50" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF50" s="65" t="e">
+      <c r="AG50" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG50" s="65" t="e">
+      <c r="AH50" s="64" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH50" s="66" t="e">
+      <c r="AI50" s="65">
+        <f t="shared" si="4"/>
+        <v>78.282608695652172</v>
+      </c>
+      <c r="AJ50" s="63">
+        <f t="shared" si="4"/>
+        <v>71.782608695652172</v>
+      </c>
+      <c r="AK50" s="63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL50" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI50" s="67">
+      <c r="AM50" s="63">
         <f t="shared" si="4"/>
-        <v>69.173913043478265</v>
-      </c>
-      <c r="AJ50" s="65">
-        <f t="shared" si="4"/>
-        <v>71.782608695652172</v>
-      </c>
-      <c r="AK50" s="65">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL50" s="65" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM50" s="65">
-        <f t="shared" si="4"/>
-        <v>38.442687747035571</v>
-      </c>
-      <c r="AN50" s="65"/>
+        <v>40.926877470355734</v>
+      </c>
+      <c r="AN50" s="63"/>
     </row>
     <row r="51" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F51" s="2"/>
@@ -6495,131 +6573,131 @@
       <c r="H51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="64">
+      <c r="I51" s="62">
         <f t="shared" ref="I51:AM51" si="5">AVERAGE(I2:I48)</f>
         <v>7.3191489361702127</v>
       </c>
-      <c r="J51" s="65">
+      <c r="J51" s="63">
         <f t="shared" si="5"/>
         <v>8.585106382978724</v>
       </c>
-      <c r="K51" s="65">
+      <c r="K51" s="63">
         <f t="shared" si="5"/>
         <v>8.5111111111111111</v>
       </c>
-      <c r="L51" s="65">
+      <c r="L51" s="63">
         <f t="shared" si="5"/>
         <v>9.4333333333333336</v>
       </c>
-      <c r="M51" s="65">
+      <c r="M51" s="63">
         <f t="shared" si="5"/>
         <v>8.4777777777777779</v>
       </c>
-      <c r="N51" s="65">
+      <c r="N51" s="63">
         <f t="shared" si="5"/>
         <v>9.1222222222222218</v>
       </c>
-      <c r="O51" s="65">
+      <c r="O51" s="63">
         <f t="shared" si="5"/>
         <v>9.0555555555555554</v>
       </c>
-      <c r="P51" s="65">
+      <c r="P51" s="63">
         <f t="shared" si="5"/>
         <v>9.7555555555555564</v>
       </c>
-      <c r="Q51" s="65" t="e">
+      <c r="Q51" s="63">
+        <f t="shared" si="5"/>
+        <v>8.9555555555555557</v>
+      </c>
+      <c r="R51" s="63" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R51" s="65" t="e">
+      <c r="S51" s="64" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S51" s="66" t="e">
+      <c r="T51" s="62">
+        <f t="shared" si="5"/>
+        <v>8.8297872340425538</v>
+      </c>
+      <c r="U51" s="63">
+        <f t="shared" si="5"/>
+        <v>9.5106382978723403</v>
+      </c>
+      <c r="V51" s="63">
+        <f t="shared" si="5"/>
+        <v>9.0444444444444443</v>
+      </c>
+      <c r="W51" s="63">
+        <f t="shared" si="5"/>
+        <v>9.4333333333333336</v>
+      </c>
+      <c r="X51" s="63">
+        <f t="shared" si="5"/>
+        <v>8.3777777777777782</v>
+      </c>
+      <c r="Y51" s="63">
+        <f t="shared" si="5"/>
+        <v>9.3777777777777782</v>
+      </c>
+      <c r="Z51" s="63">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+      <c r="AA51" s="63">
+        <f t="shared" si="5"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="AB51" s="63" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T51" s="64">
-        <f t="shared" si="5"/>
-        <v>8.8297872340425538</v>
-      </c>
-      <c r="U51" s="65">
-        <f t="shared" si="5"/>
-        <v>9.5106382978723403</v>
-      </c>
-      <c r="V51" s="65">
-        <f t="shared" si="5"/>
-        <v>9.0444444444444443</v>
-      </c>
-      <c r="W51" s="65">
-        <f t="shared" si="5"/>
-        <v>9.4333333333333336</v>
-      </c>
-      <c r="X51" s="65">
-        <f t="shared" si="5"/>
-        <v>8.3777777777777782</v>
-      </c>
-      <c r="Y51" s="65">
-        <f t="shared" si="5"/>
-        <v>9.3777777777777782</v>
-      </c>
-      <c r="Z51" s="65">
-        <f t="shared" si="5"/>
-        <v>9.5</v>
-      </c>
-      <c r="AA51" s="65">
-        <f t="shared" si="5"/>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="AB51" s="65" t="e">
+      <c r="AC51" s="63" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC51" s="65" t="e">
+      <c r="AD51" s="64" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="66" t="e">
+      <c r="AE51" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE51" s="64" t="e">
+      <c r="AF51" s="63" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF51" s="65" t="e">
+      <c r="AG51" s="63" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG51" s="65" t="e">
+      <c r="AH51" s="64" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH51" s="66" t="e">
+      <c r="AI51" s="65">
+        <f t="shared" si="5"/>
+        <v>76.521276595744681</v>
+      </c>
+      <c r="AJ51" s="63">
+        <f t="shared" si="5"/>
+        <v>71.063829787234042</v>
+      </c>
+      <c r="AK51" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL51" s="63" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI51" s="67">
+      <c r="AM51" s="63">
         <f t="shared" si="5"/>
-        <v>67.946808510638292</v>
-      </c>
-      <c r="AJ51" s="65">
-        <f t="shared" si="5"/>
-        <v>71.063829787234042</v>
-      </c>
-      <c r="AK51" s="65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL51" s="65" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM51" s="65">
-        <f t="shared" si="5"/>
-        <v>37.911992263056099</v>
-      </c>
-      <c r="AN51" s="65"/>
+        <v>40.250483558994198</v>
+      </c>
+      <c r="AN51" s="63"/>
     </row>
     <row r="52" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F52" s="2"/>
@@ -6627,131 +6705,131 @@
       <c r="H52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="64">
+      <c r="I52" s="62">
         <f t="shared" ref="I52:AM52" si="6">STDEV(I2:I48)</f>
         <v>2.9422439157800109</v>
       </c>
-      <c r="J52" s="65">
+      <c r="J52" s="63">
         <f t="shared" si="6"/>
         <v>1.4077392797464223</v>
       </c>
-      <c r="K52" s="65">
+      <c r="K52" s="63">
         <f t="shared" si="6"/>
         <v>1.5392179570132103</v>
       </c>
-      <c r="L52" s="65">
+      <c r="L52" s="63">
         <f t="shared" si="6"/>
         <v>1.1461397661875132</v>
       </c>
-      <c r="M52" s="65">
+      <c r="M52" s="63">
         <f t="shared" si="6"/>
         <v>1.7384539747207055</v>
       </c>
-      <c r="N52" s="65">
+      <c r="N52" s="63">
         <f t="shared" si="6"/>
         <v>1.6792705246473809</v>
       </c>
-      <c r="O52" s="65">
+      <c r="O52" s="63">
         <f t="shared" si="6"/>
         <v>0.76293558513855364</v>
       </c>
-      <c r="P52" s="65">
+      <c r="P52" s="63">
         <f t="shared" si="6"/>
         <v>0.4346134936801766</v>
       </c>
-      <c r="Q52" s="65" t="e">
+      <c r="Q52" s="63">
+        <f t="shared" si="6"/>
+        <v>1.0214863403072709</v>
+      </c>
+      <c r="R52" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R52" s="65" t="e">
+      <c r="S52" s="64" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S52" s="66" t="e">
+      <c r="T52" s="62">
+        <f t="shared" si="6"/>
+        <v>1.18080939330264</v>
+      </c>
+      <c r="U52" s="63">
+        <f t="shared" si="6"/>
+        <v>0.91181473198117913</v>
+      </c>
+      <c r="V52" s="63">
+        <f t="shared" si="6"/>
+        <v>1.1171301616104528</v>
+      </c>
+      <c r="W52" s="63">
+        <f t="shared" si="6"/>
+        <v>0.59924194537007303</v>
+      </c>
+      <c r="X52" s="63">
+        <f t="shared" si="6"/>
+        <v>1.5744968733028335</v>
+      </c>
+      <c r="Y52" s="63">
+        <f t="shared" si="6"/>
+        <v>0.87357387388320695</v>
+      </c>
+      <c r="Z52" s="63">
+        <f t="shared" si="6"/>
+        <v>0.58387420812114221</v>
+      </c>
+      <c r="AA52" s="63">
+        <f t="shared" si="6"/>
+        <v>0.63065622388689091</v>
+      </c>
+      <c r="AB52" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T52" s="64">
-        <f t="shared" si="6"/>
-        <v>1.18080939330264</v>
-      </c>
-      <c r="U52" s="65">
-        <f t="shared" si="6"/>
-        <v>0.91181473198117913</v>
-      </c>
-      <c r="V52" s="65">
-        <f t="shared" si="6"/>
-        <v>1.1171301616104528</v>
-      </c>
-      <c r="W52" s="65">
-        <f t="shared" si="6"/>
-        <v>0.59924194537007303</v>
-      </c>
-      <c r="X52" s="65">
-        <f t="shared" si="6"/>
-        <v>1.5744968733028335</v>
-      </c>
-      <c r="Y52" s="65">
-        <f t="shared" si="6"/>
-        <v>0.87357387388320695</v>
-      </c>
-      <c r="Z52" s="65">
-        <f t="shared" si="6"/>
-        <v>0.58387420812114221</v>
-      </c>
-      <c r="AA52" s="65">
-        <f t="shared" si="6"/>
-        <v>0.63065622388689091</v>
-      </c>
-      <c r="AB52" s="65" t="e">
+      <c r="AC52" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC52" s="65" t="e">
+      <c r="AD52" s="64" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="66" t="e">
+      <c r="AE52" s="62" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE52" s="64" t="e">
+      <c r="AF52" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF52" s="65" t="e">
+      <c r="AG52" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG52" s="65" t="e">
+      <c r="AH52" s="64" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH52" s="66" t="e">
+      <c r="AI52" s="65">
+        <f t="shared" si="6"/>
+        <v>16.143701641281055</v>
+      </c>
+      <c r="AJ52" s="63">
+        <f t="shared" si="6"/>
+        <v>12.063066621644104</v>
+      </c>
+      <c r="AK52" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL52" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI52" s="67">
+      <c r="AM52" s="63">
         <f t="shared" si="6"/>
-        <v>14.456544344191594</v>
-      </c>
-      <c r="AJ52" s="65">
-        <f t="shared" si="6"/>
-        <v>12.063066621644104</v>
-      </c>
-      <c r="AK52" s="65">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL52" s="65" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM52" s="65">
-        <f t="shared" si="6"/>
-        <v>6.9378134784640473</v>
-      </c>
-      <c r="AN52" s="65"/>
+        <v>7.4137141686217731</v>
+      </c>
+      <c r="AN52" s="63"/>
     </row>
     <row r="53" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
@@ -6759,131 +6837,131 @@
       <c r="H53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="64">
+      <c r="I53" s="62">
         <f t="shared" ref="I53:AM53" si="7">MAX(I2:I48)</f>
         <v>10</v>
       </c>
-      <c r="J53" s="65">
+      <c r="J53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="K53" s="65">
+      <c r="K53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L53" s="65">
+      <c r="L53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="M53" s="65">
+      <c r="M53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="N53" s="65">
+      <c r="N53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="O53" s="65">
+      <c r="O53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="P53" s="65">
+      <c r="P53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q53" s="65">
+      <c r="Q53" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="65">
+        <v>10</v>
+      </c>
+      <c r="R53" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S53" s="66">
+      <c r="S53" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T53" s="64">
+      <c r="T53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="U53" s="65">
+      <c r="U53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="V53" s="65">
+      <c r="V53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="W53" s="65">
+      <c r="W53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="X53" s="65">
+      <c r="X53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Y53" s="65">
+      <c r="Y53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Z53" s="65">
+      <c r="Z53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AA53" s="65">
+      <c r="AA53" s="63">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AB53" s="65">
+      <c r="AB53" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="65">
+      <c r="AC53" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="66">
+      <c r="AD53" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="64">
+      <c r="AE53" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF53" s="65">
+      <c r="AF53" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="65">
+      <c r="AG53" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="66">
+      <c r="AH53" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI53" s="67">
+      <c r="AI53" s="65">
+        <f t="shared" si="7"/>
+        <v>88.5</v>
+      </c>
+      <c r="AJ53" s="63">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="AJ53" s="65">
+      <c r="AK53" s="63">
         <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="AK53" s="65">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL53" s="65">
+      <c r="AM53" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AM53" s="65">
-        <f t="shared" si="7"/>
-        <v>43.63636363636364</v>
-      </c>
-      <c r="AN53" s="65"/>
+        <v>45.954545454545453</v>
+      </c>
+      <c r="AN53" s="63"/>
     </row>
     <row r="54" spans="6:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
@@ -6891,131 +6969,131 @@
       <c r="H54" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="68">
+      <c r="I54" s="66">
         <f t="shared" ref="I54:AM54" si="8">MIN(I2:I48)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="69">
+      <c r="J54" s="67">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="K54" s="69">
+      <c r="K54" s="67">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="L54" s="69">
+      <c r="L54" s="67">
         <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
-      <c r="M54" s="69">
+      <c r="M54" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N54" s="69">
+      <c r="N54" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O54" s="69">
+      <c r="O54" s="67">
         <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
-      <c r="P54" s="69">
+      <c r="P54" s="67">
         <f t="shared" si="8"/>
         <v>8.5</v>
       </c>
-      <c r="Q54" s="69">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="69">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="70">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="68">
+      <c r="Q54" s="67">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="U54" s="69">
+      <c r="R54" s="67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="66">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="U54" s="67">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="V54" s="69">
+      <c r="V54" s="67">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="W54" s="69">
+      <c r="W54" s="67">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="X54" s="69">
+      <c r="X54" s="67">
         <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
-      <c r="Y54" s="69">
+      <c r="Y54" s="67">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="Z54" s="69">
+      <c r="Z54" s="67">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="AA54" s="69">
+      <c r="AA54" s="67">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="AB54" s="69">
+      <c r="AB54" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="69">
+      <c r="AC54" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD54" s="70">
+      <c r="AD54" s="68">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE54" s="68">
+      <c r="AE54" s="66">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF54" s="69">
+      <c r="AF54" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="69">
+      <c r="AG54" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH54" s="70">
+      <c r="AH54" s="68">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI54" s="67">
+      <c r="AI54" s="65">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="AJ54" s="65">
+      <c r="AJ54" s="63">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="AK54" s="65">
+      <c r="AK54" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL54" s="65">
+      <c r="AL54" s="63">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM54" s="65">
+      <c r="AM54" s="63">
         <f t="shared" si="8"/>
         <v>7.0909090909090917</v>
       </c>
-      <c r="AN54" s="65"/>
+      <c r="AN54" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568714BA-02B7-456C-98C4-16D13C7D054D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923EEBEE-E0AD-479F-BC1F-CA64965AC63F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1318,6 +1307,37 @@
     <xf numFmtId="176" fontId="15" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,18 +1348,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,25 +1365,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,8 +1595,8 @@
   </sheetPr>
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1767,7 +1756,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="100"/>
+      <c r="H2" s="95"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1795,7 +1784,9 @@
       <c r="Q2" s="84">
         <v>9.5</v>
       </c>
-      <c r="R2" s="43"/>
+      <c r="R2" s="43">
+        <v>10</v>
+      </c>
       <c r="S2" s="44"/>
       <c r="T2" s="33">
         <v>9.5</v>
@@ -1830,7 +1821,7 @@
       <c r="AH2" s="44"/>
       <c r="AI2" s="45">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
-        <v>81.5</v>
+        <v>91.5</v>
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
@@ -1843,7 +1834,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>43.363636363636367</v>
+        <v>46.090909090909093</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1865,7 +1856,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="101"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1893,7 +1884,9 @@
       <c r="Q3" s="84">
         <v>10</v>
       </c>
-      <c r="R3" s="43"/>
+      <c r="R3" s="43">
+        <v>10</v>
+      </c>
       <c r="S3" s="44"/>
       <c r="T3" s="33">
         <v>9.5</v>
@@ -1928,7 +1921,7 @@
       <c r="AH3" s="44"/>
       <c r="AI3" s="45">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
@@ -1941,7 +1934,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>44.590909090909093</v>
+        <v>47.318181818181813</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1963,7 +1956,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="100"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1991,7 +1984,9 @@
       <c r="Q4" s="84">
         <v>9</v>
       </c>
-      <c r="R4" s="43"/>
+      <c r="R4" s="43">
+        <v>9</v>
+      </c>
       <c r="S4" s="44"/>
       <c r="T4" s="33">
         <v>10</v>
@@ -2026,7 +2021,7 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="45">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
@@ -2039,7 +2034,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>42.545454545454547</v>
+        <v>45</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2061,7 +2056,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="101"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2089,7 +2084,9 @@
       <c r="Q5" s="84">
         <v>8.5</v>
       </c>
-      <c r="R5" s="43"/>
+      <c r="R5" s="43">
+        <v>9</v>
+      </c>
       <c r="S5" s="44"/>
       <c r="T5" s="33">
         <v>10</v>
@@ -2124,7 +2121,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="45">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>97.5</v>
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
@@ -2137,7 +2134,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>45.954545454545453</v>
+        <v>48.409090909090907</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2159,7 +2156,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="100"/>
+      <c r="H6" s="95"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2187,7 +2184,9 @@
       <c r="Q6" s="84">
         <v>10</v>
       </c>
-      <c r="R6" s="43"/>
+      <c r="R6" s="43">
+        <v>9</v>
+      </c>
       <c r="S6" s="44"/>
       <c r="T6" s="33">
         <v>7</v>
@@ -2222,7 +2221,7 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="45">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
@@ -2235,7 +2234,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>41.454545454545453</v>
+        <v>43.909090909090907</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2257,7 +2256,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="101"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2285,7 +2284,9 @@
       <c r="Q7" s="84">
         <v>10</v>
       </c>
-      <c r="R7" s="43"/>
+      <c r="R7" s="43">
+        <v>10</v>
+      </c>
       <c r="S7" s="44"/>
       <c r="T7" s="33">
         <v>7</v>
@@ -2320,7 +2321,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
@@ -2333,7 +2334,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>44.727272727272734</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2355,7 +2356,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="100"/>
+      <c r="H8" s="95"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2383,7 +2384,9 @@
       <c r="Q8" s="84">
         <v>9</v>
       </c>
-      <c r="R8" s="43"/>
+      <c r="R8" s="43">
+        <v>10</v>
+      </c>
       <c r="S8" s="44"/>
       <c r="T8" s="33">
         <v>9</v>
@@ -2395,7 +2398,7 @@
         <v>10</v>
       </c>
       <c r="W8" s="43">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X8" s="43">
         <v>9.5</v>
@@ -2418,11 +2421,11 @@
       <c r="AH8" s="44"/>
       <c r="AI8" s="45">
         <f t="shared" si="0"/>
-        <v>81.5</v>
+        <v>91.5</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
@@ -2431,7 +2434,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>46.090909090909093</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2453,7 +2456,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="101"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2481,7 +2484,9 @@
       <c r="Q9" s="84">
         <v>7.5</v>
       </c>
-      <c r="R9" s="43"/>
+      <c r="R9" s="43">
+        <v>9</v>
+      </c>
       <c r="S9" s="44"/>
       <c r="T9" s="33">
         <v>9</v>
@@ -2493,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="W9" s="43">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X9" s="43">
         <v>9.5</v>
@@ -2516,11 +2521,11 @@
       <c r="AH9" s="44"/>
       <c r="AI9" s="45">
         <f t="shared" si="0"/>
-        <v>81.5</v>
+        <v>90.5</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
@@ -2529,7 +2534,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>45.81818181818182</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2551,7 +2556,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="100"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2579,7 +2584,9 @@
       <c r="Q10" s="84">
         <v>8</v>
       </c>
-      <c r="R10" s="43"/>
+      <c r="R10" s="43">
+        <v>9</v>
+      </c>
       <c r="S10" s="44"/>
       <c r="T10" s="33">
         <v>10</v>
@@ -2614,7 +2621,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45">
         <f t="shared" si="0"/>
-        <v>84.5</v>
+        <v>93.5</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
@@ -2627,7 +2634,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>44.31818181818182</v>
+        <v>46.772727272727273</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2649,7 +2656,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="101"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2677,7 +2684,9 @@
       <c r="Q11" s="84">
         <v>9</v>
       </c>
-      <c r="R11" s="43"/>
+      <c r="R11" s="43">
+        <v>9</v>
+      </c>
       <c r="S11" s="44"/>
       <c r="T11" s="33">
         <v>10</v>
@@ -2712,7 +2721,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
@@ -2725,7 +2734,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>43.36363636363636</v>
+        <v>45.81818181818182</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2747,7 +2756,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="100"/>
+      <c r="H12" s="95"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2775,7 +2784,9 @@
       <c r="Q12" s="84">
         <v>6</v>
       </c>
-      <c r="R12" s="43"/>
+      <c r="R12" s="43">
+        <v>8.5</v>
+      </c>
       <c r="S12" s="44"/>
       <c r="T12" s="33">
         <v>8.5</v>
@@ -2810,7 +2821,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>91</v>
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
@@ -2823,7 +2834,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>43.63636363636364</v>
+        <v>45.954545454545453</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2845,7 +2856,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="101"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2873,7 +2884,9 @@
       <c r="Q13" s="84">
         <v>9</v>
       </c>
-      <c r="R13" s="46"/>
+      <c r="R13" s="84">
+        <v>10</v>
+      </c>
       <c r="S13" s="47"/>
       <c r="T13" s="33">
         <v>8.5</v>
@@ -2908,7 +2921,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
@@ -2921,7 +2934,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>42.68181818181818</v>
+        <v>45.409090909090907</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2943,7 +2956,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="100"/>
+      <c r="H14" s="95"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -2971,7 +2984,9 @@
       <c r="Q14" s="84">
         <v>10</v>
       </c>
-      <c r="R14" s="43"/>
+      <c r="R14" s="43">
+        <v>8.5</v>
+      </c>
       <c r="S14" s="44"/>
       <c r="T14" s="33">
         <v>10</v>
@@ -3006,7 +3021,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>88.5</v>
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
@@ -3019,7 +3034,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>42.545454545454547</v>
+        <v>44.86363636363636</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -3041,7 +3056,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="101"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -3069,7 +3084,9 @@
       <c r="Q15" s="84">
         <v>7.5</v>
       </c>
-      <c r="R15" s="43"/>
+      <c r="R15" s="43">
+        <v>8</v>
+      </c>
       <c r="S15" s="44"/>
       <c r="T15" s="33">
         <v>10</v>
@@ -3104,7 +3121,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
@@ -3117,7 +3134,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -3139,7 +3156,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="88"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="80">
         <v>0</v>
       </c>
@@ -3211,7 +3228,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="89"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="80">
         <v>0</v>
       </c>
@@ -3239,7 +3256,9 @@
       <c r="Q17" s="84">
         <v>9</v>
       </c>
-      <c r="R17" s="43"/>
+      <c r="R17" s="43">
+        <v>9</v>
+      </c>
       <c r="S17" s="44"/>
       <c r="T17" s="33">
         <v>8.5</v>
@@ -3274,7 +3293,7 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="45">
         <f t="shared" si="0"/>
-        <v>75.5</v>
+        <v>84.5</v>
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
@@ -3287,7 +3306,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>40.363636363636367</v>
+        <v>42.81818181818182</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3309,7 +3328,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="86"/>
+      <c r="H18" s="97"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3337,7 +3356,9 @@
       <c r="Q18" s="84">
         <v>10</v>
       </c>
-      <c r="R18" s="43"/>
+      <c r="R18" s="43">
+        <v>9</v>
+      </c>
       <c r="S18" s="44"/>
       <c r="T18" s="33">
         <v>8.5</v>
@@ -3372,7 +3393,7 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>86.5</v>
+        <v>95.5</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
@@ -3385,7 +3406,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>42.818181818181813</v>
+        <v>45.272727272727273</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3407,7 +3428,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="87"/>
+      <c r="H19" s="98"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3435,7 +3456,9 @@
       <c r="Q19" s="84">
         <v>8.5</v>
       </c>
-      <c r="R19" s="43"/>
+      <c r="R19" s="43">
+        <v>9</v>
+      </c>
       <c r="S19" s="44"/>
       <c r="T19" s="33">
         <v>8.5</v>
@@ -3470,7 +3493,7 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="45">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>86.5</v>
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
@@ -3483,7 +3506,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>40.36363636363636</v>
+        <v>42.818181818181813</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3505,7 +3528,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="86"/>
+      <c r="H20" s="97"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3533,7 +3556,9 @@
       <c r="Q20" s="84">
         <v>9</v>
       </c>
-      <c r="R20" s="43"/>
+      <c r="R20" s="43">
+        <v>10</v>
+      </c>
       <c r="S20" s="44"/>
       <c r="T20" s="33">
         <v>7</v>
@@ -3568,7 +3593,7 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>85.5</v>
+        <v>95.5</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
@@ -3581,7 +3606,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>42.681818181818187</v>
+        <v>45.409090909090914</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3603,7 +3628,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="87"/>
+      <c r="H21" s="98"/>
       <c r="I21" s="80">
         <v>0</v>
       </c>
@@ -3675,7 +3700,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="98"/>
+      <c r="H22" s="105"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3703,7 +3728,9 @@
       <c r="Q22" s="84">
         <v>9.5</v>
       </c>
-      <c r="R22" s="43"/>
+      <c r="R22" s="43">
+        <v>8</v>
+      </c>
       <c r="S22" s="44"/>
       <c r="T22" s="33">
         <v>10</v>
@@ -3715,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="W22" s="43">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X22" s="43">
         <v>7</v>
@@ -3738,11 +3765,11 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="45">
         <f t="shared" si="0"/>
-        <v>79.5</v>
+        <v>87.5</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
@@ -3751,7 +3778,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>42.545454545454547</v>
+        <v>44.86363636363636</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3773,7 +3800,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="99"/>
+      <c r="H23" s="106"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3801,7 +3828,9 @@
       <c r="Q23" s="84">
         <v>7</v>
       </c>
-      <c r="R23" s="43"/>
+      <c r="R23" s="43">
+        <v>8</v>
+      </c>
       <c r="S23" s="44"/>
       <c r="T23" s="33">
         <v>10</v>
@@ -3813,7 +3842,7 @@
         <v>10</v>
       </c>
       <c r="W23" s="43">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X23" s="43">
         <v>7</v>
@@ -3836,11 +3865,11 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="45">
         <f t="shared" si="0"/>
-        <v>81.5</v>
+        <v>89.5</v>
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="AK23" s="43">
         <f t="shared" si="2"/>
@@ -3849,7 +3878,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>45.409090909090907</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3871,7 +3900,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="86"/>
+      <c r="H24" s="97"/>
       <c r="I24" s="80">
         <v>0</v>
       </c>
@@ -3899,7 +3928,9 @@
       <c r="Q24" s="84">
         <v>9.5</v>
       </c>
-      <c r="R24" s="43"/>
+      <c r="R24" s="43">
+        <v>9.5</v>
+      </c>
       <c r="S24" s="44"/>
       <c r="T24" s="33">
         <v>9</v>
@@ -3934,7 +3965,7 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45">
         <f t="shared" si="0"/>
-        <v>73.5</v>
+        <v>83</v>
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
@@ -3947,7 +3978,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>40.090909090909093</v>
+        <v>42.681818181818187</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -3969,7 +4000,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="97"/>
+      <c r="H25" s="104"/>
       <c r="I25" s="48">
         <v>8.5</v>
       </c>
@@ -3997,7 +4028,9 @@
       <c r="Q25" s="85">
         <v>8</v>
       </c>
-      <c r="R25" s="49"/>
+      <c r="R25" s="49">
+        <v>9</v>
+      </c>
       <c r="S25" s="50"/>
       <c r="T25" s="48">
         <v>9</v>
@@ -4032,7 +4065,7 @@
       <c r="AH25" s="50"/>
       <c r="AI25" s="48">
         <f t="shared" si="0"/>
-        <v>74.5</v>
+        <v>83.5</v>
       </c>
       <c r="AJ25" s="49">
         <f t="shared" si="1"/>
@@ -4045,7 +4078,7 @@
       <c r="AL25" s="49"/>
       <c r="AM25" s="49">
         <f t="shared" si="3"/>
-        <v>40.36363636363636</v>
+        <v>42.818181818181813</v>
       </c>
       <c r="AN25" s="49"/>
     </row>
@@ -4067,7 +4100,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="94"/>
+      <c r="H26" s="101"/>
       <c r="I26" s="51">
         <v>5.5</v>
       </c>
@@ -4095,7 +4128,9 @@
       <c r="Q26" s="52">
         <v>10</v>
       </c>
-      <c r="R26" s="52"/>
+      <c r="R26" s="52">
+        <v>9</v>
+      </c>
       <c r="S26" s="53"/>
       <c r="T26" s="51">
         <v>7.5</v>
@@ -4130,7 +4165,7 @@
       <c r="AH26" s="53"/>
       <c r="AI26" s="54">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AJ26" s="55">
         <f t="shared" si="1"/>
@@ -4143,7 +4178,7 @@
       <c r="AL26" s="52"/>
       <c r="AM26" s="55">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>42.409090909090907</v>
+        <v>44.86363636363636</v>
       </c>
       <c r="AN26" s="52"/>
     </row>
@@ -4165,7 +4200,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="95"/>
+      <c r="H27" s="102"/>
       <c r="I27" s="56">
         <v>7</v>
       </c>
@@ -4193,7 +4228,9 @@
       <c r="Q27" s="57">
         <v>9</v>
       </c>
-      <c r="R27" s="57"/>
+      <c r="R27" s="57">
+        <v>9</v>
+      </c>
       <c r="S27" s="58"/>
       <c r="T27" s="56">
         <v>7.5</v>
@@ -4228,7 +4265,7 @@
       <c r="AH27" s="58"/>
       <c r="AI27" s="59">
         <f t="shared" si="0"/>
-        <v>79.5</v>
+        <v>88.5</v>
       </c>
       <c r="AJ27" s="60">
         <f t="shared" si="1"/>
@@ -4241,7 +4278,7 @@
       <c r="AL27" s="57"/>
       <c r="AM27" s="60">
         <f t="shared" si="3"/>
-        <v>41.727272727272734</v>
+        <v>44.181818181818187</v>
       </c>
       <c r="AN27" s="57"/>
     </row>
@@ -4263,7 +4300,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="96"/>
+      <c r="H28" s="103"/>
       <c r="I28" s="56">
         <v>8</v>
       </c>
@@ -4291,7 +4328,9 @@
       <c r="Q28" s="57">
         <v>9</v>
       </c>
-      <c r="R28" s="57"/>
+      <c r="R28" s="57">
+        <v>7.5</v>
+      </c>
       <c r="S28" s="58"/>
       <c r="T28" s="56">
         <v>8</v>
@@ -4326,7 +4365,7 @@
       <c r="AH28" s="58"/>
       <c r="AI28" s="59">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>89.5</v>
       </c>
       <c r="AJ28" s="60">
         <f t="shared" si="1"/>
@@ -4339,7 +4378,7 @@
       <c r="AL28" s="57"/>
       <c r="AM28" s="60">
         <f t="shared" si="3"/>
-        <v>40.227272727272727</v>
+        <v>42.272727272727266</v>
       </c>
       <c r="AN28" s="57"/>
     </row>
@@ -4361,7 +4400,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="95"/>
+      <c r="H29" s="102"/>
       <c r="I29" s="56">
         <v>10</v>
       </c>
@@ -4389,7 +4428,9 @@
       <c r="Q29" s="57">
         <v>10</v>
       </c>
-      <c r="R29" s="57"/>
+      <c r="R29" s="57">
+        <v>9</v>
+      </c>
       <c r="S29" s="58"/>
       <c r="T29" s="56">
         <v>8</v>
@@ -4424,7 +4465,7 @@
       <c r="AH29" s="58"/>
       <c r="AI29" s="59">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AJ29" s="60">
         <f t="shared" si="1"/>
@@ -4437,7 +4478,7 @@
       <c r="AL29" s="57"/>
       <c r="AM29" s="60">
         <f t="shared" si="3"/>
-        <v>41.86363636363636</v>
+        <v>44.318181818181813</v>
       </c>
       <c r="AN29" s="57"/>
     </row>
@@ -4459,7 +4500,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="96"/>
+      <c r="H30" s="103"/>
       <c r="I30" s="56">
         <v>9</v>
       </c>
@@ -4487,7 +4528,9 @@
       <c r="Q30" s="57">
         <v>9.5</v>
       </c>
-      <c r="R30" s="57"/>
+      <c r="R30" s="57">
+        <v>10</v>
+      </c>
       <c r="S30" s="58"/>
       <c r="T30" s="56">
         <v>10</v>
@@ -4522,7 +4565,7 @@
       <c r="AH30" s="58"/>
       <c r="AI30" s="59">
         <f t="shared" si="0"/>
-        <v>84.5</v>
+        <v>94.5</v>
       </c>
       <c r="AJ30" s="60">
         <f t="shared" si="1"/>
@@ -4535,7 +4578,7 @@
       <c r="AL30" s="57"/>
       <c r="AM30" s="60">
         <f t="shared" si="3"/>
-        <v>44.045454545454547</v>
+        <v>46.772727272727273</v>
       </c>
       <c r="AN30" s="57"/>
     </row>
@@ -4557,7 +4600,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="95"/>
+      <c r="H31" s="102"/>
       <c r="I31" s="56">
         <v>8</v>
       </c>
@@ -4585,7 +4628,9 @@
       <c r="Q31" s="57">
         <v>10</v>
       </c>
-      <c r="R31" s="57"/>
+      <c r="R31" s="57">
+        <v>9</v>
+      </c>
       <c r="S31" s="58"/>
       <c r="T31" s="56">
         <v>10</v>
@@ -4620,7 +4665,7 @@
       <c r="AH31" s="58"/>
       <c r="AI31" s="59">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AJ31" s="60">
         <f t="shared" si="1"/>
@@ -4633,7 +4678,7 @@
       <c r="AL31" s="57"/>
       <c r="AM31" s="60">
         <f t="shared" si="3"/>
-        <v>44.454545454545453</v>
+        <v>46.909090909090907</v>
       </c>
       <c r="AN31" s="57"/>
     </row>
@@ -4655,7 +4700,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="90"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="56">
         <v>5.5</v>
       </c>
@@ -4683,7 +4728,9 @@
       <c r="Q32" s="57">
         <v>9.5</v>
       </c>
-      <c r="R32" s="57"/>
+      <c r="R32" s="57">
+        <v>9</v>
+      </c>
       <c r="S32" s="58"/>
       <c r="T32" s="56">
         <v>6</v>
@@ -4718,7 +4765,7 @@
       <c r="AH32" s="58"/>
       <c r="AI32" s="59">
         <f t="shared" si="0"/>
-        <v>71.5</v>
+        <v>80.5</v>
       </c>
       <c r="AJ32" s="60">
         <f t="shared" si="1"/>
@@ -4731,7 +4778,7 @@
       <c r="AL32" s="57"/>
       <c r="AM32" s="60">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
+        <v>39</v>
       </c>
       <c r="AN32" s="57"/>
     </row>
@@ -4753,7 +4800,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="91"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="56">
         <v>10</v>
       </c>
@@ -4781,7 +4828,9 @@
       <c r="Q33" s="57">
         <v>8.5</v>
       </c>
-      <c r="R33" s="57"/>
+      <c r="R33" s="57">
+        <v>7</v>
+      </c>
       <c r="S33" s="58"/>
       <c r="T33" s="56">
         <v>6</v>
@@ -4816,7 +4865,7 @@
       <c r="AH33" s="58"/>
       <c r="AI33" s="59">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AJ33" s="60">
         <f t="shared" si="1"/>
@@ -4829,7 +4878,7 @@
       <c r="AL33" s="57"/>
       <c r="AM33" s="60">
         <f t="shared" si="3"/>
-        <v>39.13636363636364</v>
+        <v>41.045454545454547</v>
       </c>
       <c r="AN33" s="57"/>
     </row>
@@ -4851,7 +4900,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="92"/>
+      <c r="H34" s="90"/>
       <c r="I34" s="56">
         <v>8</v>
       </c>
@@ -4879,7 +4928,9 @@
       <c r="Q34" s="57">
         <v>10</v>
       </c>
-      <c r="R34" s="57"/>
+      <c r="R34" s="57">
+        <v>10</v>
+      </c>
       <c r="S34" s="58"/>
       <c r="T34" s="56">
         <v>9</v>
@@ -4914,7 +4965,7 @@
       <c r="AH34" s="58"/>
       <c r="AI34" s="59">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AJ34" s="60">
         <f t="shared" si="1"/>
@@ -4927,7 +4978,7 @@
       <c r="AL34" s="57"/>
       <c r="AM34" s="60">
         <f t="shared" si="3"/>
-        <v>44.454545454545453</v>
+        <v>47.18181818181818</v>
       </c>
       <c r="AN34" s="57"/>
     </row>
@@ -4949,7 +5000,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="56">
         <v>8</v>
       </c>
@@ -4977,7 +5028,9 @@
       <c r="Q35" s="57">
         <v>9.5</v>
       </c>
-      <c r="R35" s="57"/>
+      <c r="R35" s="57">
+        <v>9.5</v>
+      </c>
       <c r="S35" s="58"/>
       <c r="T35" s="56">
         <v>9</v>
@@ -5012,7 +5065,7 @@
       <c r="AH35" s="58"/>
       <c r="AI35" s="59">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>92.5</v>
       </c>
       <c r="AJ35" s="60">
         <f t="shared" si="1"/>
@@ -5025,7 +5078,7 @@
       <c r="AL35" s="57"/>
       <c r="AM35" s="60">
         <f t="shared" si="3"/>
-        <v>43.36363636363636</v>
+        <v>45.954545454545453</v>
       </c>
       <c r="AN35" s="57"/>
     </row>
@@ -5047,7 +5100,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="90"/>
+      <c r="H36" s="86"/>
       <c r="I36" s="56">
         <v>8</v>
       </c>
@@ -5075,7 +5128,9 @@
       <c r="Q36" s="57">
         <v>9.5</v>
       </c>
-      <c r="R36" s="57"/>
+      <c r="R36" s="57">
+        <v>10</v>
+      </c>
       <c r="S36" s="58"/>
       <c r="T36" s="56">
         <v>10</v>
@@ -5110,7 +5165,7 @@
       <c r="AH36" s="58"/>
       <c r="AI36" s="59">
         <f t="shared" si="0"/>
-        <v>81.5</v>
+        <v>91.5</v>
       </c>
       <c r="AJ36" s="60">
         <f t="shared" si="1"/>
@@ -5123,7 +5178,7 @@
       <c r="AL36" s="57"/>
       <c r="AM36" s="60">
         <f t="shared" si="3"/>
-        <v>42.409090909090914</v>
+        <v>45.13636363636364</v>
       </c>
       <c r="AN36" s="57"/>
     </row>
@@ -5145,7 +5200,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="91"/>
+      <c r="H37" s="87"/>
       <c r="I37" s="56">
         <v>8</v>
       </c>
@@ -5173,7 +5228,9 @@
       <c r="Q37" s="57">
         <v>9</v>
       </c>
-      <c r="R37" s="57"/>
+      <c r="R37" s="57">
+        <v>10</v>
+      </c>
       <c r="S37" s="58"/>
       <c r="T37" s="56">
         <v>10</v>
@@ -5208,7 +5265,7 @@
       <c r="AH37" s="58"/>
       <c r="AI37" s="59">
         <f t="shared" si="0"/>
-        <v>81.5</v>
+        <v>91.5</v>
       </c>
       <c r="AJ37" s="60">
         <f t="shared" si="1"/>
@@ -5221,7 +5278,7 @@
       <c r="AL37" s="57"/>
       <c r="AM37" s="60">
         <f t="shared" si="3"/>
-        <v>42.409090909090914</v>
+        <v>45.13636363636364</v>
       </c>
       <c r="AN37" s="57"/>
     </row>
@@ -5243,7 +5300,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="92"/>
+      <c r="H38" s="90"/>
       <c r="I38" s="56">
         <v>9</v>
       </c>
@@ -5271,7 +5328,9 @@
       <c r="Q38" s="57">
         <v>9</v>
       </c>
-      <c r="R38" s="57"/>
+      <c r="R38" s="57">
+        <v>9</v>
+      </c>
       <c r="S38" s="58"/>
       <c r="T38" s="56">
         <v>8</v>
@@ -5306,7 +5365,7 @@
       <c r="AH38" s="58"/>
       <c r="AI38" s="59">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>91.5</v>
       </c>
       <c r="AJ38" s="60">
         <f t="shared" si="1"/>
@@ -5319,7 +5378,7 @@
       <c r="AL38" s="57"/>
       <c r="AM38" s="60">
         <f t="shared" si="3"/>
-        <v>42.13636363636364</v>
+        <v>44.590909090909093</v>
       </c>
       <c r="AN38" s="57"/>
     </row>
@@ -5341,7 +5400,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="104"/>
+      <c r="H39" s="91"/>
       <c r="I39" s="56">
         <v>8</v>
       </c>
@@ -5369,7 +5428,9 @@
       <c r="Q39" s="57">
         <v>7</v>
       </c>
-      <c r="R39" s="57"/>
+      <c r="R39" s="57">
+        <v>9</v>
+      </c>
       <c r="S39" s="58"/>
       <c r="T39" s="56">
         <v>8</v>
@@ -5404,7 +5465,7 @@
       <c r="AH39" s="58"/>
       <c r="AI39" s="59">
         <f t="shared" si="0"/>
-        <v>75.5</v>
+        <v>84.5</v>
       </c>
       <c r="AJ39" s="60">
         <f t="shared" si="1"/>
@@ -5417,7 +5478,7 @@
       <c r="AL39" s="57"/>
       <c r="AM39" s="60">
         <f t="shared" si="3"/>
-        <v>40.227272727272734</v>
+        <v>42.681818181818187</v>
       </c>
       <c r="AN39" s="57"/>
     </row>
@@ -5439,7 +5500,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="56">
         <v>9.5</v>
       </c>
@@ -5467,7 +5528,9 @@
       <c r="Q40" s="57">
         <v>6</v>
       </c>
-      <c r="R40" s="57"/>
+      <c r="R40" s="57">
+        <v>4.5</v>
+      </c>
       <c r="S40" s="58"/>
       <c r="T40" s="56">
         <v>8</v>
@@ -5502,7 +5565,7 @@
       <c r="AH40" s="58"/>
       <c r="AI40" s="59">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>77.5</v>
       </c>
       <c r="AJ40" s="60">
         <f t="shared" si="1"/>
@@ -5515,7 +5578,7 @@
       <c r="AL40" s="57"/>
       <c r="AM40" s="60">
         <f t="shared" si="3"/>
-        <v>39.545454545454547</v>
+        <v>40.772727272727273</v>
       </c>
       <c r="AN40" s="57"/>
     </row>
@@ -5537,7 +5600,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="90"/>
+      <c r="H41" s="86"/>
       <c r="I41" s="56">
         <v>5.5</v>
       </c>
@@ -5565,7 +5628,9 @@
       <c r="Q41" s="57">
         <v>8.5</v>
       </c>
-      <c r="R41" s="57"/>
+      <c r="R41" s="57">
+        <v>8</v>
+      </c>
       <c r="S41" s="58"/>
       <c r="T41" s="56">
         <v>10</v>
@@ -5600,7 +5665,7 @@
       <c r="AH41" s="58"/>
       <c r="AI41" s="59">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AJ41" s="60">
         <f t="shared" si="1"/>
@@ -5613,7 +5678,7 @@
       <c r="AL41" s="57"/>
       <c r="AM41" s="60">
         <f t="shared" si="3"/>
-        <v>31.772727272727273</v>
+        <v>33.954545454545453</v>
       </c>
       <c r="AN41" s="57"/>
     </row>
@@ -5635,7 +5700,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="91"/>
+      <c r="H42" s="87"/>
       <c r="I42" s="56">
         <v>7.5</v>
       </c>
@@ -5663,7 +5728,9 @@
       <c r="Q42" s="57">
         <v>9</v>
       </c>
-      <c r="R42" s="57"/>
+      <c r="R42" s="57">
+        <v>7</v>
+      </c>
       <c r="S42" s="58"/>
       <c r="T42" s="56">
         <v>10</v>
@@ -5698,7 +5765,7 @@
       <c r="AH42" s="58"/>
       <c r="AI42" s="59">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ42" s="60">
         <f t="shared" si="1"/>
@@ -5711,7 +5778,7 @@
       <c r="AL42" s="57"/>
       <c r="AM42" s="60">
         <f t="shared" si="3"/>
-        <v>40.772727272727266</v>
+        <v>42.68181818181818</v>
       </c>
       <c r="AN42" s="57"/>
     </row>
@@ -5733,7 +5800,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="90"/>
+      <c r="H43" s="86"/>
       <c r="I43" s="56">
         <v>7.5</v>
       </c>
@@ -5761,7 +5828,9 @@
       <c r="Q43" s="57">
         <v>9</v>
       </c>
-      <c r="R43" s="57"/>
+      <c r="R43" s="57">
+        <v>10</v>
+      </c>
       <c r="S43" s="58"/>
       <c r="T43" s="56">
         <v>8</v>
@@ -5796,7 +5865,7 @@
       <c r="AH43" s="58"/>
       <c r="AI43" s="59">
         <f t="shared" si="0"/>
-        <v>73.5</v>
+        <v>83.5</v>
       </c>
       <c r="AJ43" s="60">
         <f t="shared" si="1"/>
@@ -5809,7 +5878,7 @@
       <c r="AL43" s="57"/>
       <c r="AM43" s="60">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>41.72727272727272</v>
       </c>
       <c r="AN43" s="57"/>
     </row>
@@ -5831,7 +5900,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="91"/>
+      <c r="H44" s="87"/>
       <c r="I44" s="61">
         <v>0</v>
       </c>
@@ -5859,7 +5928,9 @@
       <c r="Q44" s="57">
         <v>9.5</v>
       </c>
-      <c r="R44" s="57"/>
+      <c r="R44" s="57">
+        <v>8</v>
+      </c>
       <c r="S44" s="58"/>
       <c r="T44" s="56">
         <v>8</v>
@@ -5894,7 +5965,7 @@
       <c r="AH44" s="58"/>
       <c r="AI44" s="59">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AJ44" s="60">
         <f t="shared" si="1"/>
@@ -5907,7 +5978,7 @@
       <c r="AL44" s="57"/>
       <c r="AM44" s="60">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>39.68181818181818</v>
       </c>
       <c r="AN44" s="57"/>
     </row>
@@ -5929,7 +6000,7 @@
       </c>
       <c r="F45" s="71"/>
       <c r="G45" s="71"/>
-      <c r="H45" s="105"/>
+      <c r="H45" s="93"/>
       <c r="I45" s="74">
         <v>10</v>
       </c>
@@ -5957,7 +6028,9 @@
       <c r="Q45" s="81">
         <v>9.5</v>
       </c>
-      <c r="R45" s="81"/>
+      <c r="R45" s="81">
+        <v>8.5</v>
+      </c>
       <c r="S45" s="82"/>
       <c r="T45" s="74">
         <v>10</v>
@@ -5992,7 +6065,7 @@
       <c r="AH45" s="82"/>
       <c r="AI45" s="59">
         <f t="shared" si="0"/>
-        <v>79.5</v>
+        <v>88</v>
       </c>
       <c r="AJ45" s="60">
         <f t="shared" si="1"/>
@@ -6005,7 +6078,7 @@
       <c r="AL45" s="57"/>
       <c r="AM45" s="60">
         <f t="shared" si="3"/>
-        <v>41.454545454545453</v>
+        <v>43.772727272727273</v>
       </c>
       <c r="AN45" s="57"/>
     </row>
@@ -6027,7 +6100,7 @@
       </c>
       <c r="F46" s="75"/>
       <c r="G46" s="75"/>
-      <c r="H46" s="106"/>
+      <c r="H46" s="94"/>
       <c r="I46" s="74">
         <v>10</v>
       </c>
@@ -6055,7 +6128,9 @@
       <c r="Q46" s="81">
         <v>9</v>
       </c>
-      <c r="R46" s="81"/>
+      <c r="R46" s="81">
+        <v>9</v>
+      </c>
       <c r="S46" s="82"/>
       <c r="T46" s="74">
         <v>10</v>
@@ -6090,7 +6165,7 @@
       <c r="AH46" s="82"/>
       <c r="AI46" s="59">
         <f t="shared" si="0"/>
-        <v>85.5</v>
+        <v>94.5</v>
       </c>
       <c r="AJ46" s="60">
         <f t="shared" si="1"/>
@@ -6103,7 +6178,7 @@
       <c r="AL46" s="57"/>
       <c r="AM46" s="60">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>45.545454545454547</v>
       </c>
       <c r="AN46" s="57"/>
     </row>
@@ -6125,7 +6200,7 @@
       </c>
       <c r="F47" s="75"/>
       <c r="G47" s="75"/>
-      <c r="H47" s="102"/>
+      <c r="H47" s="88"/>
       <c r="I47" s="74">
         <v>8</v>
       </c>
@@ -6153,7 +6228,9 @@
       <c r="Q47" s="81">
         <v>10</v>
       </c>
-      <c r="R47" s="81"/>
+      <c r="R47" s="81">
+        <v>10</v>
+      </c>
       <c r="S47" s="82"/>
       <c r="T47" s="74">
         <v>10</v>
@@ -6188,7 +6265,7 @@
       <c r="AH47" s="82"/>
       <c r="AI47" s="59">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AJ47" s="60">
         <f t="shared" si="1"/>
@@ -6201,7 +6278,7 @@
       <c r="AL47" s="57"/>
       <c r="AM47" s="60">
         <f t="shared" si="3"/>
-        <v>42.681818181818187</v>
+        <v>45.409090909090907</v>
       </c>
       <c r="AN47" s="57"/>
     </row>
@@ -6223,7 +6300,7 @@
       </c>
       <c r="F48" s="77"/>
       <c r="G48" s="77"/>
-      <c r="H48" s="103"/>
+      <c r="H48" s="89"/>
       <c r="I48" s="74">
         <v>3.5</v>
       </c>
@@ -6251,7 +6328,9 @@
       <c r="Q48" s="81">
         <v>9.5</v>
       </c>
-      <c r="R48" s="81"/>
+      <c r="R48" s="81">
+        <v>9</v>
+      </c>
       <c r="S48" s="82"/>
       <c r="T48" s="74">
         <v>10</v>
@@ -6286,7 +6365,7 @@
       <c r="AH48" s="82"/>
       <c r="AI48" s="59">
         <f t="shared" si="0"/>
-        <v>74.5</v>
+        <v>83.5</v>
       </c>
       <c r="AJ48" s="60">
         <f t="shared" si="1"/>
@@ -6299,7 +6378,7 @@
       <c r="AL48" s="57"/>
       <c r="AM48" s="60">
         <f t="shared" si="3"/>
-        <v>40.090909090909093</v>
+        <v>42.545454545454547</v>
       </c>
       <c r="AN48" s="57"/>
     </row>
@@ -6345,9 +6424,9 @@
         <f>AVERAGE(Q2:Q48)</f>
         <v>8.9555555555555557</v>
       </c>
-      <c r="R49" s="63" t="e">
-        <f>AVERAGE(R2:R32)</f>
-        <v>#DIV/0!</v>
+      <c r="R49" s="63">
+        <f>AVERAGE(R2:R48)</f>
+        <v>8.9222222222222225</v>
       </c>
       <c r="S49" s="64" t="e">
         <f>AVERAGE(S2:S32)</f>
@@ -6367,7 +6446,7 @@
       </c>
       <c r="W49" s="63">
         <f>AVERAGE(W2:W48)</f>
-        <v>9.4333333333333336</v>
+        <v>9.5</v>
       </c>
       <c r="X49" s="63">
         <f>AVERAGE(X2:X25)</f>
@@ -6415,11 +6494,11 @@
       </c>
       <c r="AI49" s="65">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>74.833333333333329</v>
+        <v>83.1875</v>
       </c>
       <c r="AJ49" s="63">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>70.375</v>
+        <v>70.5</v>
       </c>
       <c r="AK49" s="63">
         <f>AVERAGE(AK2:AK25)</f>
@@ -6431,7 +6510,7 @@
       </c>
       <c r="AM49" s="63">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>39.602272727272727</v>
+        <v>41.914772727272727</v>
       </c>
       <c r="AN49" s="63"/>
     </row>
@@ -6477,9 +6556,9 @@
         <f t="shared" si="4"/>
         <v>9.1086956521739122</v>
       </c>
-      <c r="R50" s="63" t="e">
+      <c r="R50" s="63">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.7391304347826093</v>
       </c>
       <c r="S50" s="64" t="e">
         <f t="shared" si="4"/>
@@ -6547,7 +6626,7 @@
       </c>
       <c r="AI50" s="65">
         <f t="shared" si="4"/>
-        <v>78.282608695652172</v>
+        <v>87.021739130434781</v>
       </c>
       <c r="AJ50" s="63">
         <f t="shared" si="4"/>
@@ -6563,7 +6642,7 @@
       </c>
       <c r="AM50" s="63">
         <f t="shared" si="4"/>
-        <v>40.926877470355734</v>
+        <v>43.310276679841884</v>
       </c>
       <c r="AN50" s="63"/>
     </row>
@@ -6609,9 +6688,9 @@
         <f t="shared" si="5"/>
         <v>8.9555555555555557</v>
       </c>
-      <c r="R51" s="63" t="e">
+      <c r="R51" s="63">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8.9222222222222225</v>
       </c>
       <c r="S51" s="64" t="e">
         <f t="shared" si="5"/>
@@ -6631,7 +6710,7 @@
       </c>
       <c r="W51" s="63">
         <f t="shared" si="5"/>
-        <v>9.4333333333333336</v>
+        <v>9.5</v>
       </c>
       <c r="X51" s="63">
         <f t="shared" si="5"/>
@@ -6679,11 +6758,11 @@
       </c>
       <c r="AI51" s="65">
         <f t="shared" si="5"/>
-        <v>76.521276595744681</v>
+        <v>85.063829787234042</v>
       </c>
       <c r="AJ51" s="63">
         <f t="shared" si="5"/>
-        <v>71.063829787234042</v>
+        <v>71.127659574468083</v>
       </c>
       <c r="AK51" s="63">
         <f t="shared" si="5"/>
@@ -6695,7 +6774,7 @@
       </c>
       <c r="AM51" s="63">
         <f t="shared" si="5"/>
-        <v>40.250483558994198</v>
+        <v>42.59767891682786</v>
       </c>
       <c r="AN51" s="63"/>
     </row>
@@ -6741,9 +6820,9 @@
         <f t="shared" si="6"/>
         <v>1.0214863403072709</v>
       </c>
-      <c r="R52" s="63" t="e">
+      <c r="R52" s="63">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.0496512167228091</v>
       </c>
       <c r="S52" s="64" t="e">
         <f t="shared" si="6"/>
@@ -6763,7 +6842,7 @@
       </c>
       <c r="W52" s="63">
         <f t="shared" si="6"/>
-        <v>0.59924194537007303</v>
+        <v>0.57406049728704944</v>
       </c>
       <c r="X52" s="63">
         <f t="shared" si="6"/>
@@ -6811,11 +6890,11 @@
       </c>
       <c r="AI52" s="65">
         <f t="shared" si="6"/>
-        <v>16.143701641281055</v>
+        <v>17.95786645519372</v>
       </c>
       <c r="AJ52" s="63">
         <f t="shared" si="6"/>
-        <v>12.063066621644104</v>
+        <v>12.094495732027282</v>
       </c>
       <c r="AK52" s="63">
         <f t="shared" si="6"/>
@@ -6827,7 +6906,7 @@
       </c>
       <c r="AM52" s="63">
         <f t="shared" si="6"/>
-        <v>7.4137141686217731</v>
+        <v>7.9297919692659793</v>
       </c>
       <c r="AN52" s="63"/>
     </row>
@@ -6875,7 +6954,7 @@
       </c>
       <c r="R53" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S53" s="64">
         <f t="shared" si="7"/>
@@ -6943,7 +7022,7 @@
       </c>
       <c r="AI53" s="65">
         <f t="shared" si="7"/>
-        <v>88.5</v>
+        <v>97.5</v>
       </c>
       <c r="AJ53" s="63">
         <f t="shared" si="7"/>
@@ -6959,7 +7038,7 @@
       </c>
       <c r="AM53" s="63">
         <f t="shared" si="7"/>
-        <v>45.954545454545453</v>
+        <v>48.409090909090907</v>
       </c>
       <c r="AN53" s="63"/>
     </row>
@@ -7007,7 +7086,7 @@
       </c>
       <c r="R54" s="67">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="S54" s="68">
         <f t="shared" si="8"/>
@@ -7097,19 +7176,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -7120,6 +7186,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7134,15 +7213,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -7324,6 +7394,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
@@ -7341,14 +7420,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7364,4 +7435,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923EEBEE-E0AD-479F-BC1F-CA64965AC63F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF79A2-AE9A-4C02-ABA8-6F4BA388F903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1307,47 +1318,28 @@
     <xf numFmtId="176" fontId="15" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1365,6 +1357,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1596,7 +1607,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1756,7 +1767,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="95"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1812,7 +1823,9 @@
       <c r="AA2" s="43">
         <v>10</v>
       </c>
-      <c r="AB2" s="43"/>
+      <c r="AB2" s="43">
+        <v>10</v>
+      </c>
       <c r="AC2" s="43"/>
       <c r="AD2" s="44"/>
       <c r="AE2" s="33"/>
@@ -1825,7 +1838,7 @@
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>77.5</v>
+        <v>87.5</v>
       </c>
       <c r="AK2" s="43">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1834,7 +1847,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>46.090909090909093</v>
+        <v>48.818181818181813</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1856,7 +1869,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="96"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1912,7 +1925,9 @@
       <c r="AA3" s="43">
         <v>10</v>
       </c>
-      <c r="AB3" s="43"/>
+      <c r="AB3" s="43">
+        <v>10</v>
+      </c>
       <c r="AC3" s="43"/>
       <c r="AD3" s="44"/>
       <c r="AE3" s="33"/>
@@ -1925,7 +1940,7 @@
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
-        <v>77.5</v>
+        <v>87.5</v>
       </c>
       <c r="AK3" s="43">
         <f t="shared" si="2"/>
@@ -1934,7 +1949,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>47.318181818181813</v>
+        <v>50.045454545454547</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1956,7 +1971,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="95"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2012,7 +2027,9 @@
       <c r="AA4" s="43">
         <v>10</v>
       </c>
-      <c r="AB4" s="43"/>
+      <c r="AB4" s="43">
+        <v>8.5</v>
+      </c>
       <c r="AC4" s="43"/>
       <c r="AD4" s="44"/>
       <c r="AE4" s="33"/>
@@ -2025,7 +2042,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>88.5</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" si="2"/>
@@ -2034,7 +2051,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>47.318181818181813</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2056,7 +2073,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="96"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2112,7 +2129,9 @@
       <c r="AA5" s="43">
         <v>10</v>
       </c>
-      <c r="AB5" s="43"/>
+      <c r="AB5" s="43">
+        <v>8.5</v>
+      </c>
       <c r="AC5" s="43"/>
       <c r="AD5" s="44"/>
       <c r="AE5" s="33"/>
@@ -2125,7 +2144,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>88.5</v>
       </c>
       <c r="AK5" s="43">
         <f t="shared" si="2"/>
@@ -2134,7 +2153,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>48.409090909090907</v>
+        <v>50.727272727272727</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2156,7 +2175,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="95"/>
+      <c r="H6" s="100"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2212,7 +2231,9 @@
       <c r="AA6" s="43">
         <v>9</v>
       </c>
-      <c r="AB6" s="43"/>
+      <c r="AB6" s="43">
+        <v>9</v>
+      </c>
       <c r="AC6" s="43"/>
       <c r="AD6" s="44"/>
       <c r="AE6" s="33"/>
@@ -2225,7 +2246,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="43">
         <f t="shared" si="2"/>
@@ -2234,7 +2255,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>43.909090909090907</v>
+        <v>46.36363636363636</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2256,7 +2277,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="96"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2312,7 +2333,9 @@
       <c r="AA7" s="43">
         <v>9</v>
       </c>
-      <c r="AB7" s="43"/>
+      <c r="AB7" s="43">
+        <v>9</v>
+      </c>
       <c r="AC7" s="43"/>
       <c r="AD7" s="44"/>
       <c r="AE7" s="33"/>
@@ -2325,7 +2348,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="43">
         <f t="shared" si="2"/>
@@ -2334,7 +2357,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>44.727272727272734</v>
+        <v>47.181818181818187</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2356,7 +2379,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="95"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2412,7 +2435,9 @@
       <c r="AA8" s="43">
         <v>10</v>
       </c>
-      <c r="AB8" s="43"/>
+      <c r="AB8" s="43">
+        <v>9</v>
+      </c>
       <c r="AC8" s="43"/>
       <c r="AD8" s="44"/>
       <c r="AE8" s="33"/>
@@ -2425,7 +2450,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>77.5</v>
+        <v>86.5</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
@@ -2434,7 +2459,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>46.090909090909093</v>
+        <v>48.545454545454547</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2456,7 +2481,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="96"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2512,7 +2537,9 @@
       <c r="AA9" s="43">
         <v>10</v>
       </c>
-      <c r="AB9" s="43"/>
+      <c r="AB9" s="43">
+        <v>9</v>
+      </c>
       <c r="AC9" s="43"/>
       <c r="AD9" s="44"/>
       <c r="AE9" s="33"/>
@@ -2525,7 +2552,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>77.5</v>
+        <v>86.5</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
@@ -2534,7 +2561,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>45.81818181818182</v>
+        <v>48.272727272727273</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2556,7 +2583,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="95"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2612,7 +2639,9 @@
       <c r="AA10" s="43">
         <v>8</v>
       </c>
-      <c r="AB10" s="43"/>
+      <c r="AB10" s="43">
+        <v>10</v>
+      </c>
       <c r="AC10" s="43"/>
       <c r="AD10" s="44"/>
       <c r="AE10" s="33"/>
@@ -2625,7 +2654,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
@@ -2634,7 +2663,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>46.772727272727273</v>
+        <v>49.5</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2656,7 +2685,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="96"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2712,7 +2741,9 @@
       <c r="AA11" s="43">
         <v>8</v>
       </c>
-      <c r="AB11" s="43"/>
+      <c r="AB11" s="43">
+        <v>10</v>
+      </c>
       <c r="AC11" s="43"/>
       <c r="AD11" s="44"/>
       <c r="AE11" s="33"/>
@@ -2725,7 +2756,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
@@ -2734,7 +2765,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>45.81818181818182</v>
+        <v>48.545454545454547</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2756,7 +2787,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="95"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2812,7 +2843,9 @@
       <c r="AA12" s="43">
         <v>10</v>
       </c>
-      <c r="AB12" s="43"/>
+      <c r="AB12" s="43">
+        <v>10</v>
+      </c>
       <c r="AC12" s="43"/>
       <c r="AD12" s="44"/>
       <c r="AE12" s="33"/>
@@ -2825,7 +2858,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>77.5</v>
+        <v>87.5</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
@@ -2834,7 +2867,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>45.954545454545453</v>
+        <v>48.68181818181818</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2856,7 +2889,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="96"/>
+      <c r="H13" s="101"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2912,7 +2945,9 @@
       <c r="AA13" s="43">
         <v>10</v>
       </c>
-      <c r="AB13" s="46"/>
+      <c r="AB13" s="83">
+        <v>10</v>
+      </c>
       <c r="AC13" s="46"/>
       <c r="AD13" s="46"/>
       <c r="AE13" s="33"/>
@@ -2925,7 +2960,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>77.5</v>
+        <v>87.5</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
@@ -2934,7 +2969,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>45.409090909090907</v>
+        <v>48.13636363636364</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2956,7 +2991,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="95"/>
+      <c r="H14" s="100"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -3012,7 +3047,9 @@
       <c r="AA14" s="43">
         <v>9</v>
       </c>
-      <c r="AB14" s="43"/>
+      <c r="AB14" s="83">
+        <v>8</v>
+      </c>
       <c r="AC14" s="43"/>
       <c r="AD14" s="44"/>
       <c r="AE14" s="33"/>
@@ -3025,7 +3062,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK14" s="43">
         <f t="shared" si="2"/>
@@ -3034,7 +3071,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>44.86363636363636</v>
+        <v>47.045454545454547</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -3056,7 +3093,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="96"/>
+      <c r="H15" s="101"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -3112,7 +3149,9 @@
       <c r="AA15" s="43">
         <v>9</v>
       </c>
-      <c r="AB15" s="43"/>
+      <c r="AB15" s="83">
+        <v>8</v>
+      </c>
       <c r="AC15" s="43"/>
       <c r="AD15" s="44"/>
       <c r="AE15" s="33"/>
@@ -3125,7 +3164,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK15" s="43">
         <f t="shared" si="2"/>
@@ -3134,7 +3173,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>45.272727272727273</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -3156,7 +3195,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="99"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="80">
         <v>0</v>
       </c>
@@ -3184,7 +3223,7 @@
       <c r="Y16" s="43"/>
       <c r="Z16" s="43"/>
       <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
+      <c r="AB16" s="83"/>
       <c r="AC16" s="43"/>
       <c r="AD16" s="44"/>
       <c r="AE16" s="33"/>
@@ -3228,7 +3267,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="100"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="80">
         <v>0</v>
       </c>
@@ -3284,7 +3323,9 @@
       <c r="AA17" s="43">
         <v>9</v>
       </c>
-      <c r="AB17" s="43"/>
+      <c r="AB17" s="83">
+        <v>9</v>
+      </c>
       <c r="AC17" s="43"/>
       <c r="AD17" s="44"/>
       <c r="AE17" s="33"/>
@@ -3297,7 +3338,7 @@
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>81.5</v>
       </c>
       <c r="AK17" s="43">
         <f t="shared" si="2"/>
@@ -3306,7 +3347,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>42.81818181818182</v>
+        <v>45.27272727272728</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3328,7 +3369,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="97"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3384,7 +3425,9 @@
       <c r="AA18" s="43">
         <v>9</v>
       </c>
-      <c r="AB18" s="43"/>
+      <c r="AB18" s="83">
+        <v>9.5</v>
+      </c>
       <c r="AC18" s="43"/>
       <c r="AD18" s="44"/>
       <c r="AE18" s="33"/>
@@ -3397,7 +3440,7 @@
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
-        <v>70.5</v>
+        <v>80</v>
       </c>
       <c r="AK18" s="43">
         <f t="shared" si="2"/>
@@ -3406,7 +3449,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>45.272727272727273</v>
+        <v>47.863636363636367</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3428,7 +3471,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="98"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3484,7 +3527,9 @@
       <c r="AA19" s="43">
         <v>9</v>
       </c>
-      <c r="AB19" s="43"/>
+      <c r="AB19" s="83">
+        <v>9.5</v>
+      </c>
       <c r="AC19" s="43"/>
       <c r="AD19" s="44"/>
       <c r="AE19" s="33"/>
@@ -3497,7 +3542,7 @@
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
-        <v>70.5</v>
+        <v>80</v>
       </c>
       <c r="AK19" s="43">
         <f t="shared" si="2"/>
@@ -3506,7 +3551,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>42.818181818181813</v>
+        <v>45.409090909090907</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3528,7 +3573,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="97"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3584,7 +3629,9 @@
       <c r="AA20" s="43">
         <v>9</v>
       </c>
-      <c r="AB20" s="43"/>
+      <c r="AB20" s="43">
+        <v>9</v>
+      </c>
       <c r="AC20" s="43"/>
       <c r="AD20" s="44"/>
       <c r="AE20" s="33"/>
@@ -3597,7 +3644,7 @@
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AK20" s="43">
         <f t="shared" si="2"/>
@@ -3606,7 +3653,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>45.409090909090914</v>
+        <v>47.863636363636367</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3628,7 +3675,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="98"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="80">
         <v>0</v>
       </c>
@@ -3700,7 +3747,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="105"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3756,7 +3803,9 @@
       <c r="AA22" s="43">
         <v>10</v>
       </c>
-      <c r="AB22" s="43"/>
+      <c r="AB22" s="43">
+        <v>10</v>
+      </c>
       <c r="AC22" s="43"/>
       <c r="AD22" s="44"/>
       <c r="AE22" s="33"/>
@@ -3769,7 +3818,7 @@
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
@@ -3778,7 +3827,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>44.86363636363636</v>
+        <v>47.590909090909093</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3800,7 +3849,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="106"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3856,7 +3905,9 @@
       <c r="AA23" s="43">
         <v>10</v>
       </c>
-      <c r="AB23" s="43"/>
+      <c r="AB23" s="43">
+        <v>10</v>
+      </c>
       <c r="AC23" s="43"/>
       <c r="AD23" s="44"/>
       <c r="AE23" s="33"/>
@@ -3869,7 +3920,7 @@
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AK23" s="43">
         <f t="shared" si="2"/>
@@ -3878,7 +3929,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>45.409090909090907</v>
+        <v>48.136363636363633</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3900,7 +3951,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="97"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="80">
         <v>0</v>
       </c>
@@ -3956,7 +4007,9 @@
       <c r="AA24" s="43">
         <v>10</v>
       </c>
-      <c r="AB24" s="43"/>
+      <c r="AB24" s="43">
+        <v>8</v>
+      </c>
       <c r="AC24" s="43"/>
       <c r="AD24" s="44"/>
       <c r="AE24" s="33"/>
@@ -3969,7 +4022,7 @@
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
-        <v>73.5</v>
+        <v>81.5</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="2"/>
@@ -3978,7 +4031,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>42.681818181818187</v>
+        <v>44.863636363636367</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -4000,7 +4053,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="104"/>
+      <c r="H25" s="97"/>
       <c r="I25" s="48">
         <v>8.5</v>
       </c>
@@ -4056,7 +4109,9 @@
       <c r="AA25" s="49">
         <v>10</v>
       </c>
-      <c r="AB25" s="49"/>
+      <c r="AB25" s="49">
+        <v>8</v>
+      </c>
       <c r="AC25" s="49"/>
       <c r="AD25" s="50"/>
       <c r="AE25" s="48"/>
@@ -4069,7 +4124,7 @@
       </c>
       <c r="AJ25" s="49">
         <f t="shared" si="1"/>
-        <v>73.5</v>
+        <v>81.5</v>
       </c>
       <c r="AK25" s="49">
         <f t="shared" si="2"/>
@@ -4078,7 +4133,7 @@
       <c r="AL25" s="49"/>
       <c r="AM25" s="49">
         <f t="shared" si="3"/>
-        <v>42.818181818181813</v>
+        <v>45</v>
       </c>
       <c r="AN25" s="49"/>
     </row>
@@ -4100,7 +4155,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="101"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="51">
         <v>5.5</v>
       </c>
@@ -4156,7 +4211,9 @@
       <c r="AA26" s="52">
         <v>9</v>
       </c>
-      <c r="AB26" s="52"/>
+      <c r="AB26" s="52">
+        <v>9</v>
+      </c>
       <c r="AC26" s="52"/>
       <c r="AD26" s="53"/>
       <c r="AE26" s="51"/>
@@ -4169,7 +4226,7 @@
       </c>
       <c r="AJ26" s="55">
         <f t="shared" si="1"/>
-        <v>73.5</v>
+        <v>82.5</v>
       </c>
       <c r="AK26" s="55">
         <f t="shared" si="2"/>
@@ -4178,7 +4235,7 @@
       <c r="AL26" s="52"/>
       <c r="AM26" s="55">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>44.86363636363636</v>
+        <v>47.318181818181813</v>
       </c>
       <c r="AN26" s="52"/>
     </row>
@@ -4200,7 +4257,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="102"/>
+      <c r="H27" s="95"/>
       <c r="I27" s="56">
         <v>7</v>
       </c>
@@ -4256,7 +4313,9 @@
       <c r="AA27" s="57">
         <v>9</v>
       </c>
-      <c r="AB27" s="57"/>
+      <c r="AB27" s="57">
+        <v>9</v>
+      </c>
       <c r="AC27" s="57"/>
       <c r="AD27" s="58"/>
       <c r="AE27" s="56"/>
@@ -4269,7 +4328,7 @@
       </c>
       <c r="AJ27" s="60">
         <f t="shared" si="1"/>
-        <v>73.5</v>
+        <v>82.5</v>
       </c>
       <c r="AK27" s="60">
         <f t="shared" si="2"/>
@@ -4278,7 +4337,7 @@
       <c r="AL27" s="57"/>
       <c r="AM27" s="60">
         <f t="shared" si="3"/>
-        <v>44.181818181818187</v>
+        <v>46.63636363636364</v>
       </c>
       <c r="AN27" s="57"/>
     </row>
@@ -4300,7 +4359,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="103"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="56">
         <v>8</v>
       </c>
@@ -4356,7 +4415,9 @@
       <c r="AA28" s="57">
         <v>10</v>
       </c>
-      <c r="AB28" s="57"/>
+      <c r="AB28" s="57">
+        <v>9</v>
+      </c>
       <c r="AC28" s="57"/>
       <c r="AD28" s="58"/>
       <c r="AE28" s="56"/>
@@ -4369,7 +4430,7 @@
       </c>
       <c r="AJ28" s="60">
         <f t="shared" si="1"/>
-        <v>65.5</v>
+        <v>74.5</v>
       </c>
       <c r="AK28" s="60">
         <f t="shared" si="2"/>
@@ -4378,7 +4439,7 @@
       <c r="AL28" s="57"/>
       <c r="AM28" s="60">
         <f t="shared" si="3"/>
-        <v>42.272727272727266</v>
+        <v>44.72727272727272</v>
       </c>
       <c r="AN28" s="57"/>
     </row>
@@ -4400,7 +4461,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="102"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="56">
         <v>10</v>
       </c>
@@ -4456,7 +4517,9 @@
       <c r="AA29" s="57">
         <v>10</v>
       </c>
-      <c r="AB29" s="57"/>
+      <c r="AB29" s="57">
+        <v>9</v>
+      </c>
       <c r="AC29" s="57"/>
       <c r="AD29" s="58"/>
       <c r="AE29" s="56"/>
@@ -4469,7 +4532,7 @@
       </c>
       <c r="AJ29" s="60">
         <f t="shared" si="1"/>
-        <v>65.5</v>
+        <v>74.5</v>
       </c>
       <c r="AK29" s="60">
         <f t="shared" si="2"/>
@@ -4478,7 +4541,7 @@
       <c r="AL29" s="57"/>
       <c r="AM29" s="60">
         <f t="shared" si="3"/>
-        <v>44.318181818181813</v>
+        <v>46.772727272727266</v>
       </c>
       <c r="AN29" s="57"/>
     </row>
@@ -4500,7 +4563,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="103"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="56">
         <v>9</v>
       </c>
@@ -4556,7 +4619,9 @@
       <c r="AA30" s="57">
         <v>9</v>
       </c>
-      <c r="AB30" s="57"/>
+      <c r="AB30" s="57">
+        <v>9</v>
+      </c>
       <c r="AC30" s="57"/>
       <c r="AD30" s="58"/>
       <c r="AE30" s="56"/>
@@ -4569,7 +4634,7 @@
       </c>
       <c r="AJ30" s="60">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AK30" s="60">
         <f t="shared" si="2"/>
@@ -4578,7 +4643,7 @@
       <c r="AL30" s="57"/>
       <c r="AM30" s="60">
         <f t="shared" si="3"/>
-        <v>46.772727272727273</v>
+        <v>49.227272727272734</v>
       </c>
       <c r="AN30" s="57"/>
     </row>
@@ -4600,7 +4665,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="102"/>
+      <c r="H31" s="95"/>
       <c r="I31" s="56">
         <v>8</v>
       </c>
@@ -4656,7 +4721,9 @@
       <c r="AA31" s="57">
         <v>9</v>
       </c>
-      <c r="AB31" s="57"/>
+      <c r="AB31" s="57">
+        <v>9</v>
+      </c>
       <c r="AC31" s="57"/>
       <c r="AD31" s="58"/>
       <c r="AE31" s="56"/>
@@ -4669,7 +4736,7 @@
       </c>
       <c r="AJ31" s="60">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AK31" s="60">
         <f t="shared" si="2"/>
@@ -4678,7 +4745,7 @@
       <c r="AL31" s="57"/>
       <c r="AM31" s="60">
         <f t="shared" si="3"/>
-        <v>46.909090909090907</v>
+        <v>49.363636363636367</v>
       </c>
       <c r="AN31" s="57"/>
     </row>
@@ -4700,7 +4767,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="86"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="56">
         <v>5.5</v>
       </c>
@@ -4756,7 +4823,9 @@
       <c r="AA32" s="57">
         <v>9.5</v>
       </c>
-      <c r="AB32" s="57"/>
+      <c r="AB32" s="57">
+        <v>9</v>
+      </c>
       <c r="AC32" s="57"/>
       <c r="AD32" s="58"/>
       <c r="AE32" s="56"/>
@@ -4769,7 +4838,7 @@
       </c>
       <c r="AJ32" s="60">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>71.5</v>
       </c>
       <c r="AK32" s="60">
         <f t="shared" si="2"/>
@@ -4778,7 +4847,7 @@
       <c r="AL32" s="57"/>
       <c r="AM32" s="60">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>41.454545454545453</v>
       </c>
       <c r="AN32" s="57"/>
     </row>
@@ -4800,7 +4869,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="87"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="56">
         <v>10</v>
       </c>
@@ -4856,7 +4925,9 @@
       <c r="AA33" s="57">
         <v>9.5</v>
       </c>
-      <c r="AB33" s="57"/>
+      <c r="AB33" s="57">
+        <v>9</v>
+      </c>
       <c r="AC33" s="57"/>
       <c r="AD33" s="58"/>
       <c r="AE33" s="56"/>
@@ -4869,7 +4940,7 @@
       </c>
       <c r="AJ33" s="60">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>71.5</v>
       </c>
       <c r="AK33" s="60">
         <f t="shared" si="2"/>
@@ -4878,7 +4949,7 @@
       <c r="AL33" s="57"/>
       <c r="AM33" s="60">
         <f t="shared" si="3"/>
-        <v>41.045454545454547</v>
+        <v>43.5</v>
       </c>
       <c r="AN33" s="57"/>
     </row>
@@ -4900,7 +4971,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="90"/>
+      <c r="H34" s="92"/>
       <c r="I34" s="56">
         <v>8</v>
       </c>
@@ -4956,7 +5027,9 @@
       <c r="AA34" s="57">
         <v>10</v>
       </c>
-      <c r="AB34" s="57"/>
+      <c r="AB34" s="57">
+        <v>10</v>
+      </c>
       <c r="AC34" s="57"/>
       <c r="AD34" s="58"/>
       <c r="AE34" s="56"/>
@@ -4969,7 +5042,7 @@
       </c>
       <c r="AJ34" s="60">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK34" s="60">
         <f t="shared" si="2"/>
@@ -4978,7 +5051,7 @@
       <c r="AL34" s="57"/>
       <c r="AM34" s="60">
         <f t="shared" si="3"/>
-        <v>47.18181818181818</v>
+        <v>49.909090909090907</v>
       </c>
       <c r="AN34" s="57"/>
     </row>
@@ -5000,7 +5073,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="92"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="56">
         <v>8</v>
       </c>
@@ -5056,7 +5129,9 @@
       <c r="AA35" s="57">
         <v>10</v>
       </c>
-      <c r="AB35" s="57"/>
+      <c r="AB35" s="57">
+        <v>10</v>
+      </c>
       <c r="AC35" s="57"/>
       <c r="AD35" s="58"/>
       <c r="AE35" s="56"/>
@@ -5069,7 +5144,7 @@
       </c>
       <c r="AJ35" s="60">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK35" s="60">
         <f t="shared" si="2"/>
@@ -5078,7 +5153,7 @@
       <c r="AL35" s="57"/>
       <c r="AM35" s="60">
         <f t="shared" si="3"/>
-        <v>45.954545454545453</v>
+        <v>48.681818181818187</v>
       </c>
       <c r="AN35" s="57"/>
     </row>
@@ -5100,7 +5175,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="86"/>
+      <c r="H36" s="90"/>
       <c r="I36" s="56">
         <v>8</v>
       </c>
@@ -5156,7 +5231,9 @@
       <c r="AA36" s="57">
         <v>9</v>
       </c>
-      <c r="AB36" s="57"/>
+      <c r="AB36" s="57">
+        <v>9</v>
+      </c>
       <c r="AC36" s="57"/>
       <c r="AD36" s="58"/>
       <c r="AE36" s="56"/>
@@ -5169,7 +5246,7 @@
       </c>
       <c r="AJ36" s="60">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AK36" s="60">
         <f t="shared" si="2"/>
@@ -5178,7 +5255,7 @@
       <c r="AL36" s="57"/>
       <c r="AM36" s="60">
         <f t="shared" si="3"/>
-        <v>45.13636363636364</v>
+        <v>47.590909090909093</v>
       </c>
       <c r="AN36" s="57"/>
     </row>
@@ -5200,7 +5277,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="87"/>
+      <c r="H37" s="91"/>
       <c r="I37" s="56">
         <v>8</v>
       </c>
@@ -5256,7 +5333,9 @@
       <c r="AA37" s="57">
         <v>9</v>
       </c>
-      <c r="AB37" s="57"/>
+      <c r="AB37" s="57">
+        <v>9</v>
+      </c>
       <c r="AC37" s="57"/>
       <c r="AD37" s="58"/>
       <c r="AE37" s="56"/>
@@ -5269,7 +5348,7 @@
       </c>
       <c r="AJ37" s="60">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AK37" s="60">
         <f t="shared" si="2"/>
@@ -5278,7 +5357,7 @@
       <c r="AL37" s="57"/>
       <c r="AM37" s="60">
         <f t="shared" si="3"/>
-        <v>45.13636363636364</v>
+        <v>47.590909090909093</v>
       </c>
       <c r="AN37" s="57"/>
     </row>
@@ -5300,7 +5379,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="90"/>
+      <c r="H38" s="92"/>
       <c r="I38" s="56">
         <v>9</v>
       </c>
@@ -5356,7 +5435,9 @@
       <c r="AA38" s="57">
         <v>9</v>
       </c>
-      <c r="AB38" s="57"/>
+      <c r="AB38" s="57">
+        <v>8.5</v>
+      </c>
       <c r="AC38" s="57"/>
       <c r="AD38" s="58"/>
       <c r="AE38" s="56"/>
@@ -5369,7 +5450,7 @@
       </c>
       <c r="AJ38" s="60">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>80.5</v>
       </c>
       <c r="AK38" s="60">
         <f t="shared" si="2"/>
@@ -5378,7 +5459,7 @@
       <c r="AL38" s="57"/>
       <c r="AM38" s="60">
         <f t="shared" si="3"/>
-        <v>44.590909090909093</v>
+        <v>46.909090909090907</v>
       </c>
       <c r="AN38" s="57"/>
     </row>
@@ -5400,7 +5481,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="91"/>
+      <c r="H39" s="104"/>
       <c r="I39" s="56">
         <v>8</v>
       </c>
@@ -5456,7 +5537,9 @@
       <c r="AA39" s="57">
         <v>9</v>
       </c>
-      <c r="AB39" s="57"/>
+      <c r="AB39" s="57">
+        <v>8.5</v>
+      </c>
       <c r="AC39" s="57"/>
       <c r="AD39" s="58"/>
       <c r="AE39" s="56"/>
@@ -5469,7 +5552,7 @@
       </c>
       <c r="AJ39" s="60">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>80.5</v>
       </c>
       <c r="AK39" s="60">
         <f t="shared" si="2"/>
@@ -5478,7 +5561,7 @@
       <c r="AL39" s="57"/>
       <c r="AM39" s="60">
         <f t="shared" si="3"/>
-        <v>42.681818181818187</v>
+        <v>45</v>
       </c>
       <c r="AN39" s="57"/>
     </row>
@@ -5500,7 +5583,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="92"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="56">
         <v>9.5</v>
       </c>
@@ -5556,7 +5639,9 @@
       <c r="AA40" s="57">
         <v>9</v>
       </c>
-      <c r="AB40" s="57"/>
+      <c r="AB40" s="57">
+        <v>8.5</v>
+      </c>
       <c r="AC40" s="57"/>
       <c r="AD40" s="58"/>
       <c r="AE40" s="56"/>
@@ -5569,7 +5654,7 @@
       </c>
       <c r="AJ40" s="60">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>80.5</v>
       </c>
       <c r="AK40" s="60">
         <f t="shared" si="2"/>
@@ -5578,7 +5663,7 @@
       <c r="AL40" s="57"/>
       <c r="AM40" s="60">
         <f t="shared" si="3"/>
-        <v>40.772727272727273</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN40" s="57"/>
     </row>
@@ -5600,7 +5685,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="86"/>
+      <c r="H41" s="90"/>
       <c r="I41" s="56">
         <v>5.5</v>
       </c>
@@ -5656,7 +5741,9 @@
       <c r="AA41" s="57">
         <v>9</v>
       </c>
-      <c r="AB41" s="57"/>
+      <c r="AB41" s="57">
+        <v>9.5</v>
+      </c>
       <c r="AC41" s="57"/>
       <c r="AD41" s="58"/>
       <c r="AE41" s="56"/>
@@ -5669,7 +5756,7 @@
       </c>
       <c r="AJ41" s="60">
         <f t="shared" si="1"/>
-        <v>74.5</v>
+        <v>84</v>
       </c>
       <c r="AK41" s="60">
         <f t="shared" si="2"/>
@@ -5678,7 +5765,7 @@
       <c r="AL41" s="57"/>
       <c r="AM41" s="60">
         <f t="shared" si="3"/>
-        <v>33.954545454545453</v>
+        <v>36.545454545454547</v>
       </c>
       <c r="AN41" s="57"/>
     </row>
@@ -5700,7 +5787,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="87"/>
+      <c r="H42" s="91"/>
       <c r="I42" s="56">
         <v>7.5</v>
       </c>
@@ -5756,7 +5843,9 @@
       <c r="AA42" s="57">
         <v>9</v>
       </c>
-      <c r="AB42" s="57"/>
+      <c r="AB42" s="57">
+        <v>9.5</v>
+      </c>
       <c r="AC42" s="57"/>
       <c r="AD42" s="58"/>
       <c r="AE42" s="56"/>
@@ -5769,7 +5858,7 @@
       </c>
       <c r="AJ42" s="60">
         <f t="shared" si="1"/>
-        <v>74.5</v>
+        <v>84</v>
       </c>
       <c r="AK42" s="60">
         <f t="shared" si="2"/>
@@ -5778,7 +5867,7 @@
       <c r="AL42" s="57"/>
       <c r="AM42" s="60">
         <f t="shared" si="3"/>
-        <v>42.68181818181818</v>
+        <v>45.272727272727273</v>
       </c>
       <c r="AN42" s="57"/>
     </row>
@@ -5800,7 +5889,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="86"/>
+      <c r="H43" s="90"/>
       <c r="I43" s="56">
         <v>7.5</v>
       </c>
@@ -5856,7 +5945,9 @@
       <c r="AA43" s="57">
         <v>9</v>
       </c>
-      <c r="AB43" s="57"/>
+      <c r="AB43" s="57">
+        <v>8.5</v>
+      </c>
       <c r="AC43" s="57"/>
       <c r="AD43" s="58"/>
       <c r="AE43" s="56"/>
@@ -5869,7 +5960,7 @@
       </c>
       <c r="AJ43" s="60">
         <f t="shared" si="1"/>
-        <v>69.5</v>
+        <v>78</v>
       </c>
       <c r="AK43" s="60">
         <f t="shared" si="2"/>
@@ -5878,7 +5969,7 @@
       <c r="AL43" s="57"/>
       <c r="AM43" s="60">
         <f t="shared" si="3"/>
-        <v>41.72727272727272</v>
+        <v>44.045454545454547</v>
       </c>
       <c r="AN43" s="57"/>
     </row>
@@ -5900,7 +5991,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="87"/>
+      <c r="H44" s="91"/>
       <c r="I44" s="61">
         <v>0</v>
       </c>
@@ -5956,7 +6047,9 @@
       <c r="AA44" s="57">
         <v>9</v>
       </c>
-      <c r="AB44" s="57"/>
+      <c r="AB44" s="57">
+        <v>8.5</v>
+      </c>
       <c r="AC44" s="57"/>
       <c r="AD44" s="58"/>
       <c r="AE44" s="56"/>
@@ -5969,7 +6062,7 @@
       </c>
       <c r="AJ44" s="60">
         <f t="shared" si="1"/>
-        <v>69.5</v>
+        <v>78</v>
       </c>
       <c r="AK44" s="60">
         <f t="shared" si="2"/>
@@ -5978,7 +6071,7 @@
       <c r="AL44" s="57"/>
       <c r="AM44" s="60">
         <f t="shared" si="3"/>
-        <v>39.68181818181818</v>
+        <v>42</v>
       </c>
       <c r="AN44" s="57"/>
     </row>
@@ -6000,7 +6093,7 @@
       </c>
       <c r="F45" s="71"/>
       <c r="G45" s="71"/>
-      <c r="H45" s="93"/>
+      <c r="H45" s="105"/>
       <c r="I45" s="74">
         <v>10</v>
       </c>
@@ -6056,7 +6149,9 @@
       <c r="AA45" s="81">
         <v>10</v>
       </c>
-      <c r="AB45" s="81"/>
+      <c r="AB45" s="81">
+        <v>9.5</v>
+      </c>
       <c r="AC45" s="81"/>
       <c r="AD45" s="82"/>
       <c r="AE45" s="74"/>
@@ -6069,7 +6164,7 @@
       </c>
       <c r="AJ45" s="60">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>82</v>
       </c>
       <c r="AK45" s="60">
         <f t="shared" si="2"/>
@@ -6078,7 +6173,7 @@
       <c r="AL45" s="57"/>
       <c r="AM45" s="60">
         <f t="shared" si="3"/>
-        <v>43.772727272727273</v>
+        <v>46.36363636363636</v>
       </c>
       <c r="AN45" s="57"/>
     </row>
@@ -6100,7 +6195,7 @@
       </c>
       <c r="F46" s="75"/>
       <c r="G46" s="75"/>
-      <c r="H46" s="94"/>
+      <c r="H46" s="106"/>
       <c r="I46" s="74">
         <v>10</v>
       </c>
@@ -6156,7 +6251,9 @@
       <c r="AA46" s="81">
         <v>10</v>
       </c>
-      <c r="AB46" s="81"/>
+      <c r="AB46" s="81">
+        <v>9.5</v>
+      </c>
       <c r="AC46" s="81"/>
       <c r="AD46" s="82"/>
       <c r="AE46" s="74"/>
@@ -6169,7 +6266,7 @@
       </c>
       <c r="AJ46" s="60">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>82</v>
       </c>
       <c r="AK46" s="60">
         <f t="shared" si="2"/>
@@ -6178,7 +6275,7 @@
       <c r="AL46" s="57"/>
       <c r="AM46" s="60">
         <f t="shared" si="3"/>
-        <v>45.545454545454547</v>
+        <v>48.13636363636364</v>
       </c>
       <c r="AN46" s="57"/>
     </row>
@@ -6200,7 +6297,7 @@
       </c>
       <c r="F47" s="75"/>
       <c r="G47" s="75"/>
-      <c r="H47" s="88"/>
+      <c r="H47" s="102"/>
       <c r="I47" s="74">
         <v>8</v>
       </c>
@@ -6256,7 +6353,9 @@
       <c r="AA47" s="81">
         <v>8</v>
       </c>
-      <c r="AB47" s="81"/>
+      <c r="AB47" s="81">
+        <v>9</v>
+      </c>
       <c r="AC47" s="81"/>
       <c r="AD47" s="82"/>
       <c r="AE47" s="74"/>
@@ -6269,7 +6368,7 @@
       </c>
       <c r="AJ47" s="60">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>81.5</v>
       </c>
       <c r="AK47" s="60">
         <f t="shared" si="2"/>
@@ -6278,7 +6377,7 @@
       <c r="AL47" s="57"/>
       <c r="AM47" s="60">
         <f t="shared" si="3"/>
-        <v>45.409090909090907</v>
+        <v>47.86363636363636</v>
       </c>
       <c r="AN47" s="57"/>
     </row>
@@ -6300,7 +6399,7 @@
       </c>
       <c r="F48" s="77"/>
       <c r="G48" s="77"/>
-      <c r="H48" s="89"/>
+      <c r="H48" s="103"/>
       <c r="I48" s="74">
         <v>3.5</v>
       </c>
@@ -6356,7 +6455,9 @@
       <c r="AA48" s="81">
         <v>8</v>
       </c>
-      <c r="AB48" s="81"/>
+      <c r="AB48" s="81">
+        <v>9</v>
+      </c>
       <c r="AC48" s="81"/>
       <c r="AD48" s="82"/>
       <c r="AE48" s="74"/>
@@ -6369,7 +6470,7 @@
       </c>
       <c r="AJ48" s="60">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>81.5</v>
       </c>
       <c r="AK48" s="60">
         <f t="shared" si="2"/>
@@ -6378,7 +6479,7 @@
       <c r="AL48" s="57"/>
       <c r="AM48" s="60">
         <f t="shared" si="3"/>
-        <v>42.545454545454547</v>
+        <v>45</v>
       </c>
       <c r="AN48" s="57"/>
     </row>
@@ -6464,9 +6565,9 @@
         <f>AVERAGE(AA2:AA25)</f>
         <v>9.454545454545455</v>
       </c>
-      <c r="AB49" s="63" t="e">
+      <c r="AB49" s="63">
         <f>AVERAGE(AB2:AB32)</f>
-        <v>#DIV/0!</v>
+        <v>9.137931034482758</v>
       </c>
       <c r="AC49" s="63" t="e">
         <f>AVERAGE(AC2:AC25)</f>
@@ -6498,7 +6599,7 @@
       </c>
       <c r="AJ49" s="63">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>70.5</v>
+        <v>78.916666666666671</v>
       </c>
       <c r="AK49" s="63">
         <f>AVERAGE(AK2:AK25)</f>
@@ -6510,7 +6611,7 @@
       </c>
       <c r="AM49" s="63">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>41.914772727272727</v>
+        <v>44.210227272727273</v>
       </c>
       <c r="AN49" s="63"/>
     </row>
@@ -6596,9 +6697,9 @@
         <f t="shared" si="4"/>
         <v>9.2173913043478262</v>
       </c>
-      <c r="AB50" s="63" t="e">
+      <c r="AB50" s="63">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.0652173913043477</v>
       </c>
       <c r="AC50" s="63" t="e">
         <f t="shared" si="4"/>
@@ -6630,7 +6731,7 @@
       </c>
       <c r="AJ50" s="63">
         <f t="shared" si="4"/>
-        <v>71.782608695652172</v>
+        <v>80.847826086956516</v>
       </c>
       <c r="AK50" s="63">
         <f t="shared" si="4"/>
@@ -6642,7 +6743,7 @@
       </c>
       <c r="AM50" s="63">
         <f t="shared" si="4"/>
-        <v>43.310276679841884</v>
+        <v>45.782608695652172</v>
       </c>
       <c r="AN50" s="63"/>
     </row>
@@ -6728,9 +6829,9 @@
         <f t="shared" si="5"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="AB51" s="63" t="e">
+      <c r="AB51" s="63">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.1222222222222218</v>
       </c>
       <c r="AC51" s="63" t="e">
         <f t="shared" si="5"/>
@@ -6762,7 +6863,7 @@
       </c>
       <c r="AJ51" s="63">
         <f t="shared" si="5"/>
-        <v>71.127659574468083</v>
+        <v>79.861702127659569</v>
       </c>
       <c r="AK51" s="63">
         <f t="shared" si="5"/>
@@ -6774,7 +6875,7 @@
       </c>
       <c r="AM51" s="63">
         <f t="shared" si="5"/>
-        <v>42.59767891682786</v>
+        <v>44.979690522243715</v>
       </c>
       <c r="AN51" s="63"/>
     </row>
@@ -6860,9 +6961,9 @@
         <f t="shared" si="6"/>
         <v>0.63065622388689091</v>
       </c>
-      <c r="AB52" s="63" t="e">
+      <c r="AB52" s="63">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.61381404086879343</v>
       </c>
       <c r="AC52" s="63" t="e">
         <f t="shared" si="6"/>
@@ -6894,7 +6995,7 @@
       </c>
       <c r="AJ52" s="63">
         <f t="shared" si="6"/>
-        <v>12.094495732027282</v>
+        <v>13.917342218652323</v>
       </c>
       <c r="AK52" s="63">
         <f t="shared" si="6"/>
@@ -6906,7 +7007,7 @@
       </c>
       <c r="AM52" s="63">
         <f t="shared" si="6"/>
-        <v>7.9297919692659793</v>
+        <v>8.4285418056775239</v>
       </c>
       <c r="AN52" s="63"/>
     </row>
@@ -6994,7 +7095,7 @@
       </c>
       <c r="AB53" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC53" s="63">
         <f t="shared" si="7"/>
@@ -7026,7 +7127,7 @@
       </c>
       <c r="AJ53" s="63">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>88.5</v>
       </c>
       <c r="AK53" s="63">
         <f t="shared" si="7"/>
@@ -7038,7 +7139,7 @@
       </c>
       <c r="AM53" s="63">
         <f t="shared" si="7"/>
-        <v>48.409090909090907</v>
+        <v>50.727272727272727</v>
       </c>
       <c r="AN53" s="63"/>
     </row>
@@ -7126,7 +7227,7 @@
       </c>
       <c r="AB54" s="67">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC54" s="67">
         <f t="shared" si="8"/>
@@ -7176,6 +7277,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -7186,19 +7300,6 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7207,9 +7308,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7395,26 +7499,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7438,9 +7531,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF79A2-AE9A-4C02-ABA8-6F4BA388F903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17482321-6855-404A-9F06-8E1EEF45DED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,9 +1207,6 @@
     <xf numFmtId="176" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,6 +1315,37 @@
     <xf numFmtId="176" fontId="15" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,18 +1356,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,24 +1374,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,8 +1606,8 @@
   </sheetPr>
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1618,11 +1618,11 @@
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="30" width="11.42578125" style="69" customWidth="1"/>
-    <col min="31" max="37" width="12.5703125" style="69"/>
-    <col min="38" max="38" width="11.140625" style="69" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" style="69"/>
-    <col min="40" max="40" width="10.85546875" style="69" customWidth="1"/>
+    <col min="9" max="30" width="11.42578125" style="68" customWidth="1"/>
+    <col min="31" max="37" width="12.5703125" style="68"/>
+    <col min="38" max="38" width="11.140625" style="68" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" style="68"/>
+    <col min="40" max="40" width="10.85546875" style="68" customWidth="1"/>
     <col min="41" max="41" width="3.28515625" customWidth="1"/>
     <col min="43" max="43" width="2.140625" customWidth="1"/>
   </cols>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="100"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1792,13 +1792,15 @@
       <c r="P2" s="43">
         <v>10</v>
       </c>
-      <c r="Q2" s="84">
+      <c r="Q2" s="83">
         <v>9.5</v>
       </c>
       <c r="R2" s="43">
         <v>10</v>
       </c>
-      <c r="S2" s="44"/>
+      <c r="S2" s="44">
+        <v>9.5</v>
+      </c>
       <c r="T2" s="33">
         <v>9.5</v>
       </c>
@@ -1834,7 +1836,7 @@
       <c r="AH2" s="44"/>
       <c r="AI2" s="45">
         <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
-        <v>91.5</v>
+        <v>101</v>
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
@@ -1847,7 +1849,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>48.818181818181813</v>
+        <v>51.409090909090907</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1869,7 +1871,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="101"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1894,13 +1896,15 @@
       <c r="P3" s="43">
         <v>10</v>
       </c>
-      <c r="Q3" s="84">
+      <c r="Q3" s="83">
         <v>10</v>
       </c>
       <c r="R3" s="43">
         <v>10</v>
       </c>
-      <c r="S3" s="44"/>
+      <c r="S3" s="44">
+        <v>10</v>
+      </c>
       <c r="T3" s="33">
         <v>9.5</v>
       </c>
@@ -1936,7 +1940,7 @@
       <c r="AH3" s="44"/>
       <c r="AI3" s="45">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
@@ -1949,7 +1953,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>50.045454545454547</v>
+        <v>52.772727272727273</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1971,7 +1975,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -1996,13 +2000,15 @@
       <c r="P4" s="43">
         <v>10</v>
       </c>
-      <c r="Q4" s="84">
+      <c r="Q4" s="83">
         <v>9</v>
       </c>
       <c r="R4" s="43">
         <v>9</v>
       </c>
-      <c r="S4" s="44"/>
+      <c r="S4" s="44">
+        <v>8.5</v>
+      </c>
       <c r="T4" s="33">
         <v>10</v>
       </c>
@@ -2038,7 +2044,7 @@
       <c r="AH4" s="44"/>
       <c r="AI4" s="45">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>93.5</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
@@ -2051,7 +2057,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>47.318181818181813</v>
+        <v>49.63636363636364</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2073,7 +2079,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="101"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2098,13 +2104,15 @@
       <c r="P5" s="43">
         <v>10</v>
       </c>
-      <c r="Q5" s="84">
+      <c r="Q5" s="83">
         <v>8.5</v>
       </c>
       <c r="R5" s="43">
         <v>9</v>
       </c>
-      <c r="S5" s="44"/>
+      <c r="S5" s="44">
+        <v>10</v>
+      </c>
       <c r="T5" s="33">
         <v>10</v>
       </c>
@@ -2140,7 +2148,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="45">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>107.5</v>
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
@@ -2153,7 +2161,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>50.727272727272727</v>
+        <v>53.454545454545453</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2175,7 +2183,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="100"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2200,13 +2208,15 @@
       <c r="P6" s="43">
         <v>10</v>
       </c>
-      <c r="Q6" s="84">
+      <c r="Q6" s="83">
         <v>10</v>
       </c>
       <c r="R6" s="43">
         <v>9</v>
       </c>
-      <c r="S6" s="44"/>
+      <c r="S6" s="44">
+        <v>10</v>
+      </c>
       <c r="T6" s="33">
         <v>7</v>
       </c>
@@ -2242,7 +2252,7 @@
       <c r="AH6" s="44"/>
       <c r="AI6" s="45">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
@@ -2255,7 +2265,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>46.36363636363636</v>
+        <v>49.090909090909093</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2277,7 +2287,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="101"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2302,13 +2312,15 @@
       <c r="P7" s="43">
         <v>10</v>
       </c>
-      <c r="Q7" s="84">
+      <c r="Q7" s="83">
         <v>10</v>
       </c>
       <c r="R7" s="43">
         <v>10</v>
       </c>
-      <c r="S7" s="44"/>
+      <c r="S7" s="44">
+        <v>10</v>
+      </c>
       <c r="T7" s="33">
         <v>7</v>
       </c>
@@ -2344,7 +2356,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
@@ -2357,7 +2369,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>47.181818181818187</v>
+        <v>49.909090909090907</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2379,7 +2391,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="100"/>
+      <c r="H8" s="94"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2404,13 +2416,15 @@
       <c r="P8" s="43">
         <v>10</v>
       </c>
-      <c r="Q8" s="84">
+      <c r="Q8" s="83">
         <v>9</v>
       </c>
       <c r="R8" s="43">
         <v>10</v>
       </c>
-      <c r="S8" s="44"/>
+      <c r="S8" s="44">
+        <v>9.5</v>
+      </c>
       <c r="T8" s="33">
         <v>9</v>
       </c>
@@ -2446,7 +2460,7 @@
       <c r="AH8" s="44"/>
       <c r="AI8" s="45">
         <f t="shared" si="0"/>
-        <v>91.5</v>
+        <v>101</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
@@ -2459,7 +2473,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>48.545454545454547</v>
+        <v>51.13636363636364</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2481,7 +2495,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="101"/>
+      <c r="H9" s="95"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2506,13 +2520,15 @@
       <c r="P9" s="43">
         <v>10</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="83">
         <v>7.5</v>
       </c>
       <c r="R9" s="43">
         <v>9</v>
       </c>
-      <c r="S9" s="44"/>
+      <c r="S9" s="44">
+        <v>9</v>
+      </c>
       <c r="T9" s="33">
         <v>9</v>
       </c>
@@ -2548,7 +2564,7 @@
       <c r="AH9" s="44"/>
       <c r="AI9" s="45">
         <f t="shared" si="0"/>
-        <v>90.5</v>
+        <v>99.5</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
@@ -2561,7 +2577,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>48.272727272727273</v>
+        <v>50.727272727272727</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2583,7 +2599,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="100"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2608,13 +2624,15 @@
       <c r="P10" s="43">
         <v>10</v>
       </c>
-      <c r="Q10" s="84">
+      <c r="Q10" s="83">
         <v>8</v>
       </c>
       <c r="R10" s="43">
         <v>9</v>
       </c>
-      <c r="S10" s="44"/>
+      <c r="S10" s="44">
+        <v>9</v>
+      </c>
       <c r="T10" s="33">
         <v>10</v>
       </c>
@@ -2650,7 +2668,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>102.5</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
@@ -2663,7 +2681,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>49.5</v>
+        <v>51.954545454545453</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2685,7 +2703,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="101"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2710,13 +2728,15 @@
       <c r="P11" s="43">
         <v>10</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="83">
         <v>9</v>
       </c>
       <c r="R11" s="43">
         <v>9</v>
       </c>
-      <c r="S11" s="44"/>
+      <c r="S11" s="44">
+        <v>9.5</v>
+      </c>
       <c r="T11" s="33">
         <v>10</v>
       </c>
@@ -2752,7 +2772,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>99.5</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
@@ -2765,7 +2785,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>48.545454545454547</v>
+        <v>51.13636363636364</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2787,7 +2807,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="100"/>
+      <c r="H12" s="94"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2812,13 +2832,15 @@
       <c r="P12" s="43">
         <v>10</v>
       </c>
-      <c r="Q12" s="84">
+      <c r="Q12" s="83">
         <v>6</v>
       </c>
       <c r="R12" s="43">
         <v>8.5</v>
       </c>
-      <c r="S12" s="44"/>
+      <c r="S12" s="44">
+        <v>10</v>
+      </c>
       <c r="T12" s="33">
         <v>8.5</v>
       </c>
@@ -2854,7 +2876,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
@@ -2867,7 +2889,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>48.68181818181818</v>
+        <v>51.409090909090907</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2889,20 +2911,20 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="101"/>
+      <c r="H13" s="95"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="82">
         <v>7.5</v>
       </c>
-      <c r="K13" s="84">
-        <v>9.5</v>
-      </c>
-      <c r="L13" s="84">
-        <v>10</v>
-      </c>
-      <c r="M13" s="84">
+      <c r="K13" s="83">
+        <v>9.5</v>
+      </c>
+      <c r="L13" s="83">
+        <v>10</v>
+      </c>
+      <c r="M13" s="83">
         <v>8</v>
       </c>
       <c r="N13" s="43">
@@ -2914,23 +2936,25 @@
       <c r="P13" s="43">
         <v>10</v>
       </c>
-      <c r="Q13" s="84">
-        <v>9</v>
-      </c>
-      <c r="R13" s="84">
-        <v>10</v>
-      </c>
-      <c r="S13" s="47"/>
+      <c r="Q13" s="83">
+        <v>9</v>
+      </c>
+      <c r="R13" s="83">
+        <v>10</v>
+      </c>
+      <c r="S13" s="106">
+        <v>8</v>
+      </c>
       <c r="T13" s="33">
         <v>8.5</v>
       </c>
-      <c r="U13" s="83">
-        <v>10</v>
-      </c>
-      <c r="V13" s="83">
-        <v>10</v>
-      </c>
-      <c r="W13" s="83">
+      <c r="U13" s="82">
+        <v>10</v>
+      </c>
+      <c r="V13" s="82">
+        <v>10</v>
+      </c>
+      <c r="W13" s="82">
         <v>9.5</v>
       </c>
       <c r="X13" s="43">
@@ -2945,7 +2969,7 @@
       <c r="AA13" s="43">
         <v>10</v>
       </c>
-      <c r="AB13" s="83">
+      <c r="AB13" s="82">
         <v>10</v>
       </c>
       <c r="AC13" s="46"/>
@@ -2956,7 +2980,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
@@ -2969,7 +2993,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>48.13636363636364</v>
+        <v>50.318181818181813</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -2991,7 +3015,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="100"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -3016,13 +3040,15 @@
       <c r="P14" s="43">
         <v>9</v>
       </c>
-      <c r="Q14" s="84">
+      <c r="Q14" s="83">
         <v>10</v>
       </c>
       <c r="R14" s="43">
         <v>8.5</v>
       </c>
-      <c r="S14" s="44"/>
+      <c r="S14" s="44">
+        <v>9.5</v>
+      </c>
       <c r="T14" s="33">
         <v>10</v>
       </c>
@@ -3047,7 +3073,7 @@
       <c r="AA14" s="43">
         <v>9</v>
       </c>
-      <c r="AB14" s="83">
+      <c r="AB14" s="82">
         <v>8</v>
       </c>
       <c r="AC14" s="43"/>
@@ -3058,7 +3084,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>98</v>
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
@@ -3071,7 +3097,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>47.045454545454547</v>
+        <v>49.63636363636364</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -3093,7 +3119,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="101"/>
+      <c r="H15" s="95"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -3118,13 +3144,15 @@
       <c r="P15" s="43">
         <v>10</v>
       </c>
-      <c r="Q15" s="84">
+      <c r="Q15" s="83">
         <v>7.5</v>
       </c>
       <c r="R15" s="43">
         <v>8</v>
       </c>
-      <c r="S15" s="44"/>
+      <c r="S15" s="44">
+        <v>7</v>
+      </c>
       <c r="T15" s="33">
         <v>10</v>
       </c>
@@ -3149,7 +3177,7 @@
       <c r="AA15" s="43">
         <v>9</v>
       </c>
-      <c r="AB15" s="83">
+      <c r="AB15" s="82">
         <v>8</v>
       </c>
       <c r="AC15" s="43"/>
@@ -3160,7 +3188,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
@@ -3173,7 +3201,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>45.272727272727273</v>
+        <v>47.181818181818187</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -3195,8 +3223,8 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="80">
+      <c r="H16" s="98"/>
+      <c r="I16" s="79">
         <v>0</v>
       </c>
       <c r="J16" s="43">
@@ -3208,7 +3236,7 @@
       <c r="N16" s="43"/>
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
-      <c r="Q16" s="84"/>
+      <c r="Q16" s="83"/>
       <c r="R16" s="43"/>
       <c r="S16" s="44"/>
       <c r="T16" s="33">
@@ -3223,7 +3251,7 @@
       <c r="Y16" s="43"/>
       <c r="Z16" s="43"/>
       <c r="AA16" s="43"/>
-      <c r="AB16" s="83"/>
+      <c r="AB16" s="82"/>
       <c r="AC16" s="43"/>
       <c r="AD16" s="44"/>
       <c r="AE16" s="33"/>
@@ -3267,8 +3295,8 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="80">
+      <c r="H17" s="99"/>
+      <c r="I17" s="79">
         <v>0</v>
       </c>
       <c r="J17" s="43">
@@ -3292,13 +3320,15 @@
       <c r="P17" s="43">
         <v>9.5</v>
       </c>
-      <c r="Q17" s="84">
+      <c r="Q17" s="83">
         <v>9</v>
       </c>
       <c r="R17" s="43">
         <v>9</v>
       </c>
-      <c r="S17" s="44"/>
+      <c r="S17" s="44">
+        <v>7.5</v>
+      </c>
       <c r="T17" s="33">
         <v>8.5</v>
       </c>
@@ -3323,7 +3353,7 @@
       <c r="AA17" s="43">
         <v>9</v>
       </c>
-      <c r="AB17" s="83">
+      <c r="AB17" s="82">
         <v>9</v>
       </c>
       <c r="AC17" s="43"/>
@@ -3334,7 +3364,7 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="45">
         <f t="shared" si="0"/>
-        <v>84.5</v>
+        <v>92</v>
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
@@ -3347,7 +3377,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>45.27272727272728</v>
+        <v>47.31818181818182</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3369,7 +3399,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="86"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3394,13 +3424,15 @@
       <c r="P18" s="43">
         <v>9.5</v>
       </c>
-      <c r="Q18" s="84">
+      <c r="Q18" s="83">
         <v>10</v>
       </c>
       <c r="R18" s="43">
         <v>9</v>
       </c>
-      <c r="S18" s="44"/>
+      <c r="S18" s="44">
+        <v>9.5</v>
+      </c>
       <c r="T18" s="33">
         <v>8.5</v>
       </c>
@@ -3425,7 +3457,7 @@
       <c r="AA18" s="43">
         <v>9</v>
       </c>
-      <c r="AB18" s="83">
+      <c r="AB18" s="82">
         <v>9.5</v>
       </c>
       <c r="AC18" s="43"/>
@@ -3436,7 +3468,7 @@
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>105</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
@@ -3449,7 +3481,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>47.863636363636367</v>
+        <v>50.454545454545453</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3471,7 +3503,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="87"/>
+      <c r="H19" s="97"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3496,13 +3528,15 @@
       <c r="P19" s="43">
         <v>10</v>
       </c>
-      <c r="Q19" s="84">
+      <c r="Q19" s="83">
         <v>8.5</v>
       </c>
       <c r="R19" s="43">
         <v>9</v>
       </c>
-      <c r="S19" s="44"/>
+      <c r="S19" s="44">
+        <v>9</v>
+      </c>
       <c r="T19" s="33">
         <v>8.5</v>
       </c>
@@ -3527,7 +3561,7 @@
       <c r="AA19" s="43">
         <v>9</v>
       </c>
-      <c r="AB19" s="83">
+      <c r="AB19" s="82">
         <v>9.5</v>
       </c>
       <c r="AC19" s="43"/>
@@ -3538,7 +3572,7 @@
       <c r="AH19" s="44"/>
       <c r="AI19" s="45">
         <f t="shared" si="0"/>
-        <v>86.5</v>
+        <v>95.5</v>
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
@@ -3551,7 +3585,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>45.409090909090907</v>
+        <v>47.863636363636367</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3573,7 +3607,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="86"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3598,13 +3632,15 @@
       <c r="P20" s="43">
         <v>10</v>
       </c>
-      <c r="Q20" s="84">
+      <c r="Q20" s="83">
         <v>9</v>
       </c>
       <c r="R20" s="43">
         <v>10</v>
       </c>
-      <c r="S20" s="44"/>
+      <c r="S20" s="44">
+        <v>8</v>
+      </c>
       <c r="T20" s="33">
         <v>7</v>
       </c>
@@ -3640,7 +3676,7 @@
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>103.5</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
@@ -3653,7 +3689,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>47.863636363636367</v>
+        <v>50.045454545454547</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3675,8 +3711,8 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="80">
+      <c r="H21" s="97"/>
+      <c r="I21" s="79">
         <v>0</v>
       </c>
       <c r="J21" s="43">
@@ -3688,7 +3724,7 @@
       <c r="N21" s="43"/>
       <c r="O21" s="43"/>
       <c r="P21" s="43"/>
-      <c r="Q21" s="84"/>
+      <c r="Q21" s="83"/>
       <c r="R21" s="43"/>
       <c r="S21" s="44"/>
       <c r="T21" s="33">
@@ -3747,7 +3783,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="98"/>
+      <c r="H22" s="104"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3772,13 +3808,15 @@
       <c r="P22" s="43">
         <v>10</v>
       </c>
-      <c r="Q22" s="84">
+      <c r="Q22" s="83">
         <v>9.5</v>
       </c>
       <c r="R22" s="43">
         <v>8</v>
       </c>
-      <c r="S22" s="44"/>
+      <c r="S22" s="44">
+        <v>9</v>
+      </c>
       <c r="T22" s="33">
         <v>10</v>
       </c>
@@ -3814,7 +3852,7 @@
       <c r="AH22" s="44"/>
       <c r="AI22" s="45">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>96.5</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
@@ -3827,7 +3865,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>47.590909090909093</v>
+        <v>50.045454545454547</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3849,7 +3887,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="99"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3874,13 +3912,15 @@
       <c r="P23" s="43">
         <v>9.5</v>
       </c>
-      <c r="Q23" s="84">
+      <c r="Q23" s="83">
         <v>7</v>
       </c>
       <c r="R23" s="43">
         <v>8</v>
       </c>
-      <c r="S23" s="44"/>
+      <c r="S23" s="44">
+        <v>9.5</v>
+      </c>
       <c r="T23" s="33">
         <v>10</v>
       </c>
@@ -3916,7 +3956,7 @@
       <c r="AH23" s="44"/>
       <c r="AI23" s="45">
         <f t="shared" si="0"/>
-        <v>89.5</v>
+        <v>99</v>
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
@@ -3929,7 +3969,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>48.136363636363633</v>
+        <v>50.727272727272727</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3951,8 +3991,8 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="80">
+      <c r="H24" s="96"/>
+      <c r="I24" s="79">
         <v>0</v>
       </c>
       <c r="J24" s="43">
@@ -3976,13 +4016,15 @@
       <c r="P24" s="43">
         <v>9</v>
       </c>
-      <c r="Q24" s="84">
+      <c r="Q24" s="83">
         <v>9.5</v>
       </c>
       <c r="R24" s="43">
         <v>9.5</v>
       </c>
-      <c r="S24" s="44"/>
+      <c r="S24" s="44">
+        <v>10</v>
+      </c>
       <c r="T24" s="33">
         <v>9</v>
       </c>
@@ -4018,7 +4060,7 @@
       <c r="AH24" s="44"/>
       <c r="AI24" s="45">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
@@ -4031,7 +4073,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>44.863636363636367</v>
+        <v>47.590909090909093</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -4053,89 +4095,91 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="48">
+      <c r="H25" s="103"/>
+      <c r="I25" s="47">
         <v>8.5</v>
       </c>
-      <c r="J25" s="49">
+      <c r="J25" s="48">
         <v>6.5</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="48">
         <v>8.5</v>
       </c>
-      <c r="L25" s="49">
-        <v>9.5</v>
-      </c>
-      <c r="M25" s="49">
+      <c r="L25" s="48">
+        <v>9.5</v>
+      </c>
+      <c r="M25" s="48">
         <v>7</v>
       </c>
-      <c r="N25" s="49">
-        <v>9</v>
-      </c>
-      <c r="O25" s="49">
+      <c r="N25" s="48">
+        <v>9</v>
+      </c>
+      <c r="O25" s="48">
         <v>8.5</v>
       </c>
-      <c r="P25" s="49">
-        <v>9</v>
-      </c>
-      <c r="Q25" s="85">
-        <v>8</v>
-      </c>
-      <c r="R25" s="49">
-        <v>9</v>
-      </c>
-      <c r="S25" s="50"/>
-      <c r="T25" s="48">
-        <v>9</v>
-      </c>
-      <c r="U25" s="49">
-        <v>10</v>
-      </c>
-      <c r="V25" s="49">
+      <c r="P25" s="48">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="84">
+        <v>8</v>
+      </c>
+      <c r="R25" s="48">
+        <v>9</v>
+      </c>
+      <c r="S25" s="49">
+        <v>10</v>
+      </c>
+      <c r="T25" s="47">
+        <v>9</v>
+      </c>
+      <c r="U25" s="48">
+        <v>10</v>
+      </c>
+      <c r="V25" s="48">
         <v>7</v>
       </c>
-      <c r="W25" s="49">
-        <v>9.5</v>
-      </c>
-      <c r="X25" s="49">
+      <c r="W25" s="48">
+        <v>9.5</v>
+      </c>
+      <c r="X25" s="48">
         <v>8.5</v>
       </c>
-      <c r="Y25" s="49">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="49">
-        <v>9.5</v>
-      </c>
-      <c r="AA25" s="49">
-        <v>10</v>
-      </c>
-      <c r="AB25" s="49">
-        <v>8</v>
-      </c>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="50"/>
-      <c r="AI25" s="48">
+      <c r="Y25" s="48">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="48">
+        <v>9.5</v>
+      </c>
+      <c r="AA25" s="48">
+        <v>10</v>
+      </c>
+      <c r="AB25" s="48">
+        <v>8</v>
+      </c>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="47">
         <f t="shared" si="0"/>
-        <v>83.5</v>
-      </c>
-      <c r="AJ25" s="49">
+        <v>93.5</v>
+      </c>
+      <c r="AJ25" s="48">
         <f t="shared" si="1"/>
         <v>81.5</v>
       </c>
-      <c r="AK25" s="49">
+      <c r="AK25" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49">
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="AN25" s="49"/>
+        <v>47.727272727272734</v>
+      </c>
+      <c r="AN25" s="48"/>
     </row>
     <row r="26" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
@@ -4155,89 +4199,89 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="51">
+      <c r="H26" s="100"/>
+      <c r="I26" s="50">
         <v>5.5</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="51">
         <v>8.5</v>
       </c>
-      <c r="K26" s="52">
-        <v>9</v>
-      </c>
-      <c r="L26" s="52">
-        <v>10</v>
-      </c>
-      <c r="M26" s="52">
-        <v>10</v>
-      </c>
-      <c r="N26" s="52">
-        <v>10</v>
-      </c>
-      <c r="O26" s="52">
-        <v>9</v>
-      </c>
-      <c r="P26" s="52">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="52">
-        <v>10</v>
-      </c>
-      <c r="R26" s="52">
-        <v>9</v>
-      </c>
-      <c r="S26" s="53"/>
-      <c r="T26" s="51">
+      <c r="K26" s="51">
+        <v>9</v>
+      </c>
+      <c r="L26" s="51">
+        <v>10</v>
+      </c>
+      <c r="M26" s="51">
+        <v>10</v>
+      </c>
+      <c r="N26" s="51">
+        <v>10</v>
+      </c>
+      <c r="O26" s="51">
+        <v>9</v>
+      </c>
+      <c r="P26" s="51">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="51">
+        <v>10</v>
+      </c>
+      <c r="R26" s="51">
+        <v>9</v>
+      </c>
+      <c r="S26" s="52"/>
+      <c r="T26" s="50">
         <v>7.5</v>
       </c>
-      <c r="U26" s="52">
-        <v>9</v>
-      </c>
-      <c r="V26" s="52">
-        <v>9</v>
-      </c>
-      <c r="W26" s="52">
-        <v>10</v>
-      </c>
-      <c r="X26" s="52">
-        <v>9</v>
-      </c>
-      <c r="Y26" s="52">
-        <v>10</v>
-      </c>
-      <c r="Z26" s="52">
-        <v>10</v>
-      </c>
-      <c r="AA26" s="52">
-        <v>9</v>
-      </c>
-      <c r="AB26" s="52">
-        <v>9</v>
-      </c>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="54">
+      <c r="U26" s="51">
+        <v>9</v>
+      </c>
+      <c r="V26" s="51">
+        <v>9</v>
+      </c>
+      <c r="W26" s="51">
+        <v>10</v>
+      </c>
+      <c r="X26" s="51">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="51">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="51">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="51">
+        <v>9</v>
+      </c>
+      <c r="AB26" s="51">
+        <v>9</v>
+      </c>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="53">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="AJ26" s="55">
+      <c r="AJ26" s="54">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-      <c r="AK26" s="55">
+      <c r="AK26" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="55">
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="54">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
         <v>47.318181818181813</v>
       </c>
-      <c r="AN26" s="52"/>
+      <c r="AN26" s="51"/>
     </row>
     <row r="27" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
@@ -4257,89 +4301,89 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="56">
+      <c r="H27" s="101"/>
+      <c r="I27" s="55">
         <v>7</v>
       </c>
-      <c r="J27" s="57">
-        <v>10</v>
-      </c>
-      <c r="K27" s="57">
-        <v>8</v>
-      </c>
-      <c r="L27" s="57">
-        <v>10</v>
-      </c>
-      <c r="M27" s="57">
+      <c r="J27" s="56">
+        <v>10</v>
+      </c>
+      <c r="K27" s="56">
+        <v>8</v>
+      </c>
+      <c r="L27" s="56">
+        <v>10</v>
+      </c>
+      <c r="M27" s="56">
         <v>5.5</v>
       </c>
-      <c r="N27" s="57">
-        <v>10</v>
-      </c>
-      <c r="O27" s="57">
-        <v>10</v>
-      </c>
-      <c r="P27" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="57">
-        <v>9</v>
-      </c>
-      <c r="R27" s="57">
-        <v>9</v>
-      </c>
-      <c r="S27" s="58"/>
-      <c r="T27" s="56">
+      <c r="N27" s="56">
+        <v>10</v>
+      </c>
+      <c r="O27" s="56">
+        <v>10</v>
+      </c>
+      <c r="P27" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="56">
+        <v>9</v>
+      </c>
+      <c r="R27" s="56">
+        <v>9</v>
+      </c>
+      <c r="S27" s="57"/>
+      <c r="T27" s="55">
         <v>7.5</v>
       </c>
-      <c r="U27" s="57">
-        <v>9</v>
-      </c>
-      <c r="V27" s="57">
-        <v>9</v>
-      </c>
-      <c r="W27" s="57">
-        <v>10</v>
-      </c>
-      <c r="X27" s="57">
-        <v>9</v>
-      </c>
-      <c r="Y27" s="57">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="57">
-        <v>10</v>
-      </c>
-      <c r="AA27" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB27" s="57">
-        <v>9</v>
-      </c>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="59">
+      <c r="U27" s="56">
+        <v>9</v>
+      </c>
+      <c r="V27" s="56">
+        <v>9</v>
+      </c>
+      <c r="W27" s="56">
+        <v>10</v>
+      </c>
+      <c r="X27" s="56">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="56">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="56">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB27" s="56">
+        <v>9</v>
+      </c>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="58">
         <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
-      <c r="AJ27" s="60">
+      <c r="AJ27" s="59">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-      <c r="AK27" s="60">
+      <c r="AK27" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="60">
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="59">
         <f t="shared" si="3"/>
         <v>46.63636363636364</v>
       </c>
-      <c r="AN27" s="57"/>
+      <c r="AN27" s="56"/>
     </row>
     <row r="28" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
@@ -4359,89 +4403,89 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="56">
-        <v>8</v>
-      </c>
-      <c r="J28" s="57">
+      <c r="H28" s="102"/>
+      <c r="I28" s="55">
+        <v>8</v>
+      </c>
+      <c r="J28" s="56">
         <v>8.5</v>
       </c>
-      <c r="K28" s="57">
-        <v>10</v>
-      </c>
-      <c r="L28" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="M28" s="57">
-        <v>9</v>
-      </c>
-      <c r="N28" s="57">
-        <v>9</v>
-      </c>
-      <c r="O28" s="57">
-        <v>9</v>
-      </c>
-      <c r="P28" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="57">
-        <v>9</v>
-      </c>
-      <c r="R28" s="57">
+      <c r="K28" s="56">
+        <v>10</v>
+      </c>
+      <c r="L28" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="M28" s="56">
+        <v>9</v>
+      </c>
+      <c r="N28" s="56">
+        <v>9</v>
+      </c>
+      <c r="O28" s="56">
+        <v>9</v>
+      </c>
+      <c r="P28" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="56">
+        <v>9</v>
+      </c>
+      <c r="R28" s="56">
         <v>7.5</v>
       </c>
-      <c r="S28" s="58"/>
-      <c r="T28" s="56">
-        <v>8</v>
-      </c>
-      <c r="U28" s="57">
+      <c r="S28" s="57"/>
+      <c r="T28" s="55">
+        <v>8</v>
+      </c>
+      <c r="U28" s="56">
         <v>7</v>
       </c>
-      <c r="V28" s="57">
+      <c r="V28" s="56">
         <v>6</v>
       </c>
-      <c r="W28" s="57">
-        <v>9</v>
-      </c>
-      <c r="X28" s="57">
-        <v>8</v>
-      </c>
-      <c r="Y28" s="57">
-        <v>8</v>
-      </c>
-      <c r="Z28" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AA28" s="57">
-        <v>10</v>
-      </c>
-      <c r="AB28" s="57">
-        <v>9</v>
-      </c>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="59">
+      <c r="W28" s="56">
+        <v>9</v>
+      </c>
+      <c r="X28" s="56">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="56">
+        <v>8</v>
+      </c>
+      <c r="Z28" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AA28" s="56">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="56">
+        <v>9</v>
+      </c>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="58">
         <f t="shared" si="0"/>
         <v>89.5</v>
       </c>
-      <c r="AJ28" s="60">
+      <c r="AJ28" s="59">
         <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
-      <c r="AK28" s="60">
+      <c r="AK28" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="60">
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="59">
         <f t="shared" si="3"/>
         <v>44.72727272727272</v>
       </c>
-      <c r="AN28" s="57"/>
+      <c r="AN28" s="56"/>
     </row>
     <row r="29" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
@@ -4461,89 +4505,89 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="56">
-        <v>10</v>
-      </c>
-      <c r="J29" s="57">
-        <v>10</v>
-      </c>
-      <c r="K29" s="57">
-        <v>10</v>
-      </c>
-      <c r="L29" s="57">
-        <v>10</v>
-      </c>
-      <c r="M29" s="57">
-        <v>9</v>
-      </c>
-      <c r="N29" s="57">
-        <v>10</v>
-      </c>
-      <c r="O29" s="57">
-        <v>9</v>
-      </c>
-      <c r="P29" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="57">
-        <v>10</v>
-      </c>
-      <c r="R29" s="57">
-        <v>9</v>
-      </c>
-      <c r="S29" s="58"/>
-      <c r="T29" s="56">
-        <v>8</v>
-      </c>
-      <c r="U29" s="57">
+      <c r="H29" s="101"/>
+      <c r="I29" s="55">
+        <v>10</v>
+      </c>
+      <c r="J29" s="56">
+        <v>10</v>
+      </c>
+      <c r="K29" s="56">
+        <v>10</v>
+      </c>
+      <c r="L29" s="56">
+        <v>10</v>
+      </c>
+      <c r="M29" s="56">
+        <v>9</v>
+      </c>
+      <c r="N29" s="56">
+        <v>10</v>
+      </c>
+      <c r="O29" s="56">
+        <v>9</v>
+      </c>
+      <c r="P29" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="56">
+        <v>10</v>
+      </c>
+      <c r="R29" s="56">
+        <v>9</v>
+      </c>
+      <c r="S29" s="57"/>
+      <c r="T29" s="55">
+        <v>8</v>
+      </c>
+      <c r="U29" s="56">
         <v>7</v>
       </c>
-      <c r="V29" s="57">
+      <c r="V29" s="56">
         <v>6</v>
       </c>
-      <c r="W29" s="57">
-        <v>9</v>
-      </c>
-      <c r="X29" s="57">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="57">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AA29" s="57">
-        <v>10</v>
-      </c>
-      <c r="AB29" s="57">
-        <v>9</v>
-      </c>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="59">
+      <c r="W29" s="56">
+        <v>9</v>
+      </c>
+      <c r="X29" s="56">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="56">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AA29" s="56">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="56">
+        <v>9</v>
+      </c>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="58">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="AJ29" s="60">
+      <c r="AJ29" s="59">
         <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
-      <c r="AK29" s="60">
+      <c r="AK29" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="60">
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="59">
         <f t="shared" si="3"/>
         <v>46.772727272727266</v>
       </c>
-      <c r="AN29" s="57"/>
+      <c r="AN29" s="56"/>
     </row>
     <row r="30" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
@@ -4563,89 +4607,89 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="56">
-        <v>9</v>
-      </c>
-      <c r="J30" s="57">
-        <v>8</v>
-      </c>
-      <c r="K30" s="57">
-        <v>9</v>
-      </c>
-      <c r="L30" s="57">
-        <v>10</v>
-      </c>
-      <c r="M30" s="57">
-        <v>9</v>
-      </c>
-      <c r="N30" s="57">
-        <v>10</v>
-      </c>
-      <c r="O30" s="57">
-        <v>10</v>
-      </c>
-      <c r="P30" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="R30" s="57">
-        <v>10</v>
-      </c>
-      <c r="S30" s="58"/>
-      <c r="T30" s="56">
-        <v>10</v>
-      </c>
-      <c r="U30" s="57">
-        <v>10</v>
-      </c>
-      <c r="V30" s="57">
-        <v>9</v>
-      </c>
-      <c r="W30" s="57">
-        <v>10</v>
-      </c>
-      <c r="X30" s="57">
-        <v>10</v>
-      </c>
-      <c r="Y30" s="57">
-        <v>10</v>
-      </c>
-      <c r="Z30" s="57">
-        <v>9</v>
-      </c>
-      <c r="AA30" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB30" s="57">
-        <v>9</v>
-      </c>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="59">
+      <c r="H30" s="102"/>
+      <c r="I30" s="55">
+        <v>9</v>
+      </c>
+      <c r="J30" s="56">
+        <v>8</v>
+      </c>
+      <c r="K30" s="56">
+        <v>9</v>
+      </c>
+      <c r="L30" s="56">
+        <v>10</v>
+      </c>
+      <c r="M30" s="56">
+        <v>9</v>
+      </c>
+      <c r="N30" s="56">
+        <v>10</v>
+      </c>
+      <c r="O30" s="56">
+        <v>10</v>
+      </c>
+      <c r="P30" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="R30" s="56">
+        <v>10</v>
+      </c>
+      <c r="S30" s="57"/>
+      <c r="T30" s="55">
+        <v>10</v>
+      </c>
+      <c r="U30" s="56">
+        <v>10</v>
+      </c>
+      <c r="V30" s="56">
+        <v>9</v>
+      </c>
+      <c r="W30" s="56">
+        <v>10</v>
+      </c>
+      <c r="X30" s="56">
+        <v>10</v>
+      </c>
+      <c r="Y30" s="56">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="56">
+        <v>9</v>
+      </c>
+      <c r="AA30" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB30" s="56">
+        <v>9</v>
+      </c>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="58">
         <f t="shared" si="0"/>
         <v>94.5</v>
       </c>
-      <c r="AJ30" s="60">
+      <c r="AJ30" s="59">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="AK30" s="60">
+      <c r="AK30" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="60">
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="59">
         <f t="shared" si="3"/>
         <v>49.227272727272734</v>
       </c>
-      <c r="AN30" s="57"/>
+      <c r="AN30" s="56"/>
     </row>
     <row r="31" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
@@ -4665,89 +4709,89 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="56">
-        <v>8</v>
-      </c>
-      <c r="J31" s="57">
-        <v>10</v>
-      </c>
-      <c r="K31" s="57">
-        <v>9</v>
-      </c>
-      <c r="L31" s="57">
-        <v>10</v>
-      </c>
-      <c r="M31" s="57">
-        <v>10</v>
-      </c>
-      <c r="N31" s="57">
-        <v>10</v>
-      </c>
-      <c r="O31" s="57">
-        <v>9</v>
-      </c>
-      <c r="P31" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="57">
-        <v>10</v>
-      </c>
-      <c r="R31" s="57">
-        <v>9</v>
-      </c>
-      <c r="S31" s="58"/>
-      <c r="T31" s="56">
-        <v>10</v>
-      </c>
-      <c r="U31" s="57">
-        <v>10</v>
-      </c>
-      <c r="V31" s="57">
-        <v>9</v>
-      </c>
-      <c r="W31" s="57">
-        <v>10</v>
-      </c>
-      <c r="X31" s="57">
-        <v>10</v>
-      </c>
-      <c r="Y31" s="57">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="57">
-        <v>9</v>
-      </c>
-      <c r="AA31" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB31" s="57">
-        <v>9</v>
-      </c>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="59">
+      <c r="H31" s="101"/>
+      <c r="I31" s="55">
+        <v>8</v>
+      </c>
+      <c r="J31" s="56">
+        <v>10</v>
+      </c>
+      <c r="K31" s="56">
+        <v>9</v>
+      </c>
+      <c r="L31" s="56">
+        <v>10</v>
+      </c>
+      <c r="M31" s="56">
+        <v>10</v>
+      </c>
+      <c r="N31" s="56">
+        <v>10</v>
+      </c>
+      <c r="O31" s="56">
+        <v>9</v>
+      </c>
+      <c r="P31" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="56">
+        <v>10</v>
+      </c>
+      <c r="R31" s="56">
+        <v>9</v>
+      </c>
+      <c r="S31" s="57"/>
+      <c r="T31" s="55">
+        <v>10</v>
+      </c>
+      <c r="U31" s="56">
+        <v>10</v>
+      </c>
+      <c r="V31" s="56">
+        <v>9</v>
+      </c>
+      <c r="W31" s="56">
+        <v>10</v>
+      </c>
+      <c r="X31" s="56">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="56">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="56">
+        <v>9</v>
+      </c>
+      <c r="AA31" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB31" s="56">
+        <v>9</v>
+      </c>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="58">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="AJ31" s="60">
+      <c r="AJ31" s="59">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="AK31" s="60">
+      <c r="AK31" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="60">
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="59">
         <f t="shared" si="3"/>
         <v>49.363636363636367</v>
       </c>
-      <c r="AN31" s="57"/>
+      <c r="AN31" s="56"/>
     </row>
     <row r="32" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
@@ -4767,89 +4811,89 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="56">
+      <c r="H32" s="85"/>
+      <c r="I32" s="55">
         <v>5.5</v>
       </c>
-      <c r="J32" s="57">
-        <v>9</v>
-      </c>
-      <c r="K32" s="57">
+      <c r="J32" s="56">
+        <v>9</v>
+      </c>
+      <c r="K32" s="56">
         <v>7</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="56">
         <v>7.5</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="56">
         <v>7</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="56">
         <v>7</v>
       </c>
-      <c r="O32" s="57">
-        <v>10</v>
-      </c>
-      <c r="P32" s="57">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="R32" s="57">
-        <v>9</v>
-      </c>
-      <c r="S32" s="58"/>
-      <c r="T32" s="56">
+      <c r="O32" s="56">
+        <v>10</v>
+      </c>
+      <c r="P32" s="56">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="R32" s="56">
+        <v>9</v>
+      </c>
+      <c r="S32" s="57"/>
+      <c r="T32" s="55">
         <v>6</v>
       </c>
-      <c r="U32" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="V32" s="57">
-        <v>9</v>
-      </c>
-      <c r="W32" s="57">
-        <v>9</v>
-      </c>
-      <c r="X32" s="57">
+      <c r="U32" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="V32" s="56">
+        <v>9</v>
+      </c>
+      <c r="W32" s="56">
+        <v>9</v>
+      </c>
+      <c r="X32" s="56">
         <v>3.5</v>
       </c>
-      <c r="Y32" s="57">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="57">
-        <v>8</v>
-      </c>
-      <c r="AA32" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AB32" s="57">
-        <v>9</v>
-      </c>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="58"/>
-      <c r="AI32" s="59">
+      <c r="Y32" s="56">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="56">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AB32" s="56">
+        <v>9</v>
+      </c>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="58">
         <f t="shared" si="0"/>
         <v>80.5</v>
       </c>
-      <c r="AJ32" s="60">
+      <c r="AJ32" s="59">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="AK32" s="60">
+      <c r="AK32" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="60">
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="59">
         <f t="shared" si="3"/>
         <v>41.454545454545453</v>
       </c>
-      <c r="AN32" s="57"/>
+      <c r="AN32" s="56"/>
     </row>
     <row r="33" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
@@ -4869,89 +4913,89 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="56">
-        <v>10</v>
-      </c>
-      <c r="J33" s="57">
-        <v>10</v>
-      </c>
-      <c r="K33" s="57">
-        <v>8</v>
-      </c>
-      <c r="L33" s="57">
-        <v>10</v>
-      </c>
-      <c r="M33" s="57">
+      <c r="H33" s="86"/>
+      <c r="I33" s="55">
+        <v>10</v>
+      </c>
+      <c r="J33" s="56">
+        <v>10</v>
+      </c>
+      <c r="K33" s="56">
+        <v>8</v>
+      </c>
+      <c r="L33" s="56">
+        <v>10</v>
+      </c>
+      <c r="M33" s="56">
         <v>5</v>
       </c>
-      <c r="N33" s="57">
-        <v>10</v>
-      </c>
-      <c r="O33" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="P33" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="57">
+      <c r="N33" s="56">
+        <v>10</v>
+      </c>
+      <c r="O33" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="P33" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="56">
         <v>8.5</v>
       </c>
-      <c r="R33" s="57">
+      <c r="R33" s="56">
         <v>7</v>
       </c>
-      <c r="S33" s="58"/>
-      <c r="T33" s="56">
+      <c r="S33" s="57"/>
+      <c r="T33" s="55">
         <v>6</v>
       </c>
-      <c r="U33" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="V33" s="57">
-        <v>9</v>
-      </c>
-      <c r="W33" s="57">
-        <v>9</v>
-      </c>
-      <c r="X33" s="57">
+      <c r="U33" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="V33" s="56">
+        <v>9</v>
+      </c>
+      <c r="W33" s="56">
+        <v>9</v>
+      </c>
+      <c r="X33" s="56">
         <v>3.5</v>
       </c>
-      <c r="Y33" s="57">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="57">
-        <v>8</v>
-      </c>
-      <c r="AA33" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AB33" s="57">
-        <v>9</v>
-      </c>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="59">
+      <c r="Y33" s="56">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="56">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AB33" s="56">
+        <v>9</v>
+      </c>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="57"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="58">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="AJ33" s="60">
+      <c r="AJ33" s="59">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="AK33" s="60">
+      <c r="AK33" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="60">
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="59">
         <f t="shared" si="3"/>
         <v>43.5</v>
       </c>
-      <c r="AN33" s="57"/>
+      <c r="AN33" s="56"/>
     </row>
     <row r="34" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
@@ -4971,89 +5015,89 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="56">
-        <v>8</v>
-      </c>
-      <c r="J34" s="57">
-        <v>10</v>
-      </c>
-      <c r="K34" s="57">
-        <v>10</v>
-      </c>
-      <c r="L34" s="57">
-        <v>10</v>
-      </c>
-      <c r="M34" s="57">
-        <v>10</v>
-      </c>
-      <c r="N34" s="57">
-        <v>9</v>
-      </c>
-      <c r="O34" s="57">
-        <v>10</v>
-      </c>
-      <c r="P34" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="57">
-        <v>10</v>
-      </c>
-      <c r="R34" s="57">
-        <v>10</v>
-      </c>
-      <c r="S34" s="58"/>
-      <c r="T34" s="56">
-        <v>9</v>
-      </c>
-      <c r="U34" s="57">
-        <v>9</v>
-      </c>
-      <c r="V34" s="57">
-        <v>10</v>
-      </c>
-      <c r="W34" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="X34" s="57">
-        <v>10</v>
-      </c>
-      <c r="Y34" s="57">
-        <v>9</v>
-      </c>
-      <c r="Z34" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AA34" s="57">
-        <v>10</v>
-      </c>
-      <c r="AB34" s="57">
-        <v>10</v>
-      </c>
-      <c r="AC34" s="57"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="59">
+      <c r="H34" s="89"/>
+      <c r="I34" s="55">
+        <v>8</v>
+      </c>
+      <c r="J34" s="56">
+        <v>10</v>
+      </c>
+      <c r="K34" s="56">
+        <v>10</v>
+      </c>
+      <c r="L34" s="56">
+        <v>10</v>
+      </c>
+      <c r="M34" s="56">
+        <v>10</v>
+      </c>
+      <c r="N34" s="56">
+        <v>9</v>
+      </c>
+      <c r="O34" s="56">
+        <v>10</v>
+      </c>
+      <c r="P34" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="56">
+        <v>10</v>
+      </c>
+      <c r="R34" s="56">
+        <v>10</v>
+      </c>
+      <c r="S34" s="57"/>
+      <c r="T34" s="55">
+        <v>9</v>
+      </c>
+      <c r="U34" s="56">
+        <v>9</v>
+      </c>
+      <c r="V34" s="56">
+        <v>10</v>
+      </c>
+      <c r="W34" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="X34" s="56">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="56">
+        <v>9</v>
+      </c>
+      <c r="Z34" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AA34" s="56">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="56">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="58">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="AJ34" s="60">
+      <c r="AJ34" s="59">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="AK34" s="60">
+      <c r="AK34" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="60">
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="59">
         <f t="shared" si="3"/>
         <v>49.909090909090907</v>
       </c>
-      <c r="AN34" s="57"/>
+      <c r="AN34" s="56"/>
     </row>
     <row r="35" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
@@ -5073,89 +5117,89 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="56">
-        <v>8</v>
-      </c>
-      <c r="J35" s="57">
-        <v>10</v>
-      </c>
-      <c r="K35" s="57">
-        <v>8</v>
-      </c>
-      <c r="L35" s="57">
-        <v>10</v>
-      </c>
-      <c r="M35" s="57">
-        <v>9</v>
-      </c>
-      <c r="N35" s="57">
-        <v>10</v>
-      </c>
-      <c r="O35" s="57">
-        <v>10</v>
-      </c>
-      <c r="P35" s="57">
+      <c r="H35" s="91"/>
+      <c r="I35" s="55">
+        <v>8</v>
+      </c>
+      <c r="J35" s="56">
+        <v>10</v>
+      </c>
+      <c r="K35" s="56">
+        <v>8</v>
+      </c>
+      <c r="L35" s="56">
+        <v>10</v>
+      </c>
+      <c r="M35" s="56">
+        <v>9</v>
+      </c>
+      <c r="N35" s="56">
+        <v>10</v>
+      </c>
+      <c r="O35" s="56">
+        <v>10</v>
+      </c>
+      <c r="P35" s="56">
         <v>8.5</v>
       </c>
-      <c r="Q35" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="R35" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="S35" s="58"/>
-      <c r="T35" s="56">
-        <v>9</v>
-      </c>
-      <c r="U35" s="57">
-        <v>9</v>
-      </c>
-      <c r="V35" s="57">
-        <v>10</v>
-      </c>
-      <c r="W35" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="X35" s="57">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="57">
-        <v>9</v>
-      </c>
-      <c r="Z35" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AA35" s="57">
-        <v>10</v>
-      </c>
-      <c r="AB35" s="57">
-        <v>10</v>
-      </c>
-      <c r="AC35" s="57"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="59">
+      <c r="Q35" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="R35" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="S35" s="57"/>
+      <c r="T35" s="55">
+        <v>9</v>
+      </c>
+      <c r="U35" s="56">
+        <v>9</v>
+      </c>
+      <c r="V35" s="56">
+        <v>10</v>
+      </c>
+      <c r="W35" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="X35" s="56">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="56">
+        <v>9</v>
+      </c>
+      <c r="Z35" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AA35" s="56">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="56">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="58">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-      <c r="AJ35" s="60">
+      <c r="AJ35" s="59">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="AK35" s="60">
+      <c r="AK35" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="60">
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="59">
         <f t="shared" si="3"/>
         <v>48.681818181818187</v>
       </c>
-      <c r="AN35" s="57"/>
+      <c r="AN35" s="56"/>
     </row>
     <row r="36" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
@@ -5175,89 +5219,89 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="56">
-        <v>8</v>
-      </c>
-      <c r="J36" s="57">
-        <v>10</v>
-      </c>
-      <c r="K36" s="57">
-        <v>9</v>
-      </c>
-      <c r="L36" s="57">
-        <v>8</v>
-      </c>
-      <c r="M36" s="57">
-        <v>10</v>
-      </c>
-      <c r="N36" s="57">
-        <v>9</v>
-      </c>
-      <c r="O36" s="57">
-        <v>8</v>
-      </c>
-      <c r="P36" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="R36" s="57">
-        <v>10</v>
-      </c>
-      <c r="S36" s="58"/>
-      <c r="T36" s="56">
-        <v>10</v>
-      </c>
-      <c r="U36" s="57">
-        <v>10</v>
-      </c>
-      <c r="V36" s="57">
-        <v>9</v>
-      </c>
-      <c r="W36" s="57">
-        <v>10</v>
-      </c>
-      <c r="X36" s="57">
-        <v>9</v>
-      </c>
-      <c r="Y36" s="57">
-        <v>9</v>
-      </c>
-      <c r="Z36" s="57">
-        <v>8</v>
-      </c>
-      <c r="AA36" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB36" s="57">
-        <v>9</v>
-      </c>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="58"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="59">
+      <c r="H36" s="85"/>
+      <c r="I36" s="55">
+        <v>8</v>
+      </c>
+      <c r="J36" s="56">
+        <v>10</v>
+      </c>
+      <c r="K36" s="56">
+        <v>9</v>
+      </c>
+      <c r="L36" s="56">
+        <v>8</v>
+      </c>
+      <c r="M36" s="56">
+        <v>10</v>
+      </c>
+      <c r="N36" s="56">
+        <v>9</v>
+      </c>
+      <c r="O36" s="56">
+        <v>8</v>
+      </c>
+      <c r="P36" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="R36" s="56">
+        <v>10</v>
+      </c>
+      <c r="S36" s="57"/>
+      <c r="T36" s="55">
+        <v>10</v>
+      </c>
+      <c r="U36" s="56">
+        <v>10</v>
+      </c>
+      <c r="V36" s="56">
+        <v>9</v>
+      </c>
+      <c r="W36" s="56">
+        <v>10</v>
+      </c>
+      <c r="X36" s="56">
+        <v>9</v>
+      </c>
+      <c r="Y36" s="56">
+        <v>9</v>
+      </c>
+      <c r="Z36" s="56">
+        <v>8</v>
+      </c>
+      <c r="AA36" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB36" s="56">
+        <v>9</v>
+      </c>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="58">
         <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
-      <c r="AJ36" s="60">
+      <c r="AJ36" s="59">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="AK36" s="60">
+      <c r="AK36" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="60">
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="59">
         <f t="shared" si="3"/>
         <v>47.590909090909093</v>
       </c>
-      <c r="AN36" s="57"/>
+      <c r="AN36" s="56"/>
     </row>
     <row r="37" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
@@ -5277,89 +5321,89 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="56">
-        <v>8</v>
-      </c>
-      <c r="J37" s="57">
+      <c r="H37" s="86"/>
+      <c r="I37" s="55">
+        <v>8</v>
+      </c>
+      <c r="J37" s="56">
         <v>6.5</v>
       </c>
-      <c r="K37" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="L37" s="57">
-        <v>10</v>
-      </c>
-      <c r="M37" s="57">
+      <c r="K37" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="L37" s="56">
+        <v>10</v>
+      </c>
+      <c r="M37" s="56">
         <v>8.5</v>
       </c>
-      <c r="N37" s="57">
-        <v>10</v>
-      </c>
-      <c r="O37" s="57">
-        <v>10</v>
-      </c>
-      <c r="P37" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="57">
-        <v>9</v>
-      </c>
-      <c r="R37" s="57">
-        <v>10</v>
-      </c>
-      <c r="S37" s="58"/>
-      <c r="T37" s="56">
-        <v>10</v>
-      </c>
-      <c r="U37" s="57">
-        <v>10</v>
-      </c>
-      <c r="V37" s="57">
-        <v>9</v>
-      </c>
-      <c r="W37" s="57">
-        <v>10</v>
-      </c>
-      <c r="X37" s="57">
-        <v>9</v>
-      </c>
-      <c r="Y37" s="57">
-        <v>9</v>
-      </c>
-      <c r="Z37" s="57">
-        <v>8</v>
-      </c>
-      <c r="AA37" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB37" s="57">
-        <v>9</v>
-      </c>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="58"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="57"/>
-      <c r="AG37" s="57"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="59">
+      <c r="N37" s="56">
+        <v>10</v>
+      </c>
+      <c r="O37" s="56">
+        <v>10</v>
+      </c>
+      <c r="P37" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="56">
+        <v>9</v>
+      </c>
+      <c r="R37" s="56">
+        <v>10</v>
+      </c>
+      <c r="S37" s="57"/>
+      <c r="T37" s="55">
+        <v>10</v>
+      </c>
+      <c r="U37" s="56">
+        <v>10</v>
+      </c>
+      <c r="V37" s="56">
+        <v>9</v>
+      </c>
+      <c r="W37" s="56">
+        <v>10</v>
+      </c>
+      <c r="X37" s="56">
+        <v>9</v>
+      </c>
+      <c r="Y37" s="56">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="56">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB37" s="56">
+        <v>9</v>
+      </c>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="57"/>
+      <c r="AE37" s="55"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="58">
         <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
-      <c r="AJ37" s="60">
+      <c r="AJ37" s="59">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="AK37" s="60">
+      <c r="AK37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="57"/>
-      <c r="AM37" s="60">
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="59">
         <f t="shared" si="3"/>
         <v>47.590909090909093</v>
       </c>
-      <c r="AN37" s="57"/>
+      <c r="AN37" s="56"/>
     </row>
     <row r="38" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
@@ -5379,89 +5423,89 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="56">
-        <v>9</v>
-      </c>
-      <c r="J38" s="57">
+      <c r="H38" s="89"/>
+      <c r="I38" s="55">
+        <v>9</v>
+      </c>
+      <c r="J38" s="56">
         <v>7</v>
       </c>
-      <c r="K38" s="57">
-        <v>9</v>
-      </c>
-      <c r="L38" s="57">
-        <v>10</v>
-      </c>
-      <c r="M38" s="57">
+      <c r="K38" s="56">
+        <v>9</v>
+      </c>
+      <c r="L38" s="56">
+        <v>10</v>
+      </c>
+      <c r="M38" s="56">
         <v>8.5</v>
       </c>
-      <c r="N38" s="57">
-        <v>10</v>
-      </c>
-      <c r="O38" s="57">
-        <v>10</v>
-      </c>
-      <c r="P38" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="57">
-        <v>9</v>
-      </c>
-      <c r="R38" s="57">
-        <v>9</v>
-      </c>
-      <c r="S38" s="58"/>
-      <c r="T38" s="56">
-        <v>8</v>
-      </c>
-      <c r="U38" s="57">
-        <v>10</v>
-      </c>
-      <c r="V38" s="57">
-        <v>9</v>
-      </c>
-      <c r="W38" s="57">
+      <c r="N38" s="56">
+        <v>10</v>
+      </c>
+      <c r="O38" s="56">
+        <v>10</v>
+      </c>
+      <c r="P38" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="56">
+        <v>9</v>
+      </c>
+      <c r="R38" s="56">
+        <v>9</v>
+      </c>
+      <c r="S38" s="57"/>
+      <c r="T38" s="55">
+        <v>8</v>
+      </c>
+      <c r="U38" s="56">
+        <v>10</v>
+      </c>
+      <c r="V38" s="56">
+        <v>9</v>
+      </c>
+      <c r="W38" s="56">
         <v>8.5</v>
       </c>
-      <c r="X38" s="57">
-        <v>8</v>
-      </c>
-      <c r="Y38" s="57">
-        <v>10</v>
-      </c>
-      <c r="Z38" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AA38" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB38" s="57">
+      <c r="X38" s="56">
+        <v>8</v>
+      </c>
+      <c r="Y38" s="56">
+        <v>10</v>
+      </c>
+      <c r="Z38" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AA38" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB38" s="56">
         <v>8.5</v>
       </c>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="58"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="59">
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="57"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="58">
         <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
-      <c r="AJ38" s="60">
+      <c r="AJ38" s="59">
         <f t="shared" si="1"/>
         <v>80.5</v>
       </c>
-      <c r="AK38" s="60">
+      <c r="AK38" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="57"/>
-      <c r="AM38" s="60">
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="59">
         <f t="shared" si="3"/>
         <v>46.909090909090907</v>
       </c>
-      <c r="AN38" s="57"/>
+      <c r="AN38" s="56"/>
     </row>
     <row r="39" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
@@ -5481,89 +5525,89 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="56">
-        <v>8</v>
-      </c>
-      <c r="J39" s="57">
+      <c r="H39" s="90"/>
+      <c r="I39" s="55">
+        <v>8</v>
+      </c>
+      <c r="J39" s="56">
         <v>6.5</v>
       </c>
-      <c r="K39" s="57">
-        <v>8</v>
-      </c>
-      <c r="L39" s="57">
-        <v>10</v>
-      </c>
-      <c r="M39" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="N39" s="57">
+      <c r="K39" s="56">
+        <v>8</v>
+      </c>
+      <c r="L39" s="56">
+        <v>10</v>
+      </c>
+      <c r="M39" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="N39" s="56">
         <v>7.5</v>
       </c>
-      <c r="O39" s="57">
-        <v>9</v>
-      </c>
-      <c r="P39" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="57">
+      <c r="O39" s="56">
+        <v>9</v>
+      </c>
+      <c r="P39" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="56">
         <v>7</v>
       </c>
-      <c r="R39" s="57">
-        <v>9</v>
-      </c>
-      <c r="S39" s="58"/>
-      <c r="T39" s="56">
-        <v>8</v>
-      </c>
-      <c r="U39" s="57">
-        <v>10</v>
-      </c>
-      <c r="V39" s="57">
-        <v>9</v>
-      </c>
-      <c r="W39" s="57">
+      <c r="R39" s="56">
+        <v>9</v>
+      </c>
+      <c r="S39" s="57"/>
+      <c r="T39" s="55">
+        <v>8</v>
+      </c>
+      <c r="U39" s="56">
+        <v>10</v>
+      </c>
+      <c r="V39" s="56">
+        <v>9</v>
+      </c>
+      <c r="W39" s="56">
         <v>8.5</v>
       </c>
-      <c r="X39" s="57">
-        <v>8</v>
-      </c>
-      <c r="Y39" s="57">
-        <v>10</v>
-      </c>
-      <c r="Z39" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AA39" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB39" s="57">
+      <c r="X39" s="56">
+        <v>8</v>
+      </c>
+      <c r="Y39" s="56">
+        <v>10</v>
+      </c>
+      <c r="Z39" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AA39" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB39" s="56">
         <v>8.5</v>
       </c>
-      <c r="AC39" s="57"/>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="57"/>
-      <c r="AG39" s="57"/>
-      <c r="AH39" s="58"/>
-      <c r="AI39" s="59">
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="58">
         <f t="shared" si="0"/>
         <v>84.5</v>
       </c>
-      <c r="AJ39" s="60">
+      <c r="AJ39" s="59">
         <f t="shared" si="1"/>
         <v>80.5</v>
       </c>
-      <c r="AK39" s="60">
+      <c r="AK39" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="57"/>
-      <c r="AM39" s="60">
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="59">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AN39" s="57"/>
+      <c r="AN39" s="56"/>
     </row>
     <row r="40" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
@@ -5583,89 +5627,89 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="J40" s="57">
-        <v>9</v>
-      </c>
-      <c r="K40" s="57">
+      <c r="H40" s="91"/>
+      <c r="I40" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="J40" s="56">
+        <v>9</v>
+      </c>
+      <c r="K40" s="56">
         <v>5</v>
       </c>
-      <c r="L40" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="M40" s="57">
+      <c r="L40" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="M40" s="56">
         <v>6.5</v>
       </c>
-      <c r="N40" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="O40" s="57">
-        <v>8</v>
-      </c>
-      <c r="P40" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="57">
+      <c r="N40" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="O40" s="56">
+        <v>8</v>
+      </c>
+      <c r="P40" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="56">
         <v>6</v>
       </c>
-      <c r="R40" s="57">
+      <c r="R40" s="56">
         <v>4.5</v>
       </c>
-      <c r="S40" s="58"/>
-      <c r="T40" s="56">
-        <v>8</v>
-      </c>
-      <c r="U40" s="57">
-        <v>10</v>
-      </c>
-      <c r="V40" s="57">
-        <v>9</v>
-      </c>
-      <c r="W40" s="57">
+      <c r="S40" s="57"/>
+      <c r="T40" s="55">
+        <v>8</v>
+      </c>
+      <c r="U40" s="56">
+        <v>10</v>
+      </c>
+      <c r="V40" s="56">
+        <v>9</v>
+      </c>
+      <c r="W40" s="56">
         <v>8.5</v>
       </c>
-      <c r="X40" s="57">
-        <v>8</v>
-      </c>
-      <c r="Y40" s="57">
-        <v>10</v>
-      </c>
-      <c r="Z40" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AA40" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB40" s="57">
+      <c r="X40" s="56">
+        <v>8</v>
+      </c>
+      <c r="Y40" s="56">
+        <v>10</v>
+      </c>
+      <c r="Z40" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AA40" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB40" s="56">
         <v>8.5</v>
       </c>
-      <c r="AC40" s="57"/>
-      <c r="AD40" s="58"/>
-      <c r="AE40" s="56"/>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="57"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="59">
+      <c r="AC40" s="56"/>
+      <c r="AD40" s="57"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="56"/>
+      <c r="AG40" s="56"/>
+      <c r="AH40" s="57"/>
+      <c r="AI40" s="58">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="AJ40" s="60">
+      <c r="AJ40" s="59">
         <f t="shared" si="1"/>
         <v>80.5</v>
       </c>
-      <c r="AK40" s="60">
+      <c r="AK40" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="57"/>
-      <c r="AM40" s="60">
+      <c r="AL40" s="56"/>
+      <c r="AM40" s="59">
         <f t="shared" si="3"/>
         <v>43.090909090909093</v>
       </c>
-      <c r="AN40" s="57"/>
+      <c r="AN40" s="56"/>
     </row>
     <row r="41" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
@@ -5685,89 +5729,89 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="56">
+      <c r="H41" s="85"/>
+      <c r="I41" s="55">
         <v>5.5</v>
       </c>
-      <c r="J41" s="57">
+      <c r="J41" s="56">
         <v>4</v>
       </c>
-      <c r="K41" s="57">
+      <c r="K41" s="56">
         <v>4</v>
       </c>
-      <c r="L41" s="57">
+      <c r="L41" s="56">
         <v>3.5</v>
       </c>
-      <c r="M41" s="57">
-        <v>0</v>
-      </c>
-      <c r="N41" s="57">
-        <v>0</v>
-      </c>
-      <c r="O41" s="57">
+      <c r="M41" s="56">
+        <v>0</v>
+      </c>
+      <c r="N41" s="56">
+        <v>0</v>
+      </c>
+      <c r="O41" s="56">
         <v>7.5</v>
       </c>
-      <c r="P41" s="57">
-        <v>9</v>
-      </c>
-      <c r="Q41" s="57">
+      <c r="P41" s="56">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="56">
         <v>8.5</v>
       </c>
-      <c r="R41" s="57">
-        <v>8</v>
-      </c>
-      <c r="S41" s="58"/>
-      <c r="T41" s="56">
-        <v>10</v>
-      </c>
-      <c r="U41" s="57">
-        <v>10</v>
-      </c>
-      <c r="V41" s="57">
+      <c r="R41" s="56">
+        <v>8</v>
+      </c>
+      <c r="S41" s="57"/>
+      <c r="T41" s="55">
+        <v>10</v>
+      </c>
+      <c r="U41" s="56">
+        <v>10</v>
+      </c>
+      <c r="V41" s="56">
         <v>7</v>
       </c>
-      <c r="W41" s="57">
-        <v>10</v>
-      </c>
-      <c r="X41" s="57">
-        <v>9</v>
-      </c>
-      <c r="Y41" s="57">
-        <v>10</v>
-      </c>
-      <c r="Z41" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AA41" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB41" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AC41" s="57"/>
-      <c r="AD41" s="58"/>
-      <c r="AE41" s="56"/>
-      <c r="AF41" s="57"/>
-      <c r="AG41" s="57"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="59">
+      <c r="W41" s="56">
+        <v>10</v>
+      </c>
+      <c r="X41" s="56">
+        <v>9</v>
+      </c>
+      <c r="Y41" s="56">
+        <v>10</v>
+      </c>
+      <c r="Z41" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AA41" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB41" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AC41" s="56"/>
+      <c r="AD41" s="57"/>
+      <c r="AE41" s="55"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="56"/>
+      <c r="AH41" s="57"/>
+      <c r="AI41" s="58">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AJ41" s="60">
+      <c r="AJ41" s="59">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="AK41" s="60">
+      <c r="AK41" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="57"/>
-      <c r="AM41" s="60">
+      <c r="AL41" s="56"/>
+      <c r="AM41" s="59">
         <f t="shared" si="3"/>
         <v>36.545454545454547</v>
       </c>
-      <c r="AN41" s="57"/>
+      <c r="AN41" s="56"/>
     </row>
     <row r="42" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
@@ -5787,89 +5831,89 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="56">
+      <c r="H42" s="86"/>
+      <c r="I42" s="55">
         <v>7.5</v>
       </c>
-      <c r="J42" s="57">
+      <c r="J42" s="56">
         <v>8.5</v>
       </c>
-      <c r="K42" s="57">
+      <c r="K42" s="56">
         <v>7</v>
       </c>
-      <c r="L42" s="57">
-        <v>9</v>
-      </c>
-      <c r="M42" s="57">
+      <c r="L42" s="56">
+        <v>9</v>
+      </c>
+      <c r="M42" s="56">
         <v>7</v>
       </c>
-      <c r="N42" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="O42" s="57">
+      <c r="N42" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="O42" s="56">
         <v>8.5</v>
       </c>
-      <c r="P42" s="57">
-        <v>9</v>
-      </c>
-      <c r="Q42" s="57">
-        <v>9</v>
-      </c>
-      <c r="R42" s="57">
+      <c r="P42" s="56">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="56">
+        <v>9</v>
+      </c>
+      <c r="R42" s="56">
         <v>7</v>
       </c>
-      <c r="S42" s="58"/>
-      <c r="T42" s="56">
-        <v>10</v>
-      </c>
-      <c r="U42" s="57">
-        <v>10</v>
-      </c>
-      <c r="V42" s="57">
+      <c r="S42" s="57"/>
+      <c r="T42" s="55">
+        <v>10</v>
+      </c>
+      <c r="U42" s="56">
+        <v>10</v>
+      </c>
+      <c r="V42" s="56">
         <v>7</v>
       </c>
-      <c r="W42" s="57">
-        <v>10</v>
-      </c>
-      <c r="X42" s="57">
-        <v>9</v>
-      </c>
-      <c r="Y42" s="57">
-        <v>10</v>
-      </c>
-      <c r="Z42" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AA42" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB42" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="58"/>
-      <c r="AE42" s="56"/>
-      <c r="AF42" s="57"/>
-      <c r="AG42" s="57"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="59">
+      <c r="W42" s="56">
+        <v>10</v>
+      </c>
+      <c r="X42" s="56">
+        <v>9</v>
+      </c>
+      <c r="Y42" s="56">
+        <v>10</v>
+      </c>
+      <c r="Z42" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AA42" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB42" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="AC42" s="56"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="56"/>
+      <c r="AG42" s="56"/>
+      <c r="AH42" s="57"/>
+      <c r="AI42" s="58">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="AJ42" s="60">
+      <c r="AJ42" s="59">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="AK42" s="60">
+      <c r="AK42" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="57"/>
-      <c r="AM42" s="60">
+      <c r="AL42" s="56"/>
+      <c r="AM42" s="59">
         <f t="shared" si="3"/>
         <v>45.272727272727273</v>
       </c>
-      <c r="AN42" s="57"/>
+      <c r="AN42" s="56"/>
     </row>
     <row r="43" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
@@ -5889,89 +5933,89 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="56">
+      <c r="H43" s="85"/>
+      <c r="I43" s="55">
         <v>7.5</v>
       </c>
-      <c r="J43" s="57">
+      <c r="J43" s="56">
         <v>6</v>
       </c>
-      <c r="K43" s="57">
-        <v>8</v>
-      </c>
-      <c r="L43" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="M43" s="57">
-        <v>9</v>
-      </c>
-      <c r="N43" s="57">
-        <v>8</v>
-      </c>
-      <c r="O43" s="57">
+      <c r="K43" s="56">
+        <v>8</v>
+      </c>
+      <c r="L43" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="M43" s="56">
+        <v>9</v>
+      </c>
+      <c r="N43" s="56">
+        <v>8</v>
+      </c>
+      <c r="O43" s="56">
         <v>7.5</v>
       </c>
-      <c r="P43" s="57">
-        <v>9</v>
-      </c>
-      <c r="Q43" s="57">
-        <v>9</v>
-      </c>
-      <c r="R43" s="57">
-        <v>10</v>
-      </c>
-      <c r="S43" s="58"/>
-      <c r="T43" s="56">
-        <v>8</v>
-      </c>
-      <c r="U43" s="57">
-        <v>10</v>
-      </c>
-      <c r="V43" s="57">
-        <v>9</v>
-      </c>
-      <c r="W43" s="57">
-        <v>9</v>
-      </c>
-      <c r="X43" s="57">
+      <c r="P43" s="56">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="56">
+        <v>9</v>
+      </c>
+      <c r="R43" s="56">
+        <v>10</v>
+      </c>
+      <c r="S43" s="57"/>
+      <c r="T43" s="55">
+        <v>8</v>
+      </c>
+      <c r="U43" s="56">
+        <v>10</v>
+      </c>
+      <c r="V43" s="56">
+        <v>9</v>
+      </c>
+      <c r="W43" s="56">
+        <v>9</v>
+      </c>
+      <c r="X43" s="56">
         <v>7.5</v>
       </c>
-      <c r="Y43" s="57">
-        <v>8</v>
-      </c>
-      <c r="Z43" s="57">
-        <v>9</v>
-      </c>
-      <c r="AA43" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB43" s="57">
+      <c r="Y43" s="56">
+        <v>8</v>
+      </c>
+      <c r="Z43" s="56">
+        <v>9</v>
+      </c>
+      <c r="AA43" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB43" s="56">
         <v>8.5</v>
       </c>
-      <c r="AC43" s="57"/>
-      <c r="AD43" s="58"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="57"/>
-      <c r="AG43" s="57"/>
-      <c r="AH43" s="58"/>
-      <c r="AI43" s="59">
+      <c r="AC43" s="56"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="55"/>
+      <c r="AF43" s="56"/>
+      <c r="AG43" s="56"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="58">
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
-      <c r="AJ43" s="60">
+      <c r="AJ43" s="59">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="AK43" s="60">
+      <c r="AK43" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL43" s="57"/>
-      <c r="AM43" s="60">
+      <c r="AL43" s="56"/>
+      <c r="AM43" s="59">
         <f t="shared" si="3"/>
         <v>44.045454545454547</v>
       </c>
-      <c r="AN43" s="57"/>
+      <c r="AN43" s="56"/>
     </row>
     <row r="44" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
@@ -5991,497 +6035,497 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="61">
-        <v>0</v>
-      </c>
-      <c r="J44" s="57">
-        <v>8</v>
-      </c>
-      <c r="K44" s="57">
+      <c r="H44" s="86"/>
+      <c r="I44" s="60">
+        <v>0</v>
+      </c>
+      <c r="J44" s="56">
+        <v>8</v>
+      </c>
+      <c r="K44" s="56">
         <v>6</v>
       </c>
-      <c r="L44" s="57">
-        <v>10</v>
-      </c>
-      <c r="M44" s="57">
+      <c r="L44" s="56">
+        <v>10</v>
+      </c>
+      <c r="M44" s="56">
         <v>8.5</v>
       </c>
-      <c r="N44" s="57">
-        <v>8</v>
-      </c>
-      <c r="O44" s="57">
-        <v>8</v>
-      </c>
-      <c r="P44" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="57">
-        <v>9.5</v>
-      </c>
-      <c r="R44" s="57">
-        <v>8</v>
-      </c>
-      <c r="S44" s="58"/>
-      <c r="T44" s="56">
-        <v>8</v>
-      </c>
-      <c r="U44" s="57">
-        <v>10</v>
-      </c>
-      <c r="V44" s="57">
-        <v>9</v>
-      </c>
-      <c r="W44" s="57">
-        <v>9</v>
-      </c>
-      <c r="X44" s="57">
+      <c r="N44" s="56">
+        <v>8</v>
+      </c>
+      <c r="O44" s="56">
+        <v>8</v>
+      </c>
+      <c r="P44" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="R44" s="56">
+        <v>8</v>
+      </c>
+      <c r="S44" s="57"/>
+      <c r="T44" s="55">
+        <v>8</v>
+      </c>
+      <c r="U44" s="56">
+        <v>10</v>
+      </c>
+      <c r="V44" s="56">
+        <v>9</v>
+      </c>
+      <c r="W44" s="56">
+        <v>9</v>
+      </c>
+      <c r="X44" s="56">
         <v>7.5</v>
       </c>
-      <c r="Y44" s="57">
-        <v>8</v>
-      </c>
-      <c r="Z44" s="57">
-        <v>9</v>
-      </c>
-      <c r="AA44" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB44" s="57">
+      <c r="Y44" s="56">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="56">
+        <v>9</v>
+      </c>
+      <c r="AA44" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB44" s="56">
         <v>8.5</v>
       </c>
-      <c r="AC44" s="57"/>
-      <c r="AD44" s="58"/>
-      <c r="AE44" s="56"/>
-      <c r="AF44" s="57"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="58"/>
-      <c r="AI44" s="59">
+      <c r="AC44" s="56"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="56"/>
+      <c r="AG44" s="56"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="58">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="AJ44" s="60">
+      <c r="AJ44" s="59">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="AK44" s="60">
+      <c r="AK44" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL44" s="57"/>
-      <c r="AM44" s="60">
+      <c r="AL44" s="56"/>
+      <c r="AM44" s="59">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="AN44" s="57"/>
+      <c r="AN44" s="56"/>
     </row>
     <row r="45" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="71">
-        <v>10</v>
-      </c>
-      <c r="C45" s="72">
+      <c r="B45" s="70">
+        <v>10</v>
+      </c>
+      <c r="C45" s="71">
         <v>202302226</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="73">
+      <c r="E45" s="72">
         <v>1046182647</v>
       </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="74">
-        <v>10</v>
-      </c>
-      <c r="J45" s="81">
-        <v>10</v>
-      </c>
-      <c r="K45" s="81">
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="73">
+        <v>10</v>
+      </c>
+      <c r="J45" s="80">
+        <v>10</v>
+      </c>
+      <c r="K45" s="80">
         <v>6</v>
       </c>
-      <c r="L45" s="81">
-        <v>10</v>
-      </c>
-      <c r="M45" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="N45" s="81">
+      <c r="L45" s="80">
+        <v>10</v>
+      </c>
+      <c r="M45" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="N45" s="80">
         <v>7.5</v>
       </c>
-      <c r="O45" s="81">
-        <v>8</v>
-      </c>
-      <c r="P45" s="81">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="R45" s="81">
+      <c r="O45" s="80">
+        <v>8</v>
+      </c>
+      <c r="P45" s="80">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="R45" s="80">
         <v>8.5</v>
       </c>
-      <c r="S45" s="82"/>
-      <c r="T45" s="74">
-        <v>10</v>
-      </c>
-      <c r="U45" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="V45" s="81">
-        <v>10</v>
-      </c>
-      <c r="W45" s="81">
-        <v>9</v>
-      </c>
-      <c r="X45" s="81">
+      <c r="S45" s="81"/>
+      <c r="T45" s="73">
+        <v>10</v>
+      </c>
+      <c r="U45" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="V45" s="80">
+        <v>10</v>
+      </c>
+      <c r="W45" s="80">
+        <v>9</v>
+      </c>
+      <c r="X45" s="80">
         <v>6</v>
       </c>
-      <c r="Y45" s="81">
-        <v>9</v>
-      </c>
-      <c r="Z45" s="81">
-        <v>9</v>
-      </c>
-      <c r="AA45" s="81">
-        <v>10</v>
-      </c>
-      <c r="AB45" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="82"/>
-      <c r="AE45" s="74"/>
-      <c r="AF45" s="81"/>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="82"/>
-      <c r="AI45" s="59">
+      <c r="Y45" s="80">
+        <v>9</v>
+      </c>
+      <c r="Z45" s="80">
+        <v>9</v>
+      </c>
+      <c r="AA45" s="80">
+        <v>10</v>
+      </c>
+      <c r="AB45" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="AC45" s="80"/>
+      <c r="AD45" s="81"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="80"/>
+      <c r="AG45" s="80"/>
+      <c r="AH45" s="81"/>
+      <c r="AI45" s="58">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="AJ45" s="60">
+      <c r="AJ45" s="59">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="AK45" s="60">
+      <c r="AK45" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL45" s="57"/>
-      <c r="AM45" s="60">
+      <c r="AL45" s="56"/>
+      <c r="AM45" s="59">
         <f t="shared" si="3"/>
         <v>46.36363636363636</v>
       </c>
-      <c r="AN45" s="57"/>
+      <c r="AN45" s="56"/>
     </row>
     <row r="46" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="71">
-        <v>10</v>
-      </c>
-      <c r="C46" s="72">
+      <c r="B46" s="70">
+        <v>10</v>
+      </c>
+      <c r="C46" s="71">
         <v>202302227</v>
       </c>
-      <c r="D46" s="72" t="s">
+      <c r="D46" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="72">
         <v>1038871469</v>
       </c>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="74">
-        <v>10</v>
-      </c>
-      <c r="J46" s="81">
-        <v>10</v>
-      </c>
-      <c r="K46" s="81">
-        <v>9</v>
-      </c>
-      <c r="L46" s="81">
-        <v>10</v>
-      </c>
-      <c r="M46" s="81">
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="73">
+        <v>10</v>
+      </c>
+      <c r="J46" s="80">
+        <v>10</v>
+      </c>
+      <c r="K46" s="80">
+        <v>9</v>
+      </c>
+      <c r="L46" s="80">
+        <v>10</v>
+      </c>
+      <c r="M46" s="80">
         <v>8.5</v>
       </c>
-      <c r="N46" s="81">
-        <v>10</v>
-      </c>
-      <c r="O46" s="81">
-        <v>9</v>
-      </c>
-      <c r="P46" s="81">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="81">
-        <v>9</v>
-      </c>
-      <c r="R46" s="81">
-        <v>9</v>
-      </c>
-      <c r="S46" s="82"/>
-      <c r="T46" s="74">
-        <v>10</v>
-      </c>
-      <c r="U46" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="V46" s="81">
-        <v>10</v>
-      </c>
-      <c r="W46" s="81">
-        <v>9</v>
-      </c>
-      <c r="X46" s="81">
+      <c r="N46" s="80">
+        <v>10</v>
+      </c>
+      <c r="O46" s="80">
+        <v>9</v>
+      </c>
+      <c r="P46" s="80">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="80">
+        <v>9</v>
+      </c>
+      <c r="R46" s="80">
+        <v>9</v>
+      </c>
+      <c r="S46" s="81"/>
+      <c r="T46" s="73">
+        <v>10</v>
+      </c>
+      <c r="U46" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="V46" s="80">
+        <v>10</v>
+      </c>
+      <c r="W46" s="80">
+        <v>9</v>
+      </c>
+      <c r="X46" s="80">
         <v>6</v>
       </c>
-      <c r="Y46" s="81">
-        <v>9</v>
-      </c>
-      <c r="Z46" s="81">
-        <v>9</v>
-      </c>
-      <c r="AA46" s="81">
-        <v>10</v>
-      </c>
-      <c r="AB46" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="AC46" s="81"/>
-      <c r="AD46" s="82"/>
-      <c r="AE46" s="74"/>
-      <c r="AF46" s="81"/>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="82"/>
-      <c r="AI46" s="59">
+      <c r="Y46" s="80">
+        <v>9</v>
+      </c>
+      <c r="Z46" s="80">
+        <v>9</v>
+      </c>
+      <c r="AA46" s="80">
+        <v>10</v>
+      </c>
+      <c r="AB46" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="AC46" s="80"/>
+      <c r="AD46" s="81"/>
+      <c r="AE46" s="73"/>
+      <c r="AF46" s="80"/>
+      <c r="AG46" s="80"/>
+      <c r="AH46" s="81"/>
+      <c r="AI46" s="58">
         <f t="shared" si="0"/>
         <v>94.5</v>
       </c>
-      <c r="AJ46" s="60">
+      <c r="AJ46" s="59">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="AK46" s="60">
+      <c r="AK46" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="57"/>
-      <c r="AM46" s="60">
+      <c r="AL46" s="56"/>
+      <c r="AM46" s="59">
         <f t="shared" si="3"/>
         <v>48.13636363636364</v>
       </c>
-      <c r="AN46" s="57"/>
+      <c r="AN46" s="56"/>
     </row>
     <row r="47" spans="1:40" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="75">
+      <c r="B47" s="74">
         <v>11</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="71">
         <v>202302237</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="73">
+      <c r="E47" s="72">
         <v>1038626854</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="74">
-        <v>8</v>
-      </c>
-      <c r="J47" s="81">
-        <v>10</v>
-      </c>
-      <c r="K47" s="81">
-        <v>8</v>
-      </c>
-      <c r="L47" s="81">
-        <v>10</v>
-      </c>
-      <c r="M47" s="81">
-        <v>9</v>
-      </c>
-      <c r="N47" s="81">
-        <v>10</v>
-      </c>
-      <c r="O47" s="81">
-        <v>9</v>
-      </c>
-      <c r="P47" s="81">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="81">
-        <v>10</v>
-      </c>
-      <c r="R47" s="81">
-        <v>10</v>
-      </c>
-      <c r="S47" s="82"/>
-      <c r="T47" s="74">
-        <v>10</v>
-      </c>
-      <c r="U47" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="V47" s="81">
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="73">
+        <v>8</v>
+      </c>
+      <c r="J47" s="80">
+        <v>10</v>
+      </c>
+      <c r="K47" s="80">
+        <v>8</v>
+      </c>
+      <c r="L47" s="80">
+        <v>10</v>
+      </c>
+      <c r="M47" s="80">
+        <v>9</v>
+      </c>
+      <c r="N47" s="80">
+        <v>10</v>
+      </c>
+      <c r="O47" s="80">
+        <v>9</v>
+      </c>
+      <c r="P47" s="80">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="80">
+        <v>10</v>
+      </c>
+      <c r="R47" s="80">
+        <v>10</v>
+      </c>
+      <c r="S47" s="81"/>
+      <c r="T47" s="73">
+        <v>10</v>
+      </c>
+      <c r="U47" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="V47" s="80">
         <v>8.5</v>
       </c>
-      <c r="W47" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="X47" s="81">
-        <v>8</v>
-      </c>
-      <c r="Y47" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="Z47" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="AA47" s="81">
-        <v>8</v>
-      </c>
-      <c r="AB47" s="81">
-        <v>9</v>
-      </c>
-      <c r="AC47" s="81"/>
-      <c r="AD47" s="82"/>
-      <c r="AE47" s="74"/>
-      <c r="AF47" s="81"/>
-      <c r="AG47" s="81"/>
-      <c r="AH47" s="82"/>
-      <c r="AI47" s="59">
+      <c r="W47" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="X47" s="80">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="Z47" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="AA47" s="80">
+        <v>8</v>
+      </c>
+      <c r="AB47" s="80">
+        <v>9</v>
+      </c>
+      <c r="AC47" s="80"/>
+      <c r="AD47" s="81"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="80"/>
+      <c r="AG47" s="80"/>
+      <c r="AH47" s="81"/>
+      <c r="AI47" s="58">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="AJ47" s="60">
+      <c r="AJ47" s="59">
         <f t="shared" si="1"/>
         <v>81.5</v>
       </c>
-      <c r="AK47" s="60">
+      <c r="AK47" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="57"/>
-      <c r="AM47" s="60">
+      <c r="AL47" s="56"/>
+      <c r="AM47" s="59">
         <f t="shared" si="3"/>
         <v>47.86363636363636</v>
       </c>
-      <c r="AN47" s="57"/>
+      <c r="AN47" s="56"/>
     </row>
     <row r="48" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="77">
+      <c r="B48" s="76">
         <v>11</v>
       </c>
-      <c r="C48" s="78">
+      <c r="C48" s="77">
         <v>202302238</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="79">
+      <c r="E48" s="78">
         <v>1071157029</v>
       </c>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="74">
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="73">
         <v>3.5</v>
       </c>
-      <c r="J48" s="81">
+      <c r="J48" s="80">
         <v>7.5</v>
       </c>
-      <c r="K48" s="81">
-        <v>9</v>
-      </c>
-      <c r="L48" s="81">
-        <v>10</v>
-      </c>
-      <c r="M48" s="81">
-        <v>10</v>
-      </c>
-      <c r="N48" s="81">
+      <c r="K48" s="80">
+        <v>9</v>
+      </c>
+      <c r="L48" s="80">
+        <v>10</v>
+      </c>
+      <c r="M48" s="80">
+        <v>10</v>
+      </c>
+      <c r="N48" s="80">
         <v>7</v>
       </c>
-      <c r="O48" s="81">
-        <v>8</v>
-      </c>
-      <c r="P48" s="81">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="R48" s="81">
-        <v>9</v>
-      </c>
-      <c r="S48" s="82"/>
-      <c r="T48" s="74">
-        <v>10</v>
-      </c>
-      <c r="U48" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="V48" s="81">
+      <c r="O48" s="80">
+        <v>8</v>
+      </c>
+      <c r="P48" s="80">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="R48" s="80">
+        <v>9</v>
+      </c>
+      <c r="S48" s="81"/>
+      <c r="T48" s="73">
+        <v>10</v>
+      </c>
+      <c r="U48" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="V48" s="80">
         <v>8.5</v>
       </c>
-      <c r="W48" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="X48" s="81">
-        <v>8</v>
-      </c>
-      <c r="Y48" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="Z48" s="81">
-        <v>9.5</v>
-      </c>
-      <c r="AA48" s="81">
-        <v>8</v>
-      </c>
-      <c r="AB48" s="81">
-        <v>9</v>
-      </c>
-      <c r="AC48" s="81"/>
-      <c r="AD48" s="82"/>
-      <c r="AE48" s="74"/>
-      <c r="AF48" s="81"/>
-      <c r="AG48" s="81"/>
-      <c r="AH48" s="82"/>
-      <c r="AI48" s="59">
+      <c r="W48" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="X48" s="80">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="Z48" s="80">
+        <v>9.5</v>
+      </c>
+      <c r="AA48" s="80">
+        <v>8</v>
+      </c>
+      <c r="AB48" s="80">
+        <v>9</v>
+      </c>
+      <c r="AC48" s="80"/>
+      <c r="AD48" s="81"/>
+      <c r="AE48" s="73"/>
+      <c r="AF48" s="80"/>
+      <c r="AG48" s="80"/>
+      <c r="AH48" s="81"/>
+      <c r="AI48" s="58">
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
-      <c r="AJ48" s="60">
+      <c r="AJ48" s="59">
         <f t="shared" si="1"/>
         <v>81.5</v>
       </c>
-      <c r="AK48" s="60">
+      <c r="AK48" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL48" s="57"/>
-      <c r="AM48" s="60">
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="59">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AN48" s="57"/>
+      <c r="AN48" s="56"/>
     </row>
     <row r="49" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F49" s="1"/>
@@ -6489,131 +6533,131 @@
       <c r="H49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="62">
+      <c r="I49" s="61">
         <f>AVERAGE(I2:I25)</f>
         <v>7.104166666666667</v>
       </c>
-      <c r="J49" s="63">
+      <c r="J49" s="62">
         <f>AVERAGE(J2:J25)</f>
         <v>8.6041666666666661</v>
       </c>
-      <c r="K49" s="63">
+      <c r="K49" s="62">
         <f>AVERAGE(K2:K25)</f>
         <v>8.9772727272727266</v>
       </c>
-      <c r="L49" s="63">
+      <c r="L49" s="62">
         <f>AVERAGE(L2:L38)</f>
         <v>9.5142857142857142</v>
       </c>
-      <c r="M49" s="63">
+      <c r="M49" s="62">
         <f>AVERAGE(M2:M35)</f>
         <v>8.65625</v>
       </c>
-      <c r="N49" s="63">
+      <c r="N49" s="62">
         <f>AVERAGE(N2:N48)</f>
         <v>9.1222222222222218</v>
       </c>
-      <c r="O49" s="63">
+      <c r="O49" s="62">
         <f>AVERAGE(O2:O48)</f>
         <v>9.0555555555555554</v>
       </c>
-      <c r="P49" s="63">
+      <c r="P49" s="62">
         <f>AVERAGE(P2:P26)</f>
         <v>9.804347826086957</v>
       </c>
-      <c r="Q49" s="63">
+      <c r="Q49" s="62">
         <f>AVERAGE(Q2:Q48)</f>
         <v>8.9555555555555557</v>
       </c>
-      <c r="R49" s="63">
+      <c r="R49" s="62">
         <f>AVERAGE(R2:R48)</f>
         <v>8.9222222222222225</v>
       </c>
-      <c r="S49" s="64" t="e">
+      <c r="S49" s="63">
         <f>AVERAGE(S2:S32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T49" s="62">
+        <v>9.1818181818181817</v>
+      </c>
+      <c r="T49" s="61">
         <f>AVERAGE(T2:T25)</f>
         <v>8.9166666666666661</v>
       </c>
-      <c r="U49" s="63">
+      <c r="U49" s="62">
         <f>AVERAGE(U2:U48)</f>
         <v>9.5106382978723403</v>
       </c>
-      <c r="V49" s="63">
+      <c r="V49" s="62">
         <f>AVERAGE(V2:V25)</f>
         <v>9.4090909090909083</v>
       </c>
-      <c r="W49" s="63">
+      <c r="W49" s="62">
         <f>AVERAGE(W2:W48)</f>
         <v>9.5</v>
       </c>
-      <c r="X49" s="63">
+      <c r="X49" s="62">
         <f>AVERAGE(X2:X25)</f>
         <v>8.7727272727272734</v>
       </c>
-      <c r="Y49" s="63">
+      <c r="Y49" s="62">
         <f>AVERAGE(Y2:Y25)</f>
         <v>9.5909090909090917</v>
       </c>
-      <c r="Z49" s="63">
+      <c r="Z49" s="62">
         <f>AVERAGE(Z2:Z48)</f>
         <v>9.5</v>
       </c>
-      <c r="AA49" s="63">
+      <c r="AA49" s="62">
         <f>AVERAGE(AA2:AA25)</f>
         <v>9.454545454545455</v>
       </c>
-      <c r="AB49" s="63">
+      <c r="AB49" s="62">
         <f>AVERAGE(AB2:AB32)</f>
         <v>9.137931034482758</v>
       </c>
-      <c r="AC49" s="63" t="e">
+      <c r="AC49" s="62" t="e">
         <f>AVERAGE(AC2:AC25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="64" t="e">
+      <c r="AD49" s="63" t="e">
         <f>AVERAGE(AD2:AD32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE49" s="62" t="e">
+      <c r="AE49" s="61" t="e">
         <f>AVERAGE(AE2:AE32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF49" s="63" t="e">
+      <c r="AF49" s="62" t="e">
         <f>AVERAGE(AF2:AF32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG49" s="63" t="e">
+      <c r="AG49" s="62" t="e">
         <f>AVERAGE(AG2:AG32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH49" s="64" t="e">
+      <c r="AH49" s="63" t="e">
         <f>AVERAGE(AH2:AH32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI49" s="65">
+      <c r="AI49" s="64">
         <f>AVERAGE(AI2:AI25)</f>
-        <v>83.1875</v>
-      </c>
-      <c r="AJ49" s="63">
+        <v>91.604166666666671</v>
+      </c>
+      <c r="AJ49" s="62">
         <f>AVERAGE(AJ2:AJ25)</f>
         <v>78.916666666666671</v>
       </c>
-      <c r="AK49" s="63">
+      <c r="AK49" s="62">
         <f>AVERAGE(AK2:AK25)</f>
         <v>0</v>
       </c>
-      <c r="AL49" s="63" t="e">
+      <c r="AL49" s="62" t="e">
         <f>AVERAGE(AL2:AL25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM49" s="63">
+      <c r="AM49" s="62">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>44.210227272727273</v>
-      </c>
-      <c r="AN49" s="63"/>
+        <v>46.50568181818182</v>
+      </c>
+      <c r="AN49" s="62"/>
     </row>
     <row r="50" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F50" s="2"/>
@@ -6621,131 +6665,131 @@
       <c r="H50" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="62">
+      <c r="I50" s="61">
         <f>AVERAGE(I26:I48)</f>
         <v>7.5434782608695654</v>
       </c>
-      <c r="J50" s="63">
+      <c r="J50" s="62">
         <f t="shared" ref="J50:AM50" si="4">AVERAGE(J26:J48)</f>
         <v>8.5652173913043477</v>
       </c>
-      <c r="K50" s="63">
+      <c r="K50" s="62">
         <f t="shared" si="4"/>
         <v>8.0652173913043477</v>
       </c>
-      <c r="L50" s="63">
+      <c r="L50" s="62">
         <f t="shared" si="4"/>
         <v>9.4130434782608692</v>
       </c>
-      <c r="M50" s="63">
+      <c r="M50" s="62">
         <f t="shared" si="4"/>
         <v>8.1739130434782616</v>
       </c>
-      <c r="N50" s="63">
+      <c r="N50" s="62">
         <f t="shared" si="4"/>
         <v>8.7391304347826093</v>
       </c>
-      <c r="O50" s="63">
+      <c r="O50" s="62">
         <f t="shared" si="4"/>
         <v>8.9565217391304355</v>
       </c>
-      <c r="P50" s="63">
+      <c r="P50" s="62">
         <f t="shared" si="4"/>
         <v>9.7173913043478262</v>
       </c>
-      <c r="Q50" s="63">
+      <c r="Q50" s="62">
         <f t="shared" si="4"/>
         <v>9.1086956521739122</v>
       </c>
-      <c r="R50" s="63">
+      <c r="R50" s="62">
         <f t="shared" si="4"/>
         <v>8.7391304347826093</v>
       </c>
-      <c r="S50" s="64" t="e">
+      <c r="S50" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T50" s="62">
+      <c r="T50" s="61">
         <f t="shared" si="4"/>
         <v>8.7391304347826093</v>
       </c>
-      <c r="U50" s="63">
+      <c r="U50" s="62">
         <f t="shared" si="4"/>
         <v>9.4347826086956523</v>
       </c>
-      <c r="V50" s="63">
+      <c r="V50" s="62">
         <f t="shared" si="4"/>
         <v>8.695652173913043</v>
       </c>
-      <c r="W50" s="63">
+      <c r="W50" s="62">
         <f t="shared" si="4"/>
         <v>9.3695652173913047</v>
       </c>
-      <c r="X50" s="63">
+      <c r="X50" s="62">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Y50" s="63">
+      <c r="Y50" s="62">
         <f t="shared" si="4"/>
         <v>9.1739130434782616</v>
       </c>
-      <c r="Z50" s="63">
+      <c r="Z50" s="62">
         <f t="shared" si="4"/>
         <v>9.1521739130434785</v>
       </c>
-      <c r="AA50" s="63">
+      <c r="AA50" s="62">
         <f t="shared" si="4"/>
         <v>9.2173913043478262</v>
       </c>
-      <c r="AB50" s="63">
+      <c r="AB50" s="62">
         <f t="shared" si="4"/>
         <v>9.0652173913043477</v>
       </c>
-      <c r="AC50" s="63" t="e">
+      <c r="AC50" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="64" t="e">
+      <c r="AD50" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE50" s="62" t="e">
+      <c r="AE50" s="61" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF50" s="63" t="e">
+      <c r="AF50" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG50" s="63" t="e">
+      <c r="AG50" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH50" s="64" t="e">
+      <c r="AH50" s="63" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI50" s="65">
+      <c r="AI50" s="64">
         <f t="shared" si="4"/>
         <v>87.021739130434781</v>
       </c>
-      <c r="AJ50" s="63">
+      <c r="AJ50" s="62">
         <f t="shared" si="4"/>
         <v>80.847826086956516</v>
       </c>
-      <c r="AK50" s="63">
+      <c r="AK50" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="63" t="e">
+      <c r="AL50" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM50" s="63">
+      <c r="AM50" s="62">
         <f t="shared" si="4"/>
         <v>45.782608695652172</v>
       </c>
-      <c r="AN50" s="63"/>
+      <c r="AN50" s="62"/>
     </row>
     <row r="51" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F51" s="2"/>
@@ -6753,131 +6797,131 @@
       <c r="H51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="62">
+      <c r="I51" s="61">
         <f t="shared" ref="I51:AM51" si="5">AVERAGE(I2:I48)</f>
         <v>7.3191489361702127</v>
       </c>
-      <c r="J51" s="63">
+      <c r="J51" s="62">
         <f t="shared" si="5"/>
         <v>8.585106382978724</v>
       </c>
-      <c r="K51" s="63">
+      <c r="K51" s="62">
         <f t="shared" si="5"/>
         <v>8.5111111111111111</v>
       </c>
-      <c r="L51" s="63">
+      <c r="L51" s="62">
         <f t="shared" si="5"/>
         <v>9.4333333333333336</v>
       </c>
-      <c r="M51" s="63">
+      <c r="M51" s="62">
         <f t="shared" si="5"/>
         <v>8.4777777777777779</v>
       </c>
-      <c r="N51" s="63">
+      <c r="N51" s="62">
         <f t="shared" si="5"/>
         <v>9.1222222222222218</v>
       </c>
-      <c r="O51" s="63">
+      <c r="O51" s="62">
         <f t="shared" si="5"/>
         <v>9.0555555555555554</v>
       </c>
-      <c r="P51" s="63">
+      <c r="P51" s="62">
         <f t="shared" si="5"/>
         <v>9.7555555555555564</v>
       </c>
-      <c r="Q51" s="63">
+      <c r="Q51" s="62">
         <f t="shared" si="5"/>
         <v>8.9555555555555557</v>
       </c>
-      <c r="R51" s="63">
+      <c r="R51" s="62">
         <f t="shared" si="5"/>
         <v>8.9222222222222225</v>
       </c>
-      <c r="S51" s="64" t="e">
+      <c r="S51" s="63">
+        <f t="shared" si="5"/>
+        <v>9.1818181818181817</v>
+      </c>
+      <c r="T51" s="61">
+        <f t="shared" si="5"/>
+        <v>8.8297872340425538</v>
+      </c>
+      <c r="U51" s="62">
+        <f t="shared" si="5"/>
+        <v>9.5106382978723403</v>
+      </c>
+      <c r="V51" s="62">
+        <f t="shared" si="5"/>
+        <v>9.0444444444444443</v>
+      </c>
+      <c r="W51" s="62">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+      <c r="X51" s="62">
+        <f t="shared" si="5"/>
+        <v>8.3777777777777782</v>
+      </c>
+      <c r="Y51" s="62">
+        <f t="shared" si="5"/>
+        <v>9.3777777777777782</v>
+      </c>
+      <c r="Z51" s="62">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+      <c r="AA51" s="62">
+        <f t="shared" si="5"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="AB51" s="62">
+        <f t="shared" si="5"/>
+        <v>9.1222222222222218</v>
+      </c>
+      <c r="AC51" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T51" s="62">
-        <f t="shared" si="5"/>
-        <v>8.8297872340425538</v>
-      </c>
-      <c r="U51" s="63">
-        <f t="shared" si="5"/>
-        <v>9.5106382978723403</v>
-      </c>
-      <c r="V51" s="63">
-        <f t="shared" si="5"/>
-        <v>9.0444444444444443</v>
-      </c>
-      <c r="W51" s="63">
-        <f t="shared" si="5"/>
-        <v>9.5</v>
-      </c>
-      <c r="X51" s="63">
-        <f t="shared" si="5"/>
-        <v>8.3777777777777782</v>
-      </c>
-      <c r="Y51" s="63">
-        <f t="shared" si="5"/>
-        <v>9.3777777777777782</v>
-      </c>
-      <c r="Z51" s="63">
-        <f t="shared" si="5"/>
-        <v>9.5</v>
-      </c>
-      <c r="AA51" s="63">
-        <f t="shared" si="5"/>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="AB51" s="63">
-        <f t="shared" si="5"/>
-        <v>9.1222222222222218</v>
-      </c>
-      <c r="AC51" s="63" t="e">
+      <c r="AD51" s="63" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="64" t="e">
+      <c r="AE51" s="61" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE51" s="62" t="e">
+      <c r="AF51" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF51" s="63" t="e">
+      <c r="AG51" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG51" s="63" t="e">
+      <c r="AH51" s="63" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH51" s="64" t="e">
+      <c r="AI51" s="64">
+        <f t="shared" si="5"/>
+        <v>89.361702127659569</v>
+      </c>
+      <c r="AJ51" s="62">
+        <f t="shared" si="5"/>
+        <v>79.861702127659569</v>
+      </c>
+      <c r="AK51" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL51" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI51" s="65">
+      <c r="AM51" s="62">
         <f t="shared" si="5"/>
-        <v>85.063829787234042</v>
-      </c>
-      <c r="AJ51" s="63">
-        <f t="shared" si="5"/>
-        <v>79.861702127659569</v>
-      </c>
-      <c r="AK51" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL51" s="63" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM51" s="63">
-        <f t="shared" si="5"/>
-        <v>44.979690522243715</v>
-      </c>
-      <c r="AN51" s="63"/>
+        <v>46.151837524177949</v>
+      </c>
+      <c r="AN51" s="62"/>
     </row>
     <row r="52" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F52" s="2"/>
@@ -6885,131 +6929,131 @@
       <c r="H52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="62">
+      <c r="I52" s="61">
         <f t="shared" ref="I52:AM52" si="6">STDEV(I2:I48)</f>
         <v>2.9422439157800109</v>
       </c>
-      <c r="J52" s="63">
+      <c r="J52" s="62">
         <f t="shared" si="6"/>
         <v>1.4077392797464223</v>
       </c>
-      <c r="K52" s="63">
+      <c r="K52" s="62">
         <f t="shared" si="6"/>
         <v>1.5392179570132103</v>
       </c>
-      <c r="L52" s="63">
+      <c r="L52" s="62">
         <f t="shared" si="6"/>
         <v>1.1461397661875132</v>
       </c>
-      <c r="M52" s="63">
+      <c r="M52" s="62">
         <f t="shared" si="6"/>
         <v>1.7384539747207055</v>
       </c>
-      <c r="N52" s="63">
+      <c r="N52" s="62">
         <f t="shared" si="6"/>
         <v>1.6792705246473809</v>
       </c>
-      <c r="O52" s="63">
+      <c r="O52" s="62">
         <f t="shared" si="6"/>
         <v>0.76293558513855364</v>
       </c>
-      <c r="P52" s="63">
+      <c r="P52" s="62">
         <f t="shared" si="6"/>
         <v>0.4346134936801766</v>
       </c>
-      <c r="Q52" s="63">
+      <c r="Q52" s="62">
         <f t="shared" si="6"/>
         <v>1.0214863403072709</v>
       </c>
-      <c r="R52" s="63">
+      <c r="R52" s="62">
         <f t="shared" si="6"/>
         <v>1.0496512167228091</v>
       </c>
-      <c r="S52" s="64" t="e">
+      <c r="S52" s="63">
+        <f t="shared" si="6"/>
+        <v>0.88027937320590166</v>
+      </c>
+      <c r="T52" s="61">
+        <f t="shared" si="6"/>
+        <v>1.18080939330264</v>
+      </c>
+      <c r="U52" s="62">
+        <f t="shared" si="6"/>
+        <v>0.91181473198117913</v>
+      </c>
+      <c r="V52" s="62">
+        <f t="shared" si="6"/>
+        <v>1.1171301616104528</v>
+      </c>
+      <c r="W52" s="62">
+        <f t="shared" si="6"/>
+        <v>0.57406049728704944</v>
+      </c>
+      <c r="X52" s="62">
+        <f t="shared" si="6"/>
+        <v>1.5744968733028335</v>
+      </c>
+      <c r="Y52" s="62">
+        <f t="shared" si="6"/>
+        <v>0.87357387388320695</v>
+      </c>
+      <c r="Z52" s="62">
+        <f t="shared" si="6"/>
+        <v>0.58387420812114221</v>
+      </c>
+      <c r="AA52" s="62">
+        <f t="shared" si="6"/>
+        <v>0.63065622388689091</v>
+      </c>
+      <c r="AB52" s="62">
+        <f t="shared" si="6"/>
+        <v>0.61381404086879343</v>
+      </c>
+      <c r="AC52" s="62" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T52" s="62">
-        <f t="shared" si="6"/>
-        <v>1.18080939330264</v>
-      </c>
-      <c r="U52" s="63">
-        <f t="shared" si="6"/>
-        <v>0.91181473198117913</v>
-      </c>
-      <c r="V52" s="63">
-        <f t="shared" si="6"/>
-        <v>1.1171301616104528</v>
-      </c>
-      <c r="W52" s="63">
-        <f t="shared" si="6"/>
-        <v>0.57406049728704944</v>
-      </c>
-      <c r="X52" s="63">
-        <f t="shared" si="6"/>
-        <v>1.5744968733028335</v>
-      </c>
-      <c r="Y52" s="63">
-        <f t="shared" si="6"/>
-        <v>0.87357387388320695</v>
-      </c>
-      <c r="Z52" s="63">
-        <f t="shared" si="6"/>
-        <v>0.58387420812114221</v>
-      </c>
-      <c r="AA52" s="63">
-        <f t="shared" si="6"/>
-        <v>0.63065622388689091</v>
-      </c>
-      <c r="AB52" s="63">
-        <f t="shared" si="6"/>
-        <v>0.61381404086879343</v>
-      </c>
-      <c r="AC52" s="63" t="e">
+      <c r="AD52" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="64" t="e">
+      <c r="AE52" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE52" s="62" t="e">
+      <c r="AF52" s="62" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF52" s="63" t="e">
+      <c r="AG52" s="62" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG52" s="63" t="e">
+      <c r="AH52" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH52" s="64" t="e">
+      <c r="AI52" s="64">
+        <f t="shared" si="6"/>
+        <v>19.710596942314726</v>
+      </c>
+      <c r="AJ52" s="62">
+        <f t="shared" si="6"/>
+        <v>13.917342218652323</v>
+      </c>
+      <c r="AK52" s="62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL52" s="62" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI52" s="65">
+      <c r="AM52" s="62">
         <f t="shared" si="6"/>
-        <v>17.95786645519372</v>
-      </c>
-      <c r="AJ52" s="63">
-        <f t="shared" si="6"/>
-        <v>13.917342218652323</v>
-      </c>
-      <c r="AK52" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL52" s="63" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM52" s="63">
-        <f t="shared" si="6"/>
-        <v>8.4285418056775239</v>
-      </c>
-      <c r="AN52" s="63"/>
+        <v>8.8861287363985415</v>
+      </c>
+      <c r="AN52" s="62"/>
     </row>
     <row r="53" spans="6:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
@@ -7017,131 +7061,131 @@
       <c r="H53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="62">
+      <c r="I53" s="61">
         <f t="shared" ref="I53:AM53" si="7">MAX(I2:I48)</f>
         <v>10</v>
       </c>
-      <c r="J53" s="63">
+      <c r="J53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="K53" s="63">
+      <c r="K53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L53" s="63">
+      <c r="L53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="M53" s="63">
+      <c r="M53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="N53" s="63">
+      <c r="N53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="O53" s="63">
+      <c r="O53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="P53" s="63">
+      <c r="P53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Q53" s="63">
+      <c r="Q53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="R53" s="63">
+      <c r="R53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="S53" s="64">
+      <c r="S53" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="62">
+        <v>10</v>
+      </c>
+      <c r="T53" s="61">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="U53" s="63">
+      <c r="U53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="V53" s="63">
+      <c r="V53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="W53" s="63">
+      <c r="W53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="X53" s="63">
+      <c r="X53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Y53" s="63">
+      <c r="Y53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="Z53" s="63">
+      <c r="Z53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AA53" s="63">
+      <c r="AA53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AB53" s="63">
+      <c r="AB53" s="62">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AC53" s="63">
+      <c r="AC53" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="64">
+      <c r="AD53" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="62">
+      <c r="AE53" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF53" s="63">
+      <c r="AF53" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="63">
+      <c r="AG53" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="64">
+      <c r="AH53" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AI53" s="65">
+      <c r="AI53" s="64">
         <f t="shared" si="7"/>
-        <v>97.5</v>
-      </c>
-      <c r="AJ53" s="63">
+        <v>107.5</v>
+      </c>
+      <c r="AJ53" s="62">
         <f t="shared" si="7"/>
         <v>88.5</v>
       </c>
-      <c r="AK53" s="63">
+      <c r="AK53" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL53" s="63">
+      <c r="AL53" s="62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AM53" s="63">
+      <c r="AM53" s="62">
         <f t="shared" si="7"/>
-        <v>50.727272727272727</v>
-      </c>
-      <c r="AN53" s="63"/>
+        <v>53.454545454545453</v>
+      </c>
+      <c r="AN53" s="62"/>
     </row>
     <row r="54" spans="6:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
@@ -7149,147 +7193,134 @@
       <c r="H54" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="66">
+      <c r="I54" s="65">
         <f t="shared" ref="I54:AM54" si="8">MIN(I2:I48)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="67">
+      <c r="J54" s="66">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="K54" s="67">
+      <c r="K54" s="66">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="L54" s="67">
+      <c r="L54" s="66">
         <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
-      <c r="M54" s="67">
+      <c r="M54" s="66">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N54" s="67">
+      <c r="N54" s="66">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O54" s="67">
+      <c r="O54" s="66">
         <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
-      <c r="P54" s="67">
+      <c r="P54" s="66">
         <f t="shared" si="8"/>
         <v>8.5</v>
       </c>
-      <c r="Q54" s="67">
+      <c r="Q54" s="66">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="R54" s="67">
+      <c r="R54" s="66">
         <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="S54" s="68">
+      <c r="S54" s="67">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="66">
+        <v>7</v>
+      </c>
+      <c r="T54" s="65">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="U54" s="67">
+      <c r="U54" s="66">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="V54" s="67">
+      <c r="V54" s="66">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="W54" s="67">
+      <c r="W54" s="66">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="X54" s="67">
+      <c r="X54" s="66">
         <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
-      <c r="Y54" s="67">
+      <c r="Y54" s="66">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="Z54" s="67">
+      <c r="Z54" s="66">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="AA54" s="67">
+      <c r="AA54" s="66">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="AB54" s="67">
+      <c r="AB54" s="66">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="AC54" s="67">
+      <c r="AC54" s="66">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD54" s="68">
+      <c r="AD54" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE54" s="66">
+      <c r="AE54" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF54" s="67">
+      <c r="AF54" s="66">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="67">
+      <c r="AG54" s="66">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH54" s="68">
+      <c r="AH54" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI54" s="65">
+      <c r="AI54" s="64">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="AJ54" s="63">
+      <c r="AJ54" s="62">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="AK54" s="63">
+      <c r="AK54" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL54" s="63">
+      <c r="AL54" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM54" s="63">
+      <c r="AM54" s="62">
         <f t="shared" si="8"/>
         <v>7.0909090909090917</v>
       </c>
-      <c r="AN54" s="63"/>
+      <c r="AN54" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -7300,6 +7331,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7308,12 +7352,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7499,15 +7540,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7531,17 +7583,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17482321-6855-404A-9F06-8E1EEF45DED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDD950-2582-4662-9D53-B525B64E6F26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1315,47 +1304,31 @@
     <xf numFmtId="176" fontId="15" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1374,8 +1347,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1607,7 +1596,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="AC49" sqref="AC49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1767,7 +1756,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="94"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1828,7 +1817,9 @@
       <c r="AB2" s="43">
         <v>10</v>
       </c>
-      <c r="AC2" s="43"/>
+      <c r="AC2" s="43">
+        <v>10</v>
+      </c>
       <c r="AD2" s="44"/>
       <c r="AE2" s="33"/>
       <c r="AF2" s="43"/>
@@ -1840,7 +1831,7 @@
       </c>
       <c r="AJ2" s="43">
         <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>87.5</v>
+        <v>97.5</v>
       </c>
       <c r="AK2" s="43">
         <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1849,7 +1840,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>51.409090909090907</v>
+        <v>54.13636363636364</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1871,7 +1862,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="95"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1932,7 +1923,9 @@
       <c r="AB3" s="43">
         <v>10</v>
       </c>
-      <c r="AC3" s="43"/>
+      <c r="AC3" s="43">
+        <v>10</v>
+      </c>
       <c r="AD3" s="44"/>
       <c r="AE3" s="33"/>
       <c r="AF3" s="43"/>
@@ -1944,7 +1937,7 @@
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>97.5</v>
       </c>
       <c r="AK3" s="43">
         <f t="shared" si="2"/>
@@ -1953,7 +1946,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="43">
         <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>52.772727272727273</v>
+        <v>55.5</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1975,7 +1968,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2036,7 +2029,9 @@
       <c r="AB4" s="43">
         <v>8.5</v>
       </c>
-      <c r="AC4" s="43"/>
+      <c r="AC4" s="43">
+        <v>10</v>
+      </c>
       <c r="AD4" s="44"/>
       <c r="AE4" s="33"/>
       <c r="AF4" s="43"/>
@@ -2048,7 +2043,7 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
-        <v>88.5</v>
+        <v>98.5</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" si="2"/>
@@ -2057,7 +2052,7 @@
       <c r="AL4" s="43"/>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>49.63636363636364</v>
+        <v>52.363636363636367</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2079,7 +2074,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="95"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2140,7 +2135,9 @@
       <c r="AB5" s="43">
         <v>8.5</v>
       </c>
-      <c r="AC5" s="43"/>
+      <c r="AC5" s="43">
+        <v>10</v>
+      </c>
       <c r="AD5" s="44"/>
       <c r="AE5" s="33"/>
       <c r="AF5" s="43"/>
@@ -2152,7 +2149,7 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
-        <v>88.5</v>
+        <v>98.5</v>
       </c>
       <c r="AK5" s="43">
         <f t="shared" si="2"/>
@@ -2161,7 +2158,7 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>53.454545454545453</v>
+        <v>56.181818181818187</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2183,7 +2180,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="94"/>
+      <c r="H6" s="100"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2244,7 +2241,9 @@
       <c r="AB6" s="43">
         <v>9</v>
       </c>
-      <c r="AC6" s="43"/>
+      <c r="AC6" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AD6" s="44"/>
       <c r="AE6" s="33"/>
       <c r="AF6" s="43"/>
@@ -2256,7 +2255,7 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>87.5</v>
       </c>
       <c r="AK6" s="43">
         <f t="shared" si="2"/>
@@ -2265,7 +2264,7 @@
       <c r="AL6" s="43"/>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>49.090909090909093</v>
+        <v>51.68181818181818</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="95"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2348,7 +2347,9 @@
       <c r="AB7" s="43">
         <v>9</v>
       </c>
-      <c r="AC7" s="43"/>
+      <c r="AC7" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AD7" s="44"/>
       <c r="AE7" s="33"/>
       <c r="AF7" s="43"/>
@@ -2360,7 +2361,7 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>87.5</v>
       </c>
       <c r="AK7" s="43">
         <f t="shared" si="2"/>
@@ -2369,7 +2370,7 @@
       <c r="AL7" s="43"/>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>49.909090909090907</v>
+        <v>52.5</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2391,7 +2392,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="94"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2452,7 +2453,9 @@
       <c r="AB8" s="43">
         <v>9</v>
       </c>
-      <c r="AC8" s="43"/>
+      <c r="AC8" s="43">
+        <v>10</v>
+      </c>
       <c r="AD8" s="44"/>
       <c r="AE8" s="33"/>
       <c r="AF8" s="43"/>
@@ -2464,7 +2467,7 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>86.5</v>
+        <v>96.5</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
@@ -2473,7 +2476,7 @@
       <c r="AL8" s="43"/>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>51.13636363636364</v>
+        <v>53.863636363636367</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2495,7 +2498,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="95"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2556,7 +2559,9 @@
       <c r="AB9" s="43">
         <v>9</v>
       </c>
-      <c r="AC9" s="43"/>
+      <c r="AC9" s="43">
+        <v>10</v>
+      </c>
       <c r="AD9" s="44"/>
       <c r="AE9" s="33"/>
       <c r="AF9" s="43"/>
@@ -2568,7 +2573,7 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>86.5</v>
+        <v>96.5</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
@@ -2577,7 +2582,7 @@
       <c r="AL9" s="43"/>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>50.727272727272727</v>
+        <v>53.454545454545453</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2599,7 +2604,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="94"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2660,7 +2665,9 @@
       <c r="AB10" s="43">
         <v>10</v>
       </c>
-      <c r="AC10" s="43"/>
+      <c r="AC10" s="43">
+        <v>10</v>
+      </c>
       <c r="AD10" s="44"/>
       <c r="AE10" s="33"/>
       <c r="AF10" s="43"/>
@@ -2672,7 +2679,7 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
@@ -2681,7 +2688,7 @@
       <c r="AL10" s="43"/>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>51.954545454545453</v>
+        <v>54.68181818181818</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2703,7 +2710,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="95"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2764,7 +2771,9 @@
       <c r="AB11" s="43">
         <v>10</v>
       </c>
-      <c r="AC11" s="43"/>
+      <c r="AC11" s="43">
+        <v>10</v>
+      </c>
       <c r="AD11" s="44"/>
       <c r="AE11" s="33"/>
       <c r="AF11" s="43"/>
@@ -2776,7 +2785,7 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
@@ -2785,7 +2794,7 @@
       <c r="AL11" s="43"/>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>51.13636363636364</v>
+        <v>53.86363636363636</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2807,7 +2816,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="94"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2868,7 +2877,9 @@
       <c r="AB12" s="43">
         <v>10</v>
       </c>
-      <c r="AC12" s="43"/>
+      <c r="AC12" s="43">
+        <v>10</v>
+      </c>
       <c r="AD12" s="44"/>
       <c r="AE12" s="33"/>
       <c r="AF12" s="43"/>
@@ -2880,7 +2891,7 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>97.5</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
@@ -2889,7 +2900,7 @@
       <c r="AL12" s="43"/>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>51.409090909090907</v>
+        <v>54.13636363636364</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2911,7 +2922,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="95"/>
+      <c r="H13" s="101"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -2942,7 +2953,7 @@
       <c r="R13" s="83">
         <v>10</v>
       </c>
-      <c r="S13" s="106">
+      <c r="S13" s="85">
         <v>8</v>
       </c>
       <c r="T13" s="33">
@@ -2972,7 +2983,9 @@
       <c r="AB13" s="82">
         <v>10</v>
       </c>
-      <c r="AC13" s="46"/>
+      <c r="AC13" s="46">
+        <v>10</v>
+      </c>
       <c r="AD13" s="46"/>
       <c r="AE13" s="33"/>
       <c r="AF13" s="43"/>
@@ -2984,7 +2997,7 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>97.5</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
@@ -2993,7 +3006,7 @@
       <c r="AL13" s="43"/>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>50.318181818181813</v>
+        <v>53.045454545454547</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -3015,7 +3028,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="94"/>
+      <c r="H14" s="100"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -3076,7 +3089,9 @@
       <c r="AB14" s="82">
         <v>8</v>
       </c>
-      <c r="AC14" s="43"/>
+      <c r="AC14" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AD14" s="44"/>
       <c r="AE14" s="33"/>
       <c r="AF14" s="43"/>
@@ -3088,7 +3103,7 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>93.5</v>
       </c>
       <c r="AK14" s="43">
         <f t="shared" si="2"/>
@@ -3097,7 +3112,7 @@
       <c r="AL14" s="43"/>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>49.63636363636364</v>
+        <v>52.227272727272727</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
@@ -3119,7 +3134,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="95"/>
+      <c r="H15" s="101"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -3180,7 +3195,9 @@
       <c r="AB15" s="82">
         <v>8</v>
       </c>
-      <c r="AC15" s="43"/>
+      <c r="AC15" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AD15" s="44"/>
       <c r="AE15" s="33"/>
       <c r="AF15" s="43"/>
@@ -3192,7 +3209,7 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>93.5</v>
       </c>
       <c r="AK15" s="43">
         <f t="shared" si="2"/>
@@ -3201,7 +3218,7 @@
       <c r="AL15" s="43"/>
       <c r="AM15" s="43">
         <f t="shared" si="3"/>
-        <v>47.181818181818187</v>
+        <v>49.772727272727273</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
@@ -3223,7 +3240,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="98"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="79">
         <v>0</v>
       </c>
@@ -3295,7 +3312,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="99"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="79">
         <v>0</v>
       </c>
@@ -3356,7 +3373,9 @@
       <c r="AB17" s="82">
         <v>9</v>
       </c>
-      <c r="AC17" s="43"/>
+      <c r="AC17" s="43">
+        <v>10</v>
+      </c>
       <c r="AD17" s="44"/>
       <c r="AE17" s="33"/>
       <c r="AF17" s="43"/>
@@ -3368,7 +3387,7 @@
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
-        <v>81.5</v>
+        <v>91.5</v>
       </c>
       <c r="AK17" s="43">
         <f t="shared" si="2"/>
@@ -3377,7 +3396,7 @@
       <c r="AL17" s="43"/>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>47.31818181818182</v>
+        <v>50.045454545454547</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3399,7 +3418,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="96"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3460,7 +3479,9 @@
       <c r="AB18" s="82">
         <v>9.5</v>
       </c>
-      <c r="AC18" s="43"/>
+      <c r="AC18" s="43">
+        <v>10</v>
+      </c>
       <c r="AD18" s="44"/>
       <c r="AE18" s="33"/>
       <c r="AF18" s="43"/>
@@ -3472,7 +3493,7 @@
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK18" s="43">
         <f t="shared" si="2"/>
@@ -3481,7 +3502,7 @@
       <c r="AL18" s="43"/>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>50.454545454545453</v>
+        <v>53.181818181818187</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
@@ -3503,7 +3524,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="97"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3564,7 +3585,9 @@
       <c r="AB19" s="82">
         <v>9.5</v>
       </c>
-      <c r="AC19" s="43"/>
+      <c r="AC19" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AD19" s="44"/>
       <c r="AE19" s="33"/>
       <c r="AF19" s="43"/>
@@ -3576,7 +3599,7 @@
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>89.5</v>
       </c>
       <c r="AK19" s="43">
         <f t="shared" si="2"/>
@@ -3585,7 +3608,7 @@
       <c r="AL19" s="43"/>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>47.863636363636367</v>
+        <v>50.454545454545453</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3607,7 +3630,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="96"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3668,7 +3691,9 @@
       <c r="AB20" s="43">
         <v>9</v>
       </c>
-      <c r="AC20" s="43"/>
+      <c r="AC20" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AD20" s="44"/>
       <c r="AE20" s="33"/>
       <c r="AF20" s="43"/>
@@ -3680,7 +3705,7 @@
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>89.5</v>
       </c>
       <c r="AK20" s="43">
         <f t="shared" si="2"/>
@@ -3689,7 +3714,7 @@
       <c r="AL20" s="43"/>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>50.045454545454547</v>
+        <v>52.636363636363633</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
@@ -3711,7 +3736,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="97"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="79">
         <v>0</v>
       </c>
@@ -3783,7 +3808,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="104"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3844,7 +3869,9 @@
       <c r="AB22" s="43">
         <v>10</v>
       </c>
-      <c r="AC22" s="43"/>
+      <c r="AC22" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AD22" s="44"/>
       <c r="AE22" s="33"/>
       <c r="AF22" s="43"/>
@@ -3856,7 +3883,7 @@
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>96.5</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
@@ -3865,7 +3892,7 @@
       <c r="AL22" s="43"/>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>50.045454545454547</v>
+        <v>52.63636363636364</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
@@ -3887,7 +3914,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="105"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -3948,7 +3975,9 @@
       <c r="AB23" s="43">
         <v>10</v>
       </c>
-      <c r="AC23" s="43"/>
+      <c r="AC23" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AD23" s="44"/>
       <c r="AE23" s="33"/>
       <c r="AF23" s="43"/>
@@ -3960,7 +3989,7 @@
       </c>
       <c r="AJ23" s="43">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>96.5</v>
       </c>
       <c r="AK23" s="43">
         <f t="shared" si="2"/>
@@ -3969,7 +3998,7 @@
       <c r="AL23" s="43"/>
       <c r="AM23" s="43">
         <f t="shared" si="3"/>
-        <v>50.727272727272727</v>
+        <v>53.31818181818182</v>
       </c>
       <c r="AN23" s="43"/>
     </row>
@@ -3991,7 +4020,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="96"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="79">
         <v>0</v>
       </c>
@@ -4052,7 +4081,9 @@
       <c r="AB24" s="43">
         <v>8</v>
       </c>
-      <c r="AC24" s="43"/>
+      <c r="AC24" s="43">
+        <v>9.5</v>
+      </c>
       <c r="AD24" s="44"/>
       <c r="AE24" s="33"/>
       <c r="AF24" s="43"/>
@@ -4064,7 +4095,7 @@
       </c>
       <c r="AJ24" s="43">
         <f t="shared" si="1"/>
-        <v>81.5</v>
+        <v>91</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="2"/>
@@ -4073,7 +4104,7 @@
       <c r="AL24" s="43"/>
       <c r="AM24" s="43">
         <f t="shared" si="3"/>
-        <v>47.590909090909093</v>
+        <v>50.18181818181818</v>
       </c>
       <c r="AN24" s="43"/>
     </row>
@@ -4095,7 +4126,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="103"/>
+      <c r="H25" s="97"/>
       <c r="I25" s="47">
         <v>8.5</v>
       </c>
@@ -4156,7 +4187,9 @@
       <c r="AB25" s="48">
         <v>8</v>
       </c>
-      <c r="AC25" s="48"/>
+      <c r="AC25" s="48">
+        <v>9.5</v>
+      </c>
       <c r="AD25" s="49"/>
       <c r="AE25" s="47"/>
       <c r="AF25" s="48"/>
@@ -4168,7 +4201,7 @@
       </c>
       <c r="AJ25" s="48">
         <f t="shared" si="1"/>
-        <v>81.5</v>
+        <v>91</v>
       </c>
       <c r="AK25" s="48">
         <f t="shared" si="2"/>
@@ -4177,7 +4210,7 @@
       <c r="AL25" s="48"/>
       <c r="AM25" s="48">
         <f t="shared" si="3"/>
-        <v>47.727272727272734</v>
+        <v>50.318181818181813</v>
       </c>
       <c r="AN25" s="48"/>
     </row>
@@ -4199,7 +4232,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="100"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="50">
         <v>5.5</v>
       </c>
@@ -4258,7 +4291,9 @@
       <c r="AB26" s="51">
         <v>9</v>
       </c>
-      <c r="AC26" s="51"/>
+      <c r="AC26" s="51">
+        <v>10</v>
+      </c>
       <c r="AD26" s="52"/>
       <c r="AE26" s="50"/>
       <c r="AF26" s="51"/>
@@ -4270,7 +4305,7 @@
       </c>
       <c r="AJ26" s="54">
         <f t="shared" si="1"/>
-        <v>82.5</v>
+        <v>92.5</v>
       </c>
       <c r="AK26" s="54">
         <f t="shared" si="2"/>
@@ -4279,7 +4314,7 @@
       <c r="AL26" s="51"/>
       <c r="AM26" s="54">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>47.318181818181813</v>
+        <v>50.045454545454547</v>
       </c>
       <c r="AN26" s="51"/>
     </row>
@@ -4301,7 +4336,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="101"/>
+      <c r="H27" s="95"/>
       <c r="I27" s="55">
         <v>7</v>
       </c>
@@ -4360,7 +4395,9 @@
       <c r="AB27" s="56">
         <v>9</v>
       </c>
-      <c r="AC27" s="56"/>
+      <c r="AC27" s="56">
+        <v>10</v>
+      </c>
       <c r="AD27" s="57"/>
       <c r="AE27" s="55"/>
       <c r="AF27" s="56"/>
@@ -4372,7 +4409,7 @@
       </c>
       <c r="AJ27" s="59">
         <f t="shared" si="1"/>
-        <v>82.5</v>
+        <v>92.5</v>
       </c>
       <c r="AK27" s="59">
         <f t="shared" si="2"/>
@@ -4381,7 +4418,7 @@
       <c r="AL27" s="56"/>
       <c r="AM27" s="59">
         <f t="shared" si="3"/>
-        <v>46.63636363636364</v>
+        <v>49.36363636363636</v>
       </c>
       <c r="AN27" s="56"/>
     </row>
@@ -4403,7 +4440,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="102"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="55">
         <v>8</v>
       </c>
@@ -4462,7 +4499,9 @@
       <c r="AB28" s="56">
         <v>9</v>
       </c>
-      <c r="AC28" s="56"/>
+      <c r="AC28" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD28" s="57"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="56"/>
@@ -4474,7 +4513,7 @@
       </c>
       <c r="AJ28" s="59">
         <f t="shared" si="1"/>
-        <v>74.5</v>
+        <v>84</v>
       </c>
       <c r="AK28" s="59">
         <f t="shared" si="2"/>
@@ -4483,7 +4522,7 @@
       <c r="AL28" s="56"/>
       <c r="AM28" s="59">
         <f t="shared" si="3"/>
-        <v>44.72727272727272</v>
+        <v>47.318181818181813</v>
       </c>
       <c r="AN28" s="56"/>
     </row>
@@ -4505,7 +4544,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="101"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="55">
         <v>10</v>
       </c>
@@ -4564,7 +4603,9 @@
       <c r="AB29" s="56">
         <v>9</v>
       </c>
-      <c r="AC29" s="56"/>
+      <c r="AC29" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD29" s="57"/>
       <c r="AE29" s="55"/>
       <c r="AF29" s="56"/>
@@ -4576,7 +4617,7 @@
       </c>
       <c r="AJ29" s="59">
         <f t="shared" si="1"/>
-        <v>74.5</v>
+        <v>84</v>
       </c>
       <c r="AK29" s="59">
         <f t="shared" si="2"/>
@@ -4585,7 +4626,7 @@
       <c r="AL29" s="56"/>
       <c r="AM29" s="59">
         <f t="shared" si="3"/>
-        <v>46.772727272727266</v>
+        <v>49.36363636363636</v>
       </c>
       <c r="AN29" s="56"/>
     </row>
@@ -4607,7 +4648,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="102"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="55">
         <v>9</v>
       </c>
@@ -4666,7 +4707,9 @@
       <c r="AB30" s="56">
         <v>9</v>
       </c>
-      <c r="AC30" s="56"/>
+      <c r="AC30" s="56">
+        <v>10</v>
+      </c>
       <c r="AD30" s="57"/>
       <c r="AE30" s="55"/>
       <c r="AF30" s="56"/>
@@ -4678,7 +4721,7 @@
       </c>
       <c r="AJ30" s="59">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK30" s="59">
         <f t="shared" si="2"/>
@@ -4687,7 +4730,7 @@
       <c r="AL30" s="56"/>
       <c r="AM30" s="59">
         <f t="shared" si="3"/>
-        <v>49.227272727272734</v>
+        <v>51.954545454545453</v>
       </c>
       <c r="AN30" s="56"/>
     </row>
@@ -4709,7 +4752,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="101"/>
+      <c r="H31" s="95"/>
       <c r="I31" s="55">
         <v>8</v>
       </c>
@@ -4768,7 +4811,9 @@
       <c r="AB31" s="56">
         <v>9</v>
       </c>
-      <c r="AC31" s="56"/>
+      <c r="AC31" s="56">
+        <v>10</v>
+      </c>
       <c r="AD31" s="57"/>
       <c r="AE31" s="55"/>
       <c r="AF31" s="56"/>
@@ -4780,7 +4825,7 @@
       </c>
       <c r="AJ31" s="59">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK31" s="59">
         <f t="shared" si="2"/>
@@ -4789,7 +4834,7 @@
       <c r="AL31" s="56"/>
       <c r="AM31" s="59">
         <f t="shared" si="3"/>
-        <v>49.363636363636367</v>
+        <v>52.090909090909093</v>
       </c>
       <c r="AN31" s="56"/>
     </row>
@@ -4811,7 +4856,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="85"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="55">
         <v>5.5</v>
       </c>
@@ -4870,7 +4915,9 @@
       <c r="AB32" s="56">
         <v>9</v>
       </c>
-      <c r="AC32" s="56"/>
+      <c r="AC32" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD32" s="57"/>
       <c r="AE32" s="55"/>
       <c r="AF32" s="56"/>
@@ -4882,7 +4929,7 @@
       </c>
       <c r="AJ32" s="59">
         <f t="shared" si="1"/>
-        <v>71.5</v>
+        <v>81</v>
       </c>
       <c r="AK32" s="59">
         <f t="shared" si="2"/>
@@ -4891,7 +4938,7 @@
       <c r="AL32" s="56"/>
       <c r="AM32" s="59">
         <f t="shared" si="3"/>
-        <v>41.454545454545453</v>
+        <v>44.045454545454547</v>
       </c>
       <c r="AN32" s="56"/>
     </row>
@@ -4913,7 +4960,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="86"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="55">
         <v>10</v>
       </c>
@@ -4972,7 +5019,9 @@
       <c r="AB33" s="56">
         <v>9</v>
       </c>
-      <c r="AC33" s="56"/>
+      <c r="AC33" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD33" s="57"/>
       <c r="AE33" s="55"/>
       <c r="AF33" s="56"/>
@@ -4984,7 +5033,7 @@
       </c>
       <c r="AJ33" s="59">
         <f t="shared" si="1"/>
-        <v>71.5</v>
+        <v>81</v>
       </c>
       <c r="AK33" s="59">
         <f t="shared" si="2"/>
@@ -4993,7 +5042,7 @@
       <c r="AL33" s="56"/>
       <c r="AM33" s="59">
         <f t="shared" si="3"/>
-        <v>43.5</v>
+        <v>46.090909090909093</v>
       </c>
       <c r="AN33" s="56"/>
     </row>
@@ -5015,7 +5064,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="89"/>
+      <c r="H34" s="92"/>
       <c r="I34" s="55">
         <v>8</v>
       </c>
@@ -5074,7 +5123,9 @@
       <c r="AB34" s="56">
         <v>10</v>
       </c>
-      <c r="AC34" s="56"/>
+      <c r="AC34" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD34" s="57"/>
       <c r="AE34" s="55"/>
       <c r="AF34" s="56"/>
@@ -5086,7 +5137,7 @@
       </c>
       <c r="AJ34" s="59">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>95.5</v>
       </c>
       <c r="AK34" s="59">
         <f t="shared" si="2"/>
@@ -5095,7 +5146,7 @@
       <c r="AL34" s="56"/>
       <c r="AM34" s="59">
         <f t="shared" si="3"/>
-        <v>49.909090909090907</v>
+        <v>52.5</v>
       </c>
       <c r="AN34" s="56"/>
     </row>
@@ -5117,7 +5168,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="91"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="55">
         <v>8</v>
       </c>
@@ -5176,7 +5227,9 @@
       <c r="AB35" s="56">
         <v>10</v>
       </c>
-      <c r="AC35" s="56"/>
+      <c r="AC35" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD35" s="57"/>
       <c r="AE35" s="55"/>
       <c r="AF35" s="56"/>
@@ -5188,7 +5241,7 @@
       </c>
       <c r="AJ35" s="59">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>95.5</v>
       </c>
       <c r="AK35" s="59">
         <f t="shared" si="2"/>
@@ -5197,7 +5250,7 @@
       <c r="AL35" s="56"/>
       <c r="AM35" s="59">
         <f t="shared" si="3"/>
-        <v>48.681818181818187</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN35" s="56"/>
     </row>
@@ -5219,7 +5272,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="85"/>
+      <c r="H36" s="90"/>
       <c r="I36" s="55">
         <v>8</v>
       </c>
@@ -5278,7 +5331,9 @@
       <c r="AB36" s="56">
         <v>9</v>
       </c>
-      <c r="AC36" s="56"/>
+      <c r="AC36" s="56">
+        <v>9</v>
+      </c>
       <c r="AD36" s="57"/>
       <c r="AE36" s="55"/>
       <c r="AF36" s="56"/>
@@ -5290,7 +5345,7 @@
       </c>
       <c r="AJ36" s="59">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="59">
         <f t="shared" si="2"/>
@@ -5299,7 +5354,7 @@
       <c r="AL36" s="56"/>
       <c r="AM36" s="59">
         <f t="shared" si="3"/>
-        <v>47.590909090909093</v>
+        <v>50.045454545454547</v>
       </c>
       <c r="AN36" s="56"/>
     </row>
@@ -5321,7 +5376,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="86"/>
+      <c r="H37" s="91"/>
       <c r="I37" s="55">
         <v>8</v>
       </c>
@@ -5380,7 +5435,9 @@
       <c r="AB37" s="56">
         <v>9</v>
       </c>
-      <c r="AC37" s="56"/>
+      <c r="AC37" s="56">
+        <v>9</v>
+      </c>
       <c r="AD37" s="57"/>
       <c r="AE37" s="55"/>
       <c r="AF37" s="56"/>
@@ -5392,7 +5449,7 @@
       </c>
       <c r="AJ37" s="59">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AK37" s="59">
         <f t="shared" si="2"/>
@@ -5401,7 +5458,7 @@
       <c r="AL37" s="56"/>
       <c r="AM37" s="59">
         <f t="shared" si="3"/>
-        <v>47.590909090909093</v>
+        <v>50.045454545454547</v>
       </c>
       <c r="AN37" s="56"/>
     </row>
@@ -5423,7 +5480,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="89"/>
+      <c r="H38" s="92"/>
       <c r="I38" s="55">
         <v>9</v>
       </c>
@@ -5482,7 +5539,9 @@
       <c r="AB38" s="56">
         <v>8.5</v>
       </c>
-      <c r="AC38" s="56"/>
+      <c r="AC38" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD38" s="57"/>
       <c r="AE38" s="55"/>
       <c r="AF38" s="56"/>
@@ -5494,7 +5553,7 @@
       </c>
       <c r="AJ38" s="59">
         <f t="shared" si="1"/>
-        <v>80.5</v>
+        <v>90</v>
       </c>
       <c r="AK38" s="59">
         <f t="shared" si="2"/>
@@ -5503,7 +5562,7 @@
       <c r="AL38" s="56"/>
       <c r="AM38" s="59">
         <f t="shared" si="3"/>
-        <v>46.909090909090907</v>
+        <v>49.5</v>
       </c>
       <c r="AN38" s="56"/>
     </row>
@@ -5525,7 +5584,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="90"/>
+      <c r="H39" s="104"/>
       <c r="I39" s="55">
         <v>8</v>
       </c>
@@ -5584,7 +5643,9 @@
       <c r="AB39" s="56">
         <v>8.5</v>
       </c>
-      <c r="AC39" s="56"/>
+      <c r="AC39" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD39" s="57"/>
       <c r="AE39" s="55"/>
       <c r="AF39" s="56"/>
@@ -5596,7 +5657,7 @@
       </c>
       <c r="AJ39" s="59">
         <f t="shared" si="1"/>
-        <v>80.5</v>
+        <v>90</v>
       </c>
       <c r="AK39" s="59">
         <f t="shared" si="2"/>
@@ -5605,7 +5666,7 @@
       <c r="AL39" s="56"/>
       <c r="AM39" s="59">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>47.590909090909093</v>
       </c>
       <c r="AN39" s="56"/>
     </row>
@@ -5627,7 +5688,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="91"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="55">
         <v>9.5</v>
       </c>
@@ -5686,7 +5747,9 @@
       <c r="AB40" s="56">
         <v>8.5</v>
       </c>
-      <c r="AC40" s="56"/>
+      <c r="AC40" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD40" s="57"/>
       <c r="AE40" s="55"/>
       <c r="AF40" s="56"/>
@@ -5698,7 +5761,7 @@
       </c>
       <c r="AJ40" s="59">
         <f t="shared" si="1"/>
-        <v>80.5</v>
+        <v>90</v>
       </c>
       <c r="AK40" s="59">
         <f t="shared" si="2"/>
@@ -5707,7 +5770,7 @@
       <c r="AL40" s="56"/>
       <c r="AM40" s="59">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>45.681818181818187</v>
       </c>
       <c r="AN40" s="56"/>
     </row>
@@ -5729,7 +5792,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="85"/>
+      <c r="H41" s="90"/>
       <c r="I41" s="55">
         <v>5.5</v>
       </c>
@@ -5788,7 +5851,9 @@
       <c r="AB41" s="56">
         <v>9.5</v>
       </c>
-      <c r="AC41" s="56"/>
+      <c r="AC41" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD41" s="57"/>
       <c r="AE41" s="55"/>
       <c r="AF41" s="56"/>
@@ -5800,7 +5865,7 @@
       </c>
       <c r="AJ41" s="59">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>93.5</v>
       </c>
       <c r="AK41" s="59">
         <f t="shared" si="2"/>
@@ -5809,7 +5874,7 @@
       <c r="AL41" s="56"/>
       <c r="AM41" s="59">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
+        <v>39.13636363636364</v>
       </c>
       <c r="AN41" s="56"/>
     </row>
@@ -5831,7 +5896,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="86"/>
+      <c r="H42" s="91"/>
       <c r="I42" s="55">
         <v>7.5</v>
       </c>
@@ -5890,7 +5955,9 @@
       <c r="AB42" s="56">
         <v>9.5</v>
       </c>
-      <c r="AC42" s="56"/>
+      <c r="AC42" s="56">
+        <v>9.5</v>
+      </c>
       <c r="AD42" s="57"/>
       <c r="AE42" s="55"/>
       <c r="AF42" s="56"/>
@@ -5902,7 +5969,7 @@
       </c>
       <c r="AJ42" s="59">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>93.5</v>
       </c>
       <c r="AK42" s="59">
         <f t="shared" si="2"/>
@@ -5911,7 +5978,7 @@
       <c r="AL42" s="56"/>
       <c r="AM42" s="59">
         <f t="shared" si="3"/>
-        <v>45.272727272727273</v>
+        <v>47.86363636363636</v>
       </c>
       <c r="AN42" s="56"/>
     </row>
@@ -5933,7 +6000,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="85"/>
+      <c r="H43" s="90"/>
       <c r="I43" s="55">
         <v>7.5</v>
       </c>
@@ -5992,7 +6059,9 @@
       <c r="AB43" s="56">
         <v>8.5</v>
       </c>
-      <c r="AC43" s="56"/>
+      <c r="AC43" s="56">
+        <v>9</v>
+      </c>
       <c r="AD43" s="57"/>
       <c r="AE43" s="55"/>
       <c r="AF43" s="56"/>
@@ -6004,7 +6073,7 @@
       </c>
       <c r="AJ43" s="59">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AK43" s="59">
         <f t="shared" si="2"/>
@@ -6013,7 +6082,7 @@
       <c r="AL43" s="56"/>
       <c r="AM43" s="59">
         <f t="shared" si="3"/>
-        <v>44.045454545454547</v>
+        <v>46.5</v>
       </c>
       <c r="AN43" s="56"/>
     </row>
@@ -6035,7 +6104,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="86"/>
+      <c r="H44" s="91"/>
       <c r="I44" s="60">
         <v>0</v>
       </c>
@@ -6094,7 +6163,9 @@
       <c r="AB44" s="56">
         <v>8.5</v>
       </c>
-      <c r="AC44" s="56"/>
+      <c r="AC44" s="56">
+        <v>9</v>
+      </c>
       <c r="AD44" s="57"/>
       <c r="AE44" s="55"/>
       <c r="AF44" s="56"/>
@@ -6106,7 +6177,7 @@
       </c>
       <c r="AJ44" s="59">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AK44" s="59">
         <f t="shared" si="2"/>
@@ -6115,7 +6186,7 @@
       <c r="AL44" s="56"/>
       <c r="AM44" s="59">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>44.454545454545453</v>
       </c>
       <c r="AN44" s="56"/>
     </row>
@@ -6137,7 +6208,7 @@
       </c>
       <c r="F45" s="70"/>
       <c r="G45" s="70"/>
-      <c r="H45" s="92"/>
+      <c r="H45" s="105"/>
       <c r="I45" s="73">
         <v>10</v>
       </c>
@@ -6196,7 +6267,9 @@
       <c r="AB45" s="80">
         <v>9.5</v>
       </c>
-      <c r="AC45" s="80"/>
+      <c r="AC45" s="80">
+        <v>9.5</v>
+      </c>
       <c r="AD45" s="81"/>
       <c r="AE45" s="73"/>
       <c r="AF45" s="80"/>
@@ -6208,7 +6281,7 @@
       </c>
       <c r="AJ45" s="59">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>91.5</v>
       </c>
       <c r="AK45" s="59">
         <f t="shared" si="2"/>
@@ -6217,7 +6290,7 @@
       <c r="AL45" s="56"/>
       <c r="AM45" s="59">
         <f t="shared" si="3"/>
-        <v>46.36363636363636</v>
+        <v>48.954545454545453</v>
       </c>
       <c r="AN45" s="56"/>
     </row>
@@ -6239,7 +6312,7 @@
       </c>
       <c r="F46" s="74"/>
       <c r="G46" s="74"/>
-      <c r="H46" s="93"/>
+      <c r="H46" s="106"/>
       <c r="I46" s="73">
         <v>10</v>
       </c>
@@ -6298,7 +6371,9 @@
       <c r="AB46" s="80">
         <v>9.5</v>
       </c>
-      <c r="AC46" s="80"/>
+      <c r="AC46" s="80">
+        <v>9.5</v>
+      </c>
       <c r="AD46" s="81"/>
       <c r="AE46" s="73"/>
       <c r="AF46" s="80"/>
@@ -6310,7 +6385,7 @@
       </c>
       <c r="AJ46" s="59">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>91.5</v>
       </c>
       <c r="AK46" s="59">
         <f t="shared" si="2"/>
@@ -6319,7 +6394,7 @@
       <c r="AL46" s="56"/>
       <c r="AM46" s="59">
         <f t="shared" si="3"/>
-        <v>48.13636363636364</v>
+        <v>50.727272727272727</v>
       </c>
       <c r="AN46" s="56"/>
     </row>
@@ -6341,7 +6416,7 @@
       </c>
       <c r="F47" s="74"/>
       <c r="G47" s="74"/>
-      <c r="H47" s="87"/>
+      <c r="H47" s="102"/>
       <c r="I47" s="73">
         <v>8</v>
       </c>
@@ -6400,7 +6475,9 @@
       <c r="AB47" s="80">
         <v>9</v>
       </c>
-      <c r="AC47" s="80"/>
+      <c r="AC47" s="80">
+        <v>10</v>
+      </c>
       <c r="AD47" s="81"/>
       <c r="AE47" s="73"/>
       <c r="AF47" s="80"/>
@@ -6412,7 +6489,7 @@
       </c>
       <c r="AJ47" s="59">
         <f t="shared" si="1"/>
-        <v>81.5</v>
+        <v>91.5</v>
       </c>
       <c r="AK47" s="59">
         <f t="shared" si="2"/>
@@ -6421,7 +6498,7 @@
       <c r="AL47" s="56"/>
       <c r="AM47" s="59">
         <f t="shared" si="3"/>
-        <v>47.86363636363636</v>
+        <v>50.590909090909086</v>
       </c>
       <c r="AN47" s="56"/>
     </row>
@@ -6443,7 +6520,7 @@
       </c>
       <c r="F48" s="76"/>
       <c r="G48" s="76"/>
-      <c r="H48" s="88"/>
+      <c r="H48" s="103"/>
       <c r="I48" s="73">
         <v>3.5</v>
       </c>
@@ -6502,7 +6579,9 @@
       <c r="AB48" s="80">
         <v>9</v>
       </c>
-      <c r="AC48" s="80"/>
+      <c r="AC48" s="80">
+        <v>10</v>
+      </c>
       <c r="AD48" s="81"/>
       <c r="AE48" s="73"/>
       <c r="AF48" s="80"/>
@@ -6514,7 +6593,7 @@
       </c>
       <c r="AJ48" s="59">
         <f t="shared" si="1"/>
-        <v>81.5</v>
+        <v>91.5</v>
       </c>
       <c r="AK48" s="59">
         <f t="shared" si="2"/>
@@ -6523,7 +6602,7 @@
       <c r="AL48" s="56"/>
       <c r="AM48" s="59">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>47.72727272727272</v>
       </c>
       <c r="AN48" s="56"/>
     </row>
@@ -6613,9 +6692,9 @@
         <f>AVERAGE(AB2:AB32)</f>
         <v>9.137931034482758</v>
       </c>
-      <c r="AC49" s="62" t="e">
+      <c r="AC49" s="62">
         <f>AVERAGE(AC2:AC25)</f>
-        <v>#DIV/0!</v>
+        <v>9.7727272727272734</v>
       </c>
       <c r="AD49" s="63" t="e">
         <f>AVERAGE(AD2:AD32)</f>
@@ -6643,7 +6722,7 @@
       </c>
       <c r="AJ49" s="62">
         <f>AVERAGE(AJ2:AJ25)</f>
-        <v>78.916666666666671</v>
+        <v>87.875</v>
       </c>
       <c r="AK49" s="62">
         <f>AVERAGE(AK2:AK25)</f>
@@ -6655,7 +6734,7 @@
       </c>
       <c r="AM49" s="62">
         <f>AVERAGE(AM2:AM25)</f>
-        <v>46.50568181818182</v>
+        <v>48.948863636363633</v>
       </c>
       <c r="AN49" s="62"/>
     </row>
@@ -6745,9 +6824,9 @@
         <f t="shared" si="4"/>
         <v>9.0652173913043477</v>
       </c>
-      <c r="AC50" s="62" t="e">
+      <c r="AC50" s="62">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.5434782608695645</v>
       </c>
       <c r="AD50" s="63" t="e">
         <f t="shared" si="4"/>
@@ -6775,7 +6854,7 @@
       </c>
       <c r="AJ50" s="62">
         <f t="shared" si="4"/>
-        <v>80.847826086956516</v>
+        <v>90.391304347826093</v>
       </c>
       <c r="AK50" s="62">
         <f t="shared" si="4"/>
@@ -6787,7 +6866,7 @@
       </c>
       <c r="AM50" s="62">
         <f t="shared" si="4"/>
-        <v>45.782608695652172</v>
+        <v>48.385375494071141</v>
       </c>
       <c r="AN50" s="62"/>
     </row>
@@ -6877,9 +6956,9 @@
         <f t="shared" si="5"/>
         <v>9.1222222222222218</v>
       </c>
-      <c r="AC51" s="62" t="e">
+      <c r="AC51" s="62">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.655555555555555</v>
       </c>
       <c r="AD51" s="63" t="e">
         <f t="shared" si="5"/>
@@ -6907,7 +6986,7 @@
       </c>
       <c r="AJ51" s="62">
         <f t="shared" si="5"/>
-        <v>79.861702127659569</v>
+        <v>89.106382978723403</v>
       </c>
       <c r="AK51" s="62">
         <f t="shared" si="5"/>
@@ -6919,7 +6998,7 @@
       </c>
       <c r="AM51" s="62">
         <f t="shared" si="5"/>
-        <v>46.151837524177949</v>
+        <v>48.673114119922609</v>
       </c>
       <c r="AN51" s="62"/>
     </row>
@@ -7009,9 +7088,9 @@
         <f t="shared" si="6"/>
         <v>0.61381404086879343</v>
       </c>
-      <c r="AC52" s="62" t="e">
+      <c r="AC52" s="62">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.31662679174783243</v>
       </c>
       <c r="AD52" s="63" t="e">
         <f t="shared" si="6"/>
@@ -7039,7 +7118,7 @@
       </c>
       <c r="AJ52" s="62">
         <f t="shared" si="6"/>
-        <v>13.917342218652323</v>
+        <v>15.846044688972761</v>
       </c>
       <c r="AK52" s="62">
         <f t="shared" si="6"/>
@@ -7051,7 +7130,7 @@
       </c>
       <c r="AM52" s="62">
         <f t="shared" si="6"/>
-        <v>8.8861287363985415</v>
+        <v>9.4035644646318772</v>
       </c>
       <c r="AN52" s="62"/>
     </row>
@@ -7143,7 +7222,7 @@
       </c>
       <c r="AC53" s="62">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD53" s="63">
         <f t="shared" si="7"/>
@@ -7171,7 +7250,7 @@
       </c>
       <c r="AJ53" s="62">
         <f t="shared" si="7"/>
-        <v>88.5</v>
+        <v>98.5</v>
       </c>
       <c r="AK53" s="62">
         <f t="shared" si="7"/>
@@ -7183,7 +7262,7 @@
       </c>
       <c r="AM53" s="62">
         <f t="shared" si="7"/>
-        <v>53.454545454545453</v>
+        <v>56.181818181818187</v>
       </c>
       <c r="AN53" s="62"/>
     </row>
@@ -7275,7 +7354,7 @@
       </c>
       <c r="AC54" s="66">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD54" s="67">
         <f t="shared" si="8"/>
@@ -7321,6 +7400,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -7331,19 +7423,6 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7358,6 +7437,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -7539,15 +7627,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
@@ -7565,6 +7644,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7580,12 +7667,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDD950-2582-4662-9D53-B525B64E6F26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0DC1D4-B633-403C-8E80-6C81EB965954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1307,6 +1318,37 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1317,18 +1359,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,25 +1376,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1596,7 +1607,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC49" sqref="AC49"/>
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1756,7 +1767,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="100"/>
+      <c r="H2" s="95"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1862,7 +1873,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="101"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1968,7 +1979,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="100"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2074,7 +2085,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="101"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2180,7 +2191,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="100"/>
+      <c r="H6" s="95"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2286,7 +2297,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="101"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2392,7 +2403,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="100"/>
+      <c r="H8" s="95"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2498,7 +2509,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="101"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2604,7 +2615,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="100"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2710,7 +2721,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="101"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2816,7 +2827,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="100"/>
+      <c r="H12" s="95"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2922,7 +2933,7 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="101"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
@@ -3028,7 +3039,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="100"/>
+      <c r="H14" s="95"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -3134,7 +3145,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="101"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -3240,7 +3251,7 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="88"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="79">
         <v>0</v>
       </c>
@@ -3312,7 +3323,7 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="89"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="79">
         <v>0</v>
       </c>
@@ -3418,7 +3429,7 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="86"/>
+      <c r="H18" s="97"/>
       <c r="I18" s="33">
         <v>9</v>
       </c>
@@ -3524,7 +3535,7 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="87"/>
+      <c r="H19" s="98"/>
       <c r="I19" s="33">
         <v>8</v>
       </c>
@@ -3630,7 +3641,7 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="86"/>
+      <c r="H20" s="97"/>
       <c r="I20" s="33">
         <v>10</v>
       </c>
@@ -3736,7 +3747,7 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="87"/>
+      <c r="H21" s="98"/>
       <c r="I21" s="79">
         <v>0</v>
       </c>
@@ -3808,7 +3819,7 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="98"/>
+      <c r="H22" s="105"/>
       <c r="I22" s="33">
         <v>6.5</v>
       </c>
@@ -3914,7 +3925,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="99"/>
+      <c r="H23" s="106"/>
       <c r="I23" s="33">
         <v>10</v>
       </c>
@@ -4020,7 +4031,7 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="86"/>
+      <c r="H24" s="97"/>
       <c r="I24" s="79">
         <v>0</v>
       </c>
@@ -4126,7 +4137,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="97"/>
+      <c r="H25" s="104"/>
       <c r="I25" s="47">
         <v>8.5</v>
       </c>
@@ -4232,7 +4243,7 @@
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="94"/>
+      <c r="H26" s="101"/>
       <c r="I26" s="50">
         <v>5.5</v>
       </c>
@@ -4263,7 +4274,9 @@
       <c r="R26" s="51">
         <v>9</v>
       </c>
-      <c r="S26" s="52"/>
+      <c r="S26" s="52">
+        <v>10</v>
+      </c>
       <c r="T26" s="50">
         <v>7.5</v>
       </c>
@@ -4301,7 +4314,7 @@
       <c r="AH26" s="52"/>
       <c r="AI26" s="53">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AJ26" s="54">
         <f t="shared" si="1"/>
@@ -4314,7 +4327,7 @@
       <c r="AL26" s="51"/>
       <c r="AM26" s="54">
         <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>50.045454545454547</v>
+        <v>52.772727272727273</v>
       </c>
       <c r="AN26" s="51"/>
     </row>
@@ -4336,7 +4349,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="95"/>
+      <c r="H27" s="102"/>
       <c r="I27" s="55">
         <v>7</v>
       </c>
@@ -4367,7 +4380,9 @@
       <c r="R27" s="56">
         <v>9</v>
       </c>
-      <c r="S27" s="57"/>
+      <c r="S27" s="57">
+        <v>10</v>
+      </c>
       <c r="T27" s="55">
         <v>7.5</v>
       </c>
@@ -4405,7 +4420,7 @@
       <c r="AH27" s="57"/>
       <c r="AI27" s="58">
         <f t="shared" si="0"/>
-        <v>88.5</v>
+        <v>98.5</v>
       </c>
       <c r="AJ27" s="59">
         <f t="shared" si="1"/>
@@ -4418,7 +4433,7 @@
       <c r="AL27" s="56"/>
       <c r="AM27" s="59">
         <f t="shared" si="3"/>
-        <v>49.36363636363636</v>
+        <v>52.090909090909093</v>
       </c>
       <c r="AN27" s="56"/>
     </row>
@@ -4440,7 +4455,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="96"/>
+      <c r="H28" s="103"/>
       <c r="I28" s="55">
         <v>8</v>
       </c>
@@ -4471,7 +4486,9 @@
       <c r="R28" s="56">
         <v>7.5</v>
       </c>
-      <c r="S28" s="57"/>
+      <c r="S28" s="57">
+        <v>10</v>
+      </c>
       <c r="T28" s="55">
         <v>8</v>
       </c>
@@ -4509,7 +4526,7 @@
       <c r="AH28" s="57"/>
       <c r="AI28" s="58">
         <f t="shared" si="0"/>
-        <v>89.5</v>
+        <v>99.5</v>
       </c>
       <c r="AJ28" s="59">
         <f t="shared" si="1"/>
@@ -4522,7 +4539,7 @@
       <c r="AL28" s="56"/>
       <c r="AM28" s="59">
         <f t="shared" si="3"/>
-        <v>47.318181818181813</v>
+        <v>50.045454545454547</v>
       </c>
       <c r="AN28" s="56"/>
     </row>
@@ -4544,7 +4561,7 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="95"/>
+      <c r="H29" s="102"/>
       <c r="I29" s="55">
         <v>10</v>
       </c>
@@ -4575,7 +4592,9 @@
       <c r="R29" s="56">
         <v>9</v>
       </c>
-      <c r="S29" s="57"/>
+      <c r="S29" s="57">
+        <v>10</v>
+      </c>
       <c r="T29" s="55">
         <v>8</v>
       </c>
@@ -4613,7 +4632,7 @@
       <c r="AH29" s="57"/>
       <c r="AI29" s="58">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AJ29" s="59">
         <f t="shared" si="1"/>
@@ -4626,7 +4645,7 @@
       <c r="AL29" s="56"/>
       <c r="AM29" s="59">
         <f t="shared" si="3"/>
-        <v>49.36363636363636</v>
+        <v>52.090909090909093</v>
       </c>
       <c r="AN29" s="56"/>
     </row>
@@ -4648,7 +4667,7 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="96"/>
+      <c r="H30" s="103"/>
       <c r="I30" s="55">
         <v>9</v>
       </c>
@@ -4679,7 +4698,9 @@
       <c r="R30" s="56">
         <v>10</v>
       </c>
-      <c r="S30" s="57"/>
+      <c r="S30" s="57">
+        <v>10</v>
+      </c>
       <c r="T30" s="55">
         <v>10</v>
       </c>
@@ -4717,7 +4738,7 @@
       <c r="AH30" s="57"/>
       <c r="AI30" s="58">
         <f t="shared" si="0"/>
-        <v>94.5</v>
+        <v>104.5</v>
       </c>
       <c r="AJ30" s="59">
         <f t="shared" si="1"/>
@@ -4730,7 +4751,7 @@
       <c r="AL30" s="56"/>
       <c r="AM30" s="59">
         <f t="shared" si="3"/>
-        <v>51.954545454545453</v>
+        <v>54.68181818181818</v>
       </c>
       <c r="AN30" s="56"/>
     </row>
@@ -4752,7 +4773,7 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="95"/>
+      <c r="H31" s="102"/>
       <c r="I31" s="55">
         <v>8</v>
       </c>
@@ -4783,7 +4804,9 @@
       <c r="R31" s="56">
         <v>9</v>
       </c>
-      <c r="S31" s="57"/>
+      <c r="S31" s="57">
+        <v>10</v>
+      </c>
       <c r="T31" s="55">
         <v>10</v>
       </c>
@@ -4821,7 +4844,7 @@
       <c r="AH31" s="57"/>
       <c r="AI31" s="58">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AJ31" s="59">
         <f t="shared" si="1"/>
@@ -4834,7 +4857,7 @@
       <c r="AL31" s="56"/>
       <c r="AM31" s="59">
         <f t="shared" si="3"/>
-        <v>52.090909090909093</v>
+        <v>54.818181818181813</v>
       </c>
       <c r="AN31" s="56"/>
     </row>
@@ -4856,7 +4879,7 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="90"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="55">
         <v>5.5</v>
       </c>
@@ -4887,7 +4910,9 @@
       <c r="R32" s="56">
         <v>9</v>
       </c>
-      <c r="S32" s="57"/>
+      <c r="S32" s="57">
+        <v>8.5</v>
+      </c>
       <c r="T32" s="55">
         <v>6</v>
       </c>
@@ -4925,7 +4950,7 @@
       <c r="AH32" s="57"/>
       <c r="AI32" s="58">
         <f t="shared" si="0"/>
-        <v>80.5</v>
+        <v>89</v>
       </c>
       <c r="AJ32" s="59">
         <f t="shared" si="1"/>
@@ -4938,7 +4963,7 @@
       <c r="AL32" s="56"/>
       <c r="AM32" s="59">
         <f t="shared" si="3"/>
-        <v>44.045454545454547</v>
+        <v>46.36363636363636</v>
       </c>
       <c r="AN32" s="56"/>
     </row>
@@ -4960,7 +4985,7 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="91"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="55">
         <v>10</v>
       </c>
@@ -4991,7 +5016,9 @@
       <c r="R33" s="56">
         <v>7</v>
       </c>
-      <c r="S33" s="57"/>
+      <c r="S33" s="57">
+        <v>10</v>
+      </c>
       <c r="T33" s="55">
         <v>6</v>
       </c>
@@ -5029,7 +5056,7 @@
       <c r="AH33" s="57"/>
       <c r="AI33" s="58">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AJ33" s="59">
         <f t="shared" si="1"/>
@@ -5042,7 +5069,7 @@
       <c r="AL33" s="56"/>
       <c r="AM33" s="59">
         <f t="shared" si="3"/>
-        <v>46.090909090909093</v>
+        <v>48.818181818181813</v>
       </c>
       <c r="AN33" s="56"/>
     </row>
@@ -5064,7 +5091,7 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="92"/>
+      <c r="H34" s="90"/>
       <c r="I34" s="55">
         <v>8</v>
       </c>
@@ -5095,7 +5122,9 @@
       <c r="R34" s="56">
         <v>10</v>
       </c>
-      <c r="S34" s="57"/>
+      <c r="S34" s="57">
+        <v>10</v>
+      </c>
       <c r="T34" s="55">
         <v>9</v>
       </c>
@@ -5133,7 +5162,7 @@
       <c r="AH34" s="57"/>
       <c r="AI34" s="58">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AJ34" s="59">
         <f t="shared" si="1"/>
@@ -5146,7 +5175,7 @@
       <c r="AL34" s="56"/>
       <c r="AM34" s="59">
         <f t="shared" si="3"/>
-        <v>52.5</v>
+        <v>55.227272727272734</v>
       </c>
       <c r="AN34" s="56"/>
     </row>
@@ -5168,7 +5197,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="93"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="55">
         <v>8</v>
       </c>
@@ -5199,7 +5228,9 @@
       <c r="R35" s="56">
         <v>9.5</v>
       </c>
-      <c r="S35" s="57"/>
+      <c r="S35" s="57">
+        <v>10</v>
+      </c>
       <c r="T35" s="55">
         <v>9</v>
       </c>
@@ -5237,7 +5268,7 @@
       <c r="AH35" s="57"/>
       <c r="AI35" s="58">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>102.5</v>
       </c>
       <c r="AJ35" s="59">
         <f t="shared" si="1"/>
@@ -5250,7 +5281,7 @@
       <c r="AL35" s="56"/>
       <c r="AM35" s="59">
         <f t="shared" si="3"/>
-        <v>51.272727272727273</v>
+        <v>54</v>
       </c>
       <c r="AN35" s="56"/>
     </row>
@@ -5272,7 +5303,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="90"/>
+      <c r="H36" s="86"/>
       <c r="I36" s="55">
         <v>8</v>
       </c>
@@ -5303,7 +5334,9 @@
       <c r="R36" s="56">
         <v>10</v>
       </c>
-      <c r="S36" s="57"/>
+      <c r="S36" s="57">
+        <v>9</v>
+      </c>
       <c r="T36" s="55">
         <v>10</v>
       </c>
@@ -5341,7 +5374,7 @@
       <c r="AH36" s="57"/>
       <c r="AI36" s="58">
         <f t="shared" si="0"/>
-        <v>91.5</v>
+        <v>100.5</v>
       </c>
       <c r="AJ36" s="59">
         <f t="shared" si="1"/>
@@ -5354,7 +5387,7 @@
       <c r="AL36" s="56"/>
       <c r="AM36" s="59">
         <f t="shared" si="3"/>
-        <v>50.045454545454547</v>
+        <v>52.5</v>
       </c>
       <c r="AN36" s="56"/>
     </row>
@@ -5376,7 +5409,7 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="91"/>
+      <c r="H37" s="87"/>
       <c r="I37" s="55">
         <v>8</v>
       </c>
@@ -5407,7 +5440,9 @@
       <c r="R37" s="56">
         <v>10</v>
       </c>
-      <c r="S37" s="57"/>
+      <c r="S37" s="57">
+        <v>9.5</v>
+      </c>
       <c r="T37" s="55">
         <v>10</v>
       </c>
@@ -5445,7 +5480,7 @@
       <c r="AH37" s="57"/>
       <c r="AI37" s="58">
         <f t="shared" si="0"/>
-        <v>91.5</v>
+        <v>101</v>
       </c>
       <c r="AJ37" s="59">
         <f t="shared" si="1"/>
@@ -5458,7 +5493,7 @@
       <c r="AL37" s="56"/>
       <c r="AM37" s="59">
         <f t="shared" si="3"/>
-        <v>50.045454545454547</v>
+        <v>52.63636363636364</v>
       </c>
       <c r="AN37" s="56"/>
     </row>
@@ -5480,7 +5515,7 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="92"/>
+      <c r="H38" s="90"/>
       <c r="I38" s="55">
         <v>9</v>
       </c>
@@ -5511,7 +5546,9 @@
       <c r="R38" s="56">
         <v>9</v>
       </c>
-      <c r="S38" s="57"/>
+      <c r="S38" s="57">
+        <v>9</v>
+      </c>
       <c r="T38" s="55">
         <v>8</v>
       </c>
@@ -5549,7 +5586,7 @@
       <c r="AH38" s="57"/>
       <c r="AI38" s="58">
         <f t="shared" si="0"/>
-        <v>91.5</v>
+        <v>100.5</v>
       </c>
       <c r="AJ38" s="59">
         <f t="shared" si="1"/>
@@ -5562,7 +5599,7 @@
       <c r="AL38" s="56"/>
       <c r="AM38" s="59">
         <f t="shared" si="3"/>
-        <v>49.5</v>
+        <v>51.954545454545453</v>
       </c>
       <c r="AN38" s="56"/>
     </row>
@@ -5584,7 +5621,7 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="104"/>
+      <c r="H39" s="91"/>
       <c r="I39" s="55">
         <v>8</v>
       </c>
@@ -5615,7 +5652,9 @@
       <c r="R39" s="56">
         <v>9</v>
       </c>
-      <c r="S39" s="57"/>
+      <c r="S39" s="57">
+        <v>9</v>
+      </c>
       <c r="T39" s="55">
         <v>8</v>
       </c>
@@ -5653,7 +5692,7 @@
       <c r="AH39" s="57"/>
       <c r="AI39" s="58">
         <f t="shared" si="0"/>
-        <v>84.5</v>
+        <v>93.5</v>
       </c>
       <c r="AJ39" s="59">
         <f t="shared" si="1"/>
@@ -5666,7 +5705,7 @@
       <c r="AL39" s="56"/>
       <c r="AM39" s="59">
         <f t="shared" si="3"/>
-        <v>47.590909090909093</v>
+        <v>50.045454545454547</v>
       </c>
       <c r="AN39" s="56"/>
     </row>
@@ -5688,7 +5727,7 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="93"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="55">
         <v>9.5</v>
       </c>
@@ -5719,7 +5758,9 @@
       <c r="R40" s="56">
         <v>4.5</v>
       </c>
-      <c r="S40" s="57"/>
+      <c r="S40" s="57">
+        <v>9.5</v>
+      </c>
       <c r="T40" s="55">
         <v>8</v>
       </c>
@@ -5757,7 +5798,7 @@
       <c r="AH40" s="57"/>
       <c r="AI40" s="58">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>87</v>
       </c>
       <c r="AJ40" s="59">
         <f t="shared" si="1"/>
@@ -5770,7 +5811,7 @@
       <c r="AL40" s="56"/>
       <c r="AM40" s="59">
         <f t="shared" si="3"/>
-        <v>45.681818181818187</v>
+        <v>48.272727272727273</v>
       </c>
       <c r="AN40" s="56"/>
     </row>
@@ -5792,7 +5833,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="90"/>
+      <c r="H41" s="86"/>
       <c r="I41" s="55">
         <v>5.5</v>
       </c>
@@ -5823,7 +5864,9 @@
       <c r="R41" s="56">
         <v>8</v>
       </c>
-      <c r="S41" s="57"/>
+      <c r="S41" s="57">
+        <v>8.5</v>
+      </c>
       <c r="T41" s="55">
         <v>10</v>
       </c>
@@ -5861,7 +5904,7 @@
       <c r="AH41" s="57"/>
       <c r="AI41" s="58">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>58.5</v>
       </c>
       <c r="AJ41" s="59">
         <f t="shared" si="1"/>
@@ -5874,7 +5917,7 @@
       <c r="AL41" s="56"/>
       <c r="AM41" s="59">
         <f t="shared" si="3"/>
-        <v>39.13636363636364</v>
+        <v>41.454545454545453</v>
       </c>
       <c r="AN41" s="56"/>
     </row>
@@ -5896,7 +5939,7 @@
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="91"/>
+      <c r="H42" s="87"/>
       <c r="I42" s="55">
         <v>7.5</v>
       </c>
@@ -5927,7 +5970,9 @@
       <c r="R42" s="56">
         <v>7</v>
       </c>
-      <c r="S42" s="57"/>
+      <c r="S42" s="57">
+        <v>8.5</v>
+      </c>
       <c r="T42" s="55">
         <v>10</v>
       </c>
@@ -5965,7 +6010,7 @@
       <c r="AH42" s="57"/>
       <c r="AI42" s="58">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>90.5</v>
       </c>
       <c r="AJ42" s="59">
         <f t="shared" si="1"/>
@@ -5978,7 +6023,7 @@
       <c r="AL42" s="56"/>
       <c r="AM42" s="59">
         <f t="shared" si="3"/>
-        <v>47.86363636363636</v>
+        <v>50.181818181818187</v>
       </c>
       <c r="AN42" s="56"/>
     </row>
@@ -6000,7 +6045,7 @@
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="90"/>
+      <c r="H43" s="86"/>
       <c r="I43" s="55">
         <v>7.5</v>
       </c>
@@ -6031,7 +6076,9 @@
       <c r="R43" s="56">
         <v>10</v>
       </c>
-      <c r="S43" s="57"/>
+      <c r="S43" s="57">
+        <v>8.5</v>
+      </c>
       <c r="T43" s="55">
         <v>8</v>
       </c>
@@ -6069,7 +6116,7 @@
       <c r="AH43" s="57"/>
       <c r="AI43" s="58">
         <f t="shared" si="0"/>
-        <v>83.5</v>
+        <v>92</v>
       </c>
       <c r="AJ43" s="59">
         <f t="shared" si="1"/>
@@ -6082,7 +6129,7 @@
       <c r="AL43" s="56"/>
       <c r="AM43" s="59">
         <f t="shared" si="3"/>
-        <v>46.5</v>
+        <v>48.818181818181813</v>
       </c>
       <c r="AN43" s="56"/>
     </row>
@@ -6104,7 +6151,7 @@
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="91"/>
+      <c r="H44" s="87"/>
       <c r="I44" s="60">
         <v>0</v>
       </c>
@@ -6135,7 +6182,9 @@
       <c r="R44" s="56">
         <v>8</v>
       </c>
-      <c r="S44" s="57"/>
+      <c r="S44" s="57">
+        <v>9</v>
+      </c>
       <c r="T44" s="55">
         <v>8</v>
       </c>
@@ -6173,7 +6222,7 @@
       <c r="AH44" s="57"/>
       <c r="AI44" s="58">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AJ44" s="59">
         <f t="shared" si="1"/>
@@ -6186,7 +6235,7 @@
       <c r="AL44" s="56"/>
       <c r="AM44" s="59">
         <f t="shared" si="3"/>
-        <v>44.454545454545453</v>
+        <v>46.909090909090907</v>
       </c>
       <c r="AN44" s="56"/>
     </row>
@@ -6208,7 +6257,7 @@
       </c>
       <c r="F45" s="70"/>
       <c r="G45" s="70"/>
-      <c r="H45" s="105"/>
+      <c r="H45" s="93"/>
       <c r="I45" s="73">
         <v>10</v>
       </c>
@@ -6239,7 +6288,9 @@
       <c r="R45" s="80">
         <v>8.5</v>
       </c>
-      <c r="S45" s="81"/>
+      <c r="S45" s="81">
+        <v>9</v>
+      </c>
       <c r="T45" s="73">
         <v>10</v>
       </c>
@@ -6277,7 +6328,7 @@
       <c r="AH45" s="81"/>
       <c r="AI45" s="58">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AJ45" s="59">
         <f t="shared" si="1"/>
@@ -6290,7 +6341,7 @@
       <c r="AL45" s="56"/>
       <c r="AM45" s="59">
         <f t="shared" si="3"/>
-        <v>48.954545454545453</v>
+        <v>51.409090909090907</v>
       </c>
       <c r="AN45" s="56"/>
     </row>
@@ -6312,7 +6363,7 @@
       </c>
       <c r="F46" s="74"/>
       <c r="G46" s="74"/>
-      <c r="H46" s="106"/>
+      <c r="H46" s="94"/>
       <c r="I46" s="73">
         <v>10</v>
       </c>
@@ -6343,7 +6394,9 @@
       <c r="R46" s="80">
         <v>9</v>
       </c>
-      <c r="S46" s="81"/>
+      <c r="S46" s="81">
+        <v>8.5</v>
+      </c>
       <c r="T46" s="73">
         <v>10</v>
       </c>
@@ -6381,7 +6434,7 @@
       <c r="AH46" s="81"/>
       <c r="AI46" s="58">
         <f t="shared" si="0"/>
-        <v>94.5</v>
+        <v>103</v>
       </c>
       <c r="AJ46" s="59">
         <f t="shared" si="1"/>
@@ -6394,7 +6447,7 @@
       <c r="AL46" s="56"/>
       <c r="AM46" s="59">
         <f t="shared" si="3"/>
-        <v>50.727272727272727</v>
+        <v>53.045454545454547</v>
       </c>
       <c r="AN46" s="56"/>
     </row>
@@ -6416,7 +6469,7 @@
       </c>
       <c r="F47" s="74"/>
       <c r="G47" s="74"/>
-      <c r="H47" s="102"/>
+      <c r="H47" s="88"/>
       <c r="I47" s="73">
         <v>8</v>
       </c>
@@ -6447,7 +6500,9 @@
       <c r="R47" s="80">
         <v>10</v>
       </c>
-      <c r="S47" s="81"/>
+      <c r="S47" s="81">
+        <v>10</v>
+      </c>
       <c r="T47" s="73">
         <v>10</v>
       </c>
@@ -6485,7 +6540,7 @@
       <c r="AH47" s="81"/>
       <c r="AI47" s="58">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AJ47" s="59">
         <f t="shared" si="1"/>
@@ -6498,7 +6553,7 @@
       <c r="AL47" s="56"/>
       <c r="AM47" s="59">
         <f t="shared" si="3"/>
-        <v>50.590909090909086</v>
+        <v>53.318181818181813</v>
       </c>
       <c r="AN47" s="56"/>
     </row>
@@ -6520,7 +6575,7 @@
       </c>
       <c r="F48" s="76"/>
       <c r="G48" s="76"/>
-      <c r="H48" s="103"/>
+      <c r="H48" s="89"/>
       <c r="I48" s="73">
         <v>3.5</v>
       </c>
@@ -6551,7 +6606,9 @@
       <c r="R48" s="80">
         <v>9</v>
       </c>
-      <c r="S48" s="81"/>
+      <c r="S48" s="81">
+        <v>9.5</v>
+      </c>
       <c r="T48" s="73">
         <v>10</v>
       </c>
@@ -6589,7 +6646,7 @@
       <c r="AH48" s="81"/>
       <c r="AI48" s="58">
         <f t="shared" si="0"/>
-        <v>83.5</v>
+        <v>93</v>
       </c>
       <c r="AJ48" s="59">
         <f t="shared" si="1"/>
@@ -6602,7 +6659,7 @@
       <c r="AL48" s="56"/>
       <c r="AM48" s="59">
         <f t="shared" si="3"/>
-        <v>47.72727272727272</v>
+        <v>50.318181818181813</v>
       </c>
       <c r="AN48" s="56"/>
     </row>
@@ -6653,8 +6710,8 @@
         <v>8.9222222222222225</v>
       </c>
       <c r="S49" s="63">
-        <f>AVERAGE(S2:S32)</f>
-        <v>9.1818181818181817</v>
+        <f>AVERAGE(S2:S48)</f>
+        <v>9.2888888888888896</v>
       </c>
       <c r="T49" s="61">
         <f>AVERAGE(T2:T25)</f>
@@ -6784,9 +6841,9 @@
         <f t="shared" si="4"/>
         <v>8.7391304347826093</v>
       </c>
-      <c r="S50" s="63" t="e">
+      <c r="S50" s="63">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.3913043478260878</v>
       </c>
       <c r="T50" s="61">
         <f t="shared" si="4"/>
@@ -6850,7 +6907,7 @@
       </c>
       <c r="AI50" s="64">
         <f t="shared" si="4"/>
-        <v>87.021739130434781</v>
+        <v>96.413043478260875</v>
       </c>
       <c r="AJ50" s="62">
         <f t="shared" si="4"/>
@@ -6866,7 +6923,7 @@
       </c>
       <c r="AM50" s="62">
         <f t="shared" si="4"/>
-        <v>48.385375494071141</v>
+        <v>50.946640316205524</v>
       </c>
       <c r="AN50" s="62"/>
     </row>
@@ -6918,7 +6975,7 @@
       </c>
       <c r="S51" s="63">
         <f t="shared" si="5"/>
-        <v>9.1818181818181817</v>
+        <v>9.2888888888888896</v>
       </c>
       <c r="T51" s="61">
         <f t="shared" si="5"/>
@@ -6982,7 +7039,7 @@
       </c>
       <c r="AI51" s="64">
         <f t="shared" si="5"/>
-        <v>89.361702127659569</v>
+        <v>93.957446808510639</v>
       </c>
       <c r="AJ51" s="62">
         <f t="shared" si="5"/>
@@ -6998,7 +7055,7 @@
       </c>
       <c r="AM51" s="62">
         <f t="shared" si="5"/>
-        <v>48.673114119922609</v>
+        <v>49.92649903288202</v>
       </c>
       <c r="AN51" s="62"/>
     </row>
@@ -7050,7 +7107,7 @@
       </c>
       <c r="S52" s="63">
         <f t="shared" si="6"/>
-        <v>0.88027937320590166</v>
+        <v>0.75745453575602384</v>
       </c>
       <c r="T52" s="61">
         <f t="shared" si="6"/>
@@ -7114,7 +7171,7 @@
       </c>
       <c r="AI52" s="64">
         <f t="shared" si="6"/>
-        <v>19.710596942314726</v>
+        <v>19.811291737189237</v>
       </c>
       <c r="AJ52" s="62">
         <f t="shared" si="6"/>
@@ -7130,7 +7187,7 @@
       </c>
       <c r="AM52" s="62">
         <f t="shared" si="6"/>
-        <v>9.4035644646318772</v>
+        <v>9.4682628577965673</v>
       </c>
       <c r="AN52" s="62"/>
     </row>
@@ -7400,19 +7457,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H16:H17"/>
@@ -7423,6 +7467,19 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7431,21 +7488,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -7627,31 +7669,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7667,4 +7700,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2024년_명부_및_점수.xlsx
+++ b/attachments/2024년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyk\Desktop\대학원\ISL hompage\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0DC1D4-B633-403C-8E80-6C81EB965954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D9AF60-E3CF-42FB-A2EC-CFF23A5CF532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,14 @@
     <sheet name="2023년도 학생명부 및 채점표" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023년도 학생명부 및 채점표'!$B$1:$AS$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t xml:space="preserve">                                                             </t>
   </si>
@@ -386,10 +375,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>김규록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>김도연</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -403,21 +388,6 @@
   </si>
   <si>
     <t>박신영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>서아현</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1083,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1204,9 +1174,6 @@
     <xf numFmtId="176" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,47 +1285,28 @@
     <xf numFmtId="176" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,6 +1324,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,10 +1571,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ38" sqref="AQ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1618,11 +1585,11 @@
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="30" width="11.42578125" style="68" customWidth="1"/>
-    <col min="31" max="37" width="12.5703125" style="68"/>
-    <col min="38" max="38" width="11.140625" style="68" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" style="68"/>
-    <col min="40" max="40" width="10.85546875" style="68" customWidth="1"/>
+    <col min="9" max="30" width="11.42578125" style="67" customWidth="1"/>
+    <col min="31" max="37" width="12.5703125" style="67"/>
+    <col min="38" max="38" width="11.140625" style="67" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" style="67"/>
+    <col min="40" max="40" width="10.85546875" style="67" customWidth="1"/>
     <col min="41" max="41" width="3.28515625" customWidth="1"/>
     <col min="43" max="43" width="2.140625" customWidth="1"/>
   </cols>
@@ -1725,7 +1692,7 @@
         <v>43</v>
       </c>
       <c r="AG1" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AH1" s="39" t="s">
         <v>45</v>
@@ -1767,7 +1734,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="95"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="33">
         <v>9</v>
       </c>
@@ -1792,7 +1759,7 @@
       <c r="P2" s="43">
         <v>10</v>
       </c>
-      <c r="Q2" s="83">
+      <c r="Q2" s="82">
         <v>9.5</v>
       </c>
       <c r="R2" s="43">
@@ -1831,27 +1798,31 @@
       <c r="AC2" s="43">
         <v>10</v>
       </c>
-      <c r="AD2" s="44"/>
+      <c r="AD2" s="44">
+        <v>10</v>
+      </c>
       <c r="AE2" s="33"/>
       <c r="AF2" s="43"/>
       <c r="AG2" s="43"/>
       <c r="AH2" s="44"/>
       <c r="AI2" s="45">
-        <f t="shared" ref="AI2:AI48" si="0">SUM(I2:S2)</f>
+        <f t="shared" ref="AI2:AI46" si="0">SUM(I2:S2)</f>
         <v>101</v>
       </c>
       <c r="AJ2" s="43">
-        <f t="shared" ref="AJ2:AJ48" si="1">SUM(T2:AD2)</f>
-        <v>97.5</v>
+        <f t="shared" ref="AJ2:AJ46" si="1">SUM(T2:AD2)</f>
+        <v>107.5</v>
       </c>
       <c r="AK2" s="43">
-        <f t="shared" ref="AK2:AK48" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
+        <f t="shared" ref="AK2:AK46" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
         <v>0</v>
       </c>
-      <c r="AL2" s="43"/>
+      <c r="AL2" s="43">
+        <v>10</v>
+      </c>
       <c r="AM2" s="43">
         <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>54.13636363636364</v>
+        <v>66.863636363636374</v>
       </c>
       <c r="AN2" s="43"/>
     </row>
@@ -1873,7 +1844,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="96"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="33">
         <v>10</v>
       </c>
@@ -1898,7 +1869,7 @@
       <c r="P3" s="43">
         <v>10</v>
       </c>
-      <c r="Q3" s="83">
+      <c r="Q3" s="82">
         <v>10</v>
       </c>
       <c r="R3" s="43">
@@ -1937,7 +1908,9 @@
       <c r="AC3" s="43">
         <v>10</v>
       </c>
-      <c r="AD3" s="44"/>
+      <c r="AD3" s="44">
+        <v>10</v>
+      </c>
       <c r="AE3" s="33"/>
       <c r="AF3" s="43"/>
       <c r="AG3" s="43"/>
@@ -1948,16 +1921,18 @@
       </c>
       <c r="AJ3" s="43">
         <f t="shared" si="1"/>
-        <v>97.5</v>
+        <v>107.5</v>
       </c>
       <c r="AK3" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL3" s="43"/>
+      <c r="AL3" s="43">
+        <v>10</v>
+      </c>
       <c r="AM3" s="43">
-        <f t="shared" ref="AM3:AM48" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
-        <v>55.5</v>
+        <f t="shared" ref="AM3:AM46" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
+        <v>68.227272727272734</v>
       </c>
       <c r="AN3" s="43"/>
     </row>
@@ -1979,7 +1954,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="95"/>
+      <c r="H4" s="99"/>
       <c r="I4" s="33">
         <v>8</v>
       </c>
@@ -2004,7 +1979,7 @@
       <c r="P4" s="43">
         <v>10</v>
       </c>
-      <c r="Q4" s="83">
+      <c r="Q4" s="82">
         <v>9</v>
       </c>
       <c r="R4" s="43">
@@ -2043,7 +2018,9 @@
       <c r="AC4" s="43">
         <v>10</v>
       </c>
-      <c r="AD4" s="44"/>
+      <c r="AD4" s="44">
+        <v>10</v>
+      </c>
       <c r="AE4" s="33"/>
       <c r="AF4" s="43"/>
       <c r="AG4" s="43"/>
@@ -2054,16 +2031,18 @@
       </c>
       <c r="AJ4" s="43">
         <f t="shared" si="1"/>
-        <v>98.5</v>
+        <v>108.5</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="43"/>
+      <c r="AL4" s="43">
+        <v>10</v>
+      </c>
       <c r="AM4" s="43">
         <f t="shared" si="3"/>
-        <v>52.363636363636367</v>
+        <v>65.090909090909093</v>
       </c>
       <c r="AN4" s="43"/>
     </row>
@@ -2085,7 +2064,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="96"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="33">
         <v>10</v>
       </c>
@@ -2110,7 +2089,7 @@
       <c r="P5" s="43">
         <v>10</v>
       </c>
-      <c r="Q5" s="83">
+      <c r="Q5" s="82">
         <v>8.5</v>
       </c>
       <c r="R5" s="43">
@@ -2149,7 +2128,9 @@
       <c r="AC5" s="43">
         <v>10</v>
       </c>
-      <c r="AD5" s="44"/>
+      <c r="AD5" s="44">
+        <v>10</v>
+      </c>
       <c r="AE5" s="33"/>
       <c r="AF5" s="43"/>
       <c r="AG5" s="43"/>
@@ -2160,16 +2141,18 @@
       </c>
       <c r="AJ5" s="43">
         <f t="shared" si="1"/>
-        <v>98.5</v>
+        <v>108.5</v>
       </c>
       <c r="AK5" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL5" s="43"/>
+      <c r="AL5" s="43">
+        <v>10</v>
+      </c>
       <c r="AM5" s="43">
         <f t="shared" si="3"/>
-        <v>56.181818181818187</v>
+        <v>68.909090909090907</v>
       </c>
       <c r="AN5" s="43"/>
     </row>
@@ -2191,7 +2174,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="95"/>
+      <c r="H6" s="99"/>
       <c r="I6" s="33">
         <v>9</v>
       </c>
@@ -2216,7 +2199,7 @@
       <c r="P6" s="43">
         <v>10</v>
       </c>
-      <c r="Q6" s="83">
+      <c r="Q6" s="82">
         <v>10</v>
       </c>
       <c r="R6" s="43">
@@ -2255,7 +2238,9 @@
       <c r="AC6" s="43">
         <v>9.5</v>
       </c>
-      <c r="AD6" s="44"/>
+      <c r="AD6" s="44">
+        <v>9</v>
+      </c>
       <c r="AE6" s="33"/>
       <c r="AF6" s="43"/>
       <c r="AG6" s="43"/>
@@ -2266,16 +2251,18 @@
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>96.5</v>
       </c>
       <c r="AK6" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="43"/>
+      <c r="AL6" s="43">
+        <v>10</v>
+      </c>
       <c r="AM6" s="43">
         <f t="shared" si="3"/>
-        <v>51.68181818181818</v>
+        <v>64.13636363636364</v>
       </c>
       <c r="AN6" s="43"/>
     </row>
@@ -2297,7 +2284,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="96"/>
+      <c r="H7" s="100"/>
       <c r="I7" s="33">
         <v>9</v>
       </c>
@@ -2322,7 +2309,7 @@
       <c r="P7" s="43">
         <v>10</v>
       </c>
-      <c r="Q7" s="83">
+      <c r="Q7" s="82">
         <v>10</v>
       </c>
       <c r="R7" s="43">
@@ -2361,7 +2348,9 @@
       <c r="AC7" s="43">
         <v>9.5</v>
       </c>
-      <c r="AD7" s="44"/>
+      <c r="AD7" s="44">
+        <v>9</v>
+      </c>
       <c r="AE7" s="33"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="43"/>
@@ -2372,16 +2361,18 @@
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>96.5</v>
       </c>
       <c r="AK7" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="43"/>
+      <c r="AL7" s="43">
+        <v>10</v>
+      </c>
       <c r="AM7" s="43">
         <f t="shared" si="3"/>
-        <v>52.5</v>
+        <v>64.954545454545453</v>
       </c>
       <c r="AN7" s="43"/>
     </row>
@@ -2403,7 +2394,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="95"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="33">
         <v>8.5</v>
       </c>
@@ -2428,7 +2419,7 @@
       <c r="P8" s="43">
         <v>10</v>
       </c>
-      <c r="Q8" s="83">
+      <c r="Q8" s="82">
         <v>9</v>
       </c>
       <c r="R8" s="43">
@@ -2467,7 +2458,9 @@
       <c r="AC8" s="43">
         <v>10</v>
       </c>
-      <c r="AD8" s="44"/>
+      <c r="AD8" s="44">
+        <v>10</v>
+      </c>
       <c r="AE8" s="33"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="43"/>
@@ -2478,16 +2471,18 @@
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="1"/>
-        <v>96.5</v>
+        <v>106.5</v>
       </c>
       <c r="AK8" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="43"/>
+      <c r="AL8" s="43">
+        <v>10</v>
+      </c>
       <c r="AM8" s="43">
         <f t="shared" si="3"/>
-        <v>53.863636363636367</v>
+        <v>66.590909090909093</v>
       </c>
       <c r="AN8" s="43"/>
     </row>
@@ -2509,7 +2504,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="96"/>
+      <c r="H9" s="100"/>
       <c r="I9" s="33">
         <v>6.5</v>
       </c>
@@ -2534,7 +2529,7 @@
       <c r="P9" s="43">
         <v>10</v>
       </c>
-      <c r="Q9" s="83">
+      <c r="Q9" s="82">
         <v>7.5</v>
       </c>
       <c r="R9" s="43">
@@ -2573,7 +2568,9 @@
       <c r="AC9" s="43">
         <v>10</v>
       </c>
-      <c r="AD9" s="44"/>
+      <c r="AD9" s="44">
+        <v>10</v>
+      </c>
       <c r="AE9" s="33"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="43"/>
@@ -2584,16 +2581,18 @@
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="1"/>
-        <v>96.5</v>
+        <v>106.5</v>
       </c>
       <c r="AK9" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="43"/>
+      <c r="AL9" s="43">
+        <v>10</v>
+      </c>
       <c r="AM9" s="43">
         <f t="shared" si="3"/>
-        <v>53.454545454545453</v>
+        <v>66.181818181818187</v>
       </c>
       <c r="AN9" s="43"/>
     </row>
@@ -2615,7 +2614,7 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="95"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="33">
         <v>10</v>
       </c>
@@ -2640,7 +2639,7 @@
       <c r="P10" s="43">
         <v>10</v>
       </c>
-      <c r="Q10" s="83">
+      <c r="Q10" s="82">
         <v>8</v>
       </c>
       <c r="R10" s="43">
@@ -2679,7 +2678,9 @@
       <c r="AC10" s="43">
         <v>10</v>
       </c>
-      <c r="AD10" s="44"/>
+      <c r="AD10" s="44">
+        <v>10</v>
+      </c>
       <c r="AE10" s="33"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="43"/>
@@ -2690,16 +2691,18 @@
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AK10" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="43"/>
+      <c r="AL10" s="43">
+        <v>10</v>
+      </c>
       <c r="AM10" s="43">
         <f t="shared" si="3"/>
-        <v>54.68181818181818</v>
+        <v>67.409090909090907</v>
       </c>
       <c r="AN10" s="43"/>
     </row>
@@ -2721,7 +2724,7 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="96"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="33">
         <v>9</v>
       </c>
@@ -2746,7 +2749,7 @@
       <c r="P11" s="43">
         <v>10</v>
       </c>
-      <c r="Q11" s="83">
+      <c r="Q11" s="82">
         <v>9</v>
       </c>
       <c r="R11" s="43">
@@ -2785,7 +2788,9 @@
       <c r="AC11" s="43">
         <v>10</v>
       </c>
-      <c r="AD11" s="44"/>
+      <c r="AD11" s="44">
+        <v>10</v>
+      </c>
       <c r="AE11" s="33"/>
       <c r="AF11" s="43"/>
       <c r="AG11" s="43"/>
@@ -2796,16 +2801,18 @@
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AK11" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL11" s="43"/>
+      <c r="AL11" s="43">
+        <v>10</v>
+      </c>
       <c r="AM11" s="43">
         <f t="shared" si="3"/>
-        <v>53.86363636363636</v>
+        <v>66.590909090909093</v>
       </c>
       <c r="AN11" s="43"/>
     </row>
@@ -2827,7 +2834,7 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="95"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="33">
         <v>8.5</v>
       </c>
@@ -2852,7 +2859,7 @@
       <c r="P12" s="43">
         <v>10</v>
       </c>
-      <c r="Q12" s="83">
+      <c r="Q12" s="82">
         <v>6</v>
       </c>
       <c r="R12" s="43">
@@ -2891,7 +2898,9 @@
       <c r="AC12" s="43">
         <v>10</v>
       </c>
-      <c r="AD12" s="44"/>
+      <c r="AD12" s="44">
+        <v>9.5</v>
+      </c>
       <c r="AE12" s="33"/>
       <c r="AF12" s="43"/>
       <c r="AG12" s="43"/>
@@ -2902,16 +2911,18 @@
       </c>
       <c r="AJ12" s="43">
         <f t="shared" si="1"/>
-        <v>97.5</v>
+        <v>107</v>
       </c>
       <c r="AK12" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="43"/>
+      <c r="AL12" s="43">
+        <v>10</v>
+      </c>
       <c r="AM12" s="43">
         <f t="shared" si="3"/>
-        <v>54.13636363636364</v>
+        <v>66.727272727272734</v>
       </c>
       <c r="AN12" s="43"/>
     </row>
@@ -2926,27 +2937,27 @@
         <v>202102206</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" s="15">
         <v>1038055177</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="96"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="33">
         <v>8</v>
       </c>
-      <c r="J13" s="82">
+      <c r="J13" s="81">
         <v>7.5</v>
       </c>
-      <c r="K13" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="L13" s="83">
-        <v>10</v>
-      </c>
-      <c r="M13" s="83">
+      <c r="K13" s="82">
+        <v>9.5</v>
+      </c>
+      <c r="L13" s="82">
+        <v>10</v>
+      </c>
+      <c r="M13" s="82">
         <v>8</v>
       </c>
       <c r="N13" s="43">
@@ -2958,25 +2969,25 @@
       <c r="P13" s="43">
         <v>10</v>
       </c>
-      <c r="Q13" s="83">
-        <v>9</v>
-      </c>
-      <c r="R13" s="83">
-        <v>10</v>
-      </c>
-      <c r="S13" s="85">
+      <c r="Q13" s="82">
+        <v>9</v>
+      </c>
+      <c r="R13" s="82">
+        <v>10</v>
+      </c>
+      <c r="S13" s="84">
         <v>8</v>
       </c>
       <c r="T13" s="33">
         <v>8.5</v>
       </c>
-      <c r="U13" s="82">
-        <v>10</v>
-      </c>
-      <c r="V13" s="82">
-        <v>10</v>
-      </c>
-      <c r="W13" s="82">
+      <c r="U13" s="81">
+        <v>10</v>
+      </c>
+      <c r="V13" s="81">
+        <v>10</v>
+      </c>
+      <c r="W13" s="81">
         <v>9.5</v>
       </c>
       <c r="X13" s="43">
@@ -2991,13 +3002,15 @@
       <c r="AA13" s="43">
         <v>10</v>
       </c>
-      <c r="AB13" s="82">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="46">
-        <v>10</v>
-      </c>
-      <c r="AD13" s="46"/>
+      <c r="AB13" s="81">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="81">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="81">
+        <v>9.5</v>
+      </c>
       <c r="AE13" s="33"/>
       <c r="AF13" s="43"/>
       <c r="AG13" s="43"/>
@@ -3008,16 +3021,18 @@
       </c>
       <c r="AJ13" s="43">
         <f t="shared" si="1"/>
-        <v>97.5</v>
+        <v>107</v>
       </c>
       <c r="AK13" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="43"/>
+      <c r="AL13" s="43">
+        <v>10</v>
+      </c>
       <c r="AM13" s="43">
         <f t="shared" si="3"/>
-        <v>53.045454545454547</v>
+        <v>65.63636363636364</v>
       </c>
       <c r="AN13" s="43"/>
     </row>
@@ -3039,7 +3054,7 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="95"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="33">
         <v>8</v>
       </c>
@@ -3064,7 +3079,7 @@
       <c r="P14" s="43">
         <v>9</v>
       </c>
-      <c r="Q14" s="83">
+      <c r="Q14" s="82">
         <v>10</v>
       </c>
       <c r="R14" s="43">
@@ -3097,13 +3112,15 @@
       <c r="AA14" s="43">
         <v>9</v>
       </c>
-      <c r="AB14" s="82">
+      <c r="AB14" s="81">
         <v>8</v>
       </c>
       <c r="AC14" s="43">
         <v>9.5</v>
       </c>
-      <c r="AD14" s="44"/>
+      <c r="AD14" s="44">
+        <v>9</v>
+      </c>
       <c r="AE14" s="33"/>
       <c r="AF14" s="43"/>
       <c r="AG14" s="43"/>
@@ -3114,20 +3131,22 @@
       </c>
       <c r="AJ14" s="43">
         <f t="shared" si="1"/>
-        <v>93.5</v>
+        <v>102.5</v>
       </c>
       <c r="AK14" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="43"/>
+      <c r="AL14" s="43">
+        <v>10</v>
+      </c>
       <c r="AM14" s="43">
         <f t="shared" si="3"/>
-        <v>52.227272727272727</v>
+        <v>64.681818181818187</v>
       </c>
       <c r="AN14" s="43"/>
     </row>
-    <row r="15" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>35</v>
       </c>
@@ -3145,7 +3164,7 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="96"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="33">
         <v>5</v>
       </c>
@@ -3170,7 +3189,7 @@
       <c r="P15" s="43">
         <v>10</v>
       </c>
-      <c r="Q15" s="83">
+      <c r="Q15" s="82">
         <v>7.5</v>
       </c>
       <c r="R15" s="43">
@@ -3203,13 +3222,15 @@
       <c r="AA15" s="43">
         <v>9</v>
       </c>
-      <c r="AB15" s="82">
+      <c r="AB15" s="81">
         <v>8</v>
       </c>
       <c r="AC15" s="43">
         <v>9.5</v>
       </c>
-      <c r="AD15" s="44"/>
+      <c r="AD15" s="44">
+        <v>9</v>
+      </c>
       <c r="AE15" s="33"/>
       <c r="AF15" s="43"/>
       <c r="AG15" s="43"/>
@@ -3220,20 +3241,22 @@
       </c>
       <c r="AJ15" s="43">
         <f t="shared" si="1"/>
-        <v>93.5</v>
+        <v>102.5</v>
       </c>
       <c r="AK15" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="43"/>
+      <c r="AL15" s="43">
+        <v>10</v>
+      </c>
       <c r="AM15" s="43">
-        <f t="shared" si="3"/>
-        <v>49.772727272727273</v>
+        <f>+AI15/(11*10)*30+AJ15/(11*10)*30+AK15+AL15</f>
+        <v>62.227272727272727</v>
       </c>
       <c r="AN15" s="43"/>
     </row>
-    <row r="16" spans="1:40" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>35</v>
       </c>
@@ -3241,67 +3264,105 @@
         <v>8</v>
       </c>
       <c r="C16" s="14">
-        <v>202302201</v>
+        <v>202302202</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="15">
-        <v>1057564673</v>
+        <v>1075748239</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="79">
+      <c r="H16" s="86"/>
+      <c r="I16" s="78">
         <v>0</v>
       </c>
       <c r="J16" s="43">
         <v>9</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="44"/>
+      <c r="K16" s="43">
+        <v>10</v>
+      </c>
+      <c r="L16" s="43">
+        <v>10</v>
+      </c>
+      <c r="M16" s="43">
+        <v>8</v>
+      </c>
+      <c r="N16" s="43">
+        <v>10</v>
+      </c>
+      <c r="O16" s="43">
+        <v>10</v>
+      </c>
+      <c r="P16" s="43">
+        <v>9.5</v>
+      </c>
+      <c r="Q16" s="82">
+        <v>9</v>
+      </c>
+      <c r="R16" s="43">
+        <v>9</v>
+      </c>
+      <c r="S16" s="44">
+        <v>7.5</v>
+      </c>
       <c r="T16" s="33">
         <v>8.5</v>
       </c>
       <c r="U16" s="43">
         <v>10</v>
       </c>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="44"/>
+      <c r="V16" s="43">
+        <v>9.5</v>
+      </c>
+      <c r="W16" s="43">
+        <v>10</v>
+      </c>
+      <c r="X16" s="43">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="43">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="43">
+        <v>9.5</v>
+      </c>
+      <c r="AA16" s="43">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="81">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="43">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="44">
+        <v>9</v>
+      </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="43"/>
       <c r="AG16" s="43"/>
       <c r="AH16" s="44"/>
       <c r="AI16" s="45">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="AJ16" s="43">
         <f t="shared" si="1"/>
-        <v>18.5</v>
+        <v>100.5</v>
       </c>
       <c r="AK16" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="43"/>
+      <c r="AL16" s="43">
+        <v>10</v>
+      </c>
       <c r="AM16" s="43">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>62.5</v>
       </c>
       <c r="AN16" s="43"/>
     </row>
@@ -3310,25 +3371,25 @@
         <v>35</v>
       </c>
       <c r="B17" s="25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="14">
-        <v>202302202</v>
+        <v>202302205</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="15">
-        <v>1075748239</v>
+        <v>1080108037</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="79">
-        <v>0</v>
+      <c r="H17" s="87"/>
+      <c r="I17" s="33">
+        <v>9</v>
       </c>
       <c r="J17" s="43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K17" s="43">
         <v>10</v>
@@ -3337,77 +3398,81 @@
         <v>10</v>
       </c>
       <c r="M17" s="43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N17" s="43">
         <v>10</v>
       </c>
       <c r="O17" s="43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P17" s="43">
         <v>9.5</v>
       </c>
-      <c r="Q17" s="83">
-        <v>9</v>
+      <c r="Q17" s="82">
+        <v>10</v>
       </c>
       <c r="R17" s="43">
         <v>9</v>
       </c>
       <c r="S17" s="44">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="T17" s="33">
         <v>8.5</v>
       </c>
       <c r="U17" s="43">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V17" s="43">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="W17" s="43">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X17" s="43">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="Y17" s="43">
         <v>10</v>
       </c>
       <c r="Z17" s="43">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA17" s="43">
         <v>9</v>
       </c>
-      <c r="AB17" s="82">
-        <v>9</v>
+      <c r="AB17" s="81">
+        <v>9.5</v>
       </c>
       <c r="AC17" s="43">
         <v>10</v>
       </c>
-      <c r="AD17" s="44"/>
+      <c r="AD17" s="44">
+        <v>9</v>
+      </c>
       <c r="AE17" s="33"/>
       <c r="AF17" s="43"/>
       <c r="AG17" s="43"/>
       <c r="AH17" s="44"/>
       <c r="AI17" s="45">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AJ17" s="43">
         <f t="shared" si="1"/>
-        <v>91.5</v>
+        <v>99</v>
       </c>
       <c r="AK17" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="43"/>
+      <c r="AL17" s="43">
+        <v>10</v>
+      </c>
       <c r="AM17" s="43">
         <f t="shared" si="3"/>
-        <v>50.045454545454547</v>
+        <v>65.63636363636364</v>
       </c>
       <c r="AN17" s="43"/>
     </row>
@@ -3419,49 +3484,49 @@
         <v>9</v>
       </c>
       <c r="C18" s="14">
-        <v>202302205</v>
+        <v>202302209</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="15">
-        <v>1080108037</v>
+        <v>1028429638</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="97"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K18" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L18" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M18" s="43">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="N18" s="43">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O18" s="43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P18" s="43">
-        <v>9.5</v>
-      </c>
-      <c r="Q18" s="83">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="Q18" s="82">
+        <v>8.5</v>
       </c>
       <c r="R18" s="43">
         <v>9</v>
       </c>
       <c r="S18" s="44">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="T18" s="33">
         <v>8.5</v>
@@ -3487,72 +3552,76 @@
       <c r="AA18" s="43">
         <v>9</v>
       </c>
-      <c r="AB18" s="82">
+      <c r="AB18" s="81">
         <v>9.5</v>
       </c>
       <c r="AC18" s="43">
-        <v>10</v>
-      </c>
-      <c r="AD18" s="44"/>
+        <v>9.5</v>
+      </c>
+      <c r="AD18" s="44">
+        <v>9</v>
+      </c>
       <c r="AE18" s="33"/>
       <c r="AF18" s="43"/>
       <c r="AG18" s="43"/>
       <c r="AH18" s="44"/>
       <c r="AI18" s="45">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>95.5</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>98.5</v>
       </c>
       <c r="AK18" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="43"/>
+      <c r="AL18" s="43">
+        <v>10</v>
+      </c>
       <c r="AM18" s="43">
         <f t="shared" si="3"/>
-        <v>53.181818181818187</v>
+        <v>62.909090909090914</v>
       </c>
       <c r="AN18" s="43"/>
     </row>
-    <row r="19" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="14">
-        <v>202302209</v>
+        <v>202302212</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="15">
-        <v>1028429638</v>
+        <v>1034543395</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="98"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J19" s="43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K19" s="43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L19" s="43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M19" s="43">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="N19" s="43">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O19" s="43">
         <v>10</v>
@@ -3560,66 +3629,70 @@
       <c r="P19" s="43">
         <v>10</v>
       </c>
-      <c r="Q19" s="83">
-        <v>8.5</v>
+      <c r="Q19" s="82">
+        <v>9</v>
       </c>
       <c r="R19" s="43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S19" s="44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T19" s="33">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="U19" s="43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V19" s="43">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="W19" s="43">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X19" s="43">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="Y19" s="43">
         <v>10</v>
       </c>
       <c r="Z19" s="43">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA19" s="43">
         <v>9</v>
       </c>
-      <c r="AB19" s="82">
-        <v>9.5</v>
+      <c r="AB19" s="43">
+        <v>9</v>
       </c>
       <c r="AC19" s="43">
         <v>9.5</v>
       </c>
-      <c r="AD19" s="44"/>
+      <c r="AD19" s="44">
+        <v>9</v>
+      </c>
       <c r="AE19" s="33"/>
       <c r="AF19" s="43"/>
       <c r="AG19" s="43"/>
       <c r="AH19" s="44"/>
       <c r="AI19" s="45">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>103.5</v>
       </c>
       <c r="AJ19" s="43">
         <f t="shared" si="1"/>
-        <v>89.5</v>
+        <v>98.5</v>
       </c>
       <c r="AK19" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="43"/>
+      <c r="AL19" s="43">
+        <v>10</v>
+      </c>
       <c r="AM19" s="43">
         <f t="shared" si="3"/>
-        <v>50.454545454545453</v>
+        <v>65.090909090909093</v>
       </c>
       <c r="AN19" s="43"/>
     </row>
@@ -3628,176 +3701,218 @@
         <v>35</v>
       </c>
       <c r="B20" s="25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="14">
-        <v>202302212</v>
+        <v>202302228</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="15">
-        <v>1034543395</v>
+        <v>1065063292</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="97"/>
       <c r="I20" s="33">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="J20" s="43">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="K20" s="43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" s="43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M20" s="43">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N20" s="43">
         <v>10</v>
       </c>
       <c r="O20" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P20" s="43">
         <v>10</v>
       </c>
-      <c r="Q20" s="83">
-        <v>9</v>
+      <c r="Q20" s="82">
+        <v>9.5</v>
       </c>
       <c r="R20" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S20" s="44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T20" s="33">
+        <v>10</v>
+      </c>
+      <c r="U20" s="43">
+        <v>10</v>
+      </c>
+      <c r="V20" s="43">
+        <v>10</v>
+      </c>
+      <c r="W20" s="43">
+        <v>10</v>
+      </c>
+      <c r="X20" s="43">
         <v>7</v>
       </c>
-      <c r="U20" s="43">
-        <v>10</v>
-      </c>
-      <c r="V20" s="43">
-        <v>9.5</v>
-      </c>
-      <c r="W20" s="43">
-        <v>10</v>
-      </c>
-      <c r="X20" s="43">
-        <v>6</v>
-      </c>
       <c r="Y20" s="43">
         <v>10</v>
       </c>
       <c r="Z20" s="43">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA20" s="43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB20" s="43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC20" s="43">
         <v>9.5</v>
       </c>
-      <c r="AD20" s="44"/>
+      <c r="AD20" s="44">
+        <v>10</v>
+      </c>
       <c r="AE20" s="33"/>
       <c r="AF20" s="43"/>
       <c r="AG20" s="43"/>
       <c r="AH20" s="44"/>
       <c r="AI20" s="45">
         <f t="shared" si="0"/>
-        <v>103.5</v>
+        <v>96.5</v>
       </c>
       <c r="AJ20" s="43">
         <f t="shared" si="1"/>
-        <v>89.5</v>
+        <v>106.5</v>
       </c>
       <c r="AK20" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="43"/>
+      <c r="AL20" s="43">
+        <v>10</v>
+      </c>
       <c r="AM20" s="43">
         <f t="shared" si="3"/>
-        <v>52.636363636363633</v>
+        <v>65.36363636363636</v>
       </c>
       <c r="AN20" s="43"/>
     </row>
-    <row r="21" spans="1:40" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="14">
-        <v>202302215</v>
-      </c>
-      <c r="D21" s="16" t="s">
+        <v>202302229</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="15">
-        <v>1023100766</v>
+        <v>1097630809</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="98"/>
-      <c r="I21" s="79">
-        <v>0</v>
+      <c r="I21" s="33">
+        <v>10</v>
       </c>
       <c r="J21" s="43">
-        <v>9</v>
-      </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="44"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="43">
+        <v>9</v>
+      </c>
+      <c r="L21" s="43">
+        <v>10</v>
+      </c>
+      <c r="M21" s="43">
+        <v>9</v>
+      </c>
+      <c r="N21" s="43">
+        <v>8</v>
+      </c>
+      <c r="O21" s="43">
+        <v>9</v>
+      </c>
+      <c r="P21" s="43">
+        <v>9.5</v>
+      </c>
+      <c r="Q21" s="82">
+        <v>7</v>
+      </c>
+      <c r="R21" s="43">
+        <v>8</v>
+      </c>
+      <c r="S21" s="44">
+        <v>9.5</v>
+      </c>
       <c r="T21" s="33">
+        <v>10</v>
+      </c>
+      <c r="U21" s="43">
+        <v>10</v>
+      </c>
+      <c r="V21" s="43">
+        <v>10</v>
+      </c>
+      <c r="W21" s="43">
+        <v>10</v>
+      </c>
+      <c r="X21" s="43">
         <v>7</v>
       </c>
-      <c r="U21" s="43">
-        <v>10</v>
-      </c>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="44"/>
+      <c r="Y21" s="43">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="43">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="43">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="43">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="43">
+        <v>9.5</v>
+      </c>
+      <c r="AD21" s="44">
+        <v>10</v>
+      </c>
       <c r="AE21" s="33"/>
       <c r="AF21" s="43"/>
       <c r="AG21" s="43"/>
       <c r="AH21" s="44"/>
       <c r="AI21" s="45">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="AJ21" s="43">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>106.5</v>
       </c>
       <c r="AK21" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="43"/>
+      <c r="AL21" s="43">
+        <v>10</v>
+      </c>
       <c r="AM21" s="43">
         <f t="shared" si="3"/>
-        <v>7.0909090909090917</v>
+        <v>66.045454545454547</v>
       </c>
       <c r="AN21" s="43"/>
     </row>
@@ -3806,3667 +3921,3551 @@
         <v>35</v>
       </c>
       <c r="B22" s="25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="14">
-        <v>202302228</v>
+        <v>202302240</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="15">
-        <v>1065063292</v>
+        <v>1041544826</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="33">
-        <v>6.5</v>
+      <c r="H22" s="87"/>
+      <c r="I22" s="78">
+        <v>0</v>
       </c>
       <c r="J22" s="43">
+        <v>9</v>
+      </c>
+      <c r="K22" s="43">
+        <v>8</v>
+      </c>
+      <c r="L22" s="43">
+        <v>9.5</v>
+      </c>
+      <c r="M22" s="43">
         <v>8.5</v>
       </c>
-      <c r="K22" s="43">
-        <v>10</v>
-      </c>
-      <c r="L22" s="43">
-        <v>9</v>
-      </c>
-      <c r="M22" s="43">
-        <v>8</v>
-      </c>
       <c r="N22" s="43">
         <v>10</v>
       </c>
       <c r="O22" s="43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P22" s="43">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="83">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="82">
         <v>9.5</v>
       </c>
       <c r="R22" s="43">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="S22" s="44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T22" s="33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U22" s="43">
         <v>10</v>
       </c>
       <c r="V22" s="43">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W22" s="43">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X22" s="43">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y22" s="43">
         <v>10</v>
       </c>
       <c r="Z22" s="43">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA22" s="43">
         <v>10</v>
       </c>
       <c r="AB22" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC22" s="43">
         <v>9.5</v>
       </c>
-      <c r="AD22" s="44"/>
+      <c r="AD22" s="44">
+        <v>10</v>
+      </c>
       <c r="AE22" s="33"/>
       <c r="AF22" s="43"/>
       <c r="AG22" s="43"/>
       <c r="AH22" s="44"/>
       <c r="AI22" s="45">
         <f t="shared" si="0"/>
-        <v>96.5</v>
+        <v>93</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="1"/>
-        <v>96.5</v>
+        <v>101</v>
       </c>
       <c r="AK22" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="43"/>
+      <c r="AL22" s="43">
+        <v>10</v>
+      </c>
       <c r="AM22" s="43">
         <f t="shared" si="3"/>
-        <v>52.63636363636364</v>
+        <v>62.909090909090907</v>
       </c>
       <c r="AN22" s="43"/>
     </row>
-    <row r="23" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:40" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="25">
-        <v>11</v>
-      </c>
-      <c r="C23" s="14">
-        <v>202302229</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="B23" s="31">
+        <v>12</v>
+      </c>
+      <c r="C23" s="17">
+        <v>202302253</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="15">
-        <v>1097630809</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="33">
-        <v>10</v>
-      </c>
-      <c r="J23" s="43">
-        <v>10</v>
-      </c>
-      <c r="K23" s="43">
-        <v>9</v>
-      </c>
-      <c r="L23" s="43">
-        <v>10</v>
-      </c>
-      <c r="M23" s="43">
-        <v>9</v>
-      </c>
-      <c r="N23" s="43">
-        <v>8</v>
-      </c>
-      <c r="O23" s="43">
-        <v>9</v>
-      </c>
-      <c r="P23" s="43">
-        <v>9.5</v>
+      <c r="E23" s="18">
+        <v>1085764654</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="46">
+        <v>8.5</v>
+      </c>
+      <c r="J23" s="47">
+        <v>6.5</v>
+      </c>
+      <c r="K23" s="47">
+        <v>8.5</v>
+      </c>
+      <c r="L23" s="47">
+        <v>9.5</v>
+      </c>
+      <c r="M23" s="47">
+        <v>7</v>
+      </c>
+      <c r="N23" s="47">
+        <v>9</v>
+      </c>
+      <c r="O23" s="47">
+        <v>8.5</v>
+      </c>
+      <c r="P23" s="47">
+        <v>9</v>
       </c>
       <c r="Q23" s="83">
+        <v>8</v>
+      </c>
+      <c r="R23" s="47">
+        <v>9</v>
+      </c>
+      <c r="S23" s="48">
+        <v>10</v>
+      </c>
+      <c r="T23" s="46">
+        <v>9</v>
+      </c>
+      <c r="U23" s="47">
+        <v>10</v>
+      </c>
+      <c r="V23" s="47">
         <v>7</v>
       </c>
-      <c r="R23" s="43">
-        <v>8</v>
-      </c>
-      <c r="S23" s="44">
-        <v>9.5</v>
-      </c>
-      <c r="T23" s="33">
-        <v>10</v>
-      </c>
-      <c r="U23" s="43">
-        <v>10</v>
-      </c>
-      <c r="V23" s="43">
-        <v>10</v>
-      </c>
-      <c r="W23" s="43">
-        <v>10</v>
-      </c>
-      <c r="X23" s="43">
-        <v>7</v>
-      </c>
-      <c r="Y23" s="43">
-        <v>10</v>
-      </c>
-      <c r="Z23" s="43">
-        <v>10</v>
-      </c>
-      <c r="AA23" s="43">
-        <v>10</v>
-      </c>
-      <c r="AB23" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC23" s="43">
-        <v>9.5</v>
-      </c>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="45">
+      <c r="W23" s="47">
+        <v>9.5</v>
+      </c>
+      <c r="X23" s="47">
+        <v>8.5</v>
+      </c>
+      <c r="Y23" s="47">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="47">
+        <v>9.5</v>
+      </c>
+      <c r="AA23" s="47">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="47">
+        <v>8</v>
+      </c>
+      <c r="AC23" s="47">
+        <v>9.5</v>
+      </c>
+      <c r="AD23" s="48">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="46">
         <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="AJ23" s="43">
+        <v>93.5</v>
+      </c>
+      <c r="AJ23" s="47">
         <f t="shared" si="1"/>
-        <v>96.5</v>
-      </c>
-      <c r="AK23" s="43">
+        <v>101</v>
+      </c>
+      <c r="AK23" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="43">
+      <c r="AL23" s="47">
+        <v>10</v>
+      </c>
+      <c r="AM23" s="47">
         <f t="shared" si="3"/>
-        <v>53.31818181818182</v>
-      </c>
-      <c r="AN23" s="43"/>
+        <v>63.045454545454547</v>
+      </c>
+      <c r="AN23" s="47"/>
     </row>
     <row r="24" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="25">
-        <v>12</v>
-      </c>
-      <c r="C24" s="14">
-        <v>202302240</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="A24" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="27">
+        <v>1</v>
+      </c>
+      <c r="C24" s="28">
+        <v>202101247</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="15">
-        <v>1041544826</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="79">
-        <v>0</v>
-      </c>
-      <c r="J24" s="43">
-        <v>9</v>
-      </c>
-      <c r="K24" s="43">
-        <v>8</v>
-      </c>
-      <c r="L24" s="43">
-        <v>9.5</v>
-      </c>
-      <c r="M24" s="43">
+      <c r="E24" s="29">
+        <v>1064704526</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="49">
+        <v>5.5</v>
+      </c>
+      <c r="J24" s="50">
         <v>8.5</v>
       </c>
-      <c r="N24" s="43">
-        <v>10</v>
-      </c>
-      <c r="O24" s="43">
-        <v>10</v>
-      </c>
-      <c r="P24" s="43">
-        <v>9</v>
-      </c>
-      <c r="Q24" s="83">
-        <v>9.5</v>
-      </c>
-      <c r="R24" s="43">
-        <v>9.5</v>
-      </c>
-      <c r="S24" s="44">
-        <v>10</v>
-      </c>
-      <c r="T24" s="33">
-        <v>9</v>
-      </c>
-      <c r="U24" s="43">
-        <v>10</v>
-      </c>
-      <c r="V24" s="43">
-        <v>7</v>
-      </c>
-      <c r="W24" s="43">
-        <v>9.5</v>
-      </c>
-      <c r="X24" s="43">
-        <v>8.5</v>
-      </c>
-      <c r="Y24" s="43">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="43">
-        <v>9.5</v>
-      </c>
-      <c r="AA24" s="43">
-        <v>10</v>
-      </c>
-      <c r="AB24" s="43">
-        <v>8</v>
-      </c>
-      <c r="AC24" s="43">
-        <v>9.5</v>
-      </c>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="45">
+      <c r="K24" s="50">
+        <v>9</v>
+      </c>
+      <c r="L24" s="50">
+        <v>10</v>
+      </c>
+      <c r="M24" s="50">
+        <v>10</v>
+      </c>
+      <c r="N24" s="50">
+        <v>10</v>
+      </c>
+      <c r="O24" s="50">
+        <v>9</v>
+      </c>
+      <c r="P24" s="50">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="50">
+        <v>10</v>
+      </c>
+      <c r="R24" s="50">
+        <v>9</v>
+      </c>
+      <c r="S24" s="51">
+        <v>10</v>
+      </c>
+      <c r="T24" s="49">
+        <v>7.5</v>
+      </c>
+      <c r="U24" s="50">
+        <v>9</v>
+      </c>
+      <c r="V24" s="50">
+        <v>9</v>
+      </c>
+      <c r="W24" s="50">
+        <v>10</v>
+      </c>
+      <c r="X24" s="50">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="50">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="50">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="50">
+        <v>9</v>
+      </c>
+      <c r="AB24" s="50">
+        <v>9</v>
+      </c>
+      <c r="AC24" s="50">
+        <v>10</v>
+      </c>
+      <c r="AD24" s="51">
+        <v>9</v>
+      </c>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="52">
         <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="AJ24" s="43">
+        <v>101</v>
+      </c>
+      <c r="AJ24" s="53">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="AK24" s="43">
+        <v>101.5</v>
+      </c>
+      <c r="AK24" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43">
-        <f t="shared" si="3"/>
-        <v>50.18181818181818</v>
-      </c>
-      <c r="AN24" s="43"/>
+      <c r="AL24" s="50">
+        <v>10</v>
+      </c>
+      <c r="AM24" s="53">
+        <f>+AI24/(11*10)*30+AJ24/(11*10)*30+AK24+AL24</f>
+        <v>65.227272727272734</v>
+      </c>
+      <c r="AN24" s="50"/>
     </row>
-    <row r="25" spans="1:40" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="31">
-        <v>12</v>
-      </c>
-      <c r="C25" s="17">
-        <v>202302253</v>
-      </c>
-      <c r="D25" s="17" t="s">
+    <row r="25" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="22">
+        <v>1</v>
+      </c>
+      <c r="C25" s="19">
+        <v>202102173</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="18">
-        <v>1085764654</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="47">
-        <v>8.5</v>
-      </c>
-      <c r="J25" s="48">
-        <v>6.5</v>
-      </c>
-      <c r="K25" s="48">
-        <v>8.5</v>
-      </c>
-      <c r="L25" s="48">
-        <v>9.5</v>
-      </c>
-      <c r="M25" s="48">
+      <c r="E25" s="20">
+        <v>1041993515</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="54">
         <v>7</v>
       </c>
-      <c r="N25" s="48">
-        <v>9</v>
-      </c>
-      <c r="O25" s="48">
-        <v>8.5</v>
-      </c>
-      <c r="P25" s="48">
-        <v>9</v>
-      </c>
-      <c r="Q25" s="84">
-        <v>8</v>
-      </c>
-      <c r="R25" s="48">
-        <v>9</v>
-      </c>
-      <c r="S25" s="49">
-        <v>10</v>
-      </c>
-      <c r="T25" s="47">
-        <v>9</v>
-      </c>
-      <c r="U25" s="48">
-        <v>10</v>
-      </c>
-      <c r="V25" s="48">
-        <v>7</v>
-      </c>
-      <c r="W25" s="48">
-        <v>9.5</v>
-      </c>
-      <c r="X25" s="48">
-        <v>8.5</v>
-      </c>
-      <c r="Y25" s="48">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="48">
-        <v>9.5</v>
-      </c>
-      <c r="AA25" s="48">
-        <v>10</v>
-      </c>
-      <c r="AB25" s="48">
-        <v>8</v>
-      </c>
-      <c r="AC25" s="48">
-        <v>9.5</v>
-      </c>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="47">
+      <c r="J25" s="55">
+        <v>10</v>
+      </c>
+      <c r="K25" s="55">
+        <v>8</v>
+      </c>
+      <c r="L25" s="55">
+        <v>10</v>
+      </c>
+      <c r="M25" s="55">
+        <v>5.5</v>
+      </c>
+      <c r="N25" s="55">
+        <v>10</v>
+      </c>
+      <c r="O25" s="55">
+        <v>10</v>
+      </c>
+      <c r="P25" s="55">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="55">
+        <v>9</v>
+      </c>
+      <c r="R25" s="55">
+        <v>9</v>
+      </c>
+      <c r="S25" s="56">
+        <v>10</v>
+      </c>
+      <c r="T25" s="54">
+        <v>7.5</v>
+      </c>
+      <c r="U25" s="55">
+        <v>9</v>
+      </c>
+      <c r="V25" s="55">
+        <v>9</v>
+      </c>
+      <c r="W25" s="55">
+        <v>10</v>
+      </c>
+      <c r="X25" s="55">
+        <v>9</v>
+      </c>
+      <c r="Y25" s="55">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="55">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="55">
+        <v>9</v>
+      </c>
+      <c r="AB25" s="55">
+        <v>9</v>
+      </c>
+      <c r="AC25" s="55">
+        <v>10</v>
+      </c>
+      <c r="AD25" s="56">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="57">
         <f t="shared" si="0"/>
-        <v>93.5</v>
-      </c>
-      <c r="AJ25" s="48">
+        <v>98.5</v>
+      </c>
+      <c r="AJ25" s="58">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="AK25" s="48">
+        <v>101.5</v>
+      </c>
+      <c r="AK25" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48">
+      <c r="AL25" s="55">
+        <v>10</v>
+      </c>
+      <c r="AM25" s="58">
         <f t="shared" si="3"/>
-        <v>50.318181818181813</v>
-      </c>
-      <c r="AN25" s="48"/>
+        <v>64.545454545454547</v>
+      </c>
+      <c r="AN25" s="55"/>
     </row>
     <row r="26" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="27">
-        <v>1</v>
-      </c>
-      <c r="C26" s="28">
-        <v>202101247</v>
-      </c>
-      <c r="D26" s="28" t="s">
+      <c r="B26" s="22">
+        <v>2</v>
+      </c>
+      <c r="C26" s="19">
+        <v>202102178</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="29">
-        <v>1064704526</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="J26" s="51">
+      <c r="E26" s="20">
+        <v>1025548196</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="54">
+        <v>8</v>
+      </c>
+      <c r="J26" s="55">
         <v>8.5</v>
       </c>
-      <c r="K26" s="51">
-        <v>9</v>
-      </c>
-      <c r="L26" s="51">
-        <v>10</v>
-      </c>
-      <c r="M26" s="51">
-        <v>10</v>
-      </c>
-      <c r="N26" s="51">
-        <v>10</v>
-      </c>
-      <c r="O26" s="51">
-        <v>9</v>
-      </c>
-      <c r="P26" s="51">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="51">
-        <v>10</v>
-      </c>
-      <c r="R26" s="51">
-        <v>9</v>
-      </c>
-      <c r="S26" s="52">
-        <v>10</v>
-      </c>
-      <c r="T26" s="50">
+      <c r="K26" s="55">
+        <v>10</v>
+      </c>
+      <c r="L26" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="M26" s="55">
+        <v>9</v>
+      </c>
+      <c r="N26" s="55">
+        <v>9</v>
+      </c>
+      <c r="O26" s="55">
+        <v>9</v>
+      </c>
+      <c r="P26" s="55">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="55">
+        <v>9</v>
+      </c>
+      <c r="R26" s="55">
         <v>7.5</v>
       </c>
-      <c r="U26" s="51">
-        <v>9</v>
-      </c>
-      <c r="V26" s="51">
-        <v>9</v>
-      </c>
-      <c r="W26" s="51">
-        <v>10</v>
-      </c>
-      <c r="X26" s="51">
-        <v>9</v>
-      </c>
-      <c r="Y26" s="51">
-        <v>10</v>
-      </c>
-      <c r="Z26" s="51">
-        <v>10</v>
-      </c>
-      <c r="AA26" s="51">
-        <v>9</v>
-      </c>
-      <c r="AB26" s="51">
-        <v>9</v>
-      </c>
-      <c r="AC26" s="51">
-        <v>10</v>
-      </c>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="53">
+      <c r="S26" s="56">
+        <v>10</v>
+      </c>
+      <c r="T26" s="54">
+        <v>8</v>
+      </c>
+      <c r="U26" s="55">
+        <v>7</v>
+      </c>
+      <c r="V26" s="55">
+        <v>6</v>
+      </c>
+      <c r="W26" s="55">
+        <v>9</v>
+      </c>
+      <c r="X26" s="55">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="55">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AA26" s="55">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="55">
+        <v>9</v>
+      </c>
+      <c r="AC26" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AD26" s="56">
+        <v>10</v>
+      </c>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="57">
         <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="AJ26" s="54">
+        <v>99.5</v>
+      </c>
+      <c r="AJ26" s="58">
         <f t="shared" si="1"/>
-        <v>92.5</v>
-      </c>
-      <c r="AK26" s="54">
+        <v>94</v>
+      </c>
+      <c r="AK26" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="54">
-        <f>+AI26/(11*10)*30+AJ26/(11*10)*30+AK26+AL26</f>
-        <v>52.772727272727273</v>
-      </c>
-      <c r="AN26" s="51"/>
+      <c r="AL26" s="55">
+        <v>10</v>
+      </c>
+      <c r="AM26" s="58">
+        <f t="shared" si="3"/>
+        <v>62.772727272727266</v>
+      </c>
+      <c r="AN26" s="55"/>
     </row>
     <row r="27" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="19">
-        <v>202102173</v>
+        <v>202102179</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="20">
-        <v>1041993515</v>
+        <v>1084775680</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="55">
+      <c r="H27" s="94"/>
+      <c r="I27" s="54">
+        <v>10</v>
+      </c>
+      <c r="J27" s="55">
+        <v>10</v>
+      </c>
+      <c r="K27" s="55">
+        <v>10</v>
+      </c>
+      <c r="L27" s="55">
+        <v>10</v>
+      </c>
+      <c r="M27" s="55">
+        <v>9</v>
+      </c>
+      <c r="N27" s="55">
+        <v>10</v>
+      </c>
+      <c r="O27" s="55">
+        <v>9</v>
+      </c>
+      <c r="P27" s="55">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="55">
+        <v>10</v>
+      </c>
+      <c r="R27" s="55">
+        <v>9</v>
+      </c>
+      <c r="S27" s="56">
+        <v>10</v>
+      </c>
+      <c r="T27" s="54">
+        <v>8</v>
+      </c>
+      <c r="U27" s="55">
         <v>7</v>
       </c>
-      <c r="J27" s="56">
-        <v>10</v>
-      </c>
-      <c r="K27" s="56">
-        <v>8</v>
-      </c>
-      <c r="L27" s="56">
-        <v>10</v>
-      </c>
-      <c r="M27" s="56">
-        <v>5.5</v>
-      </c>
-      <c r="N27" s="56">
-        <v>10</v>
-      </c>
-      <c r="O27" s="56">
-        <v>10</v>
-      </c>
-      <c r="P27" s="56">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="56">
-        <v>9</v>
-      </c>
-      <c r="R27" s="56">
-        <v>9</v>
-      </c>
-      <c r="S27" s="57">
-        <v>10</v>
-      </c>
-      <c r="T27" s="55">
-        <v>7.5</v>
-      </c>
-      <c r="U27" s="56">
-        <v>9</v>
-      </c>
-      <c r="V27" s="56">
-        <v>9</v>
-      </c>
-      <c r="W27" s="56">
-        <v>10</v>
-      </c>
-      <c r="X27" s="56">
-        <v>9</v>
-      </c>
-      <c r="Y27" s="56">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="56">
-        <v>10</v>
-      </c>
-      <c r="AA27" s="56">
-        <v>9</v>
-      </c>
-      <c r="AB27" s="56">
-        <v>9</v>
-      </c>
-      <c r="AC27" s="56">
-        <v>10</v>
-      </c>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="58">
+      <c r="V27" s="55">
+        <v>6</v>
+      </c>
+      <c r="W27" s="55">
+        <v>9</v>
+      </c>
+      <c r="X27" s="55">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="55">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AA27" s="55">
+        <v>10</v>
+      </c>
+      <c r="AB27" s="55">
+        <v>9</v>
+      </c>
+      <c r="AC27" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AD27" s="56">
+        <v>10</v>
+      </c>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="57">
         <f t="shared" si="0"/>
-        <v>98.5</v>
-      </c>
-      <c r="AJ27" s="59">
+        <v>107</v>
+      </c>
+      <c r="AJ27" s="58">
         <f t="shared" si="1"/>
-        <v>92.5</v>
-      </c>
-      <c r="AK27" s="59">
+        <v>94</v>
+      </c>
+      <c r="AK27" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="59">
+      <c r="AL27" s="55">
+        <v>10</v>
+      </c>
+      <c r="AM27" s="58">
         <f t="shared" si="3"/>
-        <v>52.090909090909093</v>
-      </c>
-      <c r="AN27" s="56"/>
+        <v>64.818181818181813</v>
+      </c>
+      <c r="AN27" s="55"/>
     </row>
     <row r="28" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="19">
-        <v>202102178</v>
+        <v>202102182</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="20">
-        <v>1025548196</v>
+        <v>1080032181</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="55">
-        <v>8</v>
-      </c>
-      <c r="J28" s="56">
-        <v>8.5</v>
-      </c>
-      <c r="K28" s="56">
-        <v>10</v>
-      </c>
-      <c r="L28" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="M28" s="56">
-        <v>9</v>
-      </c>
-      <c r="N28" s="56">
-        <v>9</v>
-      </c>
-      <c r="O28" s="56">
-        <v>9</v>
-      </c>
-      <c r="P28" s="56">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="56">
-        <v>9</v>
-      </c>
-      <c r="R28" s="56">
-        <v>7.5</v>
-      </c>
-      <c r="S28" s="57">
-        <v>10</v>
-      </c>
-      <c r="T28" s="55">
-        <v>8</v>
-      </c>
-      <c r="U28" s="56">
-        <v>7</v>
-      </c>
-      <c r="V28" s="56">
-        <v>6</v>
-      </c>
-      <c r="W28" s="56">
-        <v>9</v>
-      </c>
-      <c r="X28" s="56">
-        <v>8</v>
-      </c>
-      <c r="Y28" s="56">
-        <v>8</v>
-      </c>
-      <c r="Z28" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AA28" s="56">
-        <v>10</v>
-      </c>
-      <c r="AB28" s="56">
-        <v>9</v>
-      </c>
-      <c r="AC28" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="58">
+      <c r="H28" s="95"/>
+      <c r="I28" s="54">
+        <v>9</v>
+      </c>
+      <c r="J28" s="55">
+        <v>8</v>
+      </c>
+      <c r="K28" s="55">
+        <v>9</v>
+      </c>
+      <c r="L28" s="55">
+        <v>10</v>
+      </c>
+      <c r="M28" s="55">
+        <v>9</v>
+      </c>
+      <c r="N28" s="55">
+        <v>10</v>
+      </c>
+      <c r="O28" s="55">
+        <v>10</v>
+      </c>
+      <c r="P28" s="55">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="R28" s="55">
+        <v>10</v>
+      </c>
+      <c r="S28" s="56">
+        <v>10</v>
+      </c>
+      <c r="T28" s="54">
+        <v>10</v>
+      </c>
+      <c r="U28" s="55">
+        <v>10</v>
+      </c>
+      <c r="V28" s="55">
+        <v>9</v>
+      </c>
+      <c r="W28" s="55">
+        <v>10</v>
+      </c>
+      <c r="X28" s="55">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="55">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="55">
+        <v>9</v>
+      </c>
+      <c r="AA28" s="55">
+        <v>9</v>
+      </c>
+      <c r="AB28" s="55">
+        <v>9</v>
+      </c>
+      <c r="AC28" s="55">
+        <v>10</v>
+      </c>
+      <c r="AD28" s="56">
+        <v>10</v>
+      </c>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="57">
         <f t="shared" si="0"/>
-        <v>99.5</v>
-      </c>
-      <c r="AJ28" s="59">
+        <v>104.5</v>
+      </c>
+      <c r="AJ28" s="58">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="AK28" s="59">
+        <v>106</v>
+      </c>
+      <c r="AK28" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="59">
+      <c r="AL28" s="55">
+        <v>10</v>
+      </c>
+      <c r="AM28" s="58">
         <f t="shared" si="3"/>
-        <v>50.045454545454547</v>
-      </c>
-      <c r="AN28" s="56"/>
+        <v>67.409090909090907</v>
+      </c>
+      <c r="AN28" s="55"/>
     </row>
     <row r="29" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="19">
-        <v>202102179</v>
+        <v>202102183</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="20">
-        <v>1084775680</v>
+        <v>1035547469</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="55">
-        <v>10</v>
-      </c>
-      <c r="J29" s="56">
-        <v>10</v>
-      </c>
-      <c r="K29" s="56">
-        <v>10</v>
-      </c>
-      <c r="L29" s="56">
-        <v>10</v>
-      </c>
-      <c r="M29" s="56">
-        <v>9</v>
-      </c>
-      <c r="N29" s="56">
-        <v>10</v>
-      </c>
-      <c r="O29" s="56">
-        <v>9</v>
-      </c>
-      <c r="P29" s="56">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="56">
-        <v>10</v>
-      </c>
-      <c r="R29" s="56">
-        <v>9</v>
-      </c>
-      <c r="S29" s="57">
-        <v>10</v>
-      </c>
-      <c r="T29" s="55">
-        <v>8</v>
-      </c>
-      <c r="U29" s="56">
-        <v>7</v>
-      </c>
-      <c r="V29" s="56">
-        <v>6</v>
-      </c>
-      <c r="W29" s="56">
-        <v>9</v>
-      </c>
-      <c r="X29" s="56">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="56">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AA29" s="56">
-        <v>10</v>
-      </c>
-      <c r="AB29" s="56">
-        <v>9</v>
-      </c>
-      <c r="AC29" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="58">
+      <c r="H29" s="94"/>
+      <c r="I29" s="54">
+        <v>8</v>
+      </c>
+      <c r="J29" s="55">
+        <v>10</v>
+      </c>
+      <c r="K29" s="55">
+        <v>9</v>
+      </c>
+      <c r="L29" s="55">
+        <v>10</v>
+      </c>
+      <c r="M29" s="55">
+        <v>10</v>
+      </c>
+      <c r="N29" s="55">
+        <v>10</v>
+      </c>
+      <c r="O29" s="55">
+        <v>9</v>
+      </c>
+      <c r="P29" s="55">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="55">
+        <v>10</v>
+      </c>
+      <c r="R29" s="55">
+        <v>9</v>
+      </c>
+      <c r="S29" s="56">
+        <v>10</v>
+      </c>
+      <c r="T29" s="54">
+        <v>10</v>
+      </c>
+      <c r="U29" s="55">
+        <v>10</v>
+      </c>
+      <c r="V29" s="55">
+        <v>9</v>
+      </c>
+      <c r="W29" s="55">
+        <v>10</v>
+      </c>
+      <c r="X29" s="55">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="55">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="55">
+        <v>9</v>
+      </c>
+      <c r="AA29" s="55">
+        <v>9</v>
+      </c>
+      <c r="AB29" s="55">
+        <v>9</v>
+      </c>
+      <c r="AC29" s="55">
+        <v>10</v>
+      </c>
+      <c r="AD29" s="56">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="57">
         <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="AJ29" s="59">
+        <v>105</v>
+      </c>
+      <c r="AJ29" s="58">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="AK29" s="59">
+        <v>106</v>
+      </c>
+      <c r="AK29" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="59">
+      <c r="AL29" s="55">
+        <v>10</v>
+      </c>
+      <c r="AM29" s="58">
         <f t="shared" si="3"/>
-        <v>52.090909090909093</v>
-      </c>
-      <c r="AN29" s="56"/>
+        <v>67.545454545454547</v>
+      </c>
+      <c r="AN29" s="55"/>
     </row>
     <row r="30" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="19">
-        <v>202102182</v>
+        <v>202102187</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E30" s="20">
-        <v>1080032181</v>
+        <v>1072025802</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="55">
-        <v>9</v>
-      </c>
-      <c r="J30" s="56">
-        <v>8</v>
-      </c>
-      <c r="K30" s="56">
-        <v>9</v>
-      </c>
-      <c r="L30" s="56">
-        <v>10</v>
-      </c>
-      <c r="M30" s="56">
-        <v>9</v>
-      </c>
-      <c r="N30" s="56">
-        <v>10</v>
-      </c>
-      <c r="O30" s="56">
-        <v>10</v>
-      </c>
-      <c r="P30" s="56">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="R30" s="56">
-        <v>10</v>
-      </c>
-      <c r="S30" s="57">
-        <v>10</v>
-      </c>
-      <c r="T30" s="55">
-        <v>10</v>
-      </c>
-      <c r="U30" s="56">
-        <v>10</v>
-      </c>
-      <c r="V30" s="56">
-        <v>9</v>
-      </c>
-      <c r="W30" s="56">
-        <v>10</v>
-      </c>
-      <c r="X30" s="56">
-        <v>10</v>
-      </c>
-      <c r="Y30" s="56">
-        <v>10</v>
-      </c>
-      <c r="Z30" s="56">
-        <v>9</v>
-      </c>
-      <c r="AA30" s="56">
-        <v>9</v>
-      </c>
-      <c r="AB30" s="56">
-        <v>9</v>
-      </c>
-      <c r="AC30" s="56">
-        <v>10</v>
-      </c>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="58">
+      <c r="H30" s="89"/>
+      <c r="I30" s="54">
+        <v>5.5</v>
+      </c>
+      <c r="J30" s="55">
+        <v>9</v>
+      </c>
+      <c r="K30" s="55">
+        <v>7</v>
+      </c>
+      <c r="L30" s="55">
+        <v>7.5</v>
+      </c>
+      <c r="M30" s="55">
+        <v>7</v>
+      </c>
+      <c r="N30" s="55">
+        <v>7</v>
+      </c>
+      <c r="O30" s="55">
+        <v>10</v>
+      </c>
+      <c r="P30" s="55">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="R30" s="55">
+        <v>9</v>
+      </c>
+      <c r="S30" s="56">
+        <v>8.5</v>
+      </c>
+      <c r="T30" s="54">
+        <v>6</v>
+      </c>
+      <c r="U30" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="V30" s="55">
+        <v>9</v>
+      </c>
+      <c r="W30" s="55">
+        <v>9</v>
+      </c>
+      <c r="X30" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="Y30" s="55">
+        <v>8</v>
+      </c>
+      <c r="Z30" s="55">
+        <v>8</v>
+      </c>
+      <c r="AA30" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AB30" s="55">
+        <v>9</v>
+      </c>
+      <c r="AC30" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AD30" s="56">
+        <v>10</v>
+      </c>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="57">
         <f t="shared" si="0"/>
-        <v>104.5</v>
-      </c>
-      <c r="AJ30" s="59">
+        <v>89</v>
+      </c>
+      <c r="AJ30" s="58">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="AK30" s="59">
+        <v>91</v>
+      </c>
+      <c r="AK30" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="59">
+      <c r="AL30" s="55">
+        <v>10</v>
+      </c>
+      <c r="AM30" s="58">
         <f t="shared" si="3"/>
-        <v>54.68181818181818</v>
-      </c>
-      <c r="AN30" s="56"/>
+        <v>59.090909090909093</v>
+      </c>
+      <c r="AN30" s="55"/>
     </row>
     <row r="31" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="19">
-        <v>202102183</v>
+        <v>202102189</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="20">
-        <v>1035547469</v>
+        <v>1043552635</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="55">
-        <v>8</v>
-      </c>
-      <c r="J31" s="56">
-        <v>10</v>
-      </c>
-      <c r="K31" s="56">
-        <v>9</v>
-      </c>
-      <c r="L31" s="56">
-        <v>10</v>
-      </c>
-      <c r="M31" s="56">
-        <v>10</v>
-      </c>
-      <c r="N31" s="56">
-        <v>10</v>
-      </c>
-      <c r="O31" s="56">
-        <v>9</v>
-      </c>
-      <c r="P31" s="56">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="56">
-        <v>10</v>
-      </c>
-      <c r="R31" s="56">
-        <v>9</v>
-      </c>
-      <c r="S31" s="57">
-        <v>10</v>
-      </c>
-      <c r="T31" s="55">
-        <v>10</v>
-      </c>
-      <c r="U31" s="56">
-        <v>10</v>
-      </c>
-      <c r="V31" s="56">
-        <v>9</v>
-      </c>
-      <c r="W31" s="56">
-        <v>10</v>
-      </c>
-      <c r="X31" s="56">
-        <v>10</v>
-      </c>
-      <c r="Y31" s="56">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="56">
-        <v>9</v>
-      </c>
-      <c r="AA31" s="56">
-        <v>9</v>
-      </c>
-      <c r="AB31" s="56">
-        <v>9</v>
-      </c>
-      <c r="AC31" s="56">
-        <v>10</v>
-      </c>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="58">
+      <c r="H31" s="90"/>
+      <c r="I31" s="54">
+        <v>10</v>
+      </c>
+      <c r="J31" s="55">
+        <v>10</v>
+      </c>
+      <c r="K31" s="55">
+        <v>8</v>
+      </c>
+      <c r="L31" s="55">
+        <v>10</v>
+      </c>
+      <c r="M31" s="55">
+        <v>5</v>
+      </c>
+      <c r="N31" s="55">
+        <v>10</v>
+      </c>
+      <c r="O31" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="P31" s="55">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="55">
+        <v>8.5</v>
+      </c>
+      <c r="R31" s="55">
+        <v>7</v>
+      </c>
+      <c r="S31" s="56">
+        <v>10</v>
+      </c>
+      <c r="T31" s="54">
+        <v>6</v>
+      </c>
+      <c r="U31" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="V31" s="55">
+        <v>9</v>
+      </c>
+      <c r="W31" s="55">
+        <v>9</v>
+      </c>
+      <c r="X31" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="Y31" s="55">
+        <v>8</v>
+      </c>
+      <c r="Z31" s="55">
+        <v>8</v>
+      </c>
+      <c r="AA31" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AB31" s="55">
+        <v>9</v>
+      </c>
+      <c r="AC31" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AD31" s="56">
+        <v>10</v>
+      </c>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="57">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="AJ31" s="59">
+        <v>98</v>
+      </c>
+      <c r="AJ31" s="58">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="AK31" s="59">
+        <v>91</v>
+      </c>
+      <c r="AK31" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="59">
+      <c r="AL31" s="55">
+        <v>10</v>
+      </c>
+      <c r="AM31" s="58">
         <f t="shared" si="3"/>
-        <v>54.818181818181813</v>
-      </c>
-      <c r="AN31" s="56"/>
+        <v>61.545454545454547</v>
+      </c>
+      <c r="AN31" s="55"/>
     </row>
     <row r="32" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="19">
-        <v>202102187</v>
+        <v>202102195</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E32" s="20">
-        <v>1072025802</v>
+        <v>1032998886</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="55">
-        <v>5.5</v>
-      </c>
-      <c r="J32" s="56">
-        <v>9</v>
-      </c>
-      <c r="K32" s="56">
-        <v>7</v>
-      </c>
-      <c r="L32" s="56">
-        <v>7.5</v>
-      </c>
-      <c r="M32" s="56">
-        <v>7</v>
-      </c>
-      <c r="N32" s="56">
-        <v>7</v>
-      </c>
-      <c r="O32" s="56">
-        <v>10</v>
-      </c>
-      <c r="P32" s="56">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="R32" s="56">
-        <v>9</v>
-      </c>
-      <c r="S32" s="57">
-        <v>8.5</v>
-      </c>
-      <c r="T32" s="55">
-        <v>6</v>
-      </c>
-      <c r="U32" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="V32" s="56">
-        <v>9</v>
-      </c>
-      <c r="W32" s="56">
-        <v>9</v>
-      </c>
-      <c r="X32" s="56">
-        <v>3.5</v>
-      </c>
-      <c r="Y32" s="56">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="56">
-        <v>8</v>
-      </c>
-      <c r="AA32" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AB32" s="56">
-        <v>9</v>
-      </c>
-      <c r="AC32" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AD32" s="57"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="58">
+      <c r="H32" s="91"/>
+      <c r="I32" s="54">
+        <v>8</v>
+      </c>
+      <c r="J32" s="55">
+        <v>10</v>
+      </c>
+      <c r="K32" s="55">
+        <v>10</v>
+      </c>
+      <c r="L32" s="55">
+        <v>10</v>
+      </c>
+      <c r="M32" s="55">
+        <v>10</v>
+      </c>
+      <c r="N32" s="55">
+        <v>9</v>
+      </c>
+      <c r="O32" s="55">
+        <v>10</v>
+      </c>
+      <c r="P32" s="55">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="55">
+        <v>10</v>
+      </c>
+      <c r="R32" s="55">
+        <v>10</v>
+      </c>
+      <c r="S32" s="56">
+        <v>10</v>
+      </c>
+      <c r="T32" s="54">
+        <v>9</v>
+      </c>
+      <c r="U32" s="55">
+        <v>9</v>
+      </c>
+      <c r="V32" s="55">
+        <v>10</v>
+      </c>
+      <c r="W32" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="X32" s="55">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="55">
+        <v>9</v>
+      </c>
+      <c r="Z32" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AA32" s="55">
+        <v>10</v>
+      </c>
+      <c r="AB32" s="55">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AD32" s="56">
+        <v>9</v>
+      </c>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="57">
         <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="AJ32" s="59">
+        <v>107</v>
+      </c>
+      <c r="AJ32" s="58">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="AK32" s="59">
+        <v>104.5</v>
+      </c>
+      <c r="AK32" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="59">
+      <c r="AL32" s="55">
+        <v>10</v>
+      </c>
+      <c r="AM32" s="58">
         <f t="shared" si="3"/>
-        <v>46.36363636363636</v>
-      </c>
-      <c r="AN32" s="56"/>
+        <v>67.681818181818187</v>
+      </c>
+      <c r="AN32" s="55"/>
     </row>
     <row r="33" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="19">
-        <v>202102189</v>
+        <v>202102196</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="20">
-        <v>1043552635</v>
+        <v>1046262504</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="55">
-        <v>10</v>
-      </c>
-      <c r="J33" s="56">
-        <v>10</v>
-      </c>
-      <c r="K33" s="56">
-        <v>8</v>
-      </c>
-      <c r="L33" s="56">
-        <v>10</v>
-      </c>
-      <c r="M33" s="56">
-        <v>5</v>
-      </c>
-      <c r="N33" s="56">
-        <v>10</v>
-      </c>
-      <c r="O33" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="P33" s="56">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="56">
+      <c r="H33" s="92"/>
+      <c r="I33" s="54">
+        <v>8</v>
+      </c>
+      <c r="J33" s="55">
+        <v>10</v>
+      </c>
+      <c r="K33" s="55">
+        <v>8</v>
+      </c>
+      <c r="L33" s="55">
+        <v>10</v>
+      </c>
+      <c r="M33" s="55">
+        <v>9</v>
+      </c>
+      <c r="N33" s="55">
+        <v>10</v>
+      </c>
+      <c r="O33" s="55">
+        <v>10</v>
+      </c>
+      <c r="P33" s="55">
         <v>8.5</v>
       </c>
-      <c r="R33" s="56">
-        <v>7</v>
-      </c>
-      <c r="S33" s="57">
-        <v>10</v>
-      </c>
-      <c r="T33" s="55">
-        <v>6</v>
-      </c>
-      <c r="U33" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="V33" s="56">
-        <v>9</v>
-      </c>
-      <c r="W33" s="56">
-        <v>9</v>
-      </c>
-      <c r="X33" s="56">
-        <v>3.5</v>
-      </c>
-      <c r="Y33" s="56">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="56">
-        <v>8</v>
-      </c>
-      <c r="AA33" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AB33" s="56">
-        <v>9</v>
-      </c>
-      <c r="AC33" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AD33" s="57"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="58">
+      <c r="Q33" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="R33" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="S33" s="56">
+        <v>10</v>
+      </c>
+      <c r="T33" s="54">
+        <v>9</v>
+      </c>
+      <c r="U33" s="55">
+        <v>9</v>
+      </c>
+      <c r="V33" s="55">
+        <v>10</v>
+      </c>
+      <c r="W33" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="X33" s="55">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="55">
+        <v>9</v>
+      </c>
+      <c r="Z33" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AA33" s="55">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="55">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="AD33" s="56">
+        <v>9</v>
+      </c>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="57">
         <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="AJ33" s="59">
+        <v>102.5</v>
+      </c>
+      <c r="AJ33" s="58">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="AK33" s="59">
+        <v>104.5</v>
+      </c>
+      <c r="AK33" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="59">
+      <c r="AL33" s="55">
+        <v>10</v>
+      </c>
+      <c r="AM33" s="58">
         <f t="shared" si="3"/>
-        <v>48.818181818181813</v>
-      </c>
-      <c r="AN33" s="56"/>
+        <v>66.454545454545453</v>
+      </c>
+      <c r="AN33" s="55"/>
     </row>
     <row r="34" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="19">
-        <v>202102195</v>
+        <v>202102209</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="20">
-        <v>1032998886</v>
+        <v>1092448601</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="55">
-        <v>8</v>
-      </c>
-      <c r="J34" s="56">
-        <v>10</v>
-      </c>
-      <c r="K34" s="56">
-        <v>10</v>
-      </c>
-      <c r="L34" s="56">
-        <v>10</v>
-      </c>
-      <c r="M34" s="56">
-        <v>10</v>
-      </c>
-      <c r="N34" s="56">
-        <v>9</v>
-      </c>
-      <c r="O34" s="56">
-        <v>10</v>
-      </c>
-      <c r="P34" s="56">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="56">
-        <v>10</v>
-      </c>
-      <c r="R34" s="56">
-        <v>10</v>
-      </c>
-      <c r="S34" s="57">
-        <v>10</v>
-      </c>
-      <c r="T34" s="55">
-        <v>9</v>
-      </c>
-      <c r="U34" s="56">
-        <v>9</v>
-      </c>
-      <c r="V34" s="56">
-        <v>10</v>
-      </c>
-      <c r="W34" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="X34" s="56">
-        <v>10</v>
-      </c>
-      <c r="Y34" s="56">
-        <v>9</v>
-      </c>
-      <c r="Z34" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AA34" s="56">
-        <v>10</v>
-      </c>
-      <c r="AB34" s="56">
-        <v>10</v>
-      </c>
-      <c r="AC34" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AD34" s="57"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="57"/>
-      <c r="AI34" s="58">
+      <c r="H34" s="89"/>
+      <c r="I34" s="54">
+        <v>8</v>
+      </c>
+      <c r="J34" s="55">
+        <v>10</v>
+      </c>
+      <c r="K34" s="55">
+        <v>9</v>
+      </c>
+      <c r="L34" s="55">
+        <v>8</v>
+      </c>
+      <c r="M34" s="55">
+        <v>10</v>
+      </c>
+      <c r="N34" s="55">
+        <v>9</v>
+      </c>
+      <c r="O34" s="55">
+        <v>8</v>
+      </c>
+      <c r="P34" s="55">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="R34" s="55">
+        <v>10</v>
+      </c>
+      <c r="S34" s="56">
+        <v>9</v>
+      </c>
+      <c r="T34" s="54">
+        <v>10</v>
+      </c>
+      <c r="U34" s="55">
+        <v>10</v>
+      </c>
+      <c r="V34" s="55">
+        <v>9</v>
+      </c>
+      <c r="W34" s="55">
+        <v>10</v>
+      </c>
+      <c r="X34" s="55">
+        <v>9</v>
+      </c>
+      <c r="Y34" s="55">
+        <v>9</v>
+      </c>
+      <c r="Z34" s="55">
+        <v>8</v>
+      </c>
+      <c r="AA34" s="55">
+        <v>9</v>
+      </c>
+      <c r="AB34" s="55">
+        <v>9</v>
+      </c>
+      <c r="AC34" s="55">
+        <v>9</v>
+      </c>
+      <c r="AD34" s="56">
+        <v>10</v>
+      </c>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="57">
         <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="AJ34" s="59">
+        <v>100.5</v>
+      </c>
+      <c r="AJ34" s="58">
         <f t="shared" si="1"/>
-        <v>95.5</v>
-      </c>
-      <c r="AK34" s="59">
+        <v>102</v>
+      </c>
+      <c r="AK34" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="59">
+      <c r="AL34" s="55">
+        <v>10</v>
+      </c>
+      <c r="AM34" s="58">
         <f t="shared" si="3"/>
-        <v>55.227272727272734</v>
-      </c>
-      <c r="AN34" s="56"/>
+        <v>65.22727272727272</v>
+      </c>
+      <c r="AN34" s="55"/>
     </row>
     <row r="35" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="19">
-        <v>202102196</v>
+        <v>202102212</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>79</v>
       </c>
       <c r="E35" s="20">
-        <v>1046262504</v>
+        <v>1044907503</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="55">
-        <v>8</v>
-      </c>
-      <c r="J35" s="56">
-        <v>10</v>
-      </c>
-      <c r="K35" s="56">
-        <v>8</v>
-      </c>
-      <c r="L35" s="56">
-        <v>10</v>
-      </c>
-      <c r="M35" s="56">
-        <v>9</v>
-      </c>
-      <c r="N35" s="56">
-        <v>10</v>
-      </c>
-      <c r="O35" s="56">
-        <v>10</v>
-      </c>
-      <c r="P35" s="56">
+      <c r="H35" s="90"/>
+      <c r="I35" s="54">
+        <v>8</v>
+      </c>
+      <c r="J35" s="55">
+        <v>6.5</v>
+      </c>
+      <c r="K35" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="L35" s="55">
+        <v>10</v>
+      </c>
+      <c r="M35" s="55">
         <v>8.5</v>
       </c>
-      <c r="Q35" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="R35" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="S35" s="57">
-        <v>10</v>
-      </c>
-      <c r="T35" s="55">
-        <v>9</v>
-      </c>
-      <c r="U35" s="56">
-        <v>9</v>
-      </c>
-      <c r="V35" s="56">
-        <v>10</v>
-      </c>
-      <c r="W35" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="X35" s="56">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="56">
-        <v>9</v>
-      </c>
-      <c r="Z35" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AA35" s="56">
-        <v>10</v>
-      </c>
-      <c r="AB35" s="56">
-        <v>10</v>
-      </c>
-      <c r="AC35" s="56">
-        <v>9.5</v>
-      </c>
-      <c r="AD35" s="57"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="57"/>
-      <c r="AI35" s="58">
+      <c r="N35" s="55">
+        <v>10</v>
+      </c>
+      <c r="O35" s="55">
+        <v>10</v>
+      </c>
+      <c r="P35" s="55">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="55">
+        <v>9</v>
+      </c>
+      <c r="R35" s="55">
+        <v>10</v>
+      </c>
+      <c r="S35" s="56">
+        <v>9.5</v>
+      </c>
+      <c r="T35" s="54">
+        <v>10</v>
+      </c>
+      <c r="U35" s="55">
+        <v>10</v>
+      </c>
+      <c r="V35" s="55">
+        <v>9</v>
+      